--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2772</v>
+        <v>0.273299</v>
       </c>
       <c r="C2" t="n">
-        <v>0.190856</v>
+        <v>0.19108</v>
       </c>
       <c r="D2" t="n">
-        <v>0.237093</v>
+        <v>0.237348</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.265841</v>
+        <v>0.262445</v>
       </c>
       <c r="C3" t="n">
-        <v>0.191092</v>
+        <v>0.192301</v>
       </c>
       <c r="D3" t="n">
-        <v>0.236829</v>
+        <v>0.237369</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.253824</v>
+        <v>0.251179</v>
       </c>
       <c r="C4" t="n">
-        <v>0.193937</v>
+        <v>0.194139</v>
       </c>
       <c r="D4" t="n">
-        <v>0.238259</v>
+        <v>0.237443</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.242176</v>
+        <v>0.24121</v>
       </c>
       <c r="C5" t="n">
-        <v>0.194464</v>
+        <v>0.193979</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2385</v>
+        <v>0.23813</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.233136</v>
+        <v>0.231181</v>
       </c>
       <c r="C6" t="n">
-        <v>0.195058</v>
+        <v>0.195983</v>
       </c>
       <c r="D6" t="n">
-        <v>0.238705</v>
+        <v>0.238393</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.220355</v>
+        <v>0.218827</v>
       </c>
       <c r="C7" t="n">
-        <v>0.19565</v>
+        <v>0.19543</v>
       </c>
       <c r="D7" t="n">
-        <v>0.239193</v>
+        <v>0.239405</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.20731</v>
+        <v>0.205421</v>
       </c>
       <c r="C8" t="n">
-        <v>0.19562</v>
+        <v>0.196394</v>
       </c>
       <c r="D8" t="n">
-        <v>0.240092</v>
+        <v>0.241102</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.192024</v>
+        <v>0.190897</v>
       </c>
       <c r="C9" t="n">
-        <v>0.197115</v>
+        <v>0.196926</v>
       </c>
       <c r="D9" t="n">
-        <v>0.260393</v>
+        <v>0.260403</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.331777</v>
+        <v>0.330405</v>
       </c>
       <c r="C10" t="n">
-        <v>0.211972</v>
+        <v>0.211914</v>
       </c>
       <c r="D10" t="n">
-        <v>0.258979</v>
+        <v>0.259466</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.32584</v>
+        <v>0.32499</v>
       </c>
       <c r="C11" t="n">
-        <v>0.212415</v>
+        <v>0.212946</v>
       </c>
       <c r="D11" t="n">
-        <v>0.258541</v>
+        <v>0.258525</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.317915</v>
+        <v>0.317276</v>
       </c>
       <c r="C12" t="n">
-        <v>0.211819</v>
+        <v>0.211853</v>
       </c>
       <c r="D12" t="n">
-        <v>0.258063</v>
+        <v>0.258146</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.311852</v>
+        <v>0.311418</v>
       </c>
       <c r="C13" t="n">
-        <v>0.210609</v>
+        <v>0.210874</v>
       </c>
       <c r="D13" t="n">
-        <v>0.256294</v>
+        <v>0.256242</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.304385</v>
+        <v>0.304513</v>
       </c>
       <c r="C14" t="n">
-        <v>0.209851</v>
+        <v>0.2099</v>
       </c>
       <c r="D14" t="n">
-        <v>0.254567</v>
+        <v>0.254812</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.29729</v>
+        <v>0.29564</v>
       </c>
       <c r="C15" t="n">
-        <v>0.20996</v>
+        <v>0.210307</v>
       </c>
       <c r="D15" t="n">
-        <v>0.254257</v>
+        <v>0.254581</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.288977</v>
+        <v>0.28853</v>
       </c>
       <c r="C16" t="n">
-        <v>0.209192</v>
+        <v>0.208943</v>
       </c>
       <c r="D16" t="n">
-        <v>0.253397</v>
+        <v>0.253364</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.278713</v>
+        <v>0.284639</v>
       </c>
       <c r="C17" t="n">
-        <v>0.208437</v>
+        <v>0.208374</v>
       </c>
       <c r="D17" t="n">
-        <v>0.252724</v>
+        <v>0.252462</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.268974</v>
+        <v>0.268443</v>
       </c>
       <c r="C18" t="n">
-        <v>0.207707</v>
+        <v>0.207899</v>
       </c>
       <c r="D18" t="n">
-        <v>0.252249</v>
+        <v>0.252515</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.258524</v>
+        <v>0.257535</v>
       </c>
       <c r="C19" t="n">
-        <v>0.207555</v>
+        <v>0.208254</v>
       </c>
       <c r="D19" t="n">
-        <v>0.25139</v>
+        <v>0.251253</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.245319</v>
+        <v>0.244772</v>
       </c>
       <c r="C20" t="n">
-        <v>0.207135</v>
+        <v>0.207938</v>
       </c>
       <c r="D20" t="n">
-        <v>0.250407</v>
+        <v>0.250427</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.232346</v>
+        <v>0.232105</v>
       </c>
       <c r="C21" t="n">
-        <v>0.208091</v>
+        <v>0.207937</v>
       </c>
       <c r="D21" t="n">
-        <v>0.250422</v>
+        <v>0.250163</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.218351</v>
+        <v>0.216793</v>
       </c>
       <c r="C22" t="n">
-        <v>0.207079</v>
+        <v>0.206939</v>
       </c>
       <c r="D22" t="n">
-        <v>0.249825</v>
+        <v>0.249585</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.202992</v>
+        <v>0.202516</v>
       </c>
       <c r="C23" t="n">
-        <v>0.206819</v>
+        <v>0.207006</v>
       </c>
       <c r="D23" t="n">
-        <v>0.266436</v>
+        <v>0.266664</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.340216</v>
+        <v>0.33948</v>
       </c>
       <c r="C24" t="n">
-        <v>0.217577</v>
+        <v>0.217664</v>
       </c>
       <c r="D24" t="n">
-        <v>0.265286</v>
+        <v>0.265139</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.335792</v>
+        <v>0.334726</v>
       </c>
       <c r="C25" t="n">
-        <v>0.216437</v>
+        <v>0.217282</v>
       </c>
       <c r="D25" t="n">
-        <v>0.263951</v>
+        <v>0.263857</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.327475</v>
+        <v>0.326453</v>
       </c>
       <c r="C26" t="n">
-        <v>0.215253</v>
+        <v>0.215812</v>
       </c>
       <c r="D26" t="n">
-        <v>0.261725</v>
+        <v>0.261854</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.320862</v>
+        <v>0.319924</v>
       </c>
       <c r="C27" t="n">
-        <v>0.214305</v>
+        <v>0.214157</v>
       </c>
       <c r="D27" t="n">
-        <v>0.260385</v>
+        <v>0.260515</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.313161</v>
+        <v>0.312735</v>
       </c>
       <c r="C28" t="n">
-        <v>0.212647</v>
+        <v>0.212479</v>
       </c>
       <c r="D28" t="n">
-        <v>0.259135</v>
+        <v>0.259244</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.30581</v>
+        <v>0.305725</v>
       </c>
       <c r="C29" t="n">
-        <v>0.212149</v>
+        <v>0.211886</v>
       </c>
       <c r="D29" t="n">
-        <v>0.257444</v>
+        <v>0.257733</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.297965</v>
+        <v>0.297279</v>
       </c>
       <c r="C30" t="n">
-        <v>0.211173</v>
+        <v>0.21086</v>
       </c>
       <c r="D30" t="n">
-        <v>0.256515</v>
+        <v>0.256832</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.287751</v>
+        <v>0.287728</v>
       </c>
       <c r="C31" t="n">
-        <v>0.209441</v>
+        <v>0.209761</v>
       </c>
       <c r="D31" t="n">
-        <v>0.254914</v>
+        <v>0.255091</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.277644</v>
+        <v>0.277366</v>
       </c>
       <c r="C32" t="n">
-        <v>0.209542</v>
+        <v>0.209718</v>
       </c>
       <c r="D32" t="n">
-        <v>0.254595</v>
+        <v>0.254868</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.2674</v>
+        <v>0.267108</v>
       </c>
       <c r="C33" t="n">
-        <v>0.209397</v>
+        <v>0.209514</v>
       </c>
       <c r="D33" t="n">
-        <v>0.254018</v>
+        <v>0.254242</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.256389</v>
+        <v>0.25493</v>
       </c>
       <c r="C34" t="n">
-        <v>0.209199</v>
+        <v>0.209299</v>
       </c>
       <c r="D34" t="n">
-        <v>0.25343</v>
+        <v>0.253293</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.242711</v>
+        <v>0.242215</v>
       </c>
       <c r="C35" t="n">
-        <v>0.210083</v>
+        <v>0.209782</v>
       </c>
       <c r="D35" t="n">
-        <v>0.252333</v>
+        <v>0.252572</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.228087</v>
+        <v>0.227866</v>
       </c>
       <c r="C36" t="n">
-        <v>0.208052</v>
+        <v>0.209992</v>
       </c>
       <c r="D36" t="n">
-        <v>0.251361</v>
+        <v>0.251663</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.213481</v>
+        <v>0.211947</v>
       </c>
       <c r="C37" t="n">
-        <v>0.207779</v>
+        <v>0.208679</v>
       </c>
       <c r="D37" t="n">
-        <v>0.267834</v>
+        <v>0.267769</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.345368</v>
+        <v>0.345383</v>
       </c>
       <c r="C38" t="n">
-        <v>0.218564</v>
+        <v>0.218404</v>
       </c>
       <c r="D38" t="n">
-        <v>0.266451</v>
+        <v>0.266181</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.339761</v>
+        <v>0.339139</v>
       </c>
       <c r="C39" t="n">
-        <v>0.217077</v>
+        <v>0.217124</v>
       </c>
       <c r="D39" t="n">
-        <v>0.26469</v>
+        <v>0.26444</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.334518</v>
+        <v>0.333907</v>
       </c>
       <c r="C40" t="n">
-        <v>0.216328</v>
+        <v>0.216039</v>
       </c>
       <c r="D40" t="n">
-        <v>0.262785</v>
+        <v>0.262677</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.327604</v>
+        <v>0.327484</v>
       </c>
       <c r="C41" t="n">
-        <v>0.215433</v>
+        <v>0.215371</v>
       </c>
       <c r="D41" t="n">
-        <v>0.26163</v>
+        <v>0.261718</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.320642</v>
+        <v>0.320232</v>
       </c>
       <c r="C42" t="n">
-        <v>0.21477</v>
+        <v>0.214484</v>
       </c>
       <c r="D42" t="n">
-        <v>0.260743</v>
+        <v>0.260764</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.31209</v>
+        <v>0.312126</v>
       </c>
       <c r="C43" t="n">
-        <v>0.21402</v>
+        <v>0.213968</v>
       </c>
       <c r="D43" t="n">
-        <v>0.259518</v>
+        <v>0.259485</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.303081</v>
+        <v>0.302694</v>
       </c>
       <c r="C44" t="n">
-        <v>0.213328</v>
+        <v>0.213231</v>
       </c>
       <c r="D44" t="n">
-        <v>0.258543</v>
+        <v>0.258483</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.293028</v>
+        <v>0.292578</v>
       </c>
       <c r="C45" t="n">
-        <v>0.212469</v>
+        <v>0.212577</v>
       </c>
       <c r="D45" t="n">
-        <v>0.257352</v>
+        <v>0.257475</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.283067</v>
+        <v>0.282716</v>
       </c>
       <c r="C46" t="n">
-        <v>0.212053</v>
+        <v>0.212028</v>
       </c>
       <c r="D46" t="n">
-        <v>0.256446</v>
+        <v>0.256522</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.272614</v>
+        <v>0.272351</v>
       </c>
       <c r="C47" t="n">
-        <v>0.211405</v>
+        <v>0.211483</v>
       </c>
       <c r="D47" t="n">
-        <v>0.255845</v>
+        <v>0.255788</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.260757</v>
+        <v>0.260658</v>
       </c>
       <c r="C48" t="n">
-        <v>0.210991</v>
+        <v>0.210703</v>
       </c>
       <c r="D48" t="n">
-        <v>0.254473</v>
+        <v>0.254387</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.247524</v>
+        <v>0.247615</v>
       </c>
       <c r="C49" t="n">
-        <v>0.21261</v>
+        <v>0.212256</v>
       </c>
       <c r="D49" t="n">
-        <v>0.253323</v>
+        <v>0.253276</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.23386</v>
+        <v>0.233926</v>
       </c>
       <c r="C50" t="n">
-        <v>0.212021</v>
+        <v>0.211574</v>
       </c>
       <c r="D50" t="n">
-        <v>0.252587</v>
+        <v>0.252732</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.220206</v>
+        <v>0.220048</v>
       </c>
       <c r="C51" t="n">
-        <v>0.211607</v>
+        <v>0.211015</v>
       </c>
       <c r="D51" t="n">
-        <v>0.27308</v>
+        <v>0.272936</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.203201</v>
+        <v>0.203379</v>
       </c>
       <c r="C52" t="n">
-        <v>0.210579</v>
+        <v>0.210459</v>
       </c>
       <c r="D52" t="n">
-        <v>0.271298</v>
+        <v>0.271092</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.343058</v>
+        <v>0.342935</v>
       </c>
       <c r="C53" t="n">
-        <v>0.218779</v>
+        <v>0.218592</v>
       </c>
       <c r="D53" t="n">
-        <v>0.269508</v>
+        <v>0.269282</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.337013</v>
+        <v>0.336979</v>
       </c>
       <c r="C54" t="n">
-        <v>0.218166</v>
+        <v>0.217649</v>
       </c>
       <c r="D54" t="n">
-        <v>0.2678</v>
+        <v>0.267827</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.330811</v>
+        <v>0.330732</v>
       </c>
       <c r="C55" t="n">
-        <v>0.217189</v>
+        <v>0.216943</v>
       </c>
       <c r="D55" t="n">
-        <v>0.266498</v>
+        <v>0.266436</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.323257</v>
+        <v>0.323274</v>
       </c>
       <c r="C56" t="n">
-        <v>0.215781</v>
+        <v>0.215972</v>
       </c>
       <c r="D56" t="n">
-        <v>0.264807</v>
+        <v>0.264696</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.315312</v>
+        <v>0.315035</v>
       </c>
       <c r="C57" t="n">
-        <v>0.21552</v>
+        <v>0.215444</v>
       </c>
       <c r="D57" t="n">
-        <v>0.263407</v>
+        <v>0.263203</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.306448</v>
+        <v>0.30598</v>
       </c>
       <c r="C58" t="n">
-        <v>0.215368</v>
+        <v>0.216276</v>
       </c>
       <c r="D58" t="n">
-        <v>0.262252</v>
+        <v>0.262041</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.296962</v>
+        <v>0.296595</v>
       </c>
       <c r="C59" t="n">
-        <v>0.213896</v>
+        <v>0.215198</v>
       </c>
       <c r="D59" t="n">
-        <v>0.260849</v>
+        <v>0.260747</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.287025</v>
+        <v>0.287038</v>
       </c>
       <c r="C60" t="n">
-        <v>0.213991</v>
+        <v>0.214619</v>
       </c>
       <c r="D60" t="n">
-        <v>0.259558</v>
+        <v>0.259593</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.276112</v>
+        <v>0.275858</v>
       </c>
       <c r="C61" t="n">
-        <v>0.213315</v>
+        <v>0.214051</v>
       </c>
       <c r="D61" t="n">
-        <v>0.25842</v>
+        <v>0.258215</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.264269</v>
+        <v>0.26403</v>
       </c>
       <c r="C62" t="n">
-        <v>0.212923</v>
+        <v>0.213375</v>
       </c>
       <c r="D62" t="n">
-        <v>0.257143</v>
+        <v>0.257005</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.251549</v>
+        <v>0.251139</v>
       </c>
       <c r="C63" t="n">
-        <v>0.212698</v>
+        <v>0.212813</v>
       </c>
       <c r="D63" t="n">
-        <v>0.255635</v>
+        <v>0.255545</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.23759</v>
+        <v>0.237202</v>
       </c>
       <c r="C64" t="n">
-        <v>0.212147</v>
+        <v>0.212338</v>
       </c>
       <c r="D64" t="n">
-        <v>0.254309</v>
+        <v>0.254262</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.22335</v>
+        <v>0.222791</v>
       </c>
       <c r="C65" t="n">
-        <v>0.211748</v>
+        <v>0.211786</v>
       </c>
       <c r="D65" t="n">
-        <v>0.253396</v>
+        <v>0.25337</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.207133</v>
+        <v>0.206644</v>
       </c>
       <c r="C66" t="n">
-        <v>0.210547</v>
+        <v>0.211054</v>
       </c>
       <c r="D66" t="n">
-        <v>0.269287</v>
+        <v>0.269816</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.346108</v>
+        <v>0.346095</v>
       </c>
       <c r="C67" t="n">
-        <v>0.219698</v>
+        <v>0.220018</v>
       </c>
       <c r="D67" t="n">
-        <v>0.268447</v>
+        <v>0.268557</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.340701</v>
+        <v>0.340477</v>
       </c>
       <c r="C68" t="n">
-        <v>0.219607</v>
+        <v>0.219151</v>
       </c>
       <c r="D68" t="n">
-        <v>0.26673</v>
+        <v>0.266973</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.333755</v>
+        <v>0.333717</v>
       </c>
       <c r="C69" t="n">
-        <v>0.218655</v>
+        <v>0.218297</v>
       </c>
       <c r="D69" t="n">
-        <v>0.264545</v>
+        <v>0.26433</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.326643</v>
+        <v>0.32688</v>
       </c>
       <c r="C70" t="n">
-        <v>0.218661</v>
+        <v>0.217376</v>
       </c>
       <c r="D70" t="n">
-        <v>0.263465</v>
+        <v>0.263423</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.318593</v>
+        <v>0.3185</v>
       </c>
       <c r="C71" t="n">
-        <v>0.216836</v>
+        <v>0.2183</v>
       </c>
       <c r="D71" t="n">
-        <v>0.262131</v>
+        <v>0.262344</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.309584</v>
+        <v>0.309412</v>
       </c>
       <c r="C72" t="n">
-        <v>0.215813</v>
+        <v>0.215765</v>
       </c>
       <c r="D72" t="n">
-        <v>0.260953</v>
+        <v>0.260929</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.30008</v>
+        <v>0.300048</v>
       </c>
       <c r="C73" t="n">
-        <v>0.214184</v>
+        <v>0.214028</v>
       </c>
       <c r="D73" t="n">
-        <v>0.259649</v>
+        <v>0.259602</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.290085</v>
+        <v>0.290067</v>
       </c>
       <c r="C74" t="n">
-        <v>0.214996</v>
+        <v>0.2149</v>
       </c>
       <c r="D74" t="n">
-        <v>0.258675</v>
+        <v>0.258625</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.279241</v>
+        <v>0.279168</v>
       </c>
       <c r="C75" t="n">
-        <v>0.214979</v>
+        <v>0.215073</v>
       </c>
       <c r="D75" t="n">
-        <v>0.257577</v>
+        <v>0.25757</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.267464</v>
+        <v>0.2674</v>
       </c>
       <c r="C76" t="n">
-        <v>0.214111</v>
+        <v>0.213683</v>
       </c>
       <c r="D76" t="n">
-        <v>0.256328</v>
+        <v>0.256273</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.254889</v>
+        <v>0.254603</v>
       </c>
       <c r="C77" t="n">
-        <v>0.213837</v>
+        <v>0.212355</v>
       </c>
       <c r="D77" t="n">
-        <v>0.255088</v>
+        <v>0.255132</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.241063</v>
+        <v>0.24106</v>
       </c>
       <c r="C78" t="n">
-        <v>0.212788</v>
+        <v>0.212602</v>
       </c>
       <c r="D78" t="n">
-        <v>0.25404</v>
+        <v>0.254071</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.226295</v>
+        <v>0.226134</v>
       </c>
       <c r="C79" t="n">
-        <v>0.212102</v>
+        <v>0.211762</v>
       </c>
       <c r="D79" t="n">
-        <v>0.253188</v>
+        <v>0.253143</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.210854</v>
+        <v>0.210736</v>
       </c>
       <c r="C80" t="n">
-        <v>0.211537</v>
+        <v>0.2108</v>
       </c>
       <c r="D80" t="n">
-        <v>0.270545</v>
+        <v>0.269783</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.348171</v>
+        <v>0.347916</v>
       </c>
       <c r="C81" t="n">
-        <v>0.221076</v>
+        <v>0.220764</v>
       </c>
       <c r="D81" t="n">
-        <v>0.268617</v>
+        <v>0.268274</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.342619</v>
+        <v>0.342268</v>
       </c>
       <c r="C82" t="n">
-        <v>0.219151</v>
+        <v>0.21935</v>
       </c>
       <c r="D82" t="n">
-        <v>0.266236</v>
+        <v>0.266576</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.336149</v>
+        <v>0.335913</v>
       </c>
       <c r="C83" t="n">
-        <v>0.219395</v>
+        <v>0.219357</v>
       </c>
       <c r="D83" t="n">
-        <v>0.264955</v>
+        <v>0.264926</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.328857</v>
+        <v>0.328633</v>
       </c>
       <c r="C84" t="n">
-        <v>0.219429</v>
+        <v>0.219355</v>
       </c>
       <c r="D84" t="n">
-        <v>0.263929</v>
+        <v>0.263676</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.321112</v>
+        <v>0.320831</v>
       </c>
       <c r="C85" t="n">
-        <v>0.218922</v>
+        <v>0.218549</v>
       </c>
       <c r="D85" t="n">
-        <v>0.262633</v>
+        <v>0.26215</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.31259</v>
+        <v>0.312421</v>
       </c>
       <c r="C86" t="n">
-        <v>0.217945</v>
+        <v>0.217509</v>
       </c>
       <c r="D86" t="n">
-        <v>0.261508</v>
+        <v>0.26139</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.303094</v>
+        <v>0.30288</v>
       </c>
       <c r="C87" t="n">
-        <v>0.216427</v>
+        <v>0.216383</v>
       </c>
       <c r="D87" t="n">
-        <v>0.260333</v>
+        <v>0.260096</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.293053</v>
+        <v>0.292835</v>
       </c>
       <c r="C88" t="n">
-        <v>0.216388</v>
+        <v>0.216178</v>
       </c>
       <c r="D88" t="n">
-        <v>0.259091</v>
+        <v>0.258944</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.281892</v>
+        <v>0.281886</v>
       </c>
       <c r="C89" t="n">
-        <v>0.214964</v>
+        <v>0.214531</v>
       </c>
       <c r="D89" t="n">
-        <v>0.257859</v>
+        <v>0.257632</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.270253</v>
+        <v>0.270143</v>
       </c>
       <c r="C90" t="n">
-        <v>0.213147</v>
+        <v>0.212663</v>
       </c>
       <c r="D90" t="n">
-        <v>0.256426</v>
+        <v>0.256429</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.257676</v>
+        <v>0.257635</v>
       </c>
       <c r="C91" t="n">
-        <v>0.212835</v>
+        <v>0.213234</v>
       </c>
       <c r="D91" t="n">
-        <v>0.255078</v>
+        <v>0.255424</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.24436</v>
+        <v>0.244219</v>
       </c>
       <c r="C92" t="n">
-        <v>0.21281</v>
+        <v>0.212254</v>
       </c>
       <c r="D92" t="n">
-        <v>0.25451</v>
+        <v>0.254399</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.229897</v>
+        <v>0.229964</v>
       </c>
       <c r="C93" t="n">
-        <v>0.211837</v>
+        <v>0.211656</v>
       </c>
       <c r="D93" t="n">
-        <v>0.253583</v>
+        <v>0.253431</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.214775</v>
+        <v>0.214517</v>
       </c>
       <c r="C94" t="n">
-        <v>0.210998</v>
+        <v>0.210889</v>
       </c>
       <c r="D94" t="n">
-        <v>0.271554</v>
+        <v>0.271457</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.349055</v>
+        <v>0.348849</v>
       </c>
       <c r="C95" t="n">
-        <v>0.220678</v>
+        <v>0.220179</v>
       </c>
       <c r="D95" t="n">
-        <v>0.269295</v>
+        <v>0.269114</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.343733</v>
+        <v>0.343768</v>
       </c>
       <c r="C96" t="n">
-        <v>0.219985</v>
+        <v>0.219114</v>
       </c>
       <c r="D96" t="n">
-        <v>0.267631</v>
+        <v>0.267445</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.337585</v>
+        <v>0.33742</v>
       </c>
       <c r="C97" t="n">
-        <v>0.219157</v>
+        <v>0.219398</v>
       </c>
       <c r="D97" t="n">
-        <v>0.26534</v>
+        <v>0.26602</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.330666</v>
+        <v>0.330513</v>
       </c>
       <c r="C98" t="n">
-        <v>0.21908</v>
+        <v>0.217575</v>
       </c>
       <c r="D98" t="n">
-        <v>0.264339</v>
+        <v>0.26421</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.323061</v>
+        <v>0.322931</v>
       </c>
       <c r="C99" t="n">
-        <v>0.218322</v>
+        <v>0.217888</v>
       </c>
       <c r="D99" t="n">
-        <v>0.262922</v>
+        <v>0.262796</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.314555</v>
+        <v>0.31442</v>
       </c>
       <c r="C100" t="n">
-        <v>0.2177</v>
+        <v>0.217264</v>
       </c>
       <c r="D100" t="n">
-        <v>0.261435</v>
+        <v>0.261131</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.305316</v>
+        <v>0.305081</v>
       </c>
       <c r="C101" t="n">
-        <v>0.216627</v>
+        <v>0.215026</v>
       </c>
       <c r="D101" t="n">
-        <v>0.260097</v>
+        <v>0.25988</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.29531</v>
+        <v>0.295135</v>
       </c>
       <c r="C102" t="n">
-        <v>0.215837</v>
+        <v>0.214144</v>
       </c>
       <c r="D102" t="n">
-        <v>0.259038</v>
+        <v>0.258373</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.284481</v>
+        <v>0.284337</v>
       </c>
       <c r="C103" t="n">
-        <v>0.214954</v>
+        <v>0.214947</v>
       </c>
       <c r="D103" t="n">
-        <v>0.257865</v>
+        <v>0.257212</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.272859</v>
+        <v>0.272785</v>
       </c>
       <c r="C104" t="n">
-        <v>0.213944</v>
+        <v>0.213942</v>
       </c>
       <c r="D104" t="n">
-        <v>0.256493</v>
+        <v>0.25662</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.260839</v>
+        <v>0.260185</v>
       </c>
       <c r="C105" t="n">
-        <v>0.213192</v>
+        <v>0.212843</v>
       </c>
       <c r="D105" t="n">
-        <v>0.255734</v>
+        <v>0.255685</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.24743</v>
+        <v>0.247141</v>
       </c>
       <c r="C106" t="n">
-        <v>0.21256</v>
+        <v>0.21229</v>
       </c>
       <c r="D106" t="n">
-        <v>0.254658</v>
+        <v>0.25466</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.233042</v>
+        <v>0.232657</v>
       </c>
       <c r="C107" t="n">
-        <v>0.212157</v>
+        <v>0.211061</v>
       </c>
       <c r="D107" t="n">
-        <v>0.25344</v>
+        <v>0.253652</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.217783</v>
+        <v>0.217785</v>
       </c>
       <c r="C108" t="n">
-        <v>0.210537</v>
+        <v>0.210577</v>
       </c>
       <c r="D108" t="n">
-        <v>0.271882</v>
+        <v>0.270049</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.201759</v>
+        <v>0.201446</v>
       </c>
       <c r="C109" t="n">
-        <v>0.210549</v>
+        <v>0.209542</v>
       </c>
       <c r="D109" t="n">
-        <v>0.270115</v>
+        <v>0.269882</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.344844</v>
+        <v>0.344645</v>
       </c>
       <c r="C110" t="n">
-        <v>0.220222</v>
+        <v>0.21975</v>
       </c>
       <c r="D110" t="n">
-        <v>0.268102</v>
+        <v>0.267898</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.338742</v>
+        <v>0.338453</v>
       </c>
       <c r="C111" t="n">
-        <v>0.217809</v>
+        <v>0.219045</v>
       </c>
       <c r="D111" t="n">
-        <v>0.265148</v>
+        <v>0.2662</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.332201</v>
+        <v>0.332137</v>
       </c>
       <c r="C112" t="n">
-        <v>0.218897</v>
+        <v>0.218044</v>
       </c>
       <c r="D112" t="n">
-        <v>0.263325</v>
+        <v>0.264771</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.324742</v>
+        <v>0.324563</v>
       </c>
       <c r="C113" t="n">
-        <v>0.21852</v>
+        <v>0.218489</v>
       </c>
       <c r="D113" t="n">
-        <v>0.263413</v>
+        <v>0.263318</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.316207</v>
+        <v>0.316167</v>
       </c>
       <c r="C114" t="n">
-        <v>0.21795</v>
+        <v>0.217755</v>
       </c>
       <c r="D114" t="n">
-        <v>0.261866</v>
+        <v>0.261823</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.307321</v>
+        <v>0.307149</v>
       </c>
       <c r="C115" t="n">
-        <v>0.217094</v>
+        <v>0.216224</v>
       </c>
       <c r="D115" t="n">
-        <v>0.260767</v>
+        <v>0.260717</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.297213</v>
+        <v>0.297315</v>
       </c>
       <c r="C116" t="n">
-        <v>0.216119</v>
+        <v>0.215673</v>
       </c>
       <c r="D116" t="n">
-        <v>0.259512</v>
+        <v>0.25952</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.286749</v>
+        <v>0.286769</v>
       </c>
       <c r="C117" t="n">
-        <v>0.21519</v>
+        <v>0.214951</v>
       </c>
       <c r="D117" t="n">
-        <v>0.258414</v>
+        <v>0.25845</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.275217</v>
+        <v>0.275271</v>
       </c>
       <c r="C118" t="n">
-        <v>0.214351</v>
+        <v>0.214184</v>
       </c>
       <c r="D118" t="n">
-        <v>0.257167</v>
+        <v>0.257177</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.263024</v>
+        <v>0.26288</v>
       </c>
       <c r="C119" t="n">
-        <v>0.213512</v>
+        <v>0.212418</v>
       </c>
       <c r="D119" t="n">
-        <v>0.255909</v>
+        <v>0.25595</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.250295</v>
+        <v>0.249784</v>
       </c>
       <c r="C120" t="n">
-        <v>0.212746</v>
+        <v>0.212733</v>
       </c>
       <c r="D120" t="n">
-        <v>0.254441</v>
+        <v>0.254309</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.236166</v>
+        <v>0.235823</v>
       </c>
       <c r="C121" t="n">
-        <v>0.211953</v>
+        <v>0.211515</v>
       </c>
       <c r="D121" t="n">
-        <v>0.253607</v>
+        <v>0.253814</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.220914</v>
+        <v>0.220743</v>
       </c>
       <c r="C122" t="n">
-        <v>0.210345</v>
+        <v>0.211115</v>
       </c>
       <c r="D122" t="n">
-        <v>0.252734</v>
+        <v>0.252382</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.205176</v>
+        <v>0.204892</v>
       </c>
       <c r="C123" t="n">
-        <v>0.210439</v>
+        <v>0.209949</v>
       </c>
       <c r="D123" t="n">
-        <v>0.27001</v>
+        <v>0.270425</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.345977</v>
+        <v>0.3458</v>
       </c>
       <c r="C124" t="n">
-        <v>0.220259</v>
+        <v>0.220088</v>
       </c>
       <c r="D124" t="n">
-        <v>0.268268</v>
+        <v>0.267588</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.340156</v>
+        <v>0.340076</v>
       </c>
       <c r="C125" t="n">
-        <v>0.219444</v>
+        <v>0.219614</v>
       </c>
       <c r="D125" t="n">
-        <v>0.264925</v>
+        <v>0.267159</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.333617</v>
+        <v>0.333482</v>
       </c>
       <c r="C126" t="n">
-        <v>0.217935</v>
+        <v>0.218721</v>
       </c>
       <c r="D126" t="n">
-        <v>0.264968</v>
+        <v>0.265364</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.326002</v>
+        <v>0.325916</v>
       </c>
       <c r="C127" t="n">
-        <v>0.217529</v>
+        <v>0.217876</v>
       </c>
       <c r="D127" t="n">
-        <v>0.263896</v>
+        <v>0.263205</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.317917</v>
+        <v>0.317842</v>
       </c>
       <c r="C128" t="n">
-        <v>0.217873</v>
+        <v>0.217711</v>
       </c>
       <c r="D128" t="n">
-        <v>0.260988</v>
+        <v>0.262308</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.309151</v>
+        <v>0.309169</v>
       </c>
       <c r="C129" t="n">
-        <v>0.216941</v>
+        <v>0.215602</v>
       </c>
       <c r="D129" t="n">
-        <v>0.260633</v>
+        <v>0.260854</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.299373</v>
+        <v>0.299382</v>
       </c>
       <c r="C130" t="n">
-        <v>0.21386</v>
+        <v>0.21433</v>
       </c>
       <c r="D130" t="n">
-        <v>0.259513</v>
+        <v>0.259652</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.289441</v>
+        <v>0.289196</v>
       </c>
       <c r="C131" t="n">
-        <v>0.214635</v>
+        <v>0.215446</v>
       </c>
       <c r="D131" t="n">
-        <v>0.258312</v>
+        <v>0.258315</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.278277</v>
+        <v>0.278271</v>
       </c>
       <c r="C132" t="n">
-        <v>0.214448</v>
+        <v>0.214464</v>
       </c>
       <c r="D132" t="n">
-        <v>0.256825</v>
+        <v>0.257126</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.266008</v>
+        <v>0.266093</v>
       </c>
       <c r="C133" t="n">
-        <v>0.213328</v>
+        <v>0.213738</v>
       </c>
       <c r="D133" t="n">
-        <v>0.255989</v>
+        <v>0.255481</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.253281</v>
+        <v>0.253234</v>
       </c>
       <c r="C134" t="n">
-        <v>0.211633</v>
+        <v>0.212609</v>
       </c>
       <c r="D134" t="n">
-        <v>0.254849</v>
+        <v>0.255032</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.239115</v>
+        <v>0.239207</v>
       </c>
       <c r="C135" t="n">
-        <v>0.212134</v>
+        <v>0.211856</v>
       </c>
       <c r="D135" t="n">
-        <v>0.253956</v>
+        <v>0.254013</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.224312</v>
+        <v>0.224533</v>
       </c>
       <c r="C136" t="n">
-        <v>0.210583</v>
+        <v>0.210821</v>
       </c>
       <c r="D136" t="n">
-        <v>0.252889</v>
+        <v>0.252728</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.208426</v>
+        <v>0.20866</v>
       </c>
       <c r="C137" t="n">
-        <v>0.21096</v>
+        <v>0.210824</v>
       </c>
       <c r="D137" t="n">
-        <v>0.270904</v>
+        <v>0.269834</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.347121</v>
+        <v>0.346974</v>
       </c>
       <c r="C138" t="n">
-        <v>0.220312</v>
+        <v>0.220429</v>
       </c>
       <c r="D138" t="n">
-        <v>0.269037</v>
+        <v>0.268245</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.341324</v>
+        <v>0.341167</v>
       </c>
       <c r="C139" t="n">
-        <v>0.219714</v>
+        <v>0.219704</v>
       </c>
       <c r="D139" t="n">
-        <v>0.267217</v>
+        <v>0.267372</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.334749</v>
+        <v>0.334584</v>
       </c>
       <c r="C140" t="n">
-        <v>0.219049</v>
+        <v>0.219244</v>
       </c>
       <c r="D140" t="n">
-        <v>0.265164</v>
+        <v>0.265314</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.327543</v>
+        <v>0.327324</v>
       </c>
       <c r="C141" t="n">
-        <v>0.218743</v>
+        <v>0.21871</v>
       </c>
       <c r="D141" t="n">
-        <v>0.264154</v>
+        <v>0.264247</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.319587</v>
+        <v>0.31956</v>
       </c>
       <c r="C142" t="n">
-        <v>0.218038</v>
+        <v>0.216952</v>
       </c>
       <c r="D142" t="n">
-        <v>0.262561</v>
+        <v>0.261505</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.310874</v>
+        <v>0.31101</v>
       </c>
       <c r="C143" t="n">
-        <v>0.216378</v>
+        <v>0.217334</v>
       </c>
       <c r="D143" t="n">
-        <v>0.261371</v>
+        <v>0.260357</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.273299</v>
+        <v>0.271016</v>
       </c>
       <c r="C2" t="n">
-        <v>0.19108</v>
+        <v>0.190451</v>
       </c>
       <c r="D2" t="n">
-        <v>0.237348</v>
+        <v>0.237719</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.262445</v>
+        <v>0.26247</v>
       </c>
       <c r="C3" t="n">
-        <v>0.192301</v>
+        <v>0.192303</v>
       </c>
       <c r="D3" t="n">
-        <v>0.237369</v>
+        <v>0.237132</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.251179</v>
+        <v>0.251164</v>
       </c>
       <c r="C4" t="n">
-        <v>0.194139</v>
+        <v>0.193826</v>
       </c>
       <c r="D4" t="n">
-        <v>0.237443</v>
+        <v>0.237649</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.24121</v>
+        <v>0.240708</v>
       </c>
       <c r="C5" t="n">
-        <v>0.193979</v>
+        <v>0.19426</v>
       </c>
       <c r="D5" t="n">
-        <v>0.23813</v>
+        <v>0.238943</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.231181</v>
+        <v>0.231412</v>
       </c>
       <c r="C6" t="n">
-        <v>0.195983</v>
+        <v>0.195483</v>
       </c>
       <c r="D6" t="n">
-        <v>0.238393</v>
+        <v>0.238373</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.218827</v>
+        <v>0.219553</v>
       </c>
       <c r="C7" t="n">
-        <v>0.19543</v>
+        <v>0.195721</v>
       </c>
       <c r="D7" t="n">
-        <v>0.239405</v>
+        <v>0.239693</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.205421</v>
+        <v>0.206709</v>
       </c>
       <c r="C8" t="n">
-        <v>0.196394</v>
+        <v>0.196329</v>
       </c>
       <c r="D8" t="n">
-        <v>0.241102</v>
+        <v>0.240686</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.190897</v>
+        <v>0.192253</v>
       </c>
       <c r="C9" t="n">
-        <v>0.196926</v>
+        <v>0.197289</v>
       </c>
       <c r="D9" t="n">
-        <v>0.260403</v>
+        <v>0.260421</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.330405</v>
+        <v>0.330623</v>
       </c>
       <c r="C10" t="n">
-        <v>0.211914</v>
+        <v>0.211929</v>
       </c>
       <c r="D10" t="n">
-        <v>0.259466</v>
+        <v>0.259328</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.32499</v>
+        <v>0.324297</v>
       </c>
       <c r="C11" t="n">
-        <v>0.212946</v>
+        <v>0.212255</v>
       </c>
       <c r="D11" t="n">
-        <v>0.258525</v>
+        <v>0.258704</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.317276</v>
+        <v>0.317699</v>
       </c>
       <c r="C12" t="n">
-        <v>0.211853</v>
+        <v>0.211654</v>
       </c>
       <c r="D12" t="n">
-        <v>0.258146</v>
+        <v>0.258402</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.311418</v>
+        <v>0.310316</v>
       </c>
       <c r="C13" t="n">
-        <v>0.210874</v>
+        <v>0.210659</v>
       </c>
       <c r="D13" t="n">
-        <v>0.256242</v>
+        <v>0.25652</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.304513</v>
+        <v>0.303169</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2099</v>
+        <v>0.210025</v>
       </c>
       <c r="D14" t="n">
-        <v>0.254812</v>
+        <v>0.25467</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.29564</v>
+        <v>0.295914</v>
       </c>
       <c r="C15" t="n">
-        <v>0.210307</v>
+        <v>0.210301</v>
       </c>
       <c r="D15" t="n">
-        <v>0.254581</v>
+        <v>0.254281</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.28853</v>
+        <v>0.28867</v>
       </c>
       <c r="C16" t="n">
-        <v>0.208943</v>
+        <v>0.209214</v>
       </c>
       <c r="D16" t="n">
-        <v>0.253364</v>
+        <v>0.253359</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.284639</v>
+        <v>0.277955</v>
       </c>
       <c r="C17" t="n">
-        <v>0.208374</v>
+        <v>0.208567</v>
       </c>
       <c r="D17" t="n">
-        <v>0.252462</v>
+        <v>0.252376</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.268443</v>
+        <v>0.267361</v>
       </c>
       <c r="C18" t="n">
-        <v>0.207899</v>
+        <v>0.207713</v>
       </c>
       <c r="D18" t="n">
-        <v>0.252515</v>
+        <v>0.252555</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.257535</v>
+        <v>0.257558</v>
       </c>
       <c r="C19" t="n">
-        <v>0.208254</v>
+        <v>0.207664</v>
       </c>
       <c r="D19" t="n">
-        <v>0.251253</v>
+        <v>0.251311</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.244772</v>
+        <v>0.245051</v>
       </c>
       <c r="C20" t="n">
-        <v>0.207938</v>
+        <v>0.207311</v>
       </c>
       <c r="D20" t="n">
-        <v>0.250427</v>
+        <v>0.250528</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.232105</v>
+        <v>0.232726</v>
       </c>
       <c r="C21" t="n">
-        <v>0.207937</v>
+        <v>0.20792</v>
       </c>
       <c r="D21" t="n">
-        <v>0.250163</v>
+        <v>0.250015</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.216793</v>
+        <v>0.217752</v>
       </c>
       <c r="C22" t="n">
-        <v>0.206939</v>
+        <v>0.207083</v>
       </c>
       <c r="D22" t="n">
-        <v>0.249585</v>
+        <v>0.249646</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.202516</v>
+        <v>0.20204</v>
       </c>
       <c r="C23" t="n">
-        <v>0.207006</v>
+        <v>0.206796</v>
       </c>
       <c r="D23" t="n">
-        <v>0.266664</v>
+        <v>0.266809</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.33948</v>
+        <v>0.339343</v>
       </c>
       <c r="C24" t="n">
-        <v>0.217664</v>
+        <v>0.21749</v>
       </c>
       <c r="D24" t="n">
-        <v>0.265139</v>
+        <v>0.265186</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.334726</v>
+        <v>0.333937</v>
       </c>
       <c r="C25" t="n">
-        <v>0.217282</v>
+        <v>0.216568</v>
       </c>
       <c r="D25" t="n">
-        <v>0.263857</v>
+        <v>0.263921</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.326453</v>
+        <v>0.325827</v>
       </c>
       <c r="C26" t="n">
-        <v>0.215812</v>
+        <v>0.214978</v>
       </c>
       <c r="D26" t="n">
-        <v>0.261854</v>
+        <v>0.261847</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.319924</v>
+        <v>0.319831</v>
       </c>
       <c r="C27" t="n">
-        <v>0.214157</v>
+        <v>0.214107</v>
       </c>
       <c r="D27" t="n">
-        <v>0.260515</v>
+        <v>0.260522</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.312735</v>
+        <v>0.312482</v>
       </c>
       <c r="C28" t="n">
-        <v>0.212479</v>
+        <v>0.213953</v>
       </c>
       <c r="D28" t="n">
-        <v>0.259244</v>
+        <v>0.259104</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.305725</v>
+        <v>0.305256</v>
       </c>
       <c r="C29" t="n">
-        <v>0.211886</v>
+        <v>0.212671</v>
       </c>
       <c r="D29" t="n">
-        <v>0.257733</v>
+        <v>0.257663</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.297279</v>
+        <v>0.296964</v>
       </c>
       <c r="C30" t="n">
-        <v>0.21086</v>
+        <v>0.211889</v>
       </c>
       <c r="D30" t="n">
-        <v>0.256832</v>
+        <v>0.256614</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.287728</v>
+        <v>0.287472</v>
       </c>
       <c r="C31" t="n">
-        <v>0.209761</v>
+        <v>0.20942</v>
       </c>
       <c r="D31" t="n">
-        <v>0.255091</v>
+        <v>0.25498</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.277366</v>
+        <v>0.277357</v>
       </c>
       <c r="C32" t="n">
-        <v>0.209718</v>
+        <v>0.210329</v>
       </c>
       <c r="D32" t="n">
-        <v>0.254868</v>
+        <v>0.254566</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.267108</v>
+        <v>0.266494</v>
       </c>
       <c r="C33" t="n">
-        <v>0.209514</v>
+        <v>0.210741</v>
       </c>
       <c r="D33" t="n">
-        <v>0.254242</v>
+        <v>0.254136</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.25493</v>
+        <v>0.255191</v>
       </c>
       <c r="C34" t="n">
-        <v>0.209299</v>
+        <v>0.209386</v>
       </c>
       <c r="D34" t="n">
-        <v>0.253293</v>
+        <v>0.253166</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.242215</v>
+        <v>0.242035</v>
       </c>
       <c r="C35" t="n">
-        <v>0.209782</v>
+        <v>0.209381</v>
       </c>
       <c r="D35" t="n">
-        <v>0.252572</v>
+        <v>0.252451</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.227866</v>
+        <v>0.227712</v>
       </c>
       <c r="C36" t="n">
-        <v>0.209992</v>
+        <v>0.20807</v>
       </c>
       <c r="D36" t="n">
-        <v>0.251663</v>
+        <v>0.251463</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.211947</v>
+        <v>0.211715</v>
       </c>
       <c r="C37" t="n">
-        <v>0.208679</v>
+        <v>0.207905</v>
       </c>
       <c r="D37" t="n">
-        <v>0.267769</v>
+        <v>0.267524</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.345383</v>
+        <v>0.345155</v>
       </c>
       <c r="C38" t="n">
-        <v>0.218404</v>
+        <v>0.21818</v>
       </c>
       <c r="D38" t="n">
-        <v>0.266181</v>
+        <v>0.266389</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.339139</v>
+        <v>0.339469</v>
       </c>
       <c r="C39" t="n">
-        <v>0.217124</v>
+        <v>0.216833</v>
       </c>
       <c r="D39" t="n">
-        <v>0.26444</v>
+        <v>0.264421</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.333907</v>
+        <v>0.333385</v>
       </c>
       <c r="C40" t="n">
-        <v>0.216039</v>
+        <v>0.215862</v>
       </c>
       <c r="D40" t="n">
-        <v>0.262677</v>
+        <v>0.262879</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.327484</v>
+        <v>0.326938</v>
       </c>
       <c r="C41" t="n">
-        <v>0.215371</v>
+        <v>0.215088</v>
       </c>
       <c r="D41" t="n">
-        <v>0.261718</v>
+        <v>0.26158</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.320232</v>
+        <v>0.32035</v>
       </c>
       <c r="C42" t="n">
-        <v>0.214484</v>
+        <v>0.214425</v>
       </c>
       <c r="D42" t="n">
-        <v>0.260764</v>
+        <v>0.260749</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.312126</v>
+        <v>0.311558</v>
       </c>
       <c r="C43" t="n">
-        <v>0.213968</v>
+        <v>0.21388</v>
       </c>
       <c r="D43" t="n">
-        <v>0.259485</v>
+        <v>0.259371</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.302694</v>
+        <v>0.30274</v>
       </c>
       <c r="C44" t="n">
-        <v>0.213231</v>
+        <v>0.213019</v>
       </c>
       <c r="D44" t="n">
-        <v>0.258483</v>
+        <v>0.258357</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.292578</v>
+        <v>0.292783</v>
       </c>
       <c r="C45" t="n">
-        <v>0.212577</v>
+        <v>0.212248</v>
       </c>
       <c r="D45" t="n">
-        <v>0.257475</v>
+        <v>0.257337</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.282716</v>
+        <v>0.282731</v>
       </c>
       <c r="C46" t="n">
-        <v>0.212028</v>
+        <v>0.211938</v>
       </c>
       <c r="D46" t="n">
-        <v>0.256522</v>
+        <v>0.256285</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.272351</v>
+        <v>0.272474</v>
       </c>
       <c r="C47" t="n">
-        <v>0.211483</v>
+        <v>0.211562</v>
       </c>
       <c r="D47" t="n">
-        <v>0.255788</v>
+        <v>0.255688</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.260658</v>
+        <v>0.260859</v>
       </c>
       <c r="C48" t="n">
-        <v>0.210703</v>
+        <v>0.210742</v>
       </c>
       <c r="D48" t="n">
-        <v>0.254387</v>
+        <v>0.254256</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.247615</v>
+        <v>0.247871</v>
       </c>
       <c r="C49" t="n">
-        <v>0.212256</v>
+        <v>0.211298</v>
       </c>
       <c r="D49" t="n">
-        <v>0.253276</v>
+        <v>0.253077</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.233926</v>
+        <v>0.233904</v>
       </c>
       <c r="C50" t="n">
-        <v>0.211574</v>
+        <v>0.212044</v>
       </c>
       <c r="D50" t="n">
-        <v>0.252732</v>
+        <v>0.252654</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.220048</v>
+        <v>0.219984</v>
       </c>
       <c r="C51" t="n">
-        <v>0.211015</v>
+        <v>0.211038</v>
       </c>
       <c r="D51" t="n">
-        <v>0.272936</v>
+        <v>0.273008</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.203379</v>
+        <v>0.203296</v>
       </c>
       <c r="C52" t="n">
-        <v>0.210459</v>
+        <v>0.210256</v>
       </c>
       <c r="D52" t="n">
-        <v>0.271092</v>
+        <v>0.270999</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.342935</v>
+        <v>0.343127</v>
       </c>
       <c r="C53" t="n">
-        <v>0.218592</v>
+        <v>0.218708</v>
       </c>
       <c r="D53" t="n">
-        <v>0.269282</v>
+        <v>0.269286</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.336979</v>
+        <v>0.337085</v>
       </c>
       <c r="C54" t="n">
-        <v>0.217649</v>
+        <v>0.218006</v>
       </c>
       <c r="D54" t="n">
-        <v>0.267827</v>
+        <v>0.267836</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.330732</v>
+        <v>0.33072</v>
       </c>
       <c r="C55" t="n">
-        <v>0.216943</v>
+        <v>0.21768</v>
       </c>
       <c r="D55" t="n">
-        <v>0.266436</v>
+        <v>0.266254</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.323274</v>
+        <v>0.323429</v>
       </c>
       <c r="C56" t="n">
-        <v>0.215972</v>
+        <v>0.215956</v>
       </c>
       <c r="D56" t="n">
-        <v>0.264696</v>
+        <v>0.264283</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.315035</v>
+        <v>0.3151</v>
       </c>
       <c r="C57" t="n">
-        <v>0.215444</v>
+        <v>0.215652</v>
       </c>
       <c r="D57" t="n">
-        <v>0.263203</v>
+        <v>0.262869</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.30598</v>
+        <v>0.306149</v>
       </c>
       <c r="C58" t="n">
-        <v>0.216276</v>
+        <v>0.215606</v>
       </c>
       <c r="D58" t="n">
-        <v>0.262041</v>
+        <v>0.26179</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.296595</v>
+        <v>0.296713</v>
       </c>
       <c r="C59" t="n">
-        <v>0.215198</v>
+        <v>0.21385</v>
       </c>
       <c r="D59" t="n">
-        <v>0.260747</v>
+        <v>0.260237</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.287038</v>
+        <v>0.286806</v>
       </c>
       <c r="C60" t="n">
-        <v>0.214619</v>
+        <v>0.214214</v>
       </c>
       <c r="D60" t="n">
-        <v>0.259593</v>
+        <v>0.259053</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.275858</v>
+        <v>0.275871</v>
       </c>
       <c r="C61" t="n">
-        <v>0.214051</v>
+        <v>0.213712</v>
       </c>
       <c r="D61" t="n">
-        <v>0.258215</v>
+        <v>0.257904</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.26403</v>
+        <v>0.264484</v>
       </c>
       <c r="C62" t="n">
-        <v>0.213375</v>
+        <v>0.213011</v>
       </c>
       <c r="D62" t="n">
-        <v>0.257005</v>
+        <v>0.256786</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.251139</v>
+        <v>0.251566</v>
       </c>
       <c r="C63" t="n">
-        <v>0.212813</v>
+        <v>0.212793</v>
       </c>
       <c r="D63" t="n">
-        <v>0.255545</v>
+        <v>0.255357</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.237202</v>
+        <v>0.237851</v>
       </c>
       <c r="C64" t="n">
-        <v>0.212338</v>
+        <v>0.211827</v>
       </c>
       <c r="D64" t="n">
-        <v>0.254262</v>
+        <v>0.25404</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.222791</v>
+        <v>0.22316</v>
       </c>
       <c r="C65" t="n">
-        <v>0.211786</v>
+        <v>0.211642</v>
       </c>
       <c r="D65" t="n">
-        <v>0.25337</v>
+        <v>0.253497</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.206644</v>
+        <v>0.20706</v>
       </c>
       <c r="C66" t="n">
-        <v>0.211054</v>
+        <v>0.210439</v>
       </c>
       <c r="D66" t="n">
-        <v>0.269816</v>
+        <v>0.270273</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.346095</v>
+        <v>0.346342</v>
       </c>
       <c r="C67" t="n">
-        <v>0.220018</v>
+        <v>0.220051</v>
       </c>
       <c r="D67" t="n">
-        <v>0.268557</v>
+        <v>0.268715</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.340477</v>
+        <v>0.340661</v>
       </c>
       <c r="C68" t="n">
-        <v>0.219151</v>
+        <v>0.219203</v>
       </c>
       <c r="D68" t="n">
-        <v>0.266973</v>
+        <v>0.266791</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.333717</v>
+        <v>0.333882</v>
       </c>
       <c r="C69" t="n">
-        <v>0.218297</v>
+        <v>0.218366</v>
       </c>
       <c r="D69" t="n">
-        <v>0.26433</v>
+        <v>0.264698</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.32688</v>
+        <v>0.32657</v>
       </c>
       <c r="C70" t="n">
-        <v>0.217376</v>
+        <v>0.21761</v>
       </c>
       <c r="D70" t="n">
-        <v>0.263423</v>
+        <v>0.263419</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.3185</v>
+        <v>0.318544</v>
       </c>
       <c r="C71" t="n">
-        <v>0.2183</v>
+        <v>0.216808</v>
       </c>
       <c r="D71" t="n">
-        <v>0.262344</v>
+        <v>0.262428</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.309412</v>
+        <v>0.309503</v>
       </c>
       <c r="C72" t="n">
-        <v>0.215765</v>
+        <v>0.216106</v>
       </c>
       <c r="D72" t="n">
-        <v>0.260929</v>
+        <v>0.261006</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.300048</v>
+        <v>0.300162</v>
       </c>
       <c r="C73" t="n">
-        <v>0.214028</v>
+        <v>0.214242</v>
       </c>
       <c r="D73" t="n">
-        <v>0.259602</v>
+        <v>0.259596</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.290067</v>
+        <v>0.289887</v>
       </c>
       <c r="C74" t="n">
-        <v>0.2149</v>
+        <v>0.213861</v>
       </c>
       <c r="D74" t="n">
-        <v>0.258625</v>
+        <v>0.258562</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.279168</v>
+        <v>0.279294</v>
       </c>
       <c r="C75" t="n">
-        <v>0.215073</v>
+        <v>0.214089</v>
       </c>
       <c r="D75" t="n">
-        <v>0.25757</v>
+        <v>0.257435</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.2674</v>
+        <v>0.267572</v>
       </c>
       <c r="C76" t="n">
-        <v>0.213683</v>
+        <v>0.213039</v>
       </c>
       <c r="D76" t="n">
-        <v>0.256273</v>
+        <v>0.256229</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.254603</v>
+        <v>0.254909</v>
       </c>
       <c r="C77" t="n">
-        <v>0.212355</v>
+        <v>0.212465</v>
       </c>
       <c r="D77" t="n">
-        <v>0.255132</v>
+        <v>0.255164</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.24106</v>
+        <v>0.24154</v>
       </c>
       <c r="C78" t="n">
-        <v>0.212602</v>
+        <v>0.211463</v>
       </c>
       <c r="D78" t="n">
-        <v>0.254071</v>
+        <v>0.254264</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.226134</v>
+        <v>0.226628</v>
       </c>
       <c r="C79" t="n">
-        <v>0.211762</v>
+        <v>0.211447</v>
       </c>
       <c r="D79" t="n">
-        <v>0.253143</v>
+        <v>0.25327</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.210736</v>
+        <v>0.211369</v>
       </c>
       <c r="C80" t="n">
-        <v>0.2108</v>
+        <v>0.21053</v>
       </c>
       <c r="D80" t="n">
-        <v>0.269783</v>
+        <v>0.270408</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.347916</v>
+        <v>0.347961</v>
       </c>
       <c r="C81" t="n">
-        <v>0.220764</v>
+        <v>0.220612</v>
       </c>
       <c r="D81" t="n">
-        <v>0.268274</v>
+        <v>0.268627</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.342268</v>
+        <v>0.342502</v>
       </c>
       <c r="C82" t="n">
-        <v>0.21935</v>
+        <v>0.218999</v>
       </c>
       <c r="D82" t="n">
-        <v>0.266576</v>
+        <v>0.267193</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.335913</v>
+        <v>0.335966</v>
       </c>
       <c r="C83" t="n">
-        <v>0.219357</v>
+        <v>0.219091</v>
       </c>
       <c r="D83" t="n">
-        <v>0.264926</v>
+        <v>0.265116</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.328633</v>
+        <v>0.328825</v>
       </c>
       <c r="C84" t="n">
-        <v>0.219355</v>
+        <v>0.21841</v>
       </c>
       <c r="D84" t="n">
-        <v>0.263676</v>
+        <v>0.263748</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.320831</v>
+        <v>0.320997</v>
       </c>
       <c r="C85" t="n">
-        <v>0.218549</v>
+        <v>0.217154</v>
       </c>
       <c r="D85" t="n">
-        <v>0.26215</v>
+        <v>0.262602</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.312421</v>
+        <v>0.31255</v>
       </c>
       <c r="C86" t="n">
-        <v>0.217509</v>
+        <v>0.216222</v>
       </c>
       <c r="D86" t="n">
-        <v>0.26139</v>
+        <v>0.261317</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.30288</v>
+        <v>0.302868</v>
       </c>
       <c r="C87" t="n">
-        <v>0.216383</v>
+        <v>0.215223</v>
       </c>
       <c r="D87" t="n">
-        <v>0.260096</v>
+        <v>0.260415</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.292835</v>
+        <v>0.292811</v>
       </c>
       <c r="C88" t="n">
-        <v>0.216178</v>
+        <v>0.214431</v>
       </c>
       <c r="D88" t="n">
-        <v>0.258944</v>
+        <v>0.258907</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.281886</v>
+        <v>0.282005</v>
       </c>
       <c r="C89" t="n">
-        <v>0.214531</v>
+        <v>0.214012</v>
       </c>
       <c r="D89" t="n">
-        <v>0.257632</v>
+        <v>0.257617</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.270143</v>
+        <v>0.270379</v>
       </c>
       <c r="C90" t="n">
-        <v>0.212663</v>
+        <v>0.212844</v>
       </c>
       <c r="D90" t="n">
-        <v>0.256429</v>
+        <v>0.256355</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.257635</v>
+        <v>0.258011</v>
       </c>
       <c r="C91" t="n">
-        <v>0.213234</v>
+        <v>0.212504</v>
       </c>
       <c r="D91" t="n">
-        <v>0.255424</v>
+        <v>0.255311</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.244219</v>
+        <v>0.24453</v>
       </c>
       <c r="C92" t="n">
-        <v>0.212254</v>
+        <v>0.211314</v>
       </c>
       <c r="D92" t="n">
-        <v>0.254399</v>
+        <v>0.254447</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.229964</v>
+        <v>0.230048</v>
       </c>
       <c r="C93" t="n">
-        <v>0.211656</v>
+        <v>0.210859</v>
       </c>
       <c r="D93" t="n">
-        <v>0.253431</v>
+        <v>0.253429</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.214517</v>
+        <v>0.214695</v>
       </c>
       <c r="C94" t="n">
-        <v>0.210889</v>
+        <v>0.210291</v>
       </c>
       <c r="D94" t="n">
-        <v>0.271457</v>
+        <v>0.271819</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.348849</v>
+        <v>0.348883</v>
       </c>
       <c r="C95" t="n">
-        <v>0.220179</v>
+        <v>0.220293</v>
       </c>
       <c r="D95" t="n">
-        <v>0.269114</v>
+        <v>0.269428</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.343768</v>
+        <v>0.34399</v>
       </c>
       <c r="C96" t="n">
-        <v>0.219114</v>
+        <v>0.219679</v>
       </c>
       <c r="D96" t="n">
-        <v>0.267445</v>
+        <v>0.267589</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.33742</v>
+        <v>0.337809</v>
       </c>
       <c r="C97" t="n">
-        <v>0.219398</v>
+        <v>0.218789</v>
       </c>
       <c r="D97" t="n">
-        <v>0.26602</v>
+        <v>0.26592</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.330513</v>
+        <v>0.330766</v>
       </c>
       <c r="C98" t="n">
-        <v>0.217575</v>
+        <v>0.218091</v>
       </c>
       <c r="D98" t="n">
-        <v>0.26421</v>
+        <v>0.264597</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.322931</v>
+        <v>0.323127</v>
       </c>
       <c r="C99" t="n">
-        <v>0.217888</v>
+        <v>0.216965</v>
       </c>
       <c r="D99" t="n">
-        <v>0.262796</v>
+        <v>0.263205</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.31442</v>
+        <v>0.31447</v>
       </c>
       <c r="C100" t="n">
-        <v>0.217264</v>
+        <v>0.215323</v>
       </c>
       <c r="D100" t="n">
-        <v>0.261131</v>
+        <v>0.261519</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.305081</v>
+        <v>0.305275</v>
       </c>
       <c r="C101" t="n">
-        <v>0.215026</v>
+        <v>0.214718</v>
       </c>
       <c r="D101" t="n">
-        <v>0.25988</v>
+        <v>0.259989</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.295135</v>
+        <v>0.295479</v>
       </c>
       <c r="C102" t="n">
-        <v>0.214144</v>
+        <v>0.214568</v>
       </c>
       <c r="D102" t="n">
-        <v>0.258373</v>
+        <v>0.259273</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.284337</v>
+        <v>0.284685</v>
       </c>
       <c r="C103" t="n">
-        <v>0.214947</v>
+        <v>0.214126</v>
       </c>
       <c r="D103" t="n">
-        <v>0.257212</v>
+        <v>0.257503</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.272785</v>
+        <v>0.27294</v>
       </c>
       <c r="C104" t="n">
-        <v>0.213942</v>
+        <v>0.214394</v>
       </c>
       <c r="D104" t="n">
-        <v>0.25662</v>
+        <v>0.256824</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.260185</v>
+        <v>0.260755</v>
       </c>
       <c r="C105" t="n">
-        <v>0.212843</v>
+        <v>0.213298</v>
       </c>
       <c r="D105" t="n">
-        <v>0.255685</v>
+        <v>0.255606</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.247141</v>
+        <v>0.247485</v>
       </c>
       <c r="C106" t="n">
-        <v>0.21229</v>
+        <v>0.211992</v>
       </c>
       <c r="D106" t="n">
-        <v>0.25466</v>
+        <v>0.254637</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.232657</v>
+        <v>0.233104</v>
       </c>
       <c r="C107" t="n">
-        <v>0.211061</v>
+        <v>0.210773</v>
       </c>
       <c r="D107" t="n">
-        <v>0.253652</v>
+        <v>0.253787</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.217785</v>
+        <v>0.218128</v>
       </c>
       <c r="C108" t="n">
-        <v>0.210577</v>
+        <v>0.210898</v>
       </c>
       <c r="D108" t="n">
-        <v>0.270049</v>
+        <v>0.272105</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.201446</v>
+        <v>0.201952</v>
       </c>
       <c r="C109" t="n">
-        <v>0.209542</v>
+        <v>0.210165</v>
       </c>
       <c r="D109" t="n">
-        <v>0.269882</v>
+        <v>0.27065</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.344645</v>
+        <v>0.344857</v>
       </c>
       <c r="C110" t="n">
-        <v>0.21975</v>
+        <v>0.220044</v>
       </c>
       <c r="D110" t="n">
-        <v>0.267898</v>
+        <v>0.267711</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.338453</v>
+        <v>0.339122</v>
       </c>
       <c r="C111" t="n">
-        <v>0.219045</v>
+        <v>0.218916</v>
       </c>
       <c r="D111" t="n">
-        <v>0.2662</v>
+        <v>0.266375</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.332137</v>
+        <v>0.332296</v>
       </c>
       <c r="C112" t="n">
-        <v>0.218044</v>
+        <v>0.218258</v>
       </c>
       <c r="D112" t="n">
-        <v>0.264771</v>
+        <v>0.265218</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.324563</v>
+        <v>0.324842</v>
       </c>
       <c r="C113" t="n">
-        <v>0.218489</v>
+        <v>0.21711</v>
       </c>
       <c r="D113" t="n">
-        <v>0.263318</v>
+        <v>0.263037</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.316167</v>
+        <v>0.316297</v>
       </c>
       <c r="C114" t="n">
-        <v>0.217755</v>
+        <v>0.216103</v>
       </c>
       <c r="D114" t="n">
-        <v>0.261823</v>
+        <v>0.261811</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.307149</v>
+        <v>0.307382</v>
       </c>
       <c r="C115" t="n">
-        <v>0.216224</v>
+        <v>0.215778</v>
       </c>
       <c r="D115" t="n">
-        <v>0.260717</v>
+        <v>0.261087</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.297315</v>
+        <v>0.29753</v>
       </c>
       <c r="C116" t="n">
-        <v>0.215673</v>
+        <v>0.214735</v>
       </c>
       <c r="D116" t="n">
-        <v>0.25952</v>
+        <v>0.259774</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.286769</v>
+        <v>0.28696</v>
       </c>
       <c r="C117" t="n">
-        <v>0.214951</v>
+        <v>0.213844</v>
       </c>
       <c r="D117" t="n">
-        <v>0.25845</v>
+        <v>0.258579</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.275271</v>
+        <v>0.275699</v>
       </c>
       <c r="C118" t="n">
-        <v>0.214184</v>
+        <v>0.212807</v>
       </c>
       <c r="D118" t="n">
-        <v>0.257177</v>
+        <v>0.256813</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.26288</v>
+        <v>0.263499</v>
       </c>
       <c r="C119" t="n">
-        <v>0.212418</v>
+        <v>0.212594</v>
       </c>
       <c r="D119" t="n">
-        <v>0.25595</v>
+        <v>0.256038</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.249784</v>
+        <v>0.250627</v>
       </c>
       <c r="C120" t="n">
-        <v>0.212733</v>
+        <v>0.211902</v>
       </c>
       <c r="D120" t="n">
-        <v>0.254309</v>
+        <v>0.254855</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.235823</v>
+        <v>0.236567</v>
       </c>
       <c r="C121" t="n">
-        <v>0.211515</v>
+        <v>0.211668</v>
       </c>
       <c r="D121" t="n">
-        <v>0.253814</v>
+        <v>0.253969</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.220743</v>
+        <v>0.221578</v>
       </c>
       <c r="C122" t="n">
-        <v>0.211115</v>
+        <v>0.210831</v>
       </c>
       <c r="D122" t="n">
-        <v>0.252382</v>
+        <v>0.253006</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.204892</v>
+        <v>0.205619</v>
       </c>
       <c r="C123" t="n">
-        <v>0.209949</v>
+        <v>0.210444</v>
       </c>
       <c r="D123" t="n">
-        <v>0.270425</v>
+        <v>0.269649</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.3458</v>
+        <v>0.346107</v>
       </c>
       <c r="C124" t="n">
-        <v>0.220088</v>
+        <v>0.219232</v>
       </c>
       <c r="D124" t="n">
-        <v>0.267588</v>
+        <v>0.268894</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.340076</v>
+        <v>0.340332</v>
       </c>
       <c r="C125" t="n">
-        <v>0.219614</v>
+        <v>0.219131</v>
       </c>
       <c r="D125" t="n">
-        <v>0.267159</v>
+        <v>0.267201</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.333482</v>
+        <v>0.333512</v>
       </c>
       <c r="C126" t="n">
-        <v>0.218721</v>
+        <v>0.218037</v>
       </c>
       <c r="D126" t="n">
-        <v>0.265364</v>
+        <v>0.265171</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.325916</v>
+        <v>0.326263</v>
       </c>
       <c r="C127" t="n">
-        <v>0.217876</v>
+        <v>0.217042</v>
       </c>
       <c r="D127" t="n">
-        <v>0.263205</v>
+        <v>0.263888</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.317842</v>
+        <v>0.31827</v>
       </c>
       <c r="C128" t="n">
-        <v>0.217711</v>
+        <v>0.215996</v>
       </c>
       <c r="D128" t="n">
-        <v>0.262308</v>
+        <v>0.262297</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.309169</v>
+        <v>0.309204</v>
       </c>
       <c r="C129" t="n">
-        <v>0.215602</v>
+        <v>0.215282</v>
       </c>
       <c r="D129" t="n">
-        <v>0.260854</v>
+        <v>0.260652</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.299382</v>
+        <v>0.299608</v>
       </c>
       <c r="C130" t="n">
-        <v>0.21433</v>
+        <v>0.214742</v>
       </c>
       <c r="D130" t="n">
-        <v>0.259652</v>
+        <v>0.259471</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.289196</v>
+        <v>0.289328</v>
       </c>
       <c r="C131" t="n">
-        <v>0.215446</v>
+        <v>0.214157</v>
       </c>
       <c r="D131" t="n">
-        <v>0.258315</v>
+        <v>0.258354</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.278271</v>
+        <v>0.278427</v>
       </c>
       <c r="C132" t="n">
-        <v>0.214464</v>
+        <v>0.213157</v>
       </c>
       <c r="D132" t="n">
-        <v>0.257126</v>
+        <v>0.257532</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.266093</v>
+        <v>0.266368</v>
       </c>
       <c r="C133" t="n">
-        <v>0.213738</v>
+        <v>0.212813</v>
       </c>
       <c r="D133" t="n">
-        <v>0.255481</v>
+        <v>0.256578</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.253234</v>
+        <v>0.253507</v>
       </c>
       <c r="C134" t="n">
-        <v>0.212609</v>
+        <v>0.21191</v>
       </c>
       <c r="D134" t="n">
-        <v>0.255032</v>
+        <v>0.255261</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.239207</v>
+        <v>0.240073</v>
       </c>
       <c r="C135" t="n">
-        <v>0.211856</v>
+        <v>0.21256</v>
       </c>
       <c r="D135" t="n">
-        <v>0.254013</v>
+        <v>0.254187</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.224533</v>
+        <v>0.224951</v>
       </c>
       <c r="C136" t="n">
-        <v>0.210821</v>
+        <v>0.211641</v>
       </c>
       <c r="D136" t="n">
-        <v>0.252728</v>
+        <v>0.253139</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.20866</v>
+        <v>0.208733</v>
       </c>
       <c r="C137" t="n">
-        <v>0.210824</v>
+        <v>0.210962</v>
       </c>
       <c r="D137" t="n">
-        <v>0.269834</v>
+        <v>0.271302</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.346974</v>
+        <v>0.34745</v>
       </c>
       <c r="C138" t="n">
-        <v>0.220429</v>
+        <v>0.220896</v>
       </c>
       <c r="D138" t="n">
-        <v>0.268245</v>
+        <v>0.269489</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.341167</v>
+        <v>0.34157</v>
       </c>
       <c r="C139" t="n">
-        <v>0.219704</v>
+        <v>0.220039</v>
       </c>
       <c r="D139" t="n">
-        <v>0.267372</v>
+        <v>0.267402</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.334584</v>
+        <v>0.336039</v>
       </c>
       <c r="C140" t="n">
-        <v>0.219244</v>
+        <v>0.219674</v>
       </c>
       <c r="D140" t="n">
-        <v>0.265314</v>
+        <v>0.265617</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.327324</v>
+        <v>0.328962</v>
       </c>
       <c r="C141" t="n">
-        <v>0.21871</v>
+        <v>0.219226</v>
       </c>
       <c r="D141" t="n">
-        <v>0.264247</v>
+        <v>0.264507</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.31956</v>
+        <v>0.320452</v>
       </c>
       <c r="C142" t="n">
-        <v>0.216952</v>
+        <v>0.21855</v>
       </c>
       <c r="D142" t="n">
-        <v>0.261505</v>
+        <v>0.263254</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.31101</v>
+        <v>0.311917</v>
       </c>
       <c r="C143" t="n">
-        <v>0.217334</v>
+        <v>0.21588</v>
       </c>
       <c r="D143" t="n">
-        <v>0.260357</v>
+        <v>0.262044</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.271016</v>
+        <v>0.274529</v>
       </c>
       <c r="C2" t="n">
-        <v>0.190451</v>
+        <v>0.190979</v>
       </c>
       <c r="D2" t="n">
-        <v>0.237719</v>
+        <v>0.238264</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.26247</v>
+        <v>0.264945</v>
       </c>
       <c r="C3" t="n">
-        <v>0.192303</v>
+        <v>0.192493</v>
       </c>
       <c r="D3" t="n">
-        <v>0.237132</v>
+        <v>0.237568</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.251164</v>
+        <v>0.25224</v>
       </c>
       <c r="C4" t="n">
-        <v>0.193826</v>
+        <v>0.193456</v>
       </c>
       <c r="D4" t="n">
-        <v>0.237649</v>
+        <v>0.237264</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.240708</v>
+        <v>0.241517</v>
       </c>
       <c r="C5" t="n">
-        <v>0.19426</v>
+        <v>0.193746</v>
       </c>
       <c r="D5" t="n">
-        <v>0.238943</v>
+        <v>0.238427</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.231412</v>
+        <v>0.233087</v>
       </c>
       <c r="C6" t="n">
-        <v>0.195483</v>
+        <v>0.196196</v>
       </c>
       <c r="D6" t="n">
-        <v>0.238373</v>
+        <v>0.238525</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.219553</v>
+        <v>0.221235</v>
       </c>
       <c r="C7" t="n">
-        <v>0.195721</v>
+        <v>0.194973</v>
       </c>
       <c r="D7" t="n">
-        <v>0.239693</v>
+        <v>0.23928</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.206709</v>
+        <v>0.20737</v>
       </c>
       <c r="C8" t="n">
-        <v>0.196329</v>
+        <v>0.195717</v>
       </c>
       <c r="D8" t="n">
-        <v>0.240686</v>
+        <v>0.240922</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.192253</v>
+        <v>0.192366</v>
       </c>
       <c r="C9" t="n">
-        <v>0.197289</v>
+        <v>0.196954</v>
       </c>
       <c r="D9" t="n">
-        <v>0.260421</v>
+        <v>0.260689</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.330623</v>
+        <v>0.331272</v>
       </c>
       <c r="C10" t="n">
-        <v>0.211929</v>
+        <v>0.212352</v>
       </c>
       <c r="D10" t="n">
-        <v>0.259328</v>
+        <v>0.259296</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.324297</v>
+        <v>0.324981</v>
       </c>
       <c r="C11" t="n">
-        <v>0.212255</v>
+        <v>0.212191</v>
       </c>
       <c r="D11" t="n">
-        <v>0.258704</v>
+        <v>0.258507</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.317699</v>
+        <v>0.31817</v>
       </c>
       <c r="C12" t="n">
-        <v>0.211654</v>
+        <v>0.211921</v>
       </c>
       <c r="D12" t="n">
-        <v>0.258402</v>
+        <v>0.258186</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.310316</v>
+        <v>0.31155</v>
       </c>
       <c r="C13" t="n">
-        <v>0.210659</v>
+        <v>0.210963</v>
       </c>
       <c r="D13" t="n">
-        <v>0.25652</v>
+        <v>0.256035</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.303169</v>
+        <v>0.304581</v>
       </c>
       <c r="C14" t="n">
-        <v>0.210025</v>
+        <v>0.210372</v>
       </c>
       <c r="D14" t="n">
-        <v>0.25467</v>
+        <v>0.254437</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.295914</v>
+        <v>0.297272</v>
       </c>
       <c r="C15" t="n">
-        <v>0.210301</v>
+        <v>0.210433</v>
       </c>
       <c r="D15" t="n">
-        <v>0.254281</v>
+        <v>0.254229</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.28867</v>
+        <v>0.289231</v>
       </c>
       <c r="C16" t="n">
-        <v>0.209214</v>
+        <v>0.209511</v>
       </c>
       <c r="D16" t="n">
-        <v>0.253359</v>
+        <v>0.253791</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.277955</v>
+        <v>0.27883</v>
       </c>
       <c r="C17" t="n">
-        <v>0.208567</v>
+        <v>0.208488</v>
       </c>
       <c r="D17" t="n">
-        <v>0.252376</v>
+        <v>0.252762</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.267361</v>
+        <v>0.269016</v>
       </c>
       <c r="C18" t="n">
-        <v>0.207713</v>
+        <v>0.208196</v>
       </c>
       <c r="D18" t="n">
-        <v>0.252555</v>
+        <v>0.252541</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.257558</v>
+        <v>0.258679</v>
       </c>
       <c r="C19" t="n">
-        <v>0.207664</v>
+        <v>0.207754</v>
       </c>
       <c r="D19" t="n">
-        <v>0.251311</v>
+        <v>0.251241</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.245051</v>
+        <v>0.245395</v>
       </c>
       <c r="C20" t="n">
-        <v>0.207311</v>
+        <v>0.207178</v>
       </c>
       <c r="D20" t="n">
-        <v>0.250528</v>
+        <v>0.250405</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.232726</v>
+        <v>0.232745</v>
       </c>
       <c r="C21" t="n">
-        <v>0.20792</v>
+        <v>0.208097</v>
       </c>
       <c r="D21" t="n">
-        <v>0.250015</v>
+        <v>0.25038</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.217752</v>
+        <v>0.218476</v>
       </c>
       <c r="C22" t="n">
-        <v>0.207083</v>
+        <v>0.206942</v>
       </c>
       <c r="D22" t="n">
-        <v>0.249646</v>
+        <v>0.249832</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.20204</v>
+        <v>0.202771</v>
       </c>
       <c r="C23" t="n">
-        <v>0.206796</v>
+        <v>0.207166</v>
       </c>
       <c r="D23" t="n">
-        <v>0.266809</v>
+        <v>0.266758</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.339343</v>
+        <v>0.339227</v>
       </c>
       <c r="C24" t="n">
-        <v>0.21749</v>
+        <v>0.217902</v>
       </c>
       <c r="D24" t="n">
-        <v>0.265186</v>
+        <v>0.264931</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.333937</v>
+        <v>0.334559</v>
       </c>
       <c r="C25" t="n">
-        <v>0.216568</v>
+        <v>0.216254</v>
       </c>
       <c r="D25" t="n">
-        <v>0.263921</v>
+        <v>0.263952</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.325827</v>
+        <v>0.32688</v>
       </c>
       <c r="C26" t="n">
-        <v>0.214978</v>
+        <v>0.214755</v>
       </c>
       <c r="D26" t="n">
-        <v>0.261847</v>
+        <v>0.261718</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.319831</v>
+        <v>0.320809</v>
       </c>
       <c r="C27" t="n">
-        <v>0.214107</v>
+        <v>0.214897</v>
       </c>
       <c r="D27" t="n">
-        <v>0.260522</v>
+        <v>0.260636</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.312482</v>
+        <v>0.313416</v>
       </c>
       <c r="C28" t="n">
-        <v>0.213953</v>
+        <v>0.212675</v>
       </c>
       <c r="D28" t="n">
-        <v>0.259104</v>
+        <v>0.258925</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.305256</v>
+        <v>0.306072</v>
       </c>
       <c r="C29" t="n">
-        <v>0.212671</v>
+        <v>0.212074</v>
       </c>
       <c r="D29" t="n">
-        <v>0.257663</v>
+        <v>0.257534</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.296964</v>
+        <v>0.297824</v>
       </c>
       <c r="C30" t="n">
-        <v>0.211889</v>
+        <v>0.211249</v>
       </c>
       <c r="D30" t="n">
-        <v>0.256614</v>
+        <v>0.256481</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.287472</v>
+        <v>0.287806</v>
       </c>
       <c r="C31" t="n">
-        <v>0.20942</v>
+        <v>0.209615</v>
       </c>
       <c r="D31" t="n">
-        <v>0.25498</v>
+        <v>0.254996</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.277357</v>
+        <v>0.277561</v>
       </c>
       <c r="C32" t="n">
-        <v>0.210329</v>
+        <v>0.210204</v>
       </c>
       <c r="D32" t="n">
-        <v>0.254566</v>
+        <v>0.254492</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.266494</v>
+        <v>0.266948</v>
       </c>
       <c r="C33" t="n">
-        <v>0.210741</v>
+        <v>0.209525</v>
       </c>
       <c r="D33" t="n">
-        <v>0.254136</v>
+        <v>0.254279</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.255191</v>
+        <v>0.25565</v>
       </c>
       <c r="C34" t="n">
-        <v>0.209386</v>
+        <v>0.209268</v>
       </c>
       <c r="D34" t="n">
-        <v>0.253166</v>
+        <v>0.253416</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.242035</v>
+        <v>0.242452</v>
       </c>
       <c r="C35" t="n">
-        <v>0.209381</v>
+        <v>0.209026</v>
       </c>
       <c r="D35" t="n">
-        <v>0.252451</v>
+        <v>0.252497</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.227712</v>
+        <v>0.22808</v>
       </c>
       <c r="C36" t="n">
-        <v>0.20807</v>
+        <v>0.208578</v>
       </c>
       <c r="D36" t="n">
-        <v>0.251463</v>
+        <v>0.251416</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.211715</v>
+        <v>0.212711</v>
       </c>
       <c r="C37" t="n">
-        <v>0.207905</v>
+        <v>0.207683</v>
       </c>
       <c r="D37" t="n">
-        <v>0.267524</v>
+        <v>0.267917</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.345155</v>
+        <v>0.345508</v>
       </c>
       <c r="C38" t="n">
-        <v>0.21818</v>
+        <v>0.218551</v>
       </c>
       <c r="D38" t="n">
-        <v>0.266389</v>
+        <v>0.26644</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.339469</v>
+        <v>0.339416</v>
       </c>
       <c r="C39" t="n">
-        <v>0.216833</v>
+        <v>0.21695</v>
       </c>
       <c r="D39" t="n">
-        <v>0.264421</v>
+        <v>0.264675</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.333385</v>
+        <v>0.334038</v>
       </c>
       <c r="C40" t="n">
-        <v>0.215862</v>
+        <v>0.216069</v>
       </c>
       <c r="D40" t="n">
-        <v>0.262879</v>
+        <v>0.262909</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.326938</v>
+        <v>0.32729</v>
       </c>
       <c r="C41" t="n">
-        <v>0.215088</v>
+        <v>0.215329</v>
       </c>
       <c r="D41" t="n">
-        <v>0.26158</v>
+        <v>0.261635</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.32035</v>
+        <v>0.32062</v>
       </c>
       <c r="C42" t="n">
-        <v>0.214425</v>
+        <v>0.214765</v>
       </c>
       <c r="D42" t="n">
-        <v>0.260749</v>
+        <v>0.260758</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.311558</v>
+        <v>0.311861</v>
       </c>
       <c r="C43" t="n">
-        <v>0.21388</v>
+        <v>0.213999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.259371</v>
+        <v>0.259424</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.30274</v>
+        <v>0.303123</v>
       </c>
       <c r="C44" t="n">
-        <v>0.213019</v>
+        <v>0.213237</v>
       </c>
       <c r="D44" t="n">
-        <v>0.258357</v>
+        <v>0.258468</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.292783</v>
+        <v>0.293045</v>
       </c>
       <c r="C45" t="n">
-        <v>0.212248</v>
+        <v>0.212493</v>
       </c>
       <c r="D45" t="n">
-        <v>0.257337</v>
+        <v>0.257264</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.282731</v>
+        <v>0.282787</v>
       </c>
       <c r="C46" t="n">
-        <v>0.211938</v>
+        <v>0.212021</v>
       </c>
       <c r="D46" t="n">
-        <v>0.256285</v>
+        <v>0.256573</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.272474</v>
+        <v>0.27246</v>
       </c>
       <c r="C47" t="n">
-        <v>0.211562</v>
+        <v>0.211392</v>
       </c>
       <c r="D47" t="n">
-        <v>0.255688</v>
+        <v>0.255883</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.260859</v>
+        <v>0.260519</v>
       </c>
       <c r="C48" t="n">
-        <v>0.210742</v>
+        <v>0.210749</v>
       </c>
       <c r="D48" t="n">
-        <v>0.254256</v>
+        <v>0.254469</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.247871</v>
+        <v>0.247979</v>
       </c>
       <c r="C49" t="n">
-        <v>0.211298</v>
+        <v>0.212229</v>
       </c>
       <c r="D49" t="n">
-        <v>0.253077</v>
+        <v>0.253262</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.233904</v>
+        <v>0.234383</v>
       </c>
       <c r="C50" t="n">
-        <v>0.212044</v>
+        <v>0.211719</v>
       </c>
       <c r="D50" t="n">
-        <v>0.252654</v>
+        <v>0.252613</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.219984</v>
+        <v>0.220223</v>
       </c>
       <c r="C51" t="n">
-        <v>0.211038</v>
+        <v>0.211283</v>
       </c>
       <c r="D51" t="n">
-        <v>0.273008</v>
+        <v>0.272341</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.203296</v>
+        <v>0.20363</v>
       </c>
       <c r="C52" t="n">
-        <v>0.210256</v>
+        <v>0.210437</v>
       </c>
       <c r="D52" t="n">
-        <v>0.270999</v>
+        <v>0.271345</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.343127</v>
+        <v>0.343117</v>
       </c>
       <c r="C53" t="n">
-        <v>0.218708</v>
+        <v>0.218697</v>
       </c>
       <c r="D53" t="n">
-        <v>0.269286</v>
+        <v>0.269603</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.337085</v>
+        <v>0.337151</v>
       </c>
       <c r="C54" t="n">
-        <v>0.218006</v>
+        <v>0.218257</v>
       </c>
       <c r="D54" t="n">
-        <v>0.267836</v>
+        <v>0.268106</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.33072</v>
+        <v>0.331005</v>
       </c>
       <c r="C55" t="n">
-        <v>0.21768</v>
+        <v>0.217299</v>
       </c>
       <c r="D55" t="n">
-        <v>0.266254</v>
+        <v>0.26676</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.323429</v>
+        <v>0.32347</v>
       </c>
       <c r="C56" t="n">
-        <v>0.215956</v>
+        <v>0.216116</v>
       </c>
       <c r="D56" t="n">
-        <v>0.264283</v>
+        <v>0.264875</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.3151</v>
+        <v>0.315506</v>
       </c>
       <c r="C57" t="n">
-        <v>0.215652</v>
+        <v>0.215791</v>
       </c>
       <c r="D57" t="n">
-        <v>0.262869</v>
+        <v>0.26309</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.306149</v>
+        <v>0.306505</v>
       </c>
       <c r="C58" t="n">
-        <v>0.215606</v>
+        <v>0.215198</v>
       </c>
       <c r="D58" t="n">
-        <v>0.26179</v>
+        <v>0.262228</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.296713</v>
+        <v>0.296745</v>
       </c>
       <c r="C59" t="n">
-        <v>0.21385</v>
+        <v>0.214078</v>
       </c>
       <c r="D59" t="n">
-        <v>0.260237</v>
+        <v>0.260929</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.286806</v>
+        <v>0.28692</v>
       </c>
       <c r="C60" t="n">
-        <v>0.214214</v>
+        <v>0.214267</v>
       </c>
       <c r="D60" t="n">
-        <v>0.259053</v>
+        <v>0.259826</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.275871</v>
+        <v>0.276076</v>
       </c>
       <c r="C61" t="n">
-        <v>0.213712</v>
+        <v>0.213462</v>
       </c>
       <c r="D61" t="n">
-        <v>0.257904</v>
+        <v>0.258532</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.264484</v>
+        <v>0.264106</v>
       </c>
       <c r="C62" t="n">
-        <v>0.213011</v>
+        <v>0.212977</v>
       </c>
       <c r="D62" t="n">
-        <v>0.256786</v>
+        <v>0.257237</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.251566</v>
+        <v>0.251466</v>
       </c>
       <c r="C63" t="n">
-        <v>0.212793</v>
+        <v>0.21243</v>
       </c>
       <c r="D63" t="n">
-        <v>0.255357</v>
+        <v>0.255538</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.237851</v>
+        <v>0.237868</v>
       </c>
       <c r="C64" t="n">
-        <v>0.211827</v>
+        <v>0.211726</v>
       </c>
       <c r="D64" t="n">
-        <v>0.25404</v>
+        <v>0.254268</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.22316</v>
+        <v>0.22308</v>
       </c>
       <c r="C65" t="n">
-        <v>0.211642</v>
+        <v>0.211474</v>
       </c>
       <c r="D65" t="n">
-        <v>0.253497</v>
+        <v>0.253342</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.20706</v>
+        <v>0.207105</v>
       </c>
       <c r="C66" t="n">
-        <v>0.210439</v>
+        <v>0.210501</v>
       </c>
       <c r="D66" t="n">
-        <v>0.270273</v>
+        <v>0.270017</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.346342</v>
+        <v>0.346118</v>
       </c>
       <c r="C67" t="n">
-        <v>0.220051</v>
+        <v>0.219696</v>
       </c>
       <c r="D67" t="n">
-        <v>0.268715</v>
+        <v>0.268547</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.340661</v>
+        <v>0.340444</v>
       </c>
       <c r="C68" t="n">
-        <v>0.219203</v>
+        <v>0.218505</v>
       </c>
       <c r="D68" t="n">
-        <v>0.266791</v>
+        <v>0.267093</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.333882</v>
+        <v>0.334037</v>
       </c>
       <c r="C69" t="n">
-        <v>0.218366</v>
+        <v>0.217838</v>
       </c>
       <c r="D69" t="n">
-        <v>0.264698</v>
+        <v>0.26468</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.32657</v>
+        <v>0.326854</v>
       </c>
       <c r="C70" t="n">
-        <v>0.21761</v>
+        <v>0.217695</v>
       </c>
       <c r="D70" t="n">
-        <v>0.263419</v>
+        <v>0.263517</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.318544</v>
+        <v>0.318403</v>
       </c>
       <c r="C71" t="n">
-        <v>0.216808</v>
+        <v>0.216311</v>
       </c>
       <c r="D71" t="n">
-        <v>0.262428</v>
+        <v>0.262484</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.309503</v>
+        <v>0.309588</v>
       </c>
       <c r="C72" t="n">
-        <v>0.216106</v>
+        <v>0.215987</v>
       </c>
       <c r="D72" t="n">
-        <v>0.261006</v>
+        <v>0.261054</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.300162</v>
+        <v>0.300176</v>
       </c>
       <c r="C73" t="n">
-        <v>0.214242</v>
+        <v>0.214297</v>
       </c>
       <c r="D73" t="n">
-        <v>0.259596</v>
+        <v>0.259663</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.289887</v>
+        <v>0.290184</v>
       </c>
       <c r="C74" t="n">
-        <v>0.213861</v>
+        <v>0.213858</v>
       </c>
       <c r="D74" t="n">
-        <v>0.258562</v>
+        <v>0.25843</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.279294</v>
+        <v>0.279247</v>
       </c>
       <c r="C75" t="n">
-        <v>0.214089</v>
+        <v>0.213814</v>
       </c>
       <c r="D75" t="n">
-        <v>0.257435</v>
+        <v>0.257581</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.267572</v>
+        <v>0.26756</v>
       </c>
       <c r="C76" t="n">
-        <v>0.213039</v>
+        <v>0.212875</v>
       </c>
       <c r="D76" t="n">
-        <v>0.256229</v>
+        <v>0.256277</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.254909</v>
+        <v>0.254898</v>
       </c>
       <c r="C77" t="n">
-        <v>0.212465</v>
+        <v>0.213553</v>
       </c>
       <c r="D77" t="n">
-        <v>0.255164</v>
+        <v>0.255135</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.24154</v>
+        <v>0.241069</v>
       </c>
       <c r="C78" t="n">
-        <v>0.211463</v>
+        <v>0.212792</v>
       </c>
       <c r="D78" t="n">
-        <v>0.254264</v>
+        <v>0.254058</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.226628</v>
+        <v>0.226157</v>
       </c>
       <c r="C79" t="n">
-        <v>0.211447</v>
+        <v>0.211736</v>
       </c>
       <c r="D79" t="n">
-        <v>0.25327</v>
+        <v>0.25306</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.211369</v>
+        <v>0.210542</v>
       </c>
       <c r="C80" t="n">
-        <v>0.21053</v>
+        <v>0.211079</v>
       </c>
       <c r="D80" t="n">
-        <v>0.270408</v>
+        <v>0.270164</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.347961</v>
+        <v>0.348091</v>
       </c>
       <c r="C81" t="n">
-        <v>0.220612</v>
+        <v>0.22124</v>
       </c>
       <c r="D81" t="n">
-        <v>0.268627</v>
+        <v>0.268835</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.342502</v>
+        <v>0.342454</v>
       </c>
       <c r="C82" t="n">
-        <v>0.218999</v>
+        <v>0.220024</v>
       </c>
       <c r="D82" t="n">
-        <v>0.267193</v>
+        <v>0.267214</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.335966</v>
+        <v>0.335943</v>
       </c>
       <c r="C83" t="n">
-        <v>0.219091</v>
+        <v>0.219406</v>
       </c>
       <c r="D83" t="n">
-        <v>0.265116</v>
+        <v>0.264549</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.328825</v>
+        <v>0.3289</v>
       </c>
       <c r="C84" t="n">
-        <v>0.21841</v>
+        <v>0.217641</v>
       </c>
       <c r="D84" t="n">
-        <v>0.263748</v>
+        <v>0.263972</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.320997</v>
+        <v>0.321187</v>
       </c>
       <c r="C85" t="n">
-        <v>0.217154</v>
+        <v>0.216981</v>
       </c>
       <c r="D85" t="n">
-        <v>0.262602</v>
+        <v>0.26277</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.31255</v>
+        <v>0.312703</v>
       </c>
       <c r="C86" t="n">
-        <v>0.216222</v>
+        <v>0.216558</v>
       </c>
       <c r="D86" t="n">
-        <v>0.261317</v>
+        <v>0.261738</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.302868</v>
+        <v>0.303</v>
       </c>
       <c r="C87" t="n">
-        <v>0.215223</v>
+        <v>0.215019</v>
       </c>
       <c r="D87" t="n">
-        <v>0.260415</v>
+        <v>0.26018</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.292811</v>
+        <v>0.293188</v>
       </c>
       <c r="C88" t="n">
-        <v>0.214431</v>
+        <v>0.214489</v>
       </c>
       <c r="D88" t="n">
-        <v>0.258907</v>
+        <v>0.259174</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.282005</v>
+        <v>0.282138</v>
       </c>
       <c r="C89" t="n">
-        <v>0.214012</v>
+        <v>0.21387</v>
       </c>
       <c r="D89" t="n">
-        <v>0.257617</v>
+        <v>0.257841</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.270379</v>
+        <v>0.270484</v>
       </c>
       <c r="C90" t="n">
-        <v>0.212844</v>
+        <v>0.21285</v>
       </c>
       <c r="D90" t="n">
-        <v>0.256355</v>
+        <v>0.25649</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.258011</v>
+        <v>0.257934</v>
       </c>
       <c r="C91" t="n">
-        <v>0.212504</v>
+        <v>0.212535</v>
       </c>
       <c r="D91" t="n">
-        <v>0.255311</v>
+        <v>0.255081</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.24453</v>
+        <v>0.244319</v>
       </c>
       <c r="C92" t="n">
-        <v>0.211314</v>
+        <v>0.211215</v>
       </c>
       <c r="D92" t="n">
-        <v>0.254447</v>
+        <v>0.254209</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.230048</v>
+        <v>0.230172</v>
       </c>
       <c r="C93" t="n">
-        <v>0.210859</v>
+        <v>0.210951</v>
       </c>
       <c r="D93" t="n">
-        <v>0.253429</v>
+        <v>0.253594</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.214695</v>
+        <v>0.214847</v>
       </c>
       <c r="C94" t="n">
-        <v>0.210291</v>
+        <v>0.210796</v>
       </c>
       <c r="D94" t="n">
-        <v>0.271819</v>
+        <v>0.271004</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.348883</v>
+        <v>0.349029</v>
       </c>
       <c r="C95" t="n">
-        <v>0.220293</v>
+        <v>0.219703</v>
       </c>
       <c r="D95" t="n">
-        <v>0.269428</v>
+        <v>0.269085</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.34399</v>
+        <v>0.343692</v>
       </c>
       <c r="C96" t="n">
-        <v>0.219679</v>
+        <v>0.219177</v>
       </c>
       <c r="D96" t="n">
-        <v>0.267589</v>
+        <v>0.267574</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.337809</v>
+        <v>0.337563</v>
       </c>
       <c r="C97" t="n">
-        <v>0.218789</v>
+        <v>0.218076</v>
       </c>
       <c r="D97" t="n">
-        <v>0.26592</v>
+        <v>0.266234</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.330766</v>
+        <v>0.330888</v>
       </c>
       <c r="C98" t="n">
-        <v>0.218091</v>
+        <v>0.217525</v>
       </c>
       <c r="D98" t="n">
-        <v>0.264597</v>
+        <v>0.264206</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.323127</v>
+        <v>0.323186</v>
       </c>
       <c r="C99" t="n">
-        <v>0.216965</v>
+        <v>0.216608</v>
       </c>
       <c r="D99" t="n">
-        <v>0.263205</v>
+        <v>0.263055</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.31447</v>
+        <v>0.314525</v>
       </c>
       <c r="C100" t="n">
-        <v>0.215323</v>
+        <v>0.215926</v>
       </c>
       <c r="D100" t="n">
-        <v>0.261519</v>
+        <v>0.261529</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.305275</v>
+        <v>0.305465</v>
       </c>
       <c r="C101" t="n">
-        <v>0.214718</v>
+        <v>0.214788</v>
       </c>
       <c r="D101" t="n">
-        <v>0.259989</v>
+        <v>0.260065</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.295479</v>
+        <v>0.295355</v>
       </c>
       <c r="C102" t="n">
-        <v>0.214568</v>
+        <v>0.214364</v>
       </c>
       <c r="D102" t="n">
-        <v>0.259273</v>
+        <v>0.258353</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.284685</v>
+        <v>0.284533</v>
       </c>
       <c r="C103" t="n">
-        <v>0.214126</v>
+        <v>0.213093</v>
       </c>
       <c r="D103" t="n">
-        <v>0.257503</v>
+        <v>0.257236</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.27294</v>
+        <v>0.272794</v>
       </c>
       <c r="C104" t="n">
-        <v>0.214394</v>
+        <v>0.213947</v>
       </c>
       <c r="D104" t="n">
-        <v>0.256824</v>
+        <v>0.256749</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.260755</v>
+        <v>0.260368</v>
       </c>
       <c r="C105" t="n">
-        <v>0.213298</v>
+        <v>0.213121</v>
       </c>
       <c r="D105" t="n">
-        <v>0.255606</v>
+        <v>0.255809</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.247485</v>
+        <v>0.247333</v>
       </c>
       <c r="C106" t="n">
-        <v>0.211992</v>
+        <v>0.212702</v>
       </c>
       <c r="D106" t="n">
-        <v>0.254637</v>
+        <v>0.254699</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.233104</v>
+        <v>0.232882</v>
       </c>
       <c r="C107" t="n">
-        <v>0.210773</v>
+        <v>0.210958</v>
       </c>
       <c r="D107" t="n">
-        <v>0.253787</v>
+        <v>0.253613</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.218128</v>
+        <v>0.217769</v>
       </c>
       <c r="C108" t="n">
-        <v>0.210898</v>
+        <v>0.211297</v>
       </c>
       <c r="D108" t="n">
-        <v>0.272105</v>
+        <v>0.270796</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.201952</v>
+        <v>0.201642</v>
       </c>
       <c r="C109" t="n">
-        <v>0.210165</v>
+        <v>0.209776</v>
       </c>
       <c r="D109" t="n">
-        <v>0.27065</v>
+        <v>0.269963</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.344857</v>
+        <v>0.344795</v>
       </c>
       <c r="C110" t="n">
-        <v>0.220044</v>
+        <v>0.220102</v>
       </c>
       <c r="D110" t="n">
-        <v>0.267711</v>
+        <v>0.267381</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.339122</v>
+        <v>0.338733</v>
       </c>
       <c r="C111" t="n">
-        <v>0.218916</v>
+        <v>0.219323</v>
       </c>
       <c r="D111" t="n">
-        <v>0.266375</v>
+        <v>0.266305</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.332296</v>
+        <v>0.33196</v>
       </c>
       <c r="C112" t="n">
-        <v>0.218258</v>
+        <v>0.218827</v>
       </c>
       <c r="D112" t="n">
-        <v>0.265218</v>
+        <v>0.263481</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.324842</v>
+        <v>0.324575</v>
       </c>
       <c r="C113" t="n">
-        <v>0.21711</v>
+        <v>0.218539</v>
       </c>
       <c r="D113" t="n">
-        <v>0.263037</v>
+        <v>0.263479</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.316297</v>
+        <v>0.316109</v>
       </c>
       <c r="C114" t="n">
-        <v>0.216103</v>
+        <v>0.217356</v>
       </c>
       <c r="D114" t="n">
-        <v>0.261811</v>
+        <v>0.261985</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.307382</v>
+        <v>0.30734</v>
       </c>
       <c r="C115" t="n">
-        <v>0.215778</v>
+        <v>0.216055</v>
       </c>
       <c r="D115" t="n">
-        <v>0.261087</v>
+        <v>0.260809</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.29753</v>
+        <v>0.297393</v>
       </c>
       <c r="C116" t="n">
-        <v>0.214735</v>
+        <v>0.215112</v>
       </c>
       <c r="D116" t="n">
-        <v>0.259774</v>
+        <v>0.259528</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.28696</v>
+        <v>0.286746</v>
       </c>
       <c r="C117" t="n">
-        <v>0.213844</v>
+        <v>0.215347</v>
       </c>
       <c r="D117" t="n">
-        <v>0.258579</v>
+        <v>0.257791</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.275699</v>
+        <v>0.275157</v>
       </c>
       <c r="C118" t="n">
-        <v>0.212807</v>
+        <v>0.214384</v>
       </c>
       <c r="D118" t="n">
-        <v>0.256813</v>
+        <v>0.257262</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.263499</v>
+        <v>0.262953</v>
       </c>
       <c r="C119" t="n">
-        <v>0.212594</v>
+        <v>0.213274</v>
       </c>
       <c r="D119" t="n">
-        <v>0.256038</v>
+        <v>0.255991</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.250627</v>
+        <v>0.249851</v>
       </c>
       <c r="C120" t="n">
-        <v>0.211902</v>
+        <v>0.212019</v>
       </c>
       <c r="D120" t="n">
-        <v>0.254855</v>
+        <v>0.254859</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.236567</v>
+        <v>0.235986</v>
       </c>
       <c r="C121" t="n">
-        <v>0.211668</v>
+        <v>0.211397</v>
       </c>
       <c r="D121" t="n">
-        <v>0.253969</v>
+        <v>0.253835</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.221578</v>
+        <v>0.22108</v>
       </c>
       <c r="C122" t="n">
-        <v>0.210831</v>
+        <v>0.211231</v>
       </c>
       <c r="D122" t="n">
-        <v>0.253006</v>
+        <v>0.252763</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.205619</v>
+        <v>0.205268</v>
       </c>
       <c r="C123" t="n">
-        <v>0.210444</v>
+        <v>0.210091</v>
       </c>
       <c r="D123" t="n">
-        <v>0.269649</v>
+        <v>0.268419</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.346107</v>
+        <v>0.345838</v>
       </c>
       <c r="C124" t="n">
-        <v>0.219232</v>
+        <v>0.220343</v>
       </c>
       <c r="D124" t="n">
-        <v>0.268894</v>
+        <v>0.268303</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.340332</v>
+        <v>0.340036</v>
       </c>
       <c r="C125" t="n">
-        <v>0.219131</v>
+        <v>0.21854</v>
       </c>
       <c r="D125" t="n">
-        <v>0.267201</v>
+        <v>0.265332</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.333512</v>
+        <v>0.333491</v>
       </c>
       <c r="C126" t="n">
-        <v>0.218037</v>
+        <v>0.217334</v>
       </c>
       <c r="D126" t="n">
-        <v>0.265171</v>
+        <v>0.263741</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.326263</v>
+        <v>0.326071</v>
       </c>
       <c r="C127" t="n">
-        <v>0.217042</v>
+        <v>0.218386</v>
       </c>
       <c r="D127" t="n">
-        <v>0.263888</v>
+        <v>0.263702</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.31827</v>
+        <v>0.317857</v>
       </c>
       <c r="C128" t="n">
-        <v>0.215996</v>
+        <v>0.217903</v>
       </c>
       <c r="D128" t="n">
-        <v>0.262297</v>
+        <v>0.262294</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.309204</v>
+        <v>0.308842</v>
       </c>
       <c r="C129" t="n">
-        <v>0.215282</v>
+        <v>0.217107</v>
       </c>
       <c r="D129" t="n">
-        <v>0.260652</v>
+        <v>0.26083</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.299608</v>
+        <v>0.299464</v>
       </c>
       <c r="C130" t="n">
-        <v>0.214742</v>
+        <v>0.216475</v>
       </c>
       <c r="D130" t="n">
-        <v>0.259471</v>
+        <v>0.259545</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.289328</v>
+        <v>0.289154</v>
       </c>
       <c r="C131" t="n">
-        <v>0.214157</v>
+        <v>0.213914</v>
       </c>
       <c r="D131" t="n">
-        <v>0.258354</v>
+        <v>0.258425</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.278427</v>
+        <v>0.278015</v>
       </c>
       <c r="C132" t="n">
-        <v>0.213157</v>
+        <v>0.214207</v>
       </c>
       <c r="D132" t="n">
-        <v>0.257532</v>
+        <v>0.257133</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.266368</v>
+        <v>0.265796</v>
       </c>
       <c r="C133" t="n">
-        <v>0.212813</v>
+        <v>0.211997</v>
       </c>
       <c r="D133" t="n">
-        <v>0.256578</v>
+        <v>0.25603</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.253507</v>
+        <v>0.253179</v>
       </c>
       <c r="C134" t="n">
-        <v>0.21191</v>
+        <v>0.211619</v>
       </c>
       <c r="D134" t="n">
-        <v>0.255261</v>
+        <v>0.254577</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.240073</v>
+        <v>0.239186</v>
       </c>
       <c r="C135" t="n">
-        <v>0.21256</v>
+        <v>0.210554</v>
       </c>
       <c r="D135" t="n">
-        <v>0.254187</v>
+        <v>0.254025</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.224951</v>
+        <v>0.224516</v>
       </c>
       <c r="C136" t="n">
-        <v>0.211641</v>
+        <v>0.209844</v>
       </c>
       <c r="D136" t="n">
-        <v>0.253139</v>
+        <v>0.252855</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.208733</v>
+        <v>0.208751</v>
       </c>
       <c r="C137" t="n">
-        <v>0.210962</v>
+        <v>0.21088</v>
       </c>
       <c r="D137" t="n">
-        <v>0.271302</v>
+        <v>0.270926</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.34745</v>
+        <v>0.34676</v>
       </c>
       <c r="C138" t="n">
-        <v>0.220896</v>
+        <v>0.220371</v>
       </c>
       <c r="D138" t="n">
-        <v>0.269489</v>
+        <v>0.269054</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.34157</v>
+        <v>0.341262</v>
       </c>
       <c r="C139" t="n">
-        <v>0.220039</v>
+        <v>0.219786</v>
       </c>
       <c r="D139" t="n">
-        <v>0.267402</v>
+        <v>0.267297</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.336039</v>
+        <v>0.334636</v>
       </c>
       <c r="C140" t="n">
-        <v>0.219674</v>
+        <v>0.218645</v>
       </c>
       <c r="D140" t="n">
-        <v>0.265617</v>
+        <v>0.265075</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.328962</v>
+        <v>0.327502</v>
       </c>
       <c r="C141" t="n">
-        <v>0.219226</v>
+        <v>0.218513</v>
       </c>
       <c r="D141" t="n">
-        <v>0.264507</v>
+        <v>0.264228</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.320452</v>
+        <v>0.319536</v>
       </c>
       <c r="C142" t="n">
-        <v>0.21855</v>
+        <v>0.216804</v>
       </c>
       <c r="D142" t="n">
-        <v>0.263254</v>
+        <v>0.262813</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.311917</v>
+        <v>0.310939</v>
       </c>
       <c r="C143" t="n">
-        <v>0.21588</v>
+        <v>0.217104</v>
       </c>
       <c r="D143" t="n">
-        <v>0.262044</v>
+        <v>0.2614</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.274529</v>
+        <v>0.273374</v>
       </c>
       <c r="C2" t="n">
-        <v>0.190979</v>
+        <v>0.19037</v>
       </c>
       <c r="D2" t="n">
-        <v>0.238264</v>
+        <v>0.221767</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.264945</v>
+        <v>0.263421</v>
       </c>
       <c r="C3" t="n">
-        <v>0.192493</v>
+        <v>0.192533</v>
       </c>
       <c r="D3" t="n">
-        <v>0.237568</v>
+        <v>0.221542</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.25224</v>
+        <v>0.251982</v>
       </c>
       <c r="C4" t="n">
-        <v>0.193456</v>
+        <v>0.193448</v>
       </c>
       <c r="D4" t="n">
-        <v>0.237264</v>
+        <v>0.221166</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.241517</v>
+        <v>0.241876</v>
       </c>
       <c r="C5" t="n">
-        <v>0.193746</v>
+        <v>0.193604</v>
       </c>
       <c r="D5" t="n">
-        <v>0.238427</v>
+        <v>0.219018</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.233087</v>
+        <v>0.233361</v>
       </c>
       <c r="C6" t="n">
-        <v>0.196196</v>
+        <v>0.196889</v>
       </c>
       <c r="D6" t="n">
-        <v>0.238525</v>
+        <v>0.222362</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.221235</v>
+        <v>0.220555</v>
       </c>
       <c r="C7" t="n">
-        <v>0.194973</v>
+        <v>0.195127</v>
       </c>
       <c r="D7" t="n">
-        <v>0.23928</v>
+        <v>0.221857</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.20737</v>
+        <v>0.207467</v>
       </c>
       <c r="C8" t="n">
-        <v>0.195717</v>
+        <v>0.195324</v>
       </c>
       <c r="D8" t="n">
-        <v>0.240922</v>
+        <v>0.221561</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.192366</v>
+        <v>0.192503</v>
       </c>
       <c r="C9" t="n">
-        <v>0.196954</v>
+        <v>0.197318</v>
       </c>
       <c r="D9" t="n">
-        <v>0.260689</v>
+        <v>0.240727</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.331272</v>
+        <v>0.330654</v>
       </c>
       <c r="C10" t="n">
-        <v>0.212352</v>
+        <v>0.212152</v>
       </c>
       <c r="D10" t="n">
-        <v>0.259296</v>
+        <v>0.239919</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.324981</v>
+        <v>0.325026</v>
       </c>
       <c r="C11" t="n">
-        <v>0.212191</v>
+        <v>0.212715</v>
       </c>
       <c r="D11" t="n">
-        <v>0.258507</v>
+        <v>0.239947</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.31817</v>
+        <v>0.321611</v>
       </c>
       <c r="C12" t="n">
-        <v>0.211921</v>
+        <v>0.211802</v>
       </c>
       <c r="D12" t="n">
-        <v>0.258186</v>
+        <v>0.238976</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.31155</v>
+        <v>0.310906</v>
       </c>
       <c r="C13" t="n">
-        <v>0.210963</v>
+        <v>0.210289</v>
       </c>
       <c r="D13" t="n">
-        <v>0.256035</v>
+        <v>0.241294</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.304581</v>
+        <v>0.30401</v>
       </c>
       <c r="C14" t="n">
-        <v>0.210372</v>
+        <v>0.210101</v>
       </c>
       <c r="D14" t="n">
-        <v>0.254437</v>
+        <v>0.234955</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.297272</v>
+        <v>0.296143</v>
       </c>
       <c r="C15" t="n">
-        <v>0.210433</v>
+        <v>0.209555</v>
       </c>
       <c r="D15" t="n">
-        <v>0.254229</v>
+        <v>0.234225</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.289231</v>
+        <v>0.288686</v>
       </c>
       <c r="C16" t="n">
-        <v>0.209511</v>
+        <v>0.209963</v>
       </c>
       <c r="D16" t="n">
-        <v>0.253791</v>
+        <v>0.24006</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.27883</v>
+        <v>0.278084</v>
       </c>
       <c r="C17" t="n">
-        <v>0.208488</v>
+        <v>0.208664</v>
       </c>
       <c r="D17" t="n">
-        <v>0.252762</v>
+        <v>0.232751</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.269016</v>
+        <v>0.269022</v>
       </c>
       <c r="C18" t="n">
-        <v>0.208196</v>
+        <v>0.208188</v>
       </c>
       <c r="D18" t="n">
-        <v>0.252541</v>
+        <v>0.232717</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.258679</v>
+        <v>0.258221</v>
       </c>
       <c r="C19" t="n">
-        <v>0.207754</v>
+        <v>0.208005</v>
       </c>
       <c r="D19" t="n">
-        <v>0.251241</v>
+        <v>0.232363</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.245395</v>
+        <v>0.245551</v>
       </c>
       <c r="C20" t="n">
-        <v>0.207178</v>
+        <v>0.206976</v>
       </c>
       <c r="D20" t="n">
-        <v>0.250405</v>
+        <v>0.231078</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.232745</v>
+        <v>0.233677</v>
       </c>
       <c r="C21" t="n">
-        <v>0.208097</v>
+        <v>0.20875</v>
       </c>
       <c r="D21" t="n">
-        <v>0.25038</v>
+        <v>0.231723</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.218476</v>
+        <v>0.218369</v>
       </c>
       <c r="C22" t="n">
-        <v>0.206942</v>
+        <v>0.20696</v>
       </c>
       <c r="D22" t="n">
-        <v>0.249832</v>
+        <v>0.232026</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.202771</v>
+        <v>0.202889</v>
       </c>
       <c r="C23" t="n">
-        <v>0.207166</v>
+        <v>0.207075</v>
       </c>
       <c r="D23" t="n">
-        <v>0.266758</v>
+        <v>0.246989</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.339227</v>
+        <v>0.33998</v>
       </c>
       <c r="C24" t="n">
-        <v>0.217902</v>
+        <v>0.217722</v>
       </c>
       <c r="D24" t="n">
-        <v>0.264931</v>
+        <v>0.246404</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.334559</v>
+        <v>0.335075</v>
       </c>
       <c r="C25" t="n">
-        <v>0.216254</v>
+        <v>0.21685</v>
       </c>
       <c r="D25" t="n">
-        <v>0.263952</v>
+        <v>0.243753</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.32688</v>
+        <v>0.327127</v>
       </c>
       <c r="C26" t="n">
-        <v>0.214755</v>
+        <v>0.215081</v>
       </c>
       <c r="D26" t="n">
-        <v>0.261718</v>
+        <v>0.242516</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.320809</v>
+        <v>0.320171</v>
       </c>
       <c r="C27" t="n">
-        <v>0.214897</v>
+        <v>0.215313</v>
       </c>
       <c r="D27" t="n">
-        <v>0.260636</v>
+        <v>0.24083</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.313416</v>
+        <v>0.313095</v>
       </c>
       <c r="C28" t="n">
-        <v>0.212675</v>
+        <v>0.212733</v>
       </c>
       <c r="D28" t="n">
-        <v>0.258925</v>
+        <v>0.243547</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.306072</v>
+        <v>0.306023</v>
       </c>
       <c r="C29" t="n">
-        <v>0.212074</v>
+        <v>0.211976</v>
       </c>
       <c r="D29" t="n">
-        <v>0.257534</v>
+        <v>0.237859</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.297824</v>
+        <v>0.297698</v>
       </c>
       <c r="C30" t="n">
-        <v>0.211249</v>
+        <v>0.211835</v>
       </c>
       <c r="D30" t="n">
-        <v>0.256481</v>
+        <v>0.237348</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.287806</v>
+        <v>0.287775</v>
       </c>
       <c r="C31" t="n">
-        <v>0.209615</v>
+        <v>0.209343</v>
       </c>
       <c r="D31" t="n">
-        <v>0.254996</v>
+        <v>0.235629</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.277561</v>
+        <v>0.277535</v>
       </c>
       <c r="C32" t="n">
-        <v>0.210204</v>
+        <v>0.209479</v>
       </c>
       <c r="D32" t="n">
-        <v>0.254492</v>
+        <v>0.235631</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.266948</v>
+        <v>0.267591</v>
       </c>
       <c r="C33" t="n">
-        <v>0.209525</v>
+        <v>0.209507</v>
       </c>
       <c r="D33" t="n">
-        <v>0.254279</v>
+        <v>0.235239</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.25565</v>
+        <v>0.255903</v>
       </c>
       <c r="C34" t="n">
-        <v>0.209268</v>
+        <v>0.209159</v>
       </c>
       <c r="D34" t="n">
-        <v>0.253416</v>
+        <v>0.23541</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.242452</v>
+        <v>0.242992</v>
       </c>
       <c r="C35" t="n">
-        <v>0.209026</v>
+        <v>0.209822</v>
       </c>
       <c r="D35" t="n">
-        <v>0.252497</v>
+        <v>0.238634</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.22808</v>
+        <v>0.228087</v>
       </c>
       <c r="C36" t="n">
-        <v>0.208578</v>
+        <v>0.209675</v>
       </c>
       <c r="D36" t="n">
-        <v>0.251416</v>
+        <v>0.23361</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.212711</v>
+        <v>0.212372</v>
       </c>
       <c r="C37" t="n">
-        <v>0.207683</v>
+        <v>0.209354</v>
       </c>
       <c r="D37" t="n">
-        <v>0.267917</v>
+        <v>0.248558</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.345508</v>
+        <v>0.345504</v>
       </c>
       <c r="C38" t="n">
-        <v>0.218551</v>
+        <v>0.218396</v>
       </c>
       <c r="D38" t="n">
-        <v>0.26644</v>
+        <v>0.247215</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.339416</v>
+        <v>0.339551</v>
       </c>
       <c r="C39" t="n">
-        <v>0.21695</v>
+        <v>0.217164</v>
       </c>
       <c r="D39" t="n">
-        <v>0.264675</v>
+        <v>0.245434</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.334038</v>
+        <v>0.334131</v>
       </c>
       <c r="C40" t="n">
-        <v>0.216069</v>
+        <v>0.2162</v>
       </c>
       <c r="D40" t="n">
-        <v>0.262909</v>
+        <v>0.244425</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.32729</v>
+        <v>0.327637</v>
       </c>
       <c r="C41" t="n">
-        <v>0.215329</v>
+        <v>0.215319</v>
       </c>
       <c r="D41" t="n">
-        <v>0.261635</v>
+        <v>0.242837</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.32062</v>
+        <v>0.32088</v>
       </c>
       <c r="C42" t="n">
-        <v>0.214765</v>
+        <v>0.214718</v>
       </c>
       <c r="D42" t="n">
-        <v>0.260758</v>
+        <v>0.241709</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.311861</v>
+        <v>0.312199</v>
       </c>
       <c r="C43" t="n">
-        <v>0.213999</v>
+        <v>0.213981</v>
       </c>
       <c r="D43" t="n">
-        <v>0.259424</v>
+        <v>0.240871</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.303123</v>
+        <v>0.302797</v>
       </c>
       <c r="C44" t="n">
-        <v>0.213237</v>
+        <v>0.213307</v>
       </c>
       <c r="D44" t="n">
-        <v>0.258468</v>
+        <v>0.240172</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.293045</v>
+        <v>0.292914</v>
       </c>
       <c r="C45" t="n">
-        <v>0.212493</v>
+        <v>0.21252</v>
       </c>
       <c r="D45" t="n">
-        <v>0.257264</v>
+        <v>0.239305</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.282787</v>
+        <v>0.283177</v>
       </c>
       <c r="C46" t="n">
-        <v>0.212021</v>
+        <v>0.212125</v>
       </c>
       <c r="D46" t="n">
-        <v>0.256573</v>
+        <v>0.238528</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.27246</v>
+        <v>0.27241</v>
       </c>
       <c r="C47" t="n">
-        <v>0.211392</v>
+        <v>0.211569</v>
       </c>
       <c r="D47" t="n">
-        <v>0.255883</v>
+        <v>0.238453</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.260519</v>
+        <v>0.261221</v>
       </c>
       <c r="C48" t="n">
-        <v>0.210749</v>
+        <v>0.210812</v>
       </c>
       <c r="D48" t="n">
-        <v>0.254469</v>
+        <v>0.237293</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.247979</v>
+        <v>0.247964</v>
       </c>
       <c r="C49" t="n">
-        <v>0.212229</v>
+        <v>0.212272</v>
       </c>
       <c r="D49" t="n">
-        <v>0.253262</v>
+        <v>0.236075</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.234383</v>
+        <v>0.234013</v>
       </c>
       <c r="C50" t="n">
-        <v>0.211719</v>
+        <v>0.212154</v>
       </c>
       <c r="D50" t="n">
-        <v>0.252613</v>
+        <v>0.235716</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.220223</v>
+        <v>0.220463</v>
       </c>
       <c r="C51" t="n">
-        <v>0.211283</v>
+        <v>0.210941</v>
       </c>
       <c r="D51" t="n">
-        <v>0.272341</v>
+        <v>0.251903</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.20363</v>
+        <v>0.203208</v>
       </c>
       <c r="C52" t="n">
-        <v>0.210437</v>
+        <v>0.210705</v>
       </c>
       <c r="D52" t="n">
-        <v>0.271345</v>
+        <v>0.249914</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.343117</v>
+        <v>0.343288</v>
       </c>
       <c r="C53" t="n">
-        <v>0.218697</v>
+        <v>0.21897</v>
       </c>
       <c r="D53" t="n">
-        <v>0.269603</v>
+        <v>0.248782</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.337151</v>
+        <v>0.337057</v>
       </c>
       <c r="C54" t="n">
-        <v>0.218257</v>
+        <v>0.21878</v>
       </c>
       <c r="D54" t="n">
-        <v>0.268106</v>
+        <v>0.247697</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.331005</v>
+        <v>0.331037</v>
       </c>
       <c r="C55" t="n">
-        <v>0.217299</v>
+        <v>0.219218</v>
       </c>
       <c r="D55" t="n">
-        <v>0.26676</v>
+        <v>0.247459</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.32347</v>
+        <v>0.323608</v>
       </c>
       <c r="C56" t="n">
-        <v>0.216116</v>
+        <v>0.217666</v>
       </c>
       <c r="D56" t="n">
-        <v>0.264875</v>
+        <v>0.246042</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.315506</v>
+        <v>0.31541</v>
       </c>
       <c r="C57" t="n">
-        <v>0.215791</v>
+        <v>0.217468</v>
       </c>
       <c r="D57" t="n">
-        <v>0.26309</v>
+        <v>0.2448</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.306505</v>
+        <v>0.306375</v>
       </c>
       <c r="C58" t="n">
-        <v>0.215198</v>
+        <v>0.216389</v>
       </c>
       <c r="D58" t="n">
-        <v>0.262228</v>
+        <v>0.244271</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.296745</v>
+        <v>0.296905</v>
       </c>
       <c r="C59" t="n">
-        <v>0.214078</v>
+        <v>0.214825</v>
       </c>
       <c r="D59" t="n">
-        <v>0.260929</v>
+        <v>0.243409</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.28692</v>
+        <v>0.287336</v>
       </c>
       <c r="C60" t="n">
-        <v>0.214267</v>
+        <v>0.214098</v>
       </c>
       <c r="D60" t="n">
-        <v>0.259826</v>
+        <v>0.242624</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.276076</v>
+        <v>0.276238</v>
       </c>
       <c r="C61" t="n">
-        <v>0.213462</v>
+        <v>0.213538</v>
       </c>
       <c r="D61" t="n">
-        <v>0.258532</v>
+        <v>0.240848</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.264106</v>
+        <v>0.264453</v>
       </c>
       <c r="C62" t="n">
-        <v>0.212977</v>
+        <v>0.212749</v>
       </c>
       <c r="D62" t="n">
-        <v>0.257237</v>
+        <v>0.239994</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.251466</v>
+        <v>0.251731</v>
       </c>
       <c r="C63" t="n">
-        <v>0.21243</v>
+        <v>0.212439</v>
       </c>
       <c r="D63" t="n">
-        <v>0.255538</v>
+        <v>0.238392</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.237868</v>
+        <v>0.238209</v>
       </c>
       <c r="C64" t="n">
-        <v>0.211726</v>
+        <v>0.212123</v>
       </c>
       <c r="D64" t="n">
-        <v>0.254268</v>
+        <v>0.237543</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.22308</v>
+        <v>0.223311</v>
       </c>
       <c r="C65" t="n">
-        <v>0.211474</v>
+        <v>0.211624</v>
       </c>
       <c r="D65" t="n">
-        <v>0.253342</v>
+        <v>0.236687</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.207105</v>
+        <v>0.207472</v>
       </c>
       <c r="C66" t="n">
-        <v>0.210501</v>
+        <v>0.21079</v>
       </c>
       <c r="D66" t="n">
-        <v>0.270017</v>
+        <v>0.25246</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.346118</v>
+        <v>0.346385</v>
       </c>
       <c r="C67" t="n">
-        <v>0.219696</v>
+        <v>0.219642</v>
       </c>
       <c r="D67" t="n">
-        <v>0.268547</v>
+        <v>0.250547</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.340444</v>
+        <v>0.340701</v>
       </c>
       <c r="C68" t="n">
-        <v>0.218505</v>
+        <v>0.218717</v>
       </c>
       <c r="D68" t="n">
-        <v>0.267093</v>
+        <v>0.248418</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.334037</v>
+        <v>0.333908</v>
       </c>
       <c r="C69" t="n">
-        <v>0.217838</v>
+        <v>0.218665</v>
       </c>
       <c r="D69" t="n">
-        <v>0.26468</v>
+        <v>0.247316</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.326854</v>
+        <v>0.326805</v>
       </c>
       <c r="C70" t="n">
-        <v>0.217695</v>
+        <v>0.218721</v>
       </c>
       <c r="D70" t="n">
-        <v>0.263517</v>
+        <v>0.245856</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.318403</v>
+        <v>0.31858</v>
       </c>
       <c r="C71" t="n">
-        <v>0.216311</v>
+        <v>0.216676</v>
       </c>
       <c r="D71" t="n">
-        <v>0.262484</v>
+        <v>0.24471</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.309588</v>
+        <v>0.309486</v>
       </c>
       <c r="C72" t="n">
-        <v>0.215987</v>
+        <v>0.216091</v>
       </c>
       <c r="D72" t="n">
-        <v>0.261054</v>
+        <v>0.243391</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.300176</v>
+        <v>0.299981</v>
       </c>
       <c r="C73" t="n">
-        <v>0.214297</v>
+        <v>0.216152</v>
       </c>
       <c r="D73" t="n">
-        <v>0.259663</v>
+        <v>0.24218</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.290184</v>
+        <v>0.290285</v>
       </c>
       <c r="C74" t="n">
-        <v>0.213858</v>
+        <v>0.215385</v>
       </c>
       <c r="D74" t="n">
-        <v>0.25843</v>
+        <v>0.240888</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.279247</v>
+        <v>0.279236</v>
       </c>
       <c r="C75" t="n">
-        <v>0.213814</v>
+        <v>0.215252</v>
       </c>
       <c r="D75" t="n">
-        <v>0.257581</v>
+        <v>0.240367</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.26756</v>
+        <v>0.267488</v>
       </c>
       <c r="C76" t="n">
-        <v>0.212875</v>
+        <v>0.214412</v>
       </c>
       <c r="D76" t="n">
-        <v>0.256277</v>
+        <v>0.238671</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.254898</v>
+        <v>0.255039</v>
       </c>
       <c r="C77" t="n">
-        <v>0.213553</v>
+        <v>0.213669</v>
       </c>
       <c r="D77" t="n">
-        <v>0.255135</v>
+        <v>0.238199</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.241069</v>
+        <v>0.241126</v>
       </c>
       <c r="C78" t="n">
-        <v>0.212792</v>
+        <v>0.212954</v>
       </c>
       <c r="D78" t="n">
-        <v>0.254058</v>
+        <v>0.23743</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.226157</v>
+        <v>0.226036</v>
       </c>
       <c r="C79" t="n">
-        <v>0.211736</v>
+        <v>0.212319</v>
       </c>
       <c r="D79" t="n">
-        <v>0.25306</v>
+        <v>0.236614</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.210542</v>
+        <v>0.210654</v>
       </c>
       <c r="C80" t="n">
-        <v>0.211079</v>
+        <v>0.211305</v>
       </c>
       <c r="D80" t="n">
-        <v>0.270164</v>
+        <v>0.252623</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.348091</v>
+        <v>0.348161</v>
       </c>
       <c r="C81" t="n">
-        <v>0.22124</v>
+        <v>0.221125</v>
       </c>
       <c r="D81" t="n">
-        <v>0.268835</v>
+        <v>0.250924</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.342454</v>
+        <v>0.342493</v>
       </c>
       <c r="C82" t="n">
-        <v>0.220024</v>
+        <v>0.220042</v>
       </c>
       <c r="D82" t="n">
-        <v>0.267214</v>
+        <v>0.249514</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.335943</v>
+        <v>0.336159</v>
       </c>
       <c r="C83" t="n">
-        <v>0.219406</v>
+        <v>0.219408</v>
       </c>
       <c r="D83" t="n">
-        <v>0.264549</v>
+        <v>0.24754</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.3289</v>
+        <v>0.328924</v>
       </c>
       <c r="C84" t="n">
-        <v>0.217641</v>
+        <v>0.219529</v>
       </c>
       <c r="D84" t="n">
-        <v>0.263972</v>
+        <v>0.246067</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.321187</v>
+        <v>0.321207</v>
       </c>
       <c r="C85" t="n">
-        <v>0.216981</v>
+        <v>0.219225</v>
       </c>
       <c r="D85" t="n">
-        <v>0.26277</v>
+        <v>0.244374</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.312703</v>
+        <v>0.312568</v>
       </c>
       <c r="C86" t="n">
-        <v>0.216558</v>
+        <v>0.216571</v>
       </c>
       <c r="D86" t="n">
-        <v>0.261738</v>
+        <v>0.244207</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.303</v>
+        <v>0.303291</v>
       </c>
       <c r="C87" t="n">
-        <v>0.215019</v>
+        <v>0.216568</v>
       </c>
       <c r="D87" t="n">
-        <v>0.26018</v>
+        <v>0.24302</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.293188</v>
+        <v>0.293108</v>
       </c>
       <c r="C88" t="n">
-        <v>0.214489</v>
+        <v>0.216277</v>
       </c>
       <c r="D88" t="n">
-        <v>0.259174</v>
+        <v>0.241354</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.282138</v>
+        <v>0.282056</v>
       </c>
       <c r="C89" t="n">
-        <v>0.21387</v>
+        <v>0.21508</v>
       </c>
       <c r="D89" t="n">
-        <v>0.257841</v>
+        <v>0.240773</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.270484</v>
+        <v>0.270374</v>
       </c>
       <c r="C90" t="n">
-        <v>0.21285</v>
+        <v>0.213406</v>
       </c>
       <c r="D90" t="n">
-        <v>0.25649</v>
+        <v>0.238904</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.257934</v>
+        <v>0.257819</v>
       </c>
       <c r="C91" t="n">
-        <v>0.212535</v>
+        <v>0.213769</v>
       </c>
       <c r="D91" t="n">
-        <v>0.255081</v>
+        <v>0.238035</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.244319</v>
+        <v>0.244212</v>
       </c>
       <c r="C92" t="n">
-        <v>0.211215</v>
+        <v>0.212652</v>
       </c>
       <c r="D92" t="n">
-        <v>0.254209</v>
+        <v>0.236953</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.230172</v>
+        <v>0.229963</v>
       </c>
       <c r="C93" t="n">
-        <v>0.210951</v>
+        <v>0.211956</v>
       </c>
       <c r="D93" t="n">
-        <v>0.253594</v>
+        <v>0.23619</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.214847</v>
+        <v>0.214536</v>
       </c>
       <c r="C94" t="n">
-        <v>0.210796</v>
+        <v>0.211068</v>
       </c>
       <c r="D94" t="n">
-        <v>0.271004</v>
+        <v>0.253487</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.349029</v>
+        <v>0.349153</v>
       </c>
       <c r="C95" t="n">
-        <v>0.219703</v>
+        <v>0.220594</v>
       </c>
       <c r="D95" t="n">
-        <v>0.269085</v>
+        <v>0.251091</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.343692</v>
+        <v>0.343767</v>
       </c>
       <c r="C96" t="n">
-        <v>0.219177</v>
+        <v>0.219095</v>
       </c>
       <c r="D96" t="n">
-        <v>0.267574</v>
+        <v>0.249843</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.337563</v>
+        <v>0.337697</v>
       </c>
       <c r="C97" t="n">
-        <v>0.218076</v>
+        <v>0.218179</v>
       </c>
       <c r="D97" t="n">
-        <v>0.266234</v>
+        <v>0.248292</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.330888</v>
+        <v>0.330633</v>
       </c>
       <c r="C98" t="n">
-        <v>0.217525</v>
+        <v>0.217043</v>
       </c>
       <c r="D98" t="n">
-        <v>0.264206</v>
+        <v>0.246383</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.323186</v>
+        <v>0.323365</v>
       </c>
       <c r="C99" t="n">
-        <v>0.216608</v>
+        <v>0.216131</v>
       </c>
       <c r="D99" t="n">
-        <v>0.263055</v>
+        <v>0.245399</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.314525</v>
+        <v>0.314506</v>
       </c>
       <c r="C100" t="n">
-        <v>0.215926</v>
+        <v>0.216177</v>
       </c>
       <c r="D100" t="n">
-        <v>0.261529</v>
+        <v>0.243804</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.305465</v>
+        <v>0.305469</v>
       </c>
       <c r="C101" t="n">
-        <v>0.214788</v>
+        <v>0.214721</v>
       </c>
       <c r="D101" t="n">
-        <v>0.260065</v>
+        <v>0.242353</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.295355</v>
+        <v>0.295395</v>
       </c>
       <c r="C102" t="n">
-        <v>0.214364</v>
+        <v>0.21432</v>
       </c>
       <c r="D102" t="n">
-        <v>0.258353</v>
+        <v>0.241778</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.284533</v>
+        <v>0.284741</v>
       </c>
       <c r="C103" t="n">
-        <v>0.213093</v>
+        <v>0.213395</v>
       </c>
       <c r="D103" t="n">
-        <v>0.257236</v>
+        <v>0.240454</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.272794</v>
+        <v>0.273187</v>
       </c>
       <c r="C104" t="n">
-        <v>0.213947</v>
+        <v>0.212637</v>
       </c>
       <c r="D104" t="n">
-        <v>0.256749</v>
+        <v>0.239563</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.260368</v>
+        <v>0.260703</v>
       </c>
       <c r="C105" t="n">
-        <v>0.213121</v>
+        <v>0.211994</v>
       </c>
       <c r="D105" t="n">
-        <v>0.255809</v>
+        <v>0.23871</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.247333</v>
+        <v>0.247733</v>
       </c>
       <c r="C106" t="n">
-        <v>0.212702</v>
+        <v>0.211814</v>
       </c>
       <c r="D106" t="n">
-        <v>0.254699</v>
+        <v>0.237335</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.232882</v>
+        <v>0.233069</v>
       </c>
       <c r="C107" t="n">
-        <v>0.210958</v>
+        <v>0.211232</v>
       </c>
       <c r="D107" t="n">
-        <v>0.253613</v>
+        <v>0.23656</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.217769</v>
+        <v>0.218159</v>
       </c>
       <c r="C108" t="n">
-        <v>0.211297</v>
+        <v>0.21066</v>
       </c>
       <c r="D108" t="n">
-        <v>0.270796</v>
+        <v>0.25395</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.201642</v>
+        <v>0.201915</v>
       </c>
       <c r="C109" t="n">
-        <v>0.209776</v>
+        <v>0.210171</v>
       </c>
       <c r="D109" t="n">
-        <v>0.269963</v>
+        <v>0.252044</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.344795</v>
+        <v>0.344765</v>
       </c>
       <c r="C110" t="n">
-        <v>0.220102</v>
+        <v>0.21947</v>
       </c>
       <c r="D110" t="n">
-        <v>0.267381</v>
+        <v>0.250525</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.338733</v>
+        <v>0.33861</v>
       </c>
       <c r="C111" t="n">
-        <v>0.219323</v>
+        <v>0.218535</v>
       </c>
       <c r="D111" t="n">
-        <v>0.266305</v>
+        <v>0.24858</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.33196</v>
+        <v>0.332138</v>
       </c>
       <c r="C112" t="n">
-        <v>0.218827</v>
+        <v>0.2172</v>
       </c>
       <c r="D112" t="n">
-        <v>0.263481</v>
+        <v>0.246308</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.324575</v>
+        <v>0.324944</v>
       </c>
       <c r="C113" t="n">
-        <v>0.218539</v>
+        <v>0.216881</v>
       </c>
       <c r="D113" t="n">
-        <v>0.263479</v>
+        <v>0.245904</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.316109</v>
+        <v>0.31617</v>
       </c>
       <c r="C114" t="n">
-        <v>0.217356</v>
+        <v>0.215869</v>
       </c>
       <c r="D114" t="n">
-        <v>0.261985</v>
+        <v>0.243868</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.30734</v>
+        <v>0.307387</v>
       </c>
       <c r="C115" t="n">
-        <v>0.216055</v>
+        <v>0.215337</v>
       </c>
       <c r="D115" t="n">
-        <v>0.260809</v>
+        <v>0.243614</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.297393</v>
+        <v>0.297357</v>
       </c>
       <c r="C116" t="n">
-        <v>0.215112</v>
+        <v>0.214378</v>
       </c>
       <c r="D116" t="n">
-        <v>0.259528</v>
+        <v>0.242292</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.286746</v>
+        <v>0.286908</v>
       </c>
       <c r="C117" t="n">
-        <v>0.215347</v>
+        <v>0.213341</v>
       </c>
       <c r="D117" t="n">
-        <v>0.257791</v>
+        <v>0.241425</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.275157</v>
+        <v>0.275376</v>
       </c>
       <c r="C118" t="n">
-        <v>0.214384</v>
+        <v>0.212649</v>
       </c>
       <c r="D118" t="n">
-        <v>0.257262</v>
+        <v>0.239679</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.262953</v>
+        <v>0.263293</v>
       </c>
       <c r="C119" t="n">
-        <v>0.213274</v>
+        <v>0.21221</v>
       </c>
       <c r="D119" t="n">
-        <v>0.255991</v>
+        <v>0.238956</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.249851</v>
+        <v>0.250164</v>
       </c>
       <c r="C120" t="n">
-        <v>0.212019</v>
+        <v>0.211687</v>
       </c>
       <c r="D120" t="n">
-        <v>0.254859</v>
+        <v>0.237403</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.235986</v>
+        <v>0.236225</v>
       </c>
       <c r="C121" t="n">
-        <v>0.211397</v>
+        <v>0.211223</v>
       </c>
       <c r="D121" t="n">
-        <v>0.253835</v>
+        <v>0.236912</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.22108</v>
+        <v>0.221218</v>
       </c>
       <c r="C122" t="n">
-        <v>0.211231</v>
+        <v>0.210218</v>
       </c>
       <c r="D122" t="n">
-        <v>0.252763</v>
+        <v>0.235286</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.205268</v>
+        <v>0.205367</v>
       </c>
       <c r="C123" t="n">
-        <v>0.210091</v>
+        <v>0.209741</v>
       </c>
       <c r="D123" t="n">
-        <v>0.268419</v>
+        <v>0.251754</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.345838</v>
+        <v>0.345951</v>
       </c>
       <c r="C124" t="n">
-        <v>0.220343</v>
+        <v>0.219632</v>
       </c>
       <c r="D124" t="n">
-        <v>0.268303</v>
+        <v>0.250335</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.340036</v>
+        <v>0.340066</v>
       </c>
       <c r="C125" t="n">
-        <v>0.21854</v>
+        <v>0.218782</v>
       </c>
       <c r="D125" t="n">
-        <v>0.265332</v>
+        <v>0.249345</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.333491</v>
+        <v>0.333734</v>
       </c>
       <c r="C126" t="n">
-        <v>0.217334</v>
+        <v>0.217428</v>
       </c>
       <c r="D126" t="n">
-        <v>0.263741</v>
+        <v>0.247701</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.326071</v>
+        <v>0.326444</v>
       </c>
       <c r="C127" t="n">
-        <v>0.218386</v>
+        <v>0.217106</v>
       </c>
       <c r="D127" t="n">
-        <v>0.263702</v>
+        <v>0.246312</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.317857</v>
+        <v>0.318279</v>
       </c>
       <c r="C128" t="n">
-        <v>0.217903</v>
+        <v>0.216708</v>
       </c>
       <c r="D128" t="n">
-        <v>0.262294</v>
+        <v>0.244681</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.308842</v>
+        <v>0.30907</v>
       </c>
       <c r="C129" t="n">
-        <v>0.217107</v>
+        <v>0.215153</v>
       </c>
       <c r="D129" t="n">
-        <v>0.26083</v>
+        <v>0.242508</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.299464</v>
+        <v>0.299533</v>
       </c>
       <c r="C130" t="n">
-        <v>0.216475</v>
+        <v>0.214582</v>
       </c>
       <c r="D130" t="n">
-        <v>0.259545</v>
+        <v>0.242239</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.289154</v>
+        <v>0.289311</v>
       </c>
       <c r="C131" t="n">
-        <v>0.213914</v>
+        <v>0.213373</v>
       </c>
       <c r="D131" t="n">
-        <v>0.258425</v>
+        <v>0.24079</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.278015</v>
+        <v>0.277977</v>
       </c>
       <c r="C132" t="n">
-        <v>0.214207</v>
+        <v>0.214616</v>
       </c>
       <c r="D132" t="n">
-        <v>0.257133</v>
+        <v>0.240011</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.265796</v>
+        <v>0.265856</v>
       </c>
       <c r="C133" t="n">
-        <v>0.211997</v>
+        <v>0.213708</v>
       </c>
       <c r="D133" t="n">
-        <v>0.25603</v>
+        <v>0.238894</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.253179</v>
+        <v>0.253116</v>
       </c>
       <c r="C134" t="n">
-        <v>0.211619</v>
+        <v>0.21211</v>
       </c>
       <c r="D134" t="n">
-        <v>0.254577</v>
+        <v>0.237955</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.239186</v>
+        <v>0.239089</v>
       </c>
       <c r="C135" t="n">
-        <v>0.210554</v>
+        <v>0.212288</v>
       </c>
       <c r="D135" t="n">
-        <v>0.254025</v>
+        <v>0.23706</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.224516</v>
+        <v>0.224217</v>
       </c>
       <c r="C136" t="n">
-        <v>0.209844</v>
+        <v>0.211199</v>
       </c>
       <c r="D136" t="n">
-        <v>0.252855</v>
+        <v>0.236034</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.208751</v>
+        <v>0.208281</v>
       </c>
       <c r="C137" t="n">
-        <v>0.21088</v>
+        <v>0.210504</v>
       </c>
       <c r="D137" t="n">
-        <v>0.270926</v>
+        <v>0.25221</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.34676</v>
+        <v>0.346786</v>
       </c>
       <c r="C138" t="n">
-        <v>0.220371</v>
+        <v>0.219906</v>
       </c>
       <c r="D138" t="n">
-        <v>0.269054</v>
+        <v>0.250604</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.341262</v>
+        <v>0.341109</v>
       </c>
       <c r="C139" t="n">
-        <v>0.219786</v>
+        <v>0.219809</v>
       </c>
       <c r="D139" t="n">
-        <v>0.267297</v>
+        <v>0.248629</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.334636</v>
+        <v>0.334786</v>
       </c>
       <c r="C140" t="n">
-        <v>0.218645</v>
+        <v>0.21927</v>
       </c>
       <c r="D140" t="n">
-        <v>0.265075</v>
+        <v>0.247805</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.327502</v>
+        <v>0.327525</v>
       </c>
       <c r="C141" t="n">
-        <v>0.218513</v>
+        <v>0.218209</v>
       </c>
       <c r="D141" t="n">
-        <v>0.264228</v>
+        <v>0.245378</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.319536</v>
+        <v>0.319561</v>
       </c>
       <c r="C142" t="n">
-        <v>0.216804</v>
+        <v>0.218045</v>
       </c>
       <c r="D142" t="n">
-        <v>0.262813</v>
+        <v>0.243974</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.310939</v>
+        <v>0.310905</v>
       </c>
       <c r="C143" t="n">
-        <v>0.217104</v>
+        <v>0.217361</v>
       </c>
       <c r="D143" t="n">
-        <v>0.2614</v>
+        <v>0.244092</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.273374</v>
+        <v>0.276937</v>
       </c>
       <c r="C2" t="n">
-        <v>0.19037</v>
+        <v>0.190608</v>
       </c>
       <c r="D2" t="n">
-        <v>0.221767</v>
+        <v>0.221372</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.263421</v>
+        <v>0.265673</v>
       </c>
       <c r="C3" t="n">
-        <v>0.192533</v>
+        <v>0.19201</v>
       </c>
       <c r="D3" t="n">
-        <v>0.221542</v>
+        <v>0.221537</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.251982</v>
+        <v>0.254167</v>
       </c>
       <c r="C4" t="n">
-        <v>0.193448</v>
+        <v>0.19371</v>
       </c>
       <c r="D4" t="n">
-        <v>0.221166</v>
+        <v>0.22181</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.241876</v>
+        <v>0.241663</v>
       </c>
       <c r="C5" t="n">
-        <v>0.193604</v>
+        <v>0.19397</v>
       </c>
       <c r="D5" t="n">
-        <v>0.219018</v>
+        <v>0.219715</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.233361</v>
+        <v>0.233051</v>
       </c>
       <c r="C6" t="n">
-        <v>0.196889</v>
+        <v>0.195342</v>
       </c>
       <c r="D6" t="n">
-        <v>0.222362</v>
+        <v>0.22143</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.220555</v>
+        <v>0.220518</v>
       </c>
       <c r="C7" t="n">
-        <v>0.195127</v>
+        <v>0.195014</v>
       </c>
       <c r="D7" t="n">
-        <v>0.221857</v>
+        <v>0.221387</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.207467</v>
+        <v>0.206334</v>
       </c>
       <c r="C8" t="n">
-        <v>0.195324</v>
+        <v>0.195436</v>
       </c>
       <c r="D8" t="n">
-        <v>0.221561</v>
+        <v>0.221558</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.192503</v>
+        <v>0.192289</v>
       </c>
       <c r="C9" t="n">
-        <v>0.197318</v>
+        <v>0.197272</v>
       </c>
       <c r="D9" t="n">
-        <v>0.240727</v>
+        <v>0.241788</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.330654</v>
+        <v>0.330006</v>
       </c>
       <c r="C10" t="n">
-        <v>0.212152</v>
+        <v>0.212194</v>
       </c>
       <c r="D10" t="n">
-        <v>0.239919</v>
+        <v>0.241172</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.325026</v>
+        <v>0.323744</v>
       </c>
       <c r="C11" t="n">
-        <v>0.212715</v>
+        <v>0.212286</v>
       </c>
       <c r="D11" t="n">
-        <v>0.239947</v>
+        <v>0.239962</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.321611</v>
+        <v>0.318202</v>
       </c>
       <c r="C12" t="n">
-        <v>0.211802</v>
+        <v>0.212325</v>
       </c>
       <c r="D12" t="n">
-        <v>0.238976</v>
+        <v>0.242789</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.310906</v>
+        <v>0.311163</v>
       </c>
       <c r="C13" t="n">
-        <v>0.210289</v>
+        <v>0.211062</v>
       </c>
       <c r="D13" t="n">
-        <v>0.241294</v>
+        <v>0.238537</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.30401</v>
+        <v>0.304002</v>
       </c>
       <c r="C14" t="n">
-        <v>0.210101</v>
+        <v>0.210463</v>
       </c>
       <c r="D14" t="n">
-        <v>0.234955</v>
+        <v>0.234834</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.296143</v>
+        <v>0.296057</v>
       </c>
       <c r="C15" t="n">
-        <v>0.209555</v>
+        <v>0.210072</v>
       </c>
       <c r="D15" t="n">
-        <v>0.234225</v>
+        <v>0.23484</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.288686</v>
+        <v>0.289267</v>
       </c>
       <c r="C16" t="n">
-        <v>0.209963</v>
+        <v>0.209529</v>
       </c>
       <c r="D16" t="n">
-        <v>0.24006</v>
+        <v>0.234925</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.278084</v>
+        <v>0.278294</v>
       </c>
       <c r="C17" t="n">
-        <v>0.208664</v>
+        <v>0.209301</v>
       </c>
       <c r="D17" t="n">
-        <v>0.232751</v>
+        <v>0.232985</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.269022</v>
+        <v>0.268285</v>
       </c>
       <c r="C18" t="n">
-        <v>0.208188</v>
+        <v>0.209032</v>
       </c>
       <c r="D18" t="n">
-        <v>0.232717</v>
+        <v>0.232566</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.258221</v>
+        <v>0.258191</v>
       </c>
       <c r="C19" t="n">
-        <v>0.208005</v>
+        <v>0.208883</v>
       </c>
       <c r="D19" t="n">
-        <v>0.232363</v>
+        <v>0.232783</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.245551</v>
+        <v>0.244874</v>
       </c>
       <c r="C20" t="n">
-        <v>0.206976</v>
+        <v>0.208535</v>
       </c>
       <c r="D20" t="n">
-        <v>0.231078</v>
+        <v>0.23267</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.233677</v>
+        <v>0.232398</v>
       </c>
       <c r="C21" t="n">
-        <v>0.20875</v>
+        <v>0.208314</v>
       </c>
       <c r="D21" t="n">
-        <v>0.231723</v>
+        <v>0.232083</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.218369</v>
+        <v>0.217258</v>
       </c>
       <c r="C22" t="n">
-        <v>0.20696</v>
+        <v>0.206864</v>
       </c>
       <c r="D22" t="n">
-        <v>0.232026</v>
+        <v>0.231305</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.202889</v>
+        <v>0.202657</v>
       </c>
       <c r="C23" t="n">
-        <v>0.207075</v>
+        <v>0.207197</v>
       </c>
       <c r="D23" t="n">
-        <v>0.246989</v>
+        <v>0.271332</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.33998</v>
+        <v>0.346215</v>
       </c>
       <c r="C24" t="n">
-        <v>0.217722</v>
+        <v>0.217396</v>
       </c>
       <c r="D24" t="n">
-        <v>0.246404</v>
+        <v>0.246089</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.335075</v>
+        <v>0.334471</v>
       </c>
       <c r="C25" t="n">
-        <v>0.21685</v>
+        <v>0.216845</v>
       </c>
       <c r="D25" t="n">
-        <v>0.243753</v>
+        <v>0.250752</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.327127</v>
+        <v>0.327124</v>
       </c>
       <c r="C26" t="n">
-        <v>0.215081</v>
+        <v>0.214832</v>
       </c>
       <c r="D26" t="n">
-        <v>0.242516</v>
+        <v>0.242647</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.320171</v>
+        <v>0.320475</v>
       </c>
       <c r="C27" t="n">
-        <v>0.215313</v>
+        <v>0.215206</v>
       </c>
       <c r="D27" t="n">
-        <v>0.24083</v>
+        <v>0.242198</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.313095</v>
+        <v>0.313286</v>
       </c>
       <c r="C28" t="n">
-        <v>0.212733</v>
+        <v>0.212782</v>
       </c>
       <c r="D28" t="n">
-        <v>0.243547</v>
+        <v>0.240187</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.306023</v>
+        <v>0.305354</v>
       </c>
       <c r="C29" t="n">
-        <v>0.211976</v>
+        <v>0.21182</v>
       </c>
       <c r="D29" t="n">
-        <v>0.237859</v>
+        <v>0.238346</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.297698</v>
+        <v>0.297366</v>
       </c>
       <c r="C30" t="n">
-        <v>0.211835</v>
+        <v>0.212413</v>
       </c>
       <c r="D30" t="n">
-        <v>0.237348</v>
+        <v>0.241615</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.287775</v>
+        <v>0.287344</v>
       </c>
       <c r="C31" t="n">
-        <v>0.209343</v>
+        <v>0.210204</v>
       </c>
       <c r="D31" t="n">
-        <v>0.235629</v>
+        <v>0.240009</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.277535</v>
+        <v>0.277117</v>
       </c>
       <c r="C32" t="n">
-        <v>0.209479</v>
+        <v>0.209661</v>
       </c>
       <c r="D32" t="n">
-        <v>0.235631</v>
+        <v>0.235991</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.267591</v>
+        <v>0.266961</v>
       </c>
       <c r="C33" t="n">
-        <v>0.209507</v>
+        <v>0.209428</v>
       </c>
       <c r="D33" t="n">
-        <v>0.235239</v>
+        <v>0.235467</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.255903</v>
+        <v>0.255047</v>
       </c>
       <c r="C34" t="n">
-        <v>0.209159</v>
+        <v>0.209017</v>
       </c>
       <c r="D34" t="n">
-        <v>0.23541</v>
+        <v>0.235376</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.242992</v>
+        <v>0.242336</v>
       </c>
       <c r="C35" t="n">
-        <v>0.209822</v>
+        <v>0.209688</v>
       </c>
       <c r="D35" t="n">
-        <v>0.238634</v>
+        <v>0.23427</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.228087</v>
+        <v>0.227566</v>
       </c>
       <c r="C36" t="n">
-        <v>0.209675</v>
+        <v>0.208931</v>
       </c>
       <c r="D36" t="n">
-        <v>0.23361</v>
+        <v>0.233972</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.212372</v>
+        <v>0.211611</v>
       </c>
       <c r="C37" t="n">
-        <v>0.209354</v>
+        <v>0.207898</v>
       </c>
       <c r="D37" t="n">
-        <v>0.248558</v>
+        <v>0.248384</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.345504</v>
+        <v>0.345097</v>
       </c>
       <c r="C38" t="n">
-        <v>0.218396</v>
+        <v>0.218285</v>
       </c>
       <c r="D38" t="n">
-        <v>0.247215</v>
+        <v>0.247401</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.339551</v>
+        <v>0.339562</v>
       </c>
       <c r="C39" t="n">
-        <v>0.217164</v>
+        <v>0.217064</v>
       </c>
       <c r="D39" t="n">
-        <v>0.245434</v>
+        <v>0.246486</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.334131</v>
+        <v>0.334137</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2162</v>
+        <v>0.215908</v>
       </c>
       <c r="D40" t="n">
-        <v>0.244425</v>
+        <v>0.245456</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.327637</v>
+        <v>0.328009</v>
       </c>
       <c r="C41" t="n">
-        <v>0.215319</v>
+        <v>0.215288</v>
       </c>
       <c r="D41" t="n">
-        <v>0.242837</v>
+        <v>0.243784</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.32088</v>
+        <v>0.320487</v>
       </c>
       <c r="C42" t="n">
-        <v>0.214718</v>
+        <v>0.214736</v>
       </c>
       <c r="D42" t="n">
-        <v>0.241709</v>
+        <v>0.242863</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.312199</v>
+        <v>0.312016</v>
       </c>
       <c r="C43" t="n">
-        <v>0.213981</v>
+        <v>0.213807</v>
       </c>
       <c r="D43" t="n">
-        <v>0.240871</v>
+        <v>0.24197</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.302797</v>
+        <v>0.302883</v>
       </c>
       <c r="C44" t="n">
-        <v>0.213307</v>
+        <v>0.21317</v>
       </c>
       <c r="D44" t="n">
-        <v>0.240172</v>
+        <v>0.241464</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.292914</v>
+        <v>0.293002</v>
       </c>
       <c r="C45" t="n">
-        <v>0.21252</v>
+        <v>0.212373</v>
       </c>
       <c r="D45" t="n">
-        <v>0.239305</v>
+        <v>0.239544</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.283177</v>
+        <v>0.282764</v>
       </c>
       <c r="C46" t="n">
-        <v>0.212125</v>
+        <v>0.212022</v>
       </c>
       <c r="D46" t="n">
-        <v>0.238528</v>
+        <v>0.239365</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.27241</v>
+        <v>0.272311</v>
       </c>
       <c r="C47" t="n">
-        <v>0.211569</v>
+        <v>0.211455</v>
       </c>
       <c r="D47" t="n">
-        <v>0.238453</v>
+        <v>0.237807</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.261221</v>
+        <v>0.260712</v>
       </c>
       <c r="C48" t="n">
-        <v>0.210812</v>
+        <v>0.21067</v>
       </c>
       <c r="D48" t="n">
-        <v>0.237293</v>
+        <v>0.237388</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.247964</v>
+        <v>0.247688</v>
       </c>
       <c r="C49" t="n">
-        <v>0.212272</v>
+        <v>0.212405</v>
       </c>
       <c r="D49" t="n">
-        <v>0.236075</v>
+        <v>0.235872</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.234013</v>
+        <v>0.234026</v>
       </c>
       <c r="C50" t="n">
-        <v>0.212154</v>
+        <v>0.212253</v>
       </c>
       <c r="D50" t="n">
-        <v>0.235716</v>
+        <v>0.235376</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.220463</v>
+        <v>0.219894</v>
       </c>
       <c r="C51" t="n">
-        <v>0.210941</v>
+        <v>0.21085</v>
       </c>
       <c r="D51" t="n">
-        <v>0.251903</v>
+        <v>0.252103</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.203208</v>
+        <v>0.20343</v>
       </c>
       <c r="C52" t="n">
-        <v>0.210705</v>
+        <v>0.210934</v>
       </c>
       <c r="D52" t="n">
-        <v>0.249914</v>
+        <v>0.25102</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.343288</v>
+        <v>0.343075</v>
       </c>
       <c r="C53" t="n">
-        <v>0.21897</v>
+        <v>0.218642</v>
       </c>
       <c r="D53" t="n">
-        <v>0.248782</v>
+        <v>0.249791</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.337057</v>
+        <v>0.33673</v>
       </c>
       <c r="C54" t="n">
-        <v>0.21878</v>
+        <v>0.218472</v>
       </c>
       <c r="D54" t="n">
-        <v>0.247697</v>
+        <v>0.248586</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.331037</v>
+        <v>0.330568</v>
       </c>
       <c r="C55" t="n">
-        <v>0.219218</v>
+        <v>0.21748</v>
       </c>
       <c r="D55" t="n">
-        <v>0.247459</v>
+        <v>0.247665</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.323608</v>
+        <v>0.322995</v>
       </c>
       <c r="C56" t="n">
-        <v>0.217666</v>
+        <v>0.216492</v>
       </c>
       <c r="D56" t="n">
-        <v>0.246042</v>
+        <v>0.245448</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.31541</v>
+        <v>0.31524</v>
       </c>
       <c r="C57" t="n">
-        <v>0.217468</v>
+        <v>0.215505</v>
       </c>
       <c r="D57" t="n">
-        <v>0.2448</v>
+        <v>0.243989</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.306375</v>
+        <v>0.30614</v>
       </c>
       <c r="C58" t="n">
-        <v>0.216389</v>
+        <v>0.21529</v>
       </c>
       <c r="D58" t="n">
-        <v>0.244271</v>
+        <v>0.244488</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.296905</v>
+        <v>0.296517</v>
       </c>
       <c r="C59" t="n">
-        <v>0.214825</v>
+        <v>0.214362</v>
       </c>
       <c r="D59" t="n">
-        <v>0.243409</v>
+        <v>0.244429</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.287336</v>
+        <v>0.286765</v>
       </c>
       <c r="C60" t="n">
-        <v>0.214098</v>
+        <v>0.21415</v>
       </c>
       <c r="D60" t="n">
-        <v>0.242624</v>
+        <v>0.243145</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.276238</v>
+        <v>0.275776</v>
       </c>
       <c r="C61" t="n">
-        <v>0.213538</v>
+        <v>0.213664</v>
       </c>
       <c r="D61" t="n">
-        <v>0.240848</v>
+        <v>0.242106</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.264453</v>
+        <v>0.263943</v>
       </c>
       <c r="C62" t="n">
-        <v>0.212749</v>
+        <v>0.212781</v>
       </c>
       <c r="D62" t="n">
-        <v>0.239994</v>
+        <v>0.240682</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.251731</v>
+        <v>0.251202</v>
       </c>
       <c r="C63" t="n">
-        <v>0.212439</v>
+        <v>0.21273</v>
       </c>
       <c r="D63" t="n">
-        <v>0.238392</v>
+        <v>0.238996</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.238209</v>
+        <v>0.237517</v>
       </c>
       <c r="C64" t="n">
-        <v>0.212123</v>
+        <v>0.211998</v>
       </c>
       <c r="D64" t="n">
-        <v>0.237543</v>
+        <v>0.237876</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.223311</v>
+        <v>0.222997</v>
       </c>
       <c r="C65" t="n">
-        <v>0.211624</v>
+        <v>0.211441</v>
       </c>
       <c r="D65" t="n">
-        <v>0.236687</v>
+        <v>0.236934</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.207472</v>
+        <v>0.206548</v>
       </c>
       <c r="C66" t="n">
-        <v>0.21079</v>
+        <v>0.210296</v>
       </c>
       <c r="D66" t="n">
-        <v>0.25246</v>
+        <v>0.252572</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.346385</v>
+        <v>0.34626</v>
       </c>
       <c r="C67" t="n">
-        <v>0.219642</v>
+        <v>0.219436</v>
       </c>
       <c r="D67" t="n">
-        <v>0.250547</v>
+        <v>0.250942</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.340701</v>
+        <v>0.340779</v>
       </c>
       <c r="C68" t="n">
-        <v>0.218717</v>
+        <v>0.21837</v>
       </c>
       <c r="D68" t="n">
-        <v>0.248418</v>
+        <v>0.248617</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.333908</v>
+        <v>0.33388</v>
       </c>
       <c r="C69" t="n">
-        <v>0.218665</v>
+        <v>0.217893</v>
       </c>
       <c r="D69" t="n">
-        <v>0.247316</v>
+        <v>0.247249</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.326805</v>
+        <v>0.326788</v>
       </c>
       <c r="C70" t="n">
-        <v>0.218721</v>
+        <v>0.217551</v>
       </c>
       <c r="D70" t="n">
-        <v>0.245856</v>
+        <v>0.246123</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.31858</v>
+        <v>0.318608</v>
       </c>
       <c r="C71" t="n">
-        <v>0.216676</v>
+        <v>0.216594</v>
       </c>
       <c r="D71" t="n">
-        <v>0.24471</v>
+        <v>0.244247</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.309486</v>
+        <v>0.309503</v>
       </c>
       <c r="C72" t="n">
-        <v>0.216091</v>
+        <v>0.216176</v>
       </c>
       <c r="D72" t="n">
-        <v>0.243391</v>
+        <v>0.243541</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.299981</v>
+        <v>0.299931</v>
       </c>
       <c r="C73" t="n">
-        <v>0.216152</v>
+        <v>0.21415</v>
       </c>
       <c r="D73" t="n">
-        <v>0.24218</v>
+        <v>0.242345</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.290285</v>
+        <v>0.289997</v>
       </c>
       <c r="C74" t="n">
-        <v>0.215385</v>
+        <v>0.213888</v>
       </c>
       <c r="D74" t="n">
-        <v>0.240888</v>
+        <v>0.241783</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.279236</v>
+        <v>0.279127</v>
       </c>
       <c r="C75" t="n">
-        <v>0.215252</v>
+        <v>0.214126</v>
       </c>
       <c r="D75" t="n">
-        <v>0.240367</v>
+        <v>0.239942</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.267488</v>
+        <v>0.267468</v>
       </c>
       <c r="C76" t="n">
-        <v>0.214412</v>
+        <v>0.212967</v>
       </c>
       <c r="D76" t="n">
-        <v>0.238671</v>
+        <v>0.238841</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.255039</v>
+        <v>0.254652</v>
       </c>
       <c r="C77" t="n">
-        <v>0.213669</v>
+        <v>0.212698</v>
       </c>
       <c r="D77" t="n">
-        <v>0.238199</v>
+        <v>0.237857</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.241126</v>
+        <v>0.240874</v>
       </c>
       <c r="C78" t="n">
-        <v>0.212954</v>
+        <v>0.211548</v>
       </c>
       <c r="D78" t="n">
-        <v>0.23743</v>
+        <v>0.237418</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.226036</v>
+        <v>0.226052</v>
       </c>
       <c r="C79" t="n">
-        <v>0.212319</v>
+        <v>0.211319</v>
       </c>
       <c r="D79" t="n">
-        <v>0.236614</v>
+        <v>0.236782</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.210654</v>
+        <v>0.210646</v>
       </c>
       <c r="C80" t="n">
-        <v>0.211305</v>
+        <v>0.21116</v>
       </c>
       <c r="D80" t="n">
-        <v>0.252623</v>
+        <v>0.251505</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.348161</v>
+        <v>0.348189</v>
       </c>
       <c r="C81" t="n">
-        <v>0.221125</v>
+        <v>0.22072</v>
       </c>
       <c r="D81" t="n">
-        <v>0.250924</v>
+        <v>0.250922</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.342493</v>
+        <v>0.342854</v>
       </c>
       <c r="C82" t="n">
-        <v>0.220042</v>
+        <v>0.219239</v>
       </c>
       <c r="D82" t="n">
-        <v>0.249514</v>
+        <v>0.249502</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.336159</v>
+        <v>0.336115</v>
       </c>
       <c r="C83" t="n">
-        <v>0.219408</v>
+        <v>0.218503</v>
       </c>
       <c r="D83" t="n">
-        <v>0.24754</v>
+        <v>0.246654</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.328924</v>
+        <v>0.328863</v>
       </c>
       <c r="C84" t="n">
-        <v>0.219529</v>
+        <v>0.21791</v>
       </c>
       <c r="D84" t="n">
-        <v>0.246067</v>
+        <v>0.246309</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.321207</v>
+        <v>0.321032</v>
       </c>
       <c r="C85" t="n">
-        <v>0.219225</v>
+        <v>0.217254</v>
       </c>
       <c r="D85" t="n">
-        <v>0.244374</v>
+        <v>0.24512</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.312568</v>
+        <v>0.31255</v>
       </c>
       <c r="C86" t="n">
-        <v>0.216571</v>
+        <v>0.216827</v>
       </c>
       <c r="D86" t="n">
-        <v>0.244207</v>
+        <v>0.244449</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.303291</v>
+        <v>0.303309</v>
       </c>
       <c r="C87" t="n">
-        <v>0.216568</v>
+        <v>0.215529</v>
       </c>
       <c r="D87" t="n">
-        <v>0.24302</v>
+        <v>0.243195</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.293108</v>
+        <v>0.29323</v>
       </c>
       <c r="C88" t="n">
-        <v>0.216277</v>
+        <v>0.21485</v>
       </c>
       <c r="D88" t="n">
-        <v>0.241354</v>
+        <v>0.241904</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.282056</v>
+        <v>0.281935</v>
       </c>
       <c r="C89" t="n">
-        <v>0.21508</v>
+        <v>0.215241</v>
       </c>
       <c r="D89" t="n">
-        <v>0.240773</v>
+        <v>0.240862</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.270374</v>
+        <v>0.270252</v>
       </c>
       <c r="C90" t="n">
-        <v>0.213406</v>
+        <v>0.214079</v>
       </c>
       <c r="D90" t="n">
-        <v>0.238904</v>
+        <v>0.23911</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.257819</v>
+        <v>0.257916</v>
       </c>
       <c r="C91" t="n">
-        <v>0.213769</v>
+        <v>0.21342</v>
       </c>
       <c r="D91" t="n">
-        <v>0.238035</v>
+        <v>0.238166</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.244212</v>
+        <v>0.244328</v>
       </c>
       <c r="C92" t="n">
-        <v>0.212652</v>
+        <v>0.212801</v>
       </c>
       <c r="D92" t="n">
-        <v>0.236953</v>
+        <v>0.237372</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.229963</v>
+        <v>0.229944</v>
       </c>
       <c r="C93" t="n">
-        <v>0.211956</v>
+        <v>0.212337</v>
       </c>
       <c r="D93" t="n">
-        <v>0.23619</v>
+        <v>0.236371</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.214536</v>
+        <v>0.214619</v>
       </c>
       <c r="C94" t="n">
-        <v>0.211068</v>
+        <v>0.211501</v>
       </c>
       <c r="D94" t="n">
-        <v>0.253487</v>
+        <v>0.253689</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.349153</v>
+        <v>0.349101</v>
       </c>
       <c r="C95" t="n">
-        <v>0.220594</v>
+        <v>0.220573</v>
       </c>
       <c r="D95" t="n">
-        <v>0.251091</v>
+        <v>0.2507</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.343767</v>
+        <v>0.343941</v>
       </c>
       <c r="C96" t="n">
-        <v>0.219095</v>
+        <v>0.220081</v>
       </c>
       <c r="D96" t="n">
-        <v>0.249843</v>
+        <v>0.249103</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.337697</v>
+        <v>0.337749</v>
       </c>
       <c r="C97" t="n">
-        <v>0.218179</v>
+        <v>0.219527</v>
       </c>
       <c r="D97" t="n">
-        <v>0.248292</v>
+        <v>0.247827</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.330633</v>
+        <v>0.330751</v>
       </c>
       <c r="C98" t="n">
-        <v>0.217043</v>
+        <v>0.21892</v>
       </c>
       <c r="D98" t="n">
-        <v>0.246383</v>
+        <v>0.246108</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.323365</v>
+        <v>0.323323</v>
       </c>
       <c r="C99" t="n">
-        <v>0.216131</v>
+        <v>0.216885</v>
       </c>
       <c r="D99" t="n">
-        <v>0.245399</v>
+        <v>0.244888</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.314506</v>
+        <v>0.315187</v>
       </c>
       <c r="C100" t="n">
-        <v>0.216177</v>
+        <v>0.217896</v>
       </c>
       <c r="D100" t="n">
-        <v>0.243804</v>
+        <v>0.244185</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.305469</v>
+        <v>0.306312</v>
       </c>
       <c r="C101" t="n">
-        <v>0.214721</v>
+        <v>0.214926</v>
       </c>
       <c r="D101" t="n">
-        <v>0.242353</v>
+        <v>0.242841</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.295395</v>
+        <v>0.296452</v>
       </c>
       <c r="C102" t="n">
-        <v>0.21432</v>
+        <v>0.214166</v>
       </c>
       <c r="D102" t="n">
-        <v>0.241778</v>
+        <v>0.241866</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.284741</v>
+        <v>0.285195</v>
       </c>
       <c r="C103" t="n">
-        <v>0.213395</v>
+        <v>0.213408</v>
       </c>
       <c r="D103" t="n">
-        <v>0.240454</v>
+        <v>0.240809</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.273187</v>
+        <v>0.273472</v>
       </c>
       <c r="C104" t="n">
-        <v>0.212637</v>
+        <v>0.212499</v>
       </c>
       <c r="D104" t="n">
-        <v>0.239563</v>
+        <v>0.239782</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.260703</v>
+        <v>0.261102</v>
       </c>
       <c r="C105" t="n">
-        <v>0.211994</v>
+        <v>0.211769</v>
       </c>
       <c r="D105" t="n">
-        <v>0.23871</v>
+        <v>0.238935</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.247733</v>
+        <v>0.247859</v>
       </c>
       <c r="C106" t="n">
-        <v>0.211814</v>
+        <v>0.211519</v>
       </c>
       <c r="D106" t="n">
-        <v>0.237335</v>
+        <v>0.237961</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.233069</v>
+        <v>0.233383</v>
       </c>
       <c r="C107" t="n">
-        <v>0.211232</v>
+        <v>0.211204</v>
       </c>
       <c r="D107" t="n">
-        <v>0.23656</v>
+        <v>0.236983</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.218159</v>
+        <v>0.218477</v>
       </c>
       <c r="C108" t="n">
-        <v>0.21066</v>
+        <v>0.210677</v>
       </c>
       <c r="D108" t="n">
-        <v>0.25395</v>
+        <v>0.254172</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.201915</v>
+        <v>0.202123</v>
       </c>
       <c r="C109" t="n">
-        <v>0.210171</v>
+        <v>0.210215</v>
       </c>
       <c r="D109" t="n">
-        <v>0.252044</v>
+        <v>0.25225</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.344765</v>
+        <v>0.344764</v>
       </c>
       <c r="C110" t="n">
-        <v>0.21947</v>
+        <v>0.219143</v>
       </c>
       <c r="D110" t="n">
-        <v>0.250525</v>
+        <v>0.250691</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.33861</v>
+        <v>0.338629</v>
       </c>
       <c r="C111" t="n">
-        <v>0.218535</v>
+        <v>0.218258</v>
       </c>
       <c r="D111" t="n">
-        <v>0.24858</v>
+        <v>0.247867</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.332138</v>
+        <v>0.33225</v>
       </c>
       <c r="C112" t="n">
-        <v>0.2172</v>
+        <v>0.217512</v>
       </c>
       <c r="D112" t="n">
-        <v>0.246308</v>
+        <v>0.246755</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.324944</v>
+        <v>0.324759</v>
       </c>
       <c r="C113" t="n">
-        <v>0.216881</v>
+        <v>0.216806</v>
       </c>
       <c r="D113" t="n">
-        <v>0.245904</v>
+        <v>0.246223</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.31617</v>
+        <v>0.31636</v>
       </c>
       <c r="C114" t="n">
-        <v>0.215869</v>
+        <v>0.215954</v>
       </c>
       <c r="D114" t="n">
-        <v>0.243868</v>
+        <v>0.244691</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.307387</v>
+        <v>0.307313</v>
       </c>
       <c r="C115" t="n">
-        <v>0.215337</v>
+        <v>0.215297</v>
       </c>
       <c r="D115" t="n">
-        <v>0.243614</v>
+        <v>0.24372</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.297357</v>
+        <v>0.297467</v>
       </c>
       <c r="C116" t="n">
-        <v>0.214378</v>
+        <v>0.21427</v>
       </c>
       <c r="D116" t="n">
-        <v>0.242292</v>
+        <v>0.242668</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.286908</v>
+        <v>0.286792</v>
       </c>
       <c r="C117" t="n">
-        <v>0.213341</v>
+        <v>0.213299</v>
       </c>
       <c r="D117" t="n">
-        <v>0.241425</v>
+        <v>0.241749</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.275376</v>
+        <v>0.275488</v>
       </c>
       <c r="C118" t="n">
-        <v>0.212649</v>
+        <v>0.21264</v>
       </c>
       <c r="D118" t="n">
-        <v>0.239679</v>
+        <v>0.239923</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.263293</v>
+        <v>0.263204</v>
       </c>
       <c r="C119" t="n">
-        <v>0.21221</v>
+        <v>0.212281</v>
       </c>
       <c r="D119" t="n">
-        <v>0.238956</v>
+        <v>0.238713</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.250164</v>
+        <v>0.250175</v>
       </c>
       <c r="C120" t="n">
-        <v>0.211687</v>
+        <v>0.211603</v>
       </c>
       <c r="D120" t="n">
-        <v>0.237403</v>
+        <v>0.237751</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.236225</v>
+        <v>0.236134</v>
       </c>
       <c r="C121" t="n">
-        <v>0.211223</v>
+        <v>0.21107</v>
       </c>
       <c r="D121" t="n">
-        <v>0.236912</v>
+        <v>0.237176</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.221218</v>
+        <v>0.22115</v>
       </c>
       <c r="C122" t="n">
-        <v>0.210218</v>
+        <v>0.210332</v>
       </c>
       <c r="D122" t="n">
-        <v>0.235286</v>
+        <v>0.236206</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.205367</v>
+        <v>0.205155</v>
       </c>
       <c r="C123" t="n">
-        <v>0.209741</v>
+        <v>0.209739</v>
       </c>
       <c r="D123" t="n">
-        <v>0.251754</v>
+        <v>0.252699</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.345951</v>
+        <v>0.3457</v>
       </c>
       <c r="C124" t="n">
-        <v>0.219632</v>
+        <v>0.219518</v>
       </c>
       <c r="D124" t="n">
-        <v>0.250335</v>
+        <v>0.251121</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.340066</v>
+        <v>0.339881</v>
       </c>
       <c r="C125" t="n">
-        <v>0.218782</v>
+        <v>0.21865</v>
       </c>
       <c r="D125" t="n">
-        <v>0.249345</v>
+        <v>0.249715</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.333734</v>
+        <v>0.333466</v>
       </c>
       <c r="C126" t="n">
-        <v>0.217428</v>
+        <v>0.217673</v>
       </c>
       <c r="D126" t="n">
-        <v>0.247701</v>
+        <v>0.247934</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.326444</v>
+        <v>0.326147</v>
       </c>
       <c r="C127" t="n">
-        <v>0.217106</v>
+        <v>0.216892</v>
       </c>
       <c r="D127" t="n">
-        <v>0.246312</v>
+        <v>0.245524</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.318279</v>
+        <v>0.317998</v>
       </c>
       <c r="C128" t="n">
-        <v>0.216708</v>
+        <v>0.21595</v>
       </c>
       <c r="D128" t="n">
-        <v>0.244681</v>
+        <v>0.244906</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.30907</v>
+        <v>0.309156</v>
       </c>
       <c r="C129" t="n">
-        <v>0.215153</v>
+        <v>0.215409</v>
       </c>
       <c r="D129" t="n">
-        <v>0.242508</v>
+        <v>0.243427</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.299533</v>
+        <v>0.299662</v>
       </c>
       <c r="C130" t="n">
-        <v>0.214582</v>
+        <v>0.21441</v>
       </c>
       <c r="D130" t="n">
-        <v>0.242239</v>
+        <v>0.24232</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.289311</v>
+        <v>0.289631</v>
       </c>
       <c r="C131" t="n">
-        <v>0.213373</v>
+        <v>0.213748</v>
       </c>
       <c r="D131" t="n">
-        <v>0.24079</v>
+        <v>0.241239</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.277977</v>
+        <v>0.278456</v>
       </c>
       <c r="C132" t="n">
-        <v>0.214616</v>
+        <v>0.212894</v>
       </c>
       <c r="D132" t="n">
-        <v>0.240011</v>
+        <v>0.240142</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.265856</v>
+        <v>0.266378</v>
       </c>
       <c r="C133" t="n">
-        <v>0.213708</v>
+        <v>0.212479</v>
       </c>
       <c r="D133" t="n">
-        <v>0.238894</v>
+        <v>0.238983</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.253116</v>
+        <v>0.253769</v>
       </c>
       <c r="C134" t="n">
-        <v>0.21211</v>
+        <v>0.211838</v>
       </c>
       <c r="D134" t="n">
-        <v>0.237955</v>
+        <v>0.238007</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.239089</v>
+        <v>0.239605</v>
       </c>
       <c r="C135" t="n">
-        <v>0.212288</v>
+        <v>0.21129</v>
       </c>
       <c r="D135" t="n">
-        <v>0.23706</v>
+        <v>0.237113</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.224217</v>
+        <v>0.224699</v>
       </c>
       <c r="C136" t="n">
-        <v>0.211199</v>
+        <v>0.210698</v>
       </c>
       <c r="D136" t="n">
-        <v>0.236034</v>
+        <v>0.2362</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.208281</v>
+        <v>0.208664</v>
       </c>
       <c r="C137" t="n">
-        <v>0.210504</v>
+        <v>0.211383</v>
       </c>
       <c r="D137" t="n">
-        <v>0.25221</v>
+        <v>0.252903</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.346786</v>
+        <v>0.347024</v>
       </c>
       <c r="C138" t="n">
-        <v>0.219906</v>
+        <v>0.219769</v>
       </c>
       <c r="D138" t="n">
-        <v>0.250604</v>
+        <v>0.250693</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.341109</v>
+        <v>0.341593</v>
       </c>
       <c r="C139" t="n">
-        <v>0.219809</v>
+        <v>0.219072</v>
       </c>
       <c r="D139" t="n">
-        <v>0.248629</v>
+        <v>0.249537</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.334786</v>
+        <v>0.334997</v>
       </c>
       <c r="C140" t="n">
-        <v>0.21927</v>
+        <v>0.218069</v>
       </c>
       <c r="D140" t="n">
-        <v>0.247805</v>
+        <v>0.24793</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.327525</v>
+        <v>0.327758</v>
       </c>
       <c r="C141" t="n">
-        <v>0.218209</v>
+        <v>0.217091</v>
       </c>
       <c r="D141" t="n">
-        <v>0.245378</v>
+        <v>0.246231</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.319561</v>
+        <v>0.319937</v>
       </c>
       <c r="C142" t="n">
-        <v>0.218045</v>
+        <v>0.216413</v>
       </c>
       <c r="D142" t="n">
-        <v>0.243974</v>
+        <v>0.24534</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.310905</v>
+        <v>0.311174</v>
       </c>
       <c r="C143" t="n">
-        <v>0.217361</v>
+        <v>0.215418</v>
       </c>
       <c r="D143" t="n">
-        <v>0.244092</v>
+        <v>0.243973</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.276937</v>
+        <v>0.276884</v>
       </c>
       <c r="C2" t="n">
-        <v>0.190608</v>
+        <v>0.191601</v>
       </c>
       <c r="D2" t="n">
-        <v>0.221372</v>
+        <v>0.221913</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.265673</v>
+        <v>0.273827</v>
       </c>
       <c r="C3" t="n">
-        <v>0.19201</v>
+        <v>0.193956</v>
       </c>
       <c r="D3" t="n">
-        <v>0.221537</v>
+        <v>0.226878</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.254167</v>
+        <v>0.255673</v>
       </c>
       <c r="C4" t="n">
-        <v>0.19371</v>
+        <v>0.194208</v>
       </c>
       <c r="D4" t="n">
-        <v>0.22181</v>
+        <v>0.222283</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.241663</v>
+        <v>0.242604</v>
       </c>
       <c r="C5" t="n">
-        <v>0.19397</v>
+        <v>0.194717</v>
       </c>
       <c r="D5" t="n">
-        <v>0.219715</v>
+        <v>0.221932</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.233051</v>
+        <v>0.234076</v>
       </c>
       <c r="C6" t="n">
-        <v>0.195342</v>
+        <v>0.195424</v>
       </c>
       <c r="D6" t="n">
-        <v>0.22143</v>
+        <v>0.221746</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.220518</v>
+        <v>0.221888</v>
       </c>
       <c r="C7" t="n">
-        <v>0.195014</v>
+        <v>0.195738</v>
       </c>
       <c r="D7" t="n">
-        <v>0.221387</v>
+        <v>0.221414</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.206334</v>
+        <v>0.207344</v>
       </c>
       <c r="C8" t="n">
-        <v>0.195436</v>
+        <v>0.196112</v>
       </c>
       <c r="D8" t="n">
-        <v>0.221558</v>
+        <v>0.222261</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.192289</v>
+        <v>0.191879</v>
       </c>
       <c r="C9" t="n">
-        <v>0.197272</v>
+        <v>0.197575</v>
       </c>
       <c r="D9" t="n">
-        <v>0.241788</v>
+        <v>0.24298</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.330006</v>
+        <v>0.331764</v>
       </c>
       <c r="C10" t="n">
-        <v>0.212194</v>
+        <v>0.213004</v>
       </c>
       <c r="D10" t="n">
-        <v>0.241172</v>
+        <v>0.242208</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.323744</v>
+        <v>0.325313</v>
       </c>
       <c r="C11" t="n">
-        <v>0.212286</v>
+        <v>0.211907</v>
       </c>
       <c r="D11" t="n">
-        <v>0.239962</v>
+        <v>0.241479</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.318202</v>
+        <v>0.318062</v>
       </c>
       <c r="C12" t="n">
-        <v>0.212325</v>
+        <v>0.211827</v>
       </c>
       <c r="D12" t="n">
-        <v>0.242789</v>
+        <v>0.240085</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.311163</v>
+        <v>0.311822</v>
       </c>
       <c r="C13" t="n">
-        <v>0.211062</v>
+        <v>0.21083</v>
       </c>
       <c r="D13" t="n">
-        <v>0.238537</v>
+        <v>0.239709</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.304002</v>
+        <v>0.305121</v>
       </c>
       <c r="C14" t="n">
-        <v>0.210463</v>
+        <v>0.210741</v>
       </c>
       <c r="D14" t="n">
-        <v>0.234834</v>
+        <v>0.23651</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.296057</v>
+        <v>0.29783</v>
       </c>
       <c r="C15" t="n">
-        <v>0.210072</v>
+        <v>0.21009</v>
       </c>
       <c r="D15" t="n">
-        <v>0.23484</v>
+        <v>0.234764</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.289267</v>
+        <v>0.28913</v>
       </c>
       <c r="C16" t="n">
-        <v>0.209529</v>
+        <v>0.209212</v>
       </c>
       <c r="D16" t="n">
-        <v>0.234925</v>
+        <v>0.234742</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.278294</v>
+        <v>0.27837</v>
       </c>
       <c r="C17" t="n">
-        <v>0.209301</v>
+        <v>0.208508</v>
       </c>
       <c r="D17" t="n">
-        <v>0.232985</v>
+        <v>0.233064</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.268285</v>
+        <v>0.268974</v>
       </c>
       <c r="C18" t="n">
-        <v>0.209032</v>
+        <v>0.207948</v>
       </c>
       <c r="D18" t="n">
-        <v>0.232566</v>
+        <v>0.233317</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.258191</v>
+        <v>0.258905</v>
       </c>
       <c r="C19" t="n">
-        <v>0.208883</v>
+        <v>0.208486</v>
       </c>
       <c r="D19" t="n">
-        <v>0.232783</v>
+        <v>0.232329</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.244874</v>
+        <v>0.24565</v>
       </c>
       <c r="C20" t="n">
-        <v>0.208535</v>
+        <v>0.207135</v>
       </c>
       <c r="D20" t="n">
-        <v>0.23267</v>
+        <v>0.231945</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.232398</v>
+        <v>0.23348</v>
       </c>
       <c r="C21" t="n">
-        <v>0.208314</v>
+        <v>0.20894</v>
       </c>
       <c r="D21" t="n">
-        <v>0.232083</v>
+        <v>0.234145</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.217258</v>
+        <v>0.218014</v>
       </c>
       <c r="C22" t="n">
-        <v>0.206864</v>
+        <v>0.207393</v>
       </c>
       <c r="D22" t="n">
-        <v>0.231305</v>
+        <v>0.232244</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.202657</v>
+        <v>0.203084</v>
       </c>
       <c r="C23" t="n">
-        <v>0.207197</v>
+        <v>0.206789</v>
       </c>
       <c r="D23" t="n">
-        <v>0.271332</v>
+        <v>0.24751</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.346215</v>
+        <v>0.340633</v>
       </c>
       <c r="C24" t="n">
-        <v>0.217396</v>
+        <v>0.218142</v>
       </c>
       <c r="D24" t="n">
-        <v>0.246089</v>
+        <v>0.253334</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.334471</v>
+        <v>0.341334</v>
       </c>
       <c r="C25" t="n">
-        <v>0.216845</v>
+        <v>0.217766</v>
       </c>
       <c r="D25" t="n">
-        <v>0.250752</v>
+        <v>0.245218</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.327124</v>
+        <v>0.327954</v>
       </c>
       <c r="C26" t="n">
-        <v>0.214832</v>
+        <v>0.21478</v>
       </c>
       <c r="D26" t="n">
-        <v>0.242647</v>
+        <v>0.242734</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.320475</v>
+        <v>0.320666</v>
       </c>
       <c r="C27" t="n">
-        <v>0.215206</v>
+        <v>0.214192</v>
       </c>
       <c r="D27" t="n">
-        <v>0.242198</v>
+        <v>0.241453</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.313286</v>
+        <v>0.313451</v>
       </c>
       <c r="C28" t="n">
-        <v>0.212782</v>
+        <v>0.212952</v>
       </c>
       <c r="D28" t="n">
-        <v>0.240187</v>
+        <v>0.240719</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.305354</v>
+        <v>0.306392</v>
       </c>
       <c r="C29" t="n">
-        <v>0.21182</v>
+        <v>0.212112</v>
       </c>
       <c r="D29" t="n">
-        <v>0.238346</v>
+        <v>0.262533</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.297366</v>
+        <v>0.297752</v>
       </c>
       <c r="C30" t="n">
-        <v>0.212413</v>
+        <v>0.211094</v>
       </c>
       <c r="D30" t="n">
-        <v>0.241615</v>
+        <v>0.237886</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.287344</v>
+        <v>0.28787</v>
       </c>
       <c r="C31" t="n">
-        <v>0.210204</v>
+        <v>0.210501</v>
       </c>
       <c r="D31" t="n">
-        <v>0.240009</v>
+        <v>0.236037</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.277117</v>
+        <v>0.27716</v>
       </c>
       <c r="C32" t="n">
-        <v>0.209661</v>
+        <v>0.209898</v>
       </c>
       <c r="D32" t="n">
-        <v>0.235991</v>
+        <v>0.236656</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.266961</v>
+        <v>0.267309</v>
       </c>
       <c r="C33" t="n">
-        <v>0.209428</v>
+        <v>0.210489</v>
       </c>
       <c r="D33" t="n">
-        <v>0.235467</v>
+        <v>0.236264</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.255047</v>
+        <v>0.255923</v>
       </c>
       <c r="C34" t="n">
-        <v>0.209017</v>
+        <v>0.209174</v>
       </c>
       <c r="D34" t="n">
-        <v>0.235376</v>
+        <v>0.240349</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.242336</v>
+        <v>0.242502</v>
       </c>
       <c r="C35" t="n">
-        <v>0.209688</v>
+        <v>0.209799</v>
       </c>
       <c r="D35" t="n">
-        <v>0.23427</v>
+        <v>0.235071</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.227566</v>
+        <v>0.227941</v>
       </c>
       <c r="C36" t="n">
-        <v>0.208931</v>
+        <v>0.209114</v>
       </c>
       <c r="D36" t="n">
-        <v>0.233972</v>
+        <v>0.233635</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.211611</v>
+        <v>0.212001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.207898</v>
+        <v>0.207805</v>
       </c>
       <c r="D37" t="n">
-        <v>0.248384</v>
+        <v>0.249693</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.345097</v>
+        <v>0.34543</v>
       </c>
       <c r="C38" t="n">
-        <v>0.218285</v>
+        <v>0.218183</v>
       </c>
       <c r="D38" t="n">
-        <v>0.247401</v>
+        <v>0.248707</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.339562</v>
+        <v>0.339651</v>
       </c>
       <c r="C39" t="n">
-        <v>0.217064</v>
+        <v>0.216977</v>
       </c>
       <c r="D39" t="n">
-        <v>0.246486</v>
+        <v>0.246884</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.334137</v>
+        <v>0.334409</v>
       </c>
       <c r="C40" t="n">
-        <v>0.215908</v>
+        <v>0.21599</v>
       </c>
       <c r="D40" t="n">
-        <v>0.245456</v>
+        <v>0.245496</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.328009</v>
+        <v>0.32766</v>
       </c>
       <c r="C41" t="n">
-        <v>0.215288</v>
+        <v>0.21519</v>
       </c>
       <c r="D41" t="n">
-        <v>0.243784</v>
+        <v>0.243896</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.320487</v>
+        <v>0.320726</v>
       </c>
       <c r="C42" t="n">
-        <v>0.214736</v>
+        <v>0.214537</v>
       </c>
       <c r="D42" t="n">
-        <v>0.242863</v>
+        <v>0.243006</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.312016</v>
+        <v>0.312394</v>
       </c>
       <c r="C43" t="n">
-        <v>0.213807</v>
+        <v>0.214088</v>
       </c>
       <c r="D43" t="n">
-        <v>0.24197</v>
+        <v>0.244995</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.302883</v>
+        <v>0.303608</v>
       </c>
       <c r="C44" t="n">
-        <v>0.21317</v>
+        <v>0.213306</v>
       </c>
       <c r="D44" t="n">
-        <v>0.241464</v>
+        <v>0.244739</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.293002</v>
+        <v>0.293187</v>
       </c>
       <c r="C45" t="n">
-        <v>0.212373</v>
+        <v>0.212299</v>
       </c>
       <c r="D45" t="n">
-        <v>0.239544</v>
+        <v>0.243197</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.282764</v>
+        <v>0.28319</v>
       </c>
       <c r="C46" t="n">
-        <v>0.212022</v>
+        <v>0.211803</v>
       </c>
       <c r="D46" t="n">
-        <v>0.239365</v>
+        <v>0.242114</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.272311</v>
+        <v>0.272897</v>
       </c>
       <c r="C47" t="n">
-        <v>0.211455</v>
+        <v>0.21162</v>
       </c>
       <c r="D47" t="n">
-        <v>0.237807</v>
+        <v>0.240723</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.260712</v>
+        <v>0.260911</v>
       </c>
       <c r="C48" t="n">
-        <v>0.21067</v>
+        <v>0.210789</v>
       </c>
       <c r="D48" t="n">
-        <v>0.237388</v>
+        <v>0.239618</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.247688</v>
+        <v>0.248025</v>
       </c>
       <c r="C49" t="n">
-        <v>0.212405</v>
+        <v>0.212742</v>
       </c>
       <c r="D49" t="n">
-        <v>0.235872</v>
+        <v>0.238241</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.234026</v>
+        <v>0.234566</v>
       </c>
       <c r="C50" t="n">
-        <v>0.212253</v>
+        <v>0.212413</v>
       </c>
       <c r="D50" t="n">
-        <v>0.235376</v>
+        <v>0.237429</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.219894</v>
+        <v>0.2205</v>
       </c>
       <c r="C51" t="n">
-        <v>0.21085</v>
+        <v>0.211604</v>
       </c>
       <c r="D51" t="n">
-        <v>0.252103</v>
+        <v>0.254679</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.20343</v>
+        <v>0.203848</v>
       </c>
       <c r="C52" t="n">
-        <v>0.210934</v>
+        <v>0.210961</v>
       </c>
       <c r="D52" t="n">
-        <v>0.25102</v>
+        <v>0.252481</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.343075</v>
+        <v>0.343388</v>
       </c>
       <c r="C53" t="n">
-        <v>0.218642</v>
+        <v>0.218948</v>
       </c>
       <c r="D53" t="n">
-        <v>0.249791</v>
+        <v>0.249682</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.33673</v>
+        <v>0.337224</v>
       </c>
       <c r="C54" t="n">
-        <v>0.218472</v>
+        <v>0.218603</v>
       </c>
       <c r="D54" t="n">
-        <v>0.248586</v>
+        <v>0.249727</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.330568</v>
+        <v>0.331033</v>
       </c>
       <c r="C55" t="n">
-        <v>0.21748</v>
+        <v>0.217295</v>
       </c>
       <c r="D55" t="n">
-        <v>0.247665</v>
+        <v>0.248364</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.322995</v>
+        <v>0.323939</v>
       </c>
       <c r="C56" t="n">
-        <v>0.216492</v>
+        <v>0.216554</v>
       </c>
       <c r="D56" t="n">
-        <v>0.245448</v>
+        <v>0.24665</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.31524</v>
+        <v>0.315816</v>
       </c>
       <c r="C57" t="n">
-        <v>0.215505</v>
+        <v>0.217289</v>
       </c>
       <c r="D57" t="n">
-        <v>0.243989</v>
+        <v>0.244276</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.30614</v>
+        <v>0.306561</v>
       </c>
       <c r="C58" t="n">
-        <v>0.21529</v>
+        <v>0.21634</v>
       </c>
       <c r="D58" t="n">
-        <v>0.244488</v>
+        <v>0.245662</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.296517</v>
+        <v>0.296923</v>
       </c>
       <c r="C59" t="n">
-        <v>0.214362</v>
+        <v>0.215187</v>
       </c>
       <c r="D59" t="n">
-        <v>0.244429</v>
+        <v>0.243978</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.286765</v>
+        <v>0.287286</v>
       </c>
       <c r="C60" t="n">
-        <v>0.21415</v>
+        <v>0.214513</v>
       </c>
       <c r="D60" t="n">
-        <v>0.243145</v>
+        <v>0.243652</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.275776</v>
+        <v>0.27611</v>
       </c>
       <c r="C61" t="n">
-        <v>0.213664</v>
+        <v>0.213682</v>
       </c>
       <c r="D61" t="n">
-        <v>0.242106</v>
+        <v>0.24179</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.263943</v>
+        <v>0.264074</v>
       </c>
       <c r="C62" t="n">
-        <v>0.212781</v>
+        <v>0.212833</v>
       </c>
       <c r="D62" t="n">
-        <v>0.240682</v>
+        <v>0.241379</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.251202</v>
+        <v>0.251424</v>
       </c>
       <c r="C63" t="n">
-        <v>0.21273</v>
+        <v>0.212621</v>
       </c>
       <c r="D63" t="n">
-        <v>0.238996</v>
+        <v>0.239783</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.237517</v>
+        <v>0.237764</v>
       </c>
       <c r="C64" t="n">
-        <v>0.211998</v>
+        <v>0.212066</v>
       </c>
       <c r="D64" t="n">
-        <v>0.237876</v>
+        <v>0.238752</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.222997</v>
+        <v>0.223511</v>
       </c>
       <c r="C65" t="n">
-        <v>0.211441</v>
+        <v>0.211879</v>
       </c>
       <c r="D65" t="n">
-        <v>0.236934</v>
+        <v>0.23737</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.206548</v>
+        <v>0.207105</v>
       </c>
       <c r="C66" t="n">
-        <v>0.210296</v>
+        <v>0.211084</v>
       </c>
       <c r="D66" t="n">
-        <v>0.252572</v>
+        <v>0.253674</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.34626</v>
+        <v>0.346527</v>
       </c>
       <c r="C67" t="n">
-        <v>0.219436</v>
+        <v>0.219472</v>
       </c>
       <c r="D67" t="n">
-        <v>0.250942</v>
+        <v>0.252048</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.340779</v>
+        <v>0.340627</v>
       </c>
       <c r="C68" t="n">
-        <v>0.21837</v>
+        <v>0.218596</v>
       </c>
       <c r="D68" t="n">
-        <v>0.248617</v>
+        <v>0.250915</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.33388</v>
+        <v>0.333944</v>
       </c>
       <c r="C69" t="n">
-        <v>0.217893</v>
+        <v>0.218492</v>
       </c>
       <c r="D69" t="n">
-        <v>0.247249</v>
+        <v>0.249345</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.326788</v>
+        <v>0.326856</v>
       </c>
       <c r="C70" t="n">
-        <v>0.217551</v>
+        <v>0.217679</v>
       </c>
       <c r="D70" t="n">
-        <v>0.246123</v>
+        <v>0.247109</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.318608</v>
+        <v>0.318658</v>
       </c>
       <c r="C71" t="n">
-        <v>0.216594</v>
+        <v>0.216512</v>
       </c>
       <c r="D71" t="n">
-        <v>0.244247</v>
+        <v>0.24637</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.309503</v>
+        <v>0.309677</v>
       </c>
       <c r="C72" t="n">
-        <v>0.216176</v>
+        <v>0.216118</v>
       </c>
       <c r="D72" t="n">
-        <v>0.243541</v>
+        <v>0.244893</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.299931</v>
+        <v>0.300377</v>
       </c>
       <c r="C73" t="n">
-        <v>0.21415</v>
+        <v>0.215865</v>
       </c>
       <c r="D73" t="n">
-        <v>0.242345</v>
+        <v>0.243533</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.289997</v>
+        <v>0.290018</v>
       </c>
       <c r="C74" t="n">
-        <v>0.213888</v>
+        <v>0.215484</v>
       </c>
       <c r="D74" t="n">
-        <v>0.241783</v>
+        <v>0.242767</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.279127</v>
+        <v>0.279579</v>
       </c>
       <c r="C75" t="n">
-        <v>0.214126</v>
+        <v>0.215467</v>
       </c>
       <c r="D75" t="n">
-        <v>0.239942</v>
+        <v>0.241451</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.267468</v>
+        <v>0.267591</v>
       </c>
       <c r="C76" t="n">
-        <v>0.212967</v>
+        <v>0.214401</v>
       </c>
       <c r="D76" t="n">
-        <v>0.238841</v>
+        <v>0.240048</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.254652</v>
+        <v>0.255087</v>
       </c>
       <c r="C77" t="n">
-        <v>0.212698</v>
+        <v>0.213696</v>
       </c>
       <c r="D77" t="n">
-        <v>0.237857</v>
+        <v>0.239144</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.240874</v>
+        <v>0.241328</v>
       </c>
       <c r="C78" t="n">
-        <v>0.211548</v>
+        <v>0.212984</v>
       </c>
       <c r="D78" t="n">
-        <v>0.237418</v>
+        <v>0.238544</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.226052</v>
+        <v>0.226538</v>
       </c>
       <c r="C79" t="n">
-        <v>0.211319</v>
+        <v>0.212294</v>
       </c>
       <c r="D79" t="n">
-        <v>0.236782</v>
+        <v>0.237437</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.210646</v>
+        <v>0.210958</v>
       </c>
       <c r="C80" t="n">
-        <v>0.21116</v>
+        <v>0.211514</v>
       </c>
       <c r="D80" t="n">
-        <v>0.251505</v>
+        <v>0.253573</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.348189</v>
+        <v>0.348244</v>
       </c>
       <c r="C81" t="n">
-        <v>0.22072</v>
+        <v>0.220903</v>
       </c>
       <c r="D81" t="n">
-        <v>0.250922</v>
+        <v>0.251838</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.342854</v>
+        <v>0.342665</v>
       </c>
       <c r="C82" t="n">
-        <v>0.219239</v>
+        <v>0.218824</v>
       </c>
       <c r="D82" t="n">
-        <v>0.249502</v>
+        <v>0.250514</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.336115</v>
+        <v>0.336053</v>
       </c>
       <c r="C83" t="n">
-        <v>0.218503</v>
+        <v>0.219453</v>
       </c>
       <c r="D83" t="n">
-        <v>0.246654</v>
+        <v>0.248464</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.328863</v>
+        <v>0.328848</v>
       </c>
       <c r="C84" t="n">
-        <v>0.21791</v>
+        <v>0.219405</v>
       </c>
       <c r="D84" t="n">
-        <v>0.246309</v>
+        <v>0.247056</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.321032</v>
+        <v>0.321198</v>
       </c>
       <c r="C85" t="n">
-        <v>0.217254</v>
+        <v>0.219066</v>
       </c>
       <c r="D85" t="n">
-        <v>0.24512</v>
+        <v>0.245982</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.31255</v>
+        <v>0.312729</v>
       </c>
       <c r="C86" t="n">
-        <v>0.216827</v>
+        <v>0.218066</v>
       </c>
       <c r="D86" t="n">
-        <v>0.244449</v>
+        <v>0.245161</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.303309</v>
+        <v>0.303235</v>
       </c>
       <c r="C87" t="n">
-        <v>0.215529</v>
+        <v>0.216546</v>
       </c>
       <c r="D87" t="n">
-        <v>0.243195</v>
+        <v>0.244215</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.29323</v>
+        <v>0.293098</v>
       </c>
       <c r="C88" t="n">
-        <v>0.21485</v>
+        <v>0.216484</v>
       </c>
       <c r="D88" t="n">
-        <v>0.241904</v>
+        <v>0.242836</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.281935</v>
+        <v>0.282027</v>
       </c>
       <c r="C89" t="n">
-        <v>0.215241</v>
+        <v>0.215016</v>
       </c>
       <c r="D89" t="n">
-        <v>0.240862</v>
+        <v>0.241601</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.270252</v>
+        <v>0.27042</v>
       </c>
       <c r="C90" t="n">
-        <v>0.214079</v>
+        <v>0.214096</v>
       </c>
       <c r="D90" t="n">
-        <v>0.23911</v>
+        <v>0.240467</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.257916</v>
+        <v>0.257724</v>
       </c>
       <c r="C91" t="n">
-        <v>0.21342</v>
+        <v>0.21352</v>
       </c>
       <c r="D91" t="n">
-        <v>0.238166</v>
+        <v>0.239571</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.244328</v>
+        <v>0.244191</v>
       </c>
       <c r="C92" t="n">
-        <v>0.212801</v>
+        <v>0.212879</v>
       </c>
       <c r="D92" t="n">
-        <v>0.237372</v>
+        <v>0.238517</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.229944</v>
+        <v>0.230019</v>
       </c>
       <c r="C93" t="n">
-        <v>0.212337</v>
+        <v>0.212291</v>
       </c>
       <c r="D93" t="n">
-        <v>0.236371</v>
+        <v>0.237505</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.214619</v>
+        <v>0.214509</v>
       </c>
       <c r="C94" t="n">
-        <v>0.211501</v>
+        <v>0.211169</v>
       </c>
       <c r="D94" t="n">
-        <v>0.253689</v>
+        <v>0.254721</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.349101</v>
+        <v>0.348984</v>
       </c>
       <c r="C95" t="n">
-        <v>0.220573</v>
+        <v>0.220434</v>
       </c>
       <c r="D95" t="n">
-        <v>0.2507</v>
+        <v>0.252372</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.343941</v>
+        <v>0.343763</v>
       </c>
       <c r="C96" t="n">
-        <v>0.220081</v>
+        <v>0.218976</v>
       </c>
       <c r="D96" t="n">
-        <v>0.249103</v>
+        <v>0.250968</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.337749</v>
+        <v>0.337774</v>
       </c>
       <c r="C97" t="n">
-        <v>0.219527</v>
+        <v>0.219393</v>
       </c>
       <c r="D97" t="n">
-        <v>0.247827</v>
+        <v>0.249612</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.330751</v>
+        <v>0.330604</v>
       </c>
       <c r="C98" t="n">
-        <v>0.21892</v>
+        <v>0.218834</v>
       </c>
       <c r="D98" t="n">
-        <v>0.246108</v>
+        <v>0.247769</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.323323</v>
+        <v>0.323093</v>
       </c>
       <c r="C99" t="n">
-        <v>0.216885</v>
+        <v>0.218037</v>
       </c>
       <c r="D99" t="n">
-        <v>0.244888</v>
+        <v>0.246571</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.315187</v>
+        <v>0.314523</v>
       </c>
       <c r="C100" t="n">
-        <v>0.217896</v>
+        <v>0.217764</v>
       </c>
       <c r="D100" t="n">
-        <v>0.244185</v>
+        <v>0.245131</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.306312</v>
+        <v>0.305431</v>
       </c>
       <c r="C101" t="n">
-        <v>0.214926</v>
+        <v>0.215021</v>
       </c>
       <c r="D101" t="n">
-        <v>0.242841</v>
+        <v>0.243514</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.296452</v>
+        <v>0.295089</v>
       </c>
       <c r="C102" t="n">
-        <v>0.214166</v>
+        <v>0.215728</v>
       </c>
       <c r="D102" t="n">
-        <v>0.241866</v>
+        <v>0.242009</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.285195</v>
+        <v>0.284547</v>
       </c>
       <c r="C103" t="n">
-        <v>0.213408</v>
+        <v>0.21523</v>
       </c>
       <c r="D103" t="n">
-        <v>0.240809</v>
+        <v>0.241503</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.273472</v>
+        <v>0.272799</v>
       </c>
       <c r="C104" t="n">
-        <v>0.212499</v>
+        <v>0.21404</v>
       </c>
       <c r="D104" t="n">
-        <v>0.239782</v>
+        <v>0.240465</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.261102</v>
+        <v>0.260483</v>
       </c>
       <c r="C105" t="n">
-        <v>0.211769</v>
+        <v>0.211932</v>
       </c>
       <c r="D105" t="n">
-        <v>0.238935</v>
+        <v>0.239432</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.247859</v>
+        <v>0.247386</v>
       </c>
       <c r="C106" t="n">
-        <v>0.211519</v>
+        <v>0.212527</v>
       </c>
       <c r="D106" t="n">
-        <v>0.237961</v>
+        <v>0.238419</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.233383</v>
+        <v>0.233087</v>
       </c>
       <c r="C107" t="n">
-        <v>0.211204</v>
+        <v>0.211918</v>
       </c>
       <c r="D107" t="n">
-        <v>0.236983</v>
+        <v>0.23747</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.218477</v>
+        <v>0.217924</v>
       </c>
       <c r="C108" t="n">
-        <v>0.210677</v>
+        <v>0.211268</v>
       </c>
       <c r="D108" t="n">
-        <v>0.254172</v>
+        <v>0.254025</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.202123</v>
+        <v>0.201914</v>
       </c>
       <c r="C109" t="n">
-        <v>0.210215</v>
+        <v>0.21049</v>
       </c>
       <c r="D109" t="n">
-        <v>0.25225</v>
+        <v>0.25312</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.344764</v>
+        <v>0.344864</v>
       </c>
       <c r="C110" t="n">
-        <v>0.219143</v>
+        <v>0.220032</v>
       </c>
       <c r="D110" t="n">
-        <v>0.250691</v>
+        <v>0.251538</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.338629</v>
+        <v>0.338862</v>
       </c>
       <c r="C111" t="n">
-        <v>0.218258</v>
+        <v>0.21879</v>
       </c>
       <c r="D111" t="n">
-        <v>0.247867</v>
+        <v>0.248853</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.33225</v>
+        <v>0.332025</v>
       </c>
       <c r="C112" t="n">
-        <v>0.217512</v>
+        <v>0.218765</v>
       </c>
       <c r="D112" t="n">
-        <v>0.246755</v>
+        <v>0.24822</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.324759</v>
+        <v>0.324698</v>
       </c>
       <c r="C113" t="n">
-        <v>0.216806</v>
+        <v>0.218358</v>
       </c>
       <c r="D113" t="n">
-        <v>0.246223</v>
+        <v>0.246768</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.31636</v>
+        <v>0.316391</v>
       </c>
       <c r="C114" t="n">
-        <v>0.215954</v>
+        <v>0.217808</v>
       </c>
       <c r="D114" t="n">
-        <v>0.244691</v>
+        <v>0.245331</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.307313</v>
+        <v>0.307182</v>
       </c>
       <c r="C115" t="n">
-        <v>0.215297</v>
+        <v>0.215948</v>
       </c>
       <c r="D115" t="n">
-        <v>0.24372</v>
+        <v>0.244304</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.297467</v>
+        <v>0.297252</v>
       </c>
       <c r="C116" t="n">
-        <v>0.21427</v>
+        <v>0.216157</v>
       </c>
       <c r="D116" t="n">
-        <v>0.242668</v>
+        <v>0.242991</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.286792</v>
+        <v>0.286776</v>
       </c>
       <c r="C117" t="n">
-        <v>0.213299</v>
+        <v>0.215141</v>
       </c>
       <c r="D117" t="n">
-        <v>0.241749</v>
+        <v>0.242103</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.275488</v>
+        <v>0.275089</v>
       </c>
       <c r="C118" t="n">
-        <v>0.21264</v>
+        <v>0.214318</v>
       </c>
       <c r="D118" t="n">
-        <v>0.239923</v>
+        <v>0.24084</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.263204</v>
+        <v>0.263044</v>
       </c>
       <c r="C119" t="n">
-        <v>0.212281</v>
+        <v>0.21355</v>
       </c>
       <c r="D119" t="n">
-        <v>0.238713</v>
+        <v>0.239619</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.250175</v>
+        <v>0.25011</v>
       </c>
       <c r="C120" t="n">
-        <v>0.211603</v>
+        <v>0.212854</v>
       </c>
       <c r="D120" t="n">
-        <v>0.237751</v>
+        <v>0.238481</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.236134</v>
+        <v>0.236028</v>
       </c>
       <c r="C121" t="n">
-        <v>0.21107</v>
+        <v>0.212231</v>
       </c>
       <c r="D121" t="n">
-        <v>0.237176</v>
+        <v>0.237576</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.22115</v>
+        <v>0.221053</v>
       </c>
       <c r="C122" t="n">
-        <v>0.210332</v>
+        <v>0.211361</v>
       </c>
       <c r="D122" t="n">
-        <v>0.236206</v>
+        <v>0.236555</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.205155</v>
+        <v>0.205298</v>
       </c>
       <c r="C123" t="n">
-        <v>0.209739</v>
+        <v>0.210436</v>
       </c>
       <c r="D123" t="n">
-        <v>0.252699</v>
+        <v>0.253627</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.3457</v>
+        <v>0.345833</v>
       </c>
       <c r="C124" t="n">
-        <v>0.219518</v>
+        <v>0.220251</v>
       </c>
       <c r="D124" t="n">
-        <v>0.251121</v>
+        <v>0.251596</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.339881</v>
+        <v>0.340385</v>
       </c>
       <c r="C125" t="n">
-        <v>0.21865</v>
+        <v>0.219579</v>
       </c>
       <c r="D125" t="n">
-        <v>0.249715</v>
+        <v>0.250255</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.333466</v>
+        <v>0.333891</v>
       </c>
       <c r="C126" t="n">
-        <v>0.217673</v>
+        <v>0.218877</v>
       </c>
       <c r="D126" t="n">
-        <v>0.247934</v>
+        <v>0.248391</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.326147</v>
+        <v>0.326234</v>
       </c>
       <c r="C127" t="n">
-        <v>0.216892</v>
+        <v>0.218622</v>
       </c>
       <c r="D127" t="n">
-        <v>0.245524</v>
+        <v>0.24702</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.317998</v>
+        <v>0.318293</v>
       </c>
       <c r="C128" t="n">
-        <v>0.21595</v>
+        <v>0.217997</v>
       </c>
       <c r="D128" t="n">
-        <v>0.244906</v>
+        <v>0.245451</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.309156</v>
+        <v>0.309395</v>
       </c>
       <c r="C129" t="n">
-        <v>0.215409</v>
+        <v>0.217102</v>
       </c>
       <c r="D129" t="n">
-        <v>0.243427</v>
+        <v>0.243961</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.299662</v>
+        <v>0.299831</v>
       </c>
       <c r="C130" t="n">
-        <v>0.21441</v>
+        <v>0.216091</v>
       </c>
       <c r="D130" t="n">
-        <v>0.24232</v>
+        <v>0.242902</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.289631</v>
+        <v>0.289758</v>
       </c>
       <c r="C131" t="n">
-        <v>0.213748</v>
+        <v>0.215566</v>
       </c>
       <c r="D131" t="n">
-        <v>0.241239</v>
+        <v>0.241728</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.278456</v>
+        <v>0.278406</v>
       </c>
       <c r="C132" t="n">
-        <v>0.212894</v>
+        <v>0.214492</v>
       </c>
       <c r="D132" t="n">
-        <v>0.240142</v>
+        <v>0.240583</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.266378</v>
+        <v>0.266413</v>
       </c>
       <c r="C133" t="n">
-        <v>0.212479</v>
+        <v>0.21392</v>
       </c>
       <c r="D133" t="n">
-        <v>0.238983</v>
+        <v>0.239428</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.253769</v>
+        <v>0.253611</v>
       </c>
       <c r="C134" t="n">
-        <v>0.211838</v>
+        <v>0.212996</v>
       </c>
       <c r="D134" t="n">
-        <v>0.238007</v>
+        <v>0.238466</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.239605</v>
+        <v>0.239699</v>
       </c>
       <c r="C135" t="n">
-        <v>0.21129</v>
+        <v>0.212194</v>
       </c>
       <c r="D135" t="n">
-        <v>0.237113</v>
+        <v>0.237559</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.224699</v>
+        <v>0.224896</v>
       </c>
       <c r="C136" t="n">
-        <v>0.210698</v>
+        <v>0.211421</v>
       </c>
       <c r="D136" t="n">
-        <v>0.2362</v>
+        <v>0.236578</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.208664</v>
+        <v>0.208729</v>
       </c>
       <c r="C137" t="n">
-        <v>0.211383</v>
+        <v>0.210758</v>
       </c>
       <c r="D137" t="n">
-        <v>0.252903</v>
+        <v>0.253842</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.347024</v>
+        <v>0.34692</v>
       </c>
       <c r="C138" t="n">
-        <v>0.219769</v>
+        <v>0.220426</v>
       </c>
       <c r="D138" t="n">
-        <v>0.250693</v>
+        <v>0.251874</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.341593</v>
+        <v>0.341547</v>
       </c>
       <c r="C139" t="n">
-        <v>0.219072</v>
+        <v>0.21932</v>
       </c>
       <c r="D139" t="n">
-        <v>0.249537</v>
+        <v>0.249478</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.334997</v>
+        <v>0.33493</v>
       </c>
       <c r="C140" t="n">
-        <v>0.218069</v>
+        <v>0.218155</v>
       </c>
       <c r="D140" t="n">
-        <v>0.24793</v>
+        <v>0.248599</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.327758</v>
+        <v>0.327777</v>
       </c>
       <c r="C141" t="n">
-        <v>0.217091</v>
+        <v>0.217093</v>
       </c>
       <c r="D141" t="n">
-        <v>0.246231</v>
+        <v>0.247369</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.319937</v>
+        <v>0.319997</v>
       </c>
       <c r="C142" t="n">
-        <v>0.216413</v>
+        <v>0.217551</v>
       </c>
       <c r="D142" t="n">
-        <v>0.24534</v>
+        <v>0.245799</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.311174</v>
+        <v>0.311371</v>
       </c>
       <c r="C143" t="n">
-        <v>0.215418</v>
+        <v>0.215817</v>
       </c>
       <c r="D143" t="n">
-        <v>0.243973</v>
+        <v>0.244667</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.276884</v>
+        <v>0.274201</v>
       </c>
       <c r="C2" t="n">
-        <v>0.191601</v>
+        <v>0.190774</v>
       </c>
       <c r="D2" t="n">
-        <v>0.221913</v>
+        <v>0.220259</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.273827</v>
+        <v>0.265469</v>
       </c>
       <c r="C3" t="n">
-        <v>0.193956</v>
+        <v>0.192714</v>
       </c>
       <c r="D3" t="n">
-        <v>0.226878</v>
+        <v>0.220739</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.255673</v>
+        <v>0.253854</v>
       </c>
       <c r="C4" t="n">
-        <v>0.194208</v>
+        <v>0.193345</v>
       </c>
       <c r="D4" t="n">
-        <v>0.222283</v>
+        <v>0.221952</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.242604</v>
+        <v>0.241771</v>
       </c>
       <c r="C5" t="n">
-        <v>0.194717</v>
+        <v>0.194009</v>
       </c>
       <c r="D5" t="n">
-        <v>0.221932</v>
+        <v>0.220078</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.234076</v>
+        <v>0.23245</v>
       </c>
       <c r="C6" t="n">
-        <v>0.195424</v>
+        <v>0.195056</v>
       </c>
       <c r="D6" t="n">
-        <v>0.221746</v>
+        <v>0.221279</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.221888</v>
+        <v>0.22038</v>
       </c>
       <c r="C7" t="n">
-        <v>0.195738</v>
+        <v>0.19506</v>
       </c>
       <c r="D7" t="n">
-        <v>0.221414</v>
+        <v>0.22201</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.207344</v>
+        <v>0.20595</v>
       </c>
       <c r="C8" t="n">
-        <v>0.196112</v>
+        <v>0.196029</v>
       </c>
       <c r="D8" t="n">
-        <v>0.222261</v>
+        <v>0.221365</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.191879</v>
+        <v>0.191078</v>
       </c>
       <c r="C9" t="n">
-        <v>0.197575</v>
+        <v>0.197555</v>
       </c>
       <c r="D9" t="n">
-        <v>0.24298</v>
+        <v>0.24274</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.331764</v>
+        <v>0.329901</v>
       </c>
       <c r="C10" t="n">
-        <v>0.213004</v>
+        <v>0.212097</v>
       </c>
       <c r="D10" t="n">
-        <v>0.242208</v>
+        <v>0.239886</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.325313</v>
+        <v>0.324533</v>
       </c>
       <c r="C11" t="n">
-        <v>0.211907</v>
+        <v>0.212389</v>
       </c>
       <c r="D11" t="n">
-        <v>0.241479</v>
+        <v>0.240966</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.318062</v>
+        <v>0.317856</v>
       </c>
       <c r="C12" t="n">
-        <v>0.211827</v>
+        <v>0.211764</v>
       </c>
       <c r="D12" t="n">
-        <v>0.240085</v>
+        <v>0.23968</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.311822</v>
+        <v>0.311302</v>
       </c>
       <c r="C13" t="n">
-        <v>0.21083</v>
+        <v>0.210792</v>
       </c>
       <c r="D13" t="n">
-        <v>0.239709</v>
+        <v>0.238162</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.305121</v>
+        <v>0.304744</v>
       </c>
       <c r="C14" t="n">
-        <v>0.210741</v>
+        <v>0.209818</v>
       </c>
       <c r="D14" t="n">
-        <v>0.23651</v>
+        <v>0.234901</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.29783</v>
+        <v>0.296567</v>
       </c>
       <c r="C15" t="n">
-        <v>0.21009</v>
+        <v>0.209591</v>
       </c>
       <c r="D15" t="n">
-        <v>0.234764</v>
+        <v>0.234206</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.28913</v>
+        <v>0.288456</v>
       </c>
       <c r="C16" t="n">
-        <v>0.209212</v>
+        <v>0.209163</v>
       </c>
       <c r="D16" t="n">
-        <v>0.234742</v>
+        <v>0.234064</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.27837</v>
+        <v>0.27782</v>
       </c>
       <c r="C17" t="n">
-        <v>0.208508</v>
+        <v>0.208328</v>
       </c>
       <c r="D17" t="n">
-        <v>0.233064</v>
+        <v>0.23193</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.268974</v>
+        <v>0.268247</v>
       </c>
       <c r="C18" t="n">
-        <v>0.207948</v>
+        <v>0.207879</v>
       </c>
       <c r="D18" t="n">
-        <v>0.233317</v>
+        <v>0.232721</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.258905</v>
+        <v>0.258335</v>
       </c>
       <c r="C19" t="n">
-        <v>0.208486</v>
+        <v>0.207716</v>
       </c>
       <c r="D19" t="n">
-        <v>0.232329</v>
+        <v>0.232608</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.24565</v>
+        <v>0.244824</v>
       </c>
       <c r="C20" t="n">
-        <v>0.207135</v>
+        <v>0.206956</v>
       </c>
       <c r="D20" t="n">
-        <v>0.231945</v>
+        <v>0.230989</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.23348</v>
+        <v>0.232353</v>
       </c>
       <c r="C21" t="n">
-        <v>0.20894</v>
+        <v>0.207616</v>
       </c>
       <c r="D21" t="n">
-        <v>0.234145</v>
+        <v>0.231754</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.218014</v>
+        <v>0.21665</v>
       </c>
       <c r="C22" t="n">
-        <v>0.207393</v>
+        <v>0.206645</v>
       </c>
       <c r="D22" t="n">
-        <v>0.232244</v>
+        <v>0.231748</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.203084</v>
+        <v>0.202652</v>
       </c>
       <c r="C23" t="n">
-        <v>0.206789</v>
+        <v>0.20643</v>
       </c>
       <c r="D23" t="n">
-        <v>0.24751</v>
+        <v>0.246152</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.340633</v>
+        <v>0.345989</v>
       </c>
       <c r="C24" t="n">
-        <v>0.218142</v>
+        <v>0.217452</v>
       </c>
       <c r="D24" t="n">
-        <v>0.253334</v>
+        <v>0.246866</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.341334</v>
+        <v>0.334804</v>
       </c>
       <c r="C25" t="n">
-        <v>0.217766</v>
+        <v>0.216467</v>
       </c>
       <c r="D25" t="n">
-        <v>0.245218</v>
+        <v>0.244908</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.327954</v>
+        <v>0.331982</v>
       </c>
       <c r="C26" t="n">
-        <v>0.21478</v>
+        <v>0.214653</v>
       </c>
       <c r="D26" t="n">
-        <v>0.242734</v>
+        <v>0.242605</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.320666</v>
+        <v>0.320281</v>
       </c>
       <c r="C27" t="n">
-        <v>0.214192</v>
+        <v>0.214246</v>
       </c>
       <c r="D27" t="n">
-        <v>0.241453</v>
+        <v>0.241351</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.313451</v>
+        <v>0.313124</v>
       </c>
       <c r="C28" t="n">
-        <v>0.212952</v>
+        <v>0.21277</v>
       </c>
       <c r="D28" t="n">
-        <v>0.240719</v>
+        <v>0.243408</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.306392</v>
+        <v>0.306038</v>
       </c>
       <c r="C29" t="n">
-        <v>0.212112</v>
+        <v>0.211784</v>
       </c>
       <c r="D29" t="n">
-        <v>0.262533</v>
+        <v>0.238409</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.297752</v>
+        <v>0.297438</v>
       </c>
       <c r="C30" t="n">
-        <v>0.211094</v>
+        <v>0.210979</v>
       </c>
       <c r="D30" t="n">
-        <v>0.237886</v>
+        <v>0.237489</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.28787</v>
+        <v>0.289369</v>
       </c>
       <c r="C31" t="n">
-        <v>0.210501</v>
+        <v>0.210514</v>
       </c>
       <c r="D31" t="n">
-        <v>0.236037</v>
+        <v>0.23566</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.27716</v>
+        <v>0.277585</v>
       </c>
       <c r="C32" t="n">
-        <v>0.209898</v>
+        <v>0.209136</v>
       </c>
       <c r="D32" t="n">
-        <v>0.236656</v>
+        <v>0.235692</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.267309</v>
+        <v>0.267155</v>
       </c>
       <c r="C33" t="n">
-        <v>0.210489</v>
+        <v>0.209025</v>
       </c>
       <c r="D33" t="n">
-        <v>0.236264</v>
+        <v>0.238457</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.255923</v>
+        <v>0.255784</v>
       </c>
       <c r="C34" t="n">
-        <v>0.209174</v>
+        <v>0.209089</v>
       </c>
       <c r="D34" t="n">
-        <v>0.240349</v>
+        <v>0.234876</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.242502</v>
+        <v>0.242831</v>
       </c>
       <c r="C35" t="n">
-        <v>0.209799</v>
+        <v>0.209289</v>
       </c>
       <c r="D35" t="n">
-        <v>0.235071</v>
+        <v>0.234499</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.227941</v>
+        <v>0.22838</v>
       </c>
       <c r="C36" t="n">
-        <v>0.209114</v>
+        <v>0.207861</v>
       </c>
       <c r="D36" t="n">
-        <v>0.233635</v>
+        <v>0.237291</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.212001</v>
+        <v>0.212451</v>
       </c>
       <c r="C37" t="n">
-        <v>0.207805</v>
+        <v>0.207384</v>
       </c>
       <c r="D37" t="n">
-        <v>0.249693</v>
+        <v>0.248654</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.34543</v>
+        <v>0.345161</v>
       </c>
       <c r="C38" t="n">
-        <v>0.218183</v>
+        <v>0.218299</v>
       </c>
       <c r="D38" t="n">
-        <v>0.248707</v>
+        <v>0.247324</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.339651</v>
+        <v>0.339257</v>
       </c>
       <c r="C39" t="n">
-        <v>0.216977</v>
+        <v>0.216946</v>
       </c>
       <c r="D39" t="n">
-        <v>0.246884</v>
+        <v>0.245597</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.334409</v>
+        <v>0.334317</v>
       </c>
       <c r="C40" t="n">
-        <v>0.21599</v>
+        <v>0.216111</v>
       </c>
       <c r="D40" t="n">
-        <v>0.245496</v>
+        <v>0.244088</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.32766</v>
+        <v>0.327529</v>
       </c>
       <c r="C41" t="n">
-        <v>0.21519</v>
+        <v>0.21565</v>
       </c>
       <c r="D41" t="n">
-        <v>0.243896</v>
+        <v>0.242895</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.320726</v>
+        <v>0.320354</v>
       </c>
       <c r="C42" t="n">
-        <v>0.214537</v>
+        <v>0.214367</v>
       </c>
       <c r="D42" t="n">
-        <v>0.243006</v>
+        <v>0.241558</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.312394</v>
+        <v>0.311976</v>
       </c>
       <c r="C43" t="n">
-        <v>0.214088</v>
+        <v>0.213691</v>
       </c>
       <c r="D43" t="n">
-        <v>0.244995</v>
+        <v>0.24076</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.303608</v>
+        <v>0.302658</v>
       </c>
       <c r="C44" t="n">
-        <v>0.213306</v>
+        <v>0.213161</v>
       </c>
       <c r="D44" t="n">
-        <v>0.244739</v>
+        <v>0.240358</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.293187</v>
+        <v>0.293003</v>
       </c>
       <c r="C45" t="n">
-        <v>0.212299</v>
+        <v>0.212318</v>
       </c>
       <c r="D45" t="n">
-        <v>0.243197</v>
+        <v>0.239025</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.28319</v>
+        <v>0.283142</v>
       </c>
       <c r="C46" t="n">
-        <v>0.211803</v>
+        <v>0.212072</v>
       </c>
       <c r="D46" t="n">
-        <v>0.242114</v>
+        <v>0.238712</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.272897</v>
+        <v>0.272772</v>
       </c>
       <c r="C47" t="n">
-        <v>0.21162</v>
+        <v>0.211572</v>
       </c>
       <c r="D47" t="n">
-        <v>0.240723</v>
+        <v>0.237905</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.260911</v>
+        <v>0.260883</v>
       </c>
       <c r="C48" t="n">
-        <v>0.210789</v>
+        <v>0.210768</v>
       </c>
       <c r="D48" t="n">
-        <v>0.239618</v>
+        <v>0.237211</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.248025</v>
+        <v>0.247839</v>
       </c>
       <c r="C49" t="n">
-        <v>0.212742</v>
+        <v>0.212694</v>
       </c>
       <c r="D49" t="n">
-        <v>0.238241</v>
+        <v>0.235923</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.234566</v>
+        <v>0.234259</v>
       </c>
       <c r="C50" t="n">
-        <v>0.212413</v>
+        <v>0.211933</v>
       </c>
       <c r="D50" t="n">
-        <v>0.237429</v>
+        <v>0.235472</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.2205</v>
+        <v>0.220236</v>
       </c>
       <c r="C51" t="n">
-        <v>0.211604</v>
+        <v>0.211188</v>
       </c>
       <c r="D51" t="n">
-        <v>0.254679</v>
+        <v>0.251651</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.203848</v>
+        <v>0.203517</v>
       </c>
       <c r="C52" t="n">
-        <v>0.210961</v>
+        <v>0.210758</v>
       </c>
       <c r="D52" t="n">
-        <v>0.252481</v>
+        <v>0.249923</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.343388</v>
+        <v>0.343071</v>
       </c>
       <c r="C53" t="n">
-        <v>0.218948</v>
+        <v>0.218806</v>
       </c>
       <c r="D53" t="n">
-        <v>0.249682</v>
+        <v>0.24871</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.337224</v>
+        <v>0.337069</v>
       </c>
       <c r="C54" t="n">
-        <v>0.218603</v>
+        <v>0.218261</v>
       </c>
       <c r="D54" t="n">
-        <v>0.249727</v>
+        <v>0.247744</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.331033</v>
+        <v>0.330565</v>
       </c>
       <c r="C55" t="n">
-        <v>0.217295</v>
+        <v>0.217329</v>
       </c>
       <c r="D55" t="n">
-        <v>0.248364</v>
+        <v>0.246551</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.323939</v>
+        <v>0.323288</v>
       </c>
       <c r="C56" t="n">
-        <v>0.216554</v>
+        <v>0.216299</v>
       </c>
       <c r="D56" t="n">
-        <v>0.24665</v>
+        <v>0.245221</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.315816</v>
+        <v>0.315187</v>
       </c>
       <c r="C57" t="n">
-        <v>0.217289</v>
+        <v>0.21585</v>
       </c>
       <c r="D57" t="n">
-        <v>0.244276</v>
+        <v>0.243762</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.306561</v>
+        <v>0.3062</v>
       </c>
       <c r="C58" t="n">
-        <v>0.21634</v>
+        <v>0.215336</v>
       </c>
       <c r="D58" t="n">
-        <v>0.245662</v>
+        <v>0.243977</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.296923</v>
+        <v>0.296713</v>
       </c>
       <c r="C59" t="n">
-        <v>0.215187</v>
+        <v>0.214298</v>
       </c>
       <c r="D59" t="n">
-        <v>0.243978</v>
+        <v>0.242983</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.287286</v>
+        <v>0.287183</v>
       </c>
       <c r="C60" t="n">
-        <v>0.214513</v>
+        <v>0.21415</v>
       </c>
       <c r="D60" t="n">
-        <v>0.243652</v>
+        <v>0.242538</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.27611</v>
+        <v>0.275814</v>
       </c>
       <c r="C61" t="n">
-        <v>0.213682</v>
+        <v>0.213254</v>
       </c>
       <c r="D61" t="n">
-        <v>0.24179</v>
+        <v>0.241101</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.264074</v>
+        <v>0.264056</v>
       </c>
       <c r="C62" t="n">
-        <v>0.212833</v>
+        <v>0.212614</v>
       </c>
       <c r="D62" t="n">
-        <v>0.241379</v>
+        <v>0.239633</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.251424</v>
+        <v>0.251013</v>
       </c>
       <c r="C63" t="n">
-        <v>0.212621</v>
+        <v>0.212353</v>
       </c>
       <c r="D63" t="n">
-        <v>0.239783</v>
+        <v>0.238107</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.237764</v>
+        <v>0.237428</v>
       </c>
       <c r="C64" t="n">
-        <v>0.212066</v>
+        <v>0.21186</v>
       </c>
       <c r="D64" t="n">
-        <v>0.238752</v>
+        <v>0.236972</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.223511</v>
+        <v>0.222771</v>
       </c>
       <c r="C65" t="n">
-        <v>0.211879</v>
+        <v>0.211467</v>
       </c>
       <c r="D65" t="n">
-        <v>0.23737</v>
+        <v>0.236292</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.207105</v>
+        <v>0.206574</v>
       </c>
       <c r="C66" t="n">
-        <v>0.211084</v>
+        <v>0.210639</v>
       </c>
       <c r="D66" t="n">
-        <v>0.253674</v>
+        <v>0.251439</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.346527</v>
+        <v>0.34624</v>
       </c>
       <c r="C67" t="n">
-        <v>0.219472</v>
+        <v>0.219799</v>
       </c>
       <c r="D67" t="n">
-        <v>0.252048</v>
+        <v>0.249976</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.340627</v>
+        <v>0.340488</v>
       </c>
       <c r="C68" t="n">
-        <v>0.218596</v>
+        <v>0.219218</v>
       </c>
       <c r="D68" t="n">
-        <v>0.250915</v>
+        <v>0.24905</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.333944</v>
+        <v>0.333768</v>
       </c>
       <c r="C69" t="n">
-        <v>0.218492</v>
+        <v>0.217941</v>
       </c>
       <c r="D69" t="n">
-        <v>0.249345</v>
+        <v>0.247273</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.326856</v>
+        <v>0.326694</v>
       </c>
       <c r="C70" t="n">
-        <v>0.217679</v>
+        <v>0.217387</v>
       </c>
       <c r="D70" t="n">
-        <v>0.247109</v>
+        <v>0.245781</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.318658</v>
+        <v>0.318358</v>
       </c>
       <c r="C71" t="n">
-        <v>0.216512</v>
+        <v>0.216715</v>
       </c>
       <c r="D71" t="n">
-        <v>0.24637</v>
+        <v>0.244755</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.309677</v>
+        <v>0.309385</v>
       </c>
       <c r="C72" t="n">
-        <v>0.216118</v>
+        <v>0.215967</v>
       </c>
       <c r="D72" t="n">
-        <v>0.244893</v>
+        <v>0.243444</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.300377</v>
+        <v>0.300012</v>
       </c>
       <c r="C73" t="n">
-        <v>0.215865</v>
+        <v>0.214125</v>
       </c>
       <c r="D73" t="n">
-        <v>0.243533</v>
+        <v>0.242165</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.290018</v>
+        <v>0.289933</v>
       </c>
       <c r="C74" t="n">
-        <v>0.215484</v>
+        <v>0.214202</v>
       </c>
       <c r="D74" t="n">
-        <v>0.242767</v>
+        <v>0.241634</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.279579</v>
+        <v>0.279229</v>
       </c>
       <c r="C75" t="n">
-        <v>0.215467</v>
+        <v>0.214022</v>
       </c>
       <c r="D75" t="n">
-        <v>0.241451</v>
+        <v>0.240401</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.267591</v>
+        <v>0.267488</v>
       </c>
       <c r="C76" t="n">
-        <v>0.214401</v>
+        <v>0.212875</v>
       </c>
       <c r="D76" t="n">
-        <v>0.240048</v>
+        <v>0.239105</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.255087</v>
+        <v>0.254844</v>
       </c>
       <c r="C77" t="n">
-        <v>0.213696</v>
+        <v>0.212336</v>
       </c>
       <c r="D77" t="n">
-        <v>0.239144</v>
+        <v>0.238113</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.241328</v>
+        <v>0.24084</v>
       </c>
       <c r="C78" t="n">
-        <v>0.212984</v>
+        <v>0.211746</v>
       </c>
       <c r="D78" t="n">
-        <v>0.238544</v>
+        <v>0.236995</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.226538</v>
+        <v>0.226028</v>
       </c>
       <c r="C79" t="n">
-        <v>0.212294</v>
+        <v>0.211609</v>
       </c>
       <c r="D79" t="n">
-        <v>0.237437</v>
+        <v>0.236549</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.210958</v>
+        <v>0.210811</v>
       </c>
       <c r="C80" t="n">
-        <v>0.211514</v>
+        <v>0.211193</v>
       </c>
       <c r="D80" t="n">
-        <v>0.253573</v>
+        <v>0.252298</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.348244</v>
+        <v>0.34801</v>
       </c>
       <c r="C81" t="n">
-        <v>0.220903</v>
+        <v>0.220195</v>
       </c>
       <c r="D81" t="n">
-        <v>0.251838</v>
+        <v>0.250599</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.342665</v>
+        <v>0.342562</v>
       </c>
       <c r="C82" t="n">
-        <v>0.218824</v>
+        <v>0.218965</v>
       </c>
       <c r="D82" t="n">
-        <v>0.250514</v>
+        <v>0.249285</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.336053</v>
+        <v>0.33595</v>
       </c>
       <c r="C83" t="n">
-        <v>0.219453</v>
+        <v>0.218325</v>
       </c>
       <c r="D83" t="n">
-        <v>0.248464</v>
+        <v>0.247331</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.328848</v>
+        <v>0.328846</v>
       </c>
       <c r="C84" t="n">
-        <v>0.219405</v>
+        <v>0.219573</v>
       </c>
       <c r="D84" t="n">
-        <v>0.247056</v>
+        <v>0.246219</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.321198</v>
+        <v>0.321205</v>
       </c>
       <c r="C85" t="n">
-        <v>0.219066</v>
+        <v>0.219167</v>
       </c>
       <c r="D85" t="n">
-        <v>0.245982</v>
+        <v>0.244967</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.312729</v>
+        <v>0.3128</v>
       </c>
       <c r="C86" t="n">
-        <v>0.218066</v>
+        <v>0.217975</v>
       </c>
       <c r="D86" t="n">
-        <v>0.245161</v>
+        <v>0.244238</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.303235</v>
+        <v>0.303216</v>
       </c>
       <c r="C87" t="n">
-        <v>0.216546</v>
+        <v>0.216504</v>
       </c>
       <c r="D87" t="n">
-        <v>0.244215</v>
+        <v>0.24313</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.293098</v>
+        <v>0.29314</v>
       </c>
       <c r="C88" t="n">
-        <v>0.216484</v>
+        <v>0.216513</v>
       </c>
       <c r="D88" t="n">
-        <v>0.242836</v>
+        <v>0.241608</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.282027</v>
+        <v>0.282173</v>
       </c>
       <c r="C89" t="n">
-        <v>0.215016</v>
+        <v>0.214976</v>
       </c>
       <c r="D89" t="n">
-        <v>0.241601</v>
+        <v>0.240644</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.27042</v>
+        <v>0.270259</v>
       </c>
       <c r="C90" t="n">
-        <v>0.214096</v>
+        <v>0.213996</v>
       </c>
       <c r="D90" t="n">
-        <v>0.240467</v>
+        <v>0.23953</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.257724</v>
+        <v>0.257722</v>
       </c>
       <c r="C91" t="n">
-        <v>0.21352</v>
+        <v>0.212816</v>
       </c>
       <c r="D91" t="n">
-        <v>0.239571</v>
+        <v>0.238431</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.244191</v>
+        <v>0.244377</v>
       </c>
       <c r="C92" t="n">
-        <v>0.212879</v>
+        <v>0.212719</v>
       </c>
       <c r="D92" t="n">
-        <v>0.238517</v>
+        <v>0.237634</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.230019</v>
+        <v>0.229766</v>
       </c>
       <c r="C93" t="n">
-        <v>0.212291</v>
+        <v>0.211949</v>
       </c>
       <c r="D93" t="n">
-        <v>0.237505</v>
+        <v>0.236677</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.214509</v>
+        <v>0.214638</v>
       </c>
       <c r="C94" t="n">
-        <v>0.211169</v>
+        <v>0.211083</v>
       </c>
       <c r="D94" t="n">
-        <v>0.254721</v>
+        <v>0.253756</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.348984</v>
+        <v>0.348645</v>
       </c>
       <c r="C95" t="n">
-        <v>0.220434</v>
+        <v>0.220554</v>
       </c>
       <c r="D95" t="n">
-        <v>0.252372</v>
+        <v>0.250544</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.343763</v>
+        <v>0.343557</v>
       </c>
       <c r="C96" t="n">
-        <v>0.218976</v>
+        <v>0.219964</v>
       </c>
       <c r="D96" t="n">
-        <v>0.250968</v>
+        <v>0.249029</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.337774</v>
+        <v>0.337626</v>
       </c>
       <c r="C97" t="n">
-        <v>0.219393</v>
+        <v>0.219066</v>
       </c>
       <c r="D97" t="n">
-        <v>0.249612</v>
+        <v>0.247677</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.330604</v>
+        <v>0.330585</v>
       </c>
       <c r="C98" t="n">
-        <v>0.218834</v>
+        <v>0.218808</v>
       </c>
       <c r="D98" t="n">
-        <v>0.247769</v>
+        <v>0.245967</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.323093</v>
+        <v>0.323198</v>
       </c>
       <c r="C99" t="n">
-        <v>0.218037</v>
+        <v>0.218103</v>
       </c>
       <c r="D99" t="n">
-        <v>0.246571</v>
+        <v>0.244744</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.314523</v>
+        <v>0.314404</v>
       </c>
       <c r="C100" t="n">
-        <v>0.217764</v>
+        <v>0.217342</v>
       </c>
       <c r="D100" t="n">
-        <v>0.245131</v>
+        <v>0.243455</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.305431</v>
+        <v>0.305276</v>
       </c>
       <c r="C101" t="n">
-        <v>0.215021</v>
+        <v>0.216269</v>
       </c>
       <c r="D101" t="n">
-        <v>0.243514</v>
+        <v>0.242146</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.295089</v>
+        <v>0.295301</v>
       </c>
       <c r="C102" t="n">
-        <v>0.215728</v>
+        <v>0.215847</v>
       </c>
       <c r="D102" t="n">
-        <v>0.242009</v>
+        <v>0.241176</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.284547</v>
+        <v>0.284454</v>
       </c>
       <c r="C103" t="n">
-        <v>0.21523</v>
+        <v>0.215248</v>
       </c>
       <c r="D103" t="n">
-        <v>0.241503</v>
+        <v>0.240117</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.272799</v>
+        <v>0.272964</v>
       </c>
       <c r="C104" t="n">
-        <v>0.21404</v>
+        <v>0.213843</v>
       </c>
       <c r="D104" t="n">
-        <v>0.240465</v>
+        <v>0.239164</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.260483</v>
+        <v>0.260458</v>
       </c>
       <c r="C105" t="n">
-        <v>0.211932</v>
+        <v>0.213029</v>
       </c>
       <c r="D105" t="n">
-        <v>0.239432</v>
+        <v>0.23841</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.247386</v>
+        <v>0.247313</v>
       </c>
       <c r="C106" t="n">
-        <v>0.212527</v>
+        <v>0.212452</v>
       </c>
       <c r="D106" t="n">
-        <v>0.238419</v>
+        <v>0.237415</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.233087</v>
+        <v>0.232718</v>
       </c>
       <c r="C107" t="n">
-        <v>0.211918</v>
+        <v>0.211284</v>
       </c>
       <c r="D107" t="n">
-        <v>0.23747</v>
+        <v>0.236472</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.217924</v>
+        <v>0.217538</v>
       </c>
       <c r="C108" t="n">
-        <v>0.211268</v>
+        <v>0.21126</v>
       </c>
       <c r="D108" t="n">
-        <v>0.254025</v>
+        <v>0.253896</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.201914</v>
+        <v>0.201748</v>
       </c>
       <c r="C109" t="n">
-        <v>0.21049</v>
+        <v>0.210364</v>
       </c>
       <c r="D109" t="n">
-        <v>0.25312</v>
+        <v>0.252255</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.344864</v>
+        <v>0.344724</v>
       </c>
       <c r="C110" t="n">
-        <v>0.220032</v>
+        <v>0.220146</v>
       </c>
       <c r="D110" t="n">
-        <v>0.251538</v>
+        <v>0.250617</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.338862</v>
+        <v>0.338491</v>
       </c>
       <c r="C111" t="n">
-        <v>0.21879</v>
+        <v>0.219278</v>
       </c>
       <c r="D111" t="n">
-        <v>0.248853</v>
+        <v>0.248687</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.332025</v>
+        <v>0.332055</v>
       </c>
       <c r="C112" t="n">
-        <v>0.218765</v>
+        <v>0.218719</v>
       </c>
       <c r="D112" t="n">
-        <v>0.24822</v>
+        <v>0.247459</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.324698</v>
+        <v>0.324481</v>
       </c>
       <c r="C113" t="n">
-        <v>0.218358</v>
+        <v>0.218378</v>
       </c>
       <c r="D113" t="n">
-        <v>0.246768</v>
+        <v>0.24598</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.316391</v>
+        <v>0.316019</v>
       </c>
       <c r="C114" t="n">
-        <v>0.217808</v>
+        <v>0.217747</v>
       </c>
       <c r="D114" t="n">
-        <v>0.245331</v>
+        <v>0.2446</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.307182</v>
+        <v>0.307077</v>
       </c>
       <c r="C115" t="n">
-        <v>0.215948</v>
+        <v>0.217051</v>
       </c>
       <c r="D115" t="n">
-        <v>0.244304</v>
+        <v>0.24285</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.297252</v>
+        <v>0.297256</v>
       </c>
       <c r="C116" t="n">
-        <v>0.216157</v>
+        <v>0.216113</v>
       </c>
       <c r="D116" t="n">
-        <v>0.242991</v>
+        <v>0.242383</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.286776</v>
+        <v>0.286951</v>
       </c>
       <c r="C117" t="n">
-        <v>0.215141</v>
+        <v>0.215104</v>
       </c>
       <c r="D117" t="n">
-        <v>0.242103</v>
+        <v>0.241476</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.275089</v>
+        <v>0.275204</v>
       </c>
       <c r="C118" t="n">
-        <v>0.214318</v>
+        <v>0.214309</v>
       </c>
       <c r="D118" t="n">
-        <v>0.24084</v>
+        <v>0.239788</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.263044</v>
+        <v>0.262852</v>
       </c>
       <c r="C119" t="n">
-        <v>0.21355</v>
+        <v>0.213466</v>
       </c>
       <c r="D119" t="n">
-        <v>0.239619</v>
+        <v>0.238545</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.25011</v>
+        <v>0.249696</v>
       </c>
       <c r="C120" t="n">
-        <v>0.212854</v>
+        <v>0.212763</v>
       </c>
       <c r="D120" t="n">
-        <v>0.238481</v>
+        <v>0.237528</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.236028</v>
+        <v>0.235662</v>
       </c>
       <c r="C121" t="n">
-        <v>0.212231</v>
+        <v>0.212152</v>
       </c>
       <c r="D121" t="n">
-        <v>0.237576</v>
+        <v>0.237048</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.221053</v>
+        <v>0.220896</v>
       </c>
       <c r="C122" t="n">
-        <v>0.211361</v>
+        <v>0.211243</v>
       </c>
       <c r="D122" t="n">
-        <v>0.236555</v>
+        <v>0.236028</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.205298</v>
+        <v>0.204935</v>
       </c>
       <c r="C123" t="n">
-        <v>0.210436</v>
+        <v>0.21024</v>
       </c>
       <c r="D123" t="n">
-        <v>0.253627</v>
+        <v>0.252538</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.345833</v>
+        <v>0.345964</v>
       </c>
       <c r="C124" t="n">
-        <v>0.220251</v>
+        <v>0.220047</v>
       </c>
       <c r="D124" t="n">
-        <v>0.251596</v>
+        <v>0.250911</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.340385</v>
+        <v>0.34004</v>
       </c>
       <c r="C125" t="n">
-        <v>0.219579</v>
+        <v>0.219135</v>
       </c>
       <c r="D125" t="n">
-        <v>0.250255</v>
+        <v>0.249501</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.333891</v>
+        <v>0.333565</v>
       </c>
       <c r="C126" t="n">
-        <v>0.218877</v>
+        <v>0.217811</v>
       </c>
       <c r="D126" t="n">
-        <v>0.248391</v>
+        <v>0.247475</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.326234</v>
+        <v>0.326212</v>
       </c>
       <c r="C127" t="n">
-        <v>0.218622</v>
+        <v>0.218429</v>
       </c>
       <c r="D127" t="n">
-        <v>0.24702</v>
+        <v>0.246202</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.318293</v>
+        <v>0.318209</v>
       </c>
       <c r="C128" t="n">
-        <v>0.217997</v>
+        <v>0.217833</v>
       </c>
       <c r="D128" t="n">
-        <v>0.245451</v>
+        <v>0.244799</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.309395</v>
+        <v>0.309381</v>
       </c>
       <c r="C129" t="n">
-        <v>0.217102</v>
+        <v>0.216059</v>
       </c>
       <c r="D129" t="n">
-        <v>0.243961</v>
+        <v>0.243506</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.299831</v>
+        <v>0.299787</v>
       </c>
       <c r="C130" t="n">
-        <v>0.216091</v>
+        <v>0.216007</v>
       </c>
       <c r="D130" t="n">
-        <v>0.242902</v>
+        <v>0.242389</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.289758</v>
+        <v>0.289493</v>
       </c>
       <c r="C131" t="n">
-        <v>0.215566</v>
+        <v>0.215246</v>
       </c>
       <c r="D131" t="n">
-        <v>0.241728</v>
+        <v>0.241278</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.278406</v>
+        <v>0.278363</v>
       </c>
       <c r="C132" t="n">
-        <v>0.214492</v>
+        <v>0.214559</v>
       </c>
       <c r="D132" t="n">
-        <v>0.240583</v>
+        <v>0.240176</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.266413</v>
+        <v>0.266245</v>
       </c>
       <c r="C133" t="n">
-        <v>0.21392</v>
+        <v>0.213699</v>
       </c>
       <c r="D133" t="n">
-        <v>0.239428</v>
+        <v>0.23858</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.253611</v>
+        <v>0.253384</v>
       </c>
       <c r="C134" t="n">
-        <v>0.212996</v>
+        <v>0.212926</v>
       </c>
       <c r="D134" t="n">
-        <v>0.238466</v>
+        <v>0.23783</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.239699</v>
+        <v>0.239225</v>
       </c>
       <c r="C135" t="n">
-        <v>0.212194</v>
+        <v>0.212205</v>
       </c>
       <c r="D135" t="n">
-        <v>0.237559</v>
+        <v>0.237142</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.224896</v>
+        <v>0.22421</v>
       </c>
       <c r="C136" t="n">
-        <v>0.211421</v>
+        <v>0.211425</v>
       </c>
       <c r="D136" t="n">
-        <v>0.236578</v>
+        <v>0.236146</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.208729</v>
+        <v>0.208615</v>
       </c>
       <c r="C137" t="n">
-        <v>0.210758</v>
+        <v>0.210633</v>
       </c>
       <c r="D137" t="n">
-        <v>0.253842</v>
+        <v>0.252428</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.34692</v>
+        <v>0.346752</v>
       </c>
       <c r="C138" t="n">
-        <v>0.220426</v>
+        <v>0.220355</v>
       </c>
       <c r="D138" t="n">
-        <v>0.251874</v>
+        <v>0.251325</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.341547</v>
+        <v>0.341301</v>
       </c>
       <c r="C139" t="n">
-        <v>0.21932</v>
+        <v>0.219582</v>
       </c>
       <c r="D139" t="n">
-        <v>0.249478</v>
+        <v>0.249052</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.33493</v>
+        <v>0.334782</v>
       </c>
       <c r="C140" t="n">
-        <v>0.218155</v>
+        <v>0.218675</v>
       </c>
       <c r="D140" t="n">
-        <v>0.248599</v>
+        <v>0.247893</v>
       </c>
     </row>
     <row r="141">
@@ -5198,10 +5198,10 @@
         <v>0.327777</v>
       </c>
       <c r="C141" t="n">
-        <v>0.217093</v>
+        <v>0.217015</v>
       </c>
       <c r="D141" t="n">
-        <v>0.247369</v>
+        <v>0.246167</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.319997</v>
+        <v>0.319707</v>
       </c>
       <c r="C142" t="n">
-        <v>0.217551</v>
+        <v>0.217952</v>
       </c>
       <c r="D142" t="n">
-        <v>0.245799</v>
+        <v>0.244652</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.311371</v>
+        <v>0.311138</v>
       </c>
       <c r="C143" t="n">
-        <v>0.215817</v>
+        <v>0.215981</v>
       </c>
       <c r="D143" t="n">
-        <v>0.244667</v>
+        <v>0.244013</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.274201</v>
+        <v>0.276366</v>
       </c>
       <c r="C2" t="n">
-        <v>0.190774</v>
+        <v>0.186743</v>
       </c>
       <c r="D2" t="n">
-        <v>0.220259</v>
+        <v>0.230031</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.265469</v>
+        <v>0.26621</v>
       </c>
       <c r="C3" t="n">
-        <v>0.192714</v>
+        <v>0.188407</v>
       </c>
       <c r="D3" t="n">
-        <v>0.220739</v>
+        <v>0.22933</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.253854</v>
+        <v>0.253262</v>
       </c>
       <c r="C4" t="n">
-        <v>0.193345</v>
+        <v>0.191398</v>
       </c>
       <c r="D4" t="n">
-        <v>0.221952</v>
+        <v>0.230078</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.241771</v>
+        <v>0.241697</v>
       </c>
       <c r="C5" t="n">
-        <v>0.194009</v>
+        <v>0.189363</v>
       </c>
       <c r="D5" t="n">
-        <v>0.220078</v>
+        <v>0.229154</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.23245</v>
+        <v>0.232834</v>
       </c>
       <c r="C6" t="n">
-        <v>0.195056</v>
+        <v>0.189593</v>
       </c>
       <c r="D6" t="n">
-        <v>0.221279</v>
+        <v>0.230233</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.22038</v>
+        <v>0.220043</v>
       </c>
       <c r="C7" t="n">
-        <v>0.19506</v>
+        <v>0.190341</v>
       </c>
       <c r="D7" t="n">
-        <v>0.22201</v>
+        <v>0.229994</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.20595</v>
+        <v>0.20743</v>
       </c>
       <c r="C8" t="n">
-        <v>0.196029</v>
+        <v>0.191069</v>
       </c>
       <c r="D8" t="n">
-        <v>0.221365</v>
+        <v>0.231035</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.191078</v>
+        <v>0.190337</v>
       </c>
       <c r="C9" t="n">
-        <v>0.197555</v>
+        <v>0.19182</v>
       </c>
       <c r="D9" t="n">
-        <v>0.24274</v>
+        <v>0.250276</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.329901</v>
+        <v>0.330963</v>
       </c>
       <c r="C10" t="n">
-        <v>0.212097</v>
+        <v>0.208447</v>
       </c>
       <c r="D10" t="n">
-        <v>0.239886</v>
+        <v>0.248687</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.324533</v>
+        <v>0.324543</v>
       </c>
       <c r="C11" t="n">
-        <v>0.212389</v>
+        <v>0.206713</v>
       </c>
       <c r="D11" t="n">
-        <v>0.240966</v>
+        <v>0.248079</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.317856</v>
+        <v>0.317744</v>
       </c>
       <c r="C12" t="n">
-        <v>0.211764</v>
+        <v>0.206349</v>
       </c>
       <c r="D12" t="n">
-        <v>0.23968</v>
+        <v>0.247632</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.311302</v>
+        <v>0.312036</v>
       </c>
       <c r="C13" t="n">
-        <v>0.210792</v>
+        <v>0.204651</v>
       </c>
       <c r="D13" t="n">
-        <v>0.238162</v>
+        <v>0.24953</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.304744</v>
+        <v>0.30472</v>
       </c>
       <c r="C14" t="n">
-        <v>0.209818</v>
+        <v>0.204298</v>
       </c>
       <c r="D14" t="n">
-        <v>0.234901</v>
+        <v>0.248555</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.296567</v>
+        <v>0.296568</v>
       </c>
       <c r="C15" t="n">
-        <v>0.209591</v>
+        <v>0.203411</v>
       </c>
       <c r="D15" t="n">
-        <v>0.234206</v>
+        <v>0.248467</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.288456</v>
+        <v>0.288242</v>
       </c>
       <c r="C16" t="n">
-        <v>0.209163</v>
+        <v>0.203322</v>
       </c>
       <c r="D16" t="n">
-        <v>0.234064</v>
+        <v>0.247732</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.27782</v>
+        <v>0.277684</v>
       </c>
       <c r="C17" t="n">
-        <v>0.208328</v>
+        <v>0.202397</v>
       </c>
       <c r="D17" t="n">
-        <v>0.23193</v>
+        <v>0.246791</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.268247</v>
+        <v>0.268786</v>
       </c>
       <c r="C18" t="n">
-        <v>0.207879</v>
+        <v>0.202205</v>
       </c>
       <c r="D18" t="n">
-        <v>0.232721</v>
+        <v>0.241253</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.258335</v>
+        <v>0.257944</v>
       </c>
       <c r="C19" t="n">
-        <v>0.207716</v>
+        <v>0.201791</v>
       </c>
       <c r="D19" t="n">
-        <v>0.232608</v>
+        <v>0.240816</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.244824</v>
+        <v>0.246482</v>
       </c>
       <c r="C20" t="n">
-        <v>0.206956</v>
+        <v>0.201275</v>
       </c>
       <c r="D20" t="n">
-        <v>0.230989</v>
+        <v>0.245067</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.232353</v>
+        <v>0.232454</v>
       </c>
       <c r="C21" t="n">
-        <v>0.207616</v>
+        <v>0.201142</v>
       </c>
       <c r="D21" t="n">
-        <v>0.231754</v>
+        <v>0.24323</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.21665</v>
+        <v>0.218044</v>
       </c>
       <c r="C22" t="n">
-        <v>0.206645</v>
+        <v>0.200433</v>
       </c>
       <c r="D22" t="n">
-        <v>0.231748</v>
+        <v>0.244037</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.202652</v>
+        <v>0.202677</v>
       </c>
       <c r="C23" t="n">
-        <v>0.20643</v>
+        <v>0.200272</v>
       </c>
       <c r="D23" t="n">
-        <v>0.246152</v>
+        <v>0.25468</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.345989</v>
+        <v>0.340359</v>
       </c>
       <c r="C24" t="n">
-        <v>0.217452</v>
+        <v>0.211741</v>
       </c>
       <c r="D24" t="n">
-        <v>0.246866</v>
+        <v>0.253403</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.334804</v>
+        <v>0.335001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.216467</v>
+        <v>0.211994</v>
       </c>
       <c r="D25" t="n">
-        <v>0.244908</v>
+        <v>0.251624</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.331982</v>
+        <v>0.333236</v>
       </c>
       <c r="C26" t="n">
-        <v>0.214653</v>
+        <v>0.208719</v>
       </c>
       <c r="D26" t="n">
-        <v>0.242605</v>
+        <v>0.250305</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.320281</v>
+        <v>0.319856</v>
       </c>
       <c r="C27" t="n">
-        <v>0.214246</v>
+        <v>0.207661</v>
       </c>
       <c r="D27" t="n">
-        <v>0.241351</v>
+        <v>0.249497</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.313124</v>
+        <v>0.313639</v>
       </c>
       <c r="C28" t="n">
-        <v>0.21277</v>
+        <v>0.206693</v>
       </c>
       <c r="D28" t="n">
-        <v>0.243408</v>
+        <v>0.247722</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.306038</v>
+        <v>0.305515</v>
       </c>
       <c r="C29" t="n">
-        <v>0.211784</v>
+        <v>0.206882</v>
       </c>
       <c r="D29" t="n">
-        <v>0.238409</v>
+        <v>0.246116</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.297438</v>
+        <v>0.29706</v>
       </c>
       <c r="C30" t="n">
-        <v>0.210979</v>
+        <v>0.204443</v>
       </c>
       <c r="D30" t="n">
-        <v>0.237489</v>
+        <v>0.245174</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.289369</v>
+        <v>0.287524</v>
       </c>
       <c r="C31" t="n">
-        <v>0.210514</v>
+        <v>0.204174</v>
       </c>
       <c r="D31" t="n">
-        <v>0.23566</v>
+        <v>0.253407</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.277585</v>
+        <v>0.278019</v>
       </c>
       <c r="C32" t="n">
-        <v>0.209136</v>
+        <v>0.204273</v>
       </c>
       <c r="D32" t="n">
-        <v>0.235692</v>
+        <v>0.249345</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.267155</v>
+        <v>0.267216</v>
       </c>
       <c r="C33" t="n">
-        <v>0.209025</v>
+        <v>0.202774</v>
       </c>
       <c r="D33" t="n">
-        <v>0.238457</v>
+        <v>0.242991</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.255784</v>
+        <v>0.255824</v>
       </c>
       <c r="C34" t="n">
-        <v>0.209089</v>
+        <v>0.203099</v>
       </c>
       <c r="D34" t="n">
-        <v>0.234876</v>
+        <v>0.242857</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.242831</v>
+        <v>0.242687</v>
       </c>
       <c r="C35" t="n">
-        <v>0.209289</v>
+        <v>0.202741</v>
       </c>
       <c r="D35" t="n">
-        <v>0.234499</v>
+        <v>0.242622</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.22838</v>
+        <v>0.228155</v>
       </c>
       <c r="C36" t="n">
-        <v>0.207861</v>
+        <v>0.203067</v>
       </c>
       <c r="D36" t="n">
-        <v>0.237291</v>
+        <v>0.246036</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.212451</v>
+        <v>0.212339</v>
       </c>
       <c r="C37" t="n">
-        <v>0.207384</v>
+        <v>0.201296</v>
       </c>
       <c r="D37" t="n">
-        <v>0.248654</v>
+        <v>0.255373</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.345161</v>
+        <v>0.345236</v>
       </c>
       <c r="C38" t="n">
-        <v>0.218299</v>
+        <v>0.213632</v>
       </c>
       <c r="D38" t="n">
-        <v>0.247324</v>
+        <v>0.254704</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.339257</v>
+        <v>0.339534</v>
       </c>
       <c r="C39" t="n">
-        <v>0.216946</v>
+        <v>0.211875</v>
       </c>
       <c r="D39" t="n">
-        <v>0.245597</v>
+        <v>0.252317</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.334317</v>
+        <v>0.334531</v>
       </c>
       <c r="C40" t="n">
-        <v>0.216111</v>
+        <v>0.211619</v>
       </c>
       <c r="D40" t="n">
-        <v>0.244088</v>
+        <v>0.251424</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.327529</v>
+        <v>0.327436</v>
       </c>
       <c r="C41" t="n">
-        <v>0.21565</v>
+        <v>0.209854</v>
       </c>
       <c r="D41" t="n">
-        <v>0.242895</v>
+        <v>0.250188</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.320354</v>
+        <v>0.320509</v>
       </c>
       <c r="C42" t="n">
-        <v>0.214367</v>
+        <v>0.209016</v>
       </c>
       <c r="D42" t="n">
-        <v>0.241558</v>
+        <v>0.248983</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.311976</v>
+        <v>0.311622</v>
       </c>
       <c r="C43" t="n">
-        <v>0.213691</v>
+        <v>0.210046</v>
       </c>
       <c r="D43" t="n">
-        <v>0.24076</v>
+        <v>0.24838</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.302658</v>
+        <v>0.302764</v>
       </c>
       <c r="C44" t="n">
-        <v>0.213161</v>
+        <v>0.206618</v>
       </c>
       <c r="D44" t="n">
-        <v>0.240358</v>
+        <v>0.247586</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.293003</v>
+        <v>0.293195</v>
       </c>
       <c r="C45" t="n">
-        <v>0.212318</v>
+        <v>0.208392</v>
       </c>
       <c r="D45" t="n">
-        <v>0.239025</v>
+        <v>0.246744</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.283142</v>
+        <v>0.282887</v>
       </c>
       <c r="C46" t="n">
-        <v>0.212072</v>
+        <v>0.208369</v>
       </c>
       <c r="D46" t="n">
-        <v>0.238712</v>
+        <v>0.245473</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.272772</v>
+        <v>0.272492</v>
       </c>
       <c r="C47" t="n">
-        <v>0.211572</v>
+        <v>0.205723</v>
       </c>
       <c r="D47" t="n">
-        <v>0.237905</v>
+        <v>0.245094</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.260883</v>
+        <v>0.261002</v>
       </c>
       <c r="C48" t="n">
-        <v>0.210768</v>
+        <v>0.205372</v>
       </c>
       <c r="D48" t="n">
-        <v>0.237211</v>
+        <v>0.243699</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.247839</v>
+        <v>0.247749</v>
       </c>
       <c r="C49" t="n">
-        <v>0.212694</v>
+        <v>0.205484</v>
       </c>
       <c r="D49" t="n">
-        <v>0.235923</v>
+        <v>0.242687</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.234259</v>
+        <v>0.23383</v>
       </c>
       <c r="C50" t="n">
-        <v>0.211933</v>
+        <v>0.205275</v>
       </c>
       <c r="D50" t="n">
-        <v>0.235472</v>
+        <v>0.241969</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.220236</v>
+        <v>0.220243</v>
       </c>
       <c r="C51" t="n">
-        <v>0.211188</v>
+        <v>0.204866</v>
       </c>
       <c r="D51" t="n">
-        <v>0.251651</v>
+        <v>0.261151</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.203517</v>
+        <v>0.203325</v>
       </c>
       <c r="C52" t="n">
-        <v>0.210758</v>
+        <v>0.203764</v>
       </c>
       <c r="D52" t="n">
-        <v>0.249923</v>
+        <v>0.257882</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.343071</v>
+        <v>0.343107</v>
       </c>
       <c r="C53" t="n">
-        <v>0.218806</v>
+        <v>0.214655</v>
       </c>
       <c r="D53" t="n">
-        <v>0.24871</v>
+        <v>0.257529</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.337069</v>
+        <v>0.336816</v>
       </c>
       <c r="C54" t="n">
-        <v>0.218261</v>
+        <v>0.214167</v>
       </c>
       <c r="D54" t="n">
-        <v>0.247744</v>
+        <v>0.255072</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.330565</v>
+        <v>0.331059</v>
       </c>
       <c r="C55" t="n">
-        <v>0.217329</v>
+        <v>0.213336</v>
       </c>
       <c r="D55" t="n">
-        <v>0.246551</v>
+        <v>0.253765</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.323288</v>
+        <v>0.323191</v>
       </c>
       <c r="C56" t="n">
-        <v>0.216299</v>
+        <v>0.211411</v>
       </c>
       <c r="D56" t="n">
-        <v>0.245221</v>
+        <v>0.25307</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.315187</v>
+        <v>0.315177</v>
       </c>
       <c r="C57" t="n">
-        <v>0.21585</v>
+        <v>0.211048</v>
       </c>
       <c r="D57" t="n">
-        <v>0.243762</v>
+        <v>0.252464</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.3062</v>
+        <v>0.306027</v>
       </c>
       <c r="C58" t="n">
-        <v>0.215336</v>
+        <v>0.210236</v>
       </c>
       <c r="D58" t="n">
-        <v>0.243977</v>
+        <v>0.251386</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.296713</v>
+        <v>0.296982</v>
       </c>
       <c r="C59" t="n">
-        <v>0.214298</v>
+        <v>0.209714</v>
       </c>
       <c r="D59" t="n">
-        <v>0.242983</v>
+        <v>0.250129</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.287183</v>
+        <v>0.286792</v>
       </c>
       <c r="C60" t="n">
-        <v>0.21415</v>
+        <v>0.207295</v>
       </c>
       <c r="D60" t="n">
-        <v>0.242538</v>
+        <v>0.24872</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.275814</v>
+        <v>0.276213</v>
       </c>
       <c r="C61" t="n">
-        <v>0.213254</v>
+        <v>0.207779</v>
       </c>
       <c r="D61" t="n">
-        <v>0.241101</v>
+        <v>0.24804</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.264056</v>
+        <v>0.263907</v>
       </c>
       <c r="C62" t="n">
-        <v>0.212614</v>
+        <v>0.207391</v>
       </c>
       <c r="D62" t="n">
-        <v>0.239633</v>
+        <v>0.247004</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.251013</v>
+        <v>0.251057</v>
       </c>
       <c r="C63" t="n">
-        <v>0.212353</v>
+        <v>0.205964</v>
       </c>
       <c r="D63" t="n">
-        <v>0.238107</v>
+        <v>0.245211</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.237428</v>
+        <v>0.237418</v>
       </c>
       <c r="C64" t="n">
-        <v>0.21186</v>
+        <v>0.205004</v>
       </c>
       <c r="D64" t="n">
-        <v>0.236972</v>
+        <v>0.244256</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.222771</v>
+        <v>0.22274</v>
       </c>
       <c r="C65" t="n">
-        <v>0.211467</v>
+        <v>0.205314</v>
       </c>
       <c r="D65" t="n">
-        <v>0.236292</v>
+        <v>0.243251</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.206574</v>
+        <v>0.206808</v>
       </c>
       <c r="C66" t="n">
-        <v>0.210639</v>
+        <v>0.204374</v>
       </c>
       <c r="D66" t="n">
-        <v>0.251439</v>
+        <v>0.258382</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.34624</v>
+        <v>0.346214</v>
       </c>
       <c r="C67" t="n">
-        <v>0.219799</v>
+        <v>0.214627</v>
       </c>
       <c r="D67" t="n">
-        <v>0.249976</v>
+        <v>0.257135</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.340488</v>
+        <v>0.340642</v>
       </c>
       <c r="C68" t="n">
-        <v>0.219218</v>
+        <v>0.213496</v>
       </c>
       <c r="D68" t="n">
-        <v>0.24905</v>
+        <v>0.255495</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.333768</v>
+        <v>0.334136</v>
       </c>
       <c r="C69" t="n">
-        <v>0.217941</v>
+        <v>0.212513</v>
       </c>
       <c r="D69" t="n">
-        <v>0.247273</v>
+        <v>0.253676</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.326694</v>
+        <v>0.326387</v>
       </c>
       <c r="C70" t="n">
-        <v>0.217387</v>
+        <v>0.211731</v>
       </c>
       <c r="D70" t="n">
-        <v>0.245781</v>
+        <v>0.252465</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.318358</v>
+        <v>0.318127</v>
       </c>
       <c r="C71" t="n">
-        <v>0.216715</v>
+        <v>0.210571</v>
       </c>
       <c r="D71" t="n">
-        <v>0.244755</v>
+        <v>0.251513</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.309385</v>
+        <v>0.309495</v>
       </c>
       <c r="C72" t="n">
-        <v>0.215967</v>
+        <v>0.209835</v>
       </c>
       <c r="D72" t="n">
-        <v>0.243444</v>
+        <v>0.250012</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.300012</v>
+        <v>0.299908</v>
       </c>
       <c r="C73" t="n">
-        <v>0.214125</v>
+        <v>0.208755</v>
       </c>
       <c r="D73" t="n">
-        <v>0.242165</v>
+        <v>0.248602</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.289933</v>
+        <v>0.289857</v>
       </c>
       <c r="C74" t="n">
-        <v>0.214202</v>
+        <v>0.20782</v>
       </c>
       <c r="D74" t="n">
-        <v>0.241634</v>
+        <v>0.247996</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.279229</v>
+        <v>0.279236</v>
       </c>
       <c r="C75" t="n">
-        <v>0.214022</v>
+        <v>0.206756</v>
       </c>
       <c r="D75" t="n">
-        <v>0.240401</v>
+        <v>0.24708</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.267488</v>
+        <v>0.267452</v>
       </c>
       <c r="C76" t="n">
-        <v>0.212875</v>
+        <v>0.206463</v>
       </c>
       <c r="D76" t="n">
-        <v>0.239105</v>
+        <v>0.245852</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.254844</v>
+        <v>0.254648</v>
       </c>
       <c r="C77" t="n">
-        <v>0.212336</v>
+        <v>0.205529</v>
       </c>
       <c r="D77" t="n">
-        <v>0.238113</v>
+        <v>0.244957</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.24084</v>
+        <v>0.240841</v>
       </c>
       <c r="C78" t="n">
-        <v>0.211746</v>
+        <v>0.204478</v>
       </c>
       <c r="D78" t="n">
-        <v>0.236995</v>
+        <v>0.244169</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.226028</v>
+        <v>0.226402</v>
       </c>
       <c r="C79" t="n">
-        <v>0.211609</v>
+        <v>0.204085</v>
       </c>
       <c r="D79" t="n">
-        <v>0.236549</v>
+        <v>0.242935</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.210811</v>
+        <v>0.210618</v>
       </c>
       <c r="C80" t="n">
-        <v>0.211193</v>
+        <v>0.203815</v>
       </c>
       <c r="D80" t="n">
-        <v>0.252298</v>
+        <v>0.258412</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.34801</v>
+        <v>0.347897</v>
       </c>
       <c r="C81" t="n">
-        <v>0.220195</v>
+        <v>0.214625</v>
       </c>
       <c r="D81" t="n">
-        <v>0.250599</v>
+        <v>0.256908</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.342562</v>
+        <v>0.342257</v>
       </c>
       <c r="C82" t="n">
-        <v>0.218965</v>
+        <v>0.213663</v>
       </c>
       <c r="D82" t="n">
-        <v>0.249285</v>
+        <v>0.255803</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.33595</v>
+        <v>0.335746</v>
       </c>
       <c r="C83" t="n">
-        <v>0.218325</v>
+        <v>0.213079</v>
       </c>
       <c r="D83" t="n">
-        <v>0.247331</v>
+        <v>0.253312</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.328846</v>
+        <v>0.328693</v>
       </c>
       <c r="C84" t="n">
-        <v>0.219573</v>
+        <v>0.212241</v>
       </c>
       <c r="D84" t="n">
-        <v>0.246219</v>
+        <v>0.252692</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.321205</v>
+        <v>0.320905</v>
       </c>
       <c r="C85" t="n">
-        <v>0.219167</v>
+        <v>0.210951</v>
       </c>
       <c r="D85" t="n">
-        <v>0.244967</v>
+        <v>0.251572</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.3128</v>
+        <v>0.31233</v>
       </c>
       <c r="C86" t="n">
-        <v>0.217975</v>
+        <v>0.210854</v>
       </c>
       <c r="D86" t="n">
-        <v>0.244238</v>
+        <v>0.250776</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.303216</v>
+        <v>0.302773</v>
       </c>
       <c r="C87" t="n">
-        <v>0.216504</v>
+        <v>0.2093</v>
       </c>
       <c r="D87" t="n">
-        <v>0.24313</v>
+        <v>0.249512</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.29314</v>
+        <v>0.292557</v>
       </c>
       <c r="C88" t="n">
-        <v>0.216513</v>
+        <v>0.207984</v>
       </c>
       <c r="D88" t="n">
-        <v>0.241608</v>
+        <v>0.248473</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.282173</v>
+        <v>0.281809</v>
       </c>
       <c r="C89" t="n">
-        <v>0.214976</v>
+        <v>0.207277</v>
       </c>
       <c r="D89" t="n">
-        <v>0.240644</v>
+        <v>0.247163</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.270259</v>
+        <v>0.270387</v>
       </c>
       <c r="C90" t="n">
-        <v>0.213996</v>
+        <v>0.206472</v>
       </c>
       <c r="D90" t="n">
-        <v>0.23953</v>
+        <v>0.246012</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.257722</v>
+        <v>0.257863</v>
       </c>
       <c r="C91" t="n">
-        <v>0.212816</v>
+        <v>0.205634</v>
       </c>
       <c r="D91" t="n">
-        <v>0.238431</v>
+        <v>0.245139</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.244377</v>
+        <v>0.244541</v>
       </c>
       <c r="C92" t="n">
-        <v>0.212719</v>
+        <v>0.204827</v>
       </c>
       <c r="D92" t="n">
-        <v>0.237634</v>
+        <v>0.244189</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.229766</v>
+        <v>0.230213</v>
       </c>
       <c r="C93" t="n">
-        <v>0.211949</v>
+        <v>0.204259</v>
       </c>
       <c r="D93" t="n">
-        <v>0.236677</v>
+        <v>0.243374</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.214638</v>
+        <v>0.214926</v>
       </c>
       <c r="C94" t="n">
-        <v>0.211083</v>
+        <v>0.203783</v>
       </c>
       <c r="D94" t="n">
-        <v>0.253756</v>
+        <v>0.259586</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.348645</v>
+        <v>0.348943</v>
       </c>
       <c r="C95" t="n">
-        <v>0.220554</v>
+        <v>0.214536</v>
       </c>
       <c r="D95" t="n">
-        <v>0.250544</v>
+        <v>0.257721</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.343557</v>
+        <v>0.344128</v>
       </c>
       <c r="C96" t="n">
-        <v>0.219964</v>
+        <v>0.213788</v>
       </c>
       <c r="D96" t="n">
-        <v>0.249029</v>
+        <v>0.25622</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.337626</v>
+        <v>0.337694</v>
       </c>
       <c r="C97" t="n">
-        <v>0.219066</v>
+        <v>0.212877</v>
       </c>
       <c r="D97" t="n">
-        <v>0.247677</v>
+        <v>0.254769</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.330585</v>
+        <v>0.330656</v>
       </c>
       <c r="C98" t="n">
-        <v>0.218808</v>
+        <v>0.211748</v>
       </c>
       <c r="D98" t="n">
-        <v>0.245967</v>
+        <v>0.253211</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.323198</v>
+        <v>0.323454</v>
       </c>
       <c r="C99" t="n">
-        <v>0.218103</v>
+        <v>0.211001</v>
       </c>
       <c r="D99" t="n">
-        <v>0.244744</v>
+        <v>0.25193</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.314404</v>
+        <v>0.314748</v>
       </c>
       <c r="C100" t="n">
-        <v>0.217342</v>
+        <v>0.209684</v>
       </c>
       <c r="D100" t="n">
-        <v>0.243455</v>
+        <v>0.250534</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.305276</v>
+        <v>0.305452</v>
       </c>
       <c r="C101" t="n">
-        <v>0.216269</v>
+        <v>0.208568</v>
       </c>
       <c r="D101" t="n">
-        <v>0.242146</v>
+        <v>0.249273</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.295301</v>
+        <v>0.295143</v>
       </c>
       <c r="C102" t="n">
-        <v>0.215847</v>
+        <v>0.207702</v>
       </c>
       <c r="D102" t="n">
-        <v>0.241176</v>
+        <v>0.248338</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.284454</v>
+        <v>0.284357</v>
       </c>
       <c r="C103" t="n">
-        <v>0.215248</v>
+        <v>0.206634</v>
       </c>
       <c r="D103" t="n">
-        <v>0.240117</v>
+        <v>0.247274</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.272964</v>
+        <v>0.272863</v>
       </c>
       <c r="C104" t="n">
-        <v>0.213843</v>
+        <v>0.205952</v>
       </c>
       <c r="D104" t="n">
-        <v>0.239164</v>
+        <v>0.246321</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.260458</v>
+        <v>0.260574</v>
       </c>
       <c r="C105" t="n">
-        <v>0.213029</v>
+        <v>0.205294</v>
       </c>
       <c r="D105" t="n">
-        <v>0.23841</v>
+        <v>0.245409</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.247313</v>
+        <v>0.247258</v>
       </c>
       <c r="C106" t="n">
-        <v>0.212452</v>
+        <v>0.204711</v>
       </c>
       <c r="D106" t="n">
-        <v>0.237415</v>
+        <v>0.244438</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.232718</v>
+        <v>0.232845</v>
       </c>
       <c r="C107" t="n">
-        <v>0.211284</v>
+        <v>0.203972</v>
       </c>
       <c r="D107" t="n">
-        <v>0.236472</v>
+        <v>0.243474</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.217538</v>
+        <v>0.217853</v>
       </c>
       <c r="C108" t="n">
-        <v>0.21126</v>
+        <v>0.203542</v>
       </c>
       <c r="D108" t="n">
-        <v>0.253896</v>
+        <v>0.260112</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.201748</v>
+        <v>0.201266</v>
       </c>
       <c r="C109" t="n">
-        <v>0.210364</v>
+        <v>0.203073</v>
       </c>
       <c r="D109" t="n">
-        <v>0.252255</v>
+        <v>0.258273</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.344724</v>
+        <v>0.34476</v>
       </c>
       <c r="C110" t="n">
-        <v>0.220146</v>
+        <v>0.213921</v>
       </c>
       <c r="D110" t="n">
-        <v>0.250617</v>
+        <v>0.256786</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.338491</v>
+        <v>0.338982</v>
       </c>
       <c r="C111" t="n">
-        <v>0.219278</v>
+        <v>0.212723</v>
       </c>
       <c r="D111" t="n">
-        <v>0.248687</v>
+        <v>0.254973</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.332055</v>
+        <v>0.332223</v>
       </c>
       <c r="C112" t="n">
-        <v>0.218719</v>
+        <v>0.21169</v>
       </c>
       <c r="D112" t="n">
-        <v>0.247459</v>
+        <v>0.253584</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.324481</v>
+        <v>0.324686</v>
       </c>
       <c r="C113" t="n">
-        <v>0.218378</v>
+        <v>0.210858</v>
       </c>
       <c r="D113" t="n">
-        <v>0.24598</v>
+        <v>0.252359</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.316019</v>
+        <v>0.31614</v>
       </c>
       <c r="C114" t="n">
-        <v>0.217747</v>
+        <v>0.209907</v>
       </c>
       <c r="D114" t="n">
-        <v>0.2446</v>
+        <v>0.250809</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.307077</v>
+        <v>0.307345</v>
       </c>
       <c r="C115" t="n">
-        <v>0.217051</v>
+        <v>0.208787</v>
       </c>
       <c r="D115" t="n">
-        <v>0.24285</v>
+        <v>0.250069</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.297256</v>
+        <v>0.297237</v>
       </c>
       <c r="C116" t="n">
-        <v>0.216113</v>
+        <v>0.207863</v>
       </c>
       <c r="D116" t="n">
-        <v>0.242383</v>
+        <v>0.248923</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.286951</v>
+        <v>0.286691</v>
       </c>
       <c r="C117" t="n">
-        <v>0.215104</v>
+        <v>0.20724</v>
       </c>
       <c r="D117" t="n">
-        <v>0.241476</v>
+        <v>0.247988</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.275204</v>
+        <v>0.27505</v>
       </c>
       <c r="C118" t="n">
-        <v>0.214309</v>
+        <v>0.206252</v>
       </c>
       <c r="D118" t="n">
-        <v>0.239788</v>
+        <v>0.2468</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.262852</v>
+        <v>0.262854</v>
       </c>
       <c r="C119" t="n">
-        <v>0.213466</v>
+        <v>0.205369</v>
       </c>
       <c r="D119" t="n">
-        <v>0.238545</v>
+        <v>0.245685</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.249696</v>
+        <v>0.249877</v>
       </c>
       <c r="C120" t="n">
-        <v>0.212763</v>
+        <v>0.204974</v>
       </c>
       <c r="D120" t="n">
-        <v>0.237528</v>
+        <v>0.2446</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.235662</v>
+        <v>0.235787</v>
       </c>
       <c r="C121" t="n">
-        <v>0.212152</v>
+        <v>0.204472</v>
       </c>
       <c r="D121" t="n">
-        <v>0.237048</v>
+        <v>0.243687</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.220896</v>
+        <v>0.220918</v>
       </c>
       <c r="C122" t="n">
-        <v>0.211243</v>
+        <v>0.203758</v>
       </c>
       <c r="D122" t="n">
-        <v>0.236028</v>
+        <v>0.242758</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.204935</v>
+        <v>0.205345</v>
       </c>
       <c r="C123" t="n">
-        <v>0.21024</v>
+        <v>0.203178</v>
       </c>
       <c r="D123" t="n">
-        <v>0.252538</v>
+        <v>0.258782</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.345964</v>
+        <v>0.346065</v>
       </c>
       <c r="C124" t="n">
-        <v>0.220047</v>
+        <v>0.214154</v>
       </c>
       <c r="D124" t="n">
-        <v>0.250911</v>
+        <v>0.256893</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.34004</v>
+        <v>0.340253</v>
       </c>
       <c r="C125" t="n">
-        <v>0.219135</v>
+        <v>0.213229</v>
       </c>
       <c r="D125" t="n">
-        <v>0.249501</v>
+        <v>0.255857</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.333565</v>
+        <v>0.333663</v>
       </c>
       <c r="C126" t="n">
-        <v>0.217811</v>
+        <v>0.212814</v>
       </c>
       <c r="D126" t="n">
-        <v>0.247475</v>
+        <v>0.254172</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.326212</v>
+        <v>0.326178</v>
       </c>
       <c r="C127" t="n">
-        <v>0.218429</v>
+        <v>0.212928</v>
       </c>
       <c r="D127" t="n">
-        <v>0.246202</v>
+        <v>0.252705</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.318209</v>
+        <v>0.318264</v>
       </c>
       <c r="C128" t="n">
-        <v>0.217833</v>
+        <v>0.211906</v>
       </c>
       <c r="D128" t="n">
-        <v>0.244799</v>
+        <v>0.251458</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.309381</v>
+        <v>0.309561</v>
       </c>
       <c r="C129" t="n">
-        <v>0.216059</v>
+        <v>0.211299</v>
       </c>
       <c r="D129" t="n">
-        <v>0.243506</v>
+        <v>0.250079</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.299787</v>
+        <v>0.299999</v>
       </c>
       <c r="C130" t="n">
-        <v>0.216007</v>
+        <v>0.209929</v>
       </c>
       <c r="D130" t="n">
-        <v>0.242389</v>
+        <v>0.249062</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.289493</v>
+        <v>0.289744</v>
       </c>
       <c r="C131" t="n">
-        <v>0.215246</v>
+        <v>0.207054</v>
       </c>
       <c r="D131" t="n">
-        <v>0.241278</v>
+        <v>0.247813</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.278363</v>
+        <v>0.278272</v>
       </c>
       <c r="C132" t="n">
-        <v>0.214559</v>
+        <v>0.206299</v>
       </c>
       <c r="D132" t="n">
-        <v>0.240176</v>
+        <v>0.246823</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.266245</v>
+        <v>0.266282</v>
       </c>
       <c r="C133" t="n">
-        <v>0.213699</v>
+        <v>0.207411</v>
       </c>
       <c r="D133" t="n">
-        <v>0.23858</v>
+        <v>0.245822</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.253384</v>
+        <v>0.253762</v>
       </c>
       <c r="C134" t="n">
-        <v>0.212926</v>
+        <v>0.205079</v>
       </c>
       <c r="D134" t="n">
-        <v>0.23783</v>
+        <v>0.244927</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.239225</v>
+        <v>0.239837</v>
       </c>
       <c r="C135" t="n">
-        <v>0.212205</v>
+        <v>0.204124</v>
       </c>
       <c r="D135" t="n">
-        <v>0.237142</v>
+        <v>0.243918</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.22421</v>
+        <v>0.224802</v>
       </c>
       <c r="C136" t="n">
-        <v>0.211425</v>
+        <v>0.20523</v>
       </c>
       <c r="D136" t="n">
-        <v>0.236146</v>
+        <v>0.243062</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.208615</v>
+        <v>0.208941</v>
       </c>
       <c r="C137" t="n">
-        <v>0.210633</v>
+        <v>0.203552</v>
       </c>
       <c r="D137" t="n">
-        <v>0.252428</v>
+        <v>0.25919</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.346752</v>
+        <v>0.347234</v>
       </c>
       <c r="C138" t="n">
-        <v>0.220355</v>
+        <v>0.214494</v>
       </c>
       <c r="D138" t="n">
-        <v>0.251325</v>
+        <v>0.257543</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.341301</v>
+        <v>0.341663</v>
       </c>
       <c r="C139" t="n">
-        <v>0.219582</v>
+        <v>0.21356</v>
       </c>
       <c r="D139" t="n">
-        <v>0.249052</v>
+        <v>0.255907</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.334782</v>
+        <v>0.33504</v>
       </c>
       <c r="C140" t="n">
-        <v>0.218675</v>
+        <v>0.212494</v>
       </c>
       <c r="D140" t="n">
-        <v>0.247893</v>
+        <v>0.25439</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.327777</v>
+        <v>0.328091</v>
       </c>
       <c r="C141" t="n">
-        <v>0.217015</v>
+        <v>0.211579</v>
       </c>
       <c r="D141" t="n">
-        <v>0.246167</v>
+        <v>0.253112</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.319707</v>
+        <v>0.320112</v>
       </c>
       <c r="C142" t="n">
-        <v>0.217952</v>
+        <v>0.210542</v>
       </c>
       <c r="D142" t="n">
-        <v>0.244652</v>
+        <v>0.251877</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.311138</v>
+        <v>0.311629</v>
       </c>
       <c r="C143" t="n">
-        <v>0.215981</v>
+        <v>0.209564</v>
       </c>
       <c r="D143" t="n">
-        <v>0.244013</v>
+        <v>0.250767</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.276366</v>
+        <v>0.276619</v>
       </c>
       <c r="C2" t="n">
-        <v>0.186743</v>
+        <v>0.187539</v>
       </c>
       <c r="D2" t="n">
-        <v>0.230031</v>
+        <v>0.228001</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.26621</v>
+        <v>0.266094</v>
       </c>
       <c r="C3" t="n">
-        <v>0.188407</v>
+        <v>0.188905</v>
       </c>
       <c r="D3" t="n">
-        <v>0.22933</v>
+        <v>0.230522</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.253262</v>
+        <v>0.254778</v>
       </c>
       <c r="C4" t="n">
-        <v>0.191398</v>
+        <v>0.189799</v>
       </c>
       <c r="D4" t="n">
-        <v>0.230078</v>
+        <v>0.227876</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.241697</v>
+        <v>0.241939</v>
       </c>
       <c r="C5" t="n">
-        <v>0.189363</v>
+        <v>0.189564</v>
       </c>
       <c r="D5" t="n">
-        <v>0.229154</v>
+        <v>0.228018</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.232834</v>
+        <v>0.232515</v>
       </c>
       <c r="C6" t="n">
-        <v>0.189593</v>
+        <v>0.189962</v>
       </c>
       <c r="D6" t="n">
-        <v>0.230233</v>
+        <v>0.22877</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.220043</v>
+        <v>0.219722</v>
       </c>
       <c r="C7" t="n">
-        <v>0.190341</v>
+        <v>0.191448</v>
       </c>
       <c r="D7" t="n">
-        <v>0.229994</v>
+        <v>0.229448</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.20743</v>
+        <v>0.206654</v>
       </c>
       <c r="C8" t="n">
-        <v>0.191069</v>
+        <v>0.190991</v>
       </c>
       <c r="D8" t="n">
-        <v>0.231035</v>
+        <v>0.23035</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.190337</v>
+        <v>0.191799</v>
       </c>
       <c r="C9" t="n">
-        <v>0.19182</v>
+        <v>0.191519</v>
       </c>
       <c r="D9" t="n">
-        <v>0.250276</v>
+        <v>0.249728</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.330963</v>
+        <v>0.331107</v>
       </c>
       <c r="C10" t="n">
-        <v>0.208447</v>
+        <v>0.206502</v>
       </c>
       <c r="D10" t="n">
-        <v>0.248687</v>
+        <v>0.259861</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.324543</v>
+        <v>0.329608</v>
       </c>
       <c r="C11" t="n">
-        <v>0.206713</v>
+        <v>0.206884</v>
       </c>
       <c r="D11" t="n">
-        <v>0.248079</v>
+        <v>0.24986</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.317744</v>
+        <v>0.318429</v>
       </c>
       <c r="C12" t="n">
-        <v>0.206349</v>
+        <v>0.206319</v>
       </c>
       <c r="D12" t="n">
-        <v>0.247632</v>
+        <v>0.247943</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.312036</v>
+        <v>0.312013</v>
       </c>
       <c r="C13" t="n">
-        <v>0.204651</v>
+        <v>0.204834</v>
       </c>
       <c r="D13" t="n">
-        <v>0.24953</v>
+        <v>0.246412</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.30472</v>
+        <v>0.305375</v>
       </c>
       <c r="C14" t="n">
-        <v>0.204298</v>
+        <v>0.20423</v>
       </c>
       <c r="D14" t="n">
-        <v>0.248555</v>
+        <v>0.245358</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.296568</v>
+        <v>0.297301</v>
       </c>
       <c r="C15" t="n">
-        <v>0.203411</v>
+        <v>0.206146</v>
       </c>
       <c r="D15" t="n">
-        <v>0.248467</v>
+        <v>0.244483</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.288242</v>
+        <v>0.289426</v>
       </c>
       <c r="C16" t="n">
-        <v>0.203322</v>
+        <v>0.204947</v>
       </c>
       <c r="D16" t="n">
-        <v>0.247732</v>
+        <v>0.250151</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.277684</v>
+        <v>0.2787</v>
       </c>
       <c r="C17" t="n">
-        <v>0.202397</v>
+        <v>0.202473</v>
       </c>
       <c r="D17" t="n">
-        <v>0.246791</v>
+        <v>0.24338</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.268786</v>
+        <v>0.269039</v>
       </c>
       <c r="C18" t="n">
-        <v>0.202205</v>
+        <v>0.202553</v>
       </c>
       <c r="D18" t="n">
-        <v>0.241253</v>
+        <v>0.241922</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.257944</v>
+        <v>0.25836</v>
       </c>
       <c r="C19" t="n">
-        <v>0.201791</v>
+        <v>0.201681</v>
       </c>
       <c r="D19" t="n">
-        <v>0.240816</v>
+        <v>0.241333</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.246482</v>
+        <v>0.245032</v>
       </c>
       <c r="C20" t="n">
-        <v>0.201275</v>
+        <v>0.201028</v>
       </c>
       <c r="D20" t="n">
-        <v>0.245067</v>
+        <v>0.241569</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.232454</v>
+        <v>0.232756</v>
       </c>
       <c r="C21" t="n">
-        <v>0.201142</v>
+        <v>0.201666</v>
       </c>
       <c r="D21" t="n">
-        <v>0.24323</v>
+        <v>0.241877</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.218044</v>
+        <v>0.218094</v>
       </c>
       <c r="C22" t="n">
-        <v>0.200433</v>
+        <v>0.200794</v>
       </c>
       <c r="D22" t="n">
-        <v>0.244037</v>
+        <v>0.241951</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.202677</v>
+        <v>0.203081</v>
       </c>
       <c r="C23" t="n">
-        <v>0.200272</v>
+        <v>0.200386</v>
       </c>
       <c r="D23" t="n">
-        <v>0.25468</v>
+        <v>0.254867</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.340359</v>
+        <v>0.340231</v>
       </c>
       <c r="C24" t="n">
-        <v>0.211741</v>
+        <v>0.212567</v>
       </c>
       <c r="D24" t="n">
-        <v>0.253403</v>
+        <v>0.252963</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.335001</v>
+        <v>0.335678</v>
       </c>
       <c r="C25" t="n">
-        <v>0.211994</v>
+        <v>0.212259</v>
       </c>
       <c r="D25" t="n">
-        <v>0.251624</v>
+        <v>0.252904</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.333236</v>
+        <v>0.327644</v>
       </c>
       <c r="C26" t="n">
-        <v>0.208719</v>
+        <v>0.209042</v>
       </c>
       <c r="D26" t="n">
-        <v>0.250305</v>
+        <v>0.253075</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.319856</v>
+        <v>0.320748</v>
       </c>
       <c r="C27" t="n">
-        <v>0.207661</v>
+        <v>0.209875</v>
       </c>
       <c r="D27" t="n">
-        <v>0.249497</v>
+        <v>0.248888</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.313639</v>
+        <v>0.313104</v>
       </c>
       <c r="C28" t="n">
-        <v>0.206693</v>
+        <v>0.207911</v>
       </c>
       <c r="D28" t="n">
-        <v>0.247722</v>
+        <v>0.247243</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.305515</v>
+        <v>0.30584</v>
       </c>
       <c r="C29" t="n">
-        <v>0.206882</v>
+        <v>0.205769</v>
       </c>
       <c r="D29" t="n">
-        <v>0.246116</v>
+        <v>0.24623</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.29706</v>
+        <v>0.296811</v>
       </c>
       <c r="C30" t="n">
-        <v>0.204443</v>
+        <v>0.204742</v>
       </c>
       <c r="D30" t="n">
-        <v>0.245174</v>
+        <v>0.251414</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.287524</v>
+        <v>0.287214</v>
       </c>
       <c r="C31" t="n">
-        <v>0.204174</v>
+        <v>0.203272</v>
       </c>
       <c r="D31" t="n">
-        <v>0.253407</v>
+        <v>0.246073</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.278019</v>
+        <v>0.277958</v>
       </c>
       <c r="C32" t="n">
-        <v>0.204273</v>
+        <v>0.203022</v>
       </c>
       <c r="D32" t="n">
-        <v>0.249345</v>
+        <v>0.244058</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.267216</v>
+        <v>0.26755</v>
       </c>
       <c r="C33" t="n">
-        <v>0.202774</v>
+        <v>0.202686</v>
       </c>
       <c r="D33" t="n">
-        <v>0.242991</v>
+        <v>0.247645</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.255824</v>
+        <v>0.255518</v>
       </c>
       <c r="C34" t="n">
-        <v>0.203099</v>
+        <v>0.202759</v>
       </c>
       <c r="D34" t="n">
-        <v>0.242857</v>
+        <v>0.24338</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.242687</v>
+        <v>0.243125</v>
       </c>
       <c r="C35" t="n">
-        <v>0.202741</v>
+        <v>0.202947</v>
       </c>
       <c r="D35" t="n">
-        <v>0.242622</v>
+        <v>0.246613</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.228155</v>
+        <v>0.228362</v>
       </c>
       <c r="C36" t="n">
-        <v>0.203067</v>
+        <v>0.203604</v>
       </c>
       <c r="D36" t="n">
-        <v>0.246036</v>
+        <v>0.240312</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.212339</v>
+        <v>0.21305</v>
       </c>
       <c r="C37" t="n">
-        <v>0.201296</v>
+        <v>0.203097</v>
       </c>
       <c r="D37" t="n">
-        <v>0.255373</v>
+        <v>0.255762</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.345236</v>
+        <v>0.345259</v>
       </c>
       <c r="C38" t="n">
-        <v>0.213632</v>
+        <v>0.2122</v>
       </c>
       <c r="D38" t="n">
-        <v>0.254704</v>
+        <v>0.254161</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.339534</v>
+        <v>0.340038</v>
       </c>
       <c r="C39" t="n">
-        <v>0.211875</v>
+        <v>0.211537</v>
       </c>
       <c r="D39" t="n">
-        <v>0.252317</v>
+        <v>0.252668</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.334531</v>
+        <v>0.334217</v>
       </c>
       <c r="C40" t="n">
-        <v>0.211619</v>
+        <v>0.210081</v>
       </c>
       <c r="D40" t="n">
-        <v>0.251424</v>
+        <v>0.251348</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.327436</v>
+        <v>0.327632</v>
       </c>
       <c r="C41" t="n">
-        <v>0.209854</v>
+        <v>0.209251</v>
       </c>
       <c r="D41" t="n">
-        <v>0.250188</v>
+        <v>0.250082</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.320509</v>
+        <v>0.320878</v>
       </c>
       <c r="C42" t="n">
-        <v>0.209016</v>
+        <v>0.208646</v>
       </c>
       <c r="D42" t="n">
-        <v>0.248983</v>
+        <v>0.249232</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.311622</v>
+        <v>0.31205</v>
       </c>
       <c r="C43" t="n">
-        <v>0.210046</v>
+        <v>0.207906</v>
       </c>
       <c r="D43" t="n">
-        <v>0.24838</v>
+        <v>0.251092</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.302764</v>
+        <v>0.303228</v>
       </c>
       <c r="C44" t="n">
-        <v>0.206618</v>
+        <v>0.207507</v>
       </c>
       <c r="D44" t="n">
-        <v>0.247586</v>
+        <v>0.250369</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.293195</v>
+        <v>0.293154</v>
       </c>
       <c r="C45" t="n">
-        <v>0.208392</v>
+        <v>0.206494</v>
       </c>
       <c r="D45" t="n">
-        <v>0.246744</v>
+        <v>0.248847</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.282887</v>
+        <v>0.283147</v>
       </c>
       <c r="C46" t="n">
-        <v>0.208369</v>
+        <v>0.206098</v>
       </c>
       <c r="D46" t="n">
-        <v>0.245473</v>
+        <v>0.247956</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.272492</v>
+        <v>0.272736</v>
       </c>
       <c r="C47" t="n">
-        <v>0.205723</v>
+        <v>0.205493</v>
       </c>
       <c r="D47" t="n">
-        <v>0.245094</v>
+        <v>0.247291</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.261002</v>
+        <v>0.260954</v>
       </c>
       <c r="C48" t="n">
-        <v>0.205372</v>
+        <v>0.204676</v>
       </c>
       <c r="D48" t="n">
-        <v>0.243699</v>
+        <v>0.246117</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.247749</v>
+        <v>0.248307</v>
       </c>
       <c r="C49" t="n">
-        <v>0.205484</v>
+        <v>0.206311</v>
       </c>
       <c r="D49" t="n">
-        <v>0.242687</v>
+        <v>0.244803</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.23383</v>
+        <v>0.234554</v>
       </c>
       <c r="C50" t="n">
-        <v>0.205275</v>
+        <v>0.205424</v>
       </c>
       <c r="D50" t="n">
-        <v>0.241969</v>
+        <v>0.243705</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.220243</v>
+        <v>0.220516</v>
       </c>
       <c r="C51" t="n">
-        <v>0.204866</v>
+        <v>0.205253</v>
       </c>
       <c r="D51" t="n">
-        <v>0.261151</v>
+        <v>0.260365</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.203325</v>
+        <v>0.20352</v>
       </c>
       <c r="C52" t="n">
-        <v>0.203764</v>
+        <v>0.204129</v>
       </c>
       <c r="D52" t="n">
-        <v>0.257882</v>
+        <v>0.258842</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.343107</v>
+        <v>0.343383</v>
       </c>
       <c r="C53" t="n">
-        <v>0.214655</v>
+        <v>0.212865</v>
       </c>
       <c r="D53" t="n">
-        <v>0.257529</v>
+        <v>0.256969</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.336816</v>
+        <v>0.337254</v>
       </c>
       <c r="C54" t="n">
-        <v>0.214167</v>
+        <v>0.212847</v>
       </c>
       <c r="D54" t="n">
-        <v>0.255072</v>
+        <v>0.255504</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.331059</v>
+        <v>0.33062</v>
       </c>
       <c r="C55" t="n">
-        <v>0.213336</v>
+        <v>0.212447</v>
       </c>
       <c r="D55" t="n">
-        <v>0.253765</v>
+        <v>0.254829</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.323191</v>
+        <v>0.323494</v>
       </c>
       <c r="C56" t="n">
-        <v>0.211411</v>
+        <v>0.211757</v>
       </c>
       <c r="D56" t="n">
-        <v>0.25307</v>
+        <v>0.252837</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.315177</v>
+        <v>0.315459</v>
       </c>
       <c r="C57" t="n">
-        <v>0.211048</v>
+        <v>0.210814</v>
       </c>
       <c r="D57" t="n">
-        <v>0.252464</v>
+        <v>0.252381</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.306027</v>
+        <v>0.306586</v>
       </c>
       <c r="C58" t="n">
-        <v>0.210236</v>
+        <v>0.210208</v>
       </c>
       <c r="D58" t="n">
-        <v>0.251386</v>
+        <v>0.251646</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.296982</v>
+        <v>0.29691</v>
       </c>
       <c r="C59" t="n">
-        <v>0.209714</v>
+        <v>0.208901</v>
       </c>
       <c r="D59" t="n">
-        <v>0.250129</v>
+        <v>0.250411</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.286792</v>
+        <v>0.286968</v>
       </c>
       <c r="C60" t="n">
-        <v>0.207295</v>
+        <v>0.207964</v>
       </c>
       <c r="D60" t="n">
-        <v>0.24872</v>
+        <v>0.249627</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.276213</v>
+        <v>0.275979</v>
       </c>
       <c r="C61" t="n">
-        <v>0.207779</v>
+        <v>0.208182</v>
       </c>
       <c r="D61" t="n">
-        <v>0.24804</v>
+        <v>0.248798</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.263907</v>
+        <v>0.26417</v>
       </c>
       <c r="C62" t="n">
-        <v>0.207391</v>
+        <v>0.207281</v>
       </c>
       <c r="D62" t="n">
-        <v>0.247004</v>
+        <v>0.247515</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.251057</v>
+        <v>0.251441</v>
       </c>
       <c r="C63" t="n">
-        <v>0.205964</v>
+        <v>0.206743</v>
       </c>
       <c r="D63" t="n">
-        <v>0.245211</v>
+        <v>0.246059</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.237418</v>
+        <v>0.237471</v>
       </c>
       <c r="C64" t="n">
-        <v>0.205004</v>
+        <v>0.206286</v>
       </c>
       <c r="D64" t="n">
-        <v>0.244256</v>
+        <v>0.244828</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.22274</v>
+        <v>0.223212</v>
       </c>
       <c r="C65" t="n">
-        <v>0.205314</v>
+        <v>0.205316</v>
       </c>
       <c r="D65" t="n">
-        <v>0.243251</v>
+        <v>0.243695</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.206808</v>
+        <v>0.2073</v>
       </c>
       <c r="C66" t="n">
-        <v>0.204374</v>
+        <v>0.204541</v>
       </c>
       <c r="D66" t="n">
-        <v>0.258382</v>
+        <v>0.258659</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.346214</v>
+        <v>0.346476</v>
       </c>
       <c r="C67" t="n">
-        <v>0.214627</v>
+        <v>0.214537</v>
       </c>
       <c r="D67" t="n">
-        <v>0.257135</v>
+        <v>0.257333</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.340642</v>
+        <v>0.340783</v>
       </c>
       <c r="C68" t="n">
-        <v>0.213496</v>
+        <v>0.213485</v>
       </c>
       <c r="D68" t="n">
-        <v>0.255495</v>
+        <v>0.256595</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.334136</v>
+        <v>0.334365</v>
       </c>
       <c r="C69" t="n">
-        <v>0.212513</v>
+        <v>0.21264</v>
       </c>
       <c r="D69" t="n">
-        <v>0.253676</v>
+        <v>0.255135</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.326387</v>
+        <v>0.327113</v>
       </c>
       <c r="C70" t="n">
-        <v>0.211731</v>
+        <v>0.212988</v>
       </c>
       <c r="D70" t="n">
-        <v>0.252465</v>
+        <v>0.253543</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.318127</v>
+        <v>0.318644</v>
       </c>
       <c r="C71" t="n">
-        <v>0.210571</v>
+        <v>0.211755</v>
       </c>
       <c r="D71" t="n">
-        <v>0.251513</v>
+        <v>0.252161</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.309495</v>
+        <v>0.309787</v>
       </c>
       <c r="C72" t="n">
-        <v>0.209835</v>
+        <v>0.210904</v>
       </c>
       <c r="D72" t="n">
-        <v>0.250012</v>
+        <v>0.25097</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.299908</v>
+        <v>0.300421</v>
       </c>
       <c r="C73" t="n">
-        <v>0.208755</v>
+        <v>0.209584</v>
       </c>
       <c r="D73" t="n">
-        <v>0.248602</v>
+        <v>0.24982</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.289857</v>
+        <v>0.290233</v>
       </c>
       <c r="C74" t="n">
-        <v>0.20782</v>
+        <v>0.20921</v>
       </c>
       <c r="D74" t="n">
-        <v>0.247996</v>
+        <v>0.248807</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.279236</v>
+        <v>0.27955</v>
       </c>
       <c r="C75" t="n">
-        <v>0.206756</v>
+        <v>0.208979</v>
       </c>
       <c r="D75" t="n">
-        <v>0.24708</v>
+        <v>0.247463</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.267452</v>
+        <v>0.267982</v>
       </c>
       <c r="C76" t="n">
-        <v>0.206463</v>
+        <v>0.208092</v>
       </c>
       <c r="D76" t="n">
-        <v>0.245852</v>
+        <v>0.24618</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.254648</v>
+        <v>0.254988</v>
       </c>
       <c r="C77" t="n">
-        <v>0.205529</v>
+        <v>0.206886</v>
       </c>
       <c r="D77" t="n">
-        <v>0.244957</v>
+        <v>0.24519</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.240841</v>
+        <v>0.241333</v>
       </c>
       <c r="C78" t="n">
-        <v>0.204478</v>
+        <v>0.206066</v>
       </c>
       <c r="D78" t="n">
-        <v>0.244169</v>
+        <v>0.244716</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.226402</v>
+        <v>0.226457</v>
       </c>
       <c r="C79" t="n">
-        <v>0.204085</v>
+        <v>0.205473</v>
       </c>
       <c r="D79" t="n">
-        <v>0.242935</v>
+        <v>0.24351</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.210618</v>
+        <v>0.210742</v>
       </c>
       <c r="C80" t="n">
-        <v>0.203815</v>
+        <v>0.204613</v>
       </c>
       <c r="D80" t="n">
-        <v>0.258412</v>
+        <v>0.258507</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.347897</v>
+        <v>0.347872</v>
       </c>
       <c r="C81" t="n">
-        <v>0.214625</v>
+        <v>0.214748</v>
       </c>
       <c r="D81" t="n">
-        <v>0.256908</v>
+        <v>0.257075</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.342257</v>
+        <v>0.342487</v>
       </c>
       <c r="C82" t="n">
-        <v>0.213663</v>
+        <v>0.213834</v>
       </c>
       <c r="D82" t="n">
-        <v>0.255803</v>
+        <v>0.255653</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.335746</v>
+        <v>0.336255</v>
       </c>
       <c r="C83" t="n">
-        <v>0.213079</v>
+        <v>0.213173</v>
       </c>
       <c r="D83" t="n">
-        <v>0.253312</v>
+        <v>0.253647</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.328693</v>
+        <v>0.32941</v>
       </c>
       <c r="C84" t="n">
-        <v>0.212241</v>
+        <v>0.212689</v>
       </c>
       <c r="D84" t="n">
-        <v>0.252692</v>
+        <v>0.25254</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.320905</v>
+        <v>0.321351</v>
       </c>
       <c r="C85" t="n">
-        <v>0.210951</v>
+        <v>0.212603</v>
       </c>
       <c r="D85" t="n">
-        <v>0.251572</v>
+        <v>0.25194</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.31233</v>
+        <v>0.313485</v>
       </c>
       <c r="C86" t="n">
-        <v>0.210854</v>
+        <v>0.212303</v>
       </c>
       <c r="D86" t="n">
-        <v>0.250776</v>
+        <v>0.251298</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.302773</v>
+        <v>0.303878</v>
       </c>
       <c r="C87" t="n">
-        <v>0.2093</v>
+        <v>0.21034</v>
       </c>
       <c r="D87" t="n">
-        <v>0.249512</v>
+        <v>0.250365</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.292557</v>
+        <v>0.293835</v>
       </c>
       <c r="C88" t="n">
-        <v>0.207984</v>
+        <v>0.209935</v>
       </c>
       <c r="D88" t="n">
-        <v>0.248473</v>
+        <v>0.248972</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.281809</v>
+        <v>0.283102</v>
       </c>
       <c r="C89" t="n">
-        <v>0.207277</v>
+        <v>0.208892</v>
       </c>
       <c r="D89" t="n">
-        <v>0.247163</v>
+        <v>0.24745</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.270387</v>
+        <v>0.271759</v>
       </c>
       <c r="C90" t="n">
-        <v>0.206472</v>
+        <v>0.207671</v>
       </c>
       <c r="D90" t="n">
-        <v>0.246012</v>
+        <v>0.246658</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.257863</v>
+        <v>0.258533</v>
       </c>
       <c r="C91" t="n">
-        <v>0.205634</v>
+        <v>0.206795</v>
       </c>
       <c r="D91" t="n">
-        <v>0.245139</v>
+        <v>0.245689</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.244541</v>
+        <v>0.245275</v>
       </c>
       <c r="C92" t="n">
-        <v>0.204827</v>
+        <v>0.206206</v>
       </c>
       <c r="D92" t="n">
-        <v>0.244189</v>
+        <v>0.24477</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.230213</v>
+        <v>0.230683</v>
       </c>
       <c r="C93" t="n">
-        <v>0.204259</v>
+        <v>0.205542</v>
       </c>
       <c r="D93" t="n">
-        <v>0.243374</v>
+        <v>0.243683</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.214926</v>
+        <v>0.215042</v>
       </c>
       <c r="C94" t="n">
-        <v>0.203783</v>
+        <v>0.204687</v>
       </c>
       <c r="D94" t="n">
-        <v>0.259586</v>
+        <v>0.259993</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.348943</v>
+        <v>0.349224</v>
       </c>
       <c r="C95" t="n">
-        <v>0.214536</v>
+        <v>0.214534</v>
       </c>
       <c r="D95" t="n">
-        <v>0.257721</v>
+        <v>0.258029</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.344128</v>
+        <v>0.344194</v>
       </c>
       <c r="C96" t="n">
-        <v>0.213788</v>
+        <v>0.214097</v>
       </c>
       <c r="D96" t="n">
-        <v>0.25622</v>
+        <v>0.256606</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.337694</v>
+        <v>0.337937</v>
       </c>
       <c r="C97" t="n">
-        <v>0.212877</v>
+        <v>0.213504</v>
       </c>
       <c r="D97" t="n">
-        <v>0.254769</v>
+        <v>0.255142</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.330656</v>
+        <v>0.331208</v>
       </c>
       <c r="C98" t="n">
-        <v>0.211748</v>
+        <v>0.213128</v>
       </c>
       <c r="D98" t="n">
-        <v>0.253211</v>
+        <v>0.253478</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.323454</v>
+        <v>0.32352</v>
       </c>
       <c r="C99" t="n">
-        <v>0.211001</v>
+        <v>0.212218</v>
       </c>
       <c r="D99" t="n">
-        <v>0.25193</v>
+        <v>0.252473</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.314748</v>
+        <v>0.315058</v>
       </c>
       <c r="C100" t="n">
-        <v>0.209684</v>
+        <v>0.211551</v>
       </c>
       <c r="D100" t="n">
-        <v>0.250534</v>
+        <v>0.251175</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.305452</v>
+        <v>0.305886</v>
       </c>
       <c r="C101" t="n">
-        <v>0.208568</v>
+        <v>0.210555</v>
       </c>
       <c r="D101" t="n">
-        <v>0.249273</v>
+        <v>0.249645</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.295143</v>
+        <v>0.295937</v>
       </c>
       <c r="C102" t="n">
-        <v>0.207702</v>
+        <v>0.209577</v>
       </c>
       <c r="D102" t="n">
-        <v>0.248338</v>
+        <v>0.248911</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.284357</v>
+        <v>0.285381</v>
       </c>
       <c r="C103" t="n">
-        <v>0.206634</v>
+        <v>0.208852</v>
       </c>
       <c r="D103" t="n">
-        <v>0.247274</v>
+        <v>0.247844</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.272863</v>
+        <v>0.27353</v>
       </c>
       <c r="C104" t="n">
-        <v>0.205952</v>
+        <v>0.207711</v>
       </c>
       <c r="D104" t="n">
-        <v>0.246321</v>
+        <v>0.246662</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.260574</v>
+        <v>0.261136</v>
       </c>
       <c r="C105" t="n">
-        <v>0.205294</v>
+        <v>0.206773</v>
       </c>
       <c r="D105" t="n">
-        <v>0.245409</v>
+        <v>0.245691</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.247258</v>
+        <v>0.247917</v>
       </c>
       <c r="C106" t="n">
-        <v>0.204711</v>
+        <v>0.206249</v>
       </c>
       <c r="D106" t="n">
-        <v>0.244438</v>
+        <v>0.244864</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.232845</v>
+        <v>0.233191</v>
       </c>
       <c r="C107" t="n">
-        <v>0.203972</v>
+        <v>0.205443</v>
       </c>
       <c r="D107" t="n">
-        <v>0.243474</v>
+        <v>0.243718</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.217853</v>
+        <v>0.218245</v>
       </c>
       <c r="C108" t="n">
-        <v>0.203542</v>
+        <v>0.20487</v>
       </c>
       <c r="D108" t="n">
-        <v>0.260112</v>
+        <v>0.260224</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.201266</v>
+        <v>0.201569</v>
       </c>
       <c r="C109" t="n">
-        <v>0.203073</v>
+        <v>0.204058</v>
       </c>
       <c r="D109" t="n">
-        <v>0.258273</v>
+        <v>0.258683</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.34476</v>
+        <v>0.345009</v>
       </c>
       <c r="C110" t="n">
-        <v>0.213921</v>
+        <v>0.21407</v>
       </c>
       <c r="D110" t="n">
-        <v>0.256786</v>
+        <v>0.256827</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.338982</v>
+        <v>0.338916</v>
       </c>
       <c r="C111" t="n">
-        <v>0.212723</v>
+        <v>0.213161</v>
       </c>
       <c r="D111" t="n">
-        <v>0.254973</v>
+        <v>0.255394</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.332223</v>
+        <v>0.3323</v>
       </c>
       <c r="C112" t="n">
-        <v>0.21169</v>
+        <v>0.212795</v>
       </c>
       <c r="D112" t="n">
-        <v>0.253584</v>
+        <v>0.254009</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.324686</v>
+        <v>0.325009</v>
       </c>
       <c r="C113" t="n">
-        <v>0.210858</v>
+        <v>0.212444</v>
       </c>
       <c r="D113" t="n">
-        <v>0.252359</v>
+        <v>0.25291</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.31614</v>
+        <v>0.316524</v>
       </c>
       <c r="C114" t="n">
-        <v>0.209907</v>
+        <v>0.211528</v>
       </c>
       <c r="D114" t="n">
-        <v>0.250809</v>
+        <v>0.25139</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.307345</v>
+        <v>0.307841</v>
       </c>
       <c r="C115" t="n">
-        <v>0.208787</v>
+        <v>0.21098</v>
       </c>
       <c r="D115" t="n">
-        <v>0.250069</v>
+        <v>0.250449</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.297237</v>
+        <v>0.297743</v>
       </c>
       <c r="C116" t="n">
-        <v>0.207863</v>
+        <v>0.209864</v>
       </c>
       <c r="D116" t="n">
-        <v>0.248923</v>
+        <v>0.249085</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.286691</v>
+        <v>0.287002</v>
       </c>
       <c r="C117" t="n">
-        <v>0.20724</v>
+        <v>0.208832</v>
       </c>
       <c r="D117" t="n">
-        <v>0.247988</v>
+        <v>0.248199</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.27505</v>
+        <v>0.275928</v>
       </c>
       <c r="C118" t="n">
-        <v>0.206252</v>
+        <v>0.208046</v>
       </c>
       <c r="D118" t="n">
-        <v>0.2468</v>
+        <v>0.247157</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.262854</v>
+        <v>0.263738</v>
       </c>
       <c r="C119" t="n">
-        <v>0.205369</v>
+        <v>0.207132</v>
       </c>
       <c r="D119" t="n">
-        <v>0.245685</v>
+        <v>0.245718</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.249877</v>
+        <v>0.250385</v>
       </c>
       <c r="C120" t="n">
-        <v>0.204974</v>
+        <v>0.206328</v>
       </c>
       <c r="D120" t="n">
-        <v>0.2446</v>
+        <v>0.244727</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.235787</v>
+        <v>0.236237</v>
       </c>
       <c r="C121" t="n">
-        <v>0.204472</v>
+        <v>0.205592</v>
       </c>
       <c r="D121" t="n">
-        <v>0.243687</v>
+        <v>0.243732</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.220918</v>
+        <v>0.221054</v>
       </c>
       <c r="C122" t="n">
-        <v>0.203758</v>
+        <v>0.204887</v>
       </c>
       <c r="D122" t="n">
-        <v>0.242758</v>
+        <v>0.242772</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.205345</v>
+        <v>0.205243</v>
       </c>
       <c r="C123" t="n">
-        <v>0.203178</v>
+        <v>0.204018</v>
       </c>
       <c r="D123" t="n">
-        <v>0.258782</v>
+        <v>0.25889</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.346065</v>
+        <v>0.346275</v>
       </c>
       <c r="C124" t="n">
-        <v>0.214154</v>
+        <v>0.214292</v>
       </c>
       <c r="D124" t="n">
-        <v>0.256893</v>
+        <v>0.256919</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.340253</v>
+        <v>0.340517</v>
       </c>
       <c r="C125" t="n">
-        <v>0.213229</v>
+        <v>0.213536</v>
       </c>
       <c r="D125" t="n">
-        <v>0.255857</v>
+        <v>0.255801</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.333663</v>
+        <v>0.334017</v>
       </c>
       <c r="C126" t="n">
-        <v>0.212814</v>
+        <v>0.212877</v>
       </c>
       <c r="D126" t="n">
-        <v>0.254172</v>
+        <v>0.254302</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.326178</v>
+        <v>0.326627</v>
       </c>
       <c r="C127" t="n">
-        <v>0.212928</v>
+        <v>0.212343</v>
       </c>
       <c r="D127" t="n">
-        <v>0.252705</v>
+        <v>0.252729</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.318264</v>
+        <v>0.318458</v>
       </c>
       <c r="C128" t="n">
-        <v>0.211906</v>
+        <v>0.211743</v>
       </c>
       <c r="D128" t="n">
-        <v>0.251458</v>
+        <v>0.251391</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.309561</v>
+        <v>0.30973</v>
       </c>
       <c r="C129" t="n">
-        <v>0.211299</v>
+        <v>0.210869</v>
       </c>
       <c r="D129" t="n">
-        <v>0.250079</v>
+        <v>0.250277</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.299999</v>
+        <v>0.30045</v>
       </c>
       <c r="C130" t="n">
-        <v>0.209929</v>
+        <v>0.20983</v>
       </c>
       <c r="D130" t="n">
-        <v>0.249062</v>
+        <v>0.249061</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.289744</v>
+        <v>0.290015</v>
       </c>
       <c r="C131" t="n">
-        <v>0.207054</v>
+        <v>0.208944</v>
       </c>
       <c r="D131" t="n">
-        <v>0.247813</v>
+        <v>0.247968</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.278272</v>
+        <v>0.27886</v>
       </c>
       <c r="C132" t="n">
-        <v>0.206299</v>
+        <v>0.208321</v>
       </c>
       <c r="D132" t="n">
-        <v>0.246823</v>
+        <v>0.246857</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.266282</v>
+        <v>0.266923</v>
       </c>
       <c r="C133" t="n">
-        <v>0.207411</v>
+        <v>0.207325</v>
       </c>
       <c r="D133" t="n">
-        <v>0.245822</v>
+        <v>0.245769</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.253762</v>
+        <v>0.253936</v>
       </c>
       <c r="C134" t="n">
-        <v>0.205079</v>
+        <v>0.206545</v>
       </c>
       <c r="D134" t="n">
-        <v>0.244927</v>
+        <v>0.244844</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.239837</v>
+        <v>0.239922</v>
       </c>
       <c r="C135" t="n">
-        <v>0.204124</v>
+        <v>0.205796</v>
       </c>
       <c r="D135" t="n">
-        <v>0.243918</v>
+        <v>0.243977</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.224802</v>
+        <v>0.224947</v>
       </c>
       <c r="C136" t="n">
-        <v>0.20523</v>
+        <v>0.205023</v>
       </c>
       <c r="D136" t="n">
-        <v>0.243062</v>
+        <v>0.243001</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.208941</v>
+        <v>0.208695</v>
       </c>
       <c r="C137" t="n">
-        <v>0.203552</v>
+        <v>0.204228</v>
       </c>
       <c r="D137" t="n">
-        <v>0.25919</v>
+        <v>0.259249</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.347234</v>
+        <v>0.347267</v>
       </c>
       <c r="C138" t="n">
-        <v>0.214494</v>
+        <v>0.214386</v>
       </c>
       <c r="D138" t="n">
-        <v>0.257543</v>
+        <v>0.257667</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.341663</v>
+        <v>0.341481</v>
       </c>
       <c r="C139" t="n">
-        <v>0.21356</v>
+        <v>0.213695</v>
       </c>
       <c r="D139" t="n">
-        <v>0.255907</v>
+        <v>0.256065</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.33504</v>
+        <v>0.334999</v>
       </c>
       <c r="C140" t="n">
-        <v>0.212494</v>
+        <v>0.213121</v>
       </c>
       <c r="D140" t="n">
-        <v>0.25439</v>
+        <v>0.25453</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.328091</v>
+        <v>0.327774</v>
       </c>
       <c r="C141" t="n">
-        <v>0.211579</v>
+        <v>0.212526</v>
       </c>
       <c r="D141" t="n">
-        <v>0.253112</v>
+        <v>0.25335</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.320112</v>
+        <v>0.319924</v>
       </c>
       <c r="C142" t="n">
-        <v>0.210542</v>
+        <v>0.211638</v>
       </c>
       <c r="D142" t="n">
-        <v>0.251877</v>
+        <v>0.252055</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.311629</v>
+        <v>0.311065</v>
       </c>
       <c r="C143" t="n">
-        <v>0.209564</v>
+        <v>0.21108</v>
       </c>
       <c r="D143" t="n">
-        <v>0.250767</v>
+        <v>0.250943</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.276619</v>
+        <v>0.269072</v>
       </c>
       <c r="C2" t="n">
-        <v>0.187539</v>
+        <v>0.18622</v>
       </c>
       <c r="D2" t="n">
-        <v>0.228001</v>
+        <v>0.225403</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.266094</v>
+        <v>0.259292</v>
       </c>
       <c r="C3" t="n">
-        <v>0.188905</v>
+        <v>0.18549</v>
       </c>
       <c r="D3" t="n">
-        <v>0.230522</v>
+        <v>0.222744</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.254778</v>
+        <v>0.25164</v>
       </c>
       <c r="C4" t="n">
-        <v>0.189799</v>
+        <v>0.18912</v>
       </c>
       <c r="D4" t="n">
-        <v>0.227876</v>
+        <v>0.225905</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.241939</v>
+        <v>0.240003</v>
       </c>
       <c r="C5" t="n">
-        <v>0.189564</v>
+        <v>0.190115</v>
       </c>
       <c r="D5" t="n">
-        <v>0.228018</v>
+        <v>0.227809</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.232515</v>
+        <v>0.229958</v>
       </c>
       <c r="C6" t="n">
-        <v>0.189962</v>
+        <v>0.190364</v>
       </c>
       <c r="D6" t="n">
-        <v>0.22877</v>
+        <v>0.2277</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.219722</v>
+        <v>0.218016</v>
       </c>
       <c r="C7" t="n">
-        <v>0.191448</v>
+        <v>0.191752</v>
       </c>
       <c r="D7" t="n">
-        <v>0.229448</v>
+        <v>0.227375</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.206654</v>
+        <v>0.202802</v>
       </c>
       <c r="C8" t="n">
-        <v>0.190991</v>
+        <v>0.191632</v>
       </c>
       <c r="D8" t="n">
-        <v>0.23035</v>
+        <v>0.22879</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.191799</v>
+        <v>0.186448</v>
       </c>
       <c r="C9" t="n">
-        <v>0.191519</v>
+        <v>0.193484</v>
       </c>
       <c r="D9" t="n">
-        <v>0.249728</v>
+        <v>0.249882</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.331107</v>
+        <v>0.329329</v>
       </c>
       <c r="C10" t="n">
-        <v>0.206502</v>
+        <v>0.207058</v>
       </c>
       <c r="D10" t="n">
-        <v>0.259861</v>
+        <v>0.24838</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.329608</v>
+        <v>0.323803</v>
       </c>
       <c r="C11" t="n">
-        <v>0.206884</v>
+        <v>0.206624</v>
       </c>
       <c r="D11" t="n">
-        <v>0.24986</v>
+        <v>0.247647</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.318429</v>
+        <v>0.318326</v>
       </c>
       <c r="C12" t="n">
-        <v>0.206319</v>
+        <v>0.207213</v>
       </c>
       <c r="D12" t="n">
-        <v>0.247943</v>
+        <v>0.24793</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.312013</v>
+        <v>0.312897</v>
       </c>
       <c r="C13" t="n">
-        <v>0.204834</v>
+        <v>0.206357</v>
       </c>
       <c r="D13" t="n">
-        <v>0.246412</v>
+        <v>0.247902</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.305375</v>
+        <v>0.30529</v>
       </c>
       <c r="C14" t="n">
-        <v>0.20423</v>
+        <v>0.205235</v>
       </c>
       <c r="D14" t="n">
-        <v>0.245358</v>
+        <v>0.245971</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.297301</v>
+        <v>0.297849</v>
       </c>
       <c r="C15" t="n">
-        <v>0.206146</v>
+        <v>0.206458</v>
       </c>
       <c r="D15" t="n">
-        <v>0.244483</v>
+        <v>0.245454</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.289426</v>
+        <v>0.287982</v>
       </c>
       <c r="C16" t="n">
-        <v>0.204947</v>
+        <v>0.205351</v>
       </c>
       <c r="D16" t="n">
-        <v>0.250151</v>
+        <v>0.246538</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2787</v>
+        <v>0.278174</v>
       </c>
       <c r="C17" t="n">
-        <v>0.202473</v>
+        <v>0.20496</v>
       </c>
       <c r="D17" t="n">
-        <v>0.24338</v>
+        <v>0.244155</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.269039</v>
+        <v>0.268161</v>
       </c>
       <c r="C18" t="n">
-        <v>0.202553</v>
+        <v>0.203951</v>
       </c>
       <c r="D18" t="n">
-        <v>0.241922</v>
+        <v>0.243197</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.25836</v>
+        <v>0.257437</v>
       </c>
       <c r="C19" t="n">
-        <v>0.201681</v>
+        <v>0.202401</v>
       </c>
       <c r="D19" t="n">
-        <v>0.241333</v>
+        <v>0.242251</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.245032</v>
+        <v>0.245708</v>
       </c>
       <c r="C20" t="n">
-        <v>0.201028</v>
+        <v>0.203658</v>
       </c>
       <c r="D20" t="n">
-        <v>0.241569</v>
+        <v>0.242141</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.232756</v>
+        <v>0.233174</v>
       </c>
       <c r="C21" t="n">
-        <v>0.201666</v>
+        <v>0.203567</v>
       </c>
       <c r="D21" t="n">
-        <v>0.241877</v>
+        <v>0.241582</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.218094</v>
+        <v>0.217855</v>
       </c>
       <c r="C22" t="n">
-        <v>0.200794</v>
+        <v>0.203789</v>
       </c>
       <c r="D22" t="n">
-        <v>0.241951</v>
+        <v>0.241887</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.203081</v>
+        <v>0.202261</v>
       </c>
       <c r="C23" t="n">
-        <v>0.200386</v>
+        <v>0.202196</v>
       </c>
       <c r="D23" t="n">
-        <v>0.254867</v>
+        <v>0.256212</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.340231</v>
+        <v>0.341071</v>
       </c>
       <c r="C24" t="n">
-        <v>0.212567</v>
+        <v>0.21437</v>
       </c>
       <c r="D24" t="n">
-        <v>0.252963</v>
+        <v>0.25559</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.335678</v>
+        <v>0.334822</v>
       </c>
       <c r="C25" t="n">
-        <v>0.212259</v>
+        <v>0.211135</v>
       </c>
       <c r="D25" t="n">
-        <v>0.252904</v>
+        <v>0.253389</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.327644</v>
+        <v>0.327819</v>
       </c>
       <c r="C26" t="n">
-        <v>0.209042</v>
+        <v>0.210128</v>
       </c>
       <c r="D26" t="n">
-        <v>0.253075</v>
+        <v>0.251637</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.320748</v>
+        <v>0.322527</v>
       </c>
       <c r="C27" t="n">
-        <v>0.209875</v>
+        <v>0.209307</v>
       </c>
       <c r="D27" t="n">
-        <v>0.248888</v>
+        <v>0.249939</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.313104</v>
+        <v>0.314902</v>
       </c>
       <c r="C28" t="n">
-        <v>0.207911</v>
+        <v>0.208632</v>
       </c>
       <c r="D28" t="n">
-        <v>0.247243</v>
+        <v>0.249122</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.30584</v>
+        <v>0.306009</v>
       </c>
       <c r="C29" t="n">
-        <v>0.205769</v>
+        <v>0.207166</v>
       </c>
       <c r="D29" t="n">
-        <v>0.24623</v>
+        <v>0.247553</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.296811</v>
+        <v>0.296874</v>
       </c>
       <c r="C30" t="n">
-        <v>0.204742</v>
+        <v>0.206469</v>
       </c>
       <c r="D30" t="n">
-        <v>0.251414</v>
+        <v>0.246361</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.287214</v>
+        <v>0.288472</v>
       </c>
       <c r="C31" t="n">
-        <v>0.203272</v>
+        <v>0.206262</v>
       </c>
       <c r="D31" t="n">
-        <v>0.246073</v>
+        <v>0.246643</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.277958</v>
+        <v>0.278216</v>
       </c>
       <c r="C32" t="n">
-        <v>0.203022</v>
+        <v>0.206123</v>
       </c>
       <c r="D32" t="n">
-        <v>0.244058</v>
+        <v>0.248772</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.26755</v>
+        <v>0.2668</v>
       </c>
       <c r="C33" t="n">
-        <v>0.202686</v>
+        <v>0.205384</v>
       </c>
       <c r="D33" t="n">
-        <v>0.247645</v>
+        <v>0.244543</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.255518</v>
+        <v>0.254228</v>
       </c>
       <c r="C34" t="n">
-        <v>0.202759</v>
+        <v>0.204815</v>
       </c>
       <c r="D34" t="n">
-        <v>0.24338</v>
+        <v>0.245512</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.243125</v>
+        <v>0.241535</v>
       </c>
       <c r="C35" t="n">
-        <v>0.202947</v>
+        <v>0.204585</v>
       </c>
       <c r="D35" t="n">
-        <v>0.246613</v>
+        <v>0.243649</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.228362</v>
+        <v>0.227696</v>
       </c>
       <c r="C36" t="n">
-        <v>0.203604</v>
+        <v>0.204356</v>
       </c>
       <c r="D36" t="n">
-        <v>0.240312</v>
+        <v>0.244408</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.21305</v>
+        <v>0.211847</v>
       </c>
       <c r="C37" t="n">
-        <v>0.203097</v>
+        <v>0.206442</v>
       </c>
       <c r="D37" t="n">
-        <v>0.255762</v>
+        <v>0.259265</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.345259</v>
+        <v>0.346912</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2122</v>
+        <v>0.21352</v>
       </c>
       <c r="D38" t="n">
-        <v>0.254161</v>
+        <v>0.257674</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.340038</v>
+        <v>0.341469</v>
       </c>
       <c r="C39" t="n">
-        <v>0.211537</v>
+        <v>0.212056</v>
       </c>
       <c r="D39" t="n">
-        <v>0.252668</v>
+        <v>0.255947</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.334217</v>
+        <v>0.335338</v>
       </c>
       <c r="C40" t="n">
-        <v>0.210081</v>
+        <v>0.211357</v>
       </c>
       <c r="D40" t="n">
-        <v>0.251348</v>
+        <v>0.254151</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.327632</v>
+        <v>0.328516</v>
       </c>
       <c r="C41" t="n">
-        <v>0.209251</v>
+        <v>0.210165</v>
       </c>
       <c r="D41" t="n">
-        <v>0.250082</v>
+        <v>0.253076</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.320878</v>
+        <v>0.321176</v>
       </c>
       <c r="C42" t="n">
-        <v>0.208646</v>
+        <v>0.209015</v>
       </c>
       <c r="D42" t="n">
-        <v>0.249232</v>
+        <v>0.251469</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.31205</v>
+        <v>0.313412</v>
       </c>
       <c r="C43" t="n">
-        <v>0.207906</v>
+        <v>0.208023</v>
       </c>
       <c r="D43" t="n">
-        <v>0.251092</v>
+        <v>0.249977</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.303228</v>
+        <v>0.304481</v>
       </c>
       <c r="C44" t="n">
-        <v>0.207507</v>
+        <v>0.20788</v>
       </c>
       <c r="D44" t="n">
-        <v>0.250369</v>
+        <v>0.250744</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.293154</v>
+        <v>0.295807</v>
       </c>
       <c r="C45" t="n">
-        <v>0.206494</v>
+        <v>0.207331</v>
       </c>
       <c r="D45" t="n">
-        <v>0.248847</v>
+        <v>0.2497</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.283147</v>
+        <v>0.284916</v>
       </c>
       <c r="C46" t="n">
-        <v>0.206098</v>
+        <v>0.206179</v>
       </c>
       <c r="D46" t="n">
-        <v>0.247956</v>
+        <v>0.248652</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.272736</v>
+        <v>0.273799</v>
       </c>
       <c r="C47" t="n">
-        <v>0.205493</v>
+        <v>0.208928</v>
       </c>
       <c r="D47" t="n">
-        <v>0.247291</v>
+        <v>0.2457</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.260954</v>
+        <v>0.261832</v>
       </c>
       <c r="C48" t="n">
-        <v>0.204676</v>
+        <v>0.208459</v>
       </c>
       <c r="D48" t="n">
-        <v>0.246117</v>
+        <v>0.244983</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.248307</v>
+        <v>0.24816</v>
       </c>
       <c r="C49" t="n">
-        <v>0.206311</v>
+        <v>0.205306</v>
       </c>
       <c r="D49" t="n">
-        <v>0.244803</v>
+        <v>0.244043</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.234554</v>
+        <v>0.233983</v>
       </c>
       <c r="C50" t="n">
-        <v>0.205424</v>
+        <v>0.206221</v>
       </c>
       <c r="D50" t="n">
-        <v>0.243705</v>
+        <v>0.243999</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.220516</v>
+        <v>0.219361</v>
       </c>
       <c r="C51" t="n">
-        <v>0.205253</v>
+        <v>0.207409</v>
       </c>
       <c r="D51" t="n">
-        <v>0.260365</v>
+        <v>0.262058</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.20352</v>
+        <v>0.201998</v>
       </c>
       <c r="C52" t="n">
-        <v>0.204129</v>
+        <v>0.206694</v>
       </c>
       <c r="D52" t="n">
-        <v>0.258842</v>
+        <v>0.260553</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.343383</v>
+        <v>0.345567</v>
       </c>
       <c r="C53" t="n">
-        <v>0.212865</v>
+        <v>0.213932</v>
       </c>
       <c r="D53" t="n">
-        <v>0.256969</v>
+        <v>0.259117</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.337254</v>
+        <v>0.339036</v>
       </c>
       <c r="C54" t="n">
-        <v>0.212847</v>
+        <v>0.213491</v>
       </c>
       <c r="D54" t="n">
-        <v>0.255504</v>
+        <v>0.257278</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.33062</v>
+        <v>0.332814</v>
       </c>
       <c r="C55" t="n">
-        <v>0.212447</v>
+        <v>0.212705</v>
       </c>
       <c r="D55" t="n">
-        <v>0.254829</v>
+        <v>0.255966</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.323494</v>
+        <v>0.324944</v>
       </c>
       <c r="C56" t="n">
-        <v>0.211757</v>
+        <v>0.211853</v>
       </c>
       <c r="D56" t="n">
-        <v>0.252837</v>
+        <v>0.254426</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.315459</v>
+        <v>0.317177</v>
       </c>
       <c r="C57" t="n">
-        <v>0.210814</v>
+        <v>0.211482</v>
       </c>
       <c r="D57" t="n">
-        <v>0.252381</v>
+        <v>0.25289</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.306586</v>
+        <v>0.307775</v>
       </c>
       <c r="C58" t="n">
-        <v>0.210208</v>
+        <v>0.210378</v>
       </c>
       <c r="D58" t="n">
-        <v>0.251646</v>
+        <v>0.25181</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.29691</v>
+        <v>0.298377</v>
       </c>
       <c r="C59" t="n">
-        <v>0.208901</v>
+        <v>0.210015</v>
       </c>
       <c r="D59" t="n">
-        <v>0.250411</v>
+        <v>0.250391</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.286968</v>
+        <v>0.288095</v>
       </c>
       <c r="C60" t="n">
-        <v>0.207964</v>
+        <v>0.20845</v>
       </c>
       <c r="D60" t="n">
-        <v>0.249627</v>
+        <v>0.249075</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.275979</v>
+        <v>0.276689</v>
       </c>
       <c r="C61" t="n">
-        <v>0.208182</v>
+        <v>0.208273</v>
       </c>
       <c r="D61" t="n">
-        <v>0.248798</v>
+        <v>0.248075</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.26417</v>
+        <v>0.264845</v>
       </c>
       <c r="C62" t="n">
-        <v>0.207281</v>
+        <v>0.209443</v>
       </c>
       <c r="D62" t="n">
-        <v>0.247515</v>
+        <v>0.246976</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.251441</v>
+        <v>0.252053</v>
       </c>
       <c r="C63" t="n">
-        <v>0.206743</v>
+        <v>0.208687</v>
       </c>
       <c r="D63" t="n">
-        <v>0.246059</v>
+        <v>0.24589</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.237471</v>
+        <v>0.238274</v>
       </c>
       <c r="C64" t="n">
-        <v>0.206286</v>
+        <v>0.208438</v>
       </c>
       <c r="D64" t="n">
-        <v>0.244828</v>
+        <v>0.244705</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.223212</v>
+        <v>0.223029</v>
       </c>
       <c r="C65" t="n">
-        <v>0.205316</v>
+        <v>0.207216</v>
       </c>
       <c r="D65" t="n">
-        <v>0.243695</v>
+        <v>0.243887</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.2073</v>
+        <v>0.206311</v>
       </c>
       <c r="C66" t="n">
-        <v>0.204541</v>
+        <v>0.206513</v>
       </c>
       <c r="D66" t="n">
-        <v>0.258659</v>
+        <v>0.258713</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.346476</v>
+        <v>0.347095</v>
       </c>
       <c r="C67" t="n">
-        <v>0.214537</v>
+        <v>0.214606</v>
       </c>
       <c r="D67" t="n">
-        <v>0.257333</v>
+        <v>0.257094</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.340783</v>
+        <v>0.341249</v>
       </c>
       <c r="C68" t="n">
-        <v>0.213485</v>
+        <v>0.213772</v>
       </c>
       <c r="D68" t="n">
-        <v>0.256595</v>
+        <v>0.255044</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.334365</v>
+        <v>0.334515</v>
       </c>
       <c r="C69" t="n">
-        <v>0.21264</v>
+        <v>0.212994</v>
       </c>
       <c r="D69" t="n">
-        <v>0.255135</v>
+        <v>0.253833</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.327113</v>
+        <v>0.32708</v>
       </c>
       <c r="C70" t="n">
-        <v>0.212988</v>
+        <v>0.213008</v>
       </c>
       <c r="D70" t="n">
-        <v>0.253543</v>
+        <v>0.253049</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.318644</v>
+        <v>0.319245</v>
       </c>
       <c r="C71" t="n">
-        <v>0.211755</v>
+        <v>0.21174</v>
       </c>
       <c r="D71" t="n">
-        <v>0.252161</v>
+        <v>0.252762</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.309787</v>
+        <v>0.310511</v>
       </c>
       <c r="C72" t="n">
-        <v>0.210904</v>
+        <v>0.211247</v>
       </c>
       <c r="D72" t="n">
-        <v>0.25097</v>
+        <v>0.251794</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.300421</v>
+        <v>0.300848</v>
       </c>
       <c r="C73" t="n">
-        <v>0.209584</v>
+        <v>0.210737</v>
       </c>
       <c r="D73" t="n">
-        <v>0.24982</v>
+        <v>0.250618</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.290233</v>
+        <v>0.290569</v>
       </c>
       <c r="C74" t="n">
-        <v>0.20921</v>
+        <v>0.210174</v>
       </c>
       <c r="D74" t="n">
-        <v>0.248807</v>
+        <v>0.249145</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.27955</v>
+        <v>0.280103</v>
       </c>
       <c r="C75" t="n">
-        <v>0.208979</v>
+        <v>0.209474</v>
       </c>
       <c r="D75" t="n">
-        <v>0.247463</v>
+        <v>0.248127</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.267982</v>
+        <v>0.268328</v>
       </c>
       <c r="C76" t="n">
-        <v>0.208092</v>
+        <v>0.208491</v>
       </c>
       <c r="D76" t="n">
-        <v>0.24618</v>
+        <v>0.247072</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.254988</v>
+        <v>0.25528</v>
       </c>
       <c r="C77" t="n">
-        <v>0.206886</v>
+        <v>0.20828</v>
       </c>
       <c r="D77" t="n">
-        <v>0.24519</v>
+        <v>0.24582</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.241333</v>
+        <v>0.241312</v>
       </c>
       <c r="C78" t="n">
-        <v>0.206066</v>
+        <v>0.207528</v>
       </c>
       <c r="D78" t="n">
-        <v>0.244716</v>
+        <v>0.245112</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.226457</v>
+        <v>0.226534</v>
       </c>
       <c r="C79" t="n">
-        <v>0.205473</v>
+        <v>0.207697</v>
       </c>
       <c r="D79" t="n">
-        <v>0.24351</v>
+        <v>0.244118</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.210742</v>
+        <v>0.210419</v>
       </c>
       <c r="C80" t="n">
-        <v>0.204613</v>
+        <v>0.207487</v>
       </c>
       <c r="D80" t="n">
-        <v>0.258507</v>
+        <v>0.261036</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.347872</v>
+        <v>0.348822</v>
       </c>
       <c r="C81" t="n">
-        <v>0.214748</v>
+        <v>0.215581</v>
       </c>
       <c r="D81" t="n">
-        <v>0.257075</v>
+        <v>0.259517</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.342487</v>
+        <v>0.343027</v>
       </c>
       <c r="C82" t="n">
-        <v>0.213834</v>
+        <v>0.214582</v>
       </c>
       <c r="D82" t="n">
-        <v>0.255653</v>
+        <v>0.25761</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.336255</v>
+        <v>0.336616</v>
       </c>
       <c r="C83" t="n">
-        <v>0.213173</v>
+        <v>0.21385</v>
       </c>
       <c r="D83" t="n">
-        <v>0.253647</v>
+        <v>0.256135</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.32941</v>
+        <v>0.329483</v>
       </c>
       <c r="C84" t="n">
-        <v>0.212689</v>
+        <v>0.212862</v>
       </c>
       <c r="D84" t="n">
-        <v>0.25254</v>
+        <v>0.254694</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.321351</v>
+        <v>0.321858</v>
       </c>
       <c r="C85" t="n">
-        <v>0.212603</v>
+        <v>0.212157</v>
       </c>
       <c r="D85" t="n">
-        <v>0.25194</v>
+        <v>0.253474</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.313485</v>
+        <v>0.313414</v>
       </c>
       <c r="C86" t="n">
-        <v>0.212303</v>
+        <v>0.211733</v>
       </c>
       <c r="D86" t="n">
-        <v>0.251298</v>
+        <v>0.251655</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.303878</v>
+        <v>0.304098</v>
       </c>
       <c r="C87" t="n">
-        <v>0.21034</v>
+        <v>0.211181</v>
       </c>
       <c r="D87" t="n">
-        <v>0.250365</v>
+        <v>0.250588</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.293835</v>
+        <v>0.293634</v>
       </c>
       <c r="C88" t="n">
-        <v>0.209935</v>
+        <v>0.210123</v>
       </c>
       <c r="D88" t="n">
-        <v>0.248972</v>
+        <v>0.249682</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.283102</v>
+        <v>0.28263</v>
       </c>
       <c r="C89" t="n">
-        <v>0.208892</v>
+        <v>0.209726</v>
       </c>
       <c r="D89" t="n">
-        <v>0.24745</v>
+        <v>0.248255</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.271759</v>
+        <v>0.270851</v>
       </c>
       <c r="C90" t="n">
-        <v>0.207671</v>
+        <v>0.208955</v>
       </c>
       <c r="D90" t="n">
-        <v>0.246658</v>
+        <v>0.247328</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.258533</v>
+        <v>0.258379</v>
       </c>
       <c r="C91" t="n">
-        <v>0.206795</v>
+        <v>0.208378</v>
       </c>
       <c r="D91" t="n">
-        <v>0.245689</v>
+        <v>0.246131</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.245275</v>
+        <v>0.244575</v>
       </c>
       <c r="C92" t="n">
-        <v>0.206206</v>
+        <v>0.207933</v>
       </c>
       <c r="D92" t="n">
-        <v>0.24477</v>
+        <v>0.245106</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.230683</v>
+        <v>0.23014</v>
       </c>
       <c r="C93" t="n">
-        <v>0.205542</v>
+        <v>0.207566</v>
       </c>
       <c r="D93" t="n">
-        <v>0.243683</v>
+        <v>0.243717</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.215042</v>
+        <v>0.213979</v>
       </c>
       <c r="C94" t="n">
-        <v>0.204687</v>
+        <v>0.207358</v>
       </c>
       <c r="D94" t="n">
-        <v>0.259993</v>
+        <v>0.259855</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.349224</v>
+        <v>0.349868</v>
       </c>
       <c r="C95" t="n">
-        <v>0.214534</v>
+        <v>0.215335</v>
       </c>
       <c r="D95" t="n">
-        <v>0.258029</v>
+        <v>0.258301</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.344194</v>
+        <v>0.344527</v>
       </c>
       <c r="C96" t="n">
-        <v>0.214097</v>
+        <v>0.21423</v>
       </c>
       <c r="D96" t="n">
-        <v>0.256606</v>
+        <v>0.256855</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.337937</v>
+        <v>0.338518</v>
       </c>
       <c r="C97" t="n">
-        <v>0.213504</v>
+        <v>0.213338</v>
       </c>
       <c r="D97" t="n">
-        <v>0.255142</v>
+        <v>0.255282</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.331208</v>
+        <v>0.331965</v>
       </c>
       <c r="C98" t="n">
-        <v>0.213128</v>
+        <v>0.212904</v>
       </c>
       <c r="D98" t="n">
-        <v>0.253478</v>
+        <v>0.253903</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.32352</v>
+        <v>0.324277</v>
       </c>
       <c r="C99" t="n">
-        <v>0.212218</v>
+        <v>0.212385</v>
       </c>
       <c r="D99" t="n">
-        <v>0.252473</v>
+        <v>0.252564</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.315058</v>
+        <v>0.315702</v>
       </c>
       <c r="C100" t="n">
-        <v>0.211551</v>
+        <v>0.211875</v>
       </c>
       <c r="D100" t="n">
-        <v>0.251175</v>
+        <v>0.251462</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.305886</v>
+        <v>0.306211</v>
       </c>
       <c r="C101" t="n">
-        <v>0.210555</v>
+        <v>0.211021</v>
       </c>
       <c r="D101" t="n">
-        <v>0.249645</v>
+        <v>0.25009</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.295937</v>
+        <v>0.295514</v>
       </c>
       <c r="C102" t="n">
-        <v>0.209577</v>
+        <v>0.210423</v>
       </c>
       <c r="D102" t="n">
-        <v>0.248911</v>
+        <v>0.248898</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.285381</v>
+        <v>0.285055</v>
       </c>
       <c r="C103" t="n">
-        <v>0.208852</v>
+        <v>0.209552</v>
       </c>
       <c r="D103" t="n">
-        <v>0.247844</v>
+        <v>0.247839</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.27353</v>
+        <v>0.273369</v>
       </c>
       <c r="C104" t="n">
-        <v>0.207711</v>
+        <v>0.209011</v>
       </c>
       <c r="D104" t="n">
-        <v>0.246662</v>
+        <v>0.246864</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.261136</v>
+        <v>0.260824</v>
       </c>
       <c r="C105" t="n">
-        <v>0.206773</v>
+        <v>0.208116</v>
       </c>
       <c r="D105" t="n">
-        <v>0.245691</v>
+        <v>0.245621</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.247917</v>
+        <v>0.248116</v>
       </c>
       <c r="C106" t="n">
-        <v>0.206249</v>
+        <v>0.207557</v>
       </c>
       <c r="D106" t="n">
-        <v>0.244864</v>
+        <v>0.244449</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.233191</v>
+        <v>0.233803</v>
       </c>
       <c r="C107" t="n">
-        <v>0.205443</v>
+        <v>0.207263</v>
       </c>
       <c r="D107" t="n">
-        <v>0.243718</v>
+        <v>0.2436</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.218245</v>
+        <v>0.217355</v>
       </c>
       <c r="C108" t="n">
-        <v>0.20487</v>
+        <v>0.207277</v>
       </c>
       <c r="D108" t="n">
-        <v>0.260224</v>
+        <v>0.260439</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.201569</v>
+        <v>0.200469</v>
       </c>
       <c r="C109" t="n">
-        <v>0.204058</v>
+        <v>0.206876</v>
       </c>
       <c r="D109" t="n">
-        <v>0.258683</v>
+        <v>0.258768</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.345009</v>
+        <v>0.345565</v>
       </c>
       <c r="C110" t="n">
-        <v>0.21407</v>
+        <v>0.214495</v>
       </c>
       <c r="D110" t="n">
-        <v>0.256827</v>
+        <v>0.257292</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.338916</v>
+        <v>0.339786</v>
       </c>
       <c r="C111" t="n">
-        <v>0.213161</v>
+        <v>0.213569</v>
       </c>
       <c r="D111" t="n">
-        <v>0.255394</v>
+        <v>0.256203</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.3323</v>
+        <v>0.332566</v>
       </c>
       <c r="C112" t="n">
-        <v>0.212795</v>
+        <v>0.212999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.254009</v>
+        <v>0.254897</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.325009</v>
+        <v>0.325491</v>
       </c>
       <c r="C113" t="n">
-        <v>0.212444</v>
+        <v>0.212476</v>
       </c>
       <c r="D113" t="n">
-        <v>0.25291</v>
+        <v>0.253451</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.316524</v>
+        <v>0.316906</v>
       </c>
       <c r="C114" t="n">
-        <v>0.211528</v>
+        <v>0.211896</v>
       </c>
       <c r="D114" t="n">
-        <v>0.25139</v>
+        <v>0.252106</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.307841</v>
+        <v>0.307719</v>
       </c>
       <c r="C115" t="n">
-        <v>0.21098</v>
+        <v>0.210866</v>
       </c>
       <c r="D115" t="n">
-        <v>0.250449</v>
+        <v>0.250775</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.297743</v>
+        <v>0.297875</v>
       </c>
       <c r="C116" t="n">
-        <v>0.209864</v>
+        <v>0.21044</v>
       </c>
       <c r="D116" t="n">
-        <v>0.249085</v>
+        <v>0.24976</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.287002</v>
+        <v>0.287301</v>
       </c>
       <c r="C117" t="n">
-        <v>0.208832</v>
+        <v>0.209635</v>
       </c>
       <c r="D117" t="n">
-        <v>0.248199</v>
+        <v>0.248571</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.275928</v>
+        <v>0.275795</v>
       </c>
       <c r="C118" t="n">
-        <v>0.208046</v>
+        <v>0.209031</v>
       </c>
       <c r="D118" t="n">
-        <v>0.247157</v>
+        <v>0.247447</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.263738</v>
+        <v>0.263544</v>
       </c>
       <c r="C119" t="n">
-        <v>0.207132</v>
+        <v>0.208416</v>
       </c>
       <c r="D119" t="n">
-        <v>0.245718</v>
+        <v>0.246153</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.250385</v>
+        <v>0.250382</v>
       </c>
       <c r="C120" t="n">
-        <v>0.206328</v>
+        <v>0.207743</v>
       </c>
       <c r="D120" t="n">
-        <v>0.244727</v>
+        <v>0.245275</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.236237</v>
+        <v>0.236049</v>
       </c>
       <c r="C121" t="n">
-        <v>0.205592</v>
+        <v>0.207404</v>
       </c>
       <c r="D121" t="n">
-        <v>0.243732</v>
+        <v>0.24425</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.221054</v>
+        <v>0.220777</v>
       </c>
       <c r="C122" t="n">
-        <v>0.204887</v>
+        <v>0.207209</v>
       </c>
       <c r="D122" t="n">
-        <v>0.242772</v>
+        <v>0.243296</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.205243</v>
+        <v>0.204022</v>
       </c>
       <c r="C123" t="n">
-        <v>0.204018</v>
+        <v>0.206988</v>
       </c>
       <c r="D123" t="n">
-        <v>0.25889</v>
+        <v>0.260066</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.346275</v>
+        <v>0.346736</v>
       </c>
       <c r="C124" t="n">
-        <v>0.214292</v>
+        <v>0.21507</v>
       </c>
       <c r="D124" t="n">
-        <v>0.256919</v>
+        <v>0.258683</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.340517</v>
+        <v>0.340966</v>
       </c>
       <c r="C125" t="n">
-        <v>0.213536</v>
+        <v>0.214161</v>
       </c>
       <c r="D125" t="n">
-        <v>0.255801</v>
+        <v>0.257013</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.334017</v>
+        <v>0.334283</v>
       </c>
       <c r="C126" t="n">
-        <v>0.212877</v>
+        <v>0.21351</v>
       </c>
       <c r="D126" t="n">
-        <v>0.254302</v>
+        <v>0.255383</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.326627</v>
+        <v>0.327036</v>
       </c>
       <c r="C127" t="n">
-        <v>0.212343</v>
+        <v>0.212967</v>
       </c>
       <c r="D127" t="n">
-        <v>0.252729</v>
+        <v>0.253954</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.318458</v>
+        <v>0.318686</v>
       </c>
       <c r="C128" t="n">
-        <v>0.211743</v>
+        <v>0.212221</v>
       </c>
       <c r="D128" t="n">
-        <v>0.251391</v>
+        <v>0.252597</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.30973</v>
+        <v>0.309642</v>
       </c>
       <c r="C129" t="n">
-        <v>0.210869</v>
+        <v>0.211696</v>
       </c>
       <c r="D129" t="n">
-        <v>0.250277</v>
+        <v>0.251188</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.30045</v>
+        <v>0.300417</v>
       </c>
       <c r="C130" t="n">
-        <v>0.20983</v>
+        <v>0.210637</v>
       </c>
       <c r="D130" t="n">
-        <v>0.249061</v>
+        <v>0.250094</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.290015</v>
+        <v>0.289725</v>
       </c>
       <c r="C131" t="n">
-        <v>0.208944</v>
+        <v>0.210117</v>
       </c>
       <c r="D131" t="n">
-        <v>0.247968</v>
+        <v>0.248765</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.27886</v>
+        <v>0.278701</v>
       </c>
       <c r="C132" t="n">
-        <v>0.208321</v>
+        <v>0.209262</v>
       </c>
       <c r="D132" t="n">
-        <v>0.246857</v>
+        <v>0.247831</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.266923</v>
+        <v>0.266495</v>
       </c>
       <c r="C133" t="n">
-        <v>0.207325</v>
+        <v>0.208791</v>
       </c>
       <c r="D133" t="n">
-        <v>0.245769</v>
+        <v>0.246731</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.253936</v>
+        <v>0.25368</v>
       </c>
       <c r="C134" t="n">
-        <v>0.206545</v>
+        <v>0.208231</v>
       </c>
       <c r="D134" t="n">
-        <v>0.244844</v>
+        <v>0.245647</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.239922</v>
+        <v>0.23963</v>
       </c>
       <c r="C135" t="n">
-        <v>0.205796</v>
+        <v>0.207764</v>
       </c>
       <c r="D135" t="n">
-        <v>0.243977</v>
+        <v>0.244618</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.224947</v>
+        <v>0.224375</v>
       </c>
       <c r="C136" t="n">
-        <v>0.205023</v>
+        <v>0.207399</v>
       </c>
       <c r="D136" t="n">
-        <v>0.243001</v>
+        <v>0.243595</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.208695</v>
+        <v>0.207914</v>
       </c>
       <c r="C137" t="n">
-        <v>0.204228</v>
+        <v>0.207092</v>
       </c>
       <c r="D137" t="n">
-        <v>0.259249</v>
+        <v>0.260436</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.347267</v>
+        <v>0.348087</v>
       </c>
       <c r="C138" t="n">
-        <v>0.214386</v>
+        <v>0.215364</v>
       </c>
       <c r="D138" t="n">
-        <v>0.257667</v>
+        <v>0.258862</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.341481</v>
+        <v>0.342384</v>
       </c>
       <c r="C139" t="n">
-        <v>0.213695</v>
+        <v>0.21438</v>
       </c>
       <c r="D139" t="n">
-        <v>0.256065</v>
+        <v>0.257103</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.334999</v>
+        <v>0.335924</v>
       </c>
       <c r="C140" t="n">
-        <v>0.213121</v>
+        <v>0.213668</v>
       </c>
       <c r="D140" t="n">
-        <v>0.25453</v>
+        <v>0.255681</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.327774</v>
+        <v>0.328854</v>
       </c>
       <c r="C141" t="n">
-        <v>0.212526</v>
+        <v>0.213116</v>
       </c>
       <c r="D141" t="n">
-        <v>0.25335</v>
+        <v>0.25426</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.319924</v>
+        <v>0.320808</v>
       </c>
       <c r="C142" t="n">
-        <v>0.211638</v>
+        <v>0.212642</v>
       </c>
       <c r="D142" t="n">
-        <v>0.252055</v>
+        <v>0.252872</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.311065</v>
+        <v>0.311904</v>
       </c>
       <c r="C143" t="n">
-        <v>0.21108</v>
+        <v>0.211779</v>
       </c>
       <c r="D143" t="n">
-        <v>0.250943</v>
+        <v>0.251671</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.269072</v>
+        <v>0.269972</v>
       </c>
       <c r="C2" t="n">
-        <v>0.18622</v>
+        <v>0.186731</v>
       </c>
       <c r="D2" t="n">
-        <v>0.225403</v>
+        <v>0.225687</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.259292</v>
+        <v>0.259463</v>
       </c>
       <c r="C3" t="n">
-        <v>0.18549</v>
+        <v>0.186342</v>
       </c>
       <c r="D3" t="n">
-        <v>0.222744</v>
+        <v>0.22616</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.25164</v>
+        <v>0.251448</v>
       </c>
       <c r="C4" t="n">
-        <v>0.18912</v>
+        <v>0.188483</v>
       </c>
       <c r="D4" t="n">
-        <v>0.225905</v>
+        <v>0.22878</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.240003</v>
+        <v>0.240711</v>
       </c>
       <c r="C5" t="n">
-        <v>0.190115</v>
+        <v>0.189943</v>
       </c>
       <c r="D5" t="n">
-        <v>0.227809</v>
+        <v>0.230675</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.229958</v>
+        <v>0.230034</v>
       </c>
       <c r="C6" t="n">
-        <v>0.190364</v>
+        <v>0.190075</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2277</v>
+        <v>0.229335</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.218016</v>
+        <v>0.21721</v>
       </c>
       <c r="C7" t="n">
-        <v>0.191752</v>
+        <v>0.191229</v>
       </c>
       <c r="D7" t="n">
-        <v>0.227375</v>
+        <v>0.230461</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.202802</v>
+        <v>0.202536</v>
       </c>
       <c r="C8" t="n">
-        <v>0.191632</v>
+        <v>0.191751</v>
       </c>
       <c r="D8" t="n">
-        <v>0.22879</v>
+        <v>0.229799</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.186448</v>
+        <v>0.187695</v>
       </c>
       <c r="C9" t="n">
-        <v>0.193484</v>
+        <v>0.193834</v>
       </c>
       <c r="D9" t="n">
-        <v>0.249882</v>
+        <v>0.251771</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.329329</v>
+        <v>0.328075</v>
       </c>
       <c r="C10" t="n">
-        <v>0.207058</v>
+        <v>0.206843</v>
       </c>
       <c r="D10" t="n">
-        <v>0.24838</v>
+        <v>0.250225</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.323803</v>
+        <v>0.323077</v>
       </c>
       <c r="C11" t="n">
-        <v>0.206624</v>
+        <v>0.206677</v>
       </c>
       <c r="D11" t="n">
-        <v>0.247647</v>
+        <v>0.249226</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.318326</v>
+        <v>0.318081</v>
       </c>
       <c r="C12" t="n">
-        <v>0.207213</v>
+        <v>0.207121</v>
       </c>
       <c r="D12" t="n">
-        <v>0.24793</v>
+        <v>0.24996</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.312897</v>
+        <v>0.31199</v>
       </c>
       <c r="C13" t="n">
-        <v>0.206357</v>
+        <v>0.206608</v>
       </c>
       <c r="D13" t="n">
-        <v>0.247902</v>
+        <v>0.250005</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.30529</v>
+        <v>0.304712</v>
       </c>
       <c r="C14" t="n">
-        <v>0.205235</v>
+        <v>0.205248</v>
       </c>
       <c r="D14" t="n">
-        <v>0.245971</v>
+        <v>0.247894</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.297849</v>
+        <v>0.297225</v>
       </c>
       <c r="C15" t="n">
-        <v>0.206458</v>
+        <v>0.205379</v>
       </c>
       <c r="D15" t="n">
-        <v>0.245454</v>
+        <v>0.247092</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.287982</v>
+        <v>0.287523</v>
       </c>
       <c r="C16" t="n">
-        <v>0.205351</v>
+        <v>0.205841</v>
       </c>
       <c r="D16" t="n">
-        <v>0.246538</v>
+        <v>0.245943</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.278174</v>
+        <v>0.277805</v>
       </c>
       <c r="C17" t="n">
-        <v>0.20496</v>
+        <v>0.204757</v>
       </c>
       <c r="D17" t="n">
-        <v>0.244155</v>
+        <v>0.24711</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.268161</v>
+        <v>0.268018</v>
       </c>
       <c r="C18" t="n">
-        <v>0.203951</v>
+        <v>0.204196</v>
       </c>
       <c r="D18" t="n">
-        <v>0.243197</v>
+        <v>0.245404</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.257437</v>
+        <v>0.25715</v>
       </c>
       <c r="C19" t="n">
-        <v>0.202401</v>
+        <v>0.202903</v>
       </c>
       <c r="D19" t="n">
-        <v>0.242251</v>
+        <v>0.244047</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.245708</v>
+        <v>0.245274</v>
       </c>
       <c r="C20" t="n">
-        <v>0.203658</v>
+        <v>0.204067</v>
       </c>
       <c r="D20" t="n">
-        <v>0.242141</v>
+        <v>0.243365</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.233174</v>
+        <v>0.232367</v>
       </c>
       <c r="C21" t="n">
-        <v>0.203567</v>
+        <v>0.202862</v>
       </c>
       <c r="D21" t="n">
-        <v>0.241582</v>
+        <v>0.242758</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.217855</v>
+        <v>0.217773</v>
       </c>
       <c r="C22" t="n">
-        <v>0.203789</v>
+        <v>0.203767</v>
       </c>
       <c r="D22" t="n">
-        <v>0.241887</v>
+        <v>0.242546</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.202261</v>
+        <v>0.20222</v>
       </c>
       <c r="C23" t="n">
-        <v>0.202196</v>
+        <v>0.202172</v>
       </c>
       <c r="D23" t="n">
-        <v>0.256212</v>
+        <v>0.257772</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.341071</v>
+        <v>0.340689</v>
       </c>
       <c r="C24" t="n">
-        <v>0.21437</v>
+        <v>0.212721</v>
       </c>
       <c r="D24" t="n">
-        <v>0.25559</v>
+        <v>0.261177</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.334822</v>
+        <v>0.335062</v>
       </c>
       <c r="C25" t="n">
-        <v>0.211135</v>
+        <v>0.213038</v>
       </c>
       <c r="D25" t="n">
-        <v>0.253389</v>
+        <v>0.254876</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.327819</v>
+        <v>0.328085</v>
       </c>
       <c r="C26" t="n">
-        <v>0.210128</v>
+        <v>0.210461</v>
       </c>
       <c r="D26" t="n">
-        <v>0.251637</v>
+        <v>0.25242</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.322527</v>
+        <v>0.321824</v>
       </c>
       <c r="C27" t="n">
-        <v>0.209307</v>
+        <v>0.209167</v>
       </c>
       <c r="D27" t="n">
-        <v>0.249939</v>
+        <v>0.251287</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.314902</v>
+        <v>0.314325</v>
       </c>
       <c r="C28" t="n">
-        <v>0.208632</v>
+        <v>0.208538</v>
       </c>
       <c r="D28" t="n">
-        <v>0.249122</v>
+        <v>0.250451</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.306009</v>
+        <v>0.306028</v>
       </c>
       <c r="C29" t="n">
-        <v>0.207166</v>
+        <v>0.207395</v>
       </c>
       <c r="D29" t="n">
-        <v>0.247553</v>
+        <v>0.249548</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.296874</v>
+        <v>0.296485</v>
       </c>
       <c r="C30" t="n">
-        <v>0.206469</v>
+        <v>0.206764</v>
       </c>
       <c r="D30" t="n">
-        <v>0.246361</v>
+        <v>0.247814</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.288472</v>
+        <v>0.288449</v>
       </c>
       <c r="C31" t="n">
-        <v>0.206262</v>
+        <v>0.205847</v>
       </c>
       <c r="D31" t="n">
-        <v>0.246643</v>
+        <v>0.251818</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.278216</v>
+        <v>0.277817</v>
       </c>
       <c r="C32" t="n">
-        <v>0.206123</v>
+        <v>0.206119</v>
       </c>
       <c r="D32" t="n">
-        <v>0.248772</v>
+        <v>0.246715</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.2668</v>
+        <v>0.266392</v>
       </c>
       <c r="C33" t="n">
-        <v>0.205384</v>
+        <v>0.205634</v>
       </c>
       <c r="D33" t="n">
-        <v>0.244543</v>
+        <v>0.245865</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.254228</v>
+        <v>0.254601</v>
       </c>
       <c r="C34" t="n">
-        <v>0.204815</v>
+        <v>0.204877</v>
       </c>
       <c r="D34" t="n">
-        <v>0.245512</v>
+        <v>0.248408</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.241535</v>
+        <v>0.242197</v>
       </c>
       <c r="C35" t="n">
-        <v>0.204585</v>
+        <v>0.204951</v>
       </c>
       <c r="D35" t="n">
-        <v>0.243649</v>
+        <v>0.244601</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.227696</v>
+        <v>0.228278</v>
       </c>
       <c r="C36" t="n">
-        <v>0.204356</v>
+        <v>0.204634</v>
       </c>
       <c r="D36" t="n">
-        <v>0.244408</v>
+        <v>0.243875</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.211847</v>
+        <v>0.212286</v>
       </c>
       <c r="C37" t="n">
-        <v>0.206442</v>
+        <v>0.204613</v>
       </c>
       <c r="D37" t="n">
-        <v>0.259265</v>
+        <v>0.261192</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.346912</v>
+        <v>0.346783</v>
       </c>
       <c r="C38" t="n">
-        <v>0.21352</v>
+        <v>0.213517</v>
       </c>
       <c r="D38" t="n">
-        <v>0.257674</v>
+        <v>0.260409</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.341469</v>
+        <v>0.341492</v>
       </c>
       <c r="C39" t="n">
-        <v>0.212056</v>
+        <v>0.211883</v>
       </c>
       <c r="D39" t="n">
-        <v>0.255947</v>
+        <v>0.257966</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.335338</v>
+        <v>0.335302</v>
       </c>
       <c r="C40" t="n">
-        <v>0.211357</v>
+        <v>0.211169</v>
       </c>
       <c r="D40" t="n">
-        <v>0.254151</v>
+        <v>0.256651</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.328516</v>
+        <v>0.328786</v>
       </c>
       <c r="C41" t="n">
-        <v>0.210165</v>
+        <v>0.209981</v>
       </c>
       <c r="D41" t="n">
-        <v>0.253076</v>
+        <v>0.255398</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.321176</v>
+        <v>0.321224</v>
       </c>
       <c r="C42" t="n">
-        <v>0.209015</v>
+        <v>0.209025</v>
       </c>
       <c r="D42" t="n">
-        <v>0.251469</v>
+        <v>0.254746</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.313412</v>
+        <v>0.313193</v>
       </c>
       <c r="C43" t="n">
-        <v>0.208023</v>
+        <v>0.208025</v>
       </c>
       <c r="D43" t="n">
-        <v>0.249977</v>
+        <v>0.252468</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.304481</v>
+        <v>0.305171</v>
       </c>
       <c r="C44" t="n">
-        <v>0.20788</v>
+        <v>0.208084</v>
       </c>
       <c r="D44" t="n">
-        <v>0.250744</v>
+        <v>0.252836</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.295807</v>
+        <v>0.295777</v>
       </c>
       <c r="C45" t="n">
-        <v>0.207331</v>
+        <v>0.2075</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2497</v>
+        <v>0.251419</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.284916</v>
+        <v>0.28515</v>
       </c>
       <c r="C46" t="n">
-        <v>0.206179</v>
+        <v>0.206005</v>
       </c>
       <c r="D46" t="n">
-        <v>0.248652</v>
+        <v>0.250421</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.273799</v>
+        <v>0.273969</v>
       </c>
       <c r="C47" t="n">
-        <v>0.208928</v>
+        <v>0.208807</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2457</v>
+        <v>0.247706</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.261832</v>
+        <v>0.262165</v>
       </c>
       <c r="C48" t="n">
-        <v>0.208459</v>
+        <v>0.208472</v>
       </c>
       <c r="D48" t="n">
-        <v>0.244983</v>
+        <v>0.246794</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.24816</v>
+        <v>0.248218</v>
       </c>
       <c r="C49" t="n">
-        <v>0.205306</v>
+        <v>0.205182</v>
       </c>
       <c r="D49" t="n">
-        <v>0.244043</v>
+        <v>0.245798</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.233983</v>
+        <v>0.233959</v>
       </c>
       <c r="C50" t="n">
-        <v>0.206221</v>
+        <v>0.206042</v>
       </c>
       <c r="D50" t="n">
-        <v>0.243999</v>
+        <v>0.245071</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.219361</v>
+        <v>0.219395</v>
       </c>
       <c r="C51" t="n">
-        <v>0.207409</v>
+        <v>0.207606</v>
       </c>
       <c r="D51" t="n">
-        <v>0.262058</v>
+        <v>0.263962</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.201998</v>
+        <v>0.20211</v>
       </c>
       <c r="C52" t="n">
-        <v>0.206694</v>
+        <v>0.206709</v>
       </c>
       <c r="D52" t="n">
-        <v>0.260553</v>
+        <v>0.262876</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.345567</v>
+        <v>0.345232</v>
       </c>
       <c r="C53" t="n">
-        <v>0.213932</v>
+        <v>0.214038</v>
       </c>
       <c r="D53" t="n">
-        <v>0.259117</v>
+        <v>0.261071</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.339036</v>
+        <v>0.339007</v>
       </c>
       <c r="C54" t="n">
-        <v>0.213491</v>
+        <v>0.213603</v>
       </c>
       <c r="D54" t="n">
-        <v>0.257278</v>
+        <v>0.259347</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.332814</v>
+        <v>0.33299</v>
       </c>
       <c r="C55" t="n">
-        <v>0.212705</v>
+        <v>0.212745</v>
       </c>
       <c r="D55" t="n">
-        <v>0.255966</v>
+        <v>0.256742</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.324944</v>
+        <v>0.32558</v>
       </c>
       <c r="C56" t="n">
-        <v>0.211853</v>
+        <v>0.212177</v>
       </c>
       <c r="D56" t="n">
-        <v>0.254426</v>
+        <v>0.256451</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.317177</v>
+        <v>0.316933</v>
       </c>
       <c r="C57" t="n">
-        <v>0.211482</v>
+        <v>0.211464</v>
       </c>
       <c r="D57" t="n">
-        <v>0.25289</v>
+        <v>0.254561</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.307775</v>
+        <v>0.307808</v>
       </c>
       <c r="C58" t="n">
-        <v>0.210378</v>
+        <v>0.210396</v>
       </c>
       <c r="D58" t="n">
-        <v>0.25181</v>
+        <v>0.253771</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.298377</v>
+        <v>0.298454</v>
       </c>
       <c r="C59" t="n">
-        <v>0.210015</v>
+        <v>0.209584</v>
       </c>
       <c r="D59" t="n">
-        <v>0.250391</v>
+        <v>0.252123</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.288095</v>
+        <v>0.28806</v>
       </c>
       <c r="C60" t="n">
-        <v>0.20845</v>
+        <v>0.208481</v>
       </c>
       <c r="D60" t="n">
-        <v>0.249075</v>
+        <v>0.250901</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.276689</v>
+        <v>0.276825</v>
       </c>
       <c r="C61" t="n">
-        <v>0.208273</v>
+        <v>0.208475</v>
       </c>
       <c r="D61" t="n">
-        <v>0.248075</v>
+        <v>0.250064</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.264845</v>
+        <v>0.264813</v>
       </c>
       <c r="C62" t="n">
-        <v>0.209443</v>
+        <v>0.209506</v>
       </c>
       <c r="D62" t="n">
-        <v>0.246976</v>
+        <v>0.248967</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.252053</v>
+        <v>0.252069</v>
       </c>
       <c r="C63" t="n">
-        <v>0.208687</v>
+        <v>0.208811</v>
       </c>
       <c r="D63" t="n">
-        <v>0.24589</v>
+        <v>0.247694</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.238274</v>
+        <v>0.23831</v>
       </c>
       <c r="C64" t="n">
-        <v>0.208438</v>
+        <v>0.208355</v>
       </c>
       <c r="D64" t="n">
-        <v>0.244705</v>
+        <v>0.246552</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.223029</v>
+        <v>0.223385</v>
       </c>
       <c r="C65" t="n">
-        <v>0.207216</v>
+        <v>0.207203</v>
       </c>
       <c r="D65" t="n">
-        <v>0.243887</v>
+        <v>0.245557</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.206311</v>
+        <v>0.206412</v>
       </c>
       <c r="C66" t="n">
-        <v>0.206513</v>
+        <v>0.206574</v>
       </c>
       <c r="D66" t="n">
-        <v>0.258713</v>
+        <v>0.260423</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.347095</v>
+        <v>0.347368</v>
       </c>
       <c r="C67" t="n">
-        <v>0.214606</v>
+        <v>0.214481</v>
       </c>
       <c r="D67" t="n">
-        <v>0.257094</v>
+        <v>0.259147</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.341249</v>
+        <v>0.34145</v>
       </c>
       <c r="C68" t="n">
-        <v>0.213772</v>
+        <v>0.213865</v>
       </c>
       <c r="D68" t="n">
-        <v>0.255044</v>
+        <v>0.257708</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.334515</v>
+        <v>0.334728</v>
       </c>
       <c r="C69" t="n">
-        <v>0.212994</v>
+        <v>0.213398</v>
       </c>
       <c r="D69" t="n">
-        <v>0.253833</v>
+        <v>0.256532</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.32708</v>
+        <v>0.327114</v>
       </c>
       <c r="C70" t="n">
-        <v>0.213008</v>
+        <v>0.213201</v>
       </c>
       <c r="D70" t="n">
-        <v>0.253049</v>
+        <v>0.255378</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.319245</v>
+        <v>0.319444</v>
       </c>
       <c r="C71" t="n">
-        <v>0.21174</v>
+        <v>0.211855</v>
       </c>
       <c r="D71" t="n">
-        <v>0.252762</v>
+        <v>0.254894</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.310511</v>
+        <v>0.310494</v>
       </c>
       <c r="C72" t="n">
-        <v>0.211247</v>
+        <v>0.211425</v>
       </c>
       <c r="D72" t="n">
-        <v>0.251794</v>
+        <v>0.253755</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.300848</v>
+        <v>0.301045</v>
       </c>
       <c r="C73" t="n">
-        <v>0.210737</v>
+        <v>0.210687</v>
       </c>
       <c r="D73" t="n">
-        <v>0.250618</v>
+        <v>0.252613</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.290569</v>
+        <v>0.290833</v>
       </c>
       <c r="C74" t="n">
-        <v>0.210174</v>
+        <v>0.210144</v>
       </c>
       <c r="D74" t="n">
-        <v>0.249145</v>
+        <v>0.251041</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.280103</v>
+        <v>0.280433</v>
       </c>
       <c r="C75" t="n">
-        <v>0.209474</v>
+        <v>0.209571</v>
       </c>
       <c r="D75" t="n">
-        <v>0.248127</v>
+        <v>0.249924</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.268328</v>
+        <v>0.268578</v>
       </c>
       <c r="C76" t="n">
-        <v>0.208491</v>
+        <v>0.208545</v>
       </c>
       <c r="D76" t="n">
-        <v>0.247072</v>
+        <v>0.248973</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.25528</v>
+        <v>0.25542</v>
       </c>
       <c r="C77" t="n">
-        <v>0.20828</v>
+        <v>0.208554</v>
       </c>
       <c r="D77" t="n">
-        <v>0.24582</v>
+        <v>0.247714</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.241312</v>
+        <v>0.241639</v>
       </c>
       <c r="C78" t="n">
-        <v>0.207528</v>
+        <v>0.207605</v>
       </c>
       <c r="D78" t="n">
-        <v>0.245112</v>
+        <v>0.247174</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.226534</v>
+        <v>0.226804</v>
       </c>
       <c r="C79" t="n">
-        <v>0.207697</v>
+        <v>0.207849</v>
       </c>
       <c r="D79" t="n">
-        <v>0.244118</v>
+        <v>0.246157</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.210419</v>
+        <v>0.210567</v>
       </c>
       <c r="C80" t="n">
-        <v>0.207487</v>
+        <v>0.207606</v>
       </c>
       <c r="D80" t="n">
-        <v>0.261036</v>
+        <v>0.262948</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.348822</v>
+        <v>0.348878</v>
       </c>
       <c r="C81" t="n">
-        <v>0.215581</v>
+        <v>0.21584</v>
       </c>
       <c r="D81" t="n">
-        <v>0.259517</v>
+        <v>0.261791</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.343027</v>
+        <v>0.34326</v>
       </c>
       <c r="C82" t="n">
-        <v>0.214582</v>
+        <v>0.214773</v>
       </c>
       <c r="D82" t="n">
-        <v>0.25761</v>
+        <v>0.260035</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.336616</v>
+        <v>0.336907</v>
       </c>
       <c r="C83" t="n">
-        <v>0.21385</v>
+        <v>0.214033</v>
       </c>
       <c r="D83" t="n">
-        <v>0.256135</v>
+        <v>0.25879</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.329483</v>
+        <v>0.329787</v>
       </c>
       <c r="C84" t="n">
-        <v>0.212862</v>
+        <v>0.212796</v>
       </c>
       <c r="D84" t="n">
-        <v>0.254694</v>
+        <v>0.257083</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.321858</v>
+        <v>0.321803</v>
       </c>
       <c r="C85" t="n">
-        <v>0.212157</v>
+        <v>0.212323</v>
       </c>
       <c r="D85" t="n">
-        <v>0.253474</v>
+        <v>0.2558</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.313414</v>
+        <v>0.313102</v>
       </c>
       <c r="C86" t="n">
-        <v>0.211733</v>
+        <v>0.211482</v>
       </c>
       <c r="D86" t="n">
-        <v>0.251655</v>
+        <v>0.254183</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.304098</v>
+        <v>0.303907</v>
       </c>
       <c r="C87" t="n">
-        <v>0.211181</v>
+        <v>0.211209</v>
       </c>
       <c r="D87" t="n">
-        <v>0.250588</v>
+        <v>0.252775</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.293634</v>
+        <v>0.293625</v>
       </c>
       <c r="C88" t="n">
-        <v>0.210123</v>
+        <v>0.210333</v>
       </c>
       <c r="D88" t="n">
-        <v>0.249682</v>
+        <v>0.251802</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.28263</v>
+        <v>0.282946</v>
       </c>
       <c r="C89" t="n">
-        <v>0.209726</v>
+        <v>0.209848</v>
       </c>
       <c r="D89" t="n">
-        <v>0.248255</v>
+        <v>0.250863</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.270851</v>
+        <v>0.271346</v>
       </c>
       <c r="C90" t="n">
-        <v>0.208955</v>
+        <v>0.208823</v>
       </c>
       <c r="D90" t="n">
-        <v>0.247328</v>
+        <v>0.249778</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.258379</v>
+        <v>0.25853</v>
       </c>
       <c r="C91" t="n">
-        <v>0.208378</v>
+        <v>0.208323</v>
       </c>
       <c r="D91" t="n">
-        <v>0.246131</v>
+        <v>0.24854</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.244575</v>
+        <v>0.244842</v>
       </c>
       <c r="C92" t="n">
-        <v>0.207933</v>
+        <v>0.208014</v>
       </c>
       <c r="D92" t="n">
-        <v>0.245106</v>
+        <v>0.247379</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.23014</v>
+        <v>0.22984</v>
       </c>
       <c r="C93" t="n">
-        <v>0.207566</v>
+        <v>0.207602</v>
       </c>
       <c r="D93" t="n">
-        <v>0.243717</v>
+        <v>0.246179</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.213979</v>
+        <v>0.213919</v>
       </c>
       <c r="C94" t="n">
-        <v>0.207358</v>
+        <v>0.207427</v>
       </c>
       <c r="D94" t="n">
-        <v>0.259855</v>
+        <v>0.26211</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.349868</v>
+        <v>0.350186</v>
       </c>
       <c r="C95" t="n">
-        <v>0.215335</v>
+        <v>0.215676</v>
       </c>
       <c r="D95" t="n">
-        <v>0.258301</v>
+        <v>0.26053</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.344527</v>
+        <v>0.344817</v>
       </c>
       <c r="C96" t="n">
-        <v>0.21423</v>
+        <v>0.214403</v>
       </c>
       <c r="D96" t="n">
-        <v>0.256855</v>
+        <v>0.259603</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.338518</v>
+        <v>0.338818</v>
       </c>
       <c r="C97" t="n">
-        <v>0.213338</v>
+        <v>0.213522</v>
       </c>
       <c r="D97" t="n">
-        <v>0.255282</v>
+        <v>0.258168</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.331965</v>
+        <v>0.332126</v>
       </c>
       <c r="C98" t="n">
-        <v>0.212904</v>
+        <v>0.213104</v>
       </c>
       <c r="D98" t="n">
-        <v>0.253903</v>
+        <v>0.256645</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.324277</v>
+        <v>0.324078</v>
       </c>
       <c r="C99" t="n">
-        <v>0.212385</v>
+        <v>0.212591</v>
       </c>
       <c r="D99" t="n">
-        <v>0.252564</v>
+        <v>0.255107</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.315702</v>
+        <v>0.31538</v>
       </c>
       <c r="C100" t="n">
-        <v>0.211875</v>
+        <v>0.212209</v>
       </c>
       <c r="D100" t="n">
-        <v>0.251462</v>
+        <v>0.254079</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.306211</v>
+        <v>0.306448</v>
       </c>
       <c r="C101" t="n">
-        <v>0.211021</v>
+        <v>0.211194</v>
       </c>
       <c r="D101" t="n">
-        <v>0.25009</v>
+        <v>0.252594</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.295514</v>
+        <v>0.295958</v>
       </c>
       <c r="C102" t="n">
-        <v>0.210423</v>
+        <v>0.210578</v>
       </c>
       <c r="D102" t="n">
-        <v>0.248898</v>
+        <v>0.251254</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.285055</v>
+        <v>0.285042</v>
       </c>
       <c r="C103" t="n">
-        <v>0.209552</v>
+        <v>0.209518</v>
       </c>
       <c r="D103" t="n">
-        <v>0.247839</v>
+        <v>0.250188</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.273369</v>
+        <v>0.273306</v>
       </c>
       <c r="C104" t="n">
-        <v>0.209011</v>
+        <v>0.209086</v>
       </c>
       <c r="D104" t="n">
-        <v>0.246864</v>
+        <v>0.249144</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.260824</v>
+        <v>0.260962</v>
       </c>
       <c r="C105" t="n">
-        <v>0.208116</v>
+        <v>0.208157</v>
       </c>
       <c r="D105" t="n">
-        <v>0.245621</v>
+        <v>0.247807</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.248116</v>
+        <v>0.247574</v>
       </c>
       <c r="C106" t="n">
-        <v>0.207557</v>
+        <v>0.207632</v>
       </c>
       <c r="D106" t="n">
-        <v>0.244449</v>
+        <v>0.246697</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.233803</v>
+        <v>0.233812</v>
       </c>
       <c r="C107" t="n">
-        <v>0.207263</v>
+        <v>0.207335</v>
       </c>
       <c r="D107" t="n">
-        <v>0.2436</v>
+        <v>0.245878</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.217355</v>
+        <v>0.217689</v>
       </c>
       <c r="C108" t="n">
-        <v>0.207277</v>
+        <v>0.207288</v>
       </c>
       <c r="D108" t="n">
-        <v>0.260439</v>
+        <v>0.262716</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.200469</v>
+        <v>0.200597</v>
       </c>
       <c r="C109" t="n">
-        <v>0.206876</v>
+        <v>0.207001</v>
       </c>
       <c r="D109" t="n">
-        <v>0.258768</v>
+        <v>0.261328</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.345565</v>
+        <v>0.345796</v>
       </c>
       <c r="C110" t="n">
-        <v>0.214495</v>
+        <v>0.214536</v>
       </c>
       <c r="D110" t="n">
-        <v>0.257292</v>
+        <v>0.2595</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.339786</v>
+        <v>0.339853</v>
       </c>
       <c r="C111" t="n">
-        <v>0.213569</v>
+        <v>0.213731</v>
       </c>
       <c r="D111" t="n">
-        <v>0.256203</v>
+        <v>0.258515</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.332566</v>
+        <v>0.333078</v>
       </c>
       <c r="C112" t="n">
-        <v>0.212999</v>
+        <v>0.212876</v>
       </c>
       <c r="D112" t="n">
-        <v>0.254897</v>
+        <v>0.257058</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.325491</v>
+        <v>0.325392</v>
       </c>
       <c r="C113" t="n">
-        <v>0.212476</v>
+        <v>0.212441</v>
       </c>
       <c r="D113" t="n">
-        <v>0.253451</v>
+        <v>0.25582</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.316906</v>
+        <v>0.317232</v>
       </c>
       <c r="C114" t="n">
-        <v>0.211896</v>
+        <v>0.211865</v>
       </c>
       <c r="D114" t="n">
-        <v>0.252106</v>
+        <v>0.254385</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.307719</v>
+        <v>0.307896</v>
       </c>
       <c r="C115" t="n">
-        <v>0.210866</v>
+        <v>0.21094</v>
       </c>
       <c r="D115" t="n">
-        <v>0.250775</v>
+        <v>0.253012</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.297875</v>
+        <v>0.298173</v>
       </c>
       <c r="C116" t="n">
-        <v>0.21044</v>
+        <v>0.210337</v>
       </c>
       <c r="D116" t="n">
-        <v>0.24976</v>
+        <v>0.251892</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.287301</v>
+        <v>0.28756</v>
       </c>
       <c r="C117" t="n">
-        <v>0.209635</v>
+        <v>0.209683</v>
       </c>
       <c r="D117" t="n">
-        <v>0.248571</v>
+        <v>0.250691</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.275795</v>
+        <v>0.275983</v>
       </c>
       <c r="C118" t="n">
-        <v>0.209031</v>
+        <v>0.208977</v>
       </c>
       <c r="D118" t="n">
-        <v>0.247447</v>
+        <v>0.24936</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.263544</v>
+        <v>0.263708</v>
       </c>
       <c r="C119" t="n">
-        <v>0.208416</v>
+        <v>0.208375</v>
       </c>
       <c r="D119" t="n">
-        <v>0.246153</v>
+        <v>0.248171</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.250382</v>
+        <v>0.250326</v>
       </c>
       <c r="C120" t="n">
-        <v>0.207743</v>
+        <v>0.207842</v>
       </c>
       <c r="D120" t="n">
-        <v>0.245275</v>
+        <v>0.247254</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.236049</v>
+        <v>0.236174</v>
       </c>
       <c r="C121" t="n">
-        <v>0.207404</v>
+        <v>0.207487</v>
       </c>
       <c r="D121" t="n">
-        <v>0.24425</v>
+        <v>0.246255</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.220777</v>
+        <v>0.220909</v>
       </c>
       <c r="C122" t="n">
-        <v>0.207209</v>
+        <v>0.207211</v>
       </c>
       <c r="D122" t="n">
-        <v>0.243296</v>
+        <v>0.245373</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.204022</v>
+        <v>0.204024</v>
       </c>
       <c r="C123" t="n">
-        <v>0.206988</v>
+        <v>0.206941</v>
       </c>
       <c r="D123" t="n">
-        <v>0.260066</v>
+        <v>0.262244</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.346736</v>
+        <v>0.347022</v>
       </c>
       <c r="C124" t="n">
-        <v>0.21507</v>
+        <v>0.215323</v>
       </c>
       <c r="D124" t="n">
-        <v>0.258683</v>
+        <v>0.260462</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.340966</v>
+        <v>0.341434</v>
       </c>
       <c r="C125" t="n">
-        <v>0.214161</v>
+        <v>0.214589</v>
       </c>
       <c r="D125" t="n">
-        <v>0.257013</v>
+        <v>0.259131</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.334283</v>
+        <v>0.334606</v>
       </c>
       <c r="C126" t="n">
-        <v>0.21351</v>
+        <v>0.213909</v>
       </c>
       <c r="D126" t="n">
-        <v>0.255383</v>
+        <v>0.257271</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.327036</v>
+        <v>0.327292</v>
       </c>
       <c r="C127" t="n">
-        <v>0.212967</v>
+        <v>0.213209</v>
       </c>
       <c r="D127" t="n">
-        <v>0.253954</v>
+        <v>0.256086</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.318686</v>
+        <v>0.318962</v>
       </c>
       <c r="C128" t="n">
-        <v>0.212221</v>
+        <v>0.212272</v>
       </c>
       <c r="D128" t="n">
-        <v>0.252597</v>
+        <v>0.254632</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.309642</v>
+        <v>0.309997</v>
       </c>
       <c r="C129" t="n">
-        <v>0.211696</v>
+        <v>0.211725</v>
       </c>
       <c r="D129" t="n">
-        <v>0.251188</v>
+        <v>0.253217</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.300417</v>
+        <v>0.30025</v>
       </c>
       <c r="C130" t="n">
-        <v>0.210637</v>
+        <v>0.210565</v>
       </c>
       <c r="D130" t="n">
-        <v>0.250094</v>
+        <v>0.252199</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.289725</v>
+        <v>0.289694</v>
       </c>
       <c r="C131" t="n">
-        <v>0.210117</v>
+        <v>0.209969</v>
       </c>
       <c r="D131" t="n">
-        <v>0.248765</v>
+        <v>0.250859</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.278701</v>
+        <v>0.278494</v>
       </c>
       <c r="C132" t="n">
-        <v>0.209262</v>
+        <v>0.209354</v>
       </c>
       <c r="D132" t="n">
-        <v>0.247831</v>
+        <v>0.249672</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.266495</v>
+        <v>0.266589</v>
       </c>
       <c r="C133" t="n">
-        <v>0.208791</v>
+        <v>0.208782</v>
       </c>
       <c r="D133" t="n">
-        <v>0.246731</v>
+        <v>0.248781</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.25368</v>
+        <v>0.253643</v>
       </c>
       <c r="C134" t="n">
-        <v>0.208231</v>
+        <v>0.208247</v>
       </c>
       <c r="D134" t="n">
-        <v>0.245647</v>
+        <v>0.247503</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.23963</v>
+        <v>0.239526</v>
       </c>
       <c r="C135" t="n">
-        <v>0.207764</v>
+        <v>0.20774</v>
       </c>
       <c r="D135" t="n">
-        <v>0.244618</v>
+        <v>0.246419</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.224375</v>
+        <v>0.224555</v>
       </c>
       <c r="C136" t="n">
-        <v>0.207399</v>
+        <v>0.207363</v>
       </c>
       <c r="D136" t="n">
-        <v>0.243595</v>
+        <v>0.245456</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.207914</v>
+        <v>0.207926</v>
       </c>
       <c r="C137" t="n">
-        <v>0.207092</v>
+        <v>0.207041</v>
       </c>
       <c r="D137" t="n">
-        <v>0.260436</v>
+        <v>0.262498</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.348087</v>
+        <v>0.348218</v>
       </c>
       <c r="C138" t="n">
-        <v>0.215364</v>
+        <v>0.215218</v>
       </c>
       <c r="D138" t="n">
-        <v>0.258862</v>
+        <v>0.261052</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.342384</v>
+        <v>0.342454</v>
       </c>
       <c r="C139" t="n">
-        <v>0.21438</v>
+        <v>0.214348</v>
       </c>
       <c r="D139" t="n">
-        <v>0.257103</v>
+        <v>0.259206</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.335924</v>
+        <v>0.336039</v>
       </c>
       <c r="C140" t="n">
-        <v>0.213668</v>
+        <v>0.213651</v>
       </c>
       <c r="D140" t="n">
-        <v>0.255681</v>
+        <v>0.257477</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.328854</v>
+        <v>0.328773</v>
       </c>
       <c r="C141" t="n">
-        <v>0.213116</v>
+        <v>0.213125</v>
       </c>
       <c r="D141" t="n">
-        <v>0.25426</v>
+        <v>0.256296</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.320808</v>
+        <v>0.320623</v>
       </c>
       <c r="C142" t="n">
-        <v>0.212642</v>
+        <v>0.212371</v>
       </c>
       <c r="D142" t="n">
-        <v>0.252872</v>
+        <v>0.25492</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.311904</v>
+        <v>0.31178</v>
       </c>
       <c r="C143" t="n">
-        <v>0.211779</v>
+        <v>0.21168</v>
       </c>
       <c r="D143" t="n">
-        <v>0.251671</v>
+        <v>0.253407</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.269972</v>
+        <v>0.272969</v>
       </c>
       <c r="C2" t="n">
-        <v>0.186731</v>
+        <v>0.183979</v>
       </c>
       <c r="D2" t="n">
-        <v>0.225687</v>
+        <v>0.224692</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.259463</v>
+        <v>0.262876</v>
       </c>
       <c r="C3" t="n">
-        <v>0.186342</v>
+        <v>0.185791</v>
       </c>
       <c r="D3" t="n">
-        <v>0.22616</v>
+        <v>0.224171</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.251448</v>
+        <v>0.251998</v>
       </c>
       <c r="C4" t="n">
-        <v>0.188483</v>
+        <v>0.187365</v>
       </c>
       <c r="D4" t="n">
-        <v>0.22878</v>
+        <v>0.226119</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.240711</v>
+        <v>0.241912</v>
       </c>
       <c r="C5" t="n">
-        <v>0.189943</v>
+        <v>0.18877</v>
       </c>
       <c r="D5" t="n">
-        <v>0.230675</v>
+        <v>0.227413</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.230034</v>
+        <v>0.230642</v>
       </c>
       <c r="C6" t="n">
-        <v>0.190075</v>
+        <v>0.187982</v>
       </c>
       <c r="D6" t="n">
-        <v>0.229335</v>
+        <v>0.226251</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.21721</v>
+        <v>0.216372</v>
       </c>
       <c r="C7" t="n">
-        <v>0.191229</v>
+        <v>0.189633</v>
       </c>
       <c r="D7" t="n">
-        <v>0.230461</v>
+        <v>0.227158</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.202536</v>
+        <v>0.203423</v>
       </c>
       <c r="C8" t="n">
-        <v>0.191751</v>
+        <v>0.189714</v>
       </c>
       <c r="D8" t="n">
-        <v>0.229799</v>
+        <v>0.226177</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.187695</v>
+        <v>0.18922</v>
       </c>
       <c r="C9" t="n">
-        <v>0.193834</v>
+        <v>0.189959</v>
       </c>
       <c r="D9" t="n">
-        <v>0.251771</v>
+        <v>0.250303</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.328075</v>
+        <v>0.328844</v>
       </c>
       <c r="C10" t="n">
-        <v>0.206843</v>
+        <v>0.20484</v>
       </c>
       <c r="D10" t="n">
-        <v>0.250225</v>
+        <v>0.248257</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.323077</v>
+        <v>0.323613</v>
       </c>
       <c r="C11" t="n">
-        <v>0.206677</v>
+        <v>0.204593</v>
       </c>
       <c r="D11" t="n">
-        <v>0.249226</v>
+        <v>0.247691</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.318081</v>
+        <v>0.318717</v>
       </c>
       <c r="C12" t="n">
-        <v>0.207121</v>
+        <v>0.204469</v>
       </c>
       <c r="D12" t="n">
-        <v>0.24996</v>
+        <v>0.247721</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.31199</v>
+        <v>0.312441</v>
       </c>
       <c r="C13" t="n">
-        <v>0.206608</v>
+        <v>0.204173</v>
       </c>
       <c r="D13" t="n">
-        <v>0.250005</v>
+        <v>0.247136</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.304712</v>
+        <v>0.304741</v>
       </c>
       <c r="C14" t="n">
-        <v>0.205248</v>
+        <v>0.202999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.247894</v>
+        <v>0.246391</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.297225</v>
+        <v>0.297221</v>
       </c>
       <c r="C15" t="n">
-        <v>0.205379</v>
+        <v>0.203122</v>
       </c>
       <c r="D15" t="n">
-        <v>0.247092</v>
+        <v>0.245297</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.287523</v>
+        <v>0.289178</v>
       </c>
       <c r="C16" t="n">
-        <v>0.205841</v>
+        <v>0.20285</v>
       </c>
       <c r="D16" t="n">
-        <v>0.245943</v>
+        <v>0.243778</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.277805</v>
+        <v>0.278436</v>
       </c>
       <c r="C17" t="n">
-        <v>0.204757</v>
+        <v>0.202763</v>
       </c>
       <c r="D17" t="n">
-        <v>0.24711</v>
+        <v>0.243336</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.268018</v>
+        <v>0.268158</v>
       </c>
       <c r="C18" t="n">
-        <v>0.204196</v>
+        <v>0.201442</v>
       </c>
       <c r="D18" t="n">
-        <v>0.245404</v>
+        <v>0.24286</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.25715</v>
+        <v>0.257816</v>
       </c>
       <c r="C19" t="n">
-        <v>0.202903</v>
+        <v>0.200497</v>
       </c>
       <c r="D19" t="n">
-        <v>0.244047</v>
+        <v>0.243038</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.245274</v>
+        <v>0.24557</v>
       </c>
       <c r="C20" t="n">
-        <v>0.204067</v>
+        <v>0.201119</v>
       </c>
       <c r="D20" t="n">
-        <v>0.243365</v>
+        <v>0.241716</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.232367</v>
+        <v>0.232446</v>
       </c>
       <c r="C21" t="n">
-        <v>0.202862</v>
+        <v>0.200587</v>
       </c>
       <c r="D21" t="n">
-        <v>0.242758</v>
+        <v>0.240631</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.217773</v>
+        <v>0.217018</v>
       </c>
       <c r="C22" t="n">
-        <v>0.203767</v>
+        <v>0.200316</v>
       </c>
       <c r="D22" t="n">
-        <v>0.242546</v>
+        <v>0.240304</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.20222</v>
+        <v>0.200587</v>
       </c>
       <c r="C23" t="n">
-        <v>0.202172</v>
+        <v>0.198732</v>
       </c>
       <c r="D23" t="n">
-        <v>0.257772</v>
+        <v>0.255618</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.340689</v>
+        <v>0.340554</v>
       </c>
       <c r="C24" t="n">
-        <v>0.212721</v>
+        <v>0.210654</v>
       </c>
       <c r="D24" t="n">
-        <v>0.261177</v>
+        <v>0.256382</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.335062</v>
+        <v>0.335095</v>
       </c>
       <c r="C25" t="n">
-        <v>0.213038</v>
+        <v>0.209811</v>
       </c>
       <c r="D25" t="n">
-        <v>0.254876</v>
+        <v>0.253169</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.328085</v>
+        <v>0.328659</v>
       </c>
       <c r="C26" t="n">
-        <v>0.210461</v>
+        <v>0.208134</v>
       </c>
       <c r="D26" t="n">
-        <v>0.25242</v>
+        <v>0.25099</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.321824</v>
+        <v>0.323476</v>
       </c>
       <c r="C27" t="n">
-        <v>0.209167</v>
+        <v>0.207906</v>
       </c>
       <c r="D27" t="n">
-        <v>0.251287</v>
+        <v>0.255027</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.314325</v>
+        <v>0.315601</v>
       </c>
       <c r="C28" t="n">
-        <v>0.208538</v>
+        <v>0.206702</v>
       </c>
       <c r="D28" t="n">
-        <v>0.250451</v>
+        <v>0.249046</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.306028</v>
+        <v>0.307781</v>
       </c>
       <c r="C29" t="n">
-        <v>0.207395</v>
+        <v>0.204795</v>
       </c>
       <c r="D29" t="n">
-        <v>0.249548</v>
+        <v>0.247137</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.296485</v>
+        <v>0.298863</v>
       </c>
       <c r="C30" t="n">
-        <v>0.206764</v>
+        <v>0.203626</v>
       </c>
       <c r="D30" t="n">
-        <v>0.247814</v>
+        <v>0.245656</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.288449</v>
+        <v>0.28948</v>
       </c>
       <c r="C31" t="n">
-        <v>0.205847</v>
+        <v>0.203145</v>
       </c>
       <c r="D31" t="n">
-        <v>0.251818</v>
+        <v>0.245661</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.277817</v>
+        <v>0.2795</v>
       </c>
       <c r="C32" t="n">
-        <v>0.206119</v>
+        <v>0.20354</v>
       </c>
       <c r="D32" t="n">
-        <v>0.246715</v>
+        <v>0.245389</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.266392</v>
+        <v>0.26784</v>
       </c>
       <c r="C33" t="n">
-        <v>0.205634</v>
+        <v>0.202916</v>
       </c>
       <c r="D33" t="n">
-        <v>0.245865</v>
+        <v>0.245107</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.254601</v>
+        <v>0.256035</v>
       </c>
       <c r="C34" t="n">
-        <v>0.204877</v>
+        <v>0.202094</v>
       </c>
       <c r="D34" t="n">
-        <v>0.248408</v>
+        <v>0.243304</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.242197</v>
+        <v>0.243407</v>
       </c>
       <c r="C35" t="n">
-        <v>0.204951</v>
+        <v>0.201933</v>
       </c>
       <c r="D35" t="n">
-        <v>0.244601</v>
+        <v>0.242671</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.228278</v>
+        <v>0.228478</v>
       </c>
       <c r="C36" t="n">
-        <v>0.204634</v>
+        <v>0.201389</v>
       </c>
       <c r="D36" t="n">
-        <v>0.243875</v>
+        <v>0.242095</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.212286</v>
+        <v>0.213847</v>
       </c>
       <c r="C37" t="n">
-        <v>0.204613</v>
+        <v>0.201008</v>
       </c>
       <c r="D37" t="n">
-        <v>0.261192</v>
+        <v>0.259333</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.346783</v>
+        <v>0.346606</v>
       </c>
       <c r="C38" t="n">
-        <v>0.213517</v>
+        <v>0.211665</v>
       </c>
       <c r="D38" t="n">
-        <v>0.260409</v>
+        <v>0.259132</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.341492</v>
+        <v>0.341638</v>
       </c>
       <c r="C39" t="n">
-        <v>0.211883</v>
+        <v>0.209957</v>
       </c>
       <c r="D39" t="n">
-        <v>0.257966</v>
+        <v>0.255013</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.335302</v>
+        <v>0.335534</v>
       </c>
       <c r="C40" t="n">
-        <v>0.211169</v>
+        <v>0.209462</v>
       </c>
       <c r="D40" t="n">
-        <v>0.256651</v>
+        <v>0.255664</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.328786</v>
+        <v>0.328703</v>
       </c>
       <c r="C41" t="n">
-        <v>0.209981</v>
+        <v>0.208322</v>
       </c>
       <c r="D41" t="n">
-        <v>0.255398</v>
+        <v>0.252557</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.321224</v>
+        <v>0.322172</v>
       </c>
       <c r="C42" t="n">
-        <v>0.209025</v>
+        <v>0.206994</v>
       </c>
       <c r="D42" t="n">
-        <v>0.254746</v>
+        <v>0.252827</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.313193</v>
+        <v>0.313793</v>
       </c>
       <c r="C43" t="n">
-        <v>0.208025</v>
+        <v>0.205962</v>
       </c>
       <c r="D43" t="n">
-        <v>0.252468</v>
+        <v>0.249312</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.305171</v>
+        <v>0.305505</v>
       </c>
       <c r="C44" t="n">
-        <v>0.208084</v>
+        <v>0.205818</v>
       </c>
       <c r="D44" t="n">
-        <v>0.252836</v>
+        <v>0.250214</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.295777</v>
+        <v>0.296234</v>
       </c>
       <c r="C45" t="n">
-        <v>0.2075</v>
+        <v>0.20511</v>
       </c>
       <c r="D45" t="n">
-        <v>0.251419</v>
+        <v>0.24903</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.28515</v>
+        <v>0.28556</v>
       </c>
       <c r="C46" t="n">
-        <v>0.206005</v>
+        <v>0.203923</v>
       </c>
       <c r="D46" t="n">
-        <v>0.250421</v>
+        <v>0.247859</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.273969</v>
+        <v>0.274527</v>
       </c>
       <c r="C47" t="n">
-        <v>0.208807</v>
+        <v>0.206762</v>
       </c>
       <c r="D47" t="n">
-        <v>0.247706</v>
+        <v>0.245458</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.262165</v>
+        <v>0.2633</v>
       </c>
       <c r="C48" t="n">
-        <v>0.208472</v>
+        <v>0.205295</v>
       </c>
       <c r="D48" t="n">
-        <v>0.246794</v>
+        <v>0.24446</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.248218</v>
+        <v>0.249449</v>
       </c>
       <c r="C49" t="n">
-        <v>0.205182</v>
+        <v>0.202588</v>
       </c>
       <c r="D49" t="n">
-        <v>0.245798</v>
+        <v>0.244332</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.233959</v>
+        <v>0.234907</v>
       </c>
       <c r="C50" t="n">
-        <v>0.206042</v>
+        <v>0.204803</v>
       </c>
       <c r="D50" t="n">
-        <v>0.245071</v>
+        <v>0.24319</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.219395</v>
+        <v>0.219984</v>
       </c>
       <c r="C51" t="n">
-        <v>0.207606</v>
+        <v>0.204615</v>
       </c>
       <c r="D51" t="n">
-        <v>0.263962</v>
+        <v>0.261823</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.20211</v>
+        <v>0.203241</v>
       </c>
       <c r="C52" t="n">
-        <v>0.206709</v>
+        <v>0.203218</v>
       </c>
       <c r="D52" t="n">
-        <v>0.262876</v>
+        <v>0.260094</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.345232</v>
+        <v>0.346005</v>
       </c>
       <c r="C53" t="n">
-        <v>0.214038</v>
+        <v>0.212186</v>
       </c>
       <c r="D53" t="n">
-        <v>0.261071</v>
+        <v>0.258758</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.339007</v>
+        <v>0.339818</v>
       </c>
       <c r="C54" t="n">
-        <v>0.213603</v>
+        <v>0.211897</v>
       </c>
       <c r="D54" t="n">
-        <v>0.259347</v>
+        <v>0.257021</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.33299</v>
+        <v>0.333231</v>
       </c>
       <c r="C55" t="n">
-        <v>0.212745</v>
+        <v>0.211378</v>
       </c>
       <c r="D55" t="n">
-        <v>0.256742</v>
+        <v>0.255584</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.32558</v>
+        <v>0.32588</v>
       </c>
       <c r="C56" t="n">
-        <v>0.212177</v>
+        <v>0.210736</v>
       </c>
       <c r="D56" t="n">
-        <v>0.256451</v>
+        <v>0.254169</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.316933</v>
+        <v>0.317721</v>
       </c>
       <c r="C57" t="n">
-        <v>0.211464</v>
+        <v>0.208877</v>
       </c>
       <c r="D57" t="n">
-        <v>0.254561</v>
+        <v>0.252867</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.307808</v>
+        <v>0.308105</v>
       </c>
       <c r="C58" t="n">
-        <v>0.210396</v>
+        <v>0.208596</v>
       </c>
       <c r="D58" t="n">
-        <v>0.253771</v>
+        <v>0.251142</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.298454</v>
+        <v>0.29887</v>
       </c>
       <c r="C59" t="n">
-        <v>0.209584</v>
+        <v>0.207607</v>
       </c>
       <c r="D59" t="n">
-        <v>0.252123</v>
+        <v>0.249713</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.28806</v>
+        <v>0.288536</v>
       </c>
       <c r="C60" t="n">
-        <v>0.208481</v>
+        <v>0.206313</v>
       </c>
       <c r="D60" t="n">
-        <v>0.250901</v>
+        <v>0.24869</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.276825</v>
+        <v>0.277523</v>
       </c>
       <c r="C61" t="n">
-        <v>0.208475</v>
+        <v>0.205954</v>
       </c>
       <c r="D61" t="n">
-        <v>0.250064</v>
+        <v>0.247522</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.264813</v>
+        <v>0.265616</v>
       </c>
       <c r="C62" t="n">
-        <v>0.209506</v>
+        <v>0.206955</v>
       </c>
       <c r="D62" t="n">
-        <v>0.248967</v>
+        <v>0.246498</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.252069</v>
+        <v>0.25285</v>
       </c>
       <c r="C63" t="n">
-        <v>0.208811</v>
+        <v>0.206526</v>
       </c>
       <c r="D63" t="n">
-        <v>0.247694</v>
+        <v>0.245276</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.23831</v>
+        <v>0.239148</v>
       </c>
       <c r="C64" t="n">
-        <v>0.208355</v>
+        <v>0.205765</v>
       </c>
       <c r="D64" t="n">
-        <v>0.246552</v>
+        <v>0.244085</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.223385</v>
+        <v>0.223982</v>
       </c>
       <c r="C65" t="n">
-        <v>0.207203</v>
+        <v>0.204263</v>
       </c>
       <c r="D65" t="n">
-        <v>0.245557</v>
+        <v>0.243192</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.206412</v>
+        <v>0.207582</v>
       </c>
       <c r="C66" t="n">
-        <v>0.206574</v>
+        <v>0.203361</v>
       </c>
       <c r="D66" t="n">
-        <v>0.260423</v>
+        <v>0.257648</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.347368</v>
+        <v>0.347846</v>
       </c>
       <c r="C67" t="n">
-        <v>0.214481</v>
+        <v>0.212433</v>
       </c>
       <c r="D67" t="n">
-        <v>0.259147</v>
+        <v>0.256083</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.34145</v>
+        <v>0.341945</v>
       </c>
       <c r="C68" t="n">
-        <v>0.213865</v>
+        <v>0.212303</v>
       </c>
       <c r="D68" t="n">
-        <v>0.257708</v>
+        <v>0.254497</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.334728</v>
+        <v>0.335364</v>
       </c>
       <c r="C69" t="n">
-        <v>0.213398</v>
+        <v>0.211543</v>
       </c>
       <c r="D69" t="n">
-        <v>0.256532</v>
+        <v>0.253159</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.327114</v>
+        <v>0.327864</v>
       </c>
       <c r="C70" t="n">
-        <v>0.213201</v>
+        <v>0.210994</v>
       </c>
       <c r="D70" t="n">
-        <v>0.255378</v>
+        <v>0.252962</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.319444</v>
+        <v>0.320122</v>
       </c>
       <c r="C71" t="n">
-        <v>0.211855</v>
+        <v>0.209526</v>
       </c>
       <c r="D71" t="n">
-        <v>0.254894</v>
+        <v>0.252675</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.310494</v>
+        <v>0.311429</v>
       </c>
       <c r="C72" t="n">
-        <v>0.211425</v>
+        <v>0.209611</v>
       </c>
       <c r="D72" t="n">
-        <v>0.253755</v>
+        <v>0.251565</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.301045</v>
+        <v>0.301939</v>
       </c>
       <c r="C73" t="n">
-        <v>0.210687</v>
+        <v>0.20939</v>
       </c>
       <c r="D73" t="n">
-        <v>0.252613</v>
+        <v>0.250353</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.290833</v>
+        <v>0.291643</v>
       </c>
       <c r="C74" t="n">
-        <v>0.210144</v>
+        <v>0.208402</v>
       </c>
       <c r="D74" t="n">
-        <v>0.251041</v>
+        <v>0.248846</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.280433</v>
+        <v>0.281602</v>
       </c>
       <c r="C75" t="n">
-        <v>0.209571</v>
+        <v>0.207519</v>
       </c>
       <c r="D75" t="n">
-        <v>0.249924</v>
+        <v>0.248044</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.268578</v>
+        <v>0.270181</v>
       </c>
       <c r="C76" t="n">
-        <v>0.208545</v>
+        <v>0.206654</v>
       </c>
       <c r="D76" t="n">
-        <v>0.248973</v>
+        <v>0.246644</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.25542</v>
+        <v>0.25719</v>
       </c>
       <c r="C77" t="n">
-        <v>0.208554</v>
+        <v>0.206315</v>
       </c>
       <c r="D77" t="n">
-        <v>0.247714</v>
+        <v>0.245445</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.241639</v>
+        <v>0.243109</v>
       </c>
       <c r="C78" t="n">
-        <v>0.207605</v>
+        <v>0.204754</v>
       </c>
       <c r="D78" t="n">
-        <v>0.247174</v>
+        <v>0.244803</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.226804</v>
+        <v>0.228503</v>
       </c>
       <c r="C79" t="n">
-        <v>0.207849</v>
+        <v>0.204931</v>
       </c>
       <c r="D79" t="n">
-        <v>0.246157</v>
+        <v>0.243733</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.210567</v>
+        <v>0.212353</v>
       </c>
       <c r="C80" t="n">
-        <v>0.207606</v>
+        <v>0.204023</v>
       </c>
       <c r="D80" t="n">
-        <v>0.262948</v>
+        <v>0.260973</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.348878</v>
+        <v>0.349232</v>
       </c>
       <c r="C81" t="n">
-        <v>0.21584</v>
+        <v>0.213764</v>
       </c>
       <c r="D81" t="n">
-        <v>0.261791</v>
+        <v>0.259354</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.34326</v>
+        <v>0.343522</v>
       </c>
       <c r="C82" t="n">
-        <v>0.214773</v>
+        <v>0.213081</v>
       </c>
       <c r="D82" t="n">
-        <v>0.260035</v>
+        <v>0.25756</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.336907</v>
+        <v>0.337401</v>
       </c>
       <c r="C83" t="n">
-        <v>0.214033</v>
+        <v>0.212197</v>
       </c>
       <c r="D83" t="n">
-        <v>0.25879</v>
+        <v>0.256181</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.329787</v>
+        <v>0.33032</v>
       </c>
       <c r="C84" t="n">
-        <v>0.212796</v>
+        <v>0.211085</v>
       </c>
       <c r="D84" t="n">
-        <v>0.257083</v>
+        <v>0.254467</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.321803</v>
+        <v>0.322425</v>
       </c>
       <c r="C85" t="n">
-        <v>0.212323</v>
+        <v>0.210664</v>
       </c>
       <c r="D85" t="n">
-        <v>0.2558</v>
+        <v>0.253263</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.313102</v>
+        <v>0.314173</v>
       </c>
       <c r="C86" t="n">
-        <v>0.211482</v>
+        <v>0.210094</v>
       </c>
       <c r="D86" t="n">
-        <v>0.254183</v>
+        <v>0.251387</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.303907</v>
+        <v>0.305199</v>
       </c>
       <c r="C87" t="n">
-        <v>0.211209</v>
+        <v>0.209925</v>
       </c>
       <c r="D87" t="n">
-        <v>0.252775</v>
+        <v>0.250239</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.293625</v>
+        <v>0.295417</v>
       </c>
       <c r="C88" t="n">
-        <v>0.210333</v>
+        <v>0.208584</v>
       </c>
       <c r="D88" t="n">
-        <v>0.251802</v>
+        <v>0.249314</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.282946</v>
+        <v>0.284496</v>
       </c>
       <c r="C89" t="n">
-        <v>0.209848</v>
+        <v>0.207992</v>
       </c>
       <c r="D89" t="n">
-        <v>0.250863</v>
+        <v>0.248169</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.271346</v>
+        <v>0.273084</v>
       </c>
       <c r="C90" t="n">
-        <v>0.208823</v>
+        <v>0.207271</v>
       </c>
       <c r="D90" t="n">
-        <v>0.249778</v>
+        <v>0.247369</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.25853</v>
+        <v>0.260518</v>
       </c>
       <c r="C91" t="n">
-        <v>0.208323</v>
+        <v>0.206088</v>
       </c>
       <c r="D91" t="n">
-        <v>0.24854</v>
+        <v>0.246111</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.244842</v>
+        <v>0.246761</v>
       </c>
       <c r="C92" t="n">
-        <v>0.208014</v>
+        <v>0.205459</v>
       </c>
       <c r="D92" t="n">
-        <v>0.247379</v>
+        <v>0.244879</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.22984</v>
+        <v>0.232059</v>
       </c>
       <c r="C93" t="n">
-        <v>0.207602</v>
+        <v>0.204752</v>
       </c>
       <c r="D93" t="n">
-        <v>0.246179</v>
+        <v>0.243716</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.213919</v>
+        <v>0.216054</v>
       </c>
       <c r="C94" t="n">
-        <v>0.207427</v>
+        <v>0.204145</v>
       </c>
       <c r="D94" t="n">
-        <v>0.26211</v>
+        <v>0.259662</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.350186</v>
+        <v>0.350644</v>
       </c>
       <c r="C95" t="n">
-        <v>0.215676</v>
+        <v>0.213417</v>
       </c>
       <c r="D95" t="n">
-        <v>0.26053</v>
+        <v>0.258333</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.344817</v>
+        <v>0.345216</v>
       </c>
       <c r="C96" t="n">
-        <v>0.214403</v>
+        <v>0.212326</v>
       </c>
       <c r="D96" t="n">
-        <v>0.259603</v>
+        <v>0.257073</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.338818</v>
+        <v>0.339638</v>
       </c>
       <c r="C97" t="n">
-        <v>0.213522</v>
+        <v>0.211737</v>
       </c>
       <c r="D97" t="n">
-        <v>0.258168</v>
+        <v>0.255408</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.332126</v>
+        <v>0.332654</v>
       </c>
       <c r="C98" t="n">
-        <v>0.213104</v>
+        <v>0.211538</v>
       </c>
       <c r="D98" t="n">
-        <v>0.256645</v>
+        <v>0.254168</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.324078</v>
+        <v>0.325567</v>
       </c>
       <c r="C99" t="n">
-        <v>0.212591</v>
+        <v>0.211181</v>
       </c>
       <c r="D99" t="n">
-        <v>0.255107</v>
+        <v>0.252684</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.31538</v>
+        <v>0.317041</v>
       </c>
       <c r="C100" t="n">
-        <v>0.212209</v>
+        <v>0.210364</v>
       </c>
       <c r="D100" t="n">
-        <v>0.254079</v>
+        <v>0.251627</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.306448</v>
+        <v>0.307623</v>
       </c>
       <c r="C101" t="n">
-        <v>0.211194</v>
+        <v>0.209881</v>
       </c>
       <c r="D101" t="n">
-        <v>0.252594</v>
+        <v>0.250051</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.295958</v>
+        <v>0.297492</v>
       </c>
       <c r="C102" t="n">
-        <v>0.210578</v>
+        <v>0.209232</v>
       </c>
       <c r="D102" t="n">
-        <v>0.251254</v>
+        <v>0.248943</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.285042</v>
+        <v>0.287701</v>
       </c>
       <c r="C103" t="n">
-        <v>0.209518</v>
+        <v>0.208027</v>
       </c>
       <c r="D103" t="n">
-        <v>0.250188</v>
+        <v>0.247783</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.273306</v>
+        <v>0.27593</v>
       </c>
       <c r="C104" t="n">
-        <v>0.209086</v>
+        <v>0.20687</v>
       </c>
       <c r="D104" t="n">
-        <v>0.249144</v>
+        <v>0.246812</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.260962</v>
+        <v>0.263161</v>
       </c>
       <c r="C105" t="n">
-        <v>0.208157</v>
+        <v>0.206296</v>
       </c>
       <c r="D105" t="n">
-        <v>0.247807</v>
+        <v>0.245426</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.247574</v>
+        <v>0.249136</v>
       </c>
       <c r="C106" t="n">
-        <v>0.207632</v>
+        <v>0.205191</v>
       </c>
       <c r="D106" t="n">
-        <v>0.246697</v>
+        <v>0.244491</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.233812</v>
+        <v>0.235255</v>
       </c>
       <c r="C107" t="n">
-        <v>0.207335</v>
+        <v>0.204685</v>
       </c>
       <c r="D107" t="n">
-        <v>0.245878</v>
+        <v>0.243634</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.217689</v>
+        <v>0.21967</v>
       </c>
       <c r="C108" t="n">
-        <v>0.207288</v>
+        <v>0.204016</v>
       </c>
       <c r="D108" t="n">
-        <v>0.262716</v>
+        <v>0.260608</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.200597</v>
+        <v>0.202792</v>
       </c>
       <c r="C109" t="n">
-        <v>0.207001</v>
+        <v>0.203182</v>
       </c>
       <c r="D109" t="n">
-        <v>0.261328</v>
+        <v>0.259079</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.345796</v>
+        <v>0.346189</v>
       </c>
       <c r="C110" t="n">
-        <v>0.214536</v>
+        <v>0.21298</v>
       </c>
       <c r="D110" t="n">
-        <v>0.2595</v>
+        <v>0.257178</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.339853</v>
+        <v>0.3406</v>
       </c>
       <c r="C111" t="n">
-        <v>0.213731</v>
+        <v>0.212236</v>
       </c>
       <c r="D111" t="n">
-        <v>0.258515</v>
+        <v>0.255908</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.333078</v>
+        <v>0.334087</v>
       </c>
       <c r="C112" t="n">
-        <v>0.212876</v>
+        <v>0.211683</v>
       </c>
       <c r="D112" t="n">
-        <v>0.257058</v>
+        <v>0.25472</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.325392</v>
+        <v>0.32696</v>
       </c>
       <c r="C113" t="n">
-        <v>0.212441</v>
+        <v>0.210815</v>
       </c>
       <c r="D113" t="n">
-        <v>0.25582</v>
+        <v>0.2532</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.317232</v>
+        <v>0.31863</v>
       </c>
       <c r="C114" t="n">
-        <v>0.211865</v>
+        <v>0.210452</v>
       </c>
       <c r="D114" t="n">
-        <v>0.254385</v>
+        <v>0.252043</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.307896</v>
+        <v>0.309552</v>
       </c>
       <c r="C115" t="n">
-        <v>0.21094</v>
+        <v>0.209446</v>
       </c>
       <c r="D115" t="n">
-        <v>0.253012</v>
+        <v>0.250708</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.298173</v>
+        <v>0.300424</v>
       </c>
       <c r="C116" t="n">
-        <v>0.210337</v>
+        <v>0.208822</v>
       </c>
       <c r="D116" t="n">
-        <v>0.251892</v>
+        <v>0.24948</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.28756</v>
+        <v>0.289845</v>
       </c>
       <c r="C117" t="n">
-        <v>0.209683</v>
+        <v>0.207851</v>
       </c>
       <c r="D117" t="n">
-        <v>0.250691</v>
+        <v>0.248296</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.275983</v>
+        <v>0.278479</v>
       </c>
       <c r="C118" t="n">
-        <v>0.208977</v>
+        <v>0.207229</v>
       </c>
       <c r="D118" t="n">
-        <v>0.24936</v>
+        <v>0.247245</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.263708</v>
+        <v>0.266209</v>
       </c>
       <c r="C119" t="n">
-        <v>0.208375</v>
+        <v>0.206503</v>
       </c>
       <c r="D119" t="n">
-        <v>0.248171</v>
+        <v>0.24588</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.250326</v>
+        <v>0.25305</v>
       </c>
       <c r="C120" t="n">
-        <v>0.207842</v>
+        <v>0.205743</v>
       </c>
       <c r="D120" t="n">
-        <v>0.247254</v>
+        <v>0.244869</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.236174</v>
+        <v>0.238752</v>
       </c>
       <c r="C121" t="n">
-        <v>0.207487</v>
+        <v>0.204734</v>
       </c>
       <c r="D121" t="n">
-        <v>0.246255</v>
+        <v>0.243906</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.220909</v>
+        <v>0.223301</v>
       </c>
       <c r="C122" t="n">
-        <v>0.207211</v>
+        <v>0.204052</v>
       </c>
       <c r="D122" t="n">
-        <v>0.245373</v>
+        <v>0.243085</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.204024</v>
+        <v>0.20596</v>
       </c>
       <c r="C123" t="n">
-        <v>0.206941</v>
+        <v>0.203556</v>
       </c>
       <c r="D123" t="n">
-        <v>0.262244</v>
+        <v>0.259618</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.347022</v>
+        <v>0.347664</v>
       </c>
       <c r="C124" t="n">
-        <v>0.215323</v>
+        <v>0.213393</v>
       </c>
       <c r="D124" t="n">
-        <v>0.260462</v>
+        <v>0.257833</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.341434</v>
+        <v>0.342005</v>
       </c>
       <c r="C125" t="n">
-        <v>0.214589</v>
+        <v>0.212793</v>
       </c>
       <c r="D125" t="n">
-        <v>0.259131</v>
+        <v>0.256486</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.334606</v>
+        <v>0.336001</v>
       </c>
       <c r="C126" t="n">
-        <v>0.213909</v>
+        <v>0.212165</v>
       </c>
       <c r="D126" t="n">
-        <v>0.257271</v>
+        <v>0.254745</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.327292</v>
+        <v>0.328956</v>
       </c>
       <c r="C127" t="n">
-        <v>0.213209</v>
+        <v>0.211442</v>
       </c>
       <c r="D127" t="n">
-        <v>0.256086</v>
+        <v>0.253412</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.318962</v>
+        <v>0.320724</v>
       </c>
       <c r="C128" t="n">
-        <v>0.212272</v>
+        <v>0.210894</v>
       </c>
       <c r="D128" t="n">
-        <v>0.254632</v>
+        <v>0.252052</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.309997</v>
+        <v>0.312206</v>
       </c>
       <c r="C129" t="n">
-        <v>0.211725</v>
+        <v>0.210438</v>
       </c>
       <c r="D129" t="n">
-        <v>0.253217</v>
+        <v>0.250949</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.30025</v>
+        <v>0.302578</v>
       </c>
       <c r="C130" t="n">
-        <v>0.210565</v>
+        <v>0.208878</v>
       </c>
       <c r="D130" t="n">
-        <v>0.252199</v>
+        <v>0.249819</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.289694</v>
+        <v>0.292298</v>
       </c>
       <c r="C131" t="n">
-        <v>0.209969</v>
+        <v>0.208194</v>
       </c>
       <c r="D131" t="n">
-        <v>0.250859</v>
+        <v>0.248617</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.278494</v>
+        <v>0.28095</v>
       </c>
       <c r="C132" t="n">
-        <v>0.209354</v>
+        <v>0.207496</v>
       </c>
       <c r="D132" t="n">
-        <v>0.249672</v>
+        <v>0.247506</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.266589</v>
+        <v>0.269174</v>
       </c>
       <c r="C133" t="n">
-        <v>0.208782</v>
+        <v>0.206539</v>
       </c>
       <c r="D133" t="n">
-        <v>0.248781</v>
+        <v>0.246566</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.253643</v>
+        <v>0.256023</v>
       </c>
       <c r="C134" t="n">
-        <v>0.208247</v>
+        <v>0.205801</v>
       </c>
       <c r="D134" t="n">
-        <v>0.247503</v>
+        <v>0.245494</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.239526</v>
+        <v>0.241373</v>
       </c>
       <c r="C135" t="n">
-        <v>0.20774</v>
+        <v>0.204995</v>
       </c>
       <c r="D135" t="n">
-        <v>0.246419</v>
+        <v>0.244467</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.224555</v>
+        <v>0.226329</v>
       </c>
       <c r="C136" t="n">
-        <v>0.207363</v>
+        <v>0.204347</v>
       </c>
       <c r="D136" t="n">
-        <v>0.245456</v>
+        <v>0.243408</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.207926</v>
+        <v>0.209955</v>
       </c>
       <c r="C137" t="n">
-        <v>0.207041</v>
+        <v>0.20372</v>
       </c>
       <c r="D137" t="n">
-        <v>0.262498</v>
+        <v>0.260419</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.348218</v>
+        <v>0.349129</v>
       </c>
       <c r="C138" t="n">
-        <v>0.215218</v>
+        <v>0.213487</v>
       </c>
       <c r="D138" t="n">
-        <v>0.261052</v>
+        <v>0.258755</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.342454</v>
+        <v>0.343967</v>
       </c>
       <c r="C139" t="n">
-        <v>0.214348</v>
+        <v>0.212749</v>
       </c>
       <c r="D139" t="n">
-        <v>0.259206</v>
+        <v>0.257013</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.336039</v>
+        <v>0.3372</v>
       </c>
       <c r="C140" t="n">
-        <v>0.213651</v>
+        <v>0.212029</v>
       </c>
       <c r="D140" t="n">
-        <v>0.257477</v>
+        <v>0.255539</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.328773</v>
+        <v>0.329944</v>
       </c>
       <c r="C141" t="n">
-        <v>0.213125</v>
+        <v>0.211424</v>
       </c>
       <c r="D141" t="n">
-        <v>0.256296</v>
+        <v>0.254159</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.320623</v>
+        <v>0.323116</v>
       </c>
       <c r="C142" t="n">
-        <v>0.212371</v>
+        <v>0.210993</v>
       </c>
       <c r="D142" t="n">
-        <v>0.25492</v>
+        <v>0.252574</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.31178</v>
+        <v>0.313531</v>
       </c>
       <c r="C143" t="n">
-        <v>0.21168</v>
+        <v>0.21056</v>
       </c>
       <c r="D143" t="n">
-        <v>0.253407</v>
+        <v>0.251409</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.272969</v>
+        <v>0.28096</v>
       </c>
       <c r="C2" t="n">
-        <v>0.183979</v>
+        <v>0.195912</v>
       </c>
       <c r="D2" t="n">
-        <v>0.224692</v>
+        <v>0.231268</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.262876</v>
+        <v>0.275285</v>
       </c>
       <c r="C3" t="n">
-        <v>0.185791</v>
+        <v>0.19706</v>
       </c>
       <c r="D3" t="n">
-        <v>0.224171</v>
+        <v>0.232151</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.251998</v>
+        <v>0.260227</v>
       </c>
       <c r="C4" t="n">
-        <v>0.187365</v>
+        <v>0.196006</v>
       </c>
       <c r="D4" t="n">
-        <v>0.226119</v>
+        <v>0.233511</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.241912</v>
+        <v>0.249344</v>
       </c>
       <c r="C5" t="n">
-        <v>0.18877</v>
+        <v>0.196838</v>
       </c>
       <c r="D5" t="n">
-        <v>0.227413</v>
+        <v>0.233102</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.230642</v>
+        <v>0.236975</v>
       </c>
       <c r="C6" t="n">
-        <v>0.187982</v>
+        <v>0.197821</v>
       </c>
       <c r="D6" t="n">
-        <v>0.226251</v>
+        <v>0.233692</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.216372</v>
+        <v>0.225674</v>
       </c>
       <c r="C7" t="n">
-        <v>0.189633</v>
+        <v>0.198401</v>
       </c>
       <c r="D7" t="n">
-        <v>0.227158</v>
+        <v>0.234047</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.203423</v>
+        <v>0.210202</v>
       </c>
       <c r="C8" t="n">
-        <v>0.189714</v>
+        <v>0.198864</v>
       </c>
       <c r="D8" t="n">
-        <v>0.226177</v>
+        <v>0.236592</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.18922</v>
+        <v>0.194356</v>
       </c>
       <c r="C9" t="n">
-        <v>0.189959</v>
+        <v>0.198849</v>
       </c>
       <c r="D9" t="n">
-        <v>0.250303</v>
+        <v>0.265773</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.328844</v>
+        <v>0.334027</v>
       </c>
       <c r="C10" t="n">
-        <v>0.20484</v>
+        <v>0.216994</v>
       </c>
       <c r="D10" t="n">
-        <v>0.248257</v>
+        <v>0.256745</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.323613</v>
+        <v>0.329254</v>
       </c>
       <c r="C11" t="n">
-        <v>0.204593</v>
+        <v>0.216483</v>
       </c>
       <c r="D11" t="n">
-        <v>0.247691</v>
+        <v>0.256613</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.318717</v>
+        <v>0.323249</v>
       </c>
       <c r="C12" t="n">
-        <v>0.204469</v>
+        <v>0.215332</v>
       </c>
       <c r="D12" t="n">
-        <v>0.247721</v>
+        <v>0.277037</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.312441</v>
+        <v>0.318197</v>
       </c>
       <c r="C13" t="n">
-        <v>0.204173</v>
+        <v>0.213636</v>
       </c>
       <c r="D13" t="n">
-        <v>0.247136</v>
+        <v>0.253983</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.304741</v>
+        <v>0.311484</v>
       </c>
       <c r="C14" t="n">
-        <v>0.202999</v>
+        <v>0.212433</v>
       </c>
       <c r="D14" t="n">
-        <v>0.246391</v>
+        <v>0.253043</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.297221</v>
+        <v>0.301987</v>
       </c>
       <c r="C15" t="n">
-        <v>0.203122</v>
+        <v>0.212771</v>
       </c>
       <c r="D15" t="n">
-        <v>0.245297</v>
+        <v>0.252393</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.289178</v>
+        <v>0.293769</v>
       </c>
       <c r="C16" t="n">
-        <v>0.20285</v>
+        <v>0.212356</v>
       </c>
       <c r="D16" t="n">
-        <v>0.243778</v>
+        <v>0.274053</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.278436</v>
+        <v>0.283186</v>
       </c>
       <c r="C17" t="n">
-        <v>0.202763</v>
+        <v>0.21158</v>
       </c>
       <c r="D17" t="n">
-        <v>0.243336</v>
+        <v>0.276569</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.268158</v>
+        <v>0.274789</v>
       </c>
       <c r="C18" t="n">
-        <v>0.201442</v>
+        <v>0.211342</v>
       </c>
       <c r="D18" t="n">
-        <v>0.24286</v>
+        <v>0.249118</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.257816</v>
+        <v>0.264307</v>
       </c>
       <c r="C19" t="n">
-        <v>0.200497</v>
+        <v>0.211014</v>
       </c>
       <c r="D19" t="n">
-        <v>0.243038</v>
+        <v>0.246154</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.24557</v>
+        <v>0.253335</v>
       </c>
       <c r="C20" t="n">
-        <v>0.201119</v>
+        <v>0.21131</v>
       </c>
       <c r="D20" t="n">
-        <v>0.241716</v>
+        <v>0.247092</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.232446</v>
+        <v>0.240375</v>
       </c>
       <c r="C21" t="n">
-        <v>0.200587</v>
+        <v>0.211178</v>
       </c>
       <c r="D21" t="n">
-        <v>0.240631</v>
+        <v>0.248933</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.217018</v>
+        <v>0.225843</v>
       </c>
       <c r="C22" t="n">
-        <v>0.200316</v>
+        <v>0.210535</v>
       </c>
       <c r="D22" t="n">
-        <v>0.240304</v>
+        <v>0.247076</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.200587</v>
+        <v>0.209111</v>
       </c>
       <c r="C23" t="n">
-        <v>0.198732</v>
+        <v>0.211058</v>
       </c>
       <c r="D23" t="n">
-        <v>0.255618</v>
+        <v>0.264081</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.340554</v>
+        <v>0.347854</v>
       </c>
       <c r="C24" t="n">
-        <v>0.210654</v>
+        <v>0.225388</v>
       </c>
       <c r="D24" t="n">
-        <v>0.256382</v>
+        <v>0.263005</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.335095</v>
+        <v>0.342351</v>
       </c>
       <c r="C25" t="n">
-        <v>0.209811</v>
+        <v>0.222286</v>
       </c>
       <c r="D25" t="n">
-        <v>0.253169</v>
+        <v>0.262406</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.328659</v>
+        <v>0.335171</v>
       </c>
       <c r="C26" t="n">
-        <v>0.208134</v>
+        <v>0.221108</v>
       </c>
       <c r="D26" t="n">
-        <v>0.25099</v>
+        <v>0.261724</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.323476</v>
+        <v>0.3287</v>
       </c>
       <c r="C27" t="n">
-        <v>0.207906</v>
+        <v>0.218269</v>
       </c>
       <c r="D27" t="n">
-        <v>0.255027</v>
+        <v>0.258214</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.315601</v>
+        <v>0.321793</v>
       </c>
       <c r="C28" t="n">
-        <v>0.206702</v>
+        <v>0.216629</v>
       </c>
       <c r="D28" t="n">
-        <v>0.249046</v>
+        <v>0.256235</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.307781</v>
+        <v>0.313509</v>
       </c>
       <c r="C29" t="n">
-        <v>0.204795</v>
+        <v>0.216104</v>
       </c>
       <c r="D29" t="n">
-        <v>0.247137</v>
+        <v>0.25501</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.298863</v>
+        <v>0.304099</v>
       </c>
       <c r="C30" t="n">
-        <v>0.203626</v>
+        <v>0.215542</v>
       </c>
       <c r="D30" t="n">
-        <v>0.245656</v>
+        <v>0.253997</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.28948</v>
+        <v>0.294429</v>
       </c>
       <c r="C31" t="n">
-        <v>0.203145</v>
+        <v>0.214565</v>
       </c>
       <c r="D31" t="n">
-        <v>0.245661</v>
+        <v>0.253212</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.2795</v>
+        <v>0.283902</v>
       </c>
       <c r="C32" t="n">
-        <v>0.20354</v>
+        <v>0.214083</v>
       </c>
       <c r="D32" t="n">
-        <v>0.245389</v>
+        <v>0.252973</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.26784</v>
+        <v>0.273734</v>
       </c>
       <c r="C33" t="n">
-        <v>0.202916</v>
+        <v>0.213151</v>
       </c>
       <c r="D33" t="n">
-        <v>0.245107</v>
+        <v>0.251955</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.256035</v>
+        <v>0.261908</v>
       </c>
       <c r="C34" t="n">
-        <v>0.202094</v>
+        <v>0.212756</v>
       </c>
       <c r="D34" t="n">
-        <v>0.243304</v>
+        <v>0.250418</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.243407</v>
+        <v>0.247935</v>
       </c>
       <c r="C35" t="n">
-        <v>0.201933</v>
+        <v>0.212244</v>
       </c>
       <c r="D35" t="n">
-        <v>0.242671</v>
+        <v>0.249931</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.228478</v>
+        <v>0.234331</v>
       </c>
       <c r="C36" t="n">
-        <v>0.201389</v>
+        <v>0.212313</v>
       </c>
       <c r="D36" t="n">
-        <v>0.242095</v>
+        <v>0.25125</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.213847</v>
+        <v>0.21972</v>
       </c>
       <c r="C37" t="n">
-        <v>0.201008</v>
+        <v>0.212479</v>
       </c>
       <c r="D37" t="n">
-        <v>0.259333</v>
+        <v>0.267948</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.346606</v>
+        <v>0.351019</v>
       </c>
       <c r="C38" t="n">
-        <v>0.211665</v>
+        <v>0.231716</v>
       </c>
       <c r="D38" t="n">
-        <v>0.259132</v>
+        <v>0.265477</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.341638</v>
+        <v>0.347109</v>
       </c>
       <c r="C39" t="n">
-        <v>0.209957</v>
+        <v>0.228089</v>
       </c>
       <c r="D39" t="n">
-        <v>0.255013</v>
+        <v>0.263563</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.335534</v>
+        <v>0.341148</v>
       </c>
       <c r="C40" t="n">
-        <v>0.209462</v>
+        <v>0.225541</v>
       </c>
       <c r="D40" t="n">
-        <v>0.255664</v>
+        <v>0.261508</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.328703</v>
+        <v>0.334155</v>
       </c>
       <c r="C41" t="n">
-        <v>0.208322</v>
+        <v>0.221715</v>
       </c>
       <c r="D41" t="n">
-        <v>0.252557</v>
+        <v>0.259424</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.322172</v>
+        <v>0.326696</v>
       </c>
       <c r="C42" t="n">
-        <v>0.206994</v>
+        <v>0.219716</v>
       </c>
       <c r="D42" t="n">
-        <v>0.252827</v>
+        <v>0.258308</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.313793</v>
+        <v>0.319361</v>
       </c>
       <c r="C43" t="n">
-        <v>0.205962</v>
+        <v>0.217608</v>
       </c>
       <c r="D43" t="n">
-        <v>0.249312</v>
+        <v>0.257397</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.305505</v>
+        <v>0.310476</v>
       </c>
       <c r="C44" t="n">
-        <v>0.205818</v>
+        <v>0.216079</v>
       </c>
       <c r="D44" t="n">
-        <v>0.250214</v>
+        <v>0.255033</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.296234</v>
+        <v>0.301515</v>
       </c>
       <c r="C45" t="n">
-        <v>0.20511</v>
+        <v>0.215361</v>
       </c>
       <c r="D45" t="n">
-        <v>0.24903</v>
+        <v>0.254953</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.28556</v>
+        <v>0.290456</v>
       </c>
       <c r="C46" t="n">
-        <v>0.203923</v>
+        <v>0.214512</v>
       </c>
       <c r="D46" t="n">
-        <v>0.247859</v>
+        <v>0.252743</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.274527</v>
+        <v>0.279872</v>
       </c>
       <c r="C47" t="n">
-        <v>0.206762</v>
+        <v>0.213976</v>
       </c>
       <c r="D47" t="n">
-        <v>0.245458</v>
+        <v>0.252257</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.2633</v>
+        <v>0.268143</v>
       </c>
       <c r="C48" t="n">
-        <v>0.205295</v>
+        <v>0.213395</v>
       </c>
       <c r="D48" t="n">
-        <v>0.24446</v>
+        <v>0.251358</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.249449</v>
+        <v>0.255679</v>
       </c>
       <c r="C49" t="n">
-        <v>0.202588</v>
+        <v>0.213081</v>
       </c>
       <c r="D49" t="n">
-        <v>0.244332</v>
+        <v>0.250701</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.234907</v>
+        <v>0.241931</v>
       </c>
       <c r="C50" t="n">
-        <v>0.204803</v>
+        <v>0.212729</v>
       </c>
       <c r="D50" t="n">
-        <v>0.24319</v>
+        <v>0.252639</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.219984</v>
+        <v>0.2267</v>
       </c>
       <c r="C51" t="n">
-        <v>0.204615</v>
+        <v>0.212137</v>
       </c>
       <c r="D51" t="n">
-        <v>0.261823</v>
+        <v>0.267618</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.203241</v>
+        <v>0.209666</v>
       </c>
       <c r="C52" t="n">
-        <v>0.203218</v>
+        <v>0.211929</v>
       </c>
       <c r="D52" t="n">
-        <v>0.260094</v>
+        <v>0.26451</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.346005</v>
+        <v>0.349707</v>
       </c>
       <c r="C53" t="n">
-        <v>0.212186</v>
+        <v>0.226985</v>
       </c>
       <c r="D53" t="n">
-        <v>0.258758</v>
+        <v>0.262485</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.339818</v>
+        <v>0.344393</v>
       </c>
       <c r="C54" t="n">
-        <v>0.211897</v>
+        <v>0.224765</v>
       </c>
       <c r="D54" t="n">
-        <v>0.257021</v>
+        <v>0.261372</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.333231</v>
+        <v>0.338195</v>
       </c>
       <c r="C55" t="n">
-        <v>0.211378</v>
+        <v>0.221165</v>
       </c>
       <c r="D55" t="n">
-        <v>0.255584</v>
+        <v>0.259083</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.32588</v>
+        <v>0.330917</v>
       </c>
       <c r="C56" t="n">
-        <v>0.210736</v>
+        <v>0.219252</v>
       </c>
       <c r="D56" t="n">
-        <v>0.254169</v>
+        <v>0.258255</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.317721</v>
+        <v>0.3224</v>
       </c>
       <c r="C57" t="n">
-        <v>0.208877</v>
+        <v>0.217853</v>
       </c>
       <c r="D57" t="n">
-        <v>0.252867</v>
+        <v>0.256473</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.308105</v>
+        <v>0.313751</v>
       </c>
       <c r="C58" t="n">
-        <v>0.208596</v>
+        <v>0.216655</v>
       </c>
       <c r="D58" t="n">
-        <v>0.251142</v>
+        <v>0.254751</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.29887</v>
+        <v>0.304247</v>
       </c>
       <c r="C59" t="n">
-        <v>0.207607</v>
+        <v>0.215205</v>
       </c>
       <c r="D59" t="n">
-        <v>0.249713</v>
+        <v>0.253478</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.288536</v>
+        <v>0.294116</v>
       </c>
       <c r="C60" t="n">
-        <v>0.206313</v>
+        <v>0.21459</v>
       </c>
       <c r="D60" t="n">
-        <v>0.24869</v>
+        <v>0.252454</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.277523</v>
+        <v>0.283229</v>
       </c>
       <c r="C61" t="n">
-        <v>0.205954</v>
+        <v>0.213892</v>
       </c>
       <c r="D61" t="n">
-        <v>0.247522</v>
+        <v>0.251959</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.265616</v>
+        <v>0.27188</v>
       </c>
       <c r="C62" t="n">
-        <v>0.206955</v>
+        <v>0.213172</v>
       </c>
       <c r="D62" t="n">
-        <v>0.246498</v>
+        <v>0.251108</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.25285</v>
+        <v>0.259034</v>
       </c>
       <c r="C63" t="n">
-        <v>0.206526</v>
+        <v>0.212503</v>
       </c>
       <c r="D63" t="n">
-        <v>0.245276</v>
+        <v>0.250374</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.239148</v>
+        <v>0.245623</v>
       </c>
       <c r="C64" t="n">
-        <v>0.205765</v>
+        <v>0.212304</v>
       </c>
       <c r="D64" t="n">
-        <v>0.244085</v>
+        <v>0.249696</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.223982</v>
+        <v>0.230273</v>
       </c>
       <c r="C65" t="n">
-        <v>0.204263</v>
+        <v>0.211984</v>
       </c>
       <c r="D65" t="n">
-        <v>0.243192</v>
+        <v>0.249233</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.207582</v>
+        <v>0.213342</v>
       </c>
       <c r="C66" t="n">
-        <v>0.203361</v>
+        <v>0.211979</v>
       </c>
       <c r="D66" t="n">
-        <v>0.257648</v>
+        <v>0.267199</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.347846</v>
+        <v>0.352417</v>
       </c>
       <c r="C67" t="n">
-        <v>0.212433</v>
+        <v>0.230208</v>
       </c>
       <c r="D67" t="n">
-        <v>0.256083</v>
+        <v>0.264368</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.341945</v>
+        <v>0.346913</v>
       </c>
       <c r="C68" t="n">
-        <v>0.212303</v>
+        <v>0.224883</v>
       </c>
       <c r="D68" t="n">
-        <v>0.254497</v>
+        <v>0.261476</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.335364</v>
+        <v>0.34069</v>
       </c>
       <c r="C69" t="n">
-        <v>0.211543</v>
+        <v>0.221567</v>
       </c>
       <c r="D69" t="n">
-        <v>0.253159</v>
+        <v>0.259992</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.327864</v>
+        <v>0.33338</v>
       </c>
       <c r="C70" t="n">
-        <v>0.210994</v>
+        <v>0.219015</v>
       </c>
       <c r="D70" t="n">
-        <v>0.252962</v>
+        <v>0.258824</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.320122</v>
+        <v>0.325287</v>
       </c>
       <c r="C71" t="n">
-        <v>0.209526</v>
+        <v>0.217904</v>
       </c>
       <c r="D71" t="n">
-        <v>0.252675</v>
+        <v>0.257234</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.311429</v>
+        <v>0.316404</v>
       </c>
       <c r="C72" t="n">
-        <v>0.209611</v>
+        <v>0.216587</v>
       </c>
       <c r="D72" t="n">
-        <v>0.251565</v>
+        <v>0.255778</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.301939</v>
+        <v>0.30706</v>
       </c>
       <c r="C73" t="n">
-        <v>0.20939</v>
+        <v>0.215397</v>
       </c>
       <c r="D73" t="n">
-        <v>0.250353</v>
+        <v>0.254864</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.291643</v>
+        <v>0.297067</v>
       </c>
       <c r="C74" t="n">
-        <v>0.208402</v>
+        <v>0.214854</v>
       </c>
       <c r="D74" t="n">
-        <v>0.248846</v>
+        <v>0.25281</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.281602</v>
+        <v>0.286289</v>
       </c>
       <c r="C75" t="n">
-        <v>0.207519</v>
+        <v>0.21402</v>
       </c>
       <c r="D75" t="n">
-        <v>0.248044</v>
+        <v>0.252056</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.270181</v>
+        <v>0.275097</v>
       </c>
       <c r="C76" t="n">
-        <v>0.206654</v>
+        <v>0.21366</v>
       </c>
       <c r="D76" t="n">
-        <v>0.246644</v>
+        <v>0.251157</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.25719</v>
+        <v>0.262689</v>
       </c>
       <c r="C77" t="n">
-        <v>0.206315</v>
+        <v>0.212863</v>
       </c>
       <c r="D77" t="n">
-        <v>0.245445</v>
+        <v>0.25035</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.243109</v>
+        <v>0.248989</v>
       </c>
       <c r="C78" t="n">
-        <v>0.204754</v>
+        <v>0.212404</v>
       </c>
       <c r="D78" t="n">
-        <v>0.244803</v>
+        <v>0.249625</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.228503</v>
+        <v>0.234185</v>
       </c>
       <c r="C79" t="n">
-        <v>0.204931</v>
+        <v>0.212223</v>
       </c>
       <c r="D79" t="n">
-        <v>0.243733</v>
+        <v>0.249799</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.212353</v>
+        <v>0.218351</v>
       </c>
       <c r="C80" t="n">
-        <v>0.204023</v>
+        <v>0.211854</v>
       </c>
       <c r="D80" t="n">
-        <v>0.260973</v>
+        <v>0.267725</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.349232</v>
+        <v>0.353918</v>
       </c>
       <c r="C81" t="n">
-        <v>0.213764</v>
+        <v>0.229933</v>
       </c>
       <c r="D81" t="n">
-        <v>0.259354</v>
+        <v>0.264639</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.343522</v>
+        <v>0.348163</v>
       </c>
       <c r="C82" t="n">
-        <v>0.213081</v>
+        <v>0.224301</v>
       </c>
       <c r="D82" t="n">
-        <v>0.25756</v>
+        <v>0.26212</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.337401</v>
+        <v>0.341876</v>
       </c>
       <c r="C83" t="n">
-        <v>0.212197</v>
+        <v>0.221634</v>
       </c>
       <c r="D83" t="n">
-        <v>0.256181</v>
+        <v>0.260398</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.33032</v>
+        <v>0.334423</v>
       </c>
       <c r="C84" t="n">
-        <v>0.211085</v>
+        <v>0.219343</v>
       </c>
       <c r="D84" t="n">
-        <v>0.254467</v>
+        <v>0.258807</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.322425</v>
+        <v>0.326677</v>
       </c>
       <c r="C85" t="n">
-        <v>0.210664</v>
+        <v>0.218126</v>
       </c>
       <c r="D85" t="n">
-        <v>0.253263</v>
+        <v>0.257237</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.314173</v>
+        <v>0.318483</v>
       </c>
       <c r="C86" t="n">
-        <v>0.210094</v>
+        <v>0.217137</v>
       </c>
       <c r="D86" t="n">
-        <v>0.251387</v>
+        <v>0.256192</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.305199</v>
+        <v>0.309192</v>
       </c>
       <c r="C87" t="n">
-        <v>0.209925</v>
+        <v>0.21601</v>
       </c>
       <c r="D87" t="n">
-        <v>0.250239</v>
+        <v>0.254682</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.295417</v>
+        <v>0.299657</v>
       </c>
       <c r="C88" t="n">
-        <v>0.208584</v>
+        <v>0.214977</v>
       </c>
       <c r="D88" t="n">
-        <v>0.249314</v>
+        <v>0.253834</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.284496</v>
+        <v>0.289052</v>
       </c>
       <c r="C89" t="n">
-        <v>0.207992</v>
+        <v>0.214757</v>
       </c>
       <c r="D89" t="n">
-        <v>0.248169</v>
+        <v>0.252277</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.273084</v>
+        <v>0.277682</v>
       </c>
       <c r="C90" t="n">
-        <v>0.207271</v>
+        <v>0.213529</v>
       </c>
       <c r="D90" t="n">
-        <v>0.247369</v>
+        <v>0.251467</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.260518</v>
+        <v>0.265329</v>
       </c>
       <c r="C91" t="n">
-        <v>0.206088</v>
+        <v>0.212993</v>
       </c>
       <c r="D91" t="n">
-        <v>0.246111</v>
+        <v>0.25073</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.246761</v>
+        <v>0.251956</v>
       </c>
       <c r="C92" t="n">
-        <v>0.205459</v>
+        <v>0.212489</v>
       </c>
       <c r="D92" t="n">
-        <v>0.244879</v>
+        <v>0.250208</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.232059</v>
+        <v>0.237928</v>
       </c>
       <c r="C93" t="n">
-        <v>0.204752</v>
+        <v>0.212003</v>
       </c>
       <c r="D93" t="n">
-        <v>0.243716</v>
+        <v>0.249795</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.216054</v>
+        <v>0.221988</v>
       </c>
       <c r="C94" t="n">
-        <v>0.204145</v>
+        <v>0.21166</v>
       </c>
       <c r="D94" t="n">
-        <v>0.259662</v>
+        <v>0.268728</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.350644</v>
+        <v>0.355226</v>
       </c>
       <c r="C95" t="n">
-        <v>0.213417</v>
+        <v>0.229306</v>
       </c>
       <c r="D95" t="n">
-        <v>0.258333</v>
+        <v>0.265368</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.345216</v>
+        <v>0.349632</v>
       </c>
       <c r="C96" t="n">
-        <v>0.212326</v>
+        <v>0.225598</v>
       </c>
       <c r="D96" t="n">
-        <v>0.257073</v>
+        <v>0.263136</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.339638</v>
+        <v>0.343221</v>
       </c>
       <c r="C97" t="n">
-        <v>0.211737</v>
+        <v>0.222495</v>
       </c>
       <c r="D97" t="n">
-        <v>0.255408</v>
+        <v>0.261588</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.332654</v>
+        <v>0.336572</v>
       </c>
       <c r="C98" t="n">
-        <v>0.211538</v>
+        <v>0.219992</v>
       </c>
       <c r="D98" t="n">
-        <v>0.254168</v>
+        <v>0.259708</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.325567</v>
+        <v>0.32902</v>
       </c>
       <c r="C99" t="n">
-        <v>0.211181</v>
+        <v>0.21844</v>
       </c>
       <c r="D99" t="n">
-        <v>0.252684</v>
+        <v>0.258439</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.317041</v>
+        <v>0.320108</v>
       </c>
       <c r="C100" t="n">
-        <v>0.210364</v>
+        <v>0.217086</v>
       </c>
       <c r="D100" t="n">
-        <v>0.251627</v>
+        <v>0.257048</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.307623</v>
+        <v>0.311141</v>
       </c>
       <c r="C101" t="n">
-        <v>0.209881</v>
+        <v>0.21603</v>
       </c>
       <c r="D101" t="n">
-        <v>0.250051</v>
+        <v>0.255861</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.297492</v>
+        <v>0.30161</v>
       </c>
       <c r="C102" t="n">
-        <v>0.209232</v>
+        <v>0.215118</v>
       </c>
       <c r="D102" t="n">
-        <v>0.248943</v>
+        <v>0.25506</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.287701</v>
+        <v>0.29136</v>
       </c>
       <c r="C103" t="n">
-        <v>0.208027</v>
+        <v>0.214407</v>
       </c>
       <c r="D103" t="n">
-        <v>0.247783</v>
+        <v>0.253643</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.27593</v>
+        <v>0.280099</v>
       </c>
       <c r="C104" t="n">
-        <v>0.20687</v>
+        <v>0.213596</v>
       </c>
       <c r="D104" t="n">
-        <v>0.246812</v>
+        <v>0.252447</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.263161</v>
+        <v>0.267905</v>
       </c>
       <c r="C105" t="n">
-        <v>0.206296</v>
+        <v>0.213057</v>
       </c>
       <c r="D105" t="n">
-        <v>0.245426</v>
+        <v>0.251631</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.249136</v>
+        <v>0.254834</v>
       </c>
       <c r="C106" t="n">
-        <v>0.205191</v>
+        <v>0.212665</v>
       </c>
       <c r="D106" t="n">
-        <v>0.244491</v>
+        <v>0.25027</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.235255</v>
+        <v>0.241048</v>
       </c>
       <c r="C107" t="n">
-        <v>0.204685</v>
+        <v>0.212</v>
       </c>
       <c r="D107" t="n">
-        <v>0.243634</v>
+        <v>0.249676</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.21967</v>
+        <v>0.225455</v>
       </c>
       <c r="C108" t="n">
-        <v>0.204016</v>
+        <v>0.211712</v>
       </c>
       <c r="D108" t="n">
-        <v>0.260608</v>
+        <v>0.267902</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.202792</v>
+        <v>0.209024</v>
       </c>
       <c r="C109" t="n">
-        <v>0.203182</v>
+        <v>0.211438</v>
       </c>
       <c r="D109" t="n">
-        <v>0.259079</v>
+        <v>0.265381</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.346189</v>
+        <v>0.350837</v>
       </c>
       <c r="C110" t="n">
-        <v>0.21298</v>
+        <v>0.225697</v>
       </c>
       <c r="D110" t="n">
-        <v>0.257178</v>
+        <v>0.263476</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.3406</v>
+        <v>0.344389</v>
       </c>
       <c r="C111" t="n">
-        <v>0.212236</v>
+        <v>0.222578</v>
       </c>
       <c r="D111" t="n">
-        <v>0.255908</v>
+        <v>0.261695</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.334087</v>
+        <v>0.33797</v>
       </c>
       <c r="C112" t="n">
-        <v>0.211683</v>
+        <v>0.220709</v>
       </c>
       <c r="D112" t="n">
-        <v>0.25472</v>
+        <v>0.259699</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.32696</v>
+        <v>0.330553</v>
       </c>
       <c r="C113" t="n">
-        <v>0.210815</v>
+        <v>0.21886</v>
       </c>
       <c r="D113" t="n">
-        <v>0.2532</v>
+        <v>0.258738</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.31863</v>
+        <v>0.322178</v>
       </c>
       <c r="C114" t="n">
-        <v>0.210452</v>
+        <v>0.217834</v>
       </c>
       <c r="D114" t="n">
-        <v>0.252043</v>
+        <v>0.257442</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.309552</v>
+        <v>0.313349</v>
       </c>
       <c r="C115" t="n">
-        <v>0.209446</v>
+        <v>0.21669</v>
       </c>
       <c r="D115" t="n">
-        <v>0.250708</v>
+        <v>0.255897</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.300424</v>
+        <v>0.303814</v>
       </c>
       <c r="C116" t="n">
-        <v>0.208822</v>
+        <v>0.215701</v>
       </c>
       <c r="D116" t="n">
-        <v>0.24948</v>
+        <v>0.254296</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.289845</v>
+        <v>0.293692</v>
       </c>
       <c r="C117" t="n">
-        <v>0.207851</v>
+        <v>0.214744</v>
       </c>
       <c r="D117" t="n">
-        <v>0.248296</v>
+        <v>0.253976</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.278479</v>
+        <v>0.282839</v>
       </c>
       <c r="C118" t="n">
-        <v>0.207229</v>
+        <v>0.214672</v>
       </c>
       <c r="D118" t="n">
-        <v>0.247245</v>
+        <v>0.253858</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.266209</v>
+        <v>0.270756</v>
       </c>
       <c r="C119" t="n">
-        <v>0.206503</v>
+        <v>0.213705</v>
       </c>
       <c r="D119" t="n">
-        <v>0.24588</v>
+        <v>0.252652</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.25305</v>
+        <v>0.258147</v>
       </c>
       <c r="C120" t="n">
-        <v>0.205743</v>
+        <v>0.213054</v>
       </c>
       <c r="D120" t="n">
-        <v>0.244869</v>
+        <v>0.251436</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.238752</v>
+        <v>0.244214</v>
       </c>
       <c r="C121" t="n">
-        <v>0.204734</v>
+        <v>0.212576</v>
       </c>
       <c r="D121" t="n">
-        <v>0.243906</v>
+        <v>0.251373</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.223301</v>
+        <v>0.229059</v>
       </c>
       <c r="C122" t="n">
-        <v>0.204052</v>
+        <v>0.211978</v>
       </c>
       <c r="D122" t="n">
-        <v>0.243085</v>
+        <v>0.249863</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.20596</v>
+        <v>0.212331</v>
       </c>
       <c r="C123" t="n">
-        <v>0.203556</v>
+        <v>0.211931</v>
       </c>
       <c r="D123" t="n">
-        <v>0.259618</v>
+        <v>0.266506</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.347664</v>
+        <v>0.352099</v>
       </c>
       <c r="C124" t="n">
-        <v>0.213393</v>
+        <v>0.226236</v>
       </c>
       <c r="D124" t="n">
-        <v>0.257833</v>
+        <v>0.26438</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.342005</v>
+        <v>0.346249</v>
       </c>
       <c r="C125" t="n">
-        <v>0.212793</v>
+        <v>0.222892</v>
       </c>
       <c r="D125" t="n">
-        <v>0.256486</v>
+        <v>0.261884</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.336001</v>
+        <v>0.339646</v>
       </c>
       <c r="C126" t="n">
-        <v>0.212165</v>
+        <v>0.220768</v>
       </c>
       <c r="D126" t="n">
-        <v>0.254745</v>
+        <v>0.260327</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.328956</v>
+        <v>0.332407</v>
       </c>
       <c r="C127" t="n">
-        <v>0.211442</v>
+        <v>0.219005</v>
       </c>
       <c r="D127" t="n">
-        <v>0.253412</v>
+        <v>0.25828</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.320724</v>
+        <v>0.324287</v>
       </c>
       <c r="C128" t="n">
-        <v>0.210894</v>
+        <v>0.21759</v>
       </c>
       <c r="D128" t="n">
-        <v>0.252052</v>
+        <v>0.257292</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.312206</v>
+        <v>0.315583</v>
       </c>
       <c r="C129" t="n">
-        <v>0.210438</v>
+        <v>0.216422</v>
       </c>
       <c r="D129" t="n">
-        <v>0.250949</v>
+        <v>0.256414</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.302578</v>
+        <v>0.305883</v>
       </c>
       <c r="C130" t="n">
-        <v>0.208878</v>
+        <v>0.215617</v>
       </c>
       <c r="D130" t="n">
-        <v>0.249819</v>
+        <v>0.255015</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.292298</v>
+        <v>0.295897</v>
       </c>
       <c r="C131" t="n">
-        <v>0.208194</v>
+        <v>0.214832</v>
       </c>
       <c r="D131" t="n">
-        <v>0.248617</v>
+        <v>0.253526</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.28095</v>
+        <v>0.285083</v>
       </c>
       <c r="C132" t="n">
-        <v>0.207496</v>
+        <v>0.214082</v>
       </c>
       <c r="D132" t="n">
-        <v>0.247506</v>
+        <v>0.252946</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.269174</v>
+        <v>0.273328</v>
       </c>
       <c r="C133" t="n">
-        <v>0.206539</v>
+        <v>0.213471</v>
       </c>
       <c r="D133" t="n">
-        <v>0.246566</v>
+        <v>0.252272</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.256023</v>
+        <v>0.260703</v>
       </c>
       <c r="C134" t="n">
-        <v>0.205801</v>
+        <v>0.212914</v>
       </c>
       <c r="D134" t="n">
-        <v>0.245494</v>
+        <v>0.251202</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.241373</v>
+        <v>0.246882</v>
       </c>
       <c r="C135" t="n">
-        <v>0.204995</v>
+        <v>0.212385</v>
       </c>
       <c r="D135" t="n">
-        <v>0.244467</v>
+        <v>0.251597</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.226329</v>
+        <v>0.232078</v>
       </c>
       <c r="C136" t="n">
-        <v>0.204347</v>
+        <v>0.212004</v>
       </c>
       <c r="D136" t="n">
-        <v>0.243408</v>
+        <v>0.251317</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.209955</v>
+        <v>0.215942</v>
       </c>
       <c r="C137" t="n">
-        <v>0.20372</v>
+        <v>0.212133</v>
       </c>
       <c r="D137" t="n">
-        <v>0.260419</v>
+        <v>0.267088</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.349129</v>
+        <v>0.352911</v>
       </c>
       <c r="C138" t="n">
-        <v>0.213487</v>
+        <v>0.227952</v>
       </c>
       <c r="D138" t="n">
-        <v>0.258755</v>
+        <v>0.264928</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.343967</v>
+        <v>0.347437</v>
       </c>
       <c r="C139" t="n">
-        <v>0.212749</v>
+        <v>0.224209</v>
       </c>
       <c r="D139" t="n">
-        <v>0.257013</v>
+        <v>0.263676</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.3372</v>
+        <v>0.340815</v>
       </c>
       <c r="C140" t="n">
-        <v>0.212029</v>
+        <v>0.221617</v>
       </c>
       <c r="D140" t="n">
-        <v>0.255539</v>
+        <v>0.26094</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.329944</v>
+        <v>0.333681</v>
       </c>
       <c r="C141" t="n">
-        <v>0.211424</v>
+        <v>0.21951</v>
       </c>
       <c r="D141" t="n">
-        <v>0.254159</v>
+        <v>0.259854</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.323116</v>
+        <v>0.325639</v>
       </c>
       <c r="C142" t="n">
-        <v>0.210993</v>
+        <v>0.21815</v>
       </c>
       <c r="D142" t="n">
-        <v>0.252574</v>
+        <v>0.258275</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.313531</v>
+        <v>0.317122</v>
       </c>
       <c r="C143" t="n">
-        <v>0.21056</v>
+        <v>0.217027</v>
       </c>
       <c r="D143" t="n">
-        <v>0.251409</v>
+        <v>0.256589</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -93,7 +93,7 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_set</v>
+            <v>absl::flat_hash_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +553,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.273698</v>
+                  <v>0.28096</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.265534</v>
+                  <v>0.275285</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.257194</v>
+                  <v>0.260227</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.241082</v>
+                  <v>0.249344</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.231757</v>
+                  <v>0.236975</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.21869</v>
+                  <v>0.225674</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.205581</v>
+                  <v>0.210202</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.190369</v>
+                  <v>0.194356</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.330416</v>
+                  <v>0.334027</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.323878</v>
+                  <v>0.329254</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.317737</v>
+                  <v>0.323249</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.310582</v>
+                  <v>0.318197</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.309045</v>
+                  <v>0.311484</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.296657</v>
+                  <v>0.301987</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.288048</v>
+                  <v>0.293769</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.278045</v>
+                  <v>0.283186</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.269063</v>
+                  <v>0.274789</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.258094</v>
+                  <v>0.264307</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.245262</v>
+                  <v>0.253335</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.232424</v>
+                  <v>0.240375</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.21784</v>
+                  <v>0.225843</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.202504</v>
+                  <v>0.209111</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.340316</v>
+                  <v>0.347854</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.340648</v>
+                  <v>0.342351</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.327022</v>
+                  <v>0.335171</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.320381</v>
+                  <v>0.3287</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.313118</v>
+                  <v>0.321793</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.305678</v>
+                  <v>0.313509</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.297288</v>
+                  <v>0.304099</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.287706</v>
+                  <v>0.294429</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.278155</v>
+                  <v>0.283902</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.267413</v>
+                  <v>0.273734</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.256045</v>
+                  <v>0.261908</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.243009</v>
+                  <v>0.247935</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.228063</v>
+                  <v>0.234331</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.212747</v>
+                  <v>0.21972</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.345177</v>
+                  <v>0.351019</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.339649</v>
+                  <v>0.347109</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.334464</v>
+                  <v>0.341148</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.327546</v>
+                  <v>0.334155</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.319942</v>
+                  <v>0.326696</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.311964</v>
+                  <v>0.319361</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.302597</v>
+                  <v>0.310476</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.292698</v>
+                  <v>0.301515</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.282974</v>
+                  <v>0.290456</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.272697</v>
+                  <v>0.279872</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.260977</v>
+                  <v>0.268143</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.248189</v>
+                  <v>0.255679</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.234384</v>
+                  <v>0.241931</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.220135</v>
+                  <v>0.2267</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.203279</v>
+                  <v>0.209666</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.343096</v>
+                  <v>0.349707</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.336879</v>
+                  <v>0.344393</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.330921</v>
+                  <v>0.338195</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.323917</v>
+                  <v>0.330917</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.315486</v>
+                  <v>0.3224</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.306337</v>
+                  <v>0.313751</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.296668</v>
+                  <v>0.304247</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.286987</v>
+                  <v>0.294116</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.276191</v>
+                  <v>0.283229</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.264581</v>
+                  <v>0.27188</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.25146</v>
+                  <v>0.259034</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.237848</v>
+                  <v>0.245623</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.22308</v>
+                  <v>0.230273</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.207095</v>
+                  <v>0.213342</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.346161</v>
+                  <v>0.352417</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.340716</v>
+                  <v>0.346913</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.3338</v>
+                  <v>0.34069</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.326926</v>
+                  <v>0.33338</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.318146</v>
+                  <v>0.325287</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.309423</v>
+                  <v>0.316404</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.300058</v>
+                  <v>0.30706</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.290416</v>
+                  <v>0.297067</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.279472</v>
+                  <v>0.286289</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.267567</v>
+                  <v>0.275097</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.254738</v>
+                  <v>0.262689</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.241176</v>
+                  <v>0.248989</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.226587</v>
+                  <v>0.234185</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.211142</v>
+                  <v>0.218351</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.34843</v>
+                  <v>0.353918</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.342708</v>
+                  <v>0.348163</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.336272</v>
+                  <v>0.341876</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.329016</v>
+                  <v>0.334423</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.32139</v>
+                  <v>0.326677</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.31266</v>
+                  <v>0.318483</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.303405</v>
+                  <v>0.309192</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.293063</v>
+                  <v>0.299657</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.282136</v>
+                  <v>0.289052</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.270477</v>
+                  <v>0.277682</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.257788</v>
+                  <v>0.265329</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.244169</v>
+                  <v>0.251956</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.230108</v>
+                  <v>0.237928</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.214746</v>
+                  <v>0.221988</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.348961</v>
+                  <v>0.355226</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.343911</v>
+                  <v>0.349632</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.338165</v>
+                  <v>0.343221</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.331066</v>
+                  <v>0.336572</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.323398</v>
+                  <v>0.32902</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.314566</v>
+                  <v>0.320108</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.305636</v>
+                  <v>0.311141</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.295301</v>
+                  <v>0.30161</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.284966</v>
+                  <v>0.29136</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.273099</v>
+                  <v>0.280099</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.260768</v>
+                  <v>0.267905</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.247512</v>
+                  <v>0.254834</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.233045</v>
+                  <v>0.241048</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.218416</v>
+                  <v>0.225455</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.201934</v>
+                  <v>0.209024</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.34505</v>
+                  <v>0.350837</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.338876</v>
+                  <v>0.344389</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.332171</v>
+                  <v>0.33797</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.324871</v>
+                  <v>0.330553</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.316325</v>
+                  <v>0.322178</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.307821</v>
+                  <v>0.313349</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.298014</v>
+                  <v>0.303814</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.287086</v>
+                  <v>0.293692</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.275543</v>
+                  <v>0.282839</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.26329</v>
+                  <v>0.270756</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.250529</v>
+                  <v>0.258147</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.236599</v>
+                  <v>0.244214</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.221679</v>
+                  <v>0.229059</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.205898</v>
+                  <v>0.212331</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.346183</v>
+                  <v>0.352099</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.340448</v>
+                  <v>0.346249</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.333708</v>
+                  <v>0.339646</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.326264</v>
+                  <v>0.332407</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.318182</v>
+                  <v>0.324287</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.309246</v>
+                  <v>0.315583</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.299658</v>
+                  <v>0.305883</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.289491</v>
+                  <v>0.295897</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.278115</v>
+                  <v>0.285083</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.26596</v>
+                  <v>0.273328</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.253386</v>
+                  <v>0.260703</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.239559</v>
+                  <v>0.246882</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.224752</v>
+                  <v>0.232078</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.208796</v>
+                  <v>0.215942</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.346912</v>
+                  <v>0.352911</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.34136</v>
+                  <v>0.347437</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.334611</v>
+                  <v>0.340815</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.327632</v>
+                  <v>0.333681</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.319593</v>
+                  <v>0.325639</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.311058</v>
+                  <v>0.317122</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +987,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_set</v>
+            <v>foa_unordered_rc16_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1447,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.204632</v>
+                  <v>0.195912</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.205301</v>
+                  <v>0.19706</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.20689</v>
+                  <v>0.196006</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.206233</v>
+                  <v>0.196838</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.207935</v>
+                  <v>0.197821</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.208012</v>
+                  <v>0.198401</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.207997</v>
+                  <v>0.198864</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.208315</v>
+                  <v>0.198849</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.22636</v>
+                  <v>0.216994</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.226367</v>
+                  <v>0.216483</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.226728</v>
+                  <v>0.215332</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.225043</v>
+                  <v>0.213636</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.224394</v>
+                  <v>0.212433</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.223079</v>
+                  <v>0.212771</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.222563</v>
+                  <v>0.212356</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.222215</v>
+                  <v>0.21158</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.221285</v>
+                  <v>0.211342</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.22066</v>
+                  <v>0.211014</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.220091</v>
+                  <v>0.21131</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.219713</v>
+                  <v>0.211178</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.21856</v>
+                  <v>0.210535</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.218688</v>
+                  <v>0.211058</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.232323</v>
+                  <v>0.225388</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.230831</v>
+                  <v>0.222286</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.22923</v>
+                  <v>0.221108</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.227729</v>
+                  <v>0.218269</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.22655</v>
+                  <v>0.216629</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.225282</v>
+                  <v>0.216104</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.223593</v>
+                  <v>0.215542</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.222639</v>
+                  <v>0.214565</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.222377</v>
+                  <v>0.214083</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.221735</v>
+                  <v>0.213151</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.220983</v>
+                  <v>0.212756</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.220952</v>
+                  <v>0.212244</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.219158</v>
+                  <v>0.212313</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.218505</v>
+                  <v>0.212479</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.233458</v>
+                  <v>0.231716</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.232254</v>
+                  <v>0.228089</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.230239</v>
+                  <v>0.225541</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.22907</v>
+                  <v>0.221715</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.228003</v>
+                  <v>0.219716</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.227</v>
+                  <v>0.217608</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.225973</v>
+                  <v>0.216079</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.224801</v>
+                  <v>0.215361</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.224466</v>
+                  <v>0.214512</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.223477</v>
+                  <v>0.213976</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.222685</v>
+                  <v>0.213395</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.224729</v>
+                  <v>0.213081</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.222351</v>
+                  <v>0.212729</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.223062</v>
+                  <v>0.212137</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.221502</v>
+                  <v>0.211929</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.235624</v>
+                  <v>0.226985</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.234518</v>
+                  <v>0.224765</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.233446</v>
+                  <v>0.221165</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.231864</v>
+                  <v>0.219252</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.230758</v>
+                  <v>0.217853</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.23118</v>
+                  <v>0.216655</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.228213</v>
+                  <v>0.215205</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.227403</v>
+                  <v>0.21459</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.226872</v>
+                  <v>0.213892</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.225529</v>
+                  <v>0.213172</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.224864</v>
+                  <v>0.212503</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.223983</v>
+                  <v>0.212304</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.223394</v>
+                  <v>0.211984</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.222467</v>
+                  <v>0.211979</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.237482</v>
+                  <v>0.230208</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.235916</v>
+                  <v>0.224883</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.234626</v>
+                  <v>0.221567</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.233665</v>
+                  <v>0.219015</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.231558</v>
+                  <v>0.217904</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.230702</v>
+                  <v>0.216587</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.228645</v>
+                  <v>0.215397</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.22762</v>
+                  <v>0.214854</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.227053</v>
+                  <v>0.21402</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.226465</v>
+                  <v>0.21366</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.225353</v>
+                  <v>0.212863</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.224509</v>
+                  <v>0.212404</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.223104</v>
+                  <v>0.212223</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.222528</v>
+                  <v>0.211854</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.237542</v>
+                  <v>0.229933</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.236172</v>
+                  <v>0.224301</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.234785</v>
+                  <v>0.221634</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.234096</v>
+                  <v>0.219343</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.232591</v>
+                  <v>0.218126</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.231451</v>
+                  <v>0.217137</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.23006</v>
+                  <v>0.21601</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.229358</v>
+                  <v>0.214977</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.22731</v>
+                  <v>0.214757</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.22605</v>
+                  <v>0.213529</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.225433</v>
+                  <v>0.212993</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.223962</v>
+                  <v>0.212489</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.223502</v>
+                  <v>0.212003</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.222584</v>
+                  <v>0.21166</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.238432</v>
+                  <v>0.229306</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.236771</v>
+                  <v>0.225598</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.235146</v>
+                  <v>0.222495</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.234066</v>
+                  <v>0.219992</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.232277</v>
+                  <v>0.21844</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.230982</v>
+                  <v>0.217086</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.230199</v>
+                  <v>0.21603</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.228377</v>
+                  <v>0.215118</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.227655</v>
+                  <v>0.214407</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.225466</v>
+                  <v>0.213596</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.225115</v>
+                  <v>0.213057</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.224567</v>
+                  <v>0.212665</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.223454</v>
+                  <v>0.212</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.222614</v>
+                  <v>0.211712</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.221666</v>
+                  <v>0.211438</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.236682</v>
+                  <v>0.225697</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.236358</v>
+                  <v>0.222578</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.232764</v>
+                  <v>0.220709</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.233058</v>
+                  <v>0.21886</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.231417</v>
+                  <v>0.217834</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.230362</v>
+                  <v>0.21669</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.22915</v>
+                  <v>0.215701</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.227169</v>
+                  <v>0.214744</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.22703</v>
+                  <v>0.214672</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.225622</v>
+                  <v>0.213705</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.224606</v>
+                  <v>0.213054</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.223277</v>
+                  <v>0.212576</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.222232</v>
+                  <v>0.211978</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.221333</v>
+                  <v>0.211931</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.2373</v>
+                  <v>0.226236</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.235329</v>
+                  <v>0.222892</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.234681</v>
+                  <v>0.220768</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.233497</v>
+                  <v>0.219005</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.23232</v>
+                  <v>0.21759</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.229622</v>
+                  <v>0.216422</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.22937</v>
+                  <v>0.215617</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.227974</v>
+                  <v>0.214832</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.227011</v>
+                  <v>0.214082</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.224741</v>
+                  <v>0.213471</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.224843</v>
+                  <v>0.212914</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.223419</v>
+                  <v>0.212385</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.223042</v>
+                  <v>0.212004</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.221905</v>
+                  <v>0.212133</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.236237</v>
+                  <v>0.227952</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.236407</v>
+                  <v>0.224209</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.235254</v>
+                  <v>0.221617</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.233198</v>
+                  <v>0.21951</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.23159</v>
+                  <v>0.21815</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.230814</v>
+                  <v>0.217027</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1881,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_set</v>
+            <v>foa_unordered_rc15_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2341,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.245865</v>
+                  <v>0.231268</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.246674</v>
+                  <v>0.232151</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.246414</v>
+                  <v>0.233511</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.244751</v>
+                  <v>0.233102</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.246359</v>
+                  <v>0.233692</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.246445</v>
+                  <v>0.234047</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.246945</v>
+                  <v>0.236592</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.269737</v>
+                  <v>0.265773</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.268793</v>
+                  <v>0.256745</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.267001</v>
+                  <v>0.256613</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.266407</v>
+                  <v>0.277037</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.264921</v>
+                  <v>0.253983</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.262399</v>
+                  <v>0.253043</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.26194</v>
+                  <v>0.252393</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.260894</v>
+                  <v>0.274053</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.259722</v>
+                  <v>0.276569</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.258967</v>
+                  <v>0.249118</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.257895</v>
+                  <v>0.246154</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.25718</v>
+                  <v>0.247092</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.256152</v>
+                  <v>0.248933</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.254944</v>
+                  <v>0.247076</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.27632</v>
+                  <v>0.264081</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.275048</v>
+                  <v>0.263005</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.271689</v>
+                  <v>0.262406</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.269002</v>
+                  <v>0.261724</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.267859</v>
+                  <v>0.258214</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.266139</v>
+                  <v>0.256235</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.263847</v>
+                  <v>0.25501</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.262857</v>
+                  <v>0.253997</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.261629</v>
+                  <v>0.253212</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.262459</v>
+                  <v>0.252973</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.261948</v>
+                  <v>0.251955</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.25975</v>
+                  <v>0.250418</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.258529</v>
+                  <v>0.249931</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.259153</v>
+                  <v>0.25125</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.275735</v>
+                  <v>0.267948</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.276597</v>
+                  <v>0.265477</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.274414</v>
+                  <v>0.263563</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.272875</v>
+                  <v>0.261508</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.271347</v>
+                  <v>0.259424</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.269762</v>
+                  <v>0.258308</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.270431</v>
+                  <v>0.257397</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.268755</v>
+                  <v>0.255033</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.266927</v>
+                  <v>0.254953</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.265407</v>
+                  <v>0.252743</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.264446</v>
+                  <v>0.252257</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.2626</v>
+                  <v>0.251358</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.260849</v>
+                  <v>0.250701</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.25997</v>
+                  <v>0.252639</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.281961</v>
+                  <v>0.267618</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.279621</v>
+                  <v>0.26451</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.277794</v>
+                  <v>0.262485</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.276274</v>
+                  <v>0.261372</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.274935</v>
+                  <v>0.259083</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.272725</v>
+                  <v>0.258255</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.271178</v>
+                  <v>0.256473</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.27005</v>
+                  <v>0.254751</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.268395</v>
+                  <v>0.253478</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.267271</v>
+                  <v>0.252454</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.266008</v>
+                  <v>0.251959</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.264475</v>
+                  <v>0.251108</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.262668</v>
+                  <v>0.250374</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.261364</v>
+                  <v>0.249696</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.260009</v>
+                  <v>0.249233</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.277621</v>
+                  <v>0.267199</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.276898</v>
+                  <v>0.264368</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.276261</v>
+                  <v>0.261476</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.274267</v>
+                  <v>0.259992</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.272902</v>
+                  <v>0.258824</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.27092</v>
+                  <v>0.257234</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.269625</v>
+                  <v>0.255778</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.267704</v>
+                  <v>0.254864</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.266185</v>
+                  <v>0.25281</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.264777</v>
+                  <v>0.252056</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.263325</v>
+                  <v>0.251157</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.262286</v>
+                  <v>0.25035</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.26105</v>
+                  <v>0.249625</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.259637</v>
+                  <v>0.249799</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.278805</v>
+                  <v>0.267725</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.276702</v>
+                  <v>0.264639</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.275017</v>
+                  <v>0.26212</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.273307</v>
+                  <v>0.260398</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.271843</v>
+                  <v>0.258807</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.270826</v>
+                  <v>0.257237</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.269119</v>
+                  <v>0.256192</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.267904</v>
+                  <v>0.254682</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.266899</v>
+                  <v>0.253834</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.265002</v>
+                  <v>0.252277</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.263766</v>
+                  <v>0.251467</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.262369</v>
+                  <v>0.25073</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.261068</v>
+                  <v>0.250208</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.259886</v>
+                  <v>0.249795</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.280052</v>
+                  <v>0.268728</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.277665</v>
+                  <v>0.265368</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.276142</v>
+                  <v>0.263136</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.274416</v>
+                  <v>0.261588</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.272648</v>
+                  <v>0.259708</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.27101</v>
+                  <v>0.258439</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.269633</v>
+                  <v>0.257048</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.26746</v>
+                  <v>0.255861</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.266437</v>
+                  <v>0.25506</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.26525</v>
+                  <v>0.253643</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.263854</v>
+                  <v>0.252447</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.262292</v>
+                  <v>0.251631</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.261485</v>
+                  <v>0.25027</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.259949</v>
+                  <v>0.249676</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.280391</v>
+                  <v>0.267902</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.278102</v>
+                  <v>0.265381</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.276477</v>
+                  <v>0.263476</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.274669</v>
+                  <v>0.261695</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.272977</v>
+                  <v>0.259699</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.271421</v>
+                  <v>0.258738</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.26959</v>
+                  <v>0.257442</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.268437</v>
+                  <v>0.255897</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.266589</v>
+                  <v>0.254296</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.265943</v>
+                  <v>0.253976</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.264304</v>
+                  <v>0.253858</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.262891</v>
+                  <v>0.252652</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.261492</v>
+                  <v>0.251436</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.260126</v>
+                  <v>0.251373</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.258663</v>
+                  <v>0.249863</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.278529</v>
+                  <v>0.266506</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.276523</v>
+                  <v>0.26438</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.275106</v>
+                  <v>0.261884</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.272781</v>
+                  <v>0.260327</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.271752</v>
+                  <v>0.25828</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.269838</v>
+                  <v>0.257292</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.268264</v>
+                  <v>0.256414</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.265814</v>
+                  <v>0.255015</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.265664</v>
+                  <v>0.253526</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.264275</v>
+                  <v>0.252946</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.263006</v>
+                  <v>0.252272</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.26151</v>
+                  <v>0.251202</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.260039</v>
+                  <v>0.251597</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.25907</v>
+                  <v>0.251317</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.278923</v>
+                  <v>0.267088</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.277323</v>
+                  <v>0.264928</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.273989</v>
+                  <v>0.263676</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.273467</v>
+                  <v>0.26094</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.271601</v>
+                  <v>0.259854</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.270092</v>
+                  <v>0.258275</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.269008</v>
+                  <v>0.256589</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3217,30 +3217,30 @@
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="4" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="5" style="1" width="11.42578125"/>
+    <col customWidth="1" max="7" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="8" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>absl::flat_hash_set</t>
+          <t>absl::flat_hash_map</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_set</t>
+          <t>foa_unordered_rc16_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_set</t>
+          <t>foa_unordered_rc15_map</t>
         </is>
       </c>
     </row>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.28096</v>
+        <v>0.285925</v>
       </c>
       <c r="C2" t="n">
-        <v>0.195912</v>
+        <v>0.194748</v>
       </c>
       <c r="D2" t="n">
-        <v>0.231268</v>
+        <v>0.232504</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.275285</v>
+        <v>0.272308</v>
       </c>
       <c r="C3" t="n">
-        <v>0.19706</v>
+        <v>0.195936</v>
       </c>
       <c r="D3" t="n">
-        <v>0.232151</v>
+        <v>0.232021</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.260227</v>
+        <v>0.264169</v>
       </c>
       <c r="C4" t="n">
-        <v>0.196006</v>
+        <v>0.196365</v>
       </c>
       <c r="D4" t="n">
-        <v>0.233511</v>
+        <v>0.233416</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.249344</v>
+        <v>0.250845</v>
       </c>
       <c r="C5" t="n">
-        <v>0.196838</v>
+        <v>0.196651</v>
       </c>
       <c r="D5" t="n">
-        <v>0.233102</v>
+        <v>0.233378</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.236975</v>
+        <v>0.238482</v>
       </c>
       <c r="C6" t="n">
-        <v>0.197821</v>
+        <v>0.198053</v>
       </c>
       <c r="D6" t="n">
-        <v>0.233692</v>
+        <v>0.233851</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.225674</v>
+        <v>0.226484</v>
       </c>
       <c r="C7" t="n">
-        <v>0.198401</v>
+        <v>0.197477</v>
       </c>
       <c r="D7" t="n">
-        <v>0.234047</v>
+        <v>0.233668</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.210202</v>
+        <v>0.211702</v>
       </c>
       <c r="C8" t="n">
-        <v>0.198864</v>
+        <v>0.1985</v>
       </c>
       <c r="D8" t="n">
-        <v>0.236592</v>
+        <v>0.235054</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.194356</v>
+        <v>0.196118</v>
       </c>
       <c r="C9" t="n">
-        <v>0.198849</v>
+        <v>0.199719</v>
       </c>
       <c r="D9" t="n">
-        <v>0.265773</v>
+        <v>0.262007</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.334027</v>
+        <v>0.335825</v>
       </c>
       <c r="C10" t="n">
-        <v>0.216994</v>
+        <v>0.216101</v>
       </c>
       <c r="D10" t="n">
-        <v>0.256745</v>
+        <v>0.25694</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.329254</v>
+        <v>0.329758</v>
       </c>
       <c r="C11" t="n">
-        <v>0.216483</v>
+        <v>0.216088</v>
       </c>
       <c r="D11" t="n">
-        <v>0.256613</v>
+        <v>0.262003</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.323249</v>
+        <v>0.324233</v>
       </c>
       <c r="C12" t="n">
-        <v>0.215332</v>
+        <v>0.214901</v>
       </c>
       <c r="D12" t="n">
-        <v>0.277037</v>
+        <v>0.256485</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.318197</v>
+        <v>0.318996</v>
       </c>
       <c r="C13" t="n">
-        <v>0.213636</v>
+        <v>0.213751</v>
       </c>
       <c r="D13" t="n">
-        <v>0.253983</v>
+        <v>0.252875</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.311484</v>
+        <v>0.312355</v>
       </c>
       <c r="C14" t="n">
-        <v>0.212433</v>
+        <v>0.213901</v>
       </c>
       <c r="D14" t="n">
-        <v>0.253043</v>
+        <v>0.252479</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.301987</v>
+        <v>0.302935</v>
       </c>
       <c r="C15" t="n">
-        <v>0.212771</v>
+        <v>0.212448</v>
       </c>
       <c r="D15" t="n">
-        <v>0.252393</v>
+        <v>0.252372</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.293769</v>
+        <v>0.294408</v>
       </c>
       <c r="C16" t="n">
-        <v>0.212356</v>
+        <v>0.211988</v>
       </c>
       <c r="D16" t="n">
-        <v>0.274053</v>
+        <v>0.255053</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.283186</v>
+        <v>0.284451</v>
       </c>
       <c r="C17" t="n">
-        <v>0.21158</v>
+        <v>0.212213</v>
       </c>
       <c r="D17" t="n">
-        <v>0.276569</v>
+        <v>0.249727</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.274789</v>
+        <v>0.275745</v>
       </c>
       <c r="C18" t="n">
-        <v>0.211342</v>
+        <v>0.211364</v>
       </c>
       <c r="D18" t="n">
-        <v>0.249118</v>
+        <v>0.272032</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.264307</v>
+        <v>0.265385</v>
       </c>
       <c r="C19" t="n">
-        <v>0.211014</v>
+        <v>0.211635</v>
       </c>
       <c r="D19" t="n">
-        <v>0.246154</v>
+        <v>0.253264</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.253335</v>
+        <v>0.254578</v>
       </c>
       <c r="C20" t="n">
-        <v>0.21131</v>
+        <v>0.211774</v>
       </c>
       <c r="D20" t="n">
-        <v>0.247092</v>
+        <v>0.247015</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.240375</v>
+        <v>0.241587</v>
       </c>
       <c r="C21" t="n">
-        <v>0.211178</v>
+        <v>0.211308</v>
       </c>
       <c r="D21" t="n">
-        <v>0.248933</v>
+        <v>0.247494</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.225843</v>
+        <v>0.226797</v>
       </c>
       <c r="C22" t="n">
-        <v>0.210535</v>
+        <v>0.210347</v>
       </c>
       <c r="D22" t="n">
-        <v>0.247076</v>
+        <v>0.24688</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.209111</v>
+        <v>0.210278</v>
       </c>
       <c r="C23" t="n">
-        <v>0.211058</v>
+        <v>0.210101</v>
       </c>
       <c r="D23" t="n">
-        <v>0.264081</v>
+        <v>0.264132</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.347854</v>
+        <v>0.347605</v>
       </c>
       <c r="C24" t="n">
-        <v>0.225388</v>
+        <v>0.224209</v>
       </c>
       <c r="D24" t="n">
-        <v>0.263005</v>
+        <v>0.262714</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.342351</v>
+        <v>0.342172</v>
       </c>
       <c r="C25" t="n">
-        <v>0.222286</v>
+        <v>0.222123</v>
       </c>
       <c r="D25" t="n">
-        <v>0.262406</v>
+        <v>0.262546</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.335171</v>
+        <v>0.335106</v>
       </c>
       <c r="C26" t="n">
-        <v>0.221108</v>
+        <v>0.220308</v>
       </c>
       <c r="D26" t="n">
-        <v>0.261724</v>
+        <v>0.261373</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3287</v>
+        <v>0.329309</v>
       </c>
       <c r="C27" t="n">
-        <v>0.218269</v>
+        <v>0.218048</v>
       </c>
       <c r="D27" t="n">
-        <v>0.258214</v>
+        <v>0.258033</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.321793</v>
+        <v>0.322651</v>
       </c>
       <c r="C28" t="n">
-        <v>0.216629</v>
+        <v>0.216985</v>
       </c>
       <c r="D28" t="n">
-        <v>0.256235</v>
+        <v>0.256535</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.313509</v>
+        <v>0.313406</v>
       </c>
       <c r="C29" t="n">
-        <v>0.216104</v>
+        <v>0.216315</v>
       </c>
       <c r="D29" t="n">
-        <v>0.25501</v>
+        <v>0.255204</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.304099</v>
+        <v>0.304443</v>
       </c>
       <c r="C30" t="n">
-        <v>0.215542</v>
+        <v>0.215811</v>
       </c>
       <c r="D30" t="n">
-        <v>0.253997</v>
+        <v>0.25418</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.294429</v>
+        <v>0.294721</v>
       </c>
       <c r="C31" t="n">
-        <v>0.214565</v>
+        <v>0.214764</v>
       </c>
       <c r="D31" t="n">
-        <v>0.253212</v>
+        <v>0.253311</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.283902</v>
+        <v>0.284622</v>
       </c>
       <c r="C32" t="n">
-        <v>0.214083</v>
+        <v>0.214589</v>
       </c>
       <c r="D32" t="n">
-        <v>0.252973</v>
+        <v>0.252993</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.273734</v>
+        <v>0.27385</v>
       </c>
       <c r="C33" t="n">
-        <v>0.213151</v>
+        <v>0.213286</v>
       </c>
       <c r="D33" t="n">
-        <v>0.251955</v>
+        <v>0.252178</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.261908</v>
+        <v>0.262027</v>
       </c>
       <c r="C34" t="n">
-        <v>0.212756</v>
+        <v>0.21326</v>
       </c>
       <c r="D34" t="n">
-        <v>0.250418</v>
+        <v>0.251342</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.247935</v>
+        <v>0.248442</v>
       </c>
       <c r="C35" t="n">
-        <v>0.212244</v>
+        <v>0.21303</v>
       </c>
       <c r="D35" t="n">
-        <v>0.249931</v>
+        <v>0.250681</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.234331</v>
+        <v>0.234552</v>
       </c>
       <c r="C36" t="n">
-        <v>0.212313</v>
+        <v>0.213038</v>
       </c>
       <c r="D36" t="n">
-        <v>0.25125</v>
+        <v>0.250681</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.21972</v>
+        <v>0.219664</v>
       </c>
       <c r="C37" t="n">
-        <v>0.212479</v>
+        <v>0.213707</v>
       </c>
       <c r="D37" t="n">
-        <v>0.267948</v>
+        <v>0.267609</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.351019</v>
+        <v>0.351445</v>
       </c>
       <c r="C38" t="n">
-        <v>0.231716</v>
+        <v>0.229118</v>
       </c>
       <c r="D38" t="n">
-        <v>0.265477</v>
+        <v>0.264882</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.347109</v>
+        <v>0.346736</v>
       </c>
       <c r="C39" t="n">
-        <v>0.228089</v>
+        <v>0.225526</v>
       </c>
       <c r="D39" t="n">
-        <v>0.263563</v>
+        <v>0.26311</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.341148</v>
+        <v>0.341025</v>
       </c>
       <c r="C40" t="n">
-        <v>0.225541</v>
+        <v>0.223926</v>
       </c>
       <c r="D40" t="n">
-        <v>0.261508</v>
+        <v>0.261691</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.334155</v>
+        <v>0.334054</v>
       </c>
       <c r="C41" t="n">
-        <v>0.221715</v>
+        <v>0.220921</v>
       </c>
       <c r="D41" t="n">
-        <v>0.259424</v>
+        <v>0.26008</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.326696</v>
+        <v>0.326971</v>
       </c>
       <c r="C42" t="n">
-        <v>0.219716</v>
+        <v>0.218795</v>
       </c>
       <c r="D42" t="n">
-        <v>0.258308</v>
+        <v>0.257843</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.319361</v>
+        <v>0.319231</v>
       </c>
       <c r="C43" t="n">
-        <v>0.217608</v>
+        <v>0.217492</v>
       </c>
       <c r="D43" t="n">
-        <v>0.257397</v>
+        <v>0.257405</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.310476</v>
+        <v>0.310248</v>
       </c>
       <c r="C44" t="n">
-        <v>0.216079</v>
+        <v>0.216501</v>
       </c>
       <c r="D44" t="n">
-        <v>0.255033</v>
+        <v>0.254479</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.301515</v>
+        <v>0.301363</v>
       </c>
       <c r="C45" t="n">
-        <v>0.215361</v>
+        <v>0.21532</v>
       </c>
       <c r="D45" t="n">
-        <v>0.254953</v>
+        <v>0.255318</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.290456</v>
+        <v>0.29065</v>
       </c>
       <c r="C46" t="n">
-        <v>0.214512</v>
+        <v>0.21456</v>
       </c>
       <c r="D46" t="n">
-        <v>0.252743</v>
+        <v>0.252509</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.279872</v>
+        <v>0.279876</v>
       </c>
       <c r="C47" t="n">
-        <v>0.213976</v>
+        <v>0.214569</v>
       </c>
       <c r="D47" t="n">
-        <v>0.252257</v>
+        <v>0.252104</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.268143</v>
+        <v>0.268315</v>
       </c>
       <c r="C48" t="n">
-        <v>0.213395</v>
+        <v>0.213831</v>
       </c>
       <c r="D48" t="n">
-        <v>0.251358</v>
+        <v>0.251348</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.255679</v>
+        <v>0.25602</v>
       </c>
       <c r="C49" t="n">
-        <v>0.213081</v>
+        <v>0.213264</v>
       </c>
       <c r="D49" t="n">
-        <v>0.250701</v>
+        <v>0.250497</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.241931</v>
+        <v>0.24208</v>
       </c>
       <c r="C50" t="n">
-        <v>0.212729</v>
+        <v>0.21238</v>
       </c>
       <c r="D50" t="n">
-        <v>0.252639</v>
+        <v>0.252458</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.2267</v>
+        <v>0.226687</v>
       </c>
       <c r="C51" t="n">
-        <v>0.212137</v>
+        <v>0.212244</v>
       </c>
       <c r="D51" t="n">
-        <v>0.267618</v>
+        <v>0.267396</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.209666</v>
+        <v>0.209859</v>
       </c>
       <c r="C52" t="n">
-        <v>0.211929</v>
+        <v>0.211735</v>
       </c>
       <c r="D52" t="n">
-        <v>0.26451</v>
+        <v>0.26372</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.349707</v>
+        <v>0.350062</v>
       </c>
       <c r="C53" t="n">
-        <v>0.226985</v>
+        <v>0.22564</v>
       </c>
       <c r="D53" t="n">
-        <v>0.262485</v>
+        <v>0.262434</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.344393</v>
+        <v>0.344536</v>
       </c>
       <c r="C54" t="n">
-        <v>0.224765</v>
+        <v>0.22332</v>
       </c>
       <c r="D54" t="n">
-        <v>0.261372</v>
+        <v>0.261274</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.338195</v>
+        <v>0.338441</v>
       </c>
       <c r="C55" t="n">
-        <v>0.221165</v>
+        <v>0.22006</v>
       </c>
       <c r="D55" t="n">
-        <v>0.259083</v>
+        <v>0.258854</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.330917</v>
+        <v>0.330972</v>
       </c>
       <c r="C56" t="n">
-        <v>0.219252</v>
+        <v>0.218713</v>
       </c>
       <c r="D56" t="n">
-        <v>0.258255</v>
+        <v>0.257472</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.3224</v>
+        <v>0.322669</v>
       </c>
       <c r="C57" t="n">
-        <v>0.217853</v>
+        <v>0.217419</v>
       </c>
       <c r="D57" t="n">
-        <v>0.256473</v>
+        <v>0.256221</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.313751</v>
+        <v>0.314273</v>
       </c>
       <c r="C58" t="n">
-        <v>0.216655</v>
+        <v>0.216534</v>
       </c>
       <c r="D58" t="n">
-        <v>0.254751</v>
+        <v>0.25523</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.304247</v>
+        <v>0.304693</v>
       </c>
       <c r="C59" t="n">
-        <v>0.215205</v>
+        <v>0.215199</v>
       </c>
       <c r="D59" t="n">
-        <v>0.253478</v>
+        <v>0.253392</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.294116</v>
+        <v>0.294445</v>
       </c>
       <c r="C60" t="n">
-        <v>0.21459</v>
+        <v>0.214542</v>
       </c>
       <c r="D60" t="n">
-        <v>0.252454</v>
+        <v>0.252346</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.283229</v>
+        <v>0.283605</v>
       </c>
       <c r="C61" t="n">
-        <v>0.213892</v>
+        <v>0.214184</v>
       </c>
       <c r="D61" t="n">
-        <v>0.251959</v>
+        <v>0.251531</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.27188</v>
+        <v>0.272089</v>
       </c>
       <c r="C62" t="n">
-        <v>0.213172</v>
+        <v>0.213294</v>
       </c>
       <c r="D62" t="n">
-        <v>0.251108</v>
+        <v>0.250984</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.259034</v>
+        <v>0.259174</v>
       </c>
       <c r="C63" t="n">
-        <v>0.212503</v>
+        <v>0.212559</v>
       </c>
       <c r="D63" t="n">
-        <v>0.250374</v>
+        <v>0.250293</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.245623</v>
+        <v>0.245772</v>
       </c>
       <c r="C64" t="n">
-        <v>0.212304</v>
+        <v>0.212114</v>
       </c>
       <c r="D64" t="n">
-        <v>0.249696</v>
+        <v>0.249459</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.230273</v>
+        <v>0.230543</v>
       </c>
       <c r="C65" t="n">
-        <v>0.211984</v>
+        <v>0.211929</v>
       </c>
       <c r="D65" t="n">
-        <v>0.249233</v>
+        <v>0.249167</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.213342</v>
+        <v>0.213619</v>
       </c>
       <c r="C66" t="n">
-        <v>0.211979</v>
+        <v>0.211815</v>
       </c>
       <c r="D66" t="n">
-        <v>0.267199</v>
+        <v>0.266402</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.352417</v>
+        <v>0.35227</v>
       </c>
       <c r="C67" t="n">
-        <v>0.230208</v>
+        <v>0.227332</v>
       </c>
       <c r="D67" t="n">
-        <v>0.264368</v>
+        <v>0.263913</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.346913</v>
+        <v>0.347191</v>
       </c>
       <c r="C68" t="n">
-        <v>0.224883</v>
+        <v>0.223365</v>
       </c>
       <c r="D68" t="n">
-        <v>0.261476</v>
+        <v>0.260406</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.34069</v>
+        <v>0.341021</v>
       </c>
       <c r="C69" t="n">
-        <v>0.221567</v>
+        <v>0.220783</v>
       </c>
       <c r="D69" t="n">
-        <v>0.259992</v>
+        <v>0.259617</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.33338</v>
+        <v>0.333331</v>
       </c>
       <c r="C70" t="n">
-        <v>0.219015</v>
+        <v>0.218442</v>
       </c>
       <c r="D70" t="n">
-        <v>0.258824</v>
+        <v>0.258079</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.325287</v>
+        <v>0.325503</v>
       </c>
       <c r="C71" t="n">
-        <v>0.217904</v>
+        <v>0.217485</v>
       </c>
       <c r="D71" t="n">
-        <v>0.257234</v>
+        <v>0.25679</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.316404</v>
+        <v>0.316434</v>
       </c>
       <c r="C72" t="n">
-        <v>0.216587</v>
+        <v>0.216409</v>
       </c>
       <c r="D72" t="n">
-        <v>0.255778</v>
+        <v>0.255863</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.30706</v>
+        <v>0.306943</v>
       </c>
       <c r="C73" t="n">
-        <v>0.215397</v>
+        <v>0.215642</v>
       </c>
       <c r="D73" t="n">
-        <v>0.254864</v>
+        <v>0.254723</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.297067</v>
+        <v>0.297068</v>
       </c>
       <c r="C74" t="n">
-        <v>0.214854</v>
+        <v>0.214931</v>
       </c>
       <c r="D74" t="n">
-        <v>0.25281</v>
+        <v>0.252787</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.286289</v>
+        <v>0.286364</v>
       </c>
       <c r="C75" t="n">
-        <v>0.21402</v>
+        <v>0.214149</v>
       </c>
       <c r="D75" t="n">
-        <v>0.252056</v>
+        <v>0.252174</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.275097</v>
+        <v>0.275227</v>
       </c>
       <c r="C76" t="n">
-        <v>0.21366</v>
+        <v>0.213711</v>
       </c>
       <c r="D76" t="n">
-        <v>0.251157</v>
+        <v>0.251035</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.262689</v>
+        <v>0.262986</v>
       </c>
       <c r="C77" t="n">
-        <v>0.212863</v>
+        <v>0.213093</v>
       </c>
       <c r="D77" t="n">
-        <v>0.25035</v>
+        <v>0.250177</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.248989</v>
+        <v>0.249145</v>
       </c>
       <c r="C78" t="n">
-        <v>0.212404</v>
+        <v>0.212267</v>
       </c>
       <c r="D78" t="n">
-        <v>0.249625</v>
+        <v>0.249425</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.234185</v>
+        <v>0.234451</v>
       </c>
       <c r="C79" t="n">
-        <v>0.212223</v>
+        <v>0.212061</v>
       </c>
       <c r="D79" t="n">
-        <v>0.249799</v>
+        <v>0.249677</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.218351</v>
+        <v>0.218483</v>
       </c>
       <c r="C80" t="n">
-        <v>0.211854</v>
+        <v>0.211729</v>
       </c>
       <c r="D80" t="n">
-        <v>0.267725</v>
+        <v>0.266755</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.353918</v>
+        <v>0.353758</v>
       </c>
       <c r="C81" t="n">
-        <v>0.229933</v>
+        <v>0.226879</v>
       </c>
       <c r="D81" t="n">
-        <v>0.264639</v>
+        <v>0.264214</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.348163</v>
+        <v>0.347962</v>
       </c>
       <c r="C82" t="n">
-        <v>0.224301</v>
+        <v>0.223128</v>
       </c>
       <c r="D82" t="n">
-        <v>0.26212</v>
+        <v>0.262215</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.341876</v>
+        <v>0.341569</v>
       </c>
       <c r="C83" t="n">
-        <v>0.221634</v>
+        <v>0.220703</v>
       </c>
       <c r="D83" t="n">
-        <v>0.260398</v>
+        <v>0.260667</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.334423</v>
+        <v>0.334506</v>
       </c>
       <c r="C84" t="n">
-        <v>0.219343</v>
+        <v>0.218978</v>
       </c>
       <c r="D84" t="n">
-        <v>0.258807</v>
+        <v>0.259212</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.326677</v>
+        <v>0.326666</v>
       </c>
       <c r="C85" t="n">
-        <v>0.218126</v>
+        <v>0.217935</v>
       </c>
       <c r="D85" t="n">
-        <v>0.257237</v>
+        <v>0.257645</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.318483</v>
+        <v>0.318282</v>
       </c>
       <c r="C86" t="n">
-        <v>0.217137</v>
+        <v>0.216926</v>
       </c>
       <c r="D86" t="n">
-        <v>0.256192</v>
+        <v>0.256761</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.309192</v>
+        <v>0.309329</v>
       </c>
       <c r="C87" t="n">
-        <v>0.21601</v>
+        <v>0.215796</v>
       </c>
       <c r="D87" t="n">
-        <v>0.254682</v>
+        <v>0.2558</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.299657</v>
+        <v>0.299625</v>
       </c>
       <c r="C88" t="n">
-        <v>0.214977</v>
+        <v>0.215095</v>
       </c>
       <c r="D88" t="n">
-        <v>0.253834</v>
+        <v>0.254242</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.289052</v>
+        <v>0.289293</v>
       </c>
       <c r="C89" t="n">
-        <v>0.214757</v>
+        <v>0.214248</v>
       </c>
       <c r="D89" t="n">
-        <v>0.252277</v>
+        <v>0.252252</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.277682</v>
+        <v>0.277765</v>
       </c>
       <c r="C90" t="n">
-        <v>0.213529</v>
+        <v>0.213717</v>
       </c>
       <c r="D90" t="n">
-        <v>0.251467</v>
+        <v>0.251572</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.265329</v>
+        <v>0.26552</v>
       </c>
       <c r="C91" t="n">
-        <v>0.212993</v>
+        <v>0.213096</v>
       </c>
       <c r="D91" t="n">
-        <v>0.25073</v>
+        <v>0.25095</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.251956</v>
+        <v>0.251952</v>
       </c>
       <c r="C92" t="n">
-        <v>0.212489</v>
+        <v>0.212622</v>
       </c>
       <c r="D92" t="n">
-        <v>0.250208</v>
+        <v>0.250297</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.237928</v>
+        <v>0.237985</v>
       </c>
       <c r="C93" t="n">
-        <v>0.212003</v>
+        <v>0.212112</v>
       </c>
       <c r="D93" t="n">
-        <v>0.249795</v>
+        <v>0.249957</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.221988</v>
+        <v>0.222226</v>
       </c>
       <c r="C94" t="n">
-        <v>0.21166</v>
+        <v>0.211819</v>
       </c>
       <c r="D94" t="n">
-        <v>0.268728</v>
+        <v>0.267817</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.355226</v>
+        <v>0.355318</v>
       </c>
       <c r="C95" t="n">
-        <v>0.229306</v>
+        <v>0.227147</v>
       </c>
       <c r="D95" t="n">
-        <v>0.265368</v>
+        <v>0.26485</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.349632</v>
+        <v>0.350084</v>
       </c>
       <c r="C96" t="n">
-        <v>0.225598</v>
+        <v>0.224011</v>
       </c>
       <c r="D96" t="n">
-        <v>0.263136</v>
+        <v>0.262743</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.343221</v>
+        <v>0.343875</v>
       </c>
       <c r="C97" t="n">
-        <v>0.222495</v>
+        <v>0.221687</v>
       </c>
       <c r="D97" t="n">
-        <v>0.261588</v>
+        <v>0.261615</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.336572</v>
+        <v>0.336658</v>
       </c>
       <c r="C98" t="n">
-        <v>0.219992</v>
+        <v>0.219492</v>
       </c>
       <c r="D98" t="n">
-        <v>0.259708</v>
+        <v>0.259816</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.32902</v>
+        <v>0.328984</v>
       </c>
       <c r="C99" t="n">
-        <v>0.21844</v>
+        <v>0.218172</v>
       </c>
       <c r="D99" t="n">
-        <v>0.258439</v>
+        <v>0.258246</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.320108</v>
+        <v>0.320499</v>
       </c>
       <c r="C100" t="n">
-        <v>0.217086</v>
+        <v>0.217028</v>
       </c>
       <c r="D100" t="n">
-        <v>0.257048</v>
+        <v>0.25702</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.311141</v>
+        <v>0.311439</v>
       </c>
       <c r="C101" t="n">
-        <v>0.21603</v>
+        <v>0.216097</v>
       </c>
       <c r="D101" t="n">
-        <v>0.255861</v>
+        <v>0.256322</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.30161</v>
+        <v>0.301933</v>
       </c>
       <c r="C102" t="n">
-        <v>0.215118</v>
+        <v>0.215244</v>
       </c>
       <c r="D102" t="n">
-        <v>0.25506</v>
+        <v>0.25508</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.29136</v>
+        <v>0.291598</v>
       </c>
       <c r="C103" t="n">
-        <v>0.214407</v>
+        <v>0.21449</v>
       </c>
       <c r="D103" t="n">
-        <v>0.253643</v>
+        <v>0.253893</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.280099</v>
+        <v>0.28061</v>
       </c>
       <c r="C104" t="n">
-        <v>0.213596</v>
+        <v>0.213707</v>
       </c>
       <c r="D104" t="n">
-        <v>0.252447</v>
+        <v>0.25302</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.267905</v>
+        <v>0.268188</v>
       </c>
       <c r="C105" t="n">
-        <v>0.213057</v>
+        <v>0.213184</v>
       </c>
       <c r="D105" t="n">
-        <v>0.251631</v>
+        <v>0.251745</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.254834</v>
+        <v>0.255238</v>
       </c>
       <c r="C106" t="n">
-        <v>0.212665</v>
+        <v>0.212793</v>
       </c>
       <c r="D106" t="n">
-        <v>0.25027</v>
+        <v>0.250346</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.241048</v>
+        <v>0.241362</v>
       </c>
       <c r="C107" t="n">
-        <v>0.212</v>
+        <v>0.212141</v>
       </c>
       <c r="D107" t="n">
-        <v>0.249676</v>
+        <v>0.249757</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.225455</v>
+        <v>0.225633</v>
       </c>
       <c r="C108" t="n">
-        <v>0.211712</v>
+        <v>0.211854</v>
       </c>
       <c r="D108" t="n">
-        <v>0.267902</v>
+        <v>0.267572</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.209024</v>
+        <v>0.209072</v>
       </c>
       <c r="C109" t="n">
-        <v>0.211438</v>
+        <v>0.211513</v>
       </c>
       <c r="D109" t="n">
-        <v>0.265381</v>
+        <v>0.264606</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.350837</v>
+        <v>0.350955</v>
       </c>
       <c r="C110" t="n">
-        <v>0.225697</v>
+        <v>0.224429</v>
       </c>
       <c r="D110" t="n">
-        <v>0.263476</v>
+        <v>0.263542</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.344389</v>
+        <v>0.344835</v>
       </c>
       <c r="C111" t="n">
-        <v>0.222578</v>
+        <v>0.221778</v>
       </c>
       <c r="D111" t="n">
-        <v>0.261695</v>
+        <v>0.261408</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.33797</v>
+        <v>0.338076</v>
       </c>
       <c r="C112" t="n">
-        <v>0.220709</v>
+        <v>0.220025</v>
       </c>
       <c r="D112" t="n">
-        <v>0.259699</v>
+        <v>0.259858</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.330553</v>
+        <v>0.330631</v>
       </c>
       <c r="C113" t="n">
-        <v>0.21886</v>
+        <v>0.218305</v>
       </c>
       <c r="D113" t="n">
-        <v>0.258738</v>
+        <v>0.258482</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.322178</v>
+        <v>0.322031</v>
       </c>
       <c r="C114" t="n">
-        <v>0.217834</v>
+        <v>0.217291</v>
       </c>
       <c r="D114" t="n">
-        <v>0.257442</v>
+        <v>0.257529</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.313349</v>
+        <v>0.313512</v>
       </c>
       <c r="C115" t="n">
-        <v>0.21669</v>
+        <v>0.215944</v>
       </c>
       <c r="D115" t="n">
-        <v>0.255897</v>
+        <v>0.256654</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.303814</v>
+        <v>0.303853</v>
       </c>
       <c r="C116" t="n">
-        <v>0.215701</v>
+        <v>0.215317</v>
       </c>
       <c r="D116" t="n">
-        <v>0.254296</v>
+        <v>0.254801</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.293692</v>
+        <v>0.293615</v>
       </c>
       <c r="C117" t="n">
-        <v>0.214744</v>
+        <v>0.214873</v>
       </c>
       <c r="D117" t="n">
-        <v>0.253976</v>
+        <v>0.254533</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.282839</v>
+        <v>0.282705</v>
       </c>
       <c r="C118" t="n">
-        <v>0.214672</v>
+        <v>0.214209</v>
       </c>
       <c r="D118" t="n">
-        <v>0.253858</v>
+        <v>0.253687</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.270756</v>
+        <v>0.270932</v>
       </c>
       <c r="C119" t="n">
-        <v>0.213705</v>
+        <v>0.213523</v>
       </c>
       <c r="D119" t="n">
-        <v>0.252652</v>
+        <v>0.252881</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.258147</v>
+        <v>0.25827</v>
       </c>
       <c r="C120" t="n">
-        <v>0.213054</v>
+        <v>0.213008</v>
       </c>
       <c r="D120" t="n">
-        <v>0.251436</v>
+        <v>0.251725</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.244214</v>
+        <v>0.244374</v>
       </c>
       <c r="C121" t="n">
-        <v>0.212576</v>
+        <v>0.212482</v>
       </c>
       <c r="D121" t="n">
-        <v>0.251373</v>
+        <v>0.251573</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.229059</v>
+        <v>0.229174</v>
       </c>
       <c r="C122" t="n">
-        <v>0.211978</v>
+        <v>0.212175</v>
       </c>
       <c r="D122" t="n">
-        <v>0.249863</v>
+        <v>0.249954</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.212331</v>
+        <v>0.212475</v>
       </c>
       <c r="C123" t="n">
-        <v>0.211931</v>
+        <v>0.21185</v>
       </c>
       <c r="D123" t="n">
-        <v>0.266506</v>
+        <v>0.265863</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.352099</v>
+        <v>0.351737</v>
       </c>
       <c r="C124" t="n">
-        <v>0.226236</v>
+        <v>0.225336</v>
       </c>
       <c r="D124" t="n">
-        <v>0.26438</v>
+        <v>0.263487</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.346249</v>
+        <v>0.346087</v>
       </c>
       <c r="C125" t="n">
-        <v>0.222892</v>
+        <v>0.222231</v>
       </c>
       <c r="D125" t="n">
-        <v>0.261884</v>
+        <v>0.261581</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.339646</v>
+        <v>0.339516</v>
       </c>
       <c r="C126" t="n">
-        <v>0.220768</v>
+        <v>0.220306</v>
       </c>
       <c r="D126" t="n">
-        <v>0.260327</v>
+        <v>0.260375</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.332407</v>
+        <v>0.332191</v>
       </c>
       <c r="C127" t="n">
-        <v>0.219005</v>
+        <v>0.21868</v>
       </c>
       <c r="D127" t="n">
-        <v>0.25828</v>
+        <v>0.25813</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.324287</v>
+        <v>0.324147</v>
       </c>
       <c r="C128" t="n">
-        <v>0.21759</v>
+        <v>0.217292</v>
       </c>
       <c r="D128" t="n">
-        <v>0.257292</v>
+        <v>0.257236</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.315583</v>
+        <v>0.31559</v>
       </c>
       <c r="C129" t="n">
-        <v>0.216422</v>
+        <v>0.216163</v>
       </c>
       <c r="D129" t="n">
-        <v>0.256414</v>
+        <v>0.255843</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.305883</v>
+        <v>0.30576</v>
       </c>
       <c r="C130" t="n">
-        <v>0.215617</v>
+        <v>0.215374</v>
       </c>
       <c r="D130" t="n">
-        <v>0.255015</v>
+        <v>0.255374</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.295897</v>
+        <v>0.295755</v>
       </c>
       <c r="C131" t="n">
-        <v>0.214832</v>
+        <v>0.214628</v>
       </c>
       <c r="D131" t="n">
-        <v>0.253526</v>
+        <v>0.254747</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.285083</v>
+        <v>0.285059</v>
       </c>
       <c r="C132" t="n">
-        <v>0.214082</v>
+        <v>0.213956</v>
       </c>
       <c r="D132" t="n">
-        <v>0.252946</v>
+        <v>0.2529</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.273328</v>
+        <v>0.273162</v>
       </c>
       <c r="C133" t="n">
-        <v>0.213471</v>
+        <v>0.213351</v>
       </c>
       <c r="D133" t="n">
-        <v>0.252272</v>
+        <v>0.252531</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.260703</v>
+        <v>0.260665</v>
       </c>
       <c r="C134" t="n">
-        <v>0.212914</v>
+        <v>0.212833</v>
       </c>
       <c r="D134" t="n">
-        <v>0.251202</v>
+        <v>0.251434</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.246882</v>
+        <v>0.246899</v>
       </c>
       <c r="C135" t="n">
-        <v>0.212385</v>
+        <v>0.212325</v>
       </c>
       <c r="D135" t="n">
-        <v>0.251597</v>
+        <v>0.251599</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.232078</v>
+        <v>0.232056</v>
       </c>
       <c r="C136" t="n">
-        <v>0.212004</v>
+        <v>0.212211</v>
       </c>
       <c r="D136" t="n">
-        <v>0.251317</v>
+        <v>0.25118</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.215942</v>
+        <v>0.215857</v>
       </c>
       <c r="C137" t="n">
-        <v>0.212133</v>
+        <v>0.211995</v>
       </c>
       <c r="D137" t="n">
-        <v>0.267088</v>
+        <v>0.26676</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.352911</v>
+        <v>0.352709</v>
       </c>
       <c r="C138" t="n">
-        <v>0.227952</v>
+        <v>0.226781</v>
       </c>
       <c r="D138" t="n">
-        <v>0.264928</v>
+        <v>0.264607</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.347437</v>
+        <v>0.34711</v>
       </c>
       <c r="C139" t="n">
-        <v>0.224209</v>
+        <v>0.223501</v>
       </c>
       <c r="D139" t="n">
-        <v>0.263676</v>
+        <v>0.263623</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.340815</v>
+        <v>0.340769</v>
       </c>
       <c r="C140" t="n">
-        <v>0.221617</v>
+        <v>0.221094</v>
       </c>
       <c r="D140" t="n">
-        <v>0.26094</v>
+        <v>0.26101</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.333681</v>
+        <v>0.333413</v>
       </c>
       <c r="C141" t="n">
-        <v>0.21951</v>
+        <v>0.219224</v>
       </c>
       <c r="D141" t="n">
-        <v>0.259854</v>
+        <v>0.259183</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.325639</v>
+        <v>0.325405</v>
       </c>
       <c r="C142" t="n">
-        <v>0.21815</v>
+        <v>0.217935</v>
       </c>
       <c r="D142" t="n">
-        <v>0.258275</v>
+        <v>0.257925</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.317122</v>
+        <v>0.316858</v>
       </c>
       <c r="C143" t="n">
-        <v>0.217027</v>
+        <v>0.216865</v>
       </c>
       <c r="D143" t="n">
-        <v>0.256589</v>
+        <v>0.256533</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.285925</v>
+        <v>0.279481</v>
       </c>
       <c r="C2" t="n">
-        <v>0.194748</v>
+        <v>0.196082</v>
       </c>
       <c r="D2" t="n">
-        <v>0.232504</v>
+        <v>0.231564</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.272308</v>
+        <v>0.266628</v>
       </c>
       <c r="C3" t="n">
-        <v>0.195936</v>
+        <v>0.197289</v>
       </c>
       <c r="D3" t="n">
-        <v>0.232021</v>
+        <v>0.232227</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.264169</v>
+        <v>0.258768</v>
       </c>
       <c r="C4" t="n">
-        <v>0.196365</v>
+        <v>0.196205</v>
       </c>
       <c r="D4" t="n">
-        <v>0.233416</v>
+        <v>0.23329</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.250845</v>
+        <v>0.24831</v>
       </c>
       <c r="C5" t="n">
-        <v>0.196651</v>
+        <v>0.196013</v>
       </c>
       <c r="D5" t="n">
-        <v>0.233378</v>
+        <v>0.233229</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.238482</v>
+        <v>0.236998</v>
       </c>
       <c r="C6" t="n">
-        <v>0.198053</v>
+        <v>0.197858</v>
       </c>
       <c r="D6" t="n">
-        <v>0.233851</v>
+        <v>0.234353</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.226484</v>
+        <v>0.22462</v>
       </c>
       <c r="C7" t="n">
-        <v>0.197477</v>
+        <v>0.198402</v>
       </c>
       <c r="D7" t="n">
-        <v>0.233668</v>
+        <v>0.233501</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.211702</v>
+        <v>0.209481</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1985</v>
+        <v>0.199043</v>
       </c>
       <c r="D8" t="n">
-        <v>0.235054</v>
+        <v>0.241154</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.196118</v>
+        <v>0.194557</v>
       </c>
       <c r="C9" t="n">
-        <v>0.199719</v>
+        <v>0.20146</v>
       </c>
       <c r="D9" t="n">
-        <v>0.262007</v>
+        <v>0.259338</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.335825</v>
+        <v>0.333804</v>
       </c>
       <c r="C10" t="n">
-        <v>0.216101</v>
+        <v>0.215956</v>
       </c>
       <c r="D10" t="n">
-        <v>0.25694</v>
+        <v>0.256437</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.329758</v>
+        <v>0.329329</v>
       </c>
       <c r="C11" t="n">
-        <v>0.216088</v>
+        <v>0.216494</v>
       </c>
       <c r="D11" t="n">
-        <v>0.262003</v>
+        <v>0.255952</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.324233</v>
+        <v>0.322734</v>
       </c>
       <c r="C12" t="n">
-        <v>0.214901</v>
+        <v>0.214846</v>
       </c>
       <c r="D12" t="n">
-        <v>0.256485</v>
+        <v>0.276674</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.318996</v>
+        <v>0.318075</v>
       </c>
       <c r="C13" t="n">
-        <v>0.213751</v>
+        <v>0.213756</v>
       </c>
       <c r="D13" t="n">
-        <v>0.252875</v>
+        <v>0.253055</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.312355</v>
+        <v>0.310172</v>
       </c>
       <c r="C14" t="n">
-        <v>0.213901</v>
+        <v>0.212532</v>
       </c>
       <c r="D14" t="n">
-        <v>0.252479</v>
+        <v>0.269591</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.302935</v>
+        <v>0.301782</v>
       </c>
       <c r="C15" t="n">
-        <v>0.212448</v>
+        <v>0.212222</v>
       </c>
       <c r="D15" t="n">
-        <v>0.252372</v>
+        <v>0.25239</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.294408</v>
+        <v>0.292379</v>
       </c>
       <c r="C16" t="n">
-        <v>0.211988</v>
+        <v>0.211546</v>
       </c>
       <c r="D16" t="n">
-        <v>0.255053</v>
+        <v>0.251628</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.284451</v>
+        <v>0.284185</v>
       </c>
       <c r="C17" t="n">
-        <v>0.212213</v>
+        <v>0.211493</v>
       </c>
       <c r="D17" t="n">
-        <v>0.249727</v>
+        <v>0.249933</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.275745</v>
+        <v>0.274557</v>
       </c>
       <c r="C18" t="n">
-        <v>0.211364</v>
+        <v>0.211135</v>
       </c>
       <c r="D18" t="n">
-        <v>0.272032</v>
+        <v>0.251518</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.265385</v>
+        <v>0.264657</v>
       </c>
       <c r="C19" t="n">
-        <v>0.211635</v>
+        <v>0.210582</v>
       </c>
       <c r="D19" t="n">
-        <v>0.253264</v>
+        <v>0.24791</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.254578</v>
+        <v>0.254337</v>
       </c>
       <c r="C20" t="n">
-        <v>0.211774</v>
+        <v>0.211574</v>
       </c>
       <c r="D20" t="n">
-        <v>0.247015</v>
+        <v>0.247365</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.241587</v>
+        <v>0.240841</v>
       </c>
       <c r="C21" t="n">
-        <v>0.211308</v>
+        <v>0.211424</v>
       </c>
       <c r="D21" t="n">
-        <v>0.247494</v>
+        <v>0.247389</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.226797</v>
+        <v>0.226089</v>
       </c>
       <c r="C22" t="n">
-        <v>0.210347</v>
+        <v>0.210856</v>
       </c>
       <c r="D22" t="n">
-        <v>0.24688</v>
+        <v>0.247259</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.210278</v>
+        <v>0.209053</v>
       </c>
       <c r="C23" t="n">
-        <v>0.210101</v>
+        <v>0.210552</v>
       </c>
       <c r="D23" t="n">
-        <v>0.264132</v>
+        <v>0.264332</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.347605</v>
+        <v>0.347806</v>
       </c>
       <c r="C24" t="n">
-        <v>0.224209</v>
+        <v>0.224692</v>
       </c>
       <c r="D24" t="n">
-        <v>0.262714</v>
+        <v>0.2627</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.342172</v>
+        <v>0.341666</v>
       </c>
       <c r="C25" t="n">
-        <v>0.222123</v>
+        <v>0.222675</v>
       </c>
       <c r="D25" t="n">
-        <v>0.262546</v>
+        <v>0.263349</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.335106</v>
+        <v>0.334883</v>
       </c>
       <c r="C26" t="n">
-        <v>0.220308</v>
+        <v>0.220768</v>
       </c>
       <c r="D26" t="n">
-        <v>0.261373</v>
+        <v>0.261455</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.329309</v>
+        <v>0.328466</v>
       </c>
       <c r="C27" t="n">
-        <v>0.218048</v>
+        <v>0.21881</v>
       </c>
       <c r="D27" t="n">
-        <v>0.258033</v>
+        <v>0.258383</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.322651</v>
+        <v>0.321327</v>
       </c>
       <c r="C28" t="n">
-        <v>0.216985</v>
+        <v>0.217125</v>
       </c>
       <c r="D28" t="n">
-        <v>0.256535</v>
+        <v>0.256458</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.313406</v>
+        <v>0.312968</v>
       </c>
       <c r="C29" t="n">
-        <v>0.216315</v>
+        <v>0.216414</v>
       </c>
       <c r="D29" t="n">
-        <v>0.255204</v>
+        <v>0.255133</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.304443</v>
+        <v>0.303717</v>
       </c>
       <c r="C30" t="n">
-        <v>0.215811</v>
+        <v>0.216034</v>
       </c>
       <c r="D30" t="n">
-        <v>0.25418</v>
+        <v>0.254032</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.294721</v>
+        <v>0.294387</v>
       </c>
       <c r="C31" t="n">
-        <v>0.214764</v>
+        <v>0.214859</v>
       </c>
       <c r="D31" t="n">
-        <v>0.253311</v>
+        <v>0.25313</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.284622</v>
+        <v>0.284396</v>
       </c>
       <c r="C32" t="n">
-        <v>0.214589</v>
+        <v>0.214241</v>
       </c>
       <c r="D32" t="n">
-        <v>0.252993</v>
+        <v>0.253069</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.27385</v>
+        <v>0.273902</v>
       </c>
       <c r="C33" t="n">
-        <v>0.213286</v>
+        <v>0.213321</v>
       </c>
       <c r="D33" t="n">
-        <v>0.252178</v>
+        <v>0.252135</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.262027</v>
+        <v>0.262245</v>
       </c>
       <c r="C34" t="n">
-        <v>0.21326</v>
+        <v>0.212839</v>
       </c>
       <c r="D34" t="n">
-        <v>0.251342</v>
+        <v>0.251305</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.248442</v>
+        <v>0.248357</v>
       </c>
       <c r="C35" t="n">
-        <v>0.21303</v>
+        <v>0.212269</v>
       </c>
       <c r="D35" t="n">
-        <v>0.250681</v>
+        <v>0.250716</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.234552</v>
+        <v>0.234627</v>
       </c>
       <c r="C36" t="n">
-        <v>0.213038</v>
+        <v>0.212149</v>
       </c>
       <c r="D36" t="n">
-        <v>0.250681</v>
+        <v>0.251414</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.219664</v>
+        <v>0.219619</v>
       </c>
       <c r="C37" t="n">
-        <v>0.213707</v>
+        <v>0.212701</v>
       </c>
       <c r="D37" t="n">
-        <v>0.267609</v>
+        <v>0.267845</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.351445</v>
+        <v>0.351753</v>
       </c>
       <c r="C38" t="n">
-        <v>0.229118</v>
+        <v>0.228666</v>
       </c>
       <c r="D38" t="n">
-        <v>0.264882</v>
+        <v>0.265694</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.346736</v>
+        <v>0.347188</v>
       </c>
       <c r="C39" t="n">
-        <v>0.225526</v>
+        <v>0.226018</v>
       </c>
       <c r="D39" t="n">
-        <v>0.26311</v>
+        <v>0.263077</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.341025</v>
+        <v>0.341323</v>
       </c>
       <c r="C40" t="n">
-        <v>0.223926</v>
+        <v>0.223763</v>
       </c>
       <c r="D40" t="n">
-        <v>0.261691</v>
+        <v>0.261637</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.334054</v>
+        <v>0.33424</v>
       </c>
       <c r="C41" t="n">
-        <v>0.220921</v>
+        <v>0.221139</v>
       </c>
       <c r="D41" t="n">
-        <v>0.26008</v>
+        <v>0.259674</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.326971</v>
+        <v>0.327271</v>
       </c>
       <c r="C42" t="n">
-        <v>0.218795</v>
+        <v>0.218824</v>
       </c>
       <c r="D42" t="n">
-        <v>0.257843</v>
+        <v>0.258144</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.319231</v>
+        <v>0.31975</v>
       </c>
       <c r="C43" t="n">
-        <v>0.217492</v>
+        <v>0.217488</v>
       </c>
       <c r="D43" t="n">
-        <v>0.257405</v>
+        <v>0.25767</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.310248</v>
+        <v>0.310484</v>
       </c>
       <c r="C44" t="n">
-        <v>0.216501</v>
+        <v>0.216305</v>
       </c>
       <c r="D44" t="n">
-        <v>0.254479</v>
+        <v>0.255055</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.301363</v>
+        <v>0.30192</v>
       </c>
       <c r="C45" t="n">
-        <v>0.21532</v>
+        <v>0.215307</v>
       </c>
       <c r="D45" t="n">
-        <v>0.255318</v>
+        <v>0.254199</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.29065</v>
+        <v>0.290997</v>
       </c>
       <c r="C46" t="n">
-        <v>0.21456</v>
+        <v>0.214461</v>
       </c>
       <c r="D46" t="n">
-        <v>0.252509</v>
+        <v>0.252949</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.279876</v>
+        <v>0.279969</v>
       </c>
       <c r="C47" t="n">
-        <v>0.214569</v>
+        <v>0.214137</v>
       </c>
       <c r="D47" t="n">
-        <v>0.252104</v>
+        <v>0.252249</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.268315</v>
+        <v>0.268546</v>
       </c>
       <c r="C48" t="n">
-        <v>0.213831</v>
+        <v>0.213546</v>
       </c>
       <c r="D48" t="n">
-        <v>0.251348</v>
+        <v>0.251323</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.25602</v>
+        <v>0.256264</v>
       </c>
       <c r="C49" t="n">
-        <v>0.213264</v>
+        <v>0.212928</v>
       </c>
       <c r="D49" t="n">
-        <v>0.250497</v>
+        <v>0.250433</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.24208</v>
+        <v>0.241938</v>
       </c>
       <c r="C50" t="n">
-        <v>0.21238</v>
+        <v>0.212544</v>
       </c>
       <c r="D50" t="n">
-        <v>0.252458</v>
+        <v>0.252122</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.226687</v>
+        <v>0.226819</v>
       </c>
       <c r="C51" t="n">
-        <v>0.212244</v>
+        <v>0.212399</v>
       </c>
       <c r="D51" t="n">
-        <v>0.267396</v>
+        <v>0.26812</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.209859</v>
+        <v>0.209857</v>
       </c>
       <c r="C52" t="n">
-        <v>0.211735</v>
+        <v>0.211882</v>
       </c>
       <c r="D52" t="n">
-        <v>0.26372</v>
+        <v>0.264688</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.350062</v>
+        <v>0.350006</v>
       </c>
       <c r="C53" t="n">
-        <v>0.22564</v>
+        <v>0.225867</v>
       </c>
       <c r="D53" t="n">
-        <v>0.262434</v>
+        <v>0.262451</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.344536</v>
+        <v>0.344337</v>
       </c>
       <c r="C54" t="n">
-        <v>0.22332</v>
+        <v>0.223198</v>
       </c>
       <c r="D54" t="n">
-        <v>0.261274</v>
+        <v>0.261818</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.338441</v>
+        <v>0.338209</v>
       </c>
       <c r="C55" t="n">
-        <v>0.22006</v>
+        <v>0.220549</v>
       </c>
       <c r="D55" t="n">
-        <v>0.258854</v>
+        <v>0.259371</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.330972</v>
+        <v>0.330886</v>
       </c>
       <c r="C56" t="n">
-        <v>0.218713</v>
+        <v>0.218766</v>
       </c>
       <c r="D56" t="n">
-        <v>0.257472</v>
+        <v>0.257742</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.322669</v>
+        <v>0.322553</v>
       </c>
       <c r="C57" t="n">
-        <v>0.217419</v>
+        <v>0.217674</v>
       </c>
       <c r="D57" t="n">
-        <v>0.256221</v>
+        <v>0.257355</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.314273</v>
+        <v>0.313807</v>
       </c>
       <c r="C58" t="n">
-        <v>0.216534</v>
+        <v>0.216736</v>
       </c>
       <c r="D58" t="n">
-        <v>0.25523</v>
+        <v>0.255648</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.304693</v>
+        <v>0.30481</v>
       </c>
       <c r="C59" t="n">
-        <v>0.215199</v>
+        <v>0.215527</v>
       </c>
       <c r="D59" t="n">
-        <v>0.253392</v>
+        <v>0.253561</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.294445</v>
+        <v>0.294542</v>
       </c>
       <c r="C60" t="n">
-        <v>0.214542</v>
+        <v>0.214671</v>
       </c>
       <c r="D60" t="n">
-        <v>0.252346</v>
+        <v>0.252541</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.283605</v>
+        <v>0.283889</v>
       </c>
       <c r="C61" t="n">
-        <v>0.214184</v>
+        <v>0.21413</v>
       </c>
       <c r="D61" t="n">
-        <v>0.251531</v>
+        <v>0.251724</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272089</v>
+        <v>0.272134</v>
       </c>
       <c r="C62" t="n">
-        <v>0.213294</v>
+        <v>0.213461</v>
       </c>
       <c r="D62" t="n">
-        <v>0.250984</v>
+        <v>0.251148</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.259174</v>
+        <v>0.259072</v>
       </c>
       <c r="C63" t="n">
-        <v>0.212559</v>
+        <v>0.212655</v>
       </c>
       <c r="D63" t="n">
-        <v>0.250293</v>
+        <v>0.250466</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.245772</v>
+        <v>0.245718</v>
       </c>
       <c r="C64" t="n">
-        <v>0.212114</v>
+        <v>0.212494</v>
       </c>
       <c r="D64" t="n">
-        <v>0.249459</v>
+        <v>0.250063</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.230543</v>
+        <v>0.230314</v>
       </c>
       <c r="C65" t="n">
-        <v>0.211929</v>
+        <v>0.212181</v>
       </c>
       <c r="D65" t="n">
-        <v>0.249167</v>
+        <v>0.249191</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.213619</v>
+        <v>0.213418</v>
       </c>
       <c r="C66" t="n">
-        <v>0.211815</v>
+        <v>0.212073</v>
       </c>
       <c r="D66" t="n">
-        <v>0.266402</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.35227</v>
+        <v>0.352499</v>
       </c>
       <c r="C67" t="n">
-        <v>0.227332</v>
+        <v>0.227739</v>
       </c>
       <c r="D67" t="n">
-        <v>0.263913</v>
+        <v>0.263435</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.347191</v>
+        <v>0.346965</v>
       </c>
       <c r="C68" t="n">
-        <v>0.223365</v>
+        <v>0.223724</v>
       </c>
       <c r="D68" t="n">
-        <v>0.260406</v>
+        <v>0.261326</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.341021</v>
+        <v>0.340884</v>
       </c>
       <c r="C69" t="n">
-        <v>0.220783</v>
+        <v>0.221</v>
       </c>
       <c r="D69" t="n">
-        <v>0.259617</v>
+        <v>0.260119</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.333331</v>
+        <v>0.333108</v>
       </c>
       <c r="C70" t="n">
-        <v>0.218442</v>
+        <v>0.218709</v>
       </c>
       <c r="D70" t="n">
-        <v>0.258079</v>
+        <v>0.258309</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.325503</v>
+        <v>0.325094</v>
       </c>
       <c r="C71" t="n">
-        <v>0.217485</v>
+        <v>0.217773</v>
       </c>
       <c r="D71" t="n">
-        <v>0.25679</v>
+        <v>0.25762</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.316434</v>
+        <v>0.316088</v>
       </c>
       <c r="C72" t="n">
-        <v>0.216409</v>
+        <v>0.216884</v>
       </c>
       <c r="D72" t="n">
-        <v>0.255863</v>
+        <v>0.256426</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.306943</v>
+        <v>0.306872</v>
       </c>
       <c r="C73" t="n">
-        <v>0.215642</v>
+        <v>0.215698</v>
       </c>
       <c r="D73" t="n">
-        <v>0.254723</v>
+        <v>0.254987</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.297068</v>
+        <v>0.296936</v>
       </c>
       <c r="C74" t="n">
-        <v>0.214931</v>
+        <v>0.215024</v>
       </c>
       <c r="D74" t="n">
-        <v>0.252787</v>
+        <v>0.253017</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.286364</v>
+        <v>0.286456</v>
       </c>
       <c r="C75" t="n">
-        <v>0.214149</v>
+        <v>0.214263</v>
       </c>
       <c r="D75" t="n">
-        <v>0.252174</v>
+        <v>0.25237</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.275227</v>
+        <v>0.275351</v>
       </c>
       <c r="C76" t="n">
-        <v>0.213711</v>
+        <v>0.213875</v>
       </c>
       <c r="D76" t="n">
-        <v>0.251035</v>
+        <v>0.25142</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.262986</v>
+        <v>0.262836</v>
       </c>
       <c r="C77" t="n">
-        <v>0.213093</v>
+        <v>0.213125</v>
       </c>
       <c r="D77" t="n">
-        <v>0.250177</v>
+        <v>0.250458</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.249145</v>
+        <v>0.249072</v>
       </c>
       <c r="C78" t="n">
-        <v>0.212267</v>
+        <v>0.212547</v>
       </c>
       <c r="D78" t="n">
-        <v>0.249425</v>
+        <v>0.249675</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.234451</v>
+        <v>0.234212</v>
       </c>
       <c r="C79" t="n">
-        <v>0.212061</v>
+        <v>0.212402</v>
       </c>
       <c r="D79" t="n">
-        <v>0.249677</v>
+        <v>0.249751</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.218483</v>
+        <v>0.218256</v>
       </c>
       <c r="C80" t="n">
-        <v>0.211729</v>
+        <v>0.212076</v>
       </c>
       <c r="D80" t="n">
-        <v>0.266755</v>
+        <v>0.267935</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.353758</v>
+        <v>0.353989</v>
       </c>
       <c r="C81" t="n">
-        <v>0.226879</v>
+        <v>0.227017</v>
       </c>
       <c r="D81" t="n">
-        <v>0.264214</v>
+        <v>0.264468</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.347962</v>
+        <v>0.348361</v>
       </c>
       <c r="C82" t="n">
-        <v>0.223128</v>
+        <v>0.223198</v>
       </c>
       <c r="D82" t="n">
-        <v>0.262215</v>
+        <v>0.263053</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.341569</v>
+        <v>0.341708</v>
       </c>
       <c r="C83" t="n">
-        <v>0.220703</v>
+        <v>0.2209</v>
       </c>
       <c r="D83" t="n">
-        <v>0.260667</v>
+        <v>0.260438</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.334506</v>
+        <v>0.334486</v>
       </c>
       <c r="C84" t="n">
-        <v>0.218978</v>
+        <v>0.218761</v>
       </c>
       <c r="D84" t="n">
-        <v>0.259212</v>
+        <v>0.259018</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.326666</v>
+        <v>0.326641</v>
       </c>
       <c r="C85" t="n">
-        <v>0.217935</v>
+        <v>0.217937</v>
       </c>
       <c r="D85" t="n">
-        <v>0.257645</v>
+        <v>0.25754</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.318282</v>
+        <v>0.318293</v>
       </c>
       <c r="C86" t="n">
-        <v>0.216926</v>
+        <v>0.216868</v>
       </c>
       <c r="D86" t="n">
-        <v>0.256761</v>
+        <v>0.256328</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.309329</v>
+        <v>0.309421</v>
       </c>
       <c r="C87" t="n">
-        <v>0.215796</v>
+        <v>0.215792</v>
       </c>
       <c r="D87" t="n">
-        <v>0.2558</v>
+        <v>0.255299</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.299625</v>
+        <v>0.299787</v>
       </c>
       <c r="C88" t="n">
-        <v>0.215095</v>
+        <v>0.214967</v>
       </c>
       <c r="D88" t="n">
-        <v>0.254242</v>
+        <v>0.254206</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.289293</v>
+        <v>0.289262</v>
       </c>
       <c r="C89" t="n">
-        <v>0.214248</v>
+        <v>0.214361</v>
       </c>
       <c r="D89" t="n">
-        <v>0.252252</v>
+        <v>0.252335</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.277765</v>
+        <v>0.277931</v>
       </c>
       <c r="C90" t="n">
-        <v>0.213717</v>
+        <v>0.213705</v>
       </c>
       <c r="D90" t="n">
-        <v>0.251572</v>
+        <v>0.251511</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.26552</v>
+        <v>0.265405</v>
       </c>
       <c r="C91" t="n">
-        <v>0.213096</v>
+        <v>0.213131</v>
       </c>
       <c r="D91" t="n">
-        <v>0.25095</v>
+        <v>0.250835</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.251952</v>
+        <v>0.252039</v>
       </c>
       <c r="C92" t="n">
-        <v>0.212622</v>
+        <v>0.212543</v>
       </c>
       <c r="D92" t="n">
-        <v>0.250297</v>
+        <v>0.250259</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.237985</v>
+        <v>0.237908</v>
       </c>
       <c r="C93" t="n">
-        <v>0.212112</v>
+        <v>0.212016</v>
       </c>
       <c r="D93" t="n">
-        <v>0.249957</v>
+        <v>0.249727</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.222226</v>
+        <v>0.221922</v>
       </c>
       <c r="C94" t="n">
-        <v>0.211819</v>
+        <v>0.211816</v>
       </c>
       <c r="D94" t="n">
-        <v>0.267817</v>
+        <v>0.26782</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.355318</v>
+        <v>0.35509</v>
       </c>
       <c r="C95" t="n">
-        <v>0.227147</v>
+        <v>0.227117</v>
       </c>
       <c r="D95" t="n">
-        <v>0.26485</v>
+        <v>0.265252</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.350084</v>
+        <v>0.349848</v>
       </c>
       <c r="C96" t="n">
-        <v>0.224011</v>
+        <v>0.223942</v>
       </c>
       <c r="D96" t="n">
-        <v>0.262743</v>
+        <v>0.262787</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.343875</v>
+        <v>0.343392</v>
       </c>
       <c r="C97" t="n">
-        <v>0.221687</v>
+        <v>0.221607</v>
       </c>
       <c r="D97" t="n">
-        <v>0.261615</v>
+        <v>0.261204</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.336658</v>
+        <v>0.336543</v>
       </c>
       <c r="C98" t="n">
-        <v>0.219492</v>
+        <v>0.219438</v>
       </c>
       <c r="D98" t="n">
-        <v>0.259816</v>
+        <v>0.25942</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.328984</v>
+        <v>0.328771</v>
       </c>
       <c r="C99" t="n">
-        <v>0.218172</v>
+        <v>0.218135</v>
       </c>
       <c r="D99" t="n">
-        <v>0.258246</v>
+        <v>0.258402</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.320499</v>
+        <v>0.320114</v>
       </c>
       <c r="C100" t="n">
-        <v>0.217028</v>
+        <v>0.216928</v>
       </c>
       <c r="D100" t="n">
-        <v>0.25702</v>
+        <v>0.256355</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.311439</v>
+        <v>0.311359</v>
       </c>
       <c r="C101" t="n">
-        <v>0.216097</v>
+        <v>0.216039</v>
       </c>
       <c r="D101" t="n">
-        <v>0.256322</v>
+        <v>0.255292</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.301933</v>
+        <v>0.301623</v>
       </c>
       <c r="C102" t="n">
-        <v>0.215244</v>
+        <v>0.215147</v>
       </c>
       <c r="D102" t="n">
-        <v>0.25508</v>
+        <v>0.254404</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.291598</v>
+        <v>0.291364</v>
       </c>
       <c r="C103" t="n">
-        <v>0.21449</v>
+        <v>0.214465</v>
       </c>
       <c r="D103" t="n">
-        <v>0.253893</v>
+        <v>0.254021</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.28061</v>
+        <v>0.280166</v>
       </c>
       <c r="C104" t="n">
-        <v>0.213707</v>
+        <v>0.213721</v>
       </c>
       <c r="D104" t="n">
-        <v>0.25302</v>
+        <v>0.25295</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.268188</v>
+        <v>0.267883</v>
       </c>
       <c r="C105" t="n">
-        <v>0.213184</v>
+        <v>0.213118</v>
       </c>
       <c r="D105" t="n">
-        <v>0.251745</v>
+        <v>0.251941</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.255238</v>
+        <v>0.254826</v>
       </c>
       <c r="C106" t="n">
-        <v>0.212793</v>
+        <v>0.21254</v>
       </c>
       <c r="D106" t="n">
-        <v>0.250346</v>
+        <v>0.250234</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.241362</v>
+        <v>0.240857</v>
       </c>
       <c r="C107" t="n">
-        <v>0.212141</v>
+        <v>0.212049</v>
       </c>
       <c r="D107" t="n">
-        <v>0.249757</v>
+        <v>0.249508</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.225633</v>
+        <v>0.225277</v>
       </c>
       <c r="C108" t="n">
-        <v>0.211854</v>
+        <v>0.211733</v>
       </c>
       <c r="D108" t="n">
-        <v>0.267572</v>
+        <v>0.267395</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.209072</v>
+        <v>0.208828</v>
       </c>
       <c r="C109" t="n">
-        <v>0.211513</v>
+        <v>0.211445</v>
       </c>
       <c r="D109" t="n">
-        <v>0.264606</v>
+        <v>0.264537</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.350955</v>
+        <v>0.350887</v>
       </c>
       <c r="C110" t="n">
-        <v>0.224429</v>
+        <v>0.224384</v>
       </c>
       <c r="D110" t="n">
-        <v>0.263542</v>
+        <v>0.263825</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.344835</v>
+        <v>0.344656</v>
       </c>
       <c r="C111" t="n">
-        <v>0.221778</v>
+        <v>0.221748</v>
       </c>
       <c r="D111" t="n">
-        <v>0.261408</v>
+        <v>0.261759</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.338076</v>
+        <v>0.337987</v>
       </c>
       <c r="C112" t="n">
-        <v>0.220025</v>
+        <v>0.220165</v>
       </c>
       <c r="D112" t="n">
-        <v>0.259858</v>
+        <v>0.259686</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.330631</v>
+        <v>0.330441</v>
       </c>
       <c r="C113" t="n">
-        <v>0.218305</v>
+        <v>0.218312</v>
       </c>
       <c r="D113" t="n">
-        <v>0.258482</v>
+        <v>0.258058</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.322031</v>
+        <v>0.32205</v>
       </c>
       <c r="C114" t="n">
-        <v>0.217291</v>
+        <v>0.217299</v>
       </c>
       <c r="D114" t="n">
-        <v>0.257529</v>
+        <v>0.257313</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.313512</v>
+        <v>0.313395</v>
       </c>
       <c r="C115" t="n">
-        <v>0.215944</v>
+        <v>0.216123</v>
       </c>
       <c r="D115" t="n">
-        <v>0.256654</v>
+        <v>0.255685</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.303853</v>
+        <v>0.303666</v>
       </c>
       <c r="C116" t="n">
-        <v>0.215317</v>
+        <v>0.215325</v>
       </c>
       <c r="D116" t="n">
-        <v>0.254801</v>
+        <v>0.254632</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.293615</v>
+        <v>0.293575</v>
       </c>
       <c r="C117" t="n">
-        <v>0.214873</v>
+        <v>0.214914</v>
       </c>
       <c r="D117" t="n">
-        <v>0.254533</v>
+        <v>0.254325</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.282705</v>
+        <v>0.282549</v>
       </c>
       <c r="C118" t="n">
-        <v>0.214209</v>
+        <v>0.214229</v>
       </c>
       <c r="D118" t="n">
-        <v>0.253687</v>
+        <v>0.253622</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.270932</v>
+        <v>0.270656</v>
       </c>
       <c r="C119" t="n">
-        <v>0.213523</v>
+        <v>0.213643</v>
       </c>
       <c r="D119" t="n">
-        <v>0.252881</v>
+        <v>0.252782</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.25827</v>
+        <v>0.258176</v>
       </c>
       <c r="C120" t="n">
-        <v>0.213008</v>
+        <v>0.213087</v>
       </c>
       <c r="D120" t="n">
-        <v>0.251725</v>
+        <v>0.251774</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.244374</v>
+        <v>0.243987</v>
       </c>
       <c r="C121" t="n">
-        <v>0.212482</v>
+        <v>0.212528</v>
       </c>
       <c r="D121" t="n">
-        <v>0.251573</v>
+        <v>0.251309</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.229174</v>
+        <v>0.228809</v>
       </c>
       <c r="C122" t="n">
-        <v>0.212175</v>
+        <v>0.212178</v>
       </c>
       <c r="D122" t="n">
-        <v>0.249954</v>
+        <v>0.250036</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.212475</v>
+        <v>0.212238</v>
       </c>
       <c r="C123" t="n">
-        <v>0.21185</v>
+        <v>0.211778</v>
       </c>
       <c r="D123" t="n">
-        <v>0.265863</v>
+        <v>0.265023</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.351737</v>
+        <v>0.351877</v>
       </c>
       <c r="C124" t="n">
-        <v>0.225336</v>
+        <v>0.225201</v>
       </c>
       <c r="D124" t="n">
-        <v>0.263487</v>
+        <v>0.262995</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.346087</v>
+        <v>0.346107</v>
       </c>
       <c r="C125" t="n">
-        <v>0.222231</v>
+        <v>0.222188</v>
       </c>
       <c r="D125" t="n">
-        <v>0.261581</v>
+        <v>0.261107</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.339516</v>
+        <v>0.339432</v>
       </c>
       <c r="C126" t="n">
-        <v>0.220306</v>
+        <v>0.22026</v>
       </c>
       <c r="D126" t="n">
-        <v>0.260375</v>
+        <v>0.259567</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.332191</v>
+        <v>0.332024</v>
       </c>
       <c r="C127" t="n">
-        <v>0.21868</v>
+        <v>0.218606</v>
       </c>
       <c r="D127" t="n">
-        <v>0.25813</v>
+        <v>0.258438</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.324147</v>
+        <v>0.324127</v>
       </c>
       <c r="C128" t="n">
-        <v>0.217292</v>
+        <v>0.217293</v>
       </c>
       <c r="D128" t="n">
-        <v>0.257236</v>
+        <v>0.257221</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.31559</v>
+        <v>0.315217</v>
       </c>
       <c r="C129" t="n">
-        <v>0.216163</v>
+        <v>0.216187</v>
       </c>
       <c r="D129" t="n">
-        <v>0.255843</v>
+        <v>0.255833</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.30576</v>
+        <v>0.305836</v>
       </c>
       <c r="C130" t="n">
-        <v>0.215374</v>
+        <v>0.215362</v>
       </c>
       <c r="D130" t="n">
-        <v>0.255374</v>
+        <v>0.254623</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.295755</v>
+        <v>0.295742</v>
       </c>
       <c r="C131" t="n">
-        <v>0.214628</v>
+        <v>0.214612</v>
       </c>
       <c r="D131" t="n">
-        <v>0.254747</v>
+        <v>0.253764</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.285059</v>
+        <v>0.284861</v>
       </c>
       <c r="C132" t="n">
-        <v>0.213956</v>
+        <v>0.213839</v>
       </c>
       <c r="D132" t="n">
-        <v>0.2529</v>
+        <v>0.252593</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.273162</v>
+        <v>0.272916</v>
       </c>
       <c r="C133" t="n">
-        <v>0.213351</v>
+        <v>0.213283</v>
       </c>
       <c r="D133" t="n">
-        <v>0.252531</v>
+        <v>0.25242</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.260665</v>
+        <v>0.260453</v>
       </c>
       <c r="C134" t="n">
-        <v>0.212833</v>
+        <v>0.212725</v>
       </c>
       <c r="D134" t="n">
-        <v>0.251434</v>
+        <v>0.251308</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.246899</v>
+        <v>0.246515</v>
       </c>
       <c r="C135" t="n">
-        <v>0.212325</v>
+        <v>0.212362</v>
       </c>
       <c r="D135" t="n">
-        <v>0.251599</v>
+        <v>0.251429</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.232056</v>
+        <v>0.231765</v>
       </c>
       <c r="C136" t="n">
-        <v>0.212211</v>
+        <v>0.212095</v>
       </c>
       <c r="D136" t="n">
-        <v>0.25118</v>
+        <v>0.250556</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.215857</v>
+        <v>0.215559</v>
       </c>
       <c r="C137" t="n">
-        <v>0.211995</v>
+        <v>0.211815</v>
       </c>
       <c r="D137" t="n">
-        <v>0.26676</v>
+        <v>0.266266</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.352709</v>
+        <v>0.352801</v>
       </c>
       <c r="C138" t="n">
-        <v>0.226781</v>
+        <v>0.226629</v>
       </c>
       <c r="D138" t="n">
-        <v>0.264607</v>
+        <v>0.264476</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.34711</v>
+        <v>0.347254</v>
       </c>
       <c r="C139" t="n">
-        <v>0.223501</v>
+        <v>0.223322</v>
       </c>
       <c r="D139" t="n">
-        <v>0.263623</v>
+        <v>0.262197</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.340769</v>
+        <v>0.34076</v>
       </c>
       <c r="C140" t="n">
-        <v>0.221094</v>
+        <v>0.221072</v>
       </c>
       <c r="D140" t="n">
-        <v>0.26101</v>
+        <v>0.26148</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.333413</v>
+        <v>0.333601</v>
       </c>
       <c r="C141" t="n">
-        <v>0.219224</v>
+        <v>0.219222</v>
       </c>
       <c r="D141" t="n">
-        <v>0.259183</v>
+        <v>0.259794</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.325405</v>
+        <v>0.325651</v>
       </c>
       <c r="C142" t="n">
-        <v>0.217935</v>
+        <v>0.217929</v>
       </c>
       <c r="D142" t="n">
-        <v>0.257925</v>
+        <v>0.258287</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.316858</v>
+        <v>0.316864</v>
       </c>
       <c r="C143" t="n">
-        <v>0.216865</v>
+        <v>0.2168</v>
       </c>
       <c r="D143" t="n">
-        <v>0.256533</v>
+        <v>0.256827</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.279481</v>
+        <v>0.280741</v>
       </c>
       <c r="C2" t="n">
-        <v>0.196082</v>
+        <v>0.194923</v>
       </c>
       <c r="D2" t="n">
-        <v>0.231564</v>
+        <v>0.231163</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.266628</v>
+        <v>0.267894</v>
       </c>
       <c r="C3" t="n">
-        <v>0.197289</v>
+        <v>0.19535</v>
       </c>
       <c r="D3" t="n">
-        <v>0.232227</v>
+        <v>0.231863</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.258768</v>
+        <v>0.259476</v>
       </c>
       <c r="C4" t="n">
-        <v>0.196205</v>
+        <v>0.195936</v>
       </c>
       <c r="D4" t="n">
-        <v>0.23329</v>
+        <v>0.23381</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.24831</v>
+        <v>0.246719</v>
       </c>
       <c r="C5" t="n">
-        <v>0.196013</v>
+        <v>0.195929</v>
       </c>
       <c r="D5" t="n">
-        <v>0.233229</v>
+        <v>0.234291</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.236998</v>
+        <v>0.236636</v>
       </c>
       <c r="C6" t="n">
-        <v>0.197858</v>
+        <v>0.19847</v>
       </c>
       <c r="D6" t="n">
-        <v>0.234353</v>
+        <v>0.233744</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.22462</v>
+        <v>0.224607</v>
       </c>
       <c r="C7" t="n">
-        <v>0.198402</v>
+        <v>0.198333</v>
       </c>
       <c r="D7" t="n">
-        <v>0.233501</v>
+        <v>0.234313</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.209481</v>
+        <v>0.209587</v>
       </c>
       <c r="C8" t="n">
-        <v>0.199043</v>
+        <v>0.19796</v>
       </c>
       <c r="D8" t="n">
-        <v>0.241154</v>
+        <v>0.236401</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.194557</v>
+        <v>0.194907</v>
       </c>
       <c r="C9" t="n">
-        <v>0.20146</v>
+        <v>0.199736</v>
       </c>
       <c r="D9" t="n">
-        <v>0.259338</v>
+        <v>0.260387</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.333804</v>
+        <v>0.334351</v>
       </c>
       <c r="C10" t="n">
-        <v>0.215956</v>
+        <v>0.2162</v>
       </c>
       <c r="D10" t="n">
-        <v>0.256437</v>
+        <v>0.261508</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.329329</v>
+        <v>0.329567</v>
       </c>
       <c r="C11" t="n">
-        <v>0.216494</v>
+        <v>0.216021</v>
       </c>
       <c r="D11" t="n">
-        <v>0.255952</v>
+        <v>0.260622</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.322734</v>
+        <v>0.323148</v>
       </c>
       <c r="C12" t="n">
-        <v>0.214846</v>
+        <v>0.214457</v>
       </c>
       <c r="D12" t="n">
-        <v>0.276674</v>
+        <v>0.259435</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.318075</v>
+        <v>0.317911</v>
       </c>
       <c r="C13" t="n">
-        <v>0.213756</v>
+        <v>0.214518</v>
       </c>
       <c r="D13" t="n">
-        <v>0.253055</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.310172</v>
+        <v>0.309798</v>
       </c>
       <c r="C14" t="n">
-        <v>0.212532</v>
+        <v>0.213075</v>
       </c>
       <c r="D14" t="n">
-        <v>0.269591</v>
+        <v>0.253045</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.301782</v>
+        <v>0.301443</v>
       </c>
       <c r="C15" t="n">
-        <v>0.212222</v>
+        <v>0.212481</v>
       </c>
       <c r="D15" t="n">
-        <v>0.25239</v>
+        <v>0.252232</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.292379</v>
+        <v>0.292314</v>
       </c>
       <c r="C16" t="n">
-        <v>0.211546</v>
+        <v>0.212961</v>
       </c>
       <c r="D16" t="n">
-        <v>0.251628</v>
+        <v>0.251462</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.284185</v>
+        <v>0.2833</v>
       </c>
       <c r="C17" t="n">
-        <v>0.211493</v>
+        <v>0.212516</v>
       </c>
       <c r="D17" t="n">
-        <v>0.249933</v>
+        <v>0.250271</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.274557</v>
+        <v>0.274377</v>
       </c>
       <c r="C18" t="n">
-        <v>0.211135</v>
+        <v>0.211699</v>
       </c>
       <c r="D18" t="n">
-        <v>0.251518</v>
+        <v>0.269791</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.264657</v>
+        <v>0.264097</v>
       </c>
       <c r="C19" t="n">
-        <v>0.210582</v>
+        <v>0.21072</v>
       </c>
       <c r="D19" t="n">
-        <v>0.24791</v>
+        <v>0.248952</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.254337</v>
+        <v>0.254472</v>
       </c>
       <c r="C20" t="n">
-        <v>0.211574</v>
+        <v>0.211138</v>
       </c>
       <c r="D20" t="n">
-        <v>0.247365</v>
+        <v>0.247398</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.240841</v>
+        <v>0.245659</v>
       </c>
       <c r="C21" t="n">
-        <v>0.211424</v>
+        <v>0.211236</v>
       </c>
       <c r="D21" t="n">
-        <v>0.247389</v>
+        <v>0.269856</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.226089</v>
+        <v>0.225482</v>
       </c>
       <c r="C22" t="n">
-        <v>0.210856</v>
+        <v>0.210463</v>
       </c>
       <c r="D22" t="n">
-        <v>0.247259</v>
+        <v>0.247204</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.209053</v>
+        <v>0.209532</v>
       </c>
       <c r="C23" t="n">
-        <v>0.210552</v>
+        <v>0.209987</v>
       </c>
       <c r="D23" t="n">
-        <v>0.264332</v>
+        <v>0.264095</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.347806</v>
+        <v>0.347919</v>
       </c>
       <c r="C24" t="n">
-        <v>0.224692</v>
+        <v>0.224027</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2627</v>
+        <v>0.262551</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.341666</v>
+        <v>0.342266</v>
       </c>
       <c r="C25" t="n">
-        <v>0.222675</v>
+        <v>0.222399</v>
       </c>
       <c r="D25" t="n">
-        <v>0.263349</v>
+        <v>0.262731</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.334883</v>
+        <v>0.335135</v>
       </c>
       <c r="C26" t="n">
-        <v>0.220768</v>
+        <v>0.220499</v>
       </c>
       <c r="D26" t="n">
-        <v>0.261455</v>
+        <v>0.26121</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.328466</v>
+        <v>0.328647</v>
       </c>
       <c r="C27" t="n">
-        <v>0.21881</v>
+        <v>0.218513</v>
       </c>
       <c r="D27" t="n">
-        <v>0.258383</v>
+        <v>0.258115</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.321327</v>
+        <v>0.321997</v>
       </c>
       <c r="C28" t="n">
-        <v>0.217125</v>
+        <v>0.217011</v>
       </c>
       <c r="D28" t="n">
-        <v>0.256458</v>
+        <v>0.256354</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.312968</v>
+        <v>0.312661</v>
       </c>
       <c r="C29" t="n">
-        <v>0.216414</v>
+        <v>0.216116</v>
       </c>
       <c r="D29" t="n">
-        <v>0.255133</v>
+        <v>0.255167</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.303717</v>
+        <v>0.303772</v>
       </c>
       <c r="C30" t="n">
-        <v>0.216034</v>
+        <v>0.215414</v>
       </c>
       <c r="D30" t="n">
-        <v>0.254032</v>
+        <v>0.254582</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.294387</v>
+        <v>0.293798</v>
       </c>
       <c r="C31" t="n">
-        <v>0.214859</v>
+        <v>0.214635</v>
       </c>
       <c r="D31" t="n">
-        <v>0.25313</v>
+        <v>0.253671</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.284396</v>
+        <v>0.284096</v>
       </c>
       <c r="C32" t="n">
-        <v>0.214241</v>
+        <v>0.214629</v>
       </c>
       <c r="D32" t="n">
-        <v>0.253069</v>
+        <v>0.252836</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.273902</v>
+        <v>0.273889</v>
       </c>
       <c r="C33" t="n">
-        <v>0.213321</v>
+        <v>0.213213</v>
       </c>
       <c r="D33" t="n">
-        <v>0.252135</v>
+        <v>0.252224</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.262245</v>
+        <v>0.262028</v>
       </c>
       <c r="C34" t="n">
-        <v>0.212839</v>
+        <v>0.213151</v>
       </c>
       <c r="D34" t="n">
-        <v>0.251305</v>
+        <v>0.250787</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.248357</v>
+        <v>0.247938</v>
       </c>
       <c r="C35" t="n">
-        <v>0.212269</v>
+        <v>0.21249</v>
       </c>
       <c r="D35" t="n">
-        <v>0.250716</v>
+        <v>0.250395</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.234627</v>
+        <v>0.234422</v>
       </c>
       <c r="C36" t="n">
-        <v>0.212149</v>
+        <v>0.212068</v>
       </c>
       <c r="D36" t="n">
-        <v>0.251414</v>
+        <v>0.251066</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.219619</v>
+        <v>0.219487</v>
       </c>
       <c r="C37" t="n">
-        <v>0.212701</v>
+        <v>0.213045</v>
       </c>
       <c r="D37" t="n">
-        <v>0.267845</v>
+        <v>0.267559</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.351753</v>
+        <v>0.351192</v>
       </c>
       <c r="C38" t="n">
-        <v>0.228666</v>
+        <v>0.228811</v>
       </c>
       <c r="D38" t="n">
-        <v>0.265694</v>
+        <v>0.265414</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.347188</v>
+        <v>0.346725</v>
       </c>
       <c r="C39" t="n">
-        <v>0.226018</v>
+        <v>0.225597</v>
       </c>
       <c r="D39" t="n">
-        <v>0.263077</v>
+        <v>0.26348</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.341323</v>
+        <v>0.340695</v>
       </c>
       <c r="C40" t="n">
-        <v>0.223763</v>
+        <v>0.223814</v>
       </c>
       <c r="D40" t="n">
-        <v>0.261637</v>
+        <v>0.262107</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.33424</v>
+        <v>0.333758</v>
       </c>
       <c r="C41" t="n">
-        <v>0.221139</v>
+        <v>0.220833</v>
       </c>
       <c r="D41" t="n">
-        <v>0.259674</v>
+        <v>0.259088</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.327271</v>
+        <v>0.326554</v>
       </c>
       <c r="C42" t="n">
-        <v>0.218824</v>
+        <v>0.219079</v>
       </c>
       <c r="D42" t="n">
-        <v>0.258144</v>
+        <v>0.257609</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.31975</v>
+        <v>0.31908</v>
       </c>
       <c r="C43" t="n">
-        <v>0.217488</v>
+        <v>0.217657</v>
       </c>
       <c r="D43" t="n">
-        <v>0.25767</v>
+        <v>0.256991</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.310484</v>
+        <v>0.310226</v>
       </c>
       <c r="C44" t="n">
-        <v>0.216305</v>
+        <v>0.216395</v>
       </c>
       <c r="D44" t="n">
-        <v>0.255055</v>
+        <v>0.254959</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.30192</v>
+        <v>0.301434</v>
       </c>
       <c r="C45" t="n">
-        <v>0.215307</v>
+        <v>0.2153</v>
       </c>
       <c r="D45" t="n">
-        <v>0.254199</v>
+        <v>0.254188</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.290997</v>
+        <v>0.290656</v>
       </c>
       <c r="C46" t="n">
-        <v>0.214461</v>
+        <v>0.21462</v>
       </c>
       <c r="D46" t="n">
-        <v>0.252949</v>
+        <v>0.252832</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.279969</v>
+        <v>0.279719</v>
       </c>
       <c r="C47" t="n">
-        <v>0.214137</v>
+        <v>0.214173</v>
       </c>
       <c r="D47" t="n">
-        <v>0.252249</v>
+        <v>0.252183</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.268546</v>
+        <v>0.26842</v>
       </c>
       <c r="C48" t="n">
-        <v>0.213546</v>
+        <v>0.213559</v>
       </c>
       <c r="D48" t="n">
-        <v>0.251323</v>
+        <v>0.251327</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.256264</v>
+        <v>0.256088</v>
       </c>
       <c r="C49" t="n">
-        <v>0.212928</v>
+        <v>0.213102</v>
       </c>
       <c r="D49" t="n">
-        <v>0.250433</v>
+        <v>0.250607</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.241938</v>
+        <v>0.241818</v>
       </c>
       <c r="C50" t="n">
-        <v>0.212544</v>
+        <v>0.21245</v>
       </c>
       <c r="D50" t="n">
-        <v>0.252122</v>
+        <v>0.252213</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.226819</v>
+        <v>0.226683</v>
       </c>
       <c r="C51" t="n">
-        <v>0.212399</v>
+        <v>0.212211</v>
       </c>
       <c r="D51" t="n">
-        <v>0.26812</v>
+        <v>0.267272</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.209857</v>
+        <v>0.209814</v>
       </c>
       <c r="C52" t="n">
-        <v>0.211882</v>
+        <v>0.211961</v>
       </c>
       <c r="D52" t="n">
-        <v>0.264688</v>
+        <v>0.264126</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.350006</v>
+        <v>0.349906</v>
       </c>
       <c r="C53" t="n">
-        <v>0.225867</v>
+        <v>0.225811</v>
       </c>
       <c r="D53" t="n">
-        <v>0.262451</v>
+        <v>0.262341</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.344337</v>
+        <v>0.344476</v>
       </c>
       <c r="C54" t="n">
-        <v>0.223198</v>
+        <v>0.223181</v>
       </c>
       <c r="D54" t="n">
-        <v>0.261818</v>
+        <v>0.261351</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.338209</v>
+        <v>0.33812</v>
       </c>
       <c r="C55" t="n">
-        <v>0.220549</v>
+        <v>0.22003</v>
       </c>
       <c r="D55" t="n">
-        <v>0.259371</v>
+        <v>0.259344</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.330886</v>
+        <v>0.330822</v>
       </c>
       <c r="C56" t="n">
-        <v>0.218766</v>
+        <v>0.218783</v>
       </c>
       <c r="D56" t="n">
-        <v>0.257742</v>
+        <v>0.257418</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.322553</v>
+        <v>0.322607</v>
       </c>
       <c r="C57" t="n">
-        <v>0.217674</v>
+        <v>0.217552</v>
       </c>
       <c r="D57" t="n">
-        <v>0.257355</v>
+        <v>0.257002</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.313807</v>
+        <v>0.313847</v>
       </c>
       <c r="C58" t="n">
-        <v>0.216736</v>
+        <v>0.216591</v>
       </c>
       <c r="D58" t="n">
-        <v>0.255648</v>
+        <v>0.255437</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.30481</v>
+        <v>0.304461</v>
       </c>
       <c r="C59" t="n">
-        <v>0.215527</v>
+        <v>0.215414</v>
       </c>
       <c r="D59" t="n">
-        <v>0.253561</v>
+        <v>0.25318</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.294542</v>
+        <v>0.294465</v>
       </c>
       <c r="C60" t="n">
-        <v>0.214671</v>
+        <v>0.21457</v>
       </c>
       <c r="D60" t="n">
-        <v>0.252541</v>
+        <v>0.252058</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.283889</v>
+        <v>0.283667</v>
       </c>
       <c r="C61" t="n">
-        <v>0.21413</v>
+        <v>0.214052</v>
       </c>
       <c r="D61" t="n">
-        <v>0.251724</v>
+        <v>0.251636</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272134</v>
+        <v>0.27224</v>
       </c>
       <c r="C62" t="n">
-        <v>0.213461</v>
+        <v>0.213363</v>
       </c>
       <c r="D62" t="n">
-        <v>0.251148</v>
+        <v>0.250969</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.259072</v>
+        <v>0.258991</v>
       </c>
       <c r="C63" t="n">
-        <v>0.212655</v>
+        <v>0.21276</v>
       </c>
       <c r="D63" t="n">
-        <v>0.250466</v>
+        <v>0.250254</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.245718</v>
+        <v>0.245501</v>
       </c>
       <c r="C64" t="n">
-        <v>0.212494</v>
+        <v>0.212298</v>
       </c>
       <c r="D64" t="n">
-        <v>0.250063</v>
+        <v>0.249455</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.230314</v>
+        <v>0.230351</v>
       </c>
       <c r="C65" t="n">
-        <v>0.212181</v>
+        <v>0.212099</v>
       </c>
       <c r="D65" t="n">
-        <v>0.249191</v>
+        <v>0.248895</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.213418</v>
+        <v>0.21341</v>
       </c>
       <c r="C66" t="n">
-        <v>0.212073</v>
+        <v>0.212198</v>
       </c>
       <c r="D66" t="n">
-        <v>0.266</v>
+        <v>0.266544</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.352499</v>
+        <v>0.352397</v>
       </c>
       <c r="C67" t="n">
-        <v>0.227739</v>
+        <v>0.227435</v>
       </c>
       <c r="D67" t="n">
-        <v>0.263435</v>
+        <v>0.264154</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.346965</v>
+        <v>0.346841</v>
       </c>
       <c r="C68" t="n">
-        <v>0.223724</v>
+        <v>0.223432</v>
       </c>
       <c r="D68" t="n">
-        <v>0.261326</v>
+        <v>0.261236</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.340884</v>
+        <v>0.340673</v>
       </c>
       <c r="C69" t="n">
-        <v>0.221</v>
+        <v>0.220559</v>
       </c>
       <c r="D69" t="n">
-        <v>0.260119</v>
+        <v>0.260141</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.333108</v>
+        <v>0.333144</v>
       </c>
       <c r="C70" t="n">
-        <v>0.218709</v>
+        <v>0.218681</v>
       </c>
       <c r="D70" t="n">
-        <v>0.258309</v>
+        <v>0.25915</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.325094</v>
+        <v>0.325064</v>
       </c>
       <c r="C71" t="n">
-        <v>0.217773</v>
+        <v>0.217542</v>
       </c>
       <c r="D71" t="n">
-        <v>0.25762</v>
+        <v>0.25746</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.316088</v>
+        <v>0.316358</v>
       </c>
       <c r="C72" t="n">
-        <v>0.216884</v>
+        <v>0.216537</v>
       </c>
       <c r="D72" t="n">
-        <v>0.256426</v>
+        <v>0.256522</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.306872</v>
+        <v>0.306899</v>
       </c>
       <c r="C73" t="n">
-        <v>0.215698</v>
+        <v>0.215482</v>
       </c>
       <c r="D73" t="n">
-        <v>0.254987</v>
+        <v>0.255011</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.296936</v>
+        <v>0.297112</v>
       </c>
       <c r="C74" t="n">
-        <v>0.215024</v>
+        <v>0.214876</v>
       </c>
       <c r="D74" t="n">
-        <v>0.253017</v>
+        <v>0.25302</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.286456</v>
+        <v>0.286409</v>
       </c>
       <c r="C75" t="n">
-        <v>0.214263</v>
+        <v>0.214232</v>
       </c>
       <c r="D75" t="n">
-        <v>0.25237</v>
+        <v>0.252254</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.275351</v>
+        <v>0.274986</v>
       </c>
       <c r="C76" t="n">
-        <v>0.213875</v>
+        <v>0.213704</v>
       </c>
       <c r="D76" t="n">
-        <v>0.25142</v>
+        <v>0.250983</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.262836</v>
+        <v>0.26281</v>
       </c>
       <c r="C77" t="n">
-        <v>0.213125</v>
+        <v>0.212984</v>
       </c>
       <c r="D77" t="n">
-        <v>0.250458</v>
+        <v>0.250315</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.249072</v>
+        <v>0.248968</v>
       </c>
       <c r="C78" t="n">
-        <v>0.212547</v>
+        <v>0.212433</v>
       </c>
       <c r="D78" t="n">
-        <v>0.249675</v>
+        <v>0.249576</v>
       </c>
     </row>
     <row r="79">
@@ -4330,10 +4330,10 @@
         <v>0.234212</v>
       </c>
       <c r="C79" t="n">
-        <v>0.212402</v>
+        <v>0.212355</v>
       </c>
       <c r="D79" t="n">
-        <v>0.249751</v>
+        <v>0.249716</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.218256</v>
+        <v>0.218422</v>
       </c>
       <c r="C80" t="n">
-        <v>0.212076</v>
+        <v>0.211849</v>
       </c>
       <c r="D80" t="n">
-        <v>0.267935</v>
+        <v>0.267887</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.353989</v>
+        <v>0.353908</v>
       </c>
       <c r="C81" t="n">
-        <v>0.227017</v>
+        <v>0.226798</v>
       </c>
       <c r="D81" t="n">
-        <v>0.264468</v>
+        <v>0.264494</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.348361</v>
+        <v>0.348397</v>
       </c>
       <c r="C82" t="n">
-        <v>0.223198</v>
+        <v>0.222978</v>
       </c>
       <c r="D82" t="n">
-        <v>0.263053</v>
+        <v>0.262707</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.341708</v>
+        <v>0.341907</v>
       </c>
       <c r="C83" t="n">
-        <v>0.2209</v>
+        <v>0.220627</v>
       </c>
       <c r="D83" t="n">
-        <v>0.260438</v>
+        <v>0.260612</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.334486</v>
+        <v>0.334581</v>
       </c>
       <c r="C84" t="n">
-        <v>0.218761</v>
+        <v>0.218787</v>
       </c>
       <c r="D84" t="n">
-        <v>0.259018</v>
+        <v>0.259292</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.326641</v>
+        <v>0.326592</v>
       </c>
       <c r="C85" t="n">
-        <v>0.217937</v>
+        <v>0.217906</v>
       </c>
       <c r="D85" t="n">
-        <v>0.25754</v>
+        <v>0.258353</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.318293</v>
+        <v>0.318375</v>
       </c>
       <c r="C86" t="n">
-        <v>0.216868</v>
+        <v>0.216908</v>
       </c>
       <c r="D86" t="n">
-        <v>0.256328</v>
+        <v>0.256617</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.309421</v>
+        <v>0.309411</v>
       </c>
       <c r="C87" t="n">
-        <v>0.215792</v>
+        <v>0.215817</v>
       </c>
       <c r="D87" t="n">
-        <v>0.255299</v>
+        <v>0.255653</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.299787</v>
+        <v>0.299569</v>
       </c>
       <c r="C88" t="n">
-        <v>0.214967</v>
+        <v>0.214996</v>
       </c>
       <c r="D88" t="n">
-        <v>0.254206</v>
+        <v>0.254543</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.289262</v>
+        <v>0.289227</v>
       </c>
       <c r="C89" t="n">
-        <v>0.214361</v>
+        <v>0.214224</v>
       </c>
       <c r="D89" t="n">
-        <v>0.252335</v>
+        <v>0.252323</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.277931</v>
+        <v>0.277747</v>
       </c>
       <c r="C90" t="n">
-        <v>0.213705</v>
+        <v>0.213636</v>
       </c>
       <c r="D90" t="n">
-        <v>0.251511</v>
+        <v>0.251563</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.265405</v>
+        <v>0.265401</v>
       </c>
       <c r="C91" t="n">
-        <v>0.213131</v>
+        <v>0.213096</v>
       </c>
       <c r="D91" t="n">
-        <v>0.250835</v>
+        <v>0.250885</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.252039</v>
+        <v>0.251996</v>
       </c>
       <c r="C92" t="n">
-        <v>0.212543</v>
+        <v>0.212546</v>
       </c>
       <c r="D92" t="n">
-        <v>0.250259</v>
+        <v>0.250298</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.237908</v>
+        <v>0.237769</v>
       </c>
       <c r="C93" t="n">
-        <v>0.212016</v>
+        <v>0.211987</v>
       </c>
       <c r="D93" t="n">
-        <v>0.249727</v>
+        <v>0.249854</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.221922</v>
+        <v>0.222024</v>
       </c>
       <c r="C94" t="n">
-        <v>0.211816</v>
+        <v>0.211734</v>
       </c>
       <c r="D94" t="n">
-        <v>0.26782</v>
+        <v>0.267596</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.35509</v>
+        <v>0.354838</v>
       </c>
       <c r="C95" t="n">
-        <v>0.227117</v>
+        <v>0.227042</v>
       </c>
       <c r="D95" t="n">
-        <v>0.265252</v>
+        <v>0.264286</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.349848</v>
+        <v>0.349683</v>
       </c>
       <c r="C96" t="n">
-        <v>0.223942</v>
+        <v>0.223864</v>
       </c>
       <c r="D96" t="n">
-        <v>0.262787</v>
+        <v>0.262691</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.343392</v>
+        <v>0.343115</v>
       </c>
       <c r="C97" t="n">
-        <v>0.221607</v>
+        <v>0.221507</v>
       </c>
       <c r="D97" t="n">
-        <v>0.261204</v>
+        <v>0.261107</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.336543</v>
+        <v>0.336452</v>
       </c>
       <c r="C98" t="n">
-        <v>0.219438</v>
+        <v>0.219459</v>
       </c>
       <c r="D98" t="n">
-        <v>0.25942</v>
+        <v>0.260217</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.328771</v>
+        <v>0.328617</v>
       </c>
       <c r="C99" t="n">
-        <v>0.218135</v>
+        <v>0.218066</v>
       </c>
       <c r="D99" t="n">
-        <v>0.258402</v>
+        <v>0.258439</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.320114</v>
+        <v>0.320076</v>
       </c>
       <c r="C100" t="n">
-        <v>0.216928</v>
+        <v>0.216893</v>
       </c>
       <c r="D100" t="n">
-        <v>0.256355</v>
+        <v>0.25668</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.311359</v>
+        <v>0.311426</v>
       </c>
       <c r="C101" t="n">
-        <v>0.216039</v>
+        <v>0.215852</v>
       </c>
       <c r="D101" t="n">
-        <v>0.255292</v>
+        <v>0.255995</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.301623</v>
+        <v>0.301696</v>
       </c>
       <c r="C102" t="n">
-        <v>0.215147</v>
+        <v>0.215241</v>
       </c>
       <c r="D102" t="n">
-        <v>0.254404</v>
+        <v>0.255098</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.291364</v>
+        <v>0.291443</v>
       </c>
       <c r="C103" t="n">
-        <v>0.214465</v>
+        <v>0.214392</v>
       </c>
       <c r="D103" t="n">
-        <v>0.254021</v>
+        <v>0.253358</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.280166</v>
+        <v>0.28037</v>
       </c>
       <c r="C104" t="n">
-        <v>0.213721</v>
+        <v>0.213674</v>
       </c>
       <c r="D104" t="n">
-        <v>0.25295</v>
+        <v>0.252636</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.267883</v>
+        <v>0.267942</v>
       </c>
       <c r="C105" t="n">
-        <v>0.213118</v>
+        <v>0.213125</v>
       </c>
       <c r="D105" t="n">
-        <v>0.251941</v>
+        <v>0.251514</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.254826</v>
+        <v>0.255091</v>
       </c>
       <c r="C106" t="n">
-        <v>0.21254</v>
+        <v>0.212484</v>
       </c>
       <c r="D106" t="n">
-        <v>0.250234</v>
+        <v>0.250241</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.240857</v>
+        <v>0.240851</v>
       </c>
       <c r="C107" t="n">
-        <v>0.212049</v>
+        <v>0.211997</v>
       </c>
       <c r="D107" t="n">
-        <v>0.249508</v>
+        <v>0.249663</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.225277</v>
+        <v>0.225396</v>
       </c>
       <c r="C108" t="n">
-        <v>0.211733</v>
+        <v>0.211763</v>
       </c>
       <c r="D108" t="n">
-        <v>0.267395</v>
+        <v>0.267322</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.208828</v>
+        <v>0.208911</v>
       </c>
       <c r="C109" t="n">
-        <v>0.211445</v>
+        <v>0.211309</v>
       </c>
       <c r="D109" t="n">
-        <v>0.264537</v>
+        <v>0.264716</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.350887</v>
+        <v>0.350866</v>
       </c>
       <c r="C110" t="n">
-        <v>0.224384</v>
+        <v>0.224266</v>
       </c>
       <c r="D110" t="n">
-        <v>0.263825</v>
+        <v>0.263822</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.344656</v>
+        <v>0.344606</v>
       </c>
       <c r="C111" t="n">
-        <v>0.221748</v>
+        <v>0.221693</v>
       </c>
       <c r="D111" t="n">
-        <v>0.261759</v>
+        <v>0.261395</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.337987</v>
+        <v>0.337766</v>
       </c>
       <c r="C112" t="n">
-        <v>0.220165</v>
+        <v>0.219816</v>
       </c>
       <c r="D112" t="n">
-        <v>0.259686</v>
+        <v>0.260048</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.330441</v>
+        <v>0.330456</v>
       </c>
       <c r="C113" t="n">
-        <v>0.218312</v>
+        <v>0.21823</v>
       </c>
       <c r="D113" t="n">
-        <v>0.258058</v>
+        <v>0.258184</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.32205</v>
+        <v>0.322412</v>
       </c>
       <c r="C114" t="n">
-        <v>0.217299</v>
+        <v>0.217102</v>
       </c>
       <c r="D114" t="n">
-        <v>0.257313</v>
+        <v>0.256942</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.313395</v>
+        <v>0.313573</v>
       </c>
       <c r="C115" t="n">
-        <v>0.216123</v>
+        <v>0.215966</v>
       </c>
       <c r="D115" t="n">
-        <v>0.255685</v>
+        <v>0.256191</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.303666</v>
+        <v>0.303929</v>
       </c>
       <c r="C116" t="n">
-        <v>0.215325</v>
+        <v>0.215205</v>
       </c>
       <c r="D116" t="n">
-        <v>0.254632</v>
+        <v>0.254845</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.293575</v>
+        <v>0.293605</v>
       </c>
       <c r="C117" t="n">
-        <v>0.214914</v>
+        <v>0.214867</v>
       </c>
       <c r="D117" t="n">
-        <v>0.254325</v>
+        <v>0.253848</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.282549</v>
+        <v>0.282835</v>
       </c>
       <c r="C118" t="n">
-        <v>0.214229</v>
+        <v>0.214253</v>
       </c>
       <c r="D118" t="n">
-        <v>0.253622</v>
+        <v>0.253207</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.270656</v>
+        <v>0.27077</v>
       </c>
       <c r="C119" t="n">
-        <v>0.213643</v>
+        <v>0.213481</v>
       </c>
       <c r="D119" t="n">
-        <v>0.252782</v>
+        <v>0.252176</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.258176</v>
+        <v>0.258213</v>
       </c>
       <c r="C120" t="n">
-        <v>0.213087</v>
+        <v>0.212984</v>
       </c>
       <c r="D120" t="n">
-        <v>0.251774</v>
+        <v>0.251545</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.243987</v>
+        <v>0.244245</v>
       </c>
       <c r="C121" t="n">
-        <v>0.212528</v>
+        <v>0.212472</v>
       </c>
       <c r="D121" t="n">
-        <v>0.251309</v>
+        <v>0.251064</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.228809</v>
+        <v>0.229032</v>
       </c>
       <c r="C122" t="n">
-        <v>0.212178</v>
+        <v>0.212154</v>
       </c>
       <c r="D122" t="n">
-        <v>0.250036</v>
+        <v>0.250052</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.212238</v>
+        <v>0.212247</v>
       </c>
       <c r="C123" t="n">
-        <v>0.211778</v>
+        <v>0.211648</v>
       </c>
       <c r="D123" t="n">
-        <v>0.265023</v>
+        <v>0.265579</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.351877</v>
+        <v>0.351966</v>
       </c>
       <c r="C124" t="n">
-        <v>0.225201</v>
+        <v>0.225326</v>
       </c>
       <c r="D124" t="n">
-        <v>0.262995</v>
+        <v>0.263598</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.346107</v>
+        <v>0.346106</v>
       </c>
       <c r="C125" t="n">
-        <v>0.222188</v>
+        <v>0.222247</v>
       </c>
       <c r="D125" t="n">
-        <v>0.261107</v>
+        <v>0.262147</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.339432</v>
+        <v>0.339395</v>
       </c>
       <c r="C126" t="n">
-        <v>0.22026</v>
+        <v>0.220289</v>
       </c>
       <c r="D126" t="n">
-        <v>0.259567</v>
+        <v>0.260418</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.332024</v>
+        <v>0.332082</v>
       </c>
       <c r="C127" t="n">
-        <v>0.218606</v>
+        <v>0.218687</v>
       </c>
       <c r="D127" t="n">
-        <v>0.258438</v>
+        <v>0.258131</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.324127</v>
+        <v>0.324049</v>
       </c>
       <c r="C128" t="n">
-        <v>0.217293</v>
+        <v>0.217312</v>
       </c>
       <c r="D128" t="n">
-        <v>0.257221</v>
+        <v>0.257175</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.315217</v>
+        <v>0.315351</v>
       </c>
       <c r="C129" t="n">
-        <v>0.216187</v>
+        <v>0.216193</v>
       </c>
       <c r="D129" t="n">
-        <v>0.255833</v>
+        <v>0.256191</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.305836</v>
+        <v>0.305648</v>
       </c>
       <c r="C130" t="n">
-        <v>0.215362</v>
+        <v>0.215295</v>
       </c>
       <c r="D130" t="n">
-        <v>0.254623</v>
+        <v>0.255039</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.295742</v>
+        <v>0.295619</v>
       </c>
       <c r="C131" t="n">
-        <v>0.214612</v>
+        <v>0.214578</v>
       </c>
       <c r="D131" t="n">
-        <v>0.253764</v>
+        <v>0.253247</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.284861</v>
+        <v>0.28499</v>
       </c>
       <c r="C132" t="n">
-        <v>0.213839</v>
+        <v>0.213837</v>
       </c>
       <c r="D132" t="n">
-        <v>0.252593</v>
+        <v>0.252749</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.272916</v>
+        <v>0.272937</v>
       </c>
       <c r="C133" t="n">
-        <v>0.213283</v>
+        <v>0.213257</v>
       </c>
       <c r="D133" t="n">
-        <v>0.25242</v>
+        <v>0.252744</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.260453</v>
+        <v>0.260314</v>
       </c>
       <c r="C134" t="n">
-        <v>0.212725</v>
+        <v>0.21272</v>
       </c>
       <c r="D134" t="n">
-        <v>0.251308</v>
+        <v>0.251348</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.246515</v>
+        <v>0.246634</v>
       </c>
       <c r="C135" t="n">
-        <v>0.212362</v>
+        <v>0.212329</v>
       </c>
       <c r="D135" t="n">
-        <v>0.251429</v>
+        <v>0.251367</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.231765</v>
+        <v>0.231822</v>
       </c>
       <c r="C136" t="n">
-        <v>0.212095</v>
+        <v>0.212039</v>
       </c>
       <c r="D136" t="n">
-        <v>0.250556</v>
+        <v>0.250986</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.215559</v>
+        <v>0.215617</v>
       </c>
       <c r="C137" t="n">
-        <v>0.211815</v>
+        <v>0.211753</v>
       </c>
       <c r="D137" t="n">
-        <v>0.266266</v>
+        <v>0.266771</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.352801</v>
+        <v>0.352909</v>
       </c>
       <c r="C138" t="n">
-        <v>0.226629</v>
+        <v>0.226774</v>
       </c>
       <c r="D138" t="n">
-        <v>0.264476</v>
+        <v>0.264094</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.347254</v>
+        <v>0.347216</v>
       </c>
       <c r="C139" t="n">
-        <v>0.223322</v>
+        <v>0.223367</v>
       </c>
       <c r="D139" t="n">
-        <v>0.262197</v>
+        <v>0.262359</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.34076</v>
+        <v>0.340731</v>
       </c>
       <c r="C140" t="n">
-        <v>0.221072</v>
+        <v>0.221033</v>
       </c>
       <c r="D140" t="n">
-        <v>0.26148</v>
+        <v>0.261733</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.333601</v>
+        <v>0.333682</v>
       </c>
       <c r="C141" t="n">
-        <v>0.219222</v>
+        <v>0.219168</v>
       </c>
       <c r="D141" t="n">
-        <v>0.259794</v>
+        <v>0.259243</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.325651</v>
+        <v>0.325732</v>
       </c>
       <c r="C142" t="n">
-        <v>0.217929</v>
+        <v>0.217883</v>
       </c>
       <c r="D142" t="n">
-        <v>0.258287</v>
+        <v>0.25774</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.316864</v>
+        <v>0.317016</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2168</v>
+        <v>0.216743</v>
       </c>
       <c r="D143" t="n">
-        <v>0.256827</v>
+        <v>0.256649</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.280741</v>
+        <v>0.276524</v>
       </c>
       <c r="C2" t="n">
-        <v>0.194923</v>
+        <v>0.195185</v>
       </c>
       <c r="D2" t="n">
-        <v>0.231163</v>
+        <v>0.234662</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.267894</v>
+        <v>0.264428</v>
       </c>
       <c r="C3" t="n">
-        <v>0.19535</v>
+        <v>0.196683</v>
       </c>
       <c r="D3" t="n">
-        <v>0.231863</v>
+        <v>0.235928</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.259476</v>
+        <v>0.25666</v>
       </c>
       <c r="C4" t="n">
-        <v>0.195936</v>
+        <v>0.196126</v>
       </c>
       <c r="D4" t="n">
-        <v>0.23381</v>
+        <v>0.236786</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.246719</v>
+        <v>0.247012</v>
       </c>
       <c r="C5" t="n">
-        <v>0.195929</v>
+        <v>0.195817</v>
       </c>
       <c r="D5" t="n">
-        <v>0.234291</v>
+        <v>0.237722</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.236636</v>
+        <v>0.234792</v>
       </c>
       <c r="C6" t="n">
-        <v>0.19847</v>
+        <v>0.197333</v>
       </c>
       <c r="D6" t="n">
-        <v>0.233744</v>
+        <v>0.239037</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.224607</v>
+        <v>0.223538</v>
       </c>
       <c r="C7" t="n">
-        <v>0.198333</v>
+        <v>0.19805</v>
       </c>
       <c r="D7" t="n">
-        <v>0.234313</v>
+        <v>0.237964</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.209587</v>
+        <v>0.208604</v>
       </c>
       <c r="C8" t="n">
-        <v>0.19796</v>
+        <v>0.198214</v>
       </c>
       <c r="D8" t="n">
-        <v>0.236401</v>
+        <v>0.239875</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.194907</v>
+        <v>0.193975</v>
       </c>
       <c r="C9" t="n">
-        <v>0.199736</v>
+        <v>0.199538</v>
       </c>
       <c r="D9" t="n">
-        <v>0.260387</v>
+        <v>0.263841</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.334351</v>
+        <v>0.333909</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2162</v>
+        <v>0.217039</v>
       </c>
       <c r="D10" t="n">
-        <v>0.261508</v>
+        <v>0.261385</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.329567</v>
+        <v>0.32817</v>
       </c>
       <c r="C11" t="n">
-        <v>0.216021</v>
+        <v>0.216318</v>
       </c>
       <c r="D11" t="n">
-        <v>0.260622</v>
+        <v>0.261893</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.323148</v>
+        <v>0.321703</v>
       </c>
       <c r="C12" t="n">
-        <v>0.214457</v>
+        <v>0.214861</v>
       </c>
       <c r="D12" t="n">
-        <v>0.259435</v>
+        <v>0.257928</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.317911</v>
+        <v>0.317084</v>
       </c>
       <c r="C13" t="n">
-        <v>0.214518</v>
+        <v>0.213985</v>
       </c>
       <c r="D13" t="n">
-        <v>0.254</v>
+        <v>0.257317</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.309798</v>
+        <v>0.309846</v>
       </c>
       <c r="C14" t="n">
-        <v>0.213075</v>
+        <v>0.213024</v>
       </c>
       <c r="D14" t="n">
-        <v>0.253045</v>
+        <v>0.257203</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.301443</v>
+        <v>0.30116</v>
       </c>
       <c r="C15" t="n">
-        <v>0.212481</v>
+        <v>0.212134</v>
       </c>
       <c r="D15" t="n">
-        <v>0.252232</v>
+        <v>0.256241</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.292314</v>
+        <v>0.29262</v>
       </c>
       <c r="C16" t="n">
-        <v>0.212961</v>
+        <v>0.212014</v>
       </c>
       <c r="D16" t="n">
-        <v>0.251462</v>
+        <v>0.255427</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2833</v>
+        <v>0.282718</v>
       </c>
       <c r="C17" t="n">
-        <v>0.212516</v>
+        <v>0.211666</v>
       </c>
       <c r="D17" t="n">
-        <v>0.250271</v>
+        <v>0.254364</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.274377</v>
+        <v>0.275984</v>
       </c>
       <c r="C18" t="n">
-        <v>0.211699</v>
+        <v>0.211524</v>
       </c>
       <c r="D18" t="n">
-        <v>0.269791</v>
+        <v>0.25261</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.264097</v>
+        <v>0.263448</v>
       </c>
       <c r="C19" t="n">
-        <v>0.21072</v>
+        <v>0.21104</v>
       </c>
       <c r="D19" t="n">
-        <v>0.248952</v>
+        <v>0.252941</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.254472</v>
+        <v>0.252288</v>
       </c>
       <c r="C20" t="n">
-        <v>0.211138</v>
+        <v>0.211157</v>
       </c>
       <c r="D20" t="n">
-        <v>0.247398</v>
+        <v>0.251875</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.245659</v>
+        <v>0.240015</v>
       </c>
       <c r="C21" t="n">
-        <v>0.211236</v>
+        <v>0.211128</v>
       </c>
       <c r="D21" t="n">
-        <v>0.269856</v>
+        <v>0.250597</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.225482</v>
+        <v>0.224842</v>
       </c>
       <c r="C22" t="n">
-        <v>0.210463</v>
+        <v>0.210326</v>
       </c>
       <c r="D22" t="n">
-        <v>0.247204</v>
+        <v>0.250181</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.209532</v>
+        <v>0.208821</v>
       </c>
       <c r="C23" t="n">
-        <v>0.209987</v>
+        <v>0.20984</v>
       </c>
       <c r="D23" t="n">
-        <v>0.264095</v>
+        <v>0.269089</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.347919</v>
+        <v>0.34739</v>
       </c>
       <c r="C24" t="n">
-        <v>0.224027</v>
+        <v>0.224735</v>
       </c>
       <c r="D24" t="n">
-        <v>0.262551</v>
+        <v>0.266437</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.342266</v>
+        <v>0.34153</v>
       </c>
       <c r="C25" t="n">
-        <v>0.222399</v>
+        <v>0.222219</v>
       </c>
       <c r="D25" t="n">
-        <v>0.262731</v>
+        <v>0.26491</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.335135</v>
+        <v>0.33422</v>
       </c>
       <c r="C26" t="n">
-        <v>0.220499</v>
+        <v>0.220992</v>
       </c>
       <c r="D26" t="n">
-        <v>0.26121</v>
+        <v>0.264764</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.328647</v>
+        <v>0.328338</v>
       </c>
       <c r="C27" t="n">
-        <v>0.218513</v>
+        <v>0.218567</v>
       </c>
       <c r="D27" t="n">
-        <v>0.258115</v>
+        <v>0.262087</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.321997</v>
+        <v>0.321288</v>
       </c>
       <c r="C28" t="n">
-        <v>0.217011</v>
+        <v>0.217018</v>
       </c>
       <c r="D28" t="n">
-        <v>0.256354</v>
+        <v>0.260217</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.312661</v>
+        <v>0.313006</v>
       </c>
       <c r="C29" t="n">
-        <v>0.216116</v>
+        <v>0.216073</v>
       </c>
       <c r="D29" t="n">
-        <v>0.255167</v>
+        <v>0.258641</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.303772</v>
+        <v>0.303756</v>
       </c>
       <c r="C30" t="n">
-        <v>0.215414</v>
+        <v>0.215925</v>
       </c>
       <c r="D30" t="n">
-        <v>0.254582</v>
+        <v>0.257089</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.293798</v>
+        <v>0.29409</v>
       </c>
       <c r="C31" t="n">
-        <v>0.214635</v>
+        <v>0.214906</v>
       </c>
       <c r="D31" t="n">
-        <v>0.253671</v>
+        <v>0.256467</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.284096</v>
+        <v>0.283641</v>
       </c>
       <c r="C32" t="n">
-        <v>0.214629</v>
+        <v>0.214634</v>
       </c>
       <c r="D32" t="n">
-        <v>0.252836</v>
+        <v>0.256599</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.273889</v>
+        <v>0.273882</v>
       </c>
       <c r="C33" t="n">
-        <v>0.213213</v>
+        <v>0.213628</v>
       </c>
       <c r="D33" t="n">
-        <v>0.252224</v>
+        <v>0.25587</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.262028</v>
+        <v>0.261307</v>
       </c>
       <c r="C34" t="n">
-        <v>0.213151</v>
+        <v>0.212996</v>
       </c>
       <c r="D34" t="n">
-        <v>0.250787</v>
+        <v>0.254056</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.247938</v>
+        <v>0.24769</v>
       </c>
       <c r="C35" t="n">
-        <v>0.21249</v>
+        <v>0.212455</v>
       </c>
       <c r="D35" t="n">
-        <v>0.250395</v>
+        <v>0.253946</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.234422</v>
+        <v>0.234102</v>
       </c>
       <c r="C36" t="n">
-        <v>0.212068</v>
+        <v>0.212266</v>
       </c>
       <c r="D36" t="n">
-        <v>0.251066</v>
+        <v>0.25503</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.219487</v>
+        <v>0.219639</v>
       </c>
       <c r="C37" t="n">
-        <v>0.213045</v>
+        <v>0.212443</v>
       </c>
       <c r="D37" t="n">
-        <v>0.267559</v>
+        <v>0.2707</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.351192</v>
+        <v>0.351203</v>
       </c>
       <c r="C38" t="n">
-        <v>0.228811</v>
+        <v>0.231743</v>
       </c>
       <c r="D38" t="n">
-        <v>0.265414</v>
+        <v>0.268104</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.346725</v>
+        <v>0.346484</v>
       </c>
       <c r="C39" t="n">
-        <v>0.225597</v>
+        <v>0.228371</v>
       </c>
       <c r="D39" t="n">
-        <v>0.26348</v>
+        <v>0.266192</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.340695</v>
+        <v>0.340561</v>
       </c>
       <c r="C40" t="n">
-        <v>0.223814</v>
+        <v>0.22553</v>
       </c>
       <c r="D40" t="n">
-        <v>0.262107</v>
+        <v>0.264654</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.333758</v>
+        <v>0.333286</v>
       </c>
       <c r="C41" t="n">
-        <v>0.220833</v>
+        <v>0.2219</v>
       </c>
       <c r="D41" t="n">
-        <v>0.259088</v>
+        <v>0.262498</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.326554</v>
+        <v>0.326413</v>
       </c>
       <c r="C42" t="n">
-        <v>0.219079</v>
+        <v>0.218946</v>
       </c>
       <c r="D42" t="n">
-        <v>0.257609</v>
+        <v>0.26133</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.31908</v>
+        <v>0.318983</v>
       </c>
       <c r="C43" t="n">
-        <v>0.217657</v>
+        <v>0.217908</v>
       </c>
       <c r="D43" t="n">
-        <v>0.256991</v>
+        <v>0.259554</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.310226</v>
+        <v>0.310044</v>
       </c>
       <c r="C44" t="n">
-        <v>0.216395</v>
+        <v>0.216443</v>
       </c>
       <c r="D44" t="n">
-        <v>0.254959</v>
+        <v>0.25826</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.301434</v>
+        <v>0.301291</v>
       </c>
       <c r="C45" t="n">
-        <v>0.2153</v>
+        <v>0.215571</v>
       </c>
       <c r="D45" t="n">
-        <v>0.254188</v>
+        <v>0.257347</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.290656</v>
+        <v>0.29036</v>
       </c>
       <c r="C46" t="n">
-        <v>0.21462</v>
+        <v>0.214865</v>
       </c>
       <c r="D46" t="n">
-        <v>0.252832</v>
+        <v>0.256091</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.279719</v>
+        <v>0.279948</v>
       </c>
       <c r="C47" t="n">
-        <v>0.214173</v>
+        <v>0.214482</v>
       </c>
       <c r="D47" t="n">
-        <v>0.252183</v>
+        <v>0.255339</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.26842</v>
+        <v>0.268303</v>
       </c>
       <c r="C48" t="n">
-        <v>0.213559</v>
+        <v>0.213849</v>
       </c>
       <c r="D48" t="n">
-        <v>0.251327</v>
+        <v>0.255146</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.256088</v>
+        <v>0.255837</v>
       </c>
       <c r="C49" t="n">
-        <v>0.213102</v>
+        <v>0.213175</v>
       </c>
       <c r="D49" t="n">
-        <v>0.250607</v>
+        <v>0.254708</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.241818</v>
+        <v>0.241859</v>
       </c>
       <c r="C50" t="n">
-        <v>0.21245</v>
+        <v>0.212885</v>
       </c>
       <c r="D50" t="n">
-        <v>0.252213</v>
+        <v>0.256495</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.226683</v>
+        <v>0.226661</v>
       </c>
       <c r="C51" t="n">
-        <v>0.212211</v>
+        <v>0.212524</v>
       </c>
       <c r="D51" t="n">
-        <v>0.267272</v>
+        <v>0.269687</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.209814</v>
+        <v>0.209663</v>
       </c>
       <c r="C52" t="n">
-        <v>0.211961</v>
+        <v>0.212123</v>
       </c>
       <c r="D52" t="n">
-        <v>0.264126</v>
+        <v>0.266869</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.349906</v>
+        <v>0.349288</v>
       </c>
       <c r="C53" t="n">
-        <v>0.225811</v>
+        <v>0.226425</v>
       </c>
       <c r="D53" t="n">
-        <v>0.262341</v>
+        <v>0.264959</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.344476</v>
+        <v>0.343714</v>
       </c>
       <c r="C54" t="n">
-        <v>0.223181</v>
+        <v>0.223375</v>
       </c>
       <c r="D54" t="n">
-        <v>0.261351</v>
+        <v>0.263563</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.33812</v>
+        <v>0.337484</v>
       </c>
       <c r="C55" t="n">
-        <v>0.22003</v>
+        <v>0.22035</v>
       </c>
       <c r="D55" t="n">
-        <v>0.259344</v>
+        <v>0.262346</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.330822</v>
+        <v>0.330245</v>
       </c>
       <c r="C56" t="n">
-        <v>0.218783</v>
+        <v>0.219004</v>
       </c>
       <c r="D56" t="n">
-        <v>0.257418</v>
+        <v>0.260691</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.322607</v>
+        <v>0.321896</v>
       </c>
       <c r="C57" t="n">
-        <v>0.217552</v>
+        <v>0.2175</v>
       </c>
       <c r="D57" t="n">
-        <v>0.257002</v>
+        <v>0.259556</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.313847</v>
+        <v>0.313578</v>
       </c>
       <c r="C58" t="n">
-        <v>0.216591</v>
+        <v>0.216775</v>
       </c>
       <c r="D58" t="n">
-        <v>0.255437</v>
+        <v>0.258521</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.304461</v>
+        <v>0.304509</v>
       </c>
       <c r="C59" t="n">
-        <v>0.215414</v>
+        <v>0.215416</v>
       </c>
       <c r="D59" t="n">
-        <v>0.25318</v>
+        <v>0.257238</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.294465</v>
+        <v>0.294541</v>
       </c>
       <c r="C60" t="n">
-        <v>0.21457</v>
+        <v>0.214845</v>
       </c>
       <c r="D60" t="n">
-        <v>0.252058</v>
+        <v>0.256153</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.283667</v>
+        <v>0.283703</v>
       </c>
       <c r="C61" t="n">
-        <v>0.214052</v>
+        <v>0.214161</v>
       </c>
       <c r="D61" t="n">
-        <v>0.251636</v>
+        <v>0.255602</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.27224</v>
+        <v>0.272014</v>
       </c>
       <c r="C62" t="n">
-        <v>0.213363</v>
+        <v>0.213534</v>
       </c>
       <c r="D62" t="n">
-        <v>0.250969</v>
+        <v>0.255178</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.258991</v>
+        <v>0.259033</v>
       </c>
       <c r="C63" t="n">
-        <v>0.21276</v>
+        <v>0.212893</v>
       </c>
       <c r="D63" t="n">
-        <v>0.250254</v>
+        <v>0.254037</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.245501</v>
+        <v>0.24547</v>
       </c>
       <c r="C64" t="n">
-        <v>0.212298</v>
+        <v>0.212426</v>
       </c>
       <c r="D64" t="n">
-        <v>0.249455</v>
+        <v>0.25323</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.230351</v>
+        <v>0.230283</v>
       </c>
       <c r="C65" t="n">
-        <v>0.212099</v>
+        <v>0.212138</v>
       </c>
       <c r="D65" t="n">
-        <v>0.248895</v>
+        <v>0.252747</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.21341</v>
+        <v>0.213451</v>
       </c>
       <c r="C66" t="n">
-        <v>0.212198</v>
+        <v>0.212173</v>
       </c>
       <c r="D66" t="n">
-        <v>0.266544</v>
+        <v>0.268584</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.352397</v>
+        <v>0.351925</v>
       </c>
       <c r="C67" t="n">
-        <v>0.227435</v>
+        <v>0.228969</v>
       </c>
       <c r="D67" t="n">
-        <v>0.264154</v>
+        <v>0.266156</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.346841</v>
+        <v>0.346965</v>
       </c>
       <c r="C68" t="n">
-        <v>0.223432</v>
+        <v>0.224437</v>
       </c>
       <c r="D68" t="n">
-        <v>0.261236</v>
+        <v>0.26422</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.340673</v>
+        <v>0.34019</v>
       </c>
       <c r="C69" t="n">
-        <v>0.220559</v>
+        <v>0.221155</v>
       </c>
       <c r="D69" t="n">
-        <v>0.260141</v>
+        <v>0.262785</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.333144</v>
+        <v>0.332811</v>
       </c>
       <c r="C70" t="n">
-        <v>0.218681</v>
+        <v>0.219031</v>
       </c>
       <c r="D70" t="n">
-        <v>0.25915</v>
+        <v>0.261092</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.325064</v>
+        <v>0.324913</v>
       </c>
       <c r="C71" t="n">
-        <v>0.217542</v>
+        <v>0.217872</v>
       </c>
       <c r="D71" t="n">
-        <v>0.25746</v>
+        <v>0.259776</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.316358</v>
+        <v>0.316157</v>
       </c>
       <c r="C72" t="n">
-        <v>0.216537</v>
+        <v>0.216861</v>
       </c>
       <c r="D72" t="n">
-        <v>0.256522</v>
+        <v>0.259028</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.306899</v>
+        <v>0.306805</v>
       </c>
       <c r="C73" t="n">
-        <v>0.215482</v>
+        <v>0.21576</v>
       </c>
       <c r="D73" t="n">
-        <v>0.255011</v>
+        <v>0.257516</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.297112</v>
+        <v>0.297025</v>
       </c>
       <c r="C74" t="n">
-        <v>0.214876</v>
+        <v>0.214937</v>
       </c>
       <c r="D74" t="n">
-        <v>0.25302</v>
+        <v>0.256626</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.286409</v>
+        <v>0.286369</v>
       </c>
       <c r="C75" t="n">
-        <v>0.214232</v>
+        <v>0.214359</v>
       </c>
       <c r="D75" t="n">
-        <v>0.252254</v>
+        <v>0.255974</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.274986</v>
+        <v>0.275208</v>
       </c>
       <c r="C76" t="n">
-        <v>0.213704</v>
+        <v>0.213774</v>
       </c>
       <c r="D76" t="n">
-        <v>0.250983</v>
+        <v>0.254951</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.26281</v>
+        <v>0.262796</v>
       </c>
       <c r="C77" t="n">
-        <v>0.212984</v>
+        <v>0.213249</v>
       </c>
       <c r="D77" t="n">
-        <v>0.250315</v>
+        <v>0.254165</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.248968</v>
+        <v>0.249053</v>
       </c>
       <c r="C78" t="n">
-        <v>0.212433</v>
+        <v>0.212605</v>
       </c>
       <c r="D78" t="n">
-        <v>0.249576</v>
+        <v>0.253256</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.234212</v>
+        <v>0.234327</v>
       </c>
       <c r="C79" t="n">
-        <v>0.212355</v>
+        <v>0.212438</v>
       </c>
       <c r="D79" t="n">
-        <v>0.249716</v>
+        <v>0.253562</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.218422</v>
+        <v>0.218523</v>
       </c>
       <c r="C80" t="n">
-        <v>0.211849</v>
+        <v>0.212023</v>
       </c>
       <c r="D80" t="n">
-        <v>0.267887</v>
+        <v>0.26979</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.353908</v>
+        <v>0.353444</v>
       </c>
       <c r="C81" t="n">
-        <v>0.226798</v>
+        <v>0.229923</v>
       </c>
       <c r="D81" t="n">
-        <v>0.264494</v>
+        <v>0.267591</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.348397</v>
+        <v>0.347877</v>
       </c>
       <c r="C82" t="n">
-        <v>0.222978</v>
+        <v>0.224668</v>
       </c>
       <c r="D82" t="n">
-        <v>0.262707</v>
+        <v>0.265191</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.341907</v>
+        <v>0.341311</v>
       </c>
       <c r="C83" t="n">
-        <v>0.220627</v>
+        <v>0.221795</v>
       </c>
       <c r="D83" t="n">
-        <v>0.260612</v>
+        <v>0.263766</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.334581</v>
+        <v>0.334358</v>
       </c>
       <c r="C84" t="n">
-        <v>0.218787</v>
+        <v>0.219809</v>
       </c>
       <c r="D84" t="n">
-        <v>0.259292</v>
+        <v>0.26211</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.326592</v>
+        <v>0.326615</v>
       </c>
       <c r="C85" t="n">
-        <v>0.217906</v>
+        <v>0.218544</v>
       </c>
       <c r="D85" t="n">
-        <v>0.258353</v>
+        <v>0.260851</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.318375</v>
+        <v>0.318285</v>
       </c>
       <c r="C86" t="n">
-        <v>0.216908</v>
+        <v>0.217343</v>
       </c>
       <c r="D86" t="n">
-        <v>0.256617</v>
+        <v>0.259346</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.309411</v>
+        <v>0.30934</v>
       </c>
       <c r="C87" t="n">
-        <v>0.215817</v>
+        <v>0.216221</v>
       </c>
       <c r="D87" t="n">
-        <v>0.255653</v>
+        <v>0.257889</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.299569</v>
+        <v>0.29952</v>
       </c>
       <c r="C88" t="n">
-        <v>0.214996</v>
+        <v>0.215243</v>
       </c>
       <c r="D88" t="n">
-        <v>0.254543</v>
+        <v>0.256686</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.289227</v>
+        <v>0.289373</v>
       </c>
       <c r="C89" t="n">
-        <v>0.214224</v>
+        <v>0.21452</v>
       </c>
       <c r="D89" t="n">
-        <v>0.252323</v>
+        <v>0.256016</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.277747</v>
+        <v>0.277857</v>
       </c>
       <c r="C90" t="n">
-        <v>0.213636</v>
+        <v>0.213732</v>
       </c>
       <c r="D90" t="n">
-        <v>0.251563</v>
+        <v>0.255166</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.265401</v>
+        <v>0.265613</v>
       </c>
       <c r="C91" t="n">
-        <v>0.213096</v>
+        <v>0.213177</v>
       </c>
       <c r="D91" t="n">
-        <v>0.250885</v>
+        <v>0.254568</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.251996</v>
+        <v>0.25216</v>
       </c>
       <c r="C92" t="n">
-        <v>0.212546</v>
+        <v>0.212647</v>
       </c>
       <c r="D92" t="n">
-        <v>0.250298</v>
+        <v>0.253798</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.237769</v>
+        <v>0.237982</v>
       </c>
       <c r="C93" t="n">
-        <v>0.211987</v>
+        <v>0.212132</v>
       </c>
       <c r="D93" t="n">
-        <v>0.249854</v>
+        <v>0.253485</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.222024</v>
+        <v>0.222075</v>
       </c>
       <c r="C94" t="n">
-        <v>0.211734</v>
+        <v>0.211845</v>
       </c>
       <c r="D94" t="n">
-        <v>0.267596</v>
+        <v>0.270452</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.354838</v>
+        <v>0.3546</v>
       </c>
       <c r="C95" t="n">
-        <v>0.227042</v>
+        <v>0.229516</v>
       </c>
       <c r="D95" t="n">
-        <v>0.264286</v>
+        <v>0.267623</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.349683</v>
+        <v>0.34931</v>
       </c>
       <c r="C96" t="n">
-        <v>0.223864</v>
+        <v>0.225381</v>
       </c>
       <c r="D96" t="n">
-        <v>0.262691</v>
+        <v>0.265204</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.343115</v>
+        <v>0.342998</v>
       </c>
       <c r="C97" t="n">
-        <v>0.221507</v>
+        <v>0.222476</v>
       </c>
       <c r="D97" t="n">
-        <v>0.261107</v>
+        <v>0.263434</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.336452</v>
+        <v>0.336342</v>
       </c>
       <c r="C98" t="n">
-        <v>0.219459</v>
+        <v>0.220026</v>
       </c>
       <c r="D98" t="n">
-        <v>0.260217</v>
+        <v>0.262043</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.328617</v>
+        <v>0.328502</v>
       </c>
       <c r="C99" t="n">
-        <v>0.218066</v>
+        <v>0.218541</v>
       </c>
       <c r="D99" t="n">
-        <v>0.258439</v>
+        <v>0.260734</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.320076</v>
+        <v>0.320099</v>
       </c>
       <c r="C100" t="n">
-        <v>0.216893</v>
+        <v>0.217301</v>
       </c>
       <c r="D100" t="n">
-        <v>0.25668</v>
+        <v>0.259383</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.311426</v>
+        <v>0.31145</v>
       </c>
       <c r="C101" t="n">
-        <v>0.215852</v>
+        <v>0.216288</v>
       </c>
       <c r="D101" t="n">
-        <v>0.255995</v>
+        <v>0.258166</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.301696</v>
+        <v>0.301987</v>
       </c>
       <c r="C102" t="n">
-        <v>0.215241</v>
+        <v>0.2154</v>
       </c>
       <c r="D102" t="n">
-        <v>0.255098</v>
+        <v>0.257133</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.291443</v>
+        <v>0.29161</v>
       </c>
       <c r="C103" t="n">
-        <v>0.214392</v>
+        <v>0.214479</v>
       </c>
       <c r="D103" t="n">
-        <v>0.253358</v>
+        <v>0.256066</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.28037</v>
+        <v>0.280442</v>
       </c>
       <c r="C104" t="n">
-        <v>0.213674</v>
+        <v>0.213715</v>
       </c>
       <c r="D104" t="n">
-        <v>0.252636</v>
+        <v>0.255366</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.267942</v>
+        <v>0.268264</v>
       </c>
       <c r="C105" t="n">
-        <v>0.213125</v>
+        <v>0.213161</v>
       </c>
       <c r="D105" t="n">
-        <v>0.251514</v>
+        <v>0.254435</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.255091</v>
+        <v>0.25509</v>
       </c>
       <c r="C106" t="n">
-        <v>0.212484</v>
+        <v>0.212747</v>
       </c>
       <c r="D106" t="n">
-        <v>0.250241</v>
+        <v>0.253702</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.240851</v>
+        <v>0.241086</v>
       </c>
       <c r="C107" t="n">
-        <v>0.211997</v>
+        <v>0.21212</v>
       </c>
       <c r="D107" t="n">
-        <v>0.249663</v>
+        <v>0.253253</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.225396</v>
+        <v>0.225604</v>
       </c>
       <c r="C108" t="n">
-        <v>0.211763</v>
+        <v>0.211755</v>
       </c>
       <c r="D108" t="n">
-        <v>0.267322</v>
+        <v>0.270153</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.208911</v>
+        <v>0.209033</v>
       </c>
       <c r="C109" t="n">
-        <v>0.211309</v>
+        <v>0.21146</v>
       </c>
       <c r="D109" t="n">
-        <v>0.264716</v>
+        <v>0.267553</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.350866</v>
+        <v>0.350468</v>
       </c>
       <c r="C110" t="n">
-        <v>0.224266</v>
+        <v>0.225293</v>
       </c>
       <c r="D110" t="n">
-        <v>0.263822</v>
+        <v>0.265588</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.344606</v>
+        <v>0.344361</v>
       </c>
       <c r="C111" t="n">
-        <v>0.221693</v>
+        <v>0.222217</v>
       </c>
       <c r="D111" t="n">
-        <v>0.261395</v>
+        <v>0.263711</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.337766</v>
+        <v>0.337732</v>
       </c>
       <c r="C112" t="n">
-        <v>0.219816</v>
+        <v>0.220409</v>
       </c>
       <c r="D112" t="n">
-        <v>0.260048</v>
+        <v>0.262163</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.330456</v>
+        <v>0.330408</v>
       </c>
       <c r="C113" t="n">
-        <v>0.21823</v>
+        <v>0.218526</v>
       </c>
       <c r="D113" t="n">
-        <v>0.258184</v>
+        <v>0.260709</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.322412</v>
+        <v>0.322294</v>
       </c>
       <c r="C114" t="n">
-        <v>0.217102</v>
+        <v>0.217397</v>
       </c>
       <c r="D114" t="n">
-        <v>0.256942</v>
+        <v>0.259453</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.313573</v>
+        <v>0.313523</v>
       </c>
       <c r="C115" t="n">
-        <v>0.215966</v>
+        <v>0.21615</v>
       </c>
       <c r="D115" t="n">
-        <v>0.256191</v>
+        <v>0.258968</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.303929</v>
+        <v>0.303901</v>
       </c>
       <c r="C116" t="n">
-        <v>0.215205</v>
+        <v>0.21534</v>
       </c>
       <c r="D116" t="n">
-        <v>0.254845</v>
+        <v>0.257691</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.293605</v>
+        <v>0.293767</v>
       </c>
       <c r="C117" t="n">
-        <v>0.214867</v>
+        <v>0.214596</v>
       </c>
       <c r="D117" t="n">
-        <v>0.253848</v>
+        <v>0.256738</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.282835</v>
+        <v>0.282753</v>
       </c>
       <c r="C118" t="n">
-        <v>0.214253</v>
+        <v>0.214291</v>
       </c>
       <c r="D118" t="n">
-        <v>0.253207</v>
+        <v>0.255847</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.27077</v>
+        <v>0.270843</v>
       </c>
       <c r="C119" t="n">
-        <v>0.213481</v>
+        <v>0.213576</v>
       </c>
       <c r="D119" t="n">
-        <v>0.252176</v>
+        <v>0.255213</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.258213</v>
+        <v>0.258382</v>
       </c>
       <c r="C120" t="n">
-        <v>0.212984</v>
+        <v>0.213103</v>
       </c>
       <c r="D120" t="n">
-        <v>0.251545</v>
+        <v>0.254458</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.244245</v>
+        <v>0.24443</v>
       </c>
       <c r="C121" t="n">
-        <v>0.212472</v>
+        <v>0.212622</v>
       </c>
       <c r="D121" t="n">
-        <v>0.251064</v>
+        <v>0.254157</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.229032</v>
+        <v>0.229136</v>
       </c>
       <c r="C122" t="n">
-        <v>0.212154</v>
+        <v>0.21227</v>
       </c>
       <c r="D122" t="n">
-        <v>0.250052</v>
+        <v>0.253402</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.212247</v>
+        <v>0.212304</v>
       </c>
       <c r="C123" t="n">
-        <v>0.211648</v>
+        <v>0.211904</v>
       </c>
       <c r="D123" t="n">
-        <v>0.265579</v>
+        <v>0.268173</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.351966</v>
+        <v>0.351861</v>
       </c>
       <c r="C124" t="n">
-        <v>0.225326</v>
+        <v>0.226213</v>
       </c>
       <c r="D124" t="n">
-        <v>0.263598</v>
+        <v>0.26599</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.346106</v>
+        <v>0.345857</v>
       </c>
       <c r="C125" t="n">
-        <v>0.222247</v>
+        <v>0.222816</v>
       </c>
       <c r="D125" t="n">
-        <v>0.262147</v>
+        <v>0.264205</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.339395</v>
+        <v>0.339405</v>
       </c>
       <c r="C126" t="n">
-        <v>0.220289</v>
+        <v>0.220618</v>
       </c>
       <c r="D126" t="n">
-        <v>0.260418</v>
+        <v>0.26255</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.332082</v>
+        <v>0.332058</v>
       </c>
       <c r="C127" t="n">
-        <v>0.218687</v>
+        <v>0.218965</v>
       </c>
       <c r="D127" t="n">
-        <v>0.258131</v>
+        <v>0.261175</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.324049</v>
+        <v>0.324112</v>
       </c>
       <c r="C128" t="n">
-        <v>0.217312</v>
+        <v>0.217423</v>
       </c>
       <c r="D128" t="n">
-        <v>0.257175</v>
+        <v>0.259789</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.315351</v>
+        <v>0.315332</v>
       </c>
       <c r="C129" t="n">
-        <v>0.216193</v>
+        <v>0.216343</v>
       </c>
       <c r="D129" t="n">
-        <v>0.256191</v>
+        <v>0.258571</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.305648</v>
+        <v>0.305973</v>
       </c>
       <c r="C130" t="n">
-        <v>0.215295</v>
+        <v>0.215458</v>
       </c>
       <c r="D130" t="n">
-        <v>0.255039</v>
+        <v>0.257548</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.295619</v>
+        <v>0.295861</v>
       </c>
       <c r="C131" t="n">
-        <v>0.214578</v>
+        <v>0.214702</v>
       </c>
       <c r="D131" t="n">
-        <v>0.253247</v>
+        <v>0.256504</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.28499</v>
+        <v>0.285112</v>
       </c>
       <c r="C132" t="n">
-        <v>0.213837</v>
+        <v>0.213936</v>
       </c>
       <c r="D132" t="n">
-        <v>0.252749</v>
+        <v>0.255603</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.272937</v>
+        <v>0.273223</v>
       </c>
       <c r="C133" t="n">
-        <v>0.213257</v>
+        <v>0.213394</v>
       </c>
       <c r="D133" t="n">
-        <v>0.252744</v>
+        <v>0.25489</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.260314</v>
+        <v>0.260523</v>
       </c>
       <c r="C134" t="n">
-        <v>0.21272</v>
+        <v>0.212754</v>
       </c>
       <c r="D134" t="n">
-        <v>0.251348</v>
+        <v>0.254564</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.246634</v>
+        <v>0.246843</v>
       </c>
       <c r="C135" t="n">
-        <v>0.212329</v>
+        <v>0.212237</v>
       </c>
       <c r="D135" t="n">
-        <v>0.251367</v>
+        <v>0.254011</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.231822</v>
+        <v>0.231977</v>
       </c>
       <c r="C136" t="n">
-        <v>0.212039</v>
+        <v>0.211776</v>
       </c>
       <c r="D136" t="n">
-        <v>0.250986</v>
+        <v>0.253486</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.215617</v>
+        <v>0.215729</v>
       </c>
       <c r="C137" t="n">
-        <v>0.211753</v>
+        <v>0.21185</v>
       </c>
       <c r="D137" t="n">
-        <v>0.266771</v>
+        <v>0.269171</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.352909</v>
+        <v>0.353011</v>
       </c>
       <c r="C138" t="n">
-        <v>0.226774</v>
+        <v>0.227753</v>
       </c>
       <c r="D138" t="n">
-        <v>0.264094</v>
+        <v>0.266736</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.347216</v>
+        <v>0.347178</v>
       </c>
       <c r="C139" t="n">
-        <v>0.223367</v>
+        <v>0.223956</v>
       </c>
       <c r="D139" t="n">
-        <v>0.262359</v>
+        <v>0.264875</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.340731</v>
+        <v>0.340821</v>
       </c>
       <c r="C140" t="n">
-        <v>0.221033</v>
+        <v>0.221443</v>
       </c>
       <c r="D140" t="n">
-        <v>0.261733</v>
+        <v>0.263163</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.333682</v>
+        <v>0.333841</v>
       </c>
       <c r="C141" t="n">
-        <v>0.219168</v>
+        <v>0.219479</v>
       </c>
       <c r="D141" t="n">
-        <v>0.259243</v>
+        <v>0.261721</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.325732</v>
+        <v>0.325632</v>
       </c>
       <c r="C142" t="n">
-        <v>0.217883</v>
+        <v>0.218108</v>
       </c>
       <c r="D142" t="n">
-        <v>0.25774</v>
+        <v>0.260351</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.317016</v>
+        <v>0.317148</v>
       </c>
       <c r="C143" t="n">
-        <v>0.216743</v>
+        <v>0.216985</v>
       </c>
       <c r="D143" t="n">
-        <v>0.256649</v>
+        <v>0.259213</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.276524</v>
+        <v>0.280955</v>
       </c>
       <c r="C2" t="n">
-        <v>0.195185</v>
+        <v>0.196232</v>
       </c>
       <c r="D2" t="n">
-        <v>0.234662</v>
+        <v>0.234992</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.264428</v>
+        <v>0.266939</v>
       </c>
       <c r="C3" t="n">
-        <v>0.196683</v>
+        <v>0.196122</v>
       </c>
       <c r="D3" t="n">
-        <v>0.235928</v>
+        <v>0.236391</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.25666</v>
+        <v>0.259962</v>
       </c>
       <c r="C4" t="n">
-        <v>0.196126</v>
+        <v>0.195792</v>
       </c>
       <c r="D4" t="n">
-        <v>0.236786</v>
+        <v>0.238836</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.247012</v>
+        <v>0.247176</v>
       </c>
       <c r="C5" t="n">
-        <v>0.195817</v>
+        <v>0.196302</v>
       </c>
       <c r="D5" t="n">
-        <v>0.237722</v>
+        <v>0.237811</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.234792</v>
+        <v>0.235468</v>
       </c>
       <c r="C6" t="n">
-        <v>0.197333</v>
+        <v>0.199487</v>
       </c>
       <c r="D6" t="n">
-        <v>0.239037</v>
+        <v>0.242755</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.223538</v>
+        <v>0.224547</v>
       </c>
       <c r="C7" t="n">
-        <v>0.19805</v>
+        <v>0.200421</v>
       </c>
       <c r="D7" t="n">
-        <v>0.237964</v>
+        <v>0.238603</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.208604</v>
+        <v>0.20926</v>
       </c>
       <c r="C8" t="n">
-        <v>0.198214</v>
+        <v>0.198284</v>
       </c>
       <c r="D8" t="n">
-        <v>0.239875</v>
+        <v>0.23988</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.193975</v>
+        <v>0.195698</v>
       </c>
       <c r="C9" t="n">
-        <v>0.199538</v>
+        <v>0.199191</v>
       </c>
       <c r="D9" t="n">
-        <v>0.263841</v>
+        <v>0.262293</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.333909</v>
+        <v>0.338007</v>
       </c>
       <c r="C10" t="n">
-        <v>0.217039</v>
+        <v>0.215781</v>
       </c>
       <c r="D10" t="n">
-        <v>0.261385</v>
+        <v>0.260518</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.32817</v>
+        <v>0.329776</v>
       </c>
       <c r="C11" t="n">
-        <v>0.216318</v>
+        <v>0.2161</v>
       </c>
       <c r="D11" t="n">
-        <v>0.261893</v>
+        <v>0.260027</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.321703</v>
+        <v>0.323921</v>
       </c>
       <c r="C12" t="n">
-        <v>0.214861</v>
+        <v>0.214716</v>
       </c>
       <c r="D12" t="n">
-        <v>0.257928</v>
+        <v>0.258119</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.317084</v>
+        <v>0.317706</v>
       </c>
       <c r="C13" t="n">
-        <v>0.213985</v>
+        <v>0.214242</v>
       </c>
       <c r="D13" t="n">
-        <v>0.257317</v>
+        <v>0.25702</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.309846</v>
+        <v>0.310337</v>
       </c>
       <c r="C14" t="n">
-        <v>0.213024</v>
+        <v>0.213867</v>
       </c>
       <c r="D14" t="n">
-        <v>0.257203</v>
+        <v>0.256904</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.30116</v>
+        <v>0.301633</v>
       </c>
       <c r="C15" t="n">
-        <v>0.212134</v>
+        <v>0.212526</v>
       </c>
       <c r="D15" t="n">
-        <v>0.256241</v>
+        <v>0.255922</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.29262</v>
+        <v>0.292867</v>
       </c>
       <c r="C16" t="n">
-        <v>0.212014</v>
+        <v>0.212133</v>
       </c>
       <c r="D16" t="n">
-        <v>0.255427</v>
+        <v>0.260786</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.282718</v>
+        <v>0.283935</v>
       </c>
       <c r="C17" t="n">
-        <v>0.211666</v>
+        <v>0.211846</v>
       </c>
       <c r="D17" t="n">
-        <v>0.254364</v>
+        <v>0.254509</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.275984</v>
+        <v>0.274702</v>
       </c>
       <c r="C18" t="n">
-        <v>0.211524</v>
+        <v>0.21191</v>
       </c>
       <c r="D18" t="n">
-        <v>0.25261</v>
+        <v>0.25278</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.263448</v>
+        <v>0.264332</v>
       </c>
       <c r="C19" t="n">
-        <v>0.21104</v>
+        <v>0.210985</v>
       </c>
       <c r="D19" t="n">
-        <v>0.252941</v>
+        <v>0.275853</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.252288</v>
+        <v>0.253275</v>
       </c>
       <c r="C20" t="n">
-        <v>0.211157</v>
+        <v>0.211499</v>
       </c>
       <c r="D20" t="n">
-        <v>0.251875</v>
+        <v>0.25203</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.240015</v>
+        <v>0.240173</v>
       </c>
       <c r="C21" t="n">
-        <v>0.211128</v>
+        <v>0.211098</v>
       </c>
       <c r="D21" t="n">
-        <v>0.250597</v>
+        <v>0.255853</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.224842</v>
+        <v>0.225377</v>
       </c>
       <c r="C22" t="n">
-        <v>0.210326</v>
+        <v>0.210965</v>
       </c>
       <c r="D22" t="n">
-        <v>0.250181</v>
+        <v>0.250404</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.208821</v>
+        <v>0.20942</v>
       </c>
       <c r="C23" t="n">
-        <v>0.20984</v>
+        <v>0.210574</v>
       </c>
       <c r="D23" t="n">
-        <v>0.269089</v>
+        <v>0.268695</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.34739</v>
+        <v>0.347898</v>
       </c>
       <c r="C24" t="n">
-        <v>0.224735</v>
+        <v>0.225264</v>
       </c>
       <c r="D24" t="n">
-        <v>0.266437</v>
+        <v>0.266278</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.34153</v>
+        <v>0.342068</v>
       </c>
       <c r="C25" t="n">
-        <v>0.222219</v>
+        <v>0.222553</v>
       </c>
       <c r="D25" t="n">
-        <v>0.26491</v>
+        <v>0.265425</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.33422</v>
+        <v>0.334827</v>
       </c>
       <c r="C26" t="n">
-        <v>0.220992</v>
+        <v>0.220012</v>
       </c>
       <c r="D26" t="n">
-        <v>0.264764</v>
+        <v>0.263995</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.328338</v>
+        <v>0.328896</v>
       </c>
       <c r="C27" t="n">
-        <v>0.218567</v>
+        <v>0.218436</v>
       </c>
       <c r="D27" t="n">
-        <v>0.262087</v>
+        <v>0.262593</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.321288</v>
+        <v>0.321794</v>
       </c>
       <c r="C28" t="n">
-        <v>0.217018</v>
+        <v>0.216946</v>
       </c>
       <c r="D28" t="n">
-        <v>0.260217</v>
+        <v>0.260071</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.313006</v>
+        <v>0.313356</v>
       </c>
       <c r="C29" t="n">
-        <v>0.216073</v>
+        <v>0.216449</v>
       </c>
       <c r="D29" t="n">
-        <v>0.258641</v>
+        <v>0.258943</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.303756</v>
+        <v>0.30427</v>
       </c>
       <c r="C30" t="n">
-        <v>0.215925</v>
+        <v>0.215876</v>
       </c>
       <c r="D30" t="n">
-        <v>0.257089</v>
+        <v>0.257117</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.29409</v>
+        <v>0.294034</v>
       </c>
       <c r="C31" t="n">
-        <v>0.214906</v>
+        <v>0.214728</v>
       </c>
       <c r="D31" t="n">
-        <v>0.256467</v>
+        <v>0.256551</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.283641</v>
+        <v>0.28394</v>
       </c>
       <c r="C32" t="n">
-        <v>0.214634</v>
+        <v>0.214646</v>
       </c>
       <c r="D32" t="n">
-        <v>0.256599</v>
+        <v>0.256644</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.273882</v>
+        <v>0.273713</v>
       </c>
       <c r="C33" t="n">
-        <v>0.213628</v>
+        <v>0.213353</v>
       </c>
       <c r="D33" t="n">
-        <v>0.25587</v>
+        <v>0.255726</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.261307</v>
+        <v>0.262033</v>
       </c>
       <c r="C34" t="n">
-        <v>0.212996</v>
+        <v>0.213127</v>
       </c>
       <c r="D34" t="n">
-        <v>0.254056</v>
+        <v>0.254206</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.24769</v>
+        <v>0.248328</v>
       </c>
       <c r="C35" t="n">
-        <v>0.212455</v>
+        <v>0.212364</v>
       </c>
       <c r="D35" t="n">
-        <v>0.253946</v>
+        <v>0.253958</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.234102</v>
+        <v>0.234462</v>
       </c>
       <c r="C36" t="n">
-        <v>0.212266</v>
+        <v>0.212268</v>
       </c>
       <c r="D36" t="n">
-        <v>0.25503</v>
+        <v>0.254214</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.219639</v>
+        <v>0.219591</v>
       </c>
       <c r="C37" t="n">
-        <v>0.212443</v>
+        <v>0.212544</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2707</v>
+        <v>0.270167</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.351203</v>
+        <v>0.35201</v>
       </c>
       <c r="C38" t="n">
-        <v>0.231743</v>
+        <v>0.229172</v>
       </c>
       <c r="D38" t="n">
-        <v>0.268104</v>
+        <v>0.267923</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.346484</v>
+        <v>0.347181</v>
       </c>
       <c r="C39" t="n">
-        <v>0.228371</v>
+        <v>0.225765</v>
       </c>
       <c r="D39" t="n">
-        <v>0.266192</v>
+        <v>0.266055</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.340561</v>
+        <v>0.340963</v>
       </c>
       <c r="C40" t="n">
-        <v>0.22553</v>
+        <v>0.223983</v>
       </c>
       <c r="D40" t="n">
-        <v>0.264654</v>
+        <v>0.264481</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.333286</v>
+        <v>0.334307</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2219</v>
+        <v>0.221152</v>
       </c>
       <c r="D41" t="n">
-        <v>0.262498</v>
+        <v>0.262254</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.326413</v>
+        <v>0.327463</v>
       </c>
       <c r="C42" t="n">
-        <v>0.218946</v>
+        <v>0.218796</v>
       </c>
       <c r="D42" t="n">
-        <v>0.26133</v>
+        <v>0.261293</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.318983</v>
+        <v>0.31937</v>
       </c>
       <c r="C43" t="n">
-        <v>0.217908</v>
+        <v>0.217429</v>
       </c>
       <c r="D43" t="n">
-        <v>0.259554</v>
+        <v>0.259626</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.310044</v>
+        <v>0.31049</v>
       </c>
       <c r="C44" t="n">
-        <v>0.216443</v>
+        <v>0.21612</v>
       </c>
       <c r="D44" t="n">
-        <v>0.25826</v>
+        <v>0.258231</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.301291</v>
+        <v>0.301415</v>
       </c>
       <c r="C45" t="n">
-        <v>0.215571</v>
+        <v>0.215318</v>
       </c>
       <c r="D45" t="n">
-        <v>0.257347</v>
+        <v>0.2572</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.29036</v>
+        <v>0.291185</v>
       </c>
       <c r="C46" t="n">
-        <v>0.214865</v>
+        <v>0.21492</v>
       </c>
       <c r="D46" t="n">
-        <v>0.256091</v>
+        <v>0.256113</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.279948</v>
+        <v>0.280267</v>
       </c>
       <c r="C47" t="n">
-        <v>0.214482</v>
+        <v>0.21441</v>
       </c>
       <c r="D47" t="n">
-        <v>0.255339</v>
+        <v>0.255274</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.268303</v>
+        <v>0.268725</v>
       </c>
       <c r="C48" t="n">
-        <v>0.213849</v>
+        <v>0.213436</v>
       </c>
       <c r="D48" t="n">
-        <v>0.255146</v>
+        <v>0.255198</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.255837</v>
+        <v>0.256104</v>
       </c>
       <c r="C49" t="n">
-        <v>0.213175</v>
+        <v>0.21284</v>
       </c>
       <c r="D49" t="n">
-        <v>0.254708</v>
+        <v>0.254681</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.241859</v>
+        <v>0.241964</v>
       </c>
       <c r="C50" t="n">
-        <v>0.212885</v>
+        <v>0.212754</v>
       </c>
       <c r="D50" t="n">
-        <v>0.256495</v>
+        <v>0.256098</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.226661</v>
+        <v>0.226923</v>
       </c>
       <c r="C51" t="n">
         <v>0.212524</v>
       </c>
       <c r="D51" t="n">
-        <v>0.269687</v>
+        <v>0.269455</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.209663</v>
+        <v>0.209831</v>
       </c>
       <c r="C52" t="n">
-        <v>0.212123</v>
+        <v>0.211938</v>
       </c>
       <c r="D52" t="n">
-        <v>0.266869</v>
+        <v>0.266883</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.349288</v>
+        <v>0.350213</v>
       </c>
       <c r="C53" t="n">
-        <v>0.226425</v>
+        <v>0.225723</v>
       </c>
       <c r="D53" t="n">
-        <v>0.264959</v>
+        <v>0.264703</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.343714</v>
+        <v>0.344631</v>
       </c>
       <c r="C54" t="n">
-        <v>0.223375</v>
+        <v>0.222747</v>
       </c>
       <c r="D54" t="n">
-        <v>0.263563</v>
+        <v>0.263524</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.337484</v>
+        <v>0.338199</v>
       </c>
       <c r="C55" t="n">
-        <v>0.22035</v>
+        <v>0.220167</v>
       </c>
       <c r="D55" t="n">
-        <v>0.262346</v>
+        <v>0.262336</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.330245</v>
+        <v>0.331077</v>
       </c>
       <c r="C56" t="n">
-        <v>0.219004</v>
+        <v>0.218577</v>
       </c>
       <c r="D56" t="n">
-        <v>0.260691</v>
+        <v>0.260615</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.321896</v>
+        <v>0.322325</v>
       </c>
       <c r="C57" t="n">
-        <v>0.2175</v>
+        <v>0.217526</v>
       </c>
       <c r="D57" t="n">
-        <v>0.259556</v>
+        <v>0.259549</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.313578</v>
+        <v>0.314042</v>
       </c>
       <c r="C58" t="n">
-        <v>0.216775</v>
+        <v>0.216591</v>
       </c>
       <c r="D58" t="n">
-        <v>0.258521</v>
+        <v>0.258221</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.304509</v>
+        <v>0.304583</v>
       </c>
       <c r="C59" t="n">
-        <v>0.215416</v>
+        <v>0.215365</v>
       </c>
       <c r="D59" t="n">
-        <v>0.257238</v>
+        <v>0.257295</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.294541</v>
+        <v>0.294943</v>
       </c>
       <c r="C60" t="n">
-        <v>0.214845</v>
+        <v>0.214901</v>
       </c>
       <c r="D60" t="n">
-        <v>0.256153</v>
+        <v>0.256321</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.283703</v>
+        <v>0.284005</v>
       </c>
       <c r="C61" t="n">
-        <v>0.214161</v>
+        <v>0.213946</v>
       </c>
       <c r="D61" t="n">
-        <v>0.255602</v>
+        <v>0.255266</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272014</v>
+        <v>0.272145</v>
       </c>
       <c r="C62" t="n">
-        <v>0.213534</v>
+        <v>0.213278</v>
       </c>
       <c r="D62" t="n">
-        <v>0.255178</v>
+        <v>0.254963</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.259033</v>
+        <v>0.259084</v>
       </c>
       <c r="C63" t="n">
-        <v>0.212893</v>
+        <v>0.212766</v>
       </c>
       <c r="D63" t="n">
-        <v>0.254037</v>
+        <v>0.253973</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.24547</v>
+        <v>0.245578</v>
       </c>
       <c r="C64" t="n">
-        <v>0.212426</v>
+        <v>0.212229</v>
       </c>
       <c r="D64" t="n">
-        <v>0.25323</v>
+        <v>0.253248</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.230283</v>
+        <v>0.230397</v>
       </c>
       <c r="C65" t="n">
-        <v>0.212138</v>
+        <v>0.212025</v>
       </c>
       <c r="D65" t="n">
-        <v>0.252747</v>
+        <v>0.252521</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.213451</v>
+        <v>0.21335</v>
       </c>
       <c r="C66" t="n">
-        <v>0.212173</v>
+        <v>0.21194</v>
       </c>
       <c r="D66" t="n">
-        <v>0.268584</v>
+        <v>0.268167</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.351925</v>
+        <v>0.352189</v>
       </c>
       <c r="C67" t="n">
-        <v>0.228969</v>
+        <v>0.227557</v>
       </c>
       <c r="D67" t="n">
-        <v>0.266156</v>
+        <v>0.265915</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.346965</v>
+        <v>0.346904</v>
       </c>
       <c r="C68" t="n">
-        <v>0.224437</v>
+        <v>0.223424</v>
       </c>
       <c r="D68" t="n">
-        <v>0.26422</v>
+        <v>0.264025</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.34019</v>
+        <v>0.340871</v>
       </c>
       <c r="C69" t="n">
-        <v>0.221155</v>
+        <v>0.220567</v>
       </c>
       <c r="D69" t="n">
-        <v>0.262785</v>
+        <v>0.262518</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.332811</v>
+        <v>0.3334</v>
       </c>
       <c r="C70" t="n">
-        <v>0.219031</v>
+        <v>0.218593</v>
       </c>
       <c r="D70" t="n">
-        <v>0.261092</v>
+        <v>0.260861</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.324913</v>
+        <v>0.324981</v>
       </c>
       <c r="C71" t="n">
-        <v>0.217872</v>
+        <v>0.217723</v>
       </c>
       <c r="D71" t="n">
-        <v>0.259776</v>
+        <v>0.259604</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.316157</v>
+        <v>0.316622</v>
       </c>
       <c r="C72" t="n">
-        <v>0.216861</v>
+        <v>0.216504</v>
       </c>
       <c r="D72" t="n">
-        <v>0.259028</v>
+        <v>0.258789</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.306805</v>
+        <v>0.307488</v>
       </c>
       <c r="C73" t="n">
-        <v>0.21576</v>
+        <v>0.215343</v>
       </c>
       <c r="D73" t="n">
-        <v>0.257516</v>
+        <v>0.257372</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.297025</v>
+        <v>0.297328</v>
       </c>
       <c r="C74" t="n">
-        <v>0.214937</v>
+        <v>0.214836</v>
       </c>
       <c r="D74" t="n">
-        <v>0.256626</v>
+        <v>0.256573</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.286369</v>
+        <v>0.286462</v>
       </c>
       <c r="C75" t="n">
-        <v>0.214359</v>
+        <v>0.214205</v>
       </c>
       <c r="D75" t="n">
-        <v>0.255974</v>
+        <v>0.255992</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.275208</v>
+        <v>0.275353</v>
       </c>
       <c r="C76" t="n">
-        <v>0.213774</v>
+        <v>0.213606</v>
       </c>
       <c r="D76" t="n">
-        <v>0.254951</v>
+        <v>0.254793</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.262796</v>
+        <v>0.26295</v>
       </c>
       <c r="C77" t="n">
-        <v>0.213249</v>
+        <v>0.212959</v>
       </c>
       <c r="D77" t="n">
-        <v>0.254165</v>
+        <v>0.254166</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.249053</v>
+        <v>0.248972</v>
       </c>
       <c r="C78" t="n">
-        <v>0.212605</v>
+        <v>0.212409</v>
       </c>
       <c r="D78" t="n">
-        <v>0.253256</v>
+        <v>0.253208</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.234327</v>
+        <v>0.23409</v>
       </c>
       <c r="C79" t="n">
-        <v>0.212438</v>
+        <v>0.212201</v>
       </c>
       <c r="D79" t="n">
-        <v>0.253562</v>
+        <v>0.253502</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.218523</v>
+        <v>0.218447</v>
       </c>
       <c r="C80" t="n">
-        <v>0.212023</v>
+        <v>0.211785</v>
       </c>
       <c r="D80" t="n">
-        <v>0.26979</v>
+        <v>0.268656</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.353444</v>
+        <v>0.354046</v>
       </c>
       <c r="C81" t="n">
-        <v>0.229923</v>
+        <v>0.226671</v>
       </c>
       <c r="D81" t="n">
-        <v>0.267591</v>
+        <v>0.26638</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.347877</v>
+        <v>0.348371</v>
       </c>
       <c r="C82" t="n">
-        <v>0.224668</v>
+        <v>0.222779</v>
       </c>
       <c r="D82" t="n">
-        <v>0.265191</v>
+        <v>0.264396</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.341311</v>
+        <v>0.342289</v>
       </c>
       <c r="C83" t="n">
-        <v>0.221795</v>
+        <v>0.220604</v>
       </c>
       <c r="D83" t="n">
-        <v>0.263766</v>
+        <v>0.262887</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.334358</v>
+        <v>0.335086</v>
       </c>
       <c r="C84" t="n">
-        <v>0.219809</v>
+        <v>0.218577</v>
       </c>
       <c r="D84" t="n">
-        <v>0.26211</v>
+        <v>0.261644</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.326615</v>
+        <v>0.32741</v>
       </c>
       <c r="C85" t="n">
-        <v>0.218544</v>
+        <v>0.217566</v>
       </c>
       <c r="D85" t="n">
-        <v>0.260851</v>
+        <v>0.26031</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.318285</v>
+        <v>0.318685</v>
       </c>
       <c r="C86" t="n">
-        <v>0.217343</v>
+        <v>0.216593</v>
       </c>
       <c r="D86" t="n">
-        <v>0.259346</v>
+        <v>0.259103</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.30934</v>
+        <v>0.309719</v>
       </c>
       <c r="C87" t="n">
-        <v>0.216221</v>
+        <v>0.215579</v>
       </c>
       <c r="D87" t="n">
-        <v>0.257889</v>
+        <v>0.25787</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.29952</v>
+        <v>0.299855</v>
       </c>
       <c r="C88" t="n">
-        <v>0.215243</v>
+        <v>0.214839</v>
       </c>
       <c r="D88" t="n">
-        <v>0.256686</v>
+        <v>0.256652</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.289373</v>
+        <v>0.289553</v>
       </c>
       <c r="C89" t="n">
-        <v>0.21452</v>
+        <v>0.214091</v>
       </c>
       <c r="D89" t="n">
-        <v>0.256016</v>
+        <v>0.255908</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.277857</v>
+        <v>0.277926</v>
       </c>
       <c r="C90" t="n">
-        <v>0.213732</v>
+        <v>0.213538</v>
       </c>
       <c r="D90" t="n">
-        <v>0.255166</v>
+        <v>0.25508</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.265613</v>
+        <v>0.265599</v>
       </c>
       <c r="C91" t="n">
-        <v>0.213177</v>
+        <v>0.212985</v>
       </c>
       <c r="D91" t="n">
-        <v>0.254568</v>
+        <v>0.254602</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.25216</v>
+        <v>0.252322</v>
       </c>
       <c r="C92" t="n">
-        <v>0.212647</v>
+        <v>0.212419</v>
       </c>
       <c r="D92" t="n">
-        <v>0.253798</v>
+        <v>0.253677</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.237982</v>
+        <v>0.23795</v>
       </c>
       <c r="C93" t="n">
-        <v>0.212132</v>
+        <v>0.21203</v>
       </c>
       <c r="D93" t="n">
-        <v>0.253485</v>
+        <v>0.253307</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.222075</v>
+        <v>0.221981</v>
       </c>
       <c r="C94" t="n">
-        <v>0.211845</v>
+        <v>0.211644</v>
       </c>
       <c r="D94" t="n">
-        <v>0.270452</v>
+        <v>0.26944</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.3546</v>
+        <v>0.355337</v>
       </c>
       <c r="C95" t="n">
-        <v>0.229516</v>
+        <v>0.226924</v>
       </c>
       <c r="D95" t="n">
-        <v>0.267623</v>
+        <v>0.266783</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.34931</v>
+        <v>0.349807</v>
       </c>
       <c r="C96" t="n">
-        <v>0.225381</v>
+        <v>0.223664</v>
       </c>
       <c r="D96" t="n">
-        <v>0.265204</v>
+        <v>0.264797</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.342998</v>
+        <v>0.343756</v>
       </c>
       <c r="C97" t="n">
-        <v>0.222476</v>
+        <v>0.221421</v>
       </c>
       <c r="D97" t="n">
-        <v>0.263434</v>
+        <v>0.263091</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.336342</v>
+        <v>0.336864</v>
       </c>
       <c r="C98" t="n">
-        <v>0.220026</v>
+        <v>0.219303</v>
       </c>
       <c r="D98" t="n">
-        <v>0.262043</v>
+        <v>0.261718</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.328502</v>
+        <v>0.329006</v>
       </c>
       <c r="C99" t="n">
-        <v>0.218541</v>
+        <v>0.218037</v>
       </c>
       <c r="D99" t="n">
-        <v>0.260734</v>
+        <v>0.260482</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.320099</v>
+        <v>0.320691</v>
       </c>
       <c r="C100" t="n">
-        <v>0.217301</v>
+        <v>0.216774</v>
       </c>
       <c r="D100" t="n">
-        <v>0.259383</v>
+        <v>0.259191</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.31145</v>
+        <v>0.311831</v>
       </c>
       <c r="C101" t="n">
-        <v>0.216288</v>
+        <v>0.215817</v>
       </c>
       <c r="D101" t="n">
-        <v>0.258166</v>
+        <v>0.258063</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.301987</v>
+        <v>0.302061</v>
       </c>
       <c r="C102" t="n">
-        <v>0.2154</v>
+        <v>0.215077</v>
       </c>
       <c r="D102" t="n">
-        <v>0.257133</v>
+        <v>0.257082</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.29161</v>
+        <v>0.291875</v>
       </c>
       <c r="C103" t="n">
-        <v>0.214479</v>
+        <v>0.214324</v>
       </c>
       <c r="D103" t="n">
-        <v>0.256066</v>
+        <v>0.256053</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.280442</v>
+        <v>0.280464</v>
       </c>
       <c r="C104" t="n">
-        <v>0.213715</v>
+        <v>0.21367</v>
       </c>
       <c r="D104" t="n">
-        <v>0.255366</v>
+        <v>0.255349</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.268264</v>
+        <v>0.268247</v>
       </c>
       <c r="C105" t="n">
-        <v>0.213161</v>
+        <v>0.213136</v>
       </c>
       <c r="D105" t="n">
-        <v>0.254435</v>
+        <v>0.254467</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.25509</v>
+        <v>0.255171</v>
       </c>
       <c r="C106" t="n">
-        <v>0.212747</v>
+        <v>0.212514</v>
       </c>
       <c r="D106" t="n">
-        <v>0.253702</v>
+        <v>0.253742</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.241086</v>
+        <v>0.241204</v>
       </c>
       <c r="C107" t="n">
-        <v>0.21212</v>
+        <v>0.212133</v>
       </c>
       <c r="D107" t="n">
-        <v>0.253253</v>
+        <v>0.253126</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.225604</v>
+        <v>0.225592</v>
       </c>
       <c r="C108" t="n">
-        <v>0.211755</v>
+        <v>0.211733</v>
       </c>
       <c r="D108" t="n">
-        <v>0.270153</v>
+        <v>0.269707</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.209033</v>
+        <v>0.208999</v>
       </c>
       <c r="C109" t="n">
-        <v>0.21146</v>
+        <v>0.211425</v>
       </c>
       <c r="D109" t="n">
-        <v>0.267553</v>
+        <v>0.267158</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.350468</v>
+        <v>0.350568</v>
       </c>
       <c r="C110" t="n">
-        <v>0.225293</v>
+        <v>0.224336</v>
       </c>
       <c r="D110" t="n">
-        <v>0.265588</v>
+        <v>0.265292</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.344361</v>
+        <v>0.344591</v>
       </c>
       <c r="C111" t="n">
-        <v>0.222217</v>
+        <v>0.22175</v>
       </c>
       <c r="D111" t="n">
-        <v>0.263711</v>
+        <v>0.263512</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.337732</v>
+        <v>0.337921</v>
       </c>
       <c r="C112" t="n">
-        <v>0.220409</v>
+        <v>0.220165</v>
       </c>
       <c r="D112" t="n">
-        <v>0.262163</v>
+        <v>0.262038</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.330408</v>
+        <v>0.330367</v>
       </c>
       <c r="C113" t="n">
-        <v>0.218526</v>
+        <v>0.218413</v>
       </c>
       <c r="D113" t="n">
-        <v>0.260709</v>
+        <v>0.26062</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.322294</v>
+        <v>0.322244</v>
       </c>
       <c r="C114" t="n">
-        <v>0.217397</v>
+        <v>0.217354</v>
       </c>
       <c r="D114" t="n">
-        <v>0.259453</v>
+        <v>0.259795</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.313523</v>
+        <v>0.313406</v>
       </c>
       <c r="C115" t="n">
-        <v>0.21615</v>
+        <v>0.216139</v>
       </c>
       <c r="D115" t="n">
-        <v>0.258968</v>
+        <v>0.258733</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.303901</v>
+        <v>0.303966</v>
       </c>
       <c r="C116" t="n">
-        <v>0.21534</v>
+        <v>0.215346</v>
       </c>
       <c r="D116" t="n">
-        <v>0.257691</v>
+        <v>0.257609</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.293767</v>
+        <v>0.293877</v>
       </c>
       <c r="C117" t="n">
-        <v>0.214596</v>
+        <v>0.214893</v>
       </c>
       <c r="D117" t="n">
-        <v>0.256738</v>
+        <v>0.256601</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.282753</v>
+        <v>0.282882</v>
       </c>
       <c r="C118" t="n">
-        <v>0.214291</v>
+        <v>0.214209</v>
       </c>
       <c r="D118" t="n">
-        <v>0.255847</v>
+        <v>0.255711</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.270843</v>
+        <v>0.270946</v>
       </c>
       <c r="C119" t="n">
-        <v>0.213576</v>
+        <v>0.21359</v>
       </c>
       <c r="D119" t="n">
-        <v>0.255213</v>
+        <v>0.254914</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.258382</v>
+        <v>0.258317</v>
       </c>
       <c r="C120" t="n">
-        <v>0.213103</v>
+        <v>0.21307</v>
       </c>
       <c r="D120" t="n">
-        <v>0.254458</v>
+        <v>0.254125</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.24443</v>
+        <v>0.24419</v>
       </c>
       <c r="C121" t="n">
-        <v>0.212622</v>
+        <v>0.212567</v>
       </c>
       <c r="D121" t="n">
-        <v>0.254157</v>
+        <v>0.253778</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.229136</v>
+        <v>0.228973</v>
       </c>
       <c r="C122" t="n">
-        <v>0.21227</v>
+        <v>0.212176</v>
       </c>
       <c r="D122" t="n">
-        <v>0.253402</v>
+        <v>0.253345</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.212304</v>
+        <v>0.212288</v>
       </c>
       <c r="C123" t="n">
-        <v>0.211904</v>
+        <v>0.211673</v>
       </c>
       <c r="D123" t="n">
-        <v>0.268173</v>
+        <v>0.267729</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.351861</v>
+        <v>0.351586</v>
       </c>
       <c r="C124" t="n">
-        <v>0.226213</v>
+        <v>0.225277</v>
       </c>
       <c r="D124" t="n">
-        <v>0.26599</v>
+        <v>0.265725</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.345857</v>
+        <v>0.34575</v>
       </c>
       <c r="C125" t="n">
-        <v>0.222816</v>
+        <v>0.222253</v>
       </c>
       <c r="D125" t="n">
-        <v>0.264205</v>
+        <v>0.263952</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.339405</v>
+        <v>0.339165</v>
       </c>
       <c r="C126" t="n">
-        <v>0.220618</v>
+        <v>0.220328</v>
       </c>
       <c r="D126" t="n">
-        <v>0.26255</v>
+        <v>0.262392</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.332058</v>
+        <v>0.33207</v>
       </c>
       <c r="C127" t="n">
-        <v>0.218965</v>
+        <v>0.218696</v>
       </c>
       <c r="D127" t="n">
-        <v>0.261175</v>
+        <v>0.260919</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.324112</v>
+        <v>0.324107</v>
       </c>
       <c r="C128" t="n">
-        <v>0.217423</v>
+        <v>0.217288</v>
       </c>
       <c r="D128" t="n">
-        <v>0.259789</v>
+        <v>0.259699</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.315332</v>
+        <v>0.315278</v>
       </c>
       <c r="C129" t="n">
-        <v>0.216343</v>
+        <v>0.216211</v>
       </c>
       <c r="D129" t="n">
-        <v>0.258571</v>
+        <v>0.258426</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.305973</v>
+        <v>0.305833</v>
       </c>
       <c r="C130" t="n">
-        <v>0.215458</v>
+        <v>0.215368</v>
       </c>
       <c r="D130" t="n">
-        <v>0.257548</v>
+        <v>0.25733</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.295861</v>
+        <v>0.295733</v>
       </c>
       <c r="C131" t="n">
-        <v>0.214702</v>
+        <v>0.214641</v>
       </c>
       <c r="D131" t="n">
-        <v>0.256504</v>
+        <v>0.256416</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.285112</v>
+        <v>0.284929</v>
       </c>
       <c r="C132" t="n">
-        <v>0.213936</v>
+        <v>0.213841</v>
       </c>
       <c r="D132" t="n">
-        <v>0.255603</v>
+        <v>0.25548</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.273223</v>
+        <v>0.273073</v>
       </c>
       <c r="C133" t="n">
-        <v>0.213394</v>
+        <v>0.213302</v>
       </c>
       <c r="D133" t="n">
-        <v>0.25489</v>
+        <v>0.255133</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.260523</v>
+        <v>0.260486</v>
       </c>
       <c r="C134" t="n">
-        <v>0.212754</v>
+        <v>0.212655</v>
       </c>
       <c r="D134" t="n">
-        <v>0.254564</v>
+        <v>0.2544</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.246843</v>
+        <v>0.246767</v>
       </c>
       <c r="C135" t="n">
-        <v>0.212237</v>
+        <v>0.21222</v>
       </c>
       <c r="D135" t="n">
-        <v>0.254011</v>
+        <v>0.253919</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.231977</v>
+        <v>0.231816</v>
       </c>
       <c r="C136" t="n">
-        <v>0.211776</v>
+        <v>0.212152</v>
       </c>
       <c r="D136" t="n">
-        <v>0.253486</v>
+        <v>0.253284</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.215729</v>
+        <v>0.215775</v>
       </c>
       <c r="C137" t="n">
-        <v>0.21185</v>
+        <v>0.211855</v>
       </c>
       <c r="D137" t="n">
-        <v>0.269171</v>
+        <v>0.268723</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.353011</v>
+        <v>0.352898</v>
       </c>
       <c r="C138" t="n">
-        <v>0.227753</v>
+        <v>0.226703</v>
       </c>
       <c r="D138" t="n">
-        <v>0.266736</v>
+        <v>0.266468</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.347178</v>
+        <v>0.347136</v>
       </c>
       <c r="C139" t="n">
-        <v>0.223956</v>
+        <v>0.223413</v>
       </c>
       <c r="D139" t="n">
-        <v>0.264875</v>
+        <v>0.264669</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.340821</v>
+        <v>0.340811</v>
       </c>
       <c r="C140" t="n">
-        <v>0.221443</v>
+        <v>0.221123</v>
       </c>
       <c r="D140" t="n">
-        <v>0.263163</v>
+        <v>0.263045</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.333841</v>
+        <v>0.333838</v>
       </c>
       <c r="C141" t="n">
-        <v>0.219479</v>
+        <v>0.219324</v>
       </c>
       <c r="D141" t="n">
-        <v>0.261721</v>
+        <v>0.261565</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.325632</v>
+        <v>0.325807</v>
       </c>
       <c r="C142" t="n">
-        <v>0.218108</v>
+        <v>0.218009</v>
       </c>
       <c r="D142" t="n">
-        <v>0.260351</v>
+        <v>0.260195</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.317148</v>
+        <v>0.317339</v>
       </c>
       <c r="C143" t="n">
-        <v>0.216985</v>
+        <v>0.216886</v>
       </c>
       <c r="D143" t="n">
-        <v>0.259213</v>
+        <v>0.259022</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.280955</v>
+        <v>0.281632</v>
       </c>
       <c r="C2" t="n">
-        <v>0.196232</v>
+        <v>0.195841</v>
       </c>
       <c r="D2" t="n">
-        <v>0.234992</v>
+        <v>0.23849</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.266939</v>
+        <v>0.267358</v>
       </c>
       <c r="C3" t="n">
-        <v>0.196122</v>
+        <v>0.195252</v>
       </c>
       <c r="D3" t="n">
-        <v>0.236391</v>
+        <v>0.235346</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.259962</v>
+        <v>0.258716</v>
       </c>
       <c r="C4" t="n">
-        <v>0.195792</v>
+        <v>0.195732</v>
       </c>
       <c r="D4" t="n">
-        <v>0.238836</v>
+        <v>0.237116</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.247176</v>
+        <v>0.247971</v>
       </c>
       <c r="C5" t="n">
-        <v>0.196302</v>
+        <v>0.196179</v>
       </c>
       <c r="D5" t="n">
-        <v>0.237811</v>
+        <v>0.237627</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.235468</v>
+        <v>0.235355</v>
       </c>
       <c r="C6" t="n">
-        <v>0.199487</v>
+        <v>0.197821</v>
       </c>
       <c r="D6" t="n">
-        <v>0.242755</v>
+        <v>0.23931</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.224547</v>
+        <v>0.224069</v>
       </c>
       <c r="C7" t="n">
-        <v>0.200421</v>
+        <v>0.197842</v>
       </c>
       <c r="D7" t="n">
-        <v>0.238603</v>
+        <v>0.245208</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.20926</v>
+        <v>0.209375</v>
       </c>
       <c r="C8" t="n">
-        <v>0.198284</v>
+        <v>0.198266</v>
       </c>
       <c r="D8" t="n">
-        <v>0.23988</v>
+        <v>0.245316</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.195698</v>
+        <v>0.195173</v>
       </c>
       <c r="C9" t="n">
-        <v>0.199191</v>
+        <v>0.199227</v>
       </c>
       <c r="D9" t="n">
-        <v>0.262293</v>
+        <v>0.26364</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.338007</v>
+        <v>0.334368</v>
       </c>
       <c r="C10" t="n">
-        <v>0.215781</v>
+        <v>0.215619</v>
       </c>
       <c r="D10" t="n">
-        <v>0.260518</v>
+        <v>0.260824</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.329776</v>
+        <v>0.331889</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2161</v>
+        <v>0.215664</v>
       </c>
       <c r="D11" t="n">
-        <v>0.260027</v>
+        <v>0.259802</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.323921</v>
+        <v>0.3232</v>
       </c>
       <c r="C12" t="n">
-        <v>0.214716</v>
+        <v>0.2141</v>
       </c>
       <c r="D12" t="n">
-        <v>0.258119</v>
+        <v>0.259262</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.317706</v>
+        <v>0.317392</v>
       </c>
       <c r="C13" t="n">
-        <v>0.214242</v>
+        <v>0.213476</v>
       </c>
       <c r="D13" t="n">
-        <v>0.25702</v>
+        <v>0.257226</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.310337</v>
+        <v>0.310737</v>
       </c>
       <c r="C14" t="n">
-        <v>0.213867</v>
+        <v>0.211904</v>
       </c>
       <c r="D14" t="n">
-        <v>0.256904</v>
+        <v>0.257263</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.301633</v>
+        <v>0.301848</v>
       </c>
       <c r="C15" t="n">
-        <v>0.212526</v>
+        <v>0.212088</v>
       </c>
       <c r="D15" t="n">
-        <v>0.255922</v>
+        <v>0.256535</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.292867</v>
+        <v>0.293108</v>
       </c>
       <c r="C16" t="n">
-        <v>0.212133</v>
+        <v>0.212204</v>
       </c>
       <c r="D16" t="n">
-        <v>0.260786</v>
+        <v>0.256042</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.283935</v>
+        <v>0.284256</v>
       </c>
       <c r="C17" t="n">
-        <v>0.211846</v>
+        <v>0.211182</v>
       </c>
       <c r="D17" t="n">
-        <v>0.254509</v>
+        <v>0.254822</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.274702</v>
+        <v>0.274585</v>
       </c>
       <c r="C18" t="n">
-        <v>0.21191</v>
+        <v>0.211082</v>
       </c>
       <c r="D18" t="n">
-        <v>0.25278</v>
+        <v>0.252818</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.264332</v>
+        <v>0.264258</v>
       </c>
       <c r="C19" t="n">
-        <v>0.210985</v>
+        <v>0.210912</v>
       </c>
       <c r="D19" t="n">
-        <v>0.275853</v>
+        <v>0.252963</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.253275</v>
+        <v>0.254534</v>
       </c>
       <c r="C20" t="n">
-        <v>0.211499</v>
+        <v>0.211401</v>
       </c>
       <c r="D20" t="n">
-        <v>0.25203</v>
+        <v>0.251876</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.240173</v>
+        <v>0.241161</v>
       </c>
       <c r="C21" t="n">
-        <v>0.211098</v>
+        <v>0.211159</v>
       </c>
       <c r="D21" t="n">
-        <v>0.255853</v>
+        <v>0.251378</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.225377</v>
+        <v>0.225959</v>
       </c>
       <c r="C22" t="n">
-        <v>0.210965</v>
+        <v>0.210822</v>
       </c>
       <c r="D22" t="n">
-        <v>0.250404</v>
+        <v>0.250364</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.20942</v>
+        <v>0.209769</v>
       </c>
       <c r="C23" t="n">
-        <v>0.210574</v>
+        <v>0.210014</v>
       </c>
       <c r="D23" t="n">
-        <v>0.268695</v>
+        <v>0.267988</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.347898</v>
+        <v>0.348214</v>
       </c>
       <c r="C24" t="n">
-        <v>0.225264</v>
+        <v>0.224678</v>
       </c>
       <c r="D24" t="n">
-        <v>0.266278</v>
+        <v>0.265905</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.342068</v>
+        <v>0.342087</v>
       </c>
       <c r="C25" t="n">
-        <v>0.222553</v>
+        <v>0.222209</v>
       </c>
       <c r="D25" t="n">
-        <v>0.265425</v>
+        <v>0.26598</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.334827</v>
+        <v>0.335316</v>
       </c>
       <c r="C26" t="n">
-        <v>0.220012</v>
+        <v>0.220736</v>
       </c>
       <c r="D26" t="n">
-        <v>0.263995</v>
+        <v>0.263429</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.328896</v>
+        <v>0.329056</v>
       </c>
       <c r="C27" t="n">
-        <v>0.218436</v>
+        <v>0.218663</v>
       </c>
       <c r="D27" t="n">
-        <v>0.262593</v>
+        <v>0.26155</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.321794</v>
+        <v>0.322167</v>
       </c>
       <c r="C28" t="n">
-        <v>0.216946</v>
+        <v>0.217058</v>
       </c>
       <c r="D28" t="n">
-        <v>0.260071</v>
+        <v>0.259735</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.313356</v>
+        <v>0.313597</v>
       </c>
       <c r="C29" t="n">
-        <v>0.216449</v>
+        <v>0.216189</v>
       </c>
       <c r="D29" t="n">
-        <v>0.258943</v>
+        <v>0.259227</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.30427</v>
+        <v>0.303847</v>
       </c>
       <c r="C30" t="n">
-        <v>0.215876</v>
+        <v>0.215538</v>
       </c>
       <c r="D30" t="n">
-        <v>0.257117</v>
+        <v>0.257737</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.294034</v>
+        <v>0.294219</v>
       </c>
       <c r="C31" t="n">
-        <v>0.214728</v>
+        <v>0.214698</v>
       </c>
       <c r="D31" t="n">
-        <v>0.256551</v>
+        <v>0.256688</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.28394</v>
+        <v>0.284456</v>
       </c>
       <c r="C32" t="n">
-        <v>0.214646</v>
+        <v>0.214311</v>
       </c>
       <c r="D32" t="n">
-        <v>0.256644</v>
+        <v>0.257049</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.273713</v>
+        <v>0.274367</v>
       </c>
       <c r="C33" t="n">
-        <v>0.213353</v>
+        <v>0.213161</v>
       </c>
       <c r="D33" t="n">
-        <v>0.255726</v>
+        <v>0.255254</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.262033</v>
+        <v>0.262029</v>
       </c>
       <c r="C34" t="n">
-        <v>0.213127</v>
+        <v>0.212943</v>
       </c>
       <c r="D34" t="n">
-        <v>0.254206</v>
+        <v>0.254047</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.248328</v>
+        <v>0.248796</v>
       </c>
       <c r="C35" t="n">
-        <v>0.212364</v>
+        <v>0.212221</v>
       </c>
       <c r="D35" t="n">
-        <v>0.253958</v>
+        <v>0.253441</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.234462</v>
+        <v>0.234839</v>
       </c>
       <c r="C36" t="n">
-        <v>0.212268</v>
+        <v>0.211902</v>
       </c>
       <c r="D36" t="n">
-        <v>0.254214</v>
+        <v>0.252623</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.219591</v>
+        <v>0.22008</v>
       </c>
       <c r="C37" t="n">
-        <v>0.212544</v>
+        <v>0.212952</v>
       </c>
       <c r="D37" t="n">
-        <v>0.270167</v>
+        <v>0.270389</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.35201</v>
+        <v>0.351611</v>
       </c>
       <c r="C38" t="n">
-        <v>0.229172</v>
+        <v>0.228967</v>
       </c>
       <c r="D38" t="n">
-        <v>0.267923</v>
+        <v>0.267389</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.347181</v>
+        <v>0.347737</v>
       </c>
       <c r="C39" t="n">
-        <v>0.225765</v>
+        <v>0.225841</v>
       </c>
       <c r="D39" t="n">
-        <v>0.266055</v>
+        <v>0.265588</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.340963</v>
+        <v>0.341204</v>
       </c>
       <c r="C40" t="n">
-        <v>0.223983</v>
+        <v>0.223828</v>
       </c>
       <c r="D40" t="n">
-        <v>0.264481</v>
+        <v>0.263655</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.334307</v>
+        <v>0.334279</v>
       </c>
       <c r="C41" t="n">
-        <v>0.221152</v>
+        <v>0.220968</v>
       </c>
       <c r="D41" t="n">
-        <v>0.262254</v>
+        <v>0.261758</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.327463</v>
+        <v>0.327391</v>
       </c>
       <c r="C42" t="n">
-        <v>0.218796</v>
+        <v>0.218994</v>
       </c>
       <c r="D42" t="n">
-        <v>0.261293</v>
+        <v>0.26083</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.31937</v>
+        <v>0.319389</v>
       </c>
       <c r="C43" t="n">
-        <v>0.217429</v>
+        <v>0.217514</v>
       </c>
       <c r="D43" t="n">
-        <v>0.259626</v>
+        <v>0.259632</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.31049</v>
+        <v>0.31052</v>
       </c>
       <c r="C44" t="n">
-        <v>0.21612</v>
+        <v>0.216544</v>
       </c>
       <c r="D44" t="n">
-        <v>0.258231</v>
+        <v>0.257844</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.301415</v>
+        <v>0.301687</v>
       </c>
       <c r="C45" t="n">
-        <v>0.215318</v>
+        <v>0.215108</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2572</v>
+        <v>0.256673</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.291185</v>
+        <v>0.29082</v>
       </c>
       <c r="C46" t="n">
-        <v>0.21492</v>
+        <v>0.214664</v>
       </c>
       <c r="D46" t="n">
-        <v>0.256113</v>
+        <v>0.255467</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.280267</v>
+        <v>0.279849</v>
       </c>
       <c r="C47" t="n">
-        <v>0.21441</v>
+        <v>0.214224</v>
       </c>
       <c r="D47" t="n">
-        <v>0.255274</v>
+        <v>0.25515</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.268725</v>
+        <v>0.268443</v>
       </c>
       <c r="C48" t="n">
-        <v>0.213436</v>
+        <v>0.213554</v>
       </c>
       <c r="D48" t="n">
-        <v>0.255198</v>
+        <v>0.254033</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.256104</v>
+        <v>0.255886</v>
       </c>
       <c r="C49" t="n">
-        <v>0.21284</v>
+        <v>0.21303</v>
       </c>
       <c r="D49" t="n">
-        <v>0.254681</v>
+        <v>0.253563</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.241964</v>
+        <v>0.242169</v>
       </c>
       <c r="C50" t="n">
-        <v>0.212754</v>
+        <v>0.212479</v>
       </c>
       <c r="D50" t="n">
-        <v>0.256098</v>
+        <v>0.253649</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.226923</v>
+        <v>0.226875</v>
       </c>
       <c r="C51" t="n">
-        <v>0.212524</v>
+        <v>0.212394</v>
       </c>
       <c r="D51" t="n">
-        <v>0.269455</v>
+        <v>0.269732</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.209831</v>
+        <v>0.209954</v>
       </c>
       <c r="C52" t="n">
-        <v>0.211938</v>
+        <v>0.211947</v>
       </c>
       <c r="D52" t="n">
-        <v>0.266883</v>
+        <v>0.266671</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.350213</v>
+        <v>0.350396</v>
       </c>
       <c r="C53" t="n">
-        <v>0.225723</v>
+        <v>0.225762</v>
       </c>
       <c r="D53" t="n">
-        <v>0.264703</v>
+        <v>0.264736</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.344631</v>
+        <v>0.344661</v>
       </c>
       <c r="C54" t="n">
-        <v>0.222747</v>
+        <v>0.22282</v>
       </c>
       <c r="D54" t="n">
-        <v>0.263524</v>
+        <v>0.263256</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.338199</v>
+        <v>0.338717</v>
       </c>
       <c r="C55" t="n">
-        <v>0.220167</v>
+        <v>0.219908</v>
       </c>
       <c r="D55" t="n">
-        <v>0.262336</v>
+        <v>0.262072</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.331077</v>
+        <v>0.331081</v>
       </c>
       <c r="C56" t="n">
-        <v>0.218577</v>
+        <v>0.218741</v>
       </c>
       <c r="D56" t="n">
-        <v>0.260615</v>
+        <v>0.260713</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.322325</v>
+        <v>0.32319</v>
       </c>
       <c r="C57" t="n">
-        <v>0.217526</v>
+        <v>0.217527</v>
       </c>
       <c r="D57" t="n">
-        <v>0.259549</v>
+        <v>0.259438</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.314042</v>
+        <v>0.314333</v>
       </c>
       <c r="C58" t="n">
-        <v>0.216591</v>
+        <v>0.216617</v>
       </c>
       <c r="D58" t="n">
-        <v>0.258221</v>
+        <v>0.258307</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.304583</v>
+        <v>0.30492</v>
       </c>
       <c r="C59" t="n">
-        <v>0.215365</v>
+        <v>0.215205</v>
       </c>
       <c r="D59" t="n">
-        <v>0.257295</v>
+        <v>0.257103</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.294943</v>
+        <v>0.29462</v>
       </c>
       <c r="C60" t="n">
-        <v>0.214901</v>
+        <v>0.214713</v>
       </c>
       <c r="D60" t="n">
-        <v>0.256321</v>
+        <v>0.256026</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.284005</v>
+        <v>0.283988</v>
       </c>
       <c r="C61" t="n">
-        <v>0.213946</v>
+        <v>0.214137</v>
       </c>
       <c r="D61" t="n">
-        <v>0.255266</v>
+        <v>0.255425</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272145</v>
+        <v>0.27212</v>
       </c>
       <c r="C62" t="n">
-        <v>0.213278</v>
+        <v>0.213395</v>
       </c>
       <c r="D62" t="n">
-        <v>0.254963</v>
+        <v>0.254888</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.259084</v>
+        <v>0.259345</v>
       </c>
       <c r="C63" t="n">
-        <v>0.212766</v>
+        <v>0.212811</v>
       </c>
       <c r="D63" t="n">
-        <v>0.253973</v>
+        <v>0.25353</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.245578</v>
+        <v>0.24566</v>
       </c>
       <c r="C64" t="n">
-        <v>0.212229</v>
+        <v>0.21231</v>
       </c>
       <c r="D64" t="n">
-        <v>0.253248</v>
+        <v>0.253101</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.230397</v>
+        <v>0.230484</v>
       </c>
       <c r="C65" t="n">
-        <v>0.212025</v>
+        <v>0.21222</v>
       </c>
       <c r="D65" t="n">
-        <v>0.252521</v>
+        <v>0.252553</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.21335</v>
+        <v>0.213509</v>
       </c>
       <c r="C66" t="n">
-        <v>0.21194</v>
+        <v>0.211753</v>
       </c>
       <c r="D66" t="n">
-        <v>0.268167</v>
+        <v>0.268106</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.352189</v>
+        <v>0.3525</v>
       </c>
       <c r="C67" t="n">
-        <v>0.227557</v>
+        <v>0.227745</v>
       </c>
       <c r="D67" t="n">
-        <v>0.265915</v>
+        <v>0.266008</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.346904</v>
+        <v>0.347334</v>
       </c>
       <c r="C68" t="n">
-        <v>0.223424</v>
+        <v>0.223762</v>
       </c>
       <c r="D68" t="n">
-        <v>0.264025</v>
+        <v>0.264052</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.340871</v>
+        <v>0.341093</v>
       </c>
       <c r="C69" t="n">
-        <v>0.220567</v>
+        <v>0.22081</v>
       </c>
       <c r="D69" t="n">
-        <v>0.262518</v>
+        <v>0.262445</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.3334</v>
+        <v>0.332841</v>
       </c>
       <c r="C70" t="n">
-        <v>0.218593</v>
+        <v>0.218666</v>
       </c>
       <c r="D70" t="n">
-        <v>0.260861</v>
+        <v>0.26095</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.324981</v>
+        <v>0.325218</v>
       </c>
       <c r="C71" t="n">
-        <v>0.217723</v>
+        <v>0.217677</v>
       </c>
       <c r="D71" t="n">
-        <v>0.259604</v>
+        <v>0.259825</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.316622</v>
+        <v>0.316084</v>
       </c>
       <c r="C72" t="n">
-        <v>0.216504</v>
+        <v>0.216761</v>
       </c>
       <c r="D72" t="n">
-        <v>0.258789</v>
+        <v>0.258893</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.307488</v>
+        <v>0.307097</v>
       </c>
       <c r="C73" t="n">
-        <v>0.215343</v>
+        <v>0.215582</v>
       </c>
       <c r="D73" t="n">
-        <v>0.257372</v>
+        <v>0.257499</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.297328</v>
+        <v>0.297097</v>
       </c>
       <c r="C74" t="n">
-        <v>0.214836</v>
+        <v>0.215016</v>
       </c>
       <c r="D74" t="n">
-        <v>0.256573</v>
+        <v>0.256441</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.286462</v>
+        <v>0.286402</v>
       </c>
       <c r="C75" t="n">
-        <v>0.214205</v>
+        <v>0.214254</v>
       </c>
       <c r="D75" t="n">
-        <v>0.255992</v>
+        <v>0.255909</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.275353</v>
+        <v>0.27514</v>
       </c>
       <c r="C76" t="n">
-        <v>0.213606</v>
+        <v>0.21383</v>
       </c>
       <c r="D76" t="n">
-        <v>0.254793</v>
+        <v>0.254848</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.26295</v>
+        <v>0.262807</v>
       </c>
       <c r="C77" t="n">
-        <v>0.212959</v>
+        <v>0.212957</v>
       </c>
       <c r="D77" t="n">
-        <v>0.254166</v>
+        <v>0.253945</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.248972</v>
+        <v>0.24921</v>
       </c>
       <c r="C78" t="n">
-        <v>0.212409</v>
+        <v>0.212448</v>
       </c>
       <c r="D78" t="n">
-        <v>0.253208</v>
+        <v>0.253095</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.23409</v>
+        <v>0.23428</v>
       </c>
       <c r="C79" t="n">
-        <v>0.212201</v>
+        <v>0.212228</v>
       </c>
       <c r="D79" t="n">
-        <v>0.253502</v>
+        <v>0.252788</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.218447</v>
+        <v>0.218496</v>
       </c>
       <c r="C80" t="n">
-        <v>0.211785</v>
+        <v>0.211867</v>
       </c>
       <c r="D80" t="n">
-        <v>0.268656</v>
+        <v>0.268755</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.354046</v>
+        <v>0.354016</v>
       </c>
       <c r="C81" t="n">
-        <v>0.226671</v>
+        <v>0.226798</v>
       </c>
       <c r="D81" t="n">
-        <v>0.26638</v>
+        <v>0.266326</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.348371</v>
+        <v>0.348212</v>
       </c>
       <c r="C82" t="n">
-        <v>0.222779</v>
+        <v>0.222816</v>
       </c>
       <c r="D82" t="n">
-        <v>0.264396</v>
+        <v>0.264458</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.342289</v>
+        <v>0.342057</v>
       </c>
       <c r="C83" t="n">
-        <v>0.220604</v>
+        <v>0.220364</v>
       </c>
       <c r="D83" t="n">
-        <v>0.262887</v>
+        <v>0.262854</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.335086</v>
+        <v>0.334588</v>
       </c>
       <c r="C84" t="n">
-        <v>0.218577</v>
+        <v>0.218711</v>
       </c>
       <c r="D84" t="n">
-        <v>0.261644</v>
+        <v>0.261703</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.32741</v>
+        <v>0.326764</v>
       </c>
       <c r="C85" t="n">
-        <v>0.217566</v>
+        <v>0.217881</v>
       </c>
       <c r="D85" t="n">
-        <v>0.26031</v>
+        <v>0.260507</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.318685</v>
+        <v>0.318362</v>
       </c>
       <c r="C86" t="n">
-        <v>0.216593</v>
+        <v>0.21688</v>
       </c>
       <c r="D86" t="n">
-        <v>0.259103</v>
+        <v>0.259118</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.309719</v>
+        <v>0.309574</v>
       </c>
       <c r="C87" t="n">
-        <v>0.215579</v>
+        <v>0.215853</v>
       </c>
       <c r="D87" t="n">
-        <v>0.25787</v>
+        <v>0.257831</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.299855</v>
+        <v>0.300026</v>
       </c>
       <c r="C88" t="n">
-        <v>0.214839</v>
+        <v>0.214964</v>
       </c>
       <c r="D88" t="n">
-        <v>0.256652</v>
+        <v>0.256689</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.289553</v>
+        <v>0.28941</v>
       </c>
       <c r="C89" t="n">
-        <v>0.214091</v>
+        <v>0.214227</v>
       </c>
       <c r="D89" t="n">
-        <v>0.255908</v>
+        <v>0.255651</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.277926</v>
+        <v>0.277963</v>
       </c>
       <c r="C90" t="n">
-        <v>0.213538</v>
+        <v>0.213702</v>
       </c>
       <c r="D90" t="n">
-        <v>0.25508</v>
+        <v>0.254877</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.265599</v>
+        <v>0.265536</v>
       </c>
       <c r="C91" t="n">
-        <v>0.212985</v>
+        <v>0.213024</v>
       </c>
       <c r="D91" t="n">
-        <v>0.254602</v>
+        <v>0.254294</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.252322</v>
+        <v>0.252324</v>
       </c>
       <c r="C92" t="n">
-        <v>0.212419</v>
+        <v>0.212577</v>
       </c>
       <c r="D92" t="n">
-        <v>0.253677</v>
+        <v>0.253386</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.23795</v>
+        <v>0.238119</v>
       </c>
       <c r="C93" t="n">
-        <v>0.21203</v>
+        <v>0.212007</v>
       </c>
       <c r="D93" t="n">
-        <v>0.253307</v>
+        <v>0.253067</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.221981</v>
+        <v>0.222088</v>
       </c>
       <c r="C94" t="n">
-        <v>0.211644</v>
+        <v>0.21176</v>
       </c>
       <c r="D94" t="n">
-        <v>0.26944</v>
+        <v>0.269904</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.355337</v>
+        <v>0.355111</v>
       </c>
       <c r="C95" t="n">
-        <v>0.226924</v>
+        <v>0.227699</v>
       </c>
       <c r="D95" t="n">
-        <v>0.266783</v>
+        <v>0.267077</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.349807</v>
+        <v>0.349902</v>
       </c>
       <c r="C96" t="n">
-        <v>0.223664</v>
+        <v>0.224229</v>
       </c>
       <c r="D96" t="n">
-        <v>0.264797</v>
+        <v>0.265149</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.343756</v>
+        <v>0.34356</v>
       </c>
       <c r="C97" t="n">
-        <v>0.221421</v>
+        <v>0.221636</v>
       </c>
       <c r="D97" t="n">
-        <v>0.263091</v>
+        <v>0.263399</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.336864</v>
+        <v>0.336597</v>
       </c>
       <c r="C98" t="n">
-        <v>0.219303</v>
+        <v>0.219547</v>
       </c>
       <c r="D98" t="n">
-        <v>0.261718</v>
+        <v>0.261997</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.329006</v>
+        <v>0.328788</v>
       </c>
       <c r="C99" t="n">
-        <v>0.218037</v>
+        <v>0.218167</v>
       </c>
       <c r="D99" t="n">
-        <v>0.260482</v>
+        <v>0.26064</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.320691</v>
+        <v>0.320638</v>
       </c>
       <c r="C100" t="n">
-        <v>0.216774</v>
+        <v>0.216945</v>
       </c>
       <c r="D100" t="n">
-        <v>0.259191</v>
+        <v>0.259366</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.311831</v>
+        <v>0.311805</v>
       </c>
       <c r="C101" t="n">
-        <v>0.215817</v>
+        <v>0.216029</v>
       </c>
       <c r="D101" t="n">
-        <v>0.258063</v>
+        <v>0.258125</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.302061</v>
+        <v>0.301824</v>
       </c>
       <c r="C102" t="n">
-        <v>0.215077</v>
+        <v>0.2152</v>
       </c>
       <c r="D102" t="n">
-        <v>0.257082</v>
+        <v>0.257216</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.291875</v>
+        <v>0.291588</v>
       </c>
       <c r="C103" t="n">
-        <v>0.214324</v>
+        <v>0.214359</v>
       </c>
       <c r="D103" t="n">
-        <v>0.256053</v>
+        <v>0.256085</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.280464</v>
+        <v>0.28039</v>
       </c>
       <c r="C104" t="n">
-        <v>0.21367</v>
+        <v>0.213635</v>
       </c>
       <c r="D104" t="n">
-        <v>0.255349</v>
+        <v>0.255289</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.268247</v>
+        <v>0.268304</v>
       </c>
       <c r="C105" t="n">
-        <v>0.213136</v>
+        <v>0.213062</v>
       </c>
       <c r="D105" t="n">
-        <v>0.254467</v>
+        <v>0.254303</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.255171</v>
+        <v>0.255187</v>
       </c>
       <c r="C106" t="n">
-        <v>0.212514</v>
+        <v>0.212465</v>
       </c>
       <c r="D106" t="n">
-        <v>0.253742</v>
+        <v>0.25373</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.241204</v>
+        <v>0.241288</v>
       </c>
       <c r="C107" t="n">
-        <v>0.212133</v>
+        <v>0.212118</v>
       </c>
       <c r="D107" t="n">
-        <v>0.253126</v>
+        <v>0.253142</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.225592</v>
+        <v>0.225596</v>
       </c>
       <c r="C108" t="n">
-        <v>0.211733</v>
+        <v>0.211682</v>
       </c>
       <c r="D108" t="n">
-        <v>0.269707</v>
+        <v>0.26987</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.208999</v>
+        <v>0.209127</v>
       </c>
       <c r="C109" t="n">
-        <v>0.211425</v>
+        <v>0.211462</v>
       </c>
       <c r="D109" t="n">
-        <v>0.267158</v>
+        <v>0.267415</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.350568</v>
+        <v>0.35035</v>
       </c>
       <c r="C110" t="n">
-        <v>0.224336</v>
+        <v>0.224425</v>
       </c>
       <c r="D110" t="n">
-        <v>0.265292</v>
+        <v>0.265477</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.344591</v>
+        <v>0.344271</v>
       </c>
       <c r="C111" t="n">
-        <v>0.22175</v>
+        <v>0.221693</v>
       </c>
       <c r="D111" t="n">
-        <v>0.263512</v>
+        <v>0.263713</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.337921</v>
+        <v>0.337487</v>
       </c>
       <c r="C112" t="n">
-        <v>0.220165</v>
+        <v>0.219973</v>
       </c>
       <c r="D112" t="n">
-        <v>0.262038</v>
+        <v>0.262279</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.330367</v>
+        <v>0.33018</v>
       </c>
       <c r="C113" t="n">
-        <v>0.218413</v>
+        <v>0.218449</v>
       </c>
       <c r="D113" t="n">
-        <v>0.26062</v>
+        <v>0.26078</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.322244</v>
+        <v>0.322055</v>
       </c>
       <c r="C114" t="n">
-        <v>0.217354</v>
+        <v>0.217268</v>
       </c>
       <c r="D114" t="n">
-        <v>0.259795</v>
+        <v>0.259923</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.313406</v>
+        <v>0.313117</v>
       </c>
       <c r="C115" t="n">
-        <v>0.216139</v>
+        <v>0.216055</v>
       </c>
       <c r="D115" t="n">
-        <v>0.258733</v>
+        <v>0.258895</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.303966</v>
+        <v>0.303676</v>
       </c>
       <c r="C116" t="n">
-        <v>0.215346</v>
+        <v>0.215223</v>
       </c>
       <c r="D116" t="n">
-        <v>0.257609</v>
+        <v>0.257764</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.293877</v>
+        <v>0.293568</v>
       </c>
       <c r="C117" t="n">
-        <v>0.214893</v>
+        <v>0.214829</v>
       </c>
       <c r="D117" t="n">
-        <v>0.256601</v>
+        <v>0.256684</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.282882</v>
+        <v>0.28265</v>
       </c>
       <c r="C118" t="n">
-        <v>0.214209</v>
+        <v>0.2143</v>
       </c>
       <c r="D118" t="n">
-        <v>0.255711</v>
+        <v>0.255906</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.270946</v>
+        <v>0.270902</v>
       </c>
       <c r="C119" t="n">
-        <v>0.21359</v>
+        <v>0.213599</v>
       </c>
       <c r="D119" t="n">
-        <v>0.254914</v>
+        <v>0.254878</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.258317</v>
+        <v>0.258288</v>
       </c>
       <c r="C120" t="n">
-        <v>0.21307</v>
+        <v>0.213008</v>
       </c>
       <c r="D120" t="n">
-        <v>0.254125</v>
+        <v>0.254173</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.24419</v>
+        <v>0.244253</v>
       </c>
       <c r="C121" t="n">
-        <v>0.212567</v>
+        <v>0.212532</v>
       </c>
       <c r="D121" t="n">
-        <v>0.253778</v>
+        <v>0.25388</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.228973</v>
+        <v>0.229072</v>
       </c>
       <c r="C122" t="n">
-        <v>0.212176</v>
+        <v>0.212232</v>
       </c>
       <c r="D122" t="n">
-        <v>0.253345</v>
+        <v>0.253288</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.212288</v>
+        <v>0.212357</v>
       </c>
       <c r="C123" t="n">
-        <v>0.211673</v>
+        <v>0.211825</v>
       </c>
       <c r="D123" t="n">
-        <v>0.267729</v>
+        <v>0.267938</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.351586</v>
+        <v>0.351895</v>
       </c>
       <c r="C124" t="n">
-        <v>0.225277</v>
+        <v>0.225407</v>
       </c>
       <c r="D124" t="n">
-        <v>0.265725</v>
+        <v>0.265962</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.34575</v>
+        <v>0.345681</v>
       </c>
       <c r="C125" t="n">
-        <v>0.222253</v>
+        <v>0.222279</v>
       </c>
       <c r="D125" t="n">
-        <v>0.263952</v>
+        <v>0.264238</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.339165</v>
+        <v>0.339069</v>
       </c>
       <c r="C126" t="n">
-        <v>0.220328</v>
+        <v>0.220338</v>
       </c>
       <c r="D126" t="n">
-        <v>0.262392</v>
+        <v>0.262538</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.33207</v>
+        <v>0.331996</v>
       </c>
       <c r="C127" t="n">
-        <v>0.218696</v>
+        <v>0.218708</v>
       </c>
       <c r="D127" t="n">
-        <v>0.260919</v>
+        <v>0.261015</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.324107</v>
+        <v>0.323934</v>
       </c>
       <c r="C128" t="n">
-        <v>0.217288</v>
+        <v>0.217343</v>
       </c>
       <c r="D128" t="n">
-        <v>0.259699</v>
+        <v>0.259755</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.315278</v>
+        <v>0.315258</v>
       </c>
       <c r="C129" t="n">
-        <v>0.216211</v>
+        <v>0.216227</v>
       </c>
       <c r="D129" t="n">
-        <v>0.258426</v>
+        <v>0.258568</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.305833</v>
+        <v>0.305918</v>
       </c>
       <c r="C130" t="n">
-        <v>0.215368</v>
+        <v>0.21536</v>
       </c>
       <c r="D130" t="n">
-        <v>0.25733</v>
+        <v>0.257479</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.295733</v>
+        <v>0.295847</v>
       </c>
       <c r="C131" t="n">
-        <v>0.214641</v>
+        <v>0.214645</v>
       </c>
       <c r="D131" t="n">
-        <v>0.256416</v>
+        <v>0.256531</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.284929</v>
+        <v>0.284998</v>
       </c>
       <c r="C132" t="n">
-        <v>0.213841</v>
+        <v>0.213917</v>
       </c>
       <c r="D132" t="n">
-        <v>0.25548</v>
+        <v>0.25558</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.273073</v>
+        <v>0.273168</v>
       </c>
       <c r="C133" t="n">
-        <v>0.213302</v>
+        <v>0.213309</v>
       </c>
       <c r="D133" t="n">
-        <v>0.255133</v>
+        <v>0.255237</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.260486</v>
+        <v>0.260534</v>
       </c>
       <c r="C134" t="n">
-        <v>0.212655</v>
+        <v>0.21273</v>
       </c>
       <c r="D134" t="n">
-        <v>0.2544</v>
+        <v>0.254516</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.246767</v>
+        <v>0.246934</v>
       </c>
       <c r="C135" t="n">
-        <v>0.21222</v>
+        <v>0.212193</v>
       </c>
       <c r="D135" t="n">
-        <v>0.253919</v>
+        <v>0.253943</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.231816</v>
+        <v>0.232017</v>
       </c>
       <c r="C136" t="n">
-        <v>0.212152</v>
+        <v>0.212163</v>
       </c>
       <c r="D136" t="n">
-        <v>0.253284</v>
+        <v>0.253318</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.215775</v>
+        <v>0.215908</v>
       </c>
       <c r="C137" t="n">
-        <v>0.211855</v>
+        <v>0.211888</v>
       </c>
       <c r="D137" t="n">
-        <v>0.268723</v>
+        <v>0.268957</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.352898</v>
+        <v>0.352694</v>
       </c>
       <c r="C138" t="n">
-        <v>0.226703</v>
+        <v>0.226883</v>
       </c>
       <c r="D138" t="n">
-        <v>0.266468</v>
+        <v>0.266672</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.347136</v>
+        <v>0.347328</v>
       </c>
       <c r="C139" t="n">
-        <v>0.223413</v>
+        <v>0.22357</v>
       </c>
       <c r="D139" t="n">
-        <v>0.264669</v>
+        <v>0.264857</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.340811</v>
+        <v>0.340794</v>
       </c>
       <c r="C140" t="n">
-        <v>0.221123</v>
+        <v>0.221177</v>
       </c>
       <c r="D140" t="n">
-        <v>0.263045</v>
+        <v>0.263234</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.333838</v>
+        <v>0.333862</v>
       </c>
       <c r="C141" t="n">
-        <v>0.219324</v>
+        <v>0.219316</v>
       </c>
       <c r="D141" t="n">
-        <v>0.261565</v>
+        <v>0.261772</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.325807</v>
+        <v>0.325784</v>
       </c>
       <c r="C142" t="n">
-        <v>0.218009</v>
+        <v>0.217959</v>
       </c>
       <c r="D142" t="n">
-        <v>0.260195</v>
+        <v>0.260455</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.317339</v>
+        <v>0.317285</v>
       </c>
       <c r="C143" t="n">
-        <v>0.216886</v>
+        <v>0.216871</v>
       </c>
       <c r="D143" t="n">
-        <v>0.259022</v>
+        <v>0.259249</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.281632</v>
+        <v>0.279544</v>
       </c>
       <c r="C2" t="n">
-        <v>0.195841</v>
+        <v>0.195912</v>
       </c>
       <c r="D2" t="n">
-        <v>0.23849</v>
+        <v>0.234165</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.267358</v>
+        <v>0.269091</v>
       </c>
       <c r="C3" t="n">
-        <v>0.195252</v>
+        <v>0.195215</v>
       </c>
       <c r="D3" t="n">
-        <v>0.235346</v>
+        <v>0.235118</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.258716</v>
+        <v>0.260692</v>
       </c>
       <c r="C4" t="n">
-        <v>0.195732</v>
+        <v>0.196209</v>
       </c>
       <c r="D4" t="n">
-        <v>0.237116</v>
+        <v>0.237157</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.247971</v>
+        <v>0.249277</v>
       </c>
       <c r="C5" t="n">
-        <v>0.196179</v>
+        <v>0.197069</v>
       </c>
       <c r="D5" t="n">
-        <v>0.237627</v>
+        <v>0.240815</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.235355</v>
+        <v>0.235917</v>
       </c>
       <c r="C6" t="n">
-        <v>0.197821</v>
+        <v>0.198146</v>
       </c>
       <c r="D6" t="n">
-        <v>0.23931</v>
+        <v>0.23711</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.224069</v>
+        <v>0.223944</v>
       </c>
       <c r="C7" t="n">
-        <v>0.197842</v>
+        <v>0.198319</v>
       </c>
       <c r="D7" t="n">
-        <v>0.245208</v>
+        <v>0.238357</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.209375</v>
+        <v>0.209708</v>
       </c>
       <c r="C8" t="n">
-        <v>0.198266</v>
+        <v>0.199282</v>
       </c>
       <c r="D8" t="n">
-        <v>0.245316</v>
+        <v>0.238002</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.195173</v>
+        <v>0.194991</v>
       </c>
       <c r="C9" t="n">
-        <v>0.199227</v>
+        <v>0.199312</v>
       </c>
       <c r="D9" t="n">
-        <v>0.26364</v>
+        <v>0.261035</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.334368</v>
+        <v>0.333841</v>
       </c>
       <c r="C10" t="n">
-        <v>0.215619</v>
+        <v>0.215515</v>
       </c>
       <c r="D10" t="n">
-        <v>0.260824</v>
+        <v>0.259242</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.331889</v>
+        <v>0.329387</v>
       </c>
       <c r="C11" t="n">
-        <v>0.215664</v>
+        <v>0.215549</v>
       </c>
       <c r="D11" t="n">
-        <v>0.259802</v>
+        <v>0.258735</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3232</v>
+        <v>0.322502</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2141</v>
+        <v>0.215954</v>
       </c>
       <c r="D12" t="n">
-        <v>0.259262</v>
+        <v>0.257396</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.317392</v>
+        <v>0.31729</v>
       </c>
       <c r="C13" t="n">
-        <v>0.213476</v>
+        <v>0.215101</v>
       </c>
       <c r="D13" t="n">
-        <v>0.257226</v>
+        <v>0.256195</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.310737</v>
+        <v>0.310139</v>
       </c>
       <c r="C14" t="n">
-        <v>0.211904</v>
+        <v>0.212579</v>
       </c>
       <c r="D14" t="n">
-        <v>0.257263</v>
+        <v>0.256528</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.301848</v>
+        <v>0.301895</v>
       </c>
       <c r="C15" t="n">
-        <v>0.212088</v>
+        <v>0.21232</v>
       </c>
       <c r="D15" t="n">
-        <v>0.256535</v>
+        <v>0.255507</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.293108</v>
+        <v>0.293208</v>
       </c>
       <c r="C16" t="n">
-        <v>0.212204</v>
+        <v>0.211915</v>
       </c>
       <c r="D16" t="n">
-        <v>0.256042</v>
+        <v>0.254959</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.284256</v>
+        <v>0.284123</v>
       </c>
       <c r="C17" t="n">
-        <v>0.211182</v>
+        <v>0.210969</v>
       </c>
       <c r="D17" t="n">
-        <v>0.254822</v>
+        <v>0.254062</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.274585</v>
+        <v>0.275159</v>
       </c>
       <c r="C18" t="n">
-        <v>0.211082</v>
+        <v>0.211698</v>
       </c>
       <c r="D18" t="n">
-        <v>0.252818</v>
+        <v>0.252334</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.264258</v>
+        <v>0.263697</v>
       </c>
       <c r="C19" t="n">
-        <v>0.210912</v>
+        <v>0.211057</v>
       </c>
       <c r="D19" t="n">
-        <v>0.252963</v>
+        <v>0.257539</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.254534</v>
+        <v>0.25286</v>
       </c>
       <c r="C20" t="n">
-        <v>0.211401</v>
+        <v>0.211456</v>
       </c>
       <c r="D20" t="n">
-        <v>0.251876</v>
+        <v>0.254246</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.241161</v>
+        <v>0.241038</v>
       </c>
       <c r="C21" t="n">
-        <v>0.211159</v>
+        <v>0.211916</v>
       </c>
       <c r="D21" t="n">
-        <v>0.251378</v>
+        <v>0.250746</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.225959</v>
+        <v>0.225788</v>
       </c>
       <c r="C22" t="n">
-        <v>0.210822</v>
+        <v>0.210629</v>
       </c>
       <c r="D22" t="n">
-        <v>0.250364</v>
+        <v>0.250146</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.209769</v>
+        <v>0.209106</v>
       </c>
       <c r="C23" t="n">
-        <v>0.210014</v>
+        <v>0.211238</v>
       </c>
       <c r="D23" t="n">
-        <v>0.267988</v>
+        <v>0.268084</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348214</v>
+        <v>0.34759</v>
       </c>
       <c r="C24" t="n">
-        <v>0.224678</v>
+        <v>0.224395</v>
       </c>
       <c r="D24" t="n">
-        <v>0.265905</v>
+        <v>0.265434</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.342087</v>
+        <v>0.341763</v>
       </c>
       <c r="C25" t="n">
-        <v>0.222209</v>
+        <v>0.222446</v>
       </c>
       <c r="D25" t="n">
-        <v>0.26598</v>
+        <v>0.264673</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.335316</v>
+        <v>0.334553</v>
       </c>
       <c r="C26" t="n">
-        <v>0.220736</v>
+        <v>0.220568</v>
       </c>
       <c r="D26" t="n">
-        <v>0.263429</v>
+        <v>0.263035</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.329056</v>
+        <v>0.328569</v>
       </c>
       <c r="C27" t="n">
-        <v>0.218663</v>
+        <v>0.218602</v>
       </c>
       <c r="D27" t="n">
-        <v>0.26155</v>
+        <v>0.261181</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.322167</v>
+        <v>0.321601</v>
       </c>
       <c r="C28" t="n">
-        <v>0.217058</v>
+        <v>0.216715</v>
       </c>
       <c r="D28" t="n">
-        <v>0.259735</v>
+        <v>0.259588</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.313597</v>
+        <v>0.312729</v>
       </c>
       <c r="C29" t="n">
-        <v>0.216189</v>
+        <v>0.216275</v>
       </c>
       <c r="D29" t="n">
-        <v>0.259227</v>
+        <v>0.258297</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.303847</v>
+        <v>0.304082</v>
       </c>
       <c r="C30" t="n">
-        <v>0.215538</v>
+        <v>0.215655</v>
       </c>
       <c r="D30" t="n">
-        <v>0.257737</v>
+        <v>0.256961</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.294219</v>
+        <v>0.294969</v>
       </c>
       <c r="C31" t="n">
-        <v>0.214698</v>
+        <v>0.214704</v>
       </c>
       <c r="D31" t="n">
-        <v>0.256688</v>
+        <v>0.256071</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.284456</v>
+        <v>0.283879</v>
       </c>
       <c r="C32" t="n">
-        <v>0.214311</v>
+        <v>0.214609</v>
       </c>
       <c r="D32" t="n">
-        <v>0.257049</v>
+        <v>0.255452</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.274367</v>
+        <v>0.273093</v>
       </c>
       <c r="C33" t="n">
-        <v>0.213161</v>
+        <v>0.21328</v>
       </c>
       <c r="D33" t="n">
-        <v>0.255254</v>
+        <v>0.254561</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.262029</v>
+        <v>0.261744</v>
       </c>
       <c r="C34" t="n">
-        <v>0.212943</v>
+        <v>0.212952</v>
       </c>
       <c r="D34" t="n">
-        <v>0.254047</v>
+        <v>0.253104</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.248796</v>
+        <v>0.248285</v>
       </c>
       <c r="C35" t="n">
-        <v>0.212221</v>
+        <v>0.212198</v>
       </c>
       <c r="D35" t="n">
-        <v>0.253441</v>
+        <v>0.252792</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.234839</v>
+        <v>0.234751</v>
       </c>
       <c r="C36" t="n">
-        <v>0.211902</v>
+        <v>0.211878</v>
       </c>
       <c r="D36" t="n">
-        <v>0.252623</v>
+        <v>0.251464</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.22008</v>
+        <v>0.219747</v>
       </c>
       <c r="C37" t="n">
-        <v>0.212952</v>
+        <v>0.212627</v>
       </c>
       <c r="D37" t="n">
-        <v>0.270389</v>
+        <v>0.269583</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.351611</v>
+        <v>0.351739</v>
       </c>
       <c r="C38" t="n">
-        <v>0.228967</v>
+        <v>0.229134</v>
       </c>
       <c r="D38" t="n">
-        <v>0.267389</v>
+        <v>0.266786</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.347737</v>
+        <v>0.346797</v>
       </c>
       <c r="C39" t="n">
-        <v>0.225841</v>
+        <v>0.225985</v>
       </c>
       <c r="D39" t="n">
-        <v>0.265588</v>
+        <v>0.264437</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.341204</v>
+        <v>0.341252</v>
       </c>
       <c r="C40" t="n">
-        <v>0.223828</v>
+        <v>0.224012</v>
       </c>
       <c r="D40" t="n">
-        <v>0.263655</v>
+        <v>0.263188</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.334279</v>
+        <v>0.334316</v>
       </c>
       <c r="C41" t="n">
-        <v>0.220968</v>
+        <v>0.221178</v>
       </c>
       <c r="D41" t="n">
-        <v>0.261758</v>
+        <v>0.261672</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.327391</v>
+        <v>0.327089</v>
       </c>
       <c r="C42" t="n">
-        <v>0.218994</v>
+        <v>0.219334</v>
       </c>
       <c r="D42" t="n">
-        <v>0.26083</v>
+        <v>0.26065</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.319389</v>
+        <v>0.319484</v>
       </c>
       <c r="C43" t="n">
-        <v>0.217514</v>
+        <v>0.217699</v>
       </c>
       <c r="D43" t="n">
-        <v>0.259632</v>
+        <v>0.259273</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.31052</v>
+        <v>0.310069</v>
       </c>
       <c r="C44" t="n">
-        <v>0.216544</v>
+        <v>0.216378</v>
       </c>
       <c r="D44" t="n">
-        <v>0.257844</v>
+        <v>0.258047</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.301687</v>
+        <v>0.301227</v>
       </c>
       <c r="C45" t="n">
-        <v>0.215108</v>
+        <v>0.215307</v>
       </c>
       <c r="D45" t="n">
-        <v>0.256673</v>
+        <v>0.256726</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.29082</v>
+        <v>0.290711</v>
       </c>
       <c r="C46" t="n">
-        <v>0.214664</v>
+        <v>0.214496</v>
       </c>
       <c r="D46" t="n">
-        <v>0.255467</v>
+        <v>0.25564</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.279849</v>
+        <v>0.27987</v>
       </c>
       <c r="C47" t="n">
-        <v>0.214224</v>
+        <v>0.214201</v>
       </c>
       <c r="D47" t="n">
-        <v>0.25515</v>
+        <v>0.254866</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.268443</v>
+        <v>0.268504</v>
       </c>
       <c r="C48" t="n">
-        <v>0.213554</v>
+        <v>0.213423</v>
       </c>
       <c r="D48" t="n">
-        <v>0.254033</v>
+        <v>0.253894</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.255886</v>
+        <v>0.25623</v>
       </c>
       <c r="C49" t="n">
-        <v>0.21303</v>
+        <v>0.213134</v>
       </c>
       <c r="D49" t="n">
-        <v>0.253563</v>
+        <v>0.253043</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.242169</v>
+        <v>0.24196</v>
       </c>
       <c r="C50" t="n">
-        <v>0.212479</v>
+        <v>0.212519</v>
       </c>
       <c r="D50" t="n">
-        <v>0.253649</v>
+        <v>0.252768</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.226875</v>
+        <v>0.226598</v>
       </c>
       <c r="C51" t="n">
-        <v>0.212394</v>
+        <v>0.212506</v>
       </c>
       <c r="D51" t="n">
-        <v>0.269732</v>
+        <v>0.269682</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.209954</v>
+        <v>0.210192</v>
       </c>
       <c r="C52" t="n">
-        <v>0.211947</v>
+        <v>0.21195</v>
       </c>
       <c r="D52" t="n">
-        <v>0.266671</v>
+        <v>0.26694</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.350396</v>
+        <v>0.350366</v>
       </c>
       <c r="C53" t="n">
-        <v>0.225762</v>
+        <v>0.225573</v>
       </c>
       <c r="D53" t="n">
-        <v>0.264736</v>
+        <v>0.264849</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.344661</v>
+        <v>0.344546</v>
       </c>
       <c r="C54" t="n">
-        <v>0.22282</v>
+        <v>0.222593</v>
       </c>
       <c r="D54" t="n">
-        <v>0.263256</v>
+        <v>0.263346</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.338717</v>
+        <v>0.338606</v>
       </c>
       <c r="C55" t="n">
-        <v>0.219908</v>
+        <v>0.220103</v>
       </c>
       <c r="D55" t="n">
-        <v>0.262072</v>
+        <v>0.262118</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.331081</v>
+        <v>0.331142</v>
       </c>
       <c r="C56" t="n">
-        <v>0.218741</v>
+        <v>0.218538</v>
       </c>
       <c r="D56" t="n">
-        <v>0.260713</v>
+        <v>0.260585</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.32319</v>
+        <v>0.322994</v>
       </c>
       <c r="C57" t="n">
-        <v>0.217527</v>
+        <v>0.217639</v>
       </c>
       <c r="D57" t="n">
-        <v>0.259438</v>
+        <v>0.259426</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.314333</v>
+        <v>0.313921</v>
       </c>
       <c r="C58" t="n">
-        <v>0.216617</v>
+        <v>0.21677</v>
       </c>
       <c r="D58" t="n">
-        <v>0.258307</v>
+        <v>0.258276</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.30492</v>
+        <v>0.30491</v>
       </c>
       <c r="C59" t="n">
-        <v>0.215205</v>
+        <v>0.215406</v>
       </c>
       <c r="D59" t="n">
-        <v>0.257103</v>
+        <v>0.257199</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.29462</v>
+        <v>0.294692</v>
       </c>
       <c r="C60" t="n">
-        <v>0.214713</v>
+        <v>0.214621</v>
       </c>
       <c r="D60" t="n">
-        <v>0.256026</v>
+        <v>0.256061</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.283988</v>
+        <v>0.283893</v>
       </c>
       <c r="C61" t="n">
-        <v>0.214137</v>
+        <v>0.214058</v>
       </c>
       <c r="D61" t="n">
-        <v>0.255425</v>
+        <v>0.255259</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.27212</v>
+        <v>0.272597</v>
       </c>
       <c r="C62" t="n">
-        <v>0.213395</v>
+        <v>0.213479</v>
       </c>
       <c r="D62" t="n">
-        <v>0.254888</v>
+        <v>0.254414</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.259345</v>
+        <v>0.259474</v>
       </c>
       <c r="C63" t="n">
-        <v>0.212811</v>
+        <v>0.212852</v>
       </c>
       <c r="D63" t="n">
-        <v>0.25353</v>
+        <v>0.253471</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.24566</v>
+        <v>0.245794</v>
       </c>
       <c r="C64" t="n">
-        <v>0.21231</v>
+        <v>0.212358</v>
       </c>
       <c r="D64" t="n">
-        <v>0.253101</v>
+        <v>0.252679</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.230484</v>
+        <v>0.230609</v>
       </c>
       <c r="C65" t="n">
-        <v>0.21222</v>
+        <v>0.212116</v>
       </c>
       <c r="D65" t="n">
-        <v>0.252553</v>
+        <v>0.25194</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.213509</v>
+        <v>0.213646</v>
       </c>
       <c r="C66" t="n">
-        <v>0.211753</v>
+        <v>0.212027</v>
       </c>
       <c r="D66" t="n">
-        <v>0.268106</v>
+        <v>0.268009</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.3525</v>
+        <v>0.352585</v>
       </c>
       <c r="C67" t="n">
-        <v>0.227745</v>
+        <v>0.227476</v>
       </c>
       <c r="D67" t="n">
-        <v>0.266008</v>
+        <v>0.265914</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.347334</v>
+        <v>0.347236</v>
       </c>
       <c r="C68" t="n">
-        <v>0.223762</v>
+        <v>0.223541</v>
       </c>
       <c r="D68" t="n">
-        <v>0.264052</v>
+        <v>0.263901</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.341093</v>
+        <v>0.341022</v>
       </c>
       <c r="C69" t="n">
-        <v>0.22081</v>
+        <v>0.220764</v>
       </c>
       <c r="D69" t="n">
-        <v>0.262445</v>
+        <v>0.262329</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.332841</v>
+        <v>0.333138</v>
       </c>
       <c r="C70" t="n">
-        <v>0.218666</v>
+        <v>0.218752</v>
       </c>
       <c r="D70" t="n">
-        <v>0.26095</v>
+        <v>0.260972</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.325218</v>
+        <v>0.325553</v>
       </c>
       <c r="C71" t="n">
-        <v>0.217677</v>
+        <v>0.217675</v>
       </c>
       <c r="D71" t="n">
-        <v>0.259825</v>
+        <v>0.259764</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.316084</v>
+        <v>0.316673</v>
       </c>
       <c r="C72" t="n">
-        <v>0.216761</v>
+        <v>0.216685</v>
       </c>
       <c r="D72" t="n">
-        <v>0.258893</v>
+        <v>0.25884</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.307097</v>
+        <v>0.307145</v>
       </c>
       <c r="C73" t="n">
-        <v>0.215582</v>
+        <v>0.215619</v>
       </c>
       <c r="D73" t="n">
-        <v>0.257499</v>
+        <v>0.257515</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.297097</v>
+        <v>0.297389</v>
       </c>
       <c r="C74" t="n">
-        <v>0.215016</v>
+        <v>0.215006</v>
       </c>
       <c r="D74" t="n">
-        <v>0.256441</v>
+        <v>0.256733</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.286402</v>
+        <v>0.286388</v>
       </c>
       <c r="C75" t="n">
-        <v>0.214254</v>
+        <v>0.214227</v>
       </c>
       <c r="D75" t="n">
-        <v>0.255909</v>
+        <v>0.256033</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.27514</v>
+        <v>0.275422</v>
       </c>
       <c r="C76" t="n">
-        <v>0.21383</v>
+        <v>0.213796</v>
       </c>
       <c r="D76" t="n">
-        <v>0.254848</v>
+        <v>0.254833</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.262807</v>
+        <v>0.262879</v>
       </c>
       <c r="C77" t="n">
-        <v>0.212957</v>
+        <v>0.212995</v>
       </c>
       <c r="D77" t="n">
-        <v>0.253945</v>
+        <v>0.254059</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.24921</v>
+        <v>0.249313</v>
       </c>
       <c r="C78" t="n">
-        <v>0.212448</v>
+        <v>0.212418</v>
       </c>
       <c r="D78" t="n">
-        <v>0.253095</v>
+        <v>0.253225</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.23428</v>
+        <v>0.234278</v>
       </c>
       <c r="C79" t="n">
-        <v>0.212228</v>
+        <v>0.212356</v>
       </c>
       <c r="D79" t="n">
-        <v>0.252788</v>
+        <v>0.25316</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.218496</v>
+        <v>0.218348</v>
       </c>
       <c r="C80" t="n">
-        <v>0.211867</v>
+        <v>0.211898</v>
       </c>
       <c r="D80" t="n">
-        <v>0.268755</v>
+        <v>0.268649</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.354016</v>
+        <v>0.354019</v>
       </c>
       <c r="C81" t="n">
-        <v>0.226798</v>
+        <v>0.226913</v>
       </c>
       <c r="D81" t="n">
-        <v>0.266326</v>
+        <v>0.266409</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.348212</v>
+        <v>0.348589</v>
       </c>
       <c r="C82" t="n">
-        <v>0.222816</v>
+        <v>0.222961</v>
       </c>
       <c r="D82" t="n">
-        <v>0.264458</v>
+        <v>0.264472</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.342057</v>
+        <v>0.342458</v>
       </c>
       <c r="C83" t="n">
-        <v>0.220364</v>
+        <v>0.220626</v>
       </c>
       <c r="D83" t="n">
-        <v>0.262854</v>
+        <v>0.262864</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.334588</v>
+        <v>0.335075</v>
       </c>
       <c r="C84" t="n">
-        <v>0.218711</v>
+        <v>0.218931</v>
       </c>
       <c r="D84" t="n">
-        <v>0.261703</v>
+        <v>0.261554</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.326764</v>
+        <v>0.327355</v>
       </c>
       <c r="C85" t="n">
-        <v>0.217881</v>
+        <v>0.217778</v>
       </c>
       <c r="D85" t="n">
-        <v>0.260507</v>
+        <v>0.260285</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.318362</v>
+        <v>0.318722</v>
       </c>
       <c r="C86" t="n">
-        <v>0.21688</v>
+        <v>0.216773</v>
       </c>
       <c r="D86" t="n">
-        <v>0.259118</v>
+        <v>0.259007</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.309574</v>
+        <v>0.309651</v>
       </c>
       <c r="C87" t="n">
-        <v>0.215853</v>
+        <v>0.215723</v>
       </c>
       <c r="D87" t="n">
-        <v>0.257831</v>
+        <v>0.257791</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.300026</v>
+        <v>0.299819</v>
       </c>
       <c r="C88" t="n">
-        <v>0.214964</v>
+        <v>0.214979</v>
       </c>
       <c r="D88" t="n">
-        <v>0.256689</v>
+        <v>0.256776</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.28941</v>
+        <v>0.289568</v>
       </c>
       <c r="C89" t="n">
-        <v>0.214227</v>
+        <v>0.214259</v>
       </c>
       <c r="D89" t="n">
-        <v>0.255651</v>
+        <v>0.255911</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.277963</v>
+        <v>0.277926</v>
       </c>
       <c r="C90" t="n">
-        <v>0.213702</v>
+        <v>0.213665</v>
       </c>
       <c r="D90" t="n">
-        <v>0.254877</v>
+        <v>0.255178</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.265536</v>
+        <v>0.26566</v>
       </c>
       <c r="C91" t="n">
-        <v>0.213024</v>
+        <v>0.213064</v>
       </c>
       <c r="D91" t="n">
-        <v>0.254294</v>
+        <v>0.254356</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.252324</v>
+        <v>0.252197</v>
       </c>
       <c r="C92" t="n">
-        <v>0.212577</v>
+        <v>0.212551</v>
       </c>
       <c r="D92" t="n">
-        <v>0.253386</v>
+        <v>0.253497</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.238119</v>
+        <v>0.238023</v>
       </c>
       <c r="C93" t="n">
-        <v>0.212007</v>
+        <v>0.211943</v>
       </c>
       <c r="D93" t="n">
-        <v>0.253067</v>
+        <v>0.253053</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.222088</v>
+        <v>0.222117</v>
       </c>
       <c r="C94" t="n">
-        <v>0.21176</v>
+        <v>0.211707</v>
       </c>
       <c r="D94" t="n">
-        <v>0.269904</v>
+        <v>0.269485</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.355111</v>
+        <v>0.355329</v>
       </c>
       <c r="C95" t="n">
-        <v>0.227699</v>
+        <v>0.22773</v>
       </c>
       <c r="D95" t="n">
-        <v>0.267077</v>
+        <v>0.266817</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.349902</v>
+        <v>0.349829</v>
       </c>
       <c r="C96" t="n">
-        <v>0.224229</v>
+        <v>0.224208</v>
       </c>
       <c r="D96" t="n">
-        <v>0.265149</v>
+        <v>0.264814</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.34356</v>
+        <v>0.343674</v>
       </c>
       <c r="C97" t="n">
-        <v>0.221636</v>
+        <v>0.2216</v>
       </c>
       <c r="D97" t="n">
-        <v>0.263399</v>
+        <v>0.263147</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.336597</v>
+        <v>0.336882</v>
       </c>
       <c r="C98" t="n">
-        <v>0.219547</v>
+        <v>0.219328</v>
       </c>
       <c r="D98" t="n">
-        <v>0.261997</v>
+        <v>0.26179</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.328788</v>
+        <v>0.328942</v>
       </c>
       <c r="C99" t="n">
-        <v>0.218167</v>
+        <v>0.218074</v>
       </c>
       <c r="D99" t="n">
-        <v>0.26064</v>
+        <v>0.260407</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.320638</v>
+        <v>0.320433</v>
       </c>
       <c r="C100" t="n">
-        <v>0.216945</v>
+        <v>0.216929</v>
       </c>
       <c r="D100" t="n">
-        <v>0.259366</v>
+        <v>0.259238</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.311805</v>
+        <v>0.31154</v>
       </c>
       <c r="C101" t="n">
-        <v>0.216029</v>
+        <v>0.216028</v>
       </c>
       <c r="D101" t="n">
-        <v>0.258125</v>
+        <v>0.258126</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.301824</v>
+        <v>0.302032</v>
       </c>
       <c r="C102" t="n">
-        <v>0.2152</v>
+        <v>0.215285</v>
       </c>
       <c r="D102" t="n">
-        <v>0.257216</v>
+        <v>0.257095</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.291588</v>
+        <v>0.291611</v>
       </c>
       <c r="C103" t="n">
-        <v>0.214359</v>
+        <v>0.214485</v>
       </c>
       <c r="D103" t="n">
-        <v>0.256085</v>
+        <v>0.256121</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.28039</v>
+        <v>0.280746</v>
       </c>
       <c r="C104" t="n">
-        <v>0.213635</v>
+        <v>0.213661</v>
       </c>
       <c r="D104" t="n">
-        <v>0.255289</v>
+        <v>0.255344</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.268304</v>
+        <v>0.268192</v>
       </c>
       <c r="C105" t="n">
-        <v>0.213062</v>
+        <v>0.213126</v>
       </c>
       <c r="D105" t="n">
-        <v>0.254303</v>
+        <v>0.254425</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.255187</v>
+        <v>0.255078</v>
       </c>
       <c r="C106" t="n">
-        <v>0.212465</v>
+        <v>0.212526</v>
       </c>
       <c r="D106" t="n">
-        <v>0.25373</v>
+        <v>0.253673</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.241288</v>
+        <v>0.241107</v>
       </c>
       <c r="C107" t="n">
-        <v>0.212118</v>
+        <v>0.212045</v>
       </c>
       <c r="D107" t="n">
-        <v>0.253142</v>
+        <v>0.253171</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.225596</v>
+        <v>0.22561</v>
       </c>
       <c r="C108" t="n">
-        <v>0.211682</v>
+        <v>0.211751</v>
       </c>
       <c r="D108" t="n">
-        <v>0.26987</v>
+        <v>0.269654</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.209127</v>
+        <v>0.209104</v>
       </c>
       <c r="C109" t="n">
-        <v>0.211462</v>
+        <v>0.211475</v>
       </c>
       <c r="D109" t="n">
-        <v>0.267415</v>
+        <v>0.267291</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.35035</v>
+        <v>0.350495</v>
       </c>
       <c r="C110" t="n">
-        <v>0.224425</v>
+        <v>0.224526</v>
       </c>
       <c r="D110" t="n">
-        <v>0.265477</v>
+        <v>0.265237</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.344271</v>
+        <v>0.344294</v>
       </c>
       <c r="C111" t="n">
-        <v>0.221693</v>
+        <v>0.221863</v>
       </c>
       <c r="D111" t="n">
-        <v>0.263713</v>
+        <v>0.263529</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.337487</v>
+        <v>0.337717</v>
       </c>
       <c r="C112" t="n">
-        <v>0.219973</v>
+        <v>0.220091</v>
       </c>
       <c r="D112" t="n">
-        <v>0.262279</v>
+        <v>0.262022</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.33018</v>
+        <v>0.330127</v>
       </c>
       <c r="C113" t="n">
-        <v>0.218449</v>
+        <v>0.21837</v>
       </c>
       <c r="D113" t="n">
-        <v>0.26078</v>
+        <v>0.260598</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.322055</v>
+        <v>0.322191</v>
       </c>
       <c r="C114" t="n">
-        <v>0.217268</v>
+        <v>0.217373</v>
       </c>
       <c r="D114" t="n">
-        <v>0.259923</v>
+        <v>0.25978</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.313117</v>
+        <v>0.313337</v>
       </c>
       <c r="C115" t="n">
-        <v>0.216055</v>
+        <v>0.216064</v>
       </c>
       <c r="D115" t="n">
-        <v>0.258895</v>
+        <v>0.258787</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.303676</v>
+        <v>0.303858</v>
       </c>
       <c r="C116" t="n">
-        <v>0.215223</v>
+        <v>0.215379</v>
       </c>
       <c r="D116" t="n">
-        <v>0.257764</v>
+        <v>0.257567</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.293568</v>
+        <v>0.293642</v>
       </c>
       <c r="C117" t="n">
-        <v>0.214829</v>
+        <v>0.214972</v>
       </c>
       <c r="D117" t="n">
-        <v>0.256684</v>
+        <v>0.25659</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.28265</v>
+        <v>0.282655</v>
       </c>
       <c r="C118" t="n">
-        <v>0.2143</v>
+        <v>0.214224</v>
       </c>
       <c r="D118" t="n">
-        <v>0.255906</v>
+        <v>0.255657</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.270902</v>
+        <v>0.270757</v>
       </c>
       <c r="C119" t="n">
-        <v>0.213599</v>
+        <v>0.213506</v>
       </c>
       <c r="D119" t="n">
-        <v>0.254878</v>
+        <v>0.254912</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.258288</v>
+        <v>0.258176</v>
       </c>
       <c r="C120" t="n">
-        <v>0.213008</v>
+        <v>0.212971</v>
       </c>
       <c r="D120" t="n">
-        <v>0.254173</v>
+        <v>0.254171</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.244253</v>
+        <v>0.24429</v>
       </c>
       <c r="C121" t="n">
-        <v>0.212532</v>
+        <v>0.212489</v>
       </c>
       <c r="D121" t="n">
-        <v>0.25388</v>
+        <v>0.253804</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.229072</v>
+        <v>0.229069</v>
       </c>
       <c r="C122" t="n">
-        <v>0.212232</v>
+        <v>0.212233</v>
       </c>
       <c r="D122" t="n">
-        <v>0.253288</v>
+        <v>0.253227</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.212357</v>
+        <v>0.212247</v>
       </c>
       <c r="C123" t="n">
-        <v>0.211825</v>
+        <v>0.211809</v>
       </c>
       <c r="D123" t="n">
-        <v>0.267938</v>
+        <v>0.267666</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.351895</v>
+        <v>0.35176</v>
       </c>
       <c r="C124" t="n">
-        <v>0.225407</v>
+        <v>0.225384</v>
       </c>
       <c r="D124" t="n">
-        <v>0.265962</v>
+        <v>0.265669</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.345681</v>
+        <v>0.345814</v>
       </c>
       <c r="C125" t="n">
-        <v>0.222279</v>
+        <v>0.222259</v>
       </c>
       <c r="D125" t="n">
-        <v>0.264238</v>
+        <v>0.263968</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.339069</v>
+        <v>0.339366</v>
       </c>
       <c r="C126" t="n">
-        <v>0.220338</v>
+        <v>0.220314</v>
       </c>
       <c r="D126" t="n">
-        <v>0.262538</v>
+        <v>0.26235</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.331996</v>
+        <v>0.332081</v>
       </c>
       <c r="C127" t="n">
-        <v>0.218708</v>
+        <v>0.218683</v>
       </c>
       <c r="D127" t="n">
-        <v>0.261015</v>
+        <v>0.260858</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.323934</v>
+        <v>0.323906</v>
       </c>
       <c r="C128" t="n">
-        <v>0.217343</v>
+        <v>0.217346</v>
       </c>
       <c r="D128" t="n">
-        <v>0.259755</v>
+        <v>0.259565</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.315258</v>
+        <v>0.315421</v>
       </c>
       <c r="C129" t="n">
-        <v>0.216227</v>
+        <v>0.21621</v>
       </c>
       <c r="D129" t="n">
-        <v>0.258568</v>
+        <v>0.258325</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.305918</v>
+        <v>0.30603</v>
       </c>
       <c r="C130" t="n">
-        <v>0.21536</v>
+        <v>0.215391</v>
       </c>
       <c r="D130" t="n">
-        <v>0.257479</v>
+        <v>0.25738</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.295847</v>
+        <v>0.295623</v>
       </c>
       <c r="C131" t="n">
-        <v>0.214645</v>
+        <v>0.214646</v>
       </c>
       <c r="D131" t="n">
-        <v>0.256531</v>
+        <v>0.256384</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.284998</v>
+        <v>0.28499</v>
       </c>
       <c r="C132" t="n">
-        <v>0.213917</v>
+        <v>0.213885</v>
       </c>
       <c r="D132" t="n">
-        <v>0.25558</v>
+        <v>0.255451</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.273168</v>
+        <v>0.273167</v>
       </c>
       <c r="C133" t="n">
-        <v>0.213309</v>
+        <v>0.213273</v>
       </c>
       <c r="D133" t="n">
-        <v>0.255237</v>
+        <v>0.255118</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.260534</v>
+        <v>0.260533</v>
       </c>
       <c r="C134" t="n">
-        <v>0.21273</v>
+        <v>0.212687</v>
       </c>
       <c r="D134" t="n">
-        <v>0.254516</v>
+        <v>0.254381</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.246934</v>
+        <v>0.246762</v>
       </c>
       <c r="C135" t="n">
-        <v>0.212193</v>
+        <v>0.21216</v>
       </c>
       <c r="D135" t="n">
-        <v>0.253943</v>
+        <v>0.253831</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.232017</v>
+        <v>0.231878</v>
       </c>
       <c r="C136" t="n">
-        <v>0.212163</v>
+        <v>0.212143</v>
       </c>
       <c r="D136" t="n">
-        <v>0.253318</v>
+        <v>0.253149</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.215908</v>
+        <v>0.215708</v>
       </c>
       <c r="C137" t="n">
-        <v>0.211888</v>
+        <v>0.211795</v>
       </c>
       <c r="D137" t="n">
-        <v>0.268957</v>
+        <v>0.268659</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.352694</v>
+        <v>0.352632</v>
       </c>
       <c r="C138" t="n">
-        <v>0.226883</v>
+        <v>0.226892</v>
       </c>
       <c r="D138" t="n">
-        <v>0.266672</v>
+        <v>0.266425</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.347328</v>
+        <v>0.347158</v>
       </c>
       <c r="C139" t="n">
-        <v>0.22357</v>
+        <v>0.22348</v>
       </c>
       <c r="D139" t="n">
-        <v>0.264857</v>
+        <v>0.264633</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.340794</v>
+        <v>0.340729</v>
       </c>
       <c r="C140" t="n">
-        <v>0.221177</v>
+        <v>0.221126</v>
       </c>
       <c r="D140" t="n">
-        <v>0.263234</v>
+        <v>0.263023</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.333862</v>
+        <v>0.333537</v>
       </c>
       <c r="C141" t="n">
-        <v>0.219316</v>
+        <v>0.219233</v>
       </c>
       <c r="D141" t="n">
-        <v>0.261772</v>
+        <v>0.261507</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.325784</v>
+        <v>0.325695</v>
       </c>
       <c r="C142" t="n">
-        <v>0.217959</v>
+        <v>0.21797</v>
       </c>
       <c r="D142" t="n">
-        <v>0.260455</v>
+        <v>0.260242</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.317285</v>
+        <v>0.317362</v>
       </c>
       <c r="C143" t="n">
-        <v>0.216871</v>
+        <v>0.216875</v>
       </c>
       <c r="D143" t="n">
-        <v>0.259249</v>
+        <v>0.258988</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.279544</v>
+        <v>0.2755</v>
       </c>
       <c r="C2" t="n">
-        <v>0.195912</v>
+        <v>0.197228</v>
       </c>
       <c r="D2" t="n">
-        <v>0.234165</v>
+        <v>0.234945</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.269091</v>
+        <v>0.265512</v>
       </c>
       <c r="C3" t="n">
-        <v>0.195215</v>
+        <v>0.195027</v>
       </c>
       <c r="D3" t="n">
-        <v>0.235118</v>
+        <v>0.236677</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.260692</v>
+        <v>0.256595</v>
       </c>
       <c r="C4" t="n">
-        <v>0.196209</v>
+        <v>0.195689</v>
       </c>
       <c r="D4" t="n">
-        <v>0.237157</v>
+        <v>0.236036</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.249277</v>
+        <v>0.247213</v>
       </c>
       <c r="C5" t="n">
-        <v>0.197069</v>
+        <v>0.197182</v>
       </c>
       <c r="D5" t="n">
-        <v>0.240815</v>
+        <v>0.241101</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.235917</v>
+        <v>0.233851</v>
       </c>
       <c r="C6" t="n">
-        <v>0.198146</v>
+        <v>0.197607</v>
       </c>
       <c r="D6" t="n">
-        <v>0.23711</v>
+        <v>0.237121</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.223944</v>
+        <v>0.222987</v>
       </c>
       <c r="C7" t="n">
-        <v>0.198319</v>
+        <v>0.200304</v>
       </c>
       <c r="D7" t="n">
-        <v>0.238357</v>
+        <v>0.241937</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.209708</v>
+        <v>0.20891</v>
       </c>
       <c r="C8" t="n">
-        <v>0.199282</v>
+        <v>0.19833</v>
       </c>
       <c r="D8" t="n">
-        <v>0.238002</v>
+        <v>0.237466</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.194991</v>
+        <v>0.194723</v>
       </c>
       <c r="C9" t="n">
-        <v>0.199312</v>
+        <v>0.198741</v>
       </c>
       <c r="D9" t="n">
-        <v>0.261035</v>
+        <v>0.262567</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.333841</v>
+        <v>0.333198</v>
       </c>
       <c r="C10" t="n">
-        <v>0.215515</v>
+        <v>0.216832</v>
       </c>
       <c r="D10" t="n">
-        <v>0.259242</v>
+        <v>0.261643</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.329387</v>
+        <v>0.328418</v>
       </c>
       <c r="C11" t="n">
-        <v>0.215549</v>
+        <v>0.216436</v>
       </c>
       <c r="D11" t="n">
-        <v>0.258735</v>
+        <v>0.259417</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.322502</v>
+        <v>0.321789</v>
       </c>
       <c r="C12" t="n">
-        <v>0.215954</v>
+        <v>0.21519</v>
       </c>
       <c r="D12" t="n">
-        <v>0.257396</v>
+        <v>0.277615</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.31729</v>
+        <v>0.316017</v>
       </c>
       <c r="C13" t="n">
-        <v>0.215101</v>
+        <v>0.214947</v>
       </c>
       <c r="D13" t="n">
-        <v>0.256195</v>
+        <v>0.256576</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.310139</v>
+        <v>0.30926</v>
       </c>
       <c r="C14" t="n">
-        <v>0.212579</v>
+        <v>0.213422</v>
       </c>
       <c r="D14" t="n">
-        <v>0.256528</v>
+        <v>0.256201</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.301895</v>
+        <v>0.300825</v>
       </c>
       <c r="C15" t="n">
-        <v>0.21232</v>
+        <v>0.212032</v>
       </c>
       <c r="D15" t="n">
-        <v>0.255507</v>
+        <v>0.255878</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.293208</v>
+        <v>0.292291</v>
       </c>
       <c r="C16" t="n">
-        <v>0.211915</v>
+        <v>0.211903</v>
       </c>
       <c r="D16" t="n">
-        <v>0.254959</v>
+        <v>0.255213</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.284123</v>
+        <v>0.283355</v>
       </c>
       <c r="C17" t="n">
-        <v>0.210969</v>
+        <v>0.211338</v>
       </c>
       <c r="D17" t="n">
-        <v>0.254062</v>
+        <v>0.276808</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.275159</v>
+        <v>0.274297</v>
       </c>
       <c r="C18" t="n">
-        <v>0.211698</v>
+        <v>0.21167</v>
       </c>
       <c r="D18" t="n">
-        <v>0.252334</v>
+        <v>0.252541</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.263697</v>
+        <v>0.263344</v>
       </c>
       <c r="C19" t="n">
-        <v>0.211057</v>
+        <v>0.210815</v>
       </c>
       <c r="D19" t="n">
-        <v>0.257539</v>
+        <v>0.27515</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.25286</v>
+        <v>0.25307</v>
       </c>
       <c r="C20" t="n">
-        <v>0.211456</v>
+        <v>0.211187</v>
       </c>
       <c r="D20" t="n">
-        <v>0.254246</v>
+        <v>0.251634</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.241038</v>
+        <v>0.24058</v>
       </c>
       <c r="C21" t="n">
-        <v>0.211916</v>
+        <v>0.211094</v>
       </c>
       <c r="D21" t="n">
-        <v>0.250746</v>
+        <v>0.252727</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.225788</v>
+        <v>0.225643</v>
       </c>
       <c r="C22" t="n">
-        <v>0.210629</v>
+        <v>0.210863</v>
       </c>
       <c r="D22" t="n">
-        <v>0.250146</v>
+        <v>0.25014</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.209106</v>
+        <v>0.208459</v>
       </c>
       <c r="C23" t="n">
-        <v>0.211238</v>
+        <v>0.209837</v>
       </c>
       <c r="D23" t="n">
-        <v>0.268084</v>
+        <v>0.26798</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.34759</v>
+        <v>0.346665</v>
       </c>
       <c r="C24" t="n">
-        <v>0.224395</v>
+        <v>0.225483</v>
       </c>
       <c r="D24" t="n">
-        <v>0.265434</v>
+        <v>0.265345</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.341763</v>
+        <v>0.340962</v>
       </c>
       <c r="C25" t="n">
-        <v>0.222446</v>
+        <v>0.222893</v>
       </c>
       <c r="D25" t="n">
-        <v>0.264673</v>
+        <v>0.264494</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.334553</v>
+        <v>0.334495</v>
       </c>
       <c r="C26" t="n">
-        <v>0.220568</v>
+        <v>0.220898</v>
       </c>
       <c r="D26" t="n">
-        <v>0.263035</v>
+        <v>0.263869</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.328569</v>
+        <v>0.32832</v>
       </c>
       <c r="C27" t="n">
-        <v>0.218602</v>
+        <v>0.218409</v>
       </c>
       <c r="D27" t="n">
-        <v>0.261181</v>
+        <v>0.260967</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.321601</v>
+        <v>0.321807</v>
       </c>
       <c r="C28" t="n">
-        <v>0.216715</v>
+        <v>0.216634</v>
       </c>
       <c r="D28" t="n">
-        <v>0.259588</v>
+        <v>0.259378</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.312729</v>
+        <v>0.312897</v>
       </c>
       <c r="C29" t="n">
-        <v>0.216275</v>
+        <v>0.216145</v>
       </c>
       <c r="D29" t="n">
-        <v>0.258297</v>
+        <v>0.25798</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.304082</v>
+        <v>0.303742</v>
       </c>
       <c r="C30" t="n">
-        <v>0.215655</v>
+        <v>0.215708</v>
       </c>
       <c r="D30" t="n">
-        <v>0.256961</v>
+        <v>0.256721</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.294969</v>
+        <v>0.29395</v>
       </c>
       <c r="C31" t="n">
-        <v>0.214704</v>
+        <v>0.214599</v>
       </c>
       <c r="D31" t="n">
-        <v>0.256071</v>
+        <v>0.256021</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.283879</v>
+        <v>0.284014</v>
       </c>
       <c r="C32" t="n">
-        <v>0.214609</v>
+        <v>0.214222</v>
       </c>
       <c r="D32" t="n">
-        <v>0.255452</v>
+        <v>0.255316</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.273093</v>
+        <v>0.272975</v>
       </c>
       <c r="C33" t="n">
-        <v>0.21328</v>
+        <v>0.213226</v>
       </c>
       <c r="D33" t="n">
-        <v>0.254561</v>
+        <v>0.254399</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.261744</v>
+        <v>0.26202</v>
       </c>
       <c r="C34" t="n">
-        <v>0.212952</v>
+        <v>0.212876</v>
       </c>
       <c r="D34" t="n">
-        <v>0.253104</v>
+        <v>0.252908</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.248285</v>
+        <v>0.248397</v>
       </c>
       <c r="C35" t="n">
-        <v>0.212198</v>
+        <v>0.21213</v>
       </c>
       <c r="D35" t="n">
-        <v>0.252792</v>
+        <v>0.252513</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.234751</v>
+        <v>0.235066</v>
       </c>
       <c r="C36" t="n">
-        <v>0.211878</v>
+        <v>0.212027</v>
       </c>
       <c r="D36" t="n">
-        <v>0.251464</v>
+        <v>0.251269</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.219747</v>
+        <v>0.21964</v>
       </c>
       <c r="C37" t="n">
-        <v>0.212627</v>
+        <v>0.212715</v>
       </c>
       <c r="D37" t="n">
-        <v>0.269583</v>
+        <v>0.269572</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.351739</v>
+        <v>0.350874</v>
       </c>
       <c r="C38" t="n">
-        <v>0.229134</v>
+        <v>0.234137</v>
       </c>
       <c r="D38" t="n">
-        <v>0.266786</v>
+        <v>0.266734</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.346797</v>
+        <v>0.346452</v>
       </c>
       <c r="C39" t="n">
-        <v>0.225985</v>
+        <v>0.227891</v>
       </c>
       <c r="D39" t="n">
-        <v>0.264437</v>
+        <v>0.264273</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.341252</v>
+        <v>0.340633</v>
       </c>
       <c r="C40" t="n">
-        <v>0.224012</v>
+        <v>0.224662</v>
       </c>
       <c r="D40" t="n">
-        <v>0.263188</v>
+        <v>0.262875</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.334316</v>
+        <v>0.333346</v>
       </c>
       <c r="C41" t="n">
-        <v>0.221178</v>
+        <v>0.221368</v>
       </c>
       <c r="D41" t="n">
-        <v>0.261672</v>
+        <v>0.261335</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.327089</v>
+        <v>0.326599</v>
       </c>
       <c r="C42" t="n">
-        <v>0.219334</v>
+        <v>0.219141</v>
       </c>
       <c r="D42" t="n">
-        <v>0.26065</v>
+        <v>0.26035</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.319484</v>
+        <v>0.318926</v>
       </c>
       <c r="C43" t="n">
-        <v>0.217699</v>
+        <v>0.217507</v>
       </c>
       <c r="D43" t="n">
-        <v>0.259273</v>
+        <v>0.25895</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.310069</v>
+        <v>0.309923</v>
       </c>
       <c r="C44" t="n">
-        <v>0.216378</v>
+        <v>0.216233</v>
       </c>
       <c r="D44" t="n">
-        <v>0.258047</v>
+        <v>0.257712</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.301227</v>
+        <v>0.301841</v>
       </c>
       <c r="C45" t="n">
-        <v>0.215307</v>
+        <v>0.215144</v>
       </c>
       <c r="D45" t="n">
-        <v>0.256726</v>
+        <v>0.256444</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.290711</v>
+        <v>0.290748</v>
       </c>
       <c r="C46" t="n">
-        <v>0.214496</v>
+        <v>0.214245</v>
       </c>
       <c r="D46" t="n">
-        <v>0.25564</v>
+        <v>0.255359</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.27987</v>
+        <v>0.279803</v>
       </c>
       <c r="C47" t="n">
-        <v>0.214201</v>
+        <v>0.214216</v>
       </c>
       <c r="D47" t="n">
-        <v>0.254866</v>
+        <v>0.254679</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.268504</v>
+        <v>0.268518</v>
       </c>
       <c r="C48" t="n">
-        <v>0.213423</v>
+        <v>0.213628</v>
       </c>
       <c r="D48" t="n">
-        <v>0.253894</v>
+        <v>0.253645</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.25623</v>
+        <v>0.256285</v>
       </c>
       <c r="C49" t="n">
-        <v>0.213134</v>
+        <v>0.21298</v>
       </c>
       <c r="D49" t="n">
-        <v>0.253043</v>
+        <v>0.252832</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.24196</v>
+        <v>0.242467</v>
       </c>
       <c r="C50" t="n">
-        <v>0.212519</v>
+        <v>0.212626</v>
       </c>
       <c r="D50" t="n">
-        <v>0.252768</v>
+        <v>0.252358</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.226598</v>
+        <v>0.226936</v>
       </c>
       <c r="C51" t="n">
-        <v>0.212506</v>
+        <v>0.212301</v>
       </c>
       <c r="D51" t="n">
-        <v>0.269682</v>
+        <v>0.269761</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.210192</v>
+        <v>0.209985</v>
       </c>
       <c r="C52" t="n">
-        <v>0.21195</v>
+        <v>0.211897</v>
       </c>
       <c r="D52" t="n">
-        <v>0.26694</v>
+        <v>0.266824</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.350366</v>
+        <v>0.349709</v>
       </c>
       <c r="C53" t="n">
-        <v>0.225573</v>
+        <v>0.226972</v>
       </c>
       <c r="D53" t="n">
-        <v>0.264849</v>
+        <v>0.264762</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.344546</v>
+        <v>0.344519</v>
       </c>
       <c r="C54" t="n">
-        <v>0.222593</v>
+        <v>0.224312</v>
       </c>
       <c r="D54" t="n">
-        <v>0.263346</v>
+        <v>0.263518</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.338606</v>
+        <v>0.338087</v>
       </c>
       <c r="C55" t="n">
-        <v>0.220103</v>
+        <v>0.220733</v>
       </c>
       <c r="D55" t="n">
-        <v>0.262118</v>
+        <v>0.262096</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.331142</v>
+        <v>0.330619</v>
       </c>
       <c r="C56" t="n">
-        <v>0.218538</v>
+        <v>0.218998</v>
       </c>
       <c r="D56" t="n">
-        <v>0.260585</v>
+        <v>0.260426</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.322994</v>
+        <v>0.321956</v>
       </c>
       <c r="C57" t="n">
-        <v>0.217639</v>
+        <v>0.217741</v>
       </c>
       <c r="D57" t="n">
-        <v>0.259426</v>
+        <v>0.259161</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.313921</v>
+        <v>0.313827</v>
       </c>
       <c r="C58" t="n">
-        <v>0.21677</v>
+        <v>0.216825</v>
       </c>
       <c r="D58" t="n">
-        <v>0.258276</v>
+        <v>0.258393</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.30491</v>
+        <v>0.304826</v>
       </c>
       <c r="C59" t="n">
-        <v>0.215406</v>
+        <v>0.215305</v>
       </c>
       <c r="D59" t="n">
-        <v>0.257199</v>
+        <v>0.257052</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.294692</v>
+        <v>0.294494</v>
       </c>
       <c r="C60" t="n">
-        <v>0.214621</v>
+        <v>0.214531</v>
       </c>
       <c r="D60" t="n">
-        <v>0.256061</v>
+        <v>0.256021</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.283893</v>
+        <v>0.28373</v>
       </c>
       <c r="C61" t="n">
-        <v>0.214058</v>
+        <v>0.214015</v>
       </c>
       <c r="D61" t="n">
-        <v>0.255259</v>
+        <v>0.255085</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272597</v>
+        <v>0.27215</v>
       </c>
       <c r="C62" t="n">
-        <v>0.213479</v>
+        <v>0.213178</v>
       </c>
       <c r="D62" t="n">
-        <v>0.254414</v>
+        <v>0.254254</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.259474</v>
+        <v>0.258994</v>
       </c>
       <c r="C63" t="n">
-        <v>0.212852</v>
+        <v>0.21291</v>
       </c>
       <c r="D63" t="n">
-        <v>0.253471</v>
+        <v>0.253335</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.245794</v>
+        <v>0.245603</v>
       </c>
       <c r="C64" t="n">
-        <v>0.212358</v>
+        <v>0.212284</v>
       </c>
       <c r="D64" t="n">
-        <v>0.252679</v>
+        <v>0.252481</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.230609</v>
+        <v>0.23019</v>
       </c>
       <c r="C65" t="n">
-        <v>0.212116</v>
+        <v>0.212065</v>
       </c>
       <c r="D65" t="n">
-        <v>0.25194</v>
+        <v>0.251761</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.213646</v>
+        <v>0.213326</v>
       </c>
       <c r="C66" t="n">
-        <v>0.212027</v>
+        <v>0.211862</v>
       </c>
       <c r="D66" t="n">
-        <v>0.268009</v>
+        <v>0.268228</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.352585</v>
+        <v>0.351643</v>
       </c>
       <c r="C67" t="n">
-        <v>0.227476</v>
+        <v>0.229548</v>
       </c>
       <c r="D67" t="n">
-        <v>0.265914</v>
+        <v>0.265967</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.347236</v>
+        <v>0.346491</v>
       </c>
       <c r="C68" t="n">
-        <v>0.223541</v>
+        <v>0.225009</v>
       </c>
       <c r="D68" t="n">
-        <v>0.263901</v>
+        <v>0.263875</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.341022</v>
+        <v>0.33996</v>
       </c>
       <c r="C69" t="n">
-        <v>0.220764</v>
+        <v>0.221367</v>
       </c>
       <c r="D69" t="n">
-        <v>0.262329</v>
+        <v>0.262231</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.333138</v>
+        <v>0.332639</v>
       </c>
       <c r="C70" t="n">
-        <v>0.218752</v>
+        <v>0.219028</v>
       </c>
       <c r="D70" t="n">
-        <v>0.260972</v>
+        <v>0.26087</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.325553</v>
+        <v>0.324679</v>
       </c>
       <c r="C71" t="n">
-        <v>0.217675</v>
+        <v>0.217781</v>
       </c>
       <c r="D71" t="n">
-        <v>0.259764</v>
+        <v>0.259634</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.316673</v>
+        <v>0.316202</v>
       </c>
       <c r="C72" t="n">
-        <v>0.216685</v>
+        <v>0.21687</v>
       </c>
       <c r="D72" t="n">
-        <v>0.25884</v>
+        <v>0.258579</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.307145</v>
+        <v>0.306969</v>
       </c>
       <c r="C73" t="n">
-        <v>0.215619</v>
+        <v>0.215703</v>
       </c>
       <c r="D73" t="n">
-        <v>0.257515</v>
+        <v>0.257357</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.297389</v>
+        <v>0.297036</v>
       </c>
       <c r="C74" t="n">
-        <v>0.215006</v>
+        <v>0.215018</v>
       </c>
       <c r="D74" t="n">
-        <v>0.256733</v>
+        <v>0.256259</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.286388</v>
+        <v>0.286299</v>
       </c>
       <c r="C75" t="n">
-        <v>0.214227</v>
+        <v>0.214232</v>
       </c>
       <c r="D75" t="n">
-        <v>0.256033</v>
+        <v>0.255662</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.275422</v>
+        <v>0.275276</v>
       </c>
       <c r="C76" t="n">
-        <v>0.213796</v>
+        <v>0.213717</v>
       </c>
       <c r="D76" t="n">
-        <v>0.254833</v>
+        <v>0.254631</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.262879</v>
+        <v>0.262714</v>
       </c>
       <c r="C77" t="n">
-        <v>0.212995</v>
+        <v>0.212879</v>
       </c>
       <c r="D77" t="n">
-        <v>0.254059</v>
+        <v>0.25373</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.249313</v>
+        <v>0.248943</v>
       </c>
       <c r="C78" t="n">
-        <v>0.212418</v>
+        <v>0.212296</v>
       </c>
       <c r="D78" t="n">
-        <v>0.253225</v>
+        <v>0.252874</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.234278</v>
+        <v>0.234038</v>
       </c>
       <c r="C79" t="n">
-        <v>0.212356</v>
+        <v>0.212315</v>
       </c>
       <c r="D79" t="n">
-        <v>0.25316</v>
+        <v>0.25279</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.218348</v>
+        <v>0.218372</v>
       </c>
       <c r="C80" t="n">
-        <v>0.211898</v>
+        <v>0.211863</v>
       </c>
       <c r="D80" t="n">
-        <v>0.268649</v>
+        <v>0.269919</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.354019</v>
+        <v>0.353374</v>
       </c>
       <c r="C81" t="n">
-        <v>0.226913</v>
+        <v>0.230606</v>
       </c>
       <c r="D81" t="n">
-        <v>0.266409</v>
+        <v>0.267039</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.348589</v>
+        <v>0.347657</v>
       </c>
       <c r="C82" t="n">
-        <v>0.222961</v>
+        <v>0.225135</v>
       </c>
       <c r="D82" t="n">
-        <v>0.264472</v>
+        <v>0.265179</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.342458</v>
+        <v>0.341336</v>
       </c>
       <c r="C83" t="n">
-        <v>0.220626</v>
+        <v>0.222068</v>
       </c>
       <c r="D83" t="n">
-        <v>0.262864</v>
+        <v>0.263367</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.335075</v>
+        <v>0.334448</v>
       </c>
       <c r="C84" t="n">
-        <v>0.218931</v>
+        <v>0.219782</v>
       </c>
       <c r="D84" t="n">
-        <v>0.261554</v>
+        <v>0.261893</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.327355</v>
+        <v>0.326551</v>
       </c>
       <c r="C85" t="n">
-        <v>0.217778</v>
+        <v>0.21824</v>
       </c>
       <c r="D85" t="n">
-        <v>0.260285</v>
+        <v>0.260536</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.318722</v>
+        <v>0.318199</v>
       </c>
       <c r="C86" t="n">
-        <v>0.216773</v>
+        <v>0.217224</v>
       </c>
       <c r="D86" t="n">
-        <v>0.259007</v>
+        <v>0.259111</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.309651</v>
+        <v>0.309226</v>
       </c>
       <c r="C87" t="n">
-        <v>0.215723</v>
+        <v>0.216073</v>
       </c>
       <c r="D87" t="n">
-        <v>0.257791</v>
+        <v>0.257681</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.299819</v>
+        <v>0.299623</v>
       </c>
       <c r="C88" t="n">
-        <v>0.214979</v>
+        <v>0.215199</v>
       </c>
       <c r="D88" t="n">
-        <v>0.256776</v>
+        <v>0.2566</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.289568</v>
+        <v>0.289195</v>
       </c>
       <c r="C89" t="n">
-        <v>0.214259</v>
+        <v>0.214274</v>
       </c>
       <c r="D89" t="n">
-        <v>0.255911</v>
+        <v>0.255803</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.277926</v>
+        <v>0.277716</v>
       </c>
       <c r="C90" t="n">
-        <v>0.213665</v>
+        <v>0.213801</v>
       </c>
       <c r="D90" t="n">
-        <v>0.255178</v>
+        <v>0.255063</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.26566</v>
+        <v>0.265405</v>
       </c>
       <c r="C91" t="n">
-        <v>0.213064</v>
+        <v>0.213034</v>
       </c>
       <c r="D91" t="n">
-        <v>0.254356</v>
+        <v>0.254195</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.252197</v>
+        <v>0.252065</v>
       </c>
       <c r="C92" t="n">
-        <v>0.212551</v>
+        <v>0.212504</v>
       </c>
       <c r="D92" t="n">
-        <v>0.253497</v>
+        <v>0.253389</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.238023</v>
+        <v>0.237858</v>
       </c>
       <c r="C93" t="n">
-        <v>0.211943</v>
+        <v>0.212128</v>
       </c>
       <c r="D93" t="n">
-        <v>0.253053</v>
+        <v>0.252983</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.222117</v>
+        <v>0.222019</v>
       </c>
       <c r="C94" t="n">
-        <v>0.211707</v>
+        <v>0.211677</v>
       </c>
       <c r="D94" t="n">
-        <v>0.269485</v>
+        <v>0.270493</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.355329</v>
+        <v>0.354774</v>
       </c>
       <c r="C95" t="n">
-        <v>0.22773</v>
+        <v>0.229559</v>
       </c>
       <c r="D95" t="n">
-        <v>0.266817</v>
+        <v>0.267404</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.349829</v>
+        <v>0.349448</v>
       </c>
       <c r="C96" t="n">
-        <v>0.224208</v>
+        <v>0.225454</v>
       </c>
       <c r="D96" t="n">
-        <v>0.264814</v>
+        <v>0.265183</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.343674</v>
+        <v>0.342936</v>
       </c>
       <c r="C97" t="n">
-        <v>0.2216</v>
+        <v>0.222642</v>
       </c>
       <c r="D97" t="n">
-        <v>0.263147</v>
+        <v>0.263439</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.336882</v>
+        <v>0.336395</v>
       </c>
       <c r="C98" t="n">
-        <v>0.219328</v>
+        <v>0.21991</v>
       </c>
       <c r="D98" t="n">
-        <v>0.26179</v>
+        <v>0.261942</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.328942</v>
+        <v>0.32844</v>
       </c>
       <c r="C99" t="n">
-        <v>0.218074</v>
+        <v>0.218455</v>
       </c>
       <c r="D99" t="n">
-        <v>0.260407</v>
+        <v>0.260504</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.320433</v>
+        <v>0.320051</v>
       </c>
       <c r="C100" t="n">
-        <v>0.216929</v>
+        <v>0.217052</v>
       </c>
       <c r="D100" t="n">
-        <v>0.259238</v>
+        <v>0.259348</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.31154</v>
+        <v>0.311416</v>
       </c>
       <c r="C101" t="n">
-        <v>0.216028</v>
+        <v>0.216038</v>
       </c>
       <c r="D101" t="n">
-        <v>0.258126</v>
+        <v>0.258046</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.302032</v>
+        <v>0.301782</v>
       </c>
       <c r="C102" t="n">
-        <v>0.215285</v>
+        <v>0.215268</v>
       </c>
       <c r="D102" t="n">
-        <v>0.257095</v>
+        <v>0.25704</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.291611</v>
+        <v>0.291368</v>
       </c>
       <c r="C103" t="n">
-        <v>0.214485</v>
+        <v>0.214344</v>
       </c>
       <c r="D103" t="n">
-        <v>0.256121</v>
+        <v>0.256048</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.280746</v>
+        <v>0.280328</v>
       </c>
       <c r="C104" t="n">
-        <v>0.213661</v>
+        <v>0.213612</v>
       </c>
       <c r="D104" t="n">
-        <v>0.255344</v>
+        <v>0.255282</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.268192</v>
+        <v>0.268054</v>
       </c>
       <c r="C105" t="n">
-        <v>0.213126</v>
+        <v>0.213122</v>
       </c>
       <c r="D105" t="n">
-        <v>0.254425</v>
+        <v>0.25438</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.255078</v>
+        <v>0.25497</v>
       </c>
       <c r="C106" t="n">
-        <v>0.212526</v>
+        <v>0.212573</v>
       </c>
       <c r="D106" t="n">
-        <v>0.253673</v>
+        <v>0.253569</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.241107</v>
+        <v>0.240952</v>
       </c>
       <c r="C107" t="n">
-        <v>0.212045</v>
+        <v>0.211962</v>
       </c>
       <c r="D107" t="n">
-        <v>0.253171</v>
+        <v>0.253067</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.22561</v>
+        <v>0.225508</v>
       </c>
       <c r="C108" t="n">
-        <v>0.211751</v>
+        <v>0.21165</v>
       </c>
       <c r="D108" t="n">
-        <v>0.269654</v>
+        <v>0.270494</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.209104</v>
+        <v>0.20895</v>
       </c>
       <c r="C109" t="n">
-        <v>0.211475</v>
+        <v>0.211408</v>
       </c>
       <c r="D109" t="n">
-        <v>0.267291</v>
+        <v>0.267916</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.350495</v>
+        <v>0.350493</v>
       </c>
       <c r="C110" t="n">
-        <v>0.224526</v>
+        <v>0.224862</v>
       </c>
       <c r="D110" t="n">
-        <v>0.265237</v>
+        <v>0.265646</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.344294</v>
+        <v>0.344382</v>
       </c>
       <c r="C111" t="n">
-        <v>0.221863</v>
+        <v>0.222014</v>
       </c>
       <c r="D111" t="n">
-        <v>0.263529</v>
+        <v>0.263794</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.337717</v>
+        <v>0.337775</v>
       </c>
       <c r="C112" t="n">
-        <v>0.220091</v>
+        <v>0.220078</v>
       </c>
       <c r="D112" t="n">
-        <v>0.262022</v>
+        <v>0.262251</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.330127</v>
+        <v>0.330391</v>
       </c>
       <c r="C113" t="n">
-        <v>0.21837</v>
+        <v>0.218523</v>
       </c>
       <c r="D113" t="n">
-        <v>0.260598</v>
+        <v>0.260775</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.322191</v>
+        <v>0.322531</v>
       </c>
       <c r="C114" t="n">
-        <v>0.217373</v>
+        <v>0.217392</v>
       </c>
       <c r="D114" t="n">
-        <v>0.25978</v>
+        <v>0.259402</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.313337</v>
+        <v>0.313722</v>
       </c>
       <c r="C115" t="n">
-        <v>0.216064</v>
+        <v>0.216132</v>
       </c>
       <c r="D115" t="n">
-        <v>0.258787</v>
+        <v>0.258415</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.303858</v>
+        <v>0.304166</v>
       </c>
       <c r="C116" t="n">
-        <v>0.215379</v>
+        <v>0.215356</v>
       </c>
       <c r="D116" t="n">
-        <v>0.257567</v>
+        <v>0.257264</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.293642</v>
+        <v>0.294111</v>
       </c>
       <c r="C117" t="n">
-        <v>0.214972</v>
+        <v>0.214785</v>
       </c>
       <c r="D117" t="n">
-        <v>0.25659</v>
+        <v>0.256208</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.282655</v>
+        <v>0.283048</v>
       </c>
       <c r="C118" t="n">
-        <v>0.214224</v>
+        <v>0.214552</v>
       </c>
       <c r="D118" t="n">
-        <v>0.255657</v>
+        <v>0.255403</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.270757</v>
+        <v>0.271123</v>
       </c>
       <c r="C119" t="n">
-        <v>0.213506</v>
+        <v>0.213613</v>
       </c>
       <c r="D119" t="n">
-        <v>0.254912</v>
+        <v>0.254695</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.258176</v>
+        <v>0.258415</v>
       </c>
       <c r="C120" t="n">
-        <v>0.212971</v>
+        <v>0.213111</v>
       </c>
       <c r="D120" t="n">
-        <v>0.254171</v>
+        <v>0.253855</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.24429</v>
+        <v>0.244324</v>
       </c>
       <c r="C121" t="n">
-        <v>0.212489</v>
+        <v>0.212653</v>
       </c>
       <c r="D121" t="n">
-        <v>0.253804</v>
+        <v>0.253515</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.229069</v>
+        <v>0.229199</v>
       </c>
       <c r="C122" t="n">
-        <v>0.212233</v>
+        <v>0.212487</v>
       </c>
       <c r="D122" t="n">
-        <v>0.253227</v>
+        <v>0.253104</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.212247</v>
+        <v>0.212375</v>
       </c>
       <c r="C123" t="n">
-        <v>0.211809</v>
+        <v>0.212218</v>
       </c>
       <c r="D123" t="n">
-        <v>0.267666</v>
+        <v>0.268132</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.35176</v>
+        <v>0.351803</v>
       </c>
       <c r="C124" t="n">
-        <v>0.225384</v>
+        <v>0.22607</v>
       </c>
       <c r="D124" t="n">
-        <v>0.265669</v>
+        <v>0.266094</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.345814</v>
+        <v>0.345949</v>
       </c>
       <c r="C125" t="n">
-        <v>0.222259</v>
+        <v>0.222829</v>
       </c>
       <c r="D125" t="n">
-        <v>0.263968</v>
+        <v>0.264208</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.339366</v>
+        <v>0.339645</v>
       </c>
       <c r="C126" t="n">
-        <v>0.220314</v>
+        <v>0.220667</v>
       </c>
       <c r="D126" t="n">
-        <v>0.26235</v>
+        <v>0.2626</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.332081</v>
+        <v>0.332247</v>
       </c>
       <c r="C127" t="n">
-        <v>0.218683</v>
+        <v>0.218993</v>
       </c>
       <c r="D127" t="n">
-        <v>0.260858</v>
+        <v>0.261079</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.323906</v>
+        <v>0.324292</v>
       </c>
       <c r="C128" t="n">
-        <v>0.217346</v>
+        <v>0.217546</v>
       </c>
       <c r="D128" t="n">
-        <v>0.259565</v>
+        <v>0.259817</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.315421</v>
+        <v>0.315442</v>
       </c>
       <c r="C129" t="n">
-        <v>0.21621</v>
+        <v>0.216416</v>
       </c>
       <c r="D129" t="n">
-        <v>0.258325</v>
+        <v>0.258539</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.30603</v>
+        <v>0.306002</v>
       </c>
       <c r="C130" t="n">
-        <v>0.215391</v>
+        <v>0.215516</v>
       </c>
       <c r="D130" t="n">
-        <v>0.25738</v>
+        <v>0.257489</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.295623</v>
+        <v>0.295998</v>
       </c>
       <c r="C131" t="n">
-        <v>0.214646</v>
+        <v>0.214783</v>
       </c>
       <c r="D131" t="n">
-        <v>0.256384</v>
+        <v>0.256583</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.28499</v>
+        <v>0.285214</v>
       </c>
       <c r="C132" t="n">
-        <v>0.213885</v>
+        <v>0.214052</v>
       </c>
       <c r="D132" t="n">
-        <v>0.255451</v>
+        <v>0.255664</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.273167</v>
+        <v>0.273421</v>
       </c>
       <c r="C133" t="n">
-        <v>0.213273</v>
+        <v>0.213452</v>
       </c>
       <c r="D133" t="n">
-        <v>0.255118</v>
+        <v>0.254874</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.260533</v>
+        <v>0.260557</v>
       </c>
       <c r="C134" t="n">
-        <v>0.212687</v>
+        <v>0.212867</v>
       </c>
       <c r="D134" t="n">
-        <v>0.254381</v>
+        <v>0.254423</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.246762</v>
+        <v>0.24689</v>
       </c>
       <c r="C135" t="n">
-        <v>0.21216</v>
+        <v>0.212321</v>
       </c>
       <c r="D135" t="n">
-        <v>0.253831</v>
+        <v>0.254049</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.231878</v>
+        <v>0.232103</v>
       </c>
       <c r="C136" t="n">
-        <v>0.212143</v>
+        <v>0.211967</v>
       </c>
       <c r="D136" t="n">
-        <v>0.253149</v>
+        <v>0.253362</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.215708</v>
+        <v>0.215704</v>
       </c>
       <c r="C137" t="n">
-        <v>0.211795</v>
+        <v>0.211763</v>
       </c>
       <c r="D137" t="n">
-        <v>0.268659</v>
+        <v>0.26918</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.352632</v>
+        <v>0.352987</v>
       </c>
       <c r="C138" t="n">
-        <v>0.226892</v>
+        <v>0.227703</v>
       </c>
       <c r="D138" t="n">
-        <v>0.266425</v>
+        <v>0.266836</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.347158</v>
+        <v>0.347406</v>
       </c>
       <c r="C139" t="n">
-        <v>0.22348</v>
+        <v>0.224028</v>
       </c>
       <c r="D139" t="n">
-        <v>0.264633</v>
+        <v>0.264957</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.340729</v>
+        <v>0.341066</v>
       </c>
       <c r="C140" t="n">
-        <v>0.221126</v>
+        <v>0.221442</v>
       </c>
       <c r="D140" t="n">
-        <v>0.263023</v>
+        <v>0.263233</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.333537</v>
+        <v>0.334035</v>
       </c>
       <c r="C141" t="n">
-        <v>0.219233</v>
+        <v>0.219593</v>
       </c>
       <c r="D141" t="n">
-        <v>0.261507</v>
+        <v>0.261792</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.325695</v>
+        <v>0.325994</v>
       </c>
       <c r="C142" t="n">
-        <v>0.21797</v>
+        <v>0.21823</v>
       </c>
       <c r="D142" t="n">
-        <v>0.260242</v>
+        <v>0.260473</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.317362</v>
+        <v>0.317381</v>
       </c>
       <c r="C143" t="n">
-        <v>0.216875</v>
+        <v>0.217012</v>
       </c>
       <c r="D143" t="n">
-        <v>0.258988</v>
+        <v>0.259231</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2755</v>
+        <v>0.285959</v>
       </c>
       <c r="C2" t="n">
-        <v>0.197228</v>
+        <v>0.193073</v>
       </c>
       <c r="D2" t="n">
-        <v>0.234945</v>
+        <v>0.226949</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.265512</v>
+        <v>0.272656</v>
       </c>
       <c r="C3" t="n">
-        <v>0.195027</v>
+        <v>0.194468</v>
       </c>
       <c r="D3" t="n">
-        <v>0.236677</v>
+        <v>0.226692</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.256595</v>
+        <v>0.260438</v>
       </c>
       <c r="C4" t="n">
-        <v>0.195689</v>
+        <v>0.194384</v>
       </c>
       <c r="D4" t="n">
-        <v>0.236036</v>
+        <v>0.228216</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.247213</v>
+        <v>0.249611</v>
       </c>
       <c r="C5" t="n">
-        <v>0.197182</v>
+        <v>0.194225</v>
       </c>
       <c r="D5" t="n">
-        <v>0.241101</v>
+        <v>0.22835</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.233851</v>
+        <v>0.238107</v>
       </c>
       <c r="C6" t="n">
-        <v>0.197607</v>
+        <v>0.196988</v>
       </c>
       <c r="D6" t="n">
-        <v>0.237121</v>
+        <v>0.229155</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.222987</v>
+        <v>0.227132</v>
       </c>
       <c r="C7" t="n">
-        <v>0.200304</v>
+        <v>0.197597</v>
       </c>
       <c r="D7" t="n">
-        <v>0.241937</v>
+        <v>0.229124</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.20891</v>
+        <v>0.212537</v>
       </c>
       <c r="C8" t="n">
-        <v>0.19833</v>
+        <v>0.198324</v>
       </c>
       <c r="D8" t="n">
-        <v>0.237466</v>
+        <v>0.230198</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.194723</v>
+        <v>0.197309</v>
       </c>
       <c r="C9" t="n">
-        <v>0.198741</v>
+        <v>0.199865</v>
       </c>
       <c r="D9" t="n">
-        <v>0.262567</v>
+        <v>0.252422</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.333198</v>
+        <v>0.335415</v>
       </c>
       <c r="C10" t="n">
-        <v>0.216832</v>
+        <v>0.217668</v>
       </c>
       <c r="D10" t="n">
-        <v>0.261643</v>
+        <v>0.251186</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.328418</v>
+        <v>0.331233</v>
       </c>
       <c r="C11" t="n">
-        <v>0.216436</v>
+        <v>0.217208</v>
       </c>
       <c r="D11" t="n">
-        <v>0.259417</v>
+        <v>0.250234</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.321789</v>
+        <v>0.324152</v>
       </c>
       <c r="C12" t="n">
-        <v>0.21519</v>
+        <v>0.216262</v>
       </c>
       <c r="D12" t="n">
-        <v>0.277615</v>
+        <v>0.2485</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.316017</v>
+        <v>0.319583</v>
       </c>
       <c r="C13" t="n">
-        <v>0.214947</v>
+        <v>0.214952</v>
       </c>
       <c r="D13" t="n">
-        <v>0.256576</v>
+        <v>0.250707</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.30926</v>
+        <v>0.311544</v>
       </c>
       <c r="C14" t="n">
-        <v>0.213422</v>
+        <v>0.213771</v>
       </c>
       <c r="D14" t="n">
-        <v>0.256201</v>
+        <v>0.24928</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.300825</v>
+        <v>0.303347</v>
       </c>
       <c r="C15" t="n">
-        <v>0.212032</v>
+        <v>0.213443</v>
       </c>
       <c r="D15" t="n">
-        <v>0.255878</v>
+        <v>0.249303</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.292291</v>
+        <v>0.295402</v>
       </c>
       <c r="C16" t="n">
-        <v>0.211903</v>
+        <v>0.213294</v>
       </c>
       <c r="D16" t="n">
-        <v>0.255213</v>
+        <v>0.249239</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.283355</v>
+        <v>0.285664</v>
       </c>
       <c r="C17" t="n">
-        <v>0.211338</v>
+        <v>0.212279</v>
       </c>
       <c r="D17" t="n">
-        <v>0.276808</v>
+        <v>0.24466</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.274297</v>
+        <v>0.276983</v>
       </c>
       <c r="C18" t="n">
-        <v>0.21167</v>
+        <v>0.213142</v>
       </c>
       <c r="D18" t="n">
-        <v>0.252541</v>
+        <v>0.243451</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.263344</v>
+        <v>0.26597</v>
       </c>
       <c r="C19" t="n">
-        <v>0.210815</v>
+        <v>0.21151</v>
       </c>
       <c r="D19" t="n">
-        <v>0.27515</v>
+        <v>0.245399</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.25307</v>
+        <v>0.254685</v>
       </c>
       <c r="C20" t="n">
-        <v>0.211187</v>
+        <v>0.212079</v>
       </c>
       <c r="D20" t="n">
-        <v>0.251634</v>
+        <v>0.247029</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.24058</v>
+        <v>0.241852</v>
       </c>
       <c r="C21" t="n">
-        <v>0.211094</v>
+        <v>0.212843</v>
       </c>
       <c r="D21" t="n">
-        <v>0.252727</v>
+        <v>0.241759</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.225643</v>
+        <v>0.227163</v>
       </c>
       <c r="C22" t="n">
-        <v>0.210863</v>
+        <v>0.211277</v>
       </c>
       <c r="D22" t="n">
-        <v>0.25014</v>
+        <v>0.240655</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.208459</v>
+        <v>0.210492</v>
       </c>
       <c r="C23" t="n">
-        <v>0.209837</v>
+        <v>0.210842</v>
       </c>
       <c r="D23" t="n">
-        <v>0.26798</v>
+        <v>0.260405</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.346665</v>
+        <v>0.348663</v>
       </c>
       <c r="C24" t="n">
-        <v>0.225483</v>
+        <v>0.22707</v>
       </c>
       <c r="D24" t="n">
-        <v>0.265345</v>
+        <v>0.257941</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.340962</v>
+        <v>0.342448</v>
       </c>
       <c r="C25" t="n">
-        <v>0.222893</v>
+        <v>0.225089</v>
       </c>
       <c r="D25" t="n">
-        <v>0.264494</v>
+        <v>0.256338</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.334495</v>
+        <v>0.336503</v>
       </c>
       <c r="C26" t="n">
-        <v>0.220898</v>
+        <v>0.221944</v>
       </c>
       <c r="D26" t="n">
-        <v>0.263869</v>
+        <v>0.255023</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.32832</v>
+        <v>0.329696</v>
       </c>
       <c r="C27" t="n">
-        <v>0.218409</v>
+        <v>0.220513</v>
       </c>
       <c r="D27" t="n">
-        <v>0.260967</v>
+        <v>0.253039</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.321807</v>
+        <v>0.32281</v>
       </c>
       <c r="C28" t="n">
-        <v>0.216634</v>
+        <v>0.217491</v>
       </c>
       <c r="D28" t="n">
-        <v>0.259378</v>
+        <v>0.250998</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.312897</v>
+        <v>0.313914</v>
       </c>
       <c r="C29" t="n">
-        <v>0.216145</v>
+        <v>0.21684</v>
       </c>
       <c r="D29" t="n">
-        <v>0.25798</v>
+        <v>0.249536</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.303742</v>
+        <v>0.305053</v>
       </c>
       <c r="C30" t="n">
-        <v>0.215708</v>
+        <v>0.215767</v>
       </c>
       <c r="D30" t="n">
-        <v>0.256721</v>
+        <v>0.248523</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.29395</v>
+        <v>0.294944</v>
       </c>
       <c r="C31" t="n">
-        <v>0.214599</v>
+        <v>0.214477</v>
       </c>
       <c r="D31" t="n">
-        <v>0.256021</v>
+        <v>0.247816</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.284014</v>
+        <v>0.285114</v>
       </c>
       <c r="C32" t="n">
-        <v>0.214222</v>
+        <v>0.213793</v>
       </c>
       <c r="D32" t="n">
-        <v>0.255316</v>
+        <v>0.247882</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.272975</v>
+        <v>0.27437</v>
       </c>
       <c r="C33" t="n">
-        <v>0.213226</v>
+        <v>0.213221</v>
       </c>
       <c r="D33" t="n">
-        <v>0.254399</v>
+        <v>0.247003</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.26202</v>
+        <v>0.262357</v>
       </c>
       <c r="C34" t="n">
-        <v>0.212876</v>
+        <v>0.212578</v>
       </c>
       <c r="D34" t="n">
-        <v>0.252908</v>
+        <v>0.245076</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.248397</v>
+        <v>0.249038</v>
       </c>
       <c r="C35" t="n">
-        <v>0.21213</v>
+        <v>0.212421</v>
       </c>
       <c r="D35" t="n">
-        <v>0.252513</v>
+        <v>0.244808</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.235066</v>
+        <v>0.23597</v>
       </c>
       <c r="C36" t="n">
-        <v>0.212027</v>
+        <v>0.212059</v>
       </c>
       <c r="D36" t="n">
-        <v>0.251269</v>
+        <v>0.243608</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.21964</v>
+        <v>0.220202</v>
       </c>
       <c r="C37" t="n">
-        <v>0.212715</v>
+        <v>0.212455</v>
       </c>
       <c r="D37" t="n">
-        <v>0.269572</v>
+        <v>0.261956</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.350874</v>
+        <v>0.35222</v>
       </c>
       <c r="C38" t="n">
-        <v>0.234137</v>
+        <v>0.229666</v>
       </c>
       <c r="D38" t="n">
-        <v>0.266734</v>
+        <v>0.259893</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.346452</v>
+        <v>0.347476</v>
       </c>
       <c r="C39" t="n">
-        <v>0.227891</v>
+        <v>0.226731</v>
       </c>
       <c r="D39" t="n">
-        <v>0.264273</v>
+        <v>0.257415</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.340633</v>
+        <v>0.341212</v>
       </c>
       <c r="C40" t="n">
-        <v>0.224662</v>
+        <v>0.22365</v>
       </c>
       <c r="D40" t="n">
-        <v>0.262875</v>
+        <v>0.256479</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.333346</v>
+        <v>0.334749</v>
       </c>
       <c r="C41" t="n">
-        <v>0.221368</v>
+        <v>0.220821</v>
       </c>
       <c r="D41" t="n">
-        <v>0.261335</v>
+        <v>0.254525</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.326599</v>
+        <v>0.327785</v>
       </c>
       <c r="C42" t="n">
-        <v>0.219141</v>
+        <v>0.219244</v>
       </c>
       <c r="D42" t="n">
-        <v>0.26035</v>
+        <v>0.252468</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.318926</v>
+        <v>0.319628</v>
       </c>
       <c r="C43" t="n">
-        <v>0.217507</v>
+        <v>0.21801</v>
       </c>
       <c r="D43" t="n">
-        <v>0.25895</v>
+        <v>0.250818</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.309923</v>
+        <v>0.310944</v>
       </c>
       <c r="C44" t="n">
-        <v>0.216233</v>
+        <v>0.216743</v>
       </c>
       <c r="D44" t="n">
-        <v>0.257712</v>
+        <v>0.249334</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.301841</v>
+        <v>0.302122</v>
       </c>
       <c r="C45" t="n">
-        <v>0.215144</v>
+        <v>0.216179</v>
       </c>
       <c r="D45" t="n">
-        <v>0.256444</v>
+        <v>0.247856</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.290748</v>
+        <v>0.291448</v>
       </c>
       <c r="C46" t="n">
-        <v>0.214245</v>
+        <v>0.214152</v>
       </c>
       <c r="D46" t="n">
-        <v>0.255359</v>
+        <v>0.247408</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.279803</v>
+        <v>0.280224</v>
       </c>
       <c r="C47" t="n">
-        <v>0.214216</v>
+        <v>0.214305</v>
       </c>
       <c r="D47" t="n">
-        <v>0.254679</v>
+        <v>0.246445</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.268518</v>
+        <v>0.268514</v>
       </c>
       <c r="C48" t="n">
-        <v>0.213628</v>
+        <v>0.212639</v>
       </c>
       <c r="D48" t="n">
-        <v>0.253645</v>
+        <v>0.246494</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.256285</v>
+        <v>0.256445</v>
       </c>
       <c r="C49" t="n">
-        <v>0.21298</v>
+        <v>0.212517</v>
       </c>
       <c r="D49" t="n">
-        <v>0.252832</v>
+        <v>0.245361</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.242467</v>
+        <v>0.242197</v>
       </c>
       <c r="C50" t="n">
-        <v>0.212626</v>
+        <v>0.212443</v>
       </c>
       <c r="D50" t="n">
-        <v>0.252358</v>
+        <v>0.246099</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.226936</v>
+        <v>0.226829</v>
       </c>
       <c r="C51" t="n">
-        <v>0.212301</v>
+        <v>0.211999</v>
       </c>
       <c r="D51" t="n">
-        <v>0.269761</v>
+        <v>0.261972</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.209985</v>
+        <v>0.210242</v>
       </c>
       <c r="C52" t="n">
-        <v>0.211897</v>
+        <v>0.211924</v>
       </c>
       <c r="D52" t="n">
-        <v>0.266824</v>
+        <v>0.258834</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.349709</v>
+        <v>0.350812</v>
       </c>
       <c r="C53" t="n">
-        <v>0.226972</v>
+        <v>0.226695</v>
       </c>
       <c r="D53" t="n">
-        <v>0.264762</v>
+        <v>0.2564</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.344519</v>
+        <v>0.344699</v>
       </c>
       <c r="C54" t="n">
-        <v>0.224312</v>
+        <v>0.223624</v>
       </c>
       <c r="D54" t="n">
-        <v>0.263518</v>
+        <v>0.255421</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.338087</v>
+        <v>0.338421</v>
       </c>
       <c r="C55" t="n">
-        <v>0.220733</v>
+        <v>0.220666</v>
       </c>
       <c r="D55" t="n">
-        <v>0.262096</v>
+        <v>0.253498</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.330619</v>
+        <v>0.331327</v>
       </c>
       <c r="C56" t="n">
-        <v>0.218998</v>
+        <v>0.220001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.260426</v>
+        <v>0.251467</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.321956</v>
+        <v>0.323193</v>
       </c>
       <c r="C57" t="n">
-        <v>0.217741</v>
+        <v>0.21833</v>
       </c>
       <c r="D57" t="n">
-        <v>0.259161</v>
+        <v>0.250255</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.313827</v>
+        <v>0.314277</v>
       </c>
       <c r="C58" t="n">
-        <v>0.216825</v>
+        <v>0.217629</v>
       </c>
       <c r="D58" t="n">
-        <v>0.258393</v>
+        <v>0.249109</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.304826</v>
+        <v>0.305662</v>
       </c>
       <c r="C59" t="n">
-        <v>0.215305</v>
+        <v>0.214923</v>
       </c>
       <c r="D59" t="n">
-        <v>0.257052</v>
+        <v>0.247846</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.294494</v>
+        <v>0.295243</v>
       </c>
       <c r="C60" t="n">
-        <v>0.214531</v>
+        <v>0.214151</v>
       </c>
       <c r="D60" t="n">
-        <v>0.256021</v>
+        <v>0.246847</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.28373</v>
+        <v>0.284208</v>
       </c>
       <c r="C61" t="n">
-        <v>0.214015</v>
+        <v>0.213753</v>
       </c>
       <c r="D61" t="n">
-        <v>0.255085</v>
+        <v>0.246022</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.27215</v>
+        <v>0.272341</v>
       </c>
       <c r="C62" t="n">
-        <v>0.213178</v>
+        <v>0.213002</v>
       </c>
       <c r="D62" t="n">
-        <v>0.254254</v>
+        <v>0.245395</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.258994</v>
+        <v>0.259859</v>
       </c>
       <c r="C63" t="n">
-        <v>0.21291</v>
+        <v>0.21254</v>
       </c>
       <c r="D63" t="n">
-        <v>0.253335</v>
+        <v>0.244685</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.245603</v>
+        <v>0.245976</v>
       </c>
       <c r="C64" t="n">
-        <v>0.212284</v>
+        <v>0.212203</v>
       </c>
       <c r="D64" t="n">
-        <v>0.252481</v>
+        <v>0.243887</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.23019</v>
+        <v>0.230616</v>
       </c>
       <c r="C65" t="n">
-        <v>0.212065</v>
+        <v>0.212024</v>
       </c>
       <c r="D65" t="n">
-        <v>0.251761</v>
+        <v>0.243561</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.213326</v>
+        <v>0.213991</v>
       </c>
       <c r="C66" t="n">
-        <v>0.211862</v>
+        <v>0.21212</v>
       </c>
       <c r="D66" t="n">
-        <v>0.268228</v>
+        <v>0.259518</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.351643</v>
+        <v>0.352498</v>
       </c>
       <c r="C67" t="n">
-        <v>0.229548</v>
+        <v>0.22823</v>
       </c>
       <c r="D67" t="n">
-        <v>0.265967</v>
+        <v>0.25699</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.346491</v>
+        <v>0.347109</v>
       </c>
       <c r="C68" t="n">
-        <v>0.225009</v>
+        <v>0.224321</v>
       </c>
       <c r="D68" t="n">
-        <v>0.263875</v>
+        <v>0.254936</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.33996</v>
+        <v>0.34084</v>
       </c>
       <c r="C69" t="n">
-        <v>0.221367</v>
+        <v>0.221218</v>
       </c>
       <c r="D69" t="n">
-        <v>0.262231</v>
+        <v>0.253406</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.332639</v>
+        <v>0.333497</v>
       </c>
       <c r="C70" t="n">
-        <v>0.219028</v>
+        <v>0.21927</v>
       </c>
       <c r="D70" t="n">
-        <v>0.26087</v>
+        <v>0.251614</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.324679</v>
+        <v>0.325582</v>
       </c>
       <c r="C71" t="n">
-        <v>0.217781</v>
+        <v>0.218369</v>
       </c>
       <c r="D71" t="n">
-        <v>0.259634</v>
+        <v>0.250622</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.316202</v>
+        <v>0.317148</v>
       </c>
       <c r="C72" t="n">
-        <v>0.21687</v>
+        <v>0.217217</v>
       </c>
       <c r="D72" t="n">
-        <v>0.258579</v>
+        <v>0.249787</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.306969</v>
+        <v>0.307655</v>
       </c>
       <c r="C73" t="n">
-        <v>0.215703</v>
+        <v>0.216544</v>
       </c>
       <c r="D73" t="n">
-        <v>0.257357</v>
+        <v>0.248265</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.297036</v>
+        <v>0.297805</v>
       </c>
       <c r="C74" t="n">
-        <v>0.215018</v>
+        <v>0.214459</v>
       </c>
       <c r="D74" t="n">
-        <v>0.256259</v>
+        <v>0.247746</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.286299</v>
+        <v>0.286928</v>
       </c>
       <c r="C75" t="n">
-        <v>0.214232</v>
+        <v>0.213812</v>
       </c>
       <c r="D75" t="n">
-        <v>0.255662</v>
+        <v>0.24691</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.275276</v>
+        <v>0.275744</v>
       </c>
       <c r="C76" t="n">
-        <v>0.213717</v>
+        <v>0.213318</v>
       </c>
       <c r="D76" t="n">
-        <v>0.254631</v>
+        <v>0.24573</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.262714</v>
+        <v>0.263133</v>
       </c>
       <c r="C77" t="n">
-        <v>0.212879</v>
+        <v>0.212616</v>
       </c>
       <c r="D77" t="n">
-        <v>0.25373</v>
+        <v>0.244829</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.248943</v>
+        <v>0.249318</v>
       </c>
       <c r="C78" t="n">
-        <v>0.212296</v>
+        <v>0.212025</v>
       </c>
       <c r="D78" t="n">
-        <v>0.252874</v>
+        <v>0.243947</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.234038</v>
+        <v>0.234419</v>
       </c>
       <c r="C79" t="n">
-        <v>0.212315</v>
+        <v>0.212034</v>
       </c>
       <c r="D79" t="n">
-        <v>0.25279</v>
+        <v>0.244202</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.218372</v>
+        <v>0.218718</v>
       </c>
       <c r="C80" t="n">
-        <v>0.211863</v>
+        <v>0.211749</v>
       </c>
       <c r="D80" t="n">
-        <v>0.269919</v>
+        <v>0.260287</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.353374</v>
+        <v>0.353717</v>
       </c>
       <c r="C81" t="n">
-        <v>0.230606</v>
+        <v>0.227636</v>
       </c>
       <c r="D81" t="n">
-        <v>0.267039</v>
+        <v>0.257634</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.347657</v>
+        <v>0.348302</v>
       </c>
       <c r="C82" t="n">
-        <v>0.225135</v>
+        <v>0.223706</v>
       </c>
       <c r="D82" t="n">
-        <v>0.265179</v>
+        <v>0.255814</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.341336</v>
+        <v>0.341908</v>
       </c>
       <c r="C83" t="n">
-        <v>0.222068</v>
+        <v>0.221297</v>
       </c>
       <c r="D83" t="n">
-        <v>0.263367</v>
+        <v>0.25387</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.334448</v>
+        <v>0.335015</v>
       </c>
       <c r="C84" t="n">
-        <v>0.219782</v>
+        <v>0.219433</v>
       </c>
       <c r="D84" t="n">
-        <v>0.261893</v>
+        <v>0.252577</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.326551</v>
+        <v>0.327429</v>
       </c>
       <c r="C85" t="n">
-        <v>0.21824</v>
+        <v>0.218422</v>
       </c>
       <c r="D85" t="n">
-        <v>0.260536</v>
+        <v>0.251268</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.318199</v>
+        <v>0.318981</v>
       </c>
       <c r="C86" t="n">
-        <v>0.217224</v>
+        <v>0.217646</v>
       </c>
       <c r="D86" t="n">
-        <v>0.259111</v>
+        <v>0.249941</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.309226</v>
+        <v>0.309765</v>
       </c>
       <c r="C87" t="n">
-        <v>0.216073</v>
+        <v>0.21654</v>
       </c>
       <c r="D87" t="n">
-        <v>0.257681</v>
+        <v>0.248676</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.299623</v>
+        <v>0.30008</v>
       </c>
       <c r="C88" t="n">
-        <v>0.215199</v>
+        <v>0.215783</v>
       </c>
       <c r="D88" t="n">
-        <v>0.2566</v>
+        <v>0.2475</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.289195</v>
+        <v>0.289726</v>
       </c>
       <c r="C89" t="n">
-        <v>0.214274</v>
+        <v>0.213639</v>
       </c>
       <c r="D89" t="n">
-        <v>0.255803</v>
+        <v>0.246853</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.277716</v>
+        <v>0.278155</v>
       </c>
       <c r="C90" t="n">
-        <v>0.213801</v>
+        <v>0.213049</v>
       </c>
       <c r="D90" t="n">
-        <v>0.255063</v>
+        <v>0.245945</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.265405</v>
+        <v>0.265661</v>
       </c>
       <c r="C91" t="n">
-        <v>0.213034</v>
+        <v>0.21268</v>
       </c>
       <c r="D91" t="n">
-        <v>0.254195</v>
+        <v>0.245318</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.252065</v>
+        <v>0.252029</v>
       </c>
       <c r="C92" t="n">
-        <v>0.212504</v>
+        <v>0.212279</v>
       </c>
       <c r="D92" t="n">
-        <v>0.253389</v>
+        <v>0.244644</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.237858</v>
+        <v>0.238111</v>
       </c>
       <c r="C93" t="n">
-        <v>0.212128</v>
+        <v>0.211718</v>
       </c>
       <c r="D93" t="n">
-        <v>0.252983</v>
+        <v>0.244076</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.222019</v>
+        <v>0.222059</v>
       </c>
       <c r="C94" t="n">
-        <v>0.211677</v>
+        <v>0.211652</v>
       </c>
       <c r="D94" t="n">
-        <v>0.270493</v>
+        <v>0.261143</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.354774</v>
+        <v>0.354976</v>
       </c>
       <c r="C95" t="n">
-        <v>0.229559</v>
+        <v>0.227674</v>
       </c>
       <c r="D95" t="n">
-        <v>0.267404</v>
+        <v>0.258373</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.349448</v>
+        <v>0.349725</v>
       </c>
       <c r="C96" t="n">
-        <v>0.225454</v>
+        <v>0.224243</v>
       </c>
       <c r="D96" t="n">
-        <v>0.265183</v>
+        <v>0.256255</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.342936</v>
+        <v>0.343847</v>
       </c>
       <c r="C97" t="n">
-        <v>0.222642</v>
+        <v>0.222188</v>
       </c>
       <c r="D97" t="n">
-        <v>0.263439</v>
+        <v>0.254404</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.336395</v>
+        <v>0.337238</v>
       </c>
       <c r="C98" t="n">
-        <v>0.21991</v>
+        <v>0.22002</v>
       </c>
       <c r="D98" t="n">
-        <v>0.261942</v>
+        <v>0.252887</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.32844</v>
+        <v>0.329129</v>
       </c>
       <c r="C99" t="n">
-        <v>0.218455</v>
+        <v>0.218997</v>
       </c>
       <c r="D99" t="n">
-        <v>0.260504</v>
+        <v>0.251444</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.320051</v>
+        <v>0.320946</v>
       </c>
       <c r="C100" t="n">
-        <v>0.217052</v>
+        <v>0.217684</v>
       </c>
       <c r="D100" t="n">
-        <v>0.259348</v>
+        <v>0.250414</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.311416</v>
+        <v>0.31201</v>
       </c>
       <c r="C101" t="n">
-        <v>0.216038</v>
+        <v>0.216665</v>
       </c>
       <c r="D101" t="n">
-        <v>0.258046</v>
+        <v>0.24943</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.301782</v>
+        <v>0.302315</v>
       </c>
       <c r="C102" t="n">
-        <v>0.215268</v>
+        <v>0.215737</v>
       </c>
       <c r="D102" t="n">
-        <v>0.25704</v>
+        <v>0.248459</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.291368</v>
+        <v>0.29212</v>
       </c>
       <c r="C103" t="n">
-        <v>0.214344</v>
+        <v>0.2142</v>
       </c>
       <c r="D103" t="n">
-        <v>0.256048</v>
+        <v>0.247274</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.280328</v>
+        <v>0.280802</v>
       </c>
       <c r="C104" t="n">
-        <v>0.213612</v>
+        <v>0.214503</v>
       </c>
       <c r="D104" t="n">
-        <v>0.255282</v>
+        <v>0.246266</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.268054</v>
+        <v>0.268558</v>
       </c>
       <c r="C105" t="n">
-        <v>0.213122</v>
+        <v>0.213908</v>
       </c>
       <c r="D105" t="n">
-        <v>0.25438</v>
+        <v>0.245461</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.25497</v>
+        <v>0.255341</v>
       </c>
       <c r="C106" t="n">
-        <v>0.212573</v>
+        <v>0.212195</v>
       </c>
       <c r="D106" t="n">
-        <v>0.253569</v>
+        <v>0.244595</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.240952</v>
+        <v>0.241059</v>
       </c>
       <c r="C107" t="n">
-        <v>0.211962</v>
+        <v>0.211855</v>
       </c>
       <c r="D107" t="n">
-        <v>0.253067</v>
+        <v>0.244099</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.225508</v>
+        <v>0.225606</v>
       </c>
       <c r="C108" t="n">
-        <v>0.21165</v>
+        <v>0.211521</v>
       </c>
       <c r="D108" t="n">
-        <v>0.270494</v>
+        <v>0.261439</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.20895</v>
+        <v>0.208999</v>
       </c>
       <c r="C109" t="n">
-        <v>0.211408</v>
+        <v>0.211327</v>
       </c>
       <c r="D109" t="n">
-        <v>0.267916</v>
+        <v>0.25902</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.350493</v>
+        <v>0.350777</v>
       </c>
       <c r="C110" t="n">
-        <v>0.224862</v>
+        <v>0.224595</v>
       </c>
       <c r="D110" t="n">
-        <v>0.265646</v>
+        <v>0.256914</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.344382</v>
+        <v>0.344767</v>
       </c>
       <c r="C111" t="n">
-        <v>0.222014</v>
+        <v>0.222093</v>
       </c>
       <c r="D111" t="n">
-        <v>0.263794</v>
+        <v>0.255007</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.337775</v>
+        <v>0.338124</v>
       </c>
       <c r="C112" t="n">
-        <v>0.220078</v>
+        <v>0.22037</v>
       </c>
       <c r="D112" t="n">
-        <v>0.262251</v>
+        <v>0.253508</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.330391</v>
+        <v>0.330831</v>
       </c>
       <c r="C113" t="n">
-        <v>0.218523</v>
+        <v>0.218878</v>
       </c>
       <c r="D113" t="n">
-        <v>0.260775</v>
+        <v>0.251827</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.322531</v>
+        <v>0.322726</v>
       </c>
       <c r="C114" t="n">
-        <v>0.217392</v>
+        <v>0.217782</v>
       </c>
       <c r="D114" t="n">
-        <v>0.259402</v>
+        <v>0.250672</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.313722</v>
+        <v>0.313882</v>
       </c>
       <c r="C115" t="n">
-        <v>0.216132</v>
+        <v>0.216794</v>
       </c>
       <c r="D115" t="n">
-        <v>0.258415</v>
+        <v>0.250232</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.304166</v>
+        <v>0.304259</v>
       </c>
       <c r="C116" t="n">
-        <v>0.215356</v>
+        <v>0.216008</v>
       </c>
       <c r="D116" t="n">
-        <v>0.257264</v>
+        <v>0.249214</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.294111</v>
+        <v>0.293755</v>
       </c>
       <c r="C117" t="n">
-        <v>0.214785</v>
+        <v>0.214218</v>
       </c>
       <c r="D117" t="n">
-        <v>0.256208</v>
+        <v>0.248011</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.283048</v>
+        <v>0.283002</v>
       </c>
       <c r="C118" t="n">
-        <v>0.214552</v>
+        <v>0.214935</v>
       </c>
       <c r="D118" t="n">
-        <v>0.255403</v>
+        <v>0.24708</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.271123</v>
+        <v>0.271169</v>
       </c>
       <c r="C119" t="n">
-        <v>0.213613</v>
+        <v>0.214274</v>
       </c>
       <c r="D119" t="n">
-        <v>0.254695</v>
+        <v>0.246326</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.258415</v>
+        <v>0.258331</v>
       </c>
       <c r="C120" t="n">
-        <v>0.213111</v>
+        <v>0.213827</v>
       </c>
       <c r="D120" t="n">
-        <v>0.253855</v>
+        <v>0.245705</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.244324</v>
+        <v>0.244347</v>
       </c>
       <c r="C121" t="n">
-        <v>0.212653</v>
+        <v>0.21336</v>
       </c>
       <c r="D121" t="n">
-        <v>0.253515</v>
+        <v>0.245097</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.229199</v>
+        <v>0.229366</v>
       </c>
       <c r="C122" t="n">
-        <v>0.212487</v>
+        <v>0.211959</v>
       </c>
       <c r="D122" t="n">
-        <v>0.253104</v>
+        <v>0.244774</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.212375</v>
+        <v>0.212762</v>
       </c>
       <c r="C123" t="n">
-        <v>0.212218</v>
+        <v>0.211688</v>
       </c>
       <c r="D123" t="n">
-        <v>0.268132</v>
+        <v>0.260241</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.351803</v>
+        <v>0.351768</v>
       </c>
       <c r="C124" t="n">
-        <v>0.22607</v>
+        <v>0.225509</v>
       </c>
       <c r="D124" t="n">
-        <v>0.266094</v>
+        <v>0.258272</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.345949</v>
+        <v>0.345986</v>
       </c>
       <c r="C125" t="n">
-        <v>0.222829</v>
+        <v>0.222647</v>
       </c>
       <c r="D125" t="n">
-        <v>0.264208</v>
+        <v>0.256088</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.339645</v>
+        <v>0.339436</v>
       </c>
       <c r="C126" t="n">
-        <v>0.220667</v>
+        <v>0.220776</v>
       </c>
       <c r="D126" t="n">
-        <v>0.2626</v>
+        <v>0.254683</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.332247</v>
+        <v>0.332237</v>
       </c>
       <c r="C127" t="n">
-        <v>0.218993</v>
+        <v>0.21927</v>
       </c>
       <c r="D127" t="n">
-        <v>0.261079</v>
+        <v>0.252987</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.324292</v>
+        <v>0.32422</v>
       </c>
       <c r="C128" t="n">
-        <v>0.217546</v>
+        <v>0.217895</v>
       </c>
       <c r="D128" t="n">
-        <v>0.259817</v>
+        <v>0.251546</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.315442</v>
+        <v>0.315395</v>
       </c>
       <c r="C129" t="n">
-        <v>0.216416</v>
+        <v>0.216917</v>
       </c>
       <c r="D129" t="n">
-        <v>0.258539</v>
+        <v>0.250307</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.306002</v>
+        <v>0.305948</v>
       </c>
       <c r="C130" t="n">
-        <v>0.215516</v>
+        <v>0.216147</v>
       </c>
       <c r="D130" t="n">
-        <v>0.257489</v>
+        <v>0.249411</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.295998</v>
+        <v>0.29588</v>
       </c>
       <c r="C131" t="n">
-        <v>0.214783</v>
+        <v>0.215393</v>
       </c>
       <c r="D131" t="n">
-        <v>0.256583</v>
+        <v>0.248682</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.285214</v>
+        <v>0.284974</v>
       </c>
       <c r="C132" t="n">
-        <v>0.214052</v>
+        <v>0.214657</v>
       </c>
       <c r="D132" t="n">
-        <v>0.255664</v>
+        <v>0.247882</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.273421</v>
+        <v>0.273108</v>
       </c>
       <c r="C133" t="n">
-        <v>0.213452</v>
+        <v>0.212717</v>
       </c>
       <c r="D133" t="n">
-        <v>0.254874</v>
+        <v>0.246744</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.260557</v>
+        <v>0.260445</v>
       </c>
       <c r="C134" t="n">
-        <v>0.212867</v>
+        <v>0.21211</v>
       </c>
       <c r="D134" t="n">
-        <v>0.254423</v>
+        <v>0.246317</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.24689</v>
+        <v>0.246717</v>
       </c>
       <c r="C135" t="n">
-        <v>0.212321</v>
+        <v>0.211689</v>
       </c>
       <c r="D135" t="n">
-        <v>0.254049</v>
+        <v>0.24548</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.232103</v>
+        <v>0.231946</v>
       </c>
       <c r="C136" t="n">
-        <v>0.211967</v>
+        <v>0.212746</v>
       </c>
       <c r="D136" t="n">
-        <v>0.253362</v>
+        <v>0.244782</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.215704</v>
+        <v>0.215904</v>
       </c>
       <c r="C137" t="n">
-        <v>0.211763</v>
+        <v>0.211669</v>
       </c>
       <c r="D137" t="n">
-        <v>0.26918</v>
+        <v>0.262066</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.352987</v>
+        <v>0.352769</v>
       </c>
       <c r="C138" t="n">
-        <v>0.227703</v>
+        <v>0.226895</v>
       </c>
       <c r="D138" t="n">
-        <v>0.266836</v>
+        <v>0.259053</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.347406</v>
+        <v>0.347376</v>
       </c>
       <c r="C139" t="n">
-        <v>0.224028</v>
+        <v>0.223678</v>
       </c>
       <c r="D139" t="n">
-        <v>0.264957</v>
+        <v>0.258213</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.341066</v>
+        <v>0.341092</v>
       </c>
       <c r="C140" t="n">
-        <v>0.221442</v>
+        <v>0.221388</v>
       </c>
       <c r="D140" t="n">
-        <v>0.263233</v>
+        <v>0.255814</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.334035</v>
+        <v>0.334029</v>
       </c>
       <c r="C141" t="n">
-        <v>0.219593</v>
+        <v>0.219656</v>
       </c>
       <c r="D141" t="n">
-        <v>0.261792</v>
+        <v>0.254566</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.325994</v>
+        <v>0.326041</v>
       </c>
       <c r="C142" t="n">
-        <v>0.21823</v>
+        <v>0.2185</v>
       </c>
       <c r="D142" t="n">
-        <v>0.260473</v>
+        <v>0.253392</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.317381</v>
+        <v>0.317453</v>
       </c>
       <c r="C143" t="n">
-        <v>0.217012</v>
+        <v>0.217378</v>
       </c>
       <c r="D143" t="n">
-        <v>0.259231</v>
+        <v>0.251435</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.285959</v>
+        <v>0.291789</v>
       </c>
       <c r="C2" t="n">
-        <v>0.193073</v>
+        <v>0.360839</v>
       </c>
       <c r="D2" t="n">
-        <v>0.226949</v>
+        <v>0.23423</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.272656</v>
+        <v>0.27423</v>
       </c>
       <c r="C3" t="n">
-        <v>0.194468</v>
+        <v>0.375495</v>
       </c>
       <c r="D3" t="n">
-        <v>0.226692</v>
+        <v>0.239693</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.260438</v>
+        <v>0.261509</v>
       </c>
       <c r="C4" t="n">
-        <v>0.194384</v>
+        <v>0.394926</v>
       </c>
       <c r="D4" t="n">
-        <v>0.228216</v>
+        <v>0.228124</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.249611</v>
+        <v>0.250227</v>
       </c>
       <c r="C5" t="n">
-        <v>0.194225</v>
+        <v>0.413851</v>
       </c>
       <c r="D5" t="n">
-        <v>0.22835</v>
+        <v>0.228346</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.238107</v>
+        <v>0.240461</v>
       </c>
       <c r="C6" t="n">
-        <v>0.196988</v>
+        <v>0.439107</v>
       </c>
       <c r="D6" t="n">
-        <v>0.229155</v>
+        <v>0.228578</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.227132</v>
+        <v>0.222611</v>
       </c>
       <c r="C7" t="n">
-        <v>0.197597</v>
+        <v>0.464982</v>
       </c>
       <c r="D7" t="n">
-        <v>0.229124</v>
+        <v>0.227964</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.212537</v>
+        <v>0.212171</v>
       </c>
       <c r="C8" t="n">
-        <v>0.198324</v>
+        <v>0.290038</v>
       </c>
       <c r="D8" t="n">
-        <v>0.230198</v>
+        <v>0.228298</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.197309</v>
+        <v>0.192977</v>
       </c>
       <c r="C9" t="n">
-        <v>0.199865</v>
+        <v>0.301467</v>
       </c>
       <c r="D9" t="n">
-        <v>0.252422</v>
+        <v>0.254841</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.335415</v>
+        <v>0.341208</v>
       </c>
       <c r="C10" t="n">
-        <v>0.217668</v>
+        <v>0.311189</v>
       </c>
       <c r="D10" t="n">
-        <v>0.251186</v>
+        <v>0.274488</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.331233</v>
+        <v>0.334513</v>
       </c>
       <c r="C11" t="n">
-        <v>0.217208</v>
+        <v>0.32315</v>
       </c>
       <c r="D11" t="n">
-        <v>0.250234</v>
+        <v>0.255668</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.324152</v>
+        <v>0.329147</v>
       </c>
       <c r="C12" t="n">
-        <v>0.216262</v>
+        <v>0.335199</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2485</v>
+        <v>0.251217</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.319583</v>
+        <v>0.321526</v>
       </c>
       <c r="C13" t="n">
-        <v>0.214952</v>
+        <v>0.347503</v>
       </c>
       <c r="D13" t="n">
-        <v>0.250707</v>
+        <v>0.246355</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.311544</v>
+        <v>0.313005</v>
       </c>
       <c r="C14" t="n">
-        <v>0.213771</v>
+        <v>0.360047</v>
       </c>
       <c r="D14" t="n">
-        <v>0.24928</v>
+        <v>0.249109</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.303347</v>
+        <v>0.303477</v>
       </c>
       <c r="C15" t="n">
-        <v>0.213443</v>
+        <v>0.374769</v>
       </c>
       <c r="D15" t="n">
-        <v>0.249303</v>
+        <v>0.246545</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.295402</v>
+        <v>0.295194</v>
       </c>
       <c r="C16" t="n">
-        <v>0.213294</v>
+        <v>0.390777</v>
       </c>
       <c r="D16" t="n">
-        <v>0.249239</v>
+        <v>0.248751</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.285664</v>
+        <v>0.286281</v>
       </c>
       <c r="C17" t="n">
-        <v>0.212279</v>
+        <v>0.399361</v>
       </c>
       <c r="D17" t="n">
-        <v>0.24466</v>
+        <v>0.243059</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.276983</v>
+        <v>0.276584</v>
       </c>
       <c r="C18" t="n">
-        <v>0.213142</v>
+        <v>0.418601</v>
       </c>
       <c r="D18" t="n">
-        <v>0.243451</v>
+        <v>0.24264</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.26597</v>
+        <v>0.264822</v>
       </c>
       <c r="C19" t="n">
-        <v>0.21151</v>
+        <v>0.437347</v>
       </c>
       <c r="D19" t="n">
-        <v>0.245399</v>
+        <v>0.242391</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.254685</v>
+        <v>0.253123</v>
       </c>
       <c r="C20" t="n">
-        <v>0.212079</v>
+        <v>0.464218</v>
       </c>
       <c r="D20" t="n">
-        <v>0.247029</v>
+        <v>0.245835</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.241852</v>
+        <v>0.238914</v>
       </c>
       <c r="C21" t="n">
-        <v>0.212843</v>
+        <v>0.475231</v>
       </c>
       <c r="D21" t="n">
-        <v>0.241759</v>
+        <v>0.241728</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.227163</v>
+        <v>0.222296</v>
       </c>
       <c r="C22" t="n">
-        <v>0.211277</v>
+        <v>0.32898</v>
       </c>
       <c r="D22" t="n">
-        <v>0.240655</v>
+        <v>0.241039</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.210492</v>
+        <v>0.207246</v>
       </c>
       <c r="C23" t="n">
-        <v>0.210842</v>
+        <v>0.339979</v>
       </c>
       <c r="D23" t="n">
-        <v>0.260405</v>
+        <v>0.257105</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348663</v>
+        <v>0.35103</v>
       </c>
       <c r="C24" t="n">
-        <v>0.22707</v>
+        <v>0.345578</v>
       </c>
       <c r="D24" t="n">
-        <v>0.257941</v>
+        <v>0.255277</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.342448</v>
+        <v>0.346421</v>
       </c>
       <c r="C25" t="n">
-        <v>0.225089</v>
+        <v>0.355689</v>
       </c>
       <c r="D25" t="n">
-        <v>0.256338</v>
+        <v>0.253861</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.336503</v>
+        <v>0.340389</v>
       </c>
       <c r="C26" t="n">
-        <v>0.221944</v>
+        <v>0.365888</v>
       </c>
       <c r="D26" t="n">
-        <v>0.255023</v>
+        <v>0.252541</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.329696</v>
+        <v>0.33219</v>
       </c>
       <c r="C27" t="n">
-        <v>0.220513</v>
+        <v>0.373165</v>
       </c>
       <c r="D27" t="n">
-        <v>0.253039</v>
+        <v>0.251425</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.32281</v>
+        <v>0.324046</v>
       </c>
       <c r="C28" t="n">
-        <v>0.217491</v>
+        <v>0.382215</v>
       </c>
       <c r="D28" t="n">
-        <v>0.250998</v>
+        <v>0.24979</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.313914</v>
+        <v>0.316413</v>
       </c>
       <c r="C29" t="n">
-        <v>0.21684</v>
+        <v>0.3956</v>
       </c>
       <c r="D29" t="n">
-        <v>0.249536</v>
+        <v>0.248872</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.305053</v>
+        <v>0.306474</v>
       </c>
       <c r="C30" t="n">
-        <v>0.215767</v>
+        <v>0.40915</v>
       </c>
       <c r="D30" t="n">
-        <v>0.248523</v>
+        <v>0.248097</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.294944</v>
+        <v>0.296697</v>
       </c>
       <c r="C31" t="n">
-        <v>0.214477</v>
+        <v>0.424709</v>
       </c>
       <c r="D31" t="n">
-        <v>0.247816</v>
+        <v>0.246821</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.285114</v>
+        <v>0.286313</v>
       </c>
       <c r="C32" t="n">
-        <v>0.213793</v>
+        <v>0.439979</v>
       </c>
       <c r="D32" t="n">
-        <v>0.247882</v>
+        <v>0.245831</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.27437</v>
+        <v>0.275266</v>
       </c>
       <c r="C33" t="n">
-        <v>0.213221</v>
+        <v>0.456756</v>
       </c>
       <c r="D33" t="n">
-        <v>0.247003</v>
+        <v>0.244715</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.262357</v>
+        <v>0.262439</v>
       </c>
       <c r="C34" t="n">
-        <v>0.212578</v>
+        <v>0.478072</v>
       </c>
       <c r="D34" t="n">
-        <v>0.245076</v>
+        <v>0.244079</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.249038</v>
+        <v>0.248898</v>
       </c>
       <c r="C35" t="n">
-        <v>0.212421</v>
+        <v>0.498137</v>
       </c>
       <c r="D35" t="n">
-        <v>0.244808</v>
+        <v>0.242951</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.23597</v>
+        <v>0.234263</v>
       </c>
       <c r="C36" t="n">
-        <v>0.212059</v>
+        <v>0.522581</v>
       </c>
       <c r="D36" t="n">
-        <v>0.243608</v>
+        <v>0.24249</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.220202</v>
+        <v>0.218946</v>
       </c>
       <c r="C37" t="n">
-        <v>0.212455</v>
+        <v>0.526989</v>
       </c>
       <c r="D37" t="n">
-        <v>0.261956</v>
+        <v>0.258546</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.35222</v>
+        <v>0.355527</v>
       </c>
       <c r="C38" t="n">
-        <v>0.229666</v>
+        <v>0.52316</v>
       </c>
       <c r="D38" t="n">
-        <v>0.259893</v>
+        <v>0.256623</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.347476</v>
+        <v>0.35113</v>
       </c>
       <c r="C39" t="n">
-        <v>0.226731</v>
+        <v>0.519397</v>
       </c>
       <c r="D39" t="n">
-        <v>0.257415</v>
+        <v>0.254809</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.341212</v>
+        <v>0.34439</v>
       </c>
       <c r="C40" t="n">
-        <v>0.22365</v>
+        <v>0.518862</v>
       </c>
       <c r="D40" t="n">
-        <v>0.256479</v>
+        <v>0.253404</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.334749</v>
+        <v>0.337958</v>
       </c>
       <c r="C41" t="n">
-        <v>0.220821</v>
+        <v>0.518387</v>
       </c>
       <c r="D41" t="n">
-        <v>0.254525</v>
+        <v>0.252166</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.327785</v>
+        <v>0.329609</v>
       </c>
       <c r="C42" t="n">
-        <v>0.219244</v>
+        <v>0.5165960000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.252468</v>
+        <v>0.250679</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.319628</v>
+        <v>0.322028</v>
       </c>
       <c r="C43" t="n">
-        <v>0.21801</v>
+        <v>0.51879</v>
       </c>
       <c r="D43" t="n">
-        <v>0.250818</v>
+        <v>0.249524</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.310944</v>
+        <v>0.312971</v>
       </c>
       <c r="C44" t="n">
-        <v>0.216743</v>
+        <v>0.521473</v>
       </c>
       <c r="D44" t="n">
-        <v>0.249334</v>
+        <v>0.248583</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.302122</v>
+        <v>0.302802</v>
       </c>
       <c r="C45" t="n">
-        <v>0.216179</v>
+        <v>0.525388</v>
       </c>
       <c r="D45" t="n">
-        <v>0.247856</v>
+        <v>0.247291</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.291448</v>
+        <v>0.291498</v>
       </c>
       <c r="C46" t="n">
-        <v>0.214152</v>
+        <v>0.531226</v>
       </c>
       <c r="D46" t="n">
-        <v>0.247408</v>
+        <v>0.246102</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.280224</v>
+        <v>0.279228</v>
       </c>
       <c r="C47" t="n">
-        <v>0.214305</v>
+        <v>0.538285</v>
       </c>
       <c r="D47" t="n">
-        <v>0.246445</v>
+        <v>0.245703</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.268514</v>
+        <v>0.266555</v>
       </c>
       <c r="C48" t="n">
-        <v>0.212639</v>
+        <v>0.5462939999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.246494</v>
+        <v>0.244723</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.256445</v>
+        <v>0.253268</v>
       </c>
       <c r="C49" t="n">
-        <v>0.212517</v>
+        <v>0.564237</v>
       </c>
       <c r="D49" t="n">
-        <v>0.245361</v>
+        <v>0.243721</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.242197</v>
+        <v>0.239164</v>
       </c>
       <c r="C50" t="n">
-        <v>0.212443</v>
+        <v>0.577009</v>
       </c>
       <c r="D50" t="n">
-        <v>0.246099</v>
+        <v>0.243157</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.226829</v>
+        <v>0.223506</v>
       </c>
       <c r="C51" t="n">
-        <v>0.211999</v>
+        <v>0.536641</v>
       </c>
       <c r="D51" t="n">
-        <v>0.261972</v>
+        <v>0.259018</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.210242</v>
+        <v>0.205811</v>
       </c>
       <c r="C52" t="n">
-        <v>0.211924</v>
+        <v>0.5303099999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.258834</v>
+        <v>0.256845</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.350812</v>
+        <v>0.353603</v>
       </c>
       <c r="C53" t="n">
-        <v>0.226695</v>
+        <v>0.532606</v>
       </c>
       <c r="D53" t="n">
-        <v>0.2564</v>
+        <v>0.255446</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.344699</v>
+        <v>0.347521</v>
       </c>
       <c r="C54" t="n">
-        <v>0.223624</v>
+        <v>0.526013</v>
       </c>
       <c r="D54" t="n">
-        <v>0.255421</v>
+        <v>0.253771</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.338421</v>
+        <v>0.340995</v>
       </c>
       <c r="C55" t="n">
-        <v>0.220666</v>
+        <v>0.530788</v>
       </c>
       <c r="D55" t="n">
-        <v>0.253498</v>
+        <v>0.252452</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.331327</v>
+        <v>0.333254</v>
       </c>
       <c r="C56" t="n">
-        <v>0.220001</v>
+        <v>0.529347</v>
       </c>
       <c r="D56" t="n">
-        <v>0.251467</v>
+        <v>0.251474</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.323193</v>
+        <v>0.324739</v>
       </c>
       <c r="C57" t="n">
-        <v>0.21833</v>
+        <v>0.530744</v>
       </c>
       <c r="D57" t="n">
-        <v>0.250255</v>
+        <v>0.250068</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.314277</v>
+        <v>0.315631</v>
       </c>
       <c r="C58" t="n">
-        <v>0.217629</v>
+        <v>0.5324989999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>0.249109</v>
+        <v>0.248818</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.305662</v>
+        <v>0.305827</v>
       </c>
       <c r="C59" t="n">
-        <v>0.214923</v>
+        <v>0.5369390000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.247846</v>
+        <v>0.247407</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.295243</v>
+        <v>0.295474</v>
       </c>
       <c r="C60" t="n">
-        <v>0.214151</v>
+        <v>0.54077</v>
       </c>
       <c r="D60" t="n">
-        <v>0.246847</v>
+        <v>0.246326</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.284208</v>
+        <v>0.284212</v>
       </c>
       <c r="C61" t="n">
-        <v>0.213753</v>
+        <v>0.551149</v>
       </c>
       <c r="D61" t="n">
-        <v>0.246022</v>
+        <v>0.245548</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272341</v>
+        <v>0.27206</v>
       </c>
       <c r="C62" t="n">
-        <v>0.213002</v>
+        <v>0.55821</v>
       </c>
       <c r="D62" t="n">
-        <v>0.245395</v>
+        <v>0.244692</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.259859</v>
+        <v>0.257373</v>
       </c>
       <c r="C63" t="n">
-        <v>0.21254</v>
+        <v>0.570098</v>
       </c>
       <c r="D63" t="n">
-        <v>0.244685</v>
+        <v>0.243966</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.245976</v>
+        <v>0.24279</v>
       </c>
       <c r="C64" t="n">
-        <v>0.212203</v>
+        <v>0.585441</v>
       </c>
       <c r="D64" t="n">
-        <v>0.243887</v>
+        <v>0.243165</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.230616</v>
+        <v>0.227333</v>
       </c>
       <c r="C65" t="n">
-        <v>0.212024</v>
+        <v>0.543866</v>
       </c>
       <c r="D65" t="n">
-        <v>0.243561</v>
+        <v>0.242709</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.213991</v>
+        <v>0.210969</v>
       </c>
       <c r="C66" t="n">
-        <v>0.21212</v>
+        <v>0.543122</v>
       </c>
       <c r="D66" t="n">
-        <v>0.259518</v>
+        <v>0.257938</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.352498</v>
+        <v>0.356065</v>
       </c>
       <c r="C67" t="n">
-        <v>0.22823</v>
+        <v>0.540984</v>
       </c>
       <c r="D67" t="n">
-        <v>0.25699</v>
+        <v>0.256076</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.347109</v>
+        <v>0.350303</v>
       </c>
       <c r="C68" t="n">
-        <v>0.224321</v>
+        <v>0.538372</v>
       </c>
       <c r="D68" t="n">
-        <v>0.254936</v>
+        <v>0.254546</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.34084</v>
+        <v>0.343617</v>
       </c>
       <c r="C69" t="n">
-        <v>0.221218</v>
+        <v>0.537664</v>
       </c>
       <c r="D69" t="n">
-        <v>0.253406</v>
+        <v>0.252765</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.333497</v>
+        <v>0.336095</v>
       </c>
       <c r="C70" t="n">
-        <v>0.21927</v>
+        <v>0.533877</v>
       </c>
       <c r="D70" t="n">
-        <v>0.251614</v>
+        <v>0.251579</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.325582</v>
+        <v>0.328024</v>
       </c>
       <c r="C71" t="n">
-        <v>0.218369</v>
+        <v>0.53624</v>
       </c>
       <c r="D71" t="n">
-        <v>0.250622</v>
+        <v>0.250261</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.317148</v>
+        <v>0.319575</v>
       </c>
       <c r="C72" t="n">
-        <v>0.217217</v>
+        <v>0.535476</v>
       </c>
       <c r="D72" t="n">
-        <v>0.249787</v>
+        <v>0.249234</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.307655</v>
+        <v>0.309501</v>
       </c>
       <c r="C73" t="n">
-        <v>0.216544</v>
+        <v>0.543086</v>
       </c>
       <c r="D73" t="n">
-        <v>0.248265</v>
+        <v>0.248087</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.297805</v>
+        <v>0.298724</v>
       </c>
       <c r="C74" t="n">
-        <v>0.214459</v>
+        <v>0.5490429999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.247746</v>
+        <v>0.246996</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.286928</v>
+        <v>0.287516</v>
       </c>
       <c r="C75" t="n">
-        <v>0.213812</v>
+        <v>0.555225</v>
       </c>
       <c r="D75" t="n">
-        <v>0.24691</v>
+        <v>0.245942</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.275744</v>
+        <v>0.275325</v>
       </c>
       <c r="C76" t="n">
-        <v>0.213318</v>
+        <v>0.564212</v>
       </c>
       <c r="D76" t="n">
-        <v>0.24573</v>
+        <v>0.245208</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.263133</v>
+        <v>0.262821</v>
       </c>
       <c r="C77" t="n">
-        <v>0.212616</v>
+        <v>0.571394</v>
       </c>
       <c r="D77" t="n">
-        <v>0.244829</v>
+        <v>0.244479</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.249318</v>
+        <v>0.247148</v>
       </c>
       <c r="C78" t="n">
-        <v>0.212025</v>
+        <v>0.588765</v>
       </c>
       <c r="D78" t="n">
-        <v>0.243947</v>
+        <v>0.243749</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.234419</v>
+        <v>0.233718</v>
       </c>
       <c r="C79" t="n">
-        <v>0.212034</v>
+        <v>0.564675</v>
       </c>
       <c r="D79" t="n">
-        <v>0.244202</v>
+        <v>0.242879</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.218718</v>
+        <v>0.21703</v>
       </c>
       <c r="C80" t="n">
-        <v>0.211749</v>
+        <v>0.564009</v>
       </c>
       <c r="D80" t="n">
-        <v>0.260287</v>
+        <v>0.259759</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.353717</v>
+        <v>0.35734</v>
       </c>
       <c r="C81" t="n">
-        <v>0.227636</v>
+        <v>0.554903</v>
       </c>
       <c r="D81" t="n">
-        <v>0.257634</v>
+        <v>0.257553</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.348302</v>
+        <v>0.351988</v>
       </c>
       <c r="C82" t="n">
-        <v>0.223706</v>
+        <v>0.559203</v>
       </c>
       <c r="D82" t="n">
-        <v>0.255814</v>
+        <v>0.255466</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.341908</v>
+        <v>0.345857</v>
       </c>
       <c r="C83" t="n">
-        <v>0.221297</v>
+        <v>0.557341</v>
       </c>
       <c r="D83" t="n">
-        <v>0.25387</v>
+        <v>0.253742</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.335015</v>
+        <v>0.338402</v>
       </c>
       <c r="C84" t="n">
-        <v>0.219433</v>
+        <v>0.552856</v>
       </c>
       <c r="D84" t="n">
-        <v>0.252577</v>
+        <v>0.252515</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.327429</v>
+        <v>0.33032</v>
       </c>
       <c r="C85" t="n">
-        <v>0.218422</v>
+        <v>0.552526</v>
       </c>
       <c r="D85" t="n">
-        <v>0.251268</v>
+        <v>0.250966</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.318981</v>
+        <v>0.321154</v>
       </c>
       <c r="C86" t="n">
-        <v>0.217646</v>
+        <v>0.552695</v>
       </c>
       <c r="D86" t="n">
-        <v>0.249941</v>
+        <v>0.249701</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.309765</v>
+        <v>0.311208</v>
       </c>
       <c r="C87" t="n">
-        <v>0.21654</v>
+        <v>0.558496</v>
       </c>
       <c r="D87" t="n">
-        <v>0.248676</v>
+        <v>0.248387</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.30008</v>
+        <v>0.300652</v>
       </c>
       <c r="C88" t="n">
-        <v>0.215783</v>
+        <v>0.566458</v>
       </c>
       <c r="D88" t="n">
-        <v>0.2475</v>
+        <v>0.247405</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.289726</v>
+        <v>0.290432</v>
       </c>
       <c r="C89" t="n">
-        <v>0.213639</v>
+        <v>0.567558</v>
       </c>
       <c r="D89" t="n">
-        <v>0.246853</v>
+        <v>0.246356</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.278155</v>
+        <v>0.278414</v>
       </c>
       <c r="C90" t="n">
-        <v>0.213049</v>
+        <v>0.5730730000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.245945</v>
+        <v>0.2455</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.265661</v>
+        <v>0.265023</v>
       </c>
       <c r="C91" t="n">
-        <v>0.21268</v>
+        <v>0.588708</v>
       </c>
       <c r="D91" t="n">
-        <v>0.245318</v>
+        <v>0.244686</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.252029</v>
+        <v>0.251546</v>
       </c>
       <c r="C92" t="n">
-        <v>0.212279</v>
+        <v>0.598915</v>
       </c>
       <c r="D92" t="n">
-        <v>0.244644</v>
+        <v>0.24399</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.238111</v>
+        <v>0.236279</v>
       </c>
       <c r="C93" t="n">
-        <v>0.211718</v>
+        <v>0.621352</v>
       </c>
       <c r="D93" t="n">
-        <v>0.244076</v>
+        <v>0.243393</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.222059</v>
+        <v>0.219819</v>
       </c>
       <c r="C94" t="n">
-        <v>0.211652</v>
+        <v>0.74399</v>
       </c>
       <c r="D94" t="n">
-        <v>0.261143</v>
+        <v>0.261451</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.354976</v>
+        <v>0.359169</v>
       </c>
       <c r="C95" t="n">
-        <v>0.227674</v>
+        <v>0.747064</v>
       </c>
       <c r="D95" t="n">
-        <v>0.258373</v>
+        <v>0.258429</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.349725</v>
+        <v>0.353797</v>
       </c>
       <c r="C96" t="n">
-        <v>0.224243</v>
+        <v>0.735394</v>
       </c>
       <c r="D96" t="n">
-        <v>0.256255</v>
+        <v>0.256462</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.343847</v>
+        <v>0.347573</v>
       </c>
       <c r="C97" t="n">
-        <v>0.222188</v>
+        <v>0.754394</v>
       </c>
       <c r="D97" t="n">
-        <v>0.254404</v>
+        <v>0.254599</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.337238</v>
+        <v>0.340581</v>
       </c>
       <c r="C98" t="n">
-        <v>0.22002</v>
+        <v>0.767792</v>
       </c>
       <c r="D98" t="n">
-        <v>0.252887</v>
+        <v>0.253067</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.329129</v>
+        <v>0.332571</v>
       </c>
       <c r="C99" t="n">
-        <v>0.218997</v>
+        <v>0.752773</v>
       </c>
       <c r="D99" t="n">
-        <v>0.251444</v>
+        <v>0.251646</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.320946</v>
+        <v>0.324042</v>
       </c>
       <c r="C100" t="n">
-        <v>0.217684</v>
+        <v>0.7730939999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>0.250414</v>
+        <v>0.250268</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.31201</v>
+        <v>0.313637</v>
       </c>
       <c r="C101" t="n">
-        <v>0.216665</v>
+        <v>0.74534</v>
       </c>
       <c r="D101" t="n">
-        <v>0.24943</v>
+        <v>0.249193</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.302315</v>
+        <v>0.304058</v>
       </c>
       <c r="C102" t="n">
-        <v>0.215737</v>
+        <v>0.777544</v>
       </c>
       <c r="D102" t="n">
-        <v>0.248459</v>
+        <v>0.247956</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.29212</v>
+        <v>0.293073</v>
       </c>
       <c r="C103" t="n">
-        <v>0.2142</v>
+        <v>0.750856</v>
       </c>
       <c r="D103" t="n">
-        <v>0.247274</v>
+        <v>0.246831</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.280802</v>
+        <v>0.281433</v>
       </c>
       <c r="C104" t="n">
-        <v>0.214503</v>
+        <v>0.80077</v>
       </c>
       <c r="D104" t="n">
-        <v>0.246266</v>
+        <v>0.246127</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.268558</v>
+        <v>0.268231</v>
       </c>
       <c r="C105" t="n">
-        <v>0.213908</v>
+        <v>0.817234</v>
       </c>
       <c r="D105" t="n">
-        <v>0.245461</v>
+        <v>0.245349</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.255341</v>
+        <v>0.254464</v>
       </c>
       <c r="C106" t="n">
-        <v>0.212195</v>
+        <v>0.832589</v>
       </c>
       <c r="D106" t="n">
-        <v>0.244595</v>
+        <v>0.244632</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.241059</v>
+        <v>0.238001</v>
       </c>
       <c r="C107" t="n">
-        <v>0.211855</v>
+        <v>0.79909</v>
       </c>
       <c r="D107" t="n">
-        <v>0.244099</v>
+        <v>0.24405</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.225606</v>
+        <v>0.224119</v>
       </c>
       <c r="C108" t="n">
-        <v>0.211521</v>
+        <v>0.911413</v>
       </c>
       <c r="D108" t="n">
-        <v>0.261439</v>
+        <v>0.262041</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.208999</v>
+        <v>0.204868</v>
       </c>
       <c r="C109" t="n">
-        <v>0.211327</v>
+        <v>0.945047</v>
       </c>
       <c r="D109" t="n">
-        <v>0.25902</v>
+        <v>0.259774</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.350777</v>
+        <v>0.354729</v>
       </c>
       <c r="C110" t="n">
-        <v>0.224595</v>
+        <v>0.946484</v>
       </c>
       <c r="D110" t="n">
-        <v>0.256914</v>
+        <v>0.257267</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.344767</v>
+        <v>0.348563</v>
       </c>
       <c r="C111" t="n">
-        <v>0.222093</v>
+        <v>0.908675</v>
       </c>
       <c r="D111" t="n">
-        <v>0.255007</v>
+        <v>0.255497</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.338124</v>
+        <v>0.341676</v>
       </c>
       <c r="C112" t="n">
-        <v>0.22037</v>
+        <v>0.87812</v>
       </c>
       <c r="D112" t="n">
-        <v>0.253508</v>
+        <v>0.253997</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.330831</v>
+        <v>0.333757</v>
       </c>
       <c r="C113" t="n">
-        <v>0.218878</v>
+        <v>0.97368</v>
       </c>
       <c r="D113" t="n">
-        <v>0.251827</v>
+        <v>0.252367</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.322726</v>
+        <v>0.324898</v>
       </c>
       <c r="C114" t="n">
-        <v>0.217782</v>
+        <v>1.01137</v>
       </c>
       <c r="D114" t="n">
-        <v>0.250672</v>
+        <v>0.251014</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.313882</v>
+        <v>0.316465</v>
       </c>
       <c r="C115" t="n">
-        <v>0.216794</v>
+        <v>1.01153</v>
       </c>
       <c r="D115" t="n">
-        <v>0.250232</v>
+        <v>0.250347</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.304259</v>
+        <v>0.306409</v>
       </c>
       <c r="C116" t="n">
-        <v>0.216008</v>
+        <v>1.05339</v>
       </c>
       <c r="D116" t="n">
-        <v>0.249214</v>
+        <v>0.249134</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.293755</v>
+        <v>0.295602</v>
       </c>
       <c r="C117" t="n">
-        <v>0.214218</v>
+        <v>1.07636</v>
       </c>
       <c r="D117" t="n">
-        <v>0.248011</v>
+        <v>0.247864</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.283002</v>
+        <v>0.284035</v>
       </c>
       <c r="C118" t="n">
-        <v>0.214935</v>
+        <v>1.10507</v>
       </c>
       <c r="D118" t="n">
-        <v>0.24708</v>
+        <v>0.246859</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.271169</v>
+        <v>0.271362</v>
       </c>
       <c r="C119" t="n">
-        <v>0.214274</v>
+        <v>1.13875</v>
       </c>
       <c r="D119" t="n">
-        <v>0.246326</v>
+        <v>0.246386</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.258331</v>
+        <v>0.258301</v>
       </c>
       <c r="C120" t="n">
-        <v>0.213827</v>
+        <v>1.17249</v>
       </c>
       <c r="D120" t="n">
-        <v>0.245705</v>
+        <v>0.245858</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.244347</v>
+        <v>0.243591</v>
       </c>
       <c r="C121" t="n">
-        <v>0.21336</v>
+        <v>1.12213</v>
       </c>
       <c r="D121" t="n">
-        <v>0.245097</v>
+        <v>0.245061</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.229366</v>
+        <v>0.227159</v>
       </c>
       <c r="C122" t="n">
-        <v>0.211959</v>
+        <v>1.08287</v>
       </c>
       <c r="D122" t="n">
-        <v>0.244774</v>
+        <v>0.244235</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.212762</v>
+        <v>0.209404</v>
       </c>
       <c r="C123" t="n">
-        <v>0.211688</v>
+        <v>1.07367</v>
       </c>
       <c r="D123" t="n">
-        <v>0.260241</v>
+        <v>0.260797</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.351768</v>
+        <v>0.356097</v>
       </c>
       <c r="C124" t="n">
-        <v>0.225509</v>
+        <v>1.11709</v>
       </c>
       <c r="D124" t="n">
-        <v>0.258272</v>
+        <v>0.258654</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.345986</v>
+        <v>0.350083</v>
       </c>
       <c r="C125" t="n">
-        <v>0.222647</v>
+        <v>1.13094</v>
       </c>
       <c r="D125" t="n">
-        <v>0.256088</v>
+        <v>0.256135</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.339436</v>
+        <v>0.343218</v>
       </c>
       <c r="C126" t="n">
-        <v>0.220776</v>
+        <v>1.08935</v>
       </c>
       <c r="D126" t="n">
-        <v>0.254683</v>
+        <v>0.25518</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.332237</v>
+        <v>0.335736</v>
       </c>
       <c r="C127" t="n">
-        <v>0.21927</v>
+        <v>1.16443</v>
       </c>
       <c r="D127" t="n">
-        <v>0.252987</v>
+        <v>0.253516</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.32422</v>
+        <v>0.327168</v>
       </c>
       <c r="C128" t="n">
-        <v>0.217895</v>
+        <v>1.18271</v>
       </c>
       <c r="D128" t="n">
-        <v>0.251546</v>
+        <v>0.252167</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.315395</v>
+        <v>0.317989</v>
       </c>
       <c r="C129" t="n">
-        <v>0.216917</v>
+        <v>1.2074</v>
       </c>
       <c r="D129" t="n">
-        <v>0.250307</v>
+        <v>0.251181</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.305948</v>
+        <v>0.308456</v>
       </c>
       <c r="C130" t="n">
-        <v>0.216147</v>
+        <v>1.24046</v>
       </c>
       <c r="D130" t="n">
-        <v>0.249411</v>
+        <v>0.249811</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.29588</v>
+        <v>0.297051</v>
       </c>
       <c r="C131" t="n">
-        <v>0.215393</v>
+        <v>1.2225</v>
       </c>
       <c r="D131" t="n">
-        <v>0.248682</v>
+        <v>0.24866</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.284974</v>
+        <v>0.285289</v>
       </c>
       <c r="C132" t="n">
-        <v>0.214657</v>
+        <v>1.23814</v>
       </c>
       <c r="D132" t="n">
-        <v>0.247882</v>
+        <v>0.247598</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.273108</v>
+        <v>0.272099</v>
       </c>
       <c r="C133" t="n">
-        <v>0.212717</v>
+        <v>1.33131</v>
       </c>
       <c r="D133" t="n">
-        <v>0.246744</v>
+        <v>0.246445</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.260445</v>
+        <v>0.259375</v>
       </c>
       <c r="C134" t="n">
-        <v>0.21211</v>
+        <v>1.37243</v>
       </c>
       <c r="D134" t="n">
-        <v>0.246317</v>
+        <v>0.246465</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.246717</v>
+        <v>0.24421</v>
       </c>
       <c r="C135" t="n">
-        <v>0.211689</v>
+        <v>1.41482</v>
       </c>
       <c r="D135" t="n">
-        <v>0.24548</v>
+        <v>0.245819</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.231946</v>
+        <v>0.229184</v>
       </c>
       <c r="C136" t="n">
-        <v>0.212746</v>
+        <v>1.22681</v>
       </c>
       <c r="D136" t="n">
-        <v>0.244782</v>
+        <v>0.24484</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.215904</v>
+        <v>0.212311</v>
       </c>
       <c r="C137" t="n">
-        <v>0.211669</v>
+        <v>1.22003</v>
       </c>
       <c r="D137" t="n">
-        <v>0.262066</v>
+        <v>0.261706</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.352769</v>
+        <v>0.358075</v>
       </c>
       <c r="C138" t="n">
-        <v>0.226895</v>
+        <v>1.2328</v>
       </c>
       <c r="D138" t="n">
-        <v>0.259053</v>
+        <v>0.25938</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.347376</v>
+        <v>0.351638</v>
       </c>
       <c r="C139" t="n">
-        <v>0.223678</v>
+        <v>1.22035</v>
       </c>
       <c r="D139" t="n">
-        <v>0.258213</v>
+        <v>0.257574</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.341092</v>
+        <v>0.345385</v>
       </c>
       <c r="C140" t="n">
-        <v>0.221388</v>
+        <v>1.23141</v>
       </c>
       <c r="D140" t="n">
-        <v>0.255814</v>
+        <v>0.256357</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.334029</v>
+        <v>0.337655</v>
       </c>
       <c r="C141" t="n">
-        <v>0.219656</v>
+        <v>1.24631</v>
       </c>
       <c r="D141" t="n">
-        <v>0.254566</v>
+        <v>0.254793</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.326041</v>
+        <v>0.329592</v>
       </c>
       <c r="C142" t="n">
-        <v>0.2185</v>
+        <v>1.26353</v>
       </c>
       <c r="D142" t="n">
-        <v>0.253392</v>
+        <v>0.253668</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.317453</v>
+        <v>0.32017</v>
       </c>
       <c r="C143" t="n">
-        <v>0.217378</v>
+        <v>1.29699</v>
       </c>
       <c r="D143" t="n">
-        <v>0.251435</v>
+        <v>0.251805</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -93,7 +93,15 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +561,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.28096</v>
+                  <v>0.0641531</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.275285</v>
+                  <v>0.0641417</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.260227</v>
+                  <v>0.0639055</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.249344</v>
+                  <v>0.0642133</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.236975</v>
+                  <v>0.06474820000000001</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.225674</v>
+                  <v>0.06536599999999999</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.210202</v>
+                  <v>0.0651717</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.194356</v>
+                  <v>0.06583840000000001</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.334027</v>
+                  <v>0.0890715</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.329254</v>
+                  <v>0.0891439</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.323249</v>
+                  <v>0.088877</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.318197</v>
+                  <v>0.0889416</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.311484</v>
+                  <v>0.0880235</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.301987</v>
+                  <v>0.0873052</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.293769</v>
+                  <v>0.08651929999999999</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.283186</v>
+                  <v>0.08555</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.274789</v>
+                  <v>0.08422979999999999</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.264307</v>
+                  <v>0.08232540000000001</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.253335</v>
+                  <v>0.0812894</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.240375</v>
+                  <v>0.0828969</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.225843</v>
+                  <v>0.08242620000000001</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.209111</v>
+                  <v>0.0803682</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.347854</v>
+                  <v>0.130945</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.342351</v>
+                  <v>0.13039</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.335171</v>
+                  <v>0.128396</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.3287</v>
+                  <v>0.126</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.321793</v>
+                  <v>0.122747</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.313509</v>
+                  <v>0.120164</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.304099</v>
+                  <v>0.117158</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.294429</v>
+                  <v>0.114482</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.283902</v>
+                  <v>0.110654</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.273734</v>
+                  <v>0.106787</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.261908</v>
+                  <v>0.10302</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.247935</v>
+                  <v>0.09905659999999999</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.234331</v>
+                  <v>0.0947708</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.21972</v>
+                  <v>0.0912707</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.351019</v>
+                  <v>0.15299</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.347109</v>
+                  <v>0.149699</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.341148</v>
+                  <v>0.145819</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.334155</v>
+                  <v>0.142408</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.326696</v>
+                  <v>0.138561</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.319361</v>
+                  <v>0.134735</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.310476</v>
+                  <v>0.13049</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.301515</v>
+                  <v>0.126237</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.290456</v>
+                  <v>0.121969</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.279872</v>
+                  <v>0.117384</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.268143</v>
+                  <v>0.112872</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.255679</v>
+                  <v>0.107687</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.241931</v>
+                  <v>0.102518</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.2267</v>
+                  <v>0.097793</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.209666</v>
+                  <v>0.0929044</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.349707</v>
+                  <v>0.156627</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.344393</v>
+                  <v>0.152789</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.338195</v>
+                  <v>0.148886</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.330917</v>
+                  <v>0.14427</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.3224</v>
+                  <v>0.139987</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.313751</v>
+                  <v>0.135316</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.304247</v>
+                  <v>0.130625</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.294116</v>
+                  <v>0.125715</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.283229</v>
+                  <v>0.120655</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.27188</v>
+                  <v>0.115997</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.259034</v>
+                  <v>0.11107</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.245623</v>
+                  <v>0.105984</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.230273</v>
+                  <v>0.101445</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.213342</v>
+                  <v>0.0964059</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.352417</v>
+                  <v>0.160513</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.346913</v>
+                  <v>0.156502</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.34069</v>
+                  <v>0.152045</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.33338</v>
+                  <v>0.147806</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.325287</v>
+                  <v>0.143057</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.316404</v>
+                  <v>0.138315</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.30706</v>
+                  <v>0.133812</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.297067</v>
+                  <v>0.1287</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.286289</v>
+                  <v>0.123811</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.275097</v>
+                  <v>0.118628</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.262689</v>
+                  <v>0.11366</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.248989</v>
+                  <v>0.108714</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.234185</v>
+                  <v>0.1037</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.218351</v>
+                  <v>0.0989589</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.353918</v>
+                  <v>0.16153</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.348163</v>
+                  <v>0.157354</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.341876</v>
+                  <v>0.153056</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.334423</v>
+                  <v>0.148496</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.326677</v>
+                  <v>0.143805</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.318483</v>
+                  <v>0.138941</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.309192</v>
+                  <v>0.134036</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.299657</v>
+                  <v>0.12898</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.289052</v>
+                  <v>0.124047</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.277682</v>
+                  <v>0.119119</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.265329</v>
+                  <v>0.114214</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.251956</v>
+                  <v>0.109355</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.237928</v>
+                  <v>0.104326</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.221988</v>
+                  <v>0.0995196</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.355226</v>
+                  <v>0.162541</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.349632</v>
+                  <v>0.158578</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.343221</v>
+                  <v>0.154191</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.336572</v>
+                  <v>0.149705</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.32902</v>
+                  <v>0.144991</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.320108</v>
+                  <v>0.140036</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.311141</v>
+                  <v>0.135058</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.30161</v>
+                  <v>0.130142</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.29136</v>
+                  <v>0.12503</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.280099</v>
+                  <v>0.120231</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.267905</v>
+                  <v>0.115215</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.254834</v>
+                  <v>0.110352</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.241048</v>
+                  <v>0.105395</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.225455</v>
+                  <v>0.100493</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.209024</v>
+                  <v>0.0955453</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.350837</v>
+                  <v>0.159334</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.344389</v>
+                  <v>0.155161</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.33797</v>
+                  <v>0.150658</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.330553</v>
+                  <v>0.145997</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.322178</v>
+                  <v>0.141009</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.313349</v>
+                  <v>0.136065</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.303814</v>
+                  <v>0.131067</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.293692</v>
+                  <v>0.126055</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.282839</v>
+                  <v>0.121106</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.270756</v>
+                  <v>0.116169</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.258147</v>
+                  <v>0.11124</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.244214</v>
+                  <v>0.106338</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.229059</v>
+                  <v>0.10148</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.212331</v>
+                  <v>0.0966804</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.352099</v>
+                  <v>0.162912</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.346249</v>
+                  <v>0.158517</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.339646</v>
+                  <v>0.1538</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.332407</v>
+                  <v>0.148946</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.324287</v>
+                  <v>0.149784</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.315583</v>
+                  <v>0.144275</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.305883</v>
+                  <v>0.138341</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.295897</v>
+                  <v>0.133876</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.285083</v>
+                  <v>0.127861</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.273328</v>
+                  <v>0.123254</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.260703</v>
+                  <v>0.118096</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.246882</v>
+                  <v>0.112946</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.232078</v>
+                  <v>0.107887</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.215942</v>
+                  <v>0.10276</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.352911</v>
+                  <v>0.170386</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.347437</v>
+                  <v>0.165981</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.340815</v>
+                  <v>0.161275</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.333681</v>
+                  <v>0.1562</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.325639</v>
+                  <v>0.150804</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.317122</v>
+                  <v>0.145563</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +995,15 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>ankerl::unordered_dense::map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1463,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.195912</v>
+                  <v>0.0575077</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.19706</v>
+                  <v>0.0598211</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.196006</v>
+                  <v>0.0649882</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.196838</v>
+                  <v>0.07328460000000001</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.197821</v>
+                  <v>0.09369329999999999</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.198401</v>
+                  <v>0.111546</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.198864</v>
+                  <v>0.06318840000000001</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.198849</v>
+                  <v>0.06369279999999999</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.216994</v>
+                  <v>0.064666</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.216483</v>
+                  <v>0.0662118</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.215332</v>
+                  <v>0.0703285</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.213636</v>
+                  <v>0.0767543</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.212433</v>
+                  <v>0.0847386</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.212771</v>
+                  <v>0.0924473</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.212356</v>
+                  <v>0.103137</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.21158</v>
+                  <v>0.117766</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.211342</v>
+                  <v>0.138113</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.211014</v>
+                  <v>0.157701</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.21131</v>
+                  <v>0.183703</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.211178</v>
+                  <v>0.219332</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.210535</v>
+                  <v>0.0967408</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.211058</v>
+                  <v>0.101705</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.225388</v>
+                  <v>0.110323</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.222286</v>
+                  <v>0.118336</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.221108</v>
+                  <v>0.125077</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.218269</v>
+                  <v>0.131743</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.216629</v>
+                  <v>0.136642</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.216104</v>
+                  <v>0.159372</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.215542</v>
+                  <v>0.164708</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.214565</v>
+                  <v>0.180538</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.214083</v>
+                  <v>0.189276</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.213151</v>
+                  <v>0.205969</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.212756</v>
+                  <v>0.226981</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.212244</v>
+                  <v>0.25275</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.212313</v>
+                  <v>0.280765</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.212479</v>
+                  <v>0.125211</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.231716</v>
+                  <v>0.128879</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.228089</v>
+                  <v>0.139033</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.225541</v>
+                  <v>0.143689</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.221715</v>
+                  <v>0.153829</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.219716</v>
+                  <v>0.162005</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.217608</v>
+                  <v>0.17317</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.216079</v>
+                  <v>0.180018</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.215361</v>
+                  <v>0.189111</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.214512</v>
+                  <v>0.20117</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.213976</v>
+                  <v>0.218393</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.213395</v>
+                  <v>0.234699</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.213081</v>
+                  <v>0.256116</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.212729</v>
+                  <v>0.28101</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.212137</v>
+                  <v>0.134014</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.211929</v>
+                  <v>0.138441</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.226985</v>
+                  <v>0.144747</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.224765</v>
+                  <v>0.151243</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.221165</v>
+                  <v>0.158688</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.219252</v>
+                  <v>0.168342</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.217853</v>
+                  <v>0.174264</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.216655</v>
+                  <v>0.18304</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.215205</v>
+                  <v>0.195721</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.21459</v>
+                  <v>0.209809</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.213892</v>
+                  <v>0.221223</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.213172</v>
+                  <v>0.238103</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.212503</v>
+                  <v>0.256781</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.212304</v>
+                  <v>0.278367</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.211984</v>
+                  <v>0.142277</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.211979</v>
+                  <v>0.147209</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.230208</v>
+                  <v>0.153107</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.224883</v>
+                  <v>0.15876</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.221567</v>
+                  <v>0.165429</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.219015</v>
+                  <v>0.172505</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.217904</v>
+                  <v>0.180261</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.216587</v>
+                  <v>0.189204</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.215397</v>
+                  <v>0.200303</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.214854</v>
+                  <v>0.212441</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.21402</v>
+                  <v>0.227473</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.21366</v>
+                  <v>0.24306</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.212863</v>
+                  <v>0.261431</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.212404</v>
+                  <v>0.283264</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.212223</v>
+                  <v>0.170899</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.211854</v>
+                  <v>0.176969</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.229933</v>
+                  <v>0.182018</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.224301</v>
+                  <v>0.187372</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.221634</v>
+                  <v>0.194064</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.219343</v>
+                  <v>0.200521</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.218126</v>
+                  <v>0.208855</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.217137</v>
+                  <v>0.217776</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.21601</v>
+                  <v>0.228866</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.214977</v>
+                  <v>0.241842</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.214757</v>
+                  <v>0.253365</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.213529</v>
+                  <v>0.270187</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.212993</v>
+                  <v>0.291567</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.212489</v>
+                  <v>0.313726</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.212003</v>
+                  <v>0.340231</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.21166</v>
+                  <v>0.247908</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.229306</v>
+                  <v>0.254082</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.225598</v>
+                  <v>0.259408</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.222495</v>
+                  <v>0.265515</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.219992</v>
+                  <v>0.271721</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.21844</v>
+                  <v>0.280084</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.217086</v>
+                  <v>0.290491</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.21603</v>
+                  <v>0.300365</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.215118</v>
+                  <v>0.313845</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.214407</v>
+                  <v>0.32929</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.213596</v>
+                  <v>0.348304</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.213057</v>
+                  <v>0.371064</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.212665</v>
+                  <v>0.399163</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.212</v>
+                  <v>0.429455</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.211712</v>
+                  <v>0.346596</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.211438</v>
+                  <v>0.351235</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.225697</v>
+                  <v>0.354989</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.222578</v>
+                  <v>0.36553</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.220709</v>
+                  <v>0.367381</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.21886</v>
+                  <v>0.377436</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.217834</v>
+                  <v>0.385652</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.21669</v>
+                  <v>0.39901</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.215701</v>
+                  <v>0.414407</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.214744</v>
+                  <v>0.432204</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.214672</v>
+                  <v>0.460297</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.213705</v>
+                  <v>0.491839</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.213054</v>
+                  <v>0.5331669999999999</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.212576</v>
+                  <v>0.583111</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.211978</v>
+                  <v>0.423701</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.211931</v>
+                  <v>0.425895</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.226236</v>
+                  <v>0.42969</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.222892</v>
+                  <v>0.434953</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.220768</v>
+                  <v>0.442049</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.219005</v>
+                  <v>0.449396</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.21759</v>
+                  <v>0.461779</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.216422</v>
+                  <v>0.47465</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.215617</v>
+                  <v>0.495717</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.214832</v>
+                  <v>0.512256</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.214082</v>
+                  <v>0.54552</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.213471</v>
+                  <v>0.582205</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.212914</v>
+                  <v>0.630783</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.212385</v>
+                  <v>0.693116</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.212004</v>
+                  <v>0.478361</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.212133</v>
+                  <v>0.479962</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.227952</v>
+                  <v>0.483763</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.224209</v>
+                  <v>0.488763</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.221617</v>
+                  <v>0.490947</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.21951</v>
+                  <v>0.518307</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.21815</v>
+                  <v>0.52015</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.217027</v>
+                  <v>0.53886</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1897,15 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>foa_unordered_rc15_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2365,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.231268</v>
+                  <v>0.157822</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.232151</v>
+                  <v>0.158856</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.233511</v>
+                  <v>0.159729</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.233102</v>
+                  <v>0.15887</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.233692</v>
+                  <v>0.160271</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.234047</v>
+                  <v>0.159772</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.236592</v>
+                  <v>0.159948</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.265773</v>
+                  <v>0.164801</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.256745</v>
+                  <v>0.165641</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.256613</v>
+                  <v>0.165795</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.277037</v>
+                  <v>0.166284</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.253983</v>
+                  <v>0.166196</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.253043</v>
+                  <v>0.166822</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.252393</v>
+                  <v>0.16633</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.274053</v>
+                  <v>0.166022</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.276569</v>
+                  <v>0.165367</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.249118</v>
+                  <v>0.165413</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.246154</v>
+                  <v>0.165358</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.247092</v>
+                  <v>0.165959</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.248933</v>
+                  <v>0.165915</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.247076</v>
+                  <v>0.167046</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.264081</v>
+                  <v>0.182004</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.263005</v>
+                  <v>0.179886</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.262406</v>
+                  <v>0.176643</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.261724</v>
+                  <v>0.176678</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.258214</v>
+                  <v>0.175759</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.256235</v>
+                  <v>0.175754</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.25501</v>
+                  <v>0.176854</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.253997</v>
+                  <v>0.175894</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.253212</v>
+                  <v>0.172402</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.252973</v>
+                  <v>0.17302</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.251955</v>
+                  <v>0.17105</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.250418</v>
+                  <v>0.170195</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.249931</v>
+                  <v>0.169719</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.25125</v>
+                  <v>0.168159</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.267948</v>
+                  <v>0.184916</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.265477</v>
+                  <v>0.183052</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.263563</v>
+                  <v>0.182508</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.261508</v>
+                  <v>0.181083</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.259424</v>
+                  <v>0.17982</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.258308</v>
+                  <v>0.178386</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.257397</v>
+                  <v>0.178092</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.255033</v>
+                  <v>0.176222</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.254953</v>
+                  <v>0.175981</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.252743</v>
+                  <v>0.174595</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.252257</v>
+                  <v>0.173326</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.251358</v>
+                  <v>0.171569</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.250701</v>
+                  <v>0.171515</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.252639</v>
+                  <v>0.169954</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.267618</v>
+                  <v>0.186997</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.26451</v>
+                  <v>0.185308</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.262485</v>
+                  <v>0.183876</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.261372</v>
+                  <v>0.182684</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.259083</v>
+                  <v>0.181455</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.258255</v>
+                  <v>0.180231</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.256473</v>
+                  <v>0.179365</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.254751</v>
+                  <v>0.177796</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.253478</v>
+                  <v>0.176715</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.252454</v>
+                  <v>0.175502</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.251959</v>
+                  <v>0.174353</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.251108</v>
+                  <v>0.173807</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.250374</v>
+                  <v>0.17214</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.249696</v>
+                  <v>0.170786</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.249233</v>
+                  <v>0.169619</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.267199</v>
+                  <v>0.186654</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.264368</v>
+                  <v>0.185313</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.261476</v>
+                  <v>0.183854</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.259992</v>
+                  <v>0.182476</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.258824</v>
+                  <v>0.181164</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.257234</v>
+                  <v>0.179912</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.255778</v>
+                  <v>0.178749</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.254864</v>
+                  <v>0.177311</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.25281</v>
+                  <v>0.176193</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.252056</v>
+                  <v>0.174878</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.251157</v>
+                  <v>0.173741</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.25035</v>
+                  <v>0.172506</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.249625</v>
+                  <v>0.171313</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.249799</v>
+                  <v>0.170248</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.267725</v>
+                  <v>0.187436</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.264639</v>
+                  <v>0.185778</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.26212</v>
+                  <v>0.184273</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.260398</v>
+                  <v>0.182842</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.258807</v>
+                  <v>0.181428</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.257237</v>
+                  <v>0.180248</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.256192</v>
+                  <v>0.17884</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.254682</v>
+                  <v>0.177651</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.253834</v>
+                  <v>0.176506</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.252277</v>
+                  <v>0.175158</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.251467</v>
+                  <v>0.17393</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.25073</v>
+                  <v>0.172921</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.250208</v>
+                  <v>0.171658</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.249795</v>
+                  <v>0.170365</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.268728</v>
+                  <v>0.187853</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.265368</v>
+                  <v>0.186208</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.263136</v>
+                  <v>0.18493</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.261588</v>
+                  <v>0.183349</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.259708</v>
+                  <v>0.181904</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.258439</v>
+                  <v>0.180677</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.257048</v>
+                  <v>0.17923</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.255861</v>
+                  <v>0.178029</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.25506</v>
+                  <v>0.17673</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.253643</v>
+                  <v>0.175554</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.252447</v>
+                  <v>0.174295</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.251631</v>
+                  <v>0.173194</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.25027</v>
+                  <v>0.17194</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.249676</v>
+                  <v>0.170673</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.267902</v>
+                  <v>0.18821</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.265381</v>
+                  <v>0.18648</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.263476</v>
+                  <v>0.185181</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.261695</v>
+                  <v>0.183927</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.259699</v>
+                  <v>0.18249</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.258738</v>
+                  <v>0.18114</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.257442</v>
+                  <v>0.179757</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.255897</v>
+                  <v>0.178537</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.254296</v>
+                  <v>0.177269</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.253976</v>
+                  <v>0.175893</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.253858</v>
+                  <v>0.174715</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.252652</v>
+                  <v>0.173489</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.251436</v>
+                  <v>0.172158</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.251373</v>
+                  <v>0.170948</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.249863</v>
+                  <v>0.169715</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.266506</v>
+                  <v>0.187153</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.26438</v>
+                  <v>0.185547</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.261884</v>
+                  <v>0.184049</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.260327</v>
+                  <v>0.182769</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.25828</v>
+                  <v>0.181451</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.257292</v>
+                  <v>0.180103</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.256414</v>
+                  <v>0.178785</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.255015</v>
+                  <v>0.177335</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.253526</v>
+                  <v>0.176054</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.252946</v>
+                  <v>0.174854</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.252272</v>
+                  <v>0.173636</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.251202</v>
+                  <v>0.172385</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.251597</v>
+                  <v>0.171224</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.251317</v>
+                  <v>0.170001</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.267088</v>
+                  <v>0.196784</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.264928</v>
+                  <v>0.194704</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.263676</v>
+                  <v>0.192719</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.26094</v>
+                  <v>0.191072</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.259854</v>
+                  <v>0.189256</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.258275</v>
+                  <v>0.187704</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.256589</v>
+                  <v>0.185987</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2825,7 +2849,6 @@
         <axId val="163989376"/>
         <scaling>
           <orientation val="minMax"/>
-          <max val="0.5"/>
         </scaling>
         <delete val="0"/>
         <axPos val="l"/>
@@ -3217,14 +3240,14 @@
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="7" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="8" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="7" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3235,7 +3258,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>ankerl::unordered_dense::map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.285959</v>
+        <v>0.28029</v>
       </c>
       <c r="C2" t="n">
-        <v>0.193073</v>
+        <v>0.209755</v>
       </c>
       <c r="D2" t="n">
-        <v>0.226949</v>
+        <v>0.239825</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.272656</v>
+        <v>0.270343</v>
       </c>
       <c r="C3" t="n">
-        <v>0.194468</v>
+        <v>0.211249</v>
       </c>
       <c r="D3" t="n">
-        <v>0.226692</v>
+        <v>0.242287</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.260438</v>
+        <v>0.259719</v>
       </c>
       <c r="C4" t="n">
-        <v>0.194384</v>
+        <v>0.209819</v>
       </c>
       <c r="D4" t="n">
-        <v>0.228216</v>
+        <v>0.244745</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.249611</v>
+        <v>0.250102</v>
       </c>
       <c r="C5" t="n">
-        <v>0.194225</v>
+        <v>0.214349</v>
       </c>
       <c r="D5" t="n">
-        <v>0.22835</v>
+        <v>0.245635</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.238107</v>
+        <v>0.236264</v>
       </c>
       <c r="C6" t="n">
-        <v>0.196988</v>
+        <v>0.21316</v>
       </c>
       <c r="D6" t="n">
-        <v>0.229155</v>
+        <v>0.246105</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.227132</v>
+        <v>0.22601</v>
       </c>
       <c r="C7" t="n">
-        <v>0.197597</v>
+        <v>0.214871</v>
       </c>
       <c r="D7" t="n">
-        <v>0.229124</v>
+        <v>0.246474</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.212537</v>
+        <v>0.2114</v>
       </c>
       <c r="C8" t="n">
-        <v>0.198324</v>
+        <v>0.2165</v>
       </c>
       <c r="D8" t="n">
-        <v>0.230198</v>
+        <v>0.246459</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.197309</v>
+        <v>0.195891</v>
       </c>
       <c r="C9" t="n">
-        <v>0.199865</v>
+        <v>0.217622</v>
       </c>
       <c r="D9" t="n">
-        <v>0.252422</v>
+        <v>0.270294</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.335415</v>
+        <v>0.334876</v>
       </c>
       <c r="C10" t="n">
-        <v>0.217668</v>
+        <v>0.234216</v>
       </c>
       <c r="D10" t="n">
-        <v>0.251186</v>
+        <v>0.272085</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.331233</v>
+        <v>0.329757</v>
       </c>
       <c r="C11" t="n">
-        <v>0.217208</v>
+        <v>0.240555</v>
       </c>
       <c r="D11" t="n">
-        <v>0.250234</v>
+        <v>0.264773</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.324152</v>
+        <v>0.323772</v>
       </c>
       <c r="C12" t="n">
-        <v>0.216262</v>
+        <v>0.237547</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2485</v>
+        <v>0.263995</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.319583</v>
+        <v>0.319218</v>
       </c>
       <c r="C13" t="n">
-        <v>0.214952</v>
+        <v>0.23226</v>
       </c>
       <c r="D13" t="n">
-        <v>0.250707</v>
+        <v>0.26649</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.311544</v>
+        <v>0.312304</v>
       </c>
       <c r="C14" t="n">
-        <v>0.213771</v>
+        <v>0.23159</v>
       </c>
       <c r="D14" t="n">
-        <v>0.24928</v>
+        <v>0.260734</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.303347</v>
+        <v>0.303091</v>
       </c>
       <c r="C15" t="n">
-        <v>0.213443</v>
+        <v>0.236541</v>
       </c>
       <c r="D15" t="n">
-        <v>0.249303</v>
+        <v>0.26023</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.295402</v>
+        <v>0.29405</v>
       </c>
       <c r="C16" t="n">
-        <v>0.213294</v>
+        <v>0.242273</v>
       </c>
       <c r="D16" t="n">
-        <v>0.249239</v>
+        <v>0.25934</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.285664</v>
+        <v>0.284708</v>
       </c>
       <c r="C17" t="n">
-        <v>0.212279</v>
+        <v>0.22876</v>
       </c>
       <c r="D17" t="n">
-        <v>0.24466</v>
+        <v>0.259834</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.276983</v>
+        <v>0.275697</v>
       </c>
       <c r="C18" t="n">
-        <v>0.213142</v>
+        <v>0.232048</v>
       </c>
       <c r="D18" t="n">
-        <v>0.243451</v>
+        <v>0.26316</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.26597</v>
+        <v>0.264942</v>
       </c>
       <c r="C19" t="n">
-        <v>0.21151</v>
+        <v>0.227589</v>
       </c>
       <c r="D19" t="n">
-        <v>0.245399</v>
+        <v>0.25799</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.254685</v>
+        <v>0.255068</v>
       </c>
       <c r="C20" t="n">
-        <v>0.212079</v>
+        <v>0.23415</v>
       </c>
       <c r="D20" t="n">
-        <v>0.247029</v>
+        <v>0.257227</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.241852</v>
+        <v>0.241106</v>
       </c>
       <c r="C21" t="n">
-        <v>0.212843</v>
+        <v>0.23452</v>
       </c>
       <c r="D21" t="n">
-        <v>0.241759</v>
+        <v>0.256446</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.227163</v>
+        <v>0.227033</v>
       </c>
       <c r="C22" t="n">
-        <v>0.211277</v>
+        <v>0.237655</v>
       </c>
       <c r="D22" t="n">
-        <v>0.240655</v>
+        <v>0.25597</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.210492</v>
+        <v>0.210541</v>
       </c>
       <c r="C23" t="n">
-        <v>0.210842</v>
+        <v>0.234419</v>
       </c>
       <c r="D23" t="n">
-        <v>0.260405</v>
+        <v>0.276016</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348663</v>
+        <v>0.348109</v>
       </c>
       <c r="C24" t="n">
-        <v>0.22707</v>
+        <v>0.240363</v>
       </c>
       <c r="D24" t="n">
-        <v>0.257941</v>
+        <v>0.273858</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.342448</v>
+        <v>0.342666</v>
       </c>
       <c r="C25" t="n">
-        <v>0.225089</v>
+        <v>0.239631</v>
       </c>
       <c r="D25" t="n">
-        <v>0.256338</v>
+        <v>0.272979</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.336503</v>
+        <v>0.335998</v>
       </c>
       <c r="C26" t="n">
-        <v>0.221944</v>
+        <v>0.237192</v>
       </c>
       <c r="D26" t="n">
-        <v>0.255023</v>
+        <v>0.270606</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.329696</v>
+        <v>0.329202</v>
       </c>
       <c r="C27" t="n">
-        <v>0.220513</v>
+        <v>0.236352</v>
       </c>
       <c r="D27" t="n">
-        <v>0.253039</v>
+        <v>0.26721</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.32281</v>
+        <v>0.322643</v>
       </c>
       <c r="C28" t="n">
-        <v>0.217491</v>
+        <v>0.233882</v>
       </c>
       <c r="D28" t="n">
-        <v>0.250998</v>
+        <v>0.266009</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.313914</v>
+        <v>0.313444</v>
       </c>
       <c r="C29" t="n">
-        <v>0.21684</v>
+        <v>0.233128</v>
       </c>
       <c r="D29" t="n">
-        <v>0.249536</v>
+        <v>0.264473</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.305053</v>
+        <v>0.3054</v>
       </c>
       <c r="C30" t="n">
-        <v>0.215767</v>
+        <v>0.231586</v>
       </c>
       <c r="D30" t="n">
-        <v>0.248523</v>
+        <v>0.263353</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.294944</v>
+        <v>0.295592</v>
       </c>
       <c r="C31" t="n">
-        <v>0.214477</v>
+        <v>0.231131</v>
       </c>
       <c r="D31" t="n">
-        <v>0.247816</v>
+        <v>0.262445</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.285114</v>
+        <v>0.284945</v>
       </c>
       <c r="C32" t="n">
-        <v>0.213793</v>
+        <v>0.231133</v>
       </c>
       <c r="D32" t="n">
-        <v>0.247882</v>
+        <v>0.261906</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.27437</v>
+        <v>0.274736</v>
       </c>
       <c r="C33" t="n">
-        <v>0.213221</v>
+        <v>0.230245</v>
       </c>
       <c r="D33" t="n">
-        <v>0.247003</v>
+        <v>0.261012</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.262357</v>
+        <v>0.261956</v>
       </c>
       <c r="C34" t="n">
-        <v>0.212578</v>
+        <v>0.229064</v>
       </c>
       <c r="D34" t="n">
-        <v>0.245076</v>
+        <v>0.262189</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.249038</v>
+        <v>0.248066</v>
       </c>
       <c r="C35" t="n">
-        <v>0.212421</v>
+        <v>0.230102</v>
       </c>
       <c r="D35" t="n">
-        <v>0.244808</v>
+        <v>0.261553</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.23597</v>
+        <v>0.234567</v>
       </c>
       <c r="C36" t="n">
-        <v>0.212059</v>
+        <v>0.230378</v>
       </c>
       <c r="D36" t="n">
-        <v>0.243608</v>
+        <v>0.260457</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.220202</v>
+        <v>0.219985</v>
       </c>
       <c r="C37" t="n">
-        <v>0.212455</v>
+        <v>0.231738</v>
       </c>
       <c r="D37" t="n">
-        <v>0.261956</v>
+        <v>0.277615</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.35222</v>
+        <v>0.352136</v>
       </c>
       <c r="C38" t="n">
-        <v>0.229666</v>
+        <v>0.244257</v>
       </c>
       <c r="D38" t="n">
-        <v>0.259893</v>
+        <v>0.274642</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.347476</v>
+        <v>0.347378</v>
       </c>
       <c r="C39" t="n">
-        <v>0.226731</v>
+        <v>0.242685</v>
       </c>
       <c r="D39" t="n">
-        <v>0.257415</v>
+        <v>0.272178</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.341212</v>
+        <v>0.341366</v>
       </c>
       <c r="C40" t="n">
-        <v>0.22365</v>
+        <v>0.239073</v>
       </c>
       <c r="D40" t="n">
-        <v>0.256479</v>
+        <v>0.270374</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.334749</v>
+        <v>0.334499</v>
       </c>
       <c r="C41" t="n">
-        <v>0.220821</v>
+        <v>0.236019</v>
       </c>
       <c r="D41" t="n">
-        <v>0.254525</v>
+        <v>0.268754</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.327785</v>
+        <v>0.327248</v>
       </c>
       <c r="C42" t="n">
-        <v>0.219244</v>
+        <v>0.235662</v>
       </c>
       <c r="D42" t="n">
-        <v>0.252468</v>
+        <v>0.267391</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.319628</v>
+        <v>0.319884</v>
       </c>
       <c r="C43" t="n">
-        <v>0.21801</v>
+        <v>0.23397</v>
       </c>
       <c r="D43" t="n">
-        <v>0.250818</v>
+        <v>0.265722</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.310944</v>
+        <v>0.310723</v>
       </c>
       <c r="C44" t="n">
-        <v>0.216743</v>
+        <v>0.2329</v>
       </c>
       <c r="D44" t="n">
-        <v>0.249334</v>
+        <v>0.263664</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.302122</v>
+        <v>0.301639</v>
       </c>
       <c r="C45" t="n">
-        <v>0.216179</v>
+        <v>0.232452</v>
       </c>
       <c r="D45" t="n">
-        <v>0.247856</v>
+        <v>0.263605</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.291448</v>
+        <v>0.291077</v>
       </c>
       <c r="C46" t="n">
-        <v>0.214152</v>
+        <v>0.232037</v>
       </c>
       <c r="D46" t="n">
-        <v>0.247408</v>
+        <v>0.261976</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.280224</v>
+        <v>0.280259</v>
       </c>
       <c r="C47" t="n">
-        <v>0.214305</v>
+        <v>0.231523</v>
       </c>
       <c r="D47" t="n">
-        <v>0.246445</v>
+        <v>0.261169</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.268514</v>
+        <v>0.26856</v>
       </c>
       <c r="C48" t="n">
-        <v>0.212639</v>
+        <v>0.230276</v>
       </c>
       <c r="D48" t="n">
-        <v>0.246494</v>
+        <v>0.261232</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.256445</v>
+        <v>0.256284</v>
       </c>
       <c r="C49" t="n">
-        <v>0.212517</v>
+        <v>0.230339</v>
       </c>
       <c r="D49" t="n">
-        <v>0.245361</v>
+        <v>0.260023</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.242197</v>
+        <v>0.242329</v>
       </c>
       <c r="C50" t="n">
-        <v>0.212443</v>
+        <v>0.230589</v>
       </c>
       <c r="D50" t="n">
-        <v>0.246099</v>
+        <v>0.261039</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.226829</v>
+        <v>0.227094</v>
       </c>
       <c r="C51" t="n">
-        <v>0.211999</v>
+        <v>0.231125</v>
       </c>
       <c r="D51" t="n">
-        <v>0.261972</v>
+        <v>0.277341</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.210242</v>
+        <v>0.210026</v>
       </c>
       <c r="C52" t="n">
-        <v>0.211924</v>
+        <v>0.23121</v>
       </c>
       <c r="D52" t="n">
-        <v>0.258834</v>
+        <v>0.274223</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.350812</v>
+        <v>0.350094</v>
       </c>
       <c r="C53" t="n">
-        <v>0.226695</v>
+        <v>0.242075</v>
       </c>
       <c r="D53" t="n">
-        <v>0.2564</v>
+        <v>0.271711</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.344699</v>
+        <v>0.344752</v>
       </c>
       <c r="C54" t="n">
-        <v>0.223624</v>
+        <v>0.239356</v>
       </c>
       <c r="D54" t="n">
-        <v>0.255421</v>
+        <v>0.270255</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.338421</v>
+        <v>0.338174</v>
       </c>
       <c r="C55" t="n">
-        <v>0.220666</v>
+        <v>0.236859</v>
       </c>
       <c r="D55" t="n">
-        <v>0.253498</v>
+        <v>0.268971</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.331327</v>
+        <v>0.330948</v>
       </c>
       <c r="C56" t="n">
-        <v>0.220001</v>
+        <v>0.235551</v>
       </c>
       <c r="D56" t="n">
-        <v>0.251467</v>
+        <v>0.267022</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.323193</v>
+        <v>0.322906</v>
       </c>
       <c r="C57" t="n">
-        <v>0.21833</v>
+        <v>0.234421</v>
       </c>
       <c r="D57" t="n">
-        <v>0.250255</v>
+        <v>0.265598</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.314277</v>
+        <v>0.314441</v>
       </c>
       <c r="C58" t="n">
-        <v>0.217629</v>
+        <v>0.233694</v>
       </c>
       <c r="D58" t="n">
-        <v>0.249109</v>
+        <v>0.264227</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.305662</v>
+        <v>0.305103</v>
       </c>
       <c r="C59" t="n">
-        <v>0.214923</v>
+        <v>0.232373</v>
       </c>
       <c r="D59" t="n">
-        <v>0.247846</v>
+        <v>0.26305</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.295243</v>
+        <v>0.294917</v>
       </c>
       <c r="C60" t="n">
-        <v>0.214151</v>
+        <v>0.231809</v>
       </c>
       <c r="D60" t="n">
-        <v>0.246847</v>
+        <v>0.262096</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.284208</v>
+        <v>0.283982</v>
       </c>
       <c r="C61" t="n">
-        <v>0.213753</v>
+        <v>0.231163</v>
       </c>
       <c r="D61" t="n">
-        <v>0.246022</v>
+        <v>0.261265</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272341</v>
+        <v>0.272256</v>
       </c>
       <c r="C62" t="n">
-        <v>0.213002</v>
+        <v>0.230863</v>
       </c>
       <c r="D62" t="n">
-        <v>0.245395</v>
+        <v>0.260784</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.259859</v>
+        <v>0.259499</v>
       </c>
       <c r="C63" t="n">
-        <v>0.21254</v>
+        <v>0.230742</v>
       </c>
       <c r="D63" t="n">
-        <v>0.244685</v>
+        <v>0.259673</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.245976</v>
+        <v>0.245697</v>
       </c>
       <c r="C64" t="n">
-        <v>0.212203</v>
+        <v>0.230765</v>
       </c>
       <c r="D64" t="n">
-        <v>0.243887</v>
+        <v>0.259455</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.230616</v>
+        <v>0.230466</v>
       </c>
       <c r="C65" t="n">
-        <v>0.212024</v>
+        <v>0.230908</v>
       </c>
       <c r="D65" t="n">
-        <v>0.243561</v>
+        <v>0.258515</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.213991</v>
+        <v>0.213834</v>
       </c>
       <c r="C66" t="n">
-        <v>0.21212</v>
+        <v>0.231914</v>
       </c>
       <c r="D66" t="n">
-        <v>0.259518</v>
+        <v>0.27581</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.352498</v>
+        <v>0.352511</v>
       </c>
       <c r="C67" t="n">
-        <v>0.22823</v>
+        <v>0.244699</v>
       </c>
       <c r="D67" t="n">
-        <v>0.25699</v>
+        <v>0.273219</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.347109</v>
+        <v>0.346902</v>
       </c>
       <c r="C68" t="n">
-        <v>0.224321</v>
+        <v>0.240795</v>
       </c>
       <c r="D68" t="n">
-        <v>0.254936</v>
+        <v>0.271002</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.34084</v>
+        <v>0.340769</v>
       </c>
       <c r="C69" t="n">
-        <v>0.221218</v>
+        <v>0.2377</v>
       </c>
       <c r="D69" t="n">
-        <v>0.253406</v>
+        <v>0.269024</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.333497</v>
+        <v>0.333854</v>
       </c>
       <c r="C70" t="n">
-        <v>0.21927</v>
+        <v>0.235765</v>
       </c>
       <c r="D70" t="n">
-        <v>0.251614</v>
+        <v>0.267545</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.325582</v>
+        <v>0.325797</v>
       </c>
       <c r="C71" t="n">
-        <v>0.218369</v>
+        <v>0.234585</v>
       </c>
       <c r="D71" t="n">
-        <v>0.250622</v>
+        <v>0.266052</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.317148</v>
+        <v>0.316977</v>
       </c>
       <c r="C72" t="n">
-        <v>0.217217</v>
+        <v>0.233271</v>
       </c>
       <c r="D72" t="n">
-        <v>0.249787</v>
+        <v>0.264977</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.307655</v>
+        <v>0.307673</v>
       </c>
       <c r="C73" t="n">
-        <v>0.216544</v>
+        <v>0.232671</v>
       </c>
       <c r="D73" t="n">
-        <v>0.248265</v>
+        <v>0.263539</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.297805</v>
+        <v>0.297679</v>
       </c>
       <c r="C74" t="n">
-        <v>0.214459</v>
+        <v>0.232003</v>
       </c>
       <c r="D74" t="n">
-        <v>0.247746</v>
+        <v>0.262388</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.286928</v>
+        <v>0.287029</v>
       </c>
       <c r="C75" t="n">
-        <v>0.213812</v>
+        <v>0.231548</v>
       </c>
       <c r="D75" t="n">
-        <v>0.24691</v>
+        <v>0.261732</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.275744</v>
+        <v>0.27588</v>
       </c>
       <c r="C76" t="n">
-        <v>0.213318</v>
+        <v>0.231265</v>
       </c>
       <c r="D76" t="n">
-        <v>0.24573</v>
+        <v>0.260715</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.263133</v>
+        <v>0.263253</v>
       </c>
       <c r="C77" t="n">
-        <v>0.212616</v>
+        <v>0.230843</v>
       </c>
       <c r="D77" t="n">
-        <v>0.244829</v>
+        <v>0.259911</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.249318</v>
+        <v>0.249495</v>
       </c>
       <c r="C78" t="n">
-        <v>0.212025</v>
+        <v>0.231012</v>
       </c>
       <c r="D78" t="n">
-        <v>0.243947</v>
+        <v>0.259532</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.234419</v>
+        <v>0.234491</v>
       </c>
       <c r="C79" t="n">
-        <v>0.212034</v>
+        <v>0.23133</v>
       </c>
       <c r="D79" t="n">
-        <v>0.244202</v>
+        <v>0.258823</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.218718</v>
+        <v>0.218678</v>
       </c>
       <c r="C80" t="n">
-        <v>0.211749</v>
+        <v>0.231806</v>
       </c>
       <c r="D80" t="n">
-        <v>0.260287</v>
+        <v>0.275938</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.353717</v>
+        <v>0.353889</v>
       </c>
       <c r="C81" t="n">
-        <v>0.227636</v>
+        <v>0.244123</v>
       </c>
       <c r="D81" t="n">
-        <v>0.257634</v>
+        <v>0.273392</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.348302</v>
+        <v>0.348401</v>
       </c>
       <c r="C82" t="n">
-        <v>0.223706</v>
+        <v>0.239902</v>
       </c>
       <c r="D82" t="n">
-        <v>0.255814</v>
+        <v>0.271343</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.341908</v>
+        <v>0.342087</v>
       </c>
       <c r="C83" t="n">
-        <v>0.221297</v>
+        <v>0.237663</v>
       </c>
       <c r="D83" t="n">
-        <v>0.25387</v>
+        <v>0.269415</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.335015</v>
+        <v>0.335097</v>
       </c>
       <c r="C84" t="n">
-        <v>0.219433</v>
+        <v>0.235811</v>
       </c>
       <c r="D84" t="n">
-        <v>0.252577</v>
+        <v>0.26794</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.327429</v>
+        <v>0.327316</v>
       </c>
       <c r="C85" t="n">
-        <v>0.218422</v>
+        <v>0.234649</v>
       </c>
       <c r="D85" t="n">
-        <v>0.251268</v>
+        <v>0.266579</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.318981</v>
+        <v>0.319105</v>
       </c>
       <c r="C86" t="n">
-        <v>0.217646</v>
+        <v>0.233569</v>
       </c>
       <c r="D86" t="n">
-        <v>0.249941</v>
+        <v>0.26527</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.309765</v>
+        <v>0.309853</v>
       </c>
       <c r="C87" t="n">
-        <v>0.21654</v>
+        <v>0.23269</v>
       </c>
       <c r="D87" t="n">
-        <v>0.248676</v>
+        <v>0.263912</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.30008</v>
+        <v>0.300139</v>
       </c>
       <c r="C88" t="n">
-        <v>0.215783</v>
+        <v>0.231866</v>
       </c>
       <c r="D88" t="n">
-        <v>0.2475</v>
+        <v>0.262829</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.289726</v>
+        <v>0.289776</v>
       </c>
       <c r="C89" t="n">
-        <v>0.213639</v>
+        <v>0.231363</v>
       </c>
       <c r="D89" t="n">
-        <v>0.246853</v>
+        <v>0.261695</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.278155</v>
+        <v>0.278114</v>
       </c>
       <c r="C90" t="n">
-        <v>0.213049</v>
+        <v>0.231183</v>
       </c>
       <c r="D90" t="n">
-        <v>0.245945</v>
+        <v>0.26077</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.265661</v>
+        <v>0.26562</v>
       </c>
       <c r="C91" t="n">
-        <v>0.21268</v>
+        <v>0.230875</v>
       </c>
       <c r="D91" t="n">
-        <v>0.245318</v>
+        <v>0.260193</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.252029</v>
+        <v>0.25247</v>
       </c>
       <c r="C92" t="n">
-        <v>0.212279</v>
+        <v>0.230757</v>
       </c>
       <c r="D92" t="n">
-        <v>0.244644</v>
+        <v>0.259417</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.238111</v>
+        <v>0.238162</v>
       </c>
       <c r="C93" t="n">
-        <v>0.211718</v>
+        <v>0.230733</v>
       </c>
       <c r="D93" t="n">
-        <v>0.244076</v>
+        <v>0.259274</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.222059</v>
+        <v>0.222066</v>
       </c>
       <c r="C94" t="n">
-        <v>0.211652</v>
+        <v>0.231614</v>
       </c>
       <c r="D94" t="n">
-        <v>0.261143</v>
+        <v>0.276861</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.354976</v>
+        <v>0.354949</v>
       </c>
       <c r="C95" t="n">
-        <v>0.227674</v>
+        <v>0.244147</v>
       </c>
       <c r="D95" t="n">
-        <v>0.258373</v>
+        <v>0.273885</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.349725</v>
+        <v>0.349727</v>
       </c>
       <c r="C96" t="n">
-        <v>0.224243</v>
+        <v>0.240942</v>
       </c>
       <c r="D96" t="n">
-        <v>0.256255</v>
+        <v>0.271663</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.343847</v>
+        <v>0.34385</v>
       </c>
       <c r="C97" t="n">
-        <v>0.222188</v>
+        <v>0.238316</v>
       </c>
       <c r="D97" t="n">
-        <v>0.254404</v>
+        <v>0.269764</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.337238</v>
+        <v>0.336981</v>
       </c>
       <c r="C98" t="n">
-        <v>0.22002</v>
+        <v>0.236293</v>
       </c>
       <c r="D98" t="n">
-        <v>0.252887</v>
+        <v>0.268103</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.329129</v>
+        <v>0.329461</v>
       </c>
       <c r="C99" t="n">
-        <v>0.218997</v>
+        <v>0.23508</v>
       </c>
       <c r="D99" t="n">
-        <v>0.251444</v>
+        <v>0.266754</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.320946</v>
+        <v>0.321203</v>
       </c>
       <c r="C100" t="n">
-        <v>0.217684</v>
+        <v>0.234006</v>
       </c>
       <c r="D100" t="n">
-        <v>0.250414</v>
+        <v>0.265344</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.31201</v>
+        <v>0.312156</v>
       </c>
       <c r="C101" t="n">
-        <v>0.216665</v>
+        <v>0.232996</v>
       </c>
       <c r="D101" t="n">
-        <v>0.24943</v>
+        <v>0.264044</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.302315</v>
+        <v>0.302593</v>
       </c>
       <c r="C102" t="n">
-        <v>0.215737</v>
+        <v>0.23214</v>
       </c>
       <c r="D102" t="n">
-        <v>0.248459</v>
+        <v>0.262894</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.29212</v>
+        <v>0.292224</v>
       </c>
       <c r="C103" t="n">
-        <v>0.2142</v>
+        <v>0.231453</v>
       </c>
       <c r="D103" t="n">
-        <v>0.247274</v>
+        <v>0.261859</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.280802</v>
+        <v>0.280708</v>
       </c>
       <c r="C104" t="n">
-        <v>0.214503</v>
+        <v>0.231061</v>
       </c>
       <c r="D104" t="n">
-        <v>0.246266</v>
+        <v>0.260985</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.268558</v>
+        <v>0.268735</v>
       </c>
       <c r="C105" t="n">
-        <v>0.213908</v>
+        <v>0.230616</v>
       </c>
       <c r="D105" t="n">
-        <v>0.245461</v>
+        <v>0.26009</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.255341</v>
+        <v>0.255649</v>
       </c>
       <c r="C106" t="n">
-        <v>0.212195</v>
+        <v>0.230515</v>
       </c>
       <c r="D106" t="n">
-        <v>0.244595</v>
+        <v>0.259686</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.241059</v>
+        <v>0.241606</v>
       </c>
       <c r="C107" t="n">
-        <v>0.211855</v>
+        <v>0.230706</v>
       </c>
       <c r="D107" t="n">
-        <v>0.244099</v>
+        <v>0.258917</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.225606</v>
+        <v>0.226249</v>
       </c>
       <c r="C108" t="n">
-        <v>0.211521</v>
+        <v>0.231025</v>
       </c>
       <c r="D108" t="n">
-        <v>0.261439</v>
+        <v>0.276909</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.208999</v>
+        <v>0.209153</v>
       </c>
       <c r="C109" t="n">
-        <v>0.211327</v>
+        <v>0.23137</v>
       </c>
       <c r="D109" t="n">
-        <v>0.25902</v>
+        <v>0.274264</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.350777</v>
+        <v>0.350869</v>
       </c>
       <c r="C110" t="n">
-        <v>0.224595</v>
+        <v>0.2415</v>
       </c>
       <c r="D110" t="n">
-        <v>0.256914</v>
+        <v>0.272223</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.344767</v>
+        <v>0.344835</v>
       </c>
       <c r="C111" t="n">
-        <v>0.222093</v>
+        <v>0.239048</v>
       </c>
       <c r="D111" t="n">
-        <v>0.255007</v>
+        <v>0.270243</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.338124</v>
+        <v>0.33809</v>
       </c>
       <c r="C112" t="n">
-        <v>0.22037</v>
+        <v>0.237163</v>
       </c>
       <c r="D112" t="n">
-        <v>0.253508</v>
+        <v>0.268557</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.330831</v>
+        <v>0.330769</v>
       </c>
       <c r="C113" t="n">
-        <v>0.218878</v>
+        <v>0.23562</v>
       </c>
       <c r="D113" t="n">
-        <v>0.251827</v>
+        <v>0.267301</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.322726</v>
+        <v>0.32265</v>
       </c>
       <c r="C114" t="n">
-        <v>0.217782</v>
+        <v>0.234282</v>
       </c>
       <c r="D114" t="n">
-        <v>0.250672</v>
+        <v>0.266122</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.313882</v>
+        <v>0.313781</v>
       </c>
       <c r="C115" t="n">
-        <v>0.216794</v>
+        <v>0.233749</v>
       </c>
       <c r="D115" t="n">
-        <v>0.250232</v>
+        <v>0.264977</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.304259</v>
+        <v>0.304258</v>
       </c>
       <c r="C116" t="n">
-        <v>0.216008</v>
+        <v>0.233184</v>
       </c>
       <c r="D116" t="n">
-        <v>0.249214</v>
+        <v>0.263661</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.293755</v>
+        <v>0.293966</v>
       </c>
       <c r="C117" t="n">
-        <v>0.214218</v>
+        <v>0.232289</v>
       </c>
       <c r="D117" t="n">
-        <v>0.248011</v>
+        <v>0.262532</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.283002</v>
+        <v>0.282897</v>
       </c>
       <c r="C118" t="n">
-        <v>0.214935</v>
+        <v>0.231877</v>
       </c>
       <c r="D118" t="n">
-        <v>0.24708</v>
+        <v>0.261592</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.271169</v>
+        <v>0.271182</v>
       </c>
       <c r="C119" t="n">
-        <v>0.214274</v>
+        <v>0.231449</v>
       </c>
       <c r="D119" t="n">
-        <v>0.246326</v>
+        <v>0.260649</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.258331</v>
+        <v>0.25851</v>
       </c>
       <c r="C120" t="n">
-        <v>0.213827</v>
+        <v>0.231244</v>
       </c>
       <c r="D120" t="n">
-        <v>0.245705</v>
+        <v>0.260038</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.244347</v>
+        <v>0.244569</v>
       </c>
       <c r="C121" t="n">
-        <v>0.21336</v>
+        <v>0.231156</v>
       </c>
       <c r="D121" t="n">
-        <v>0.245097</v>
+        <v>0.259673</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.229366</v>
+        <v>0.229408</v>
       </c>
       <c r="C122" t="n">
-        <v>0.211959</v>
+        <v>0.231313</v>
       </c>
       <c r="D122" t="n">
-        <v>0.244774</v>
+        <v>0.25884</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.212762</v>
+        <v>0.212645</v>
       </c>
       <c r="C123" t="n">
-        <v>0.211688</v>
+        <v>0.231668</v>
       </c>
       <c r="D123" t="n">
-        <v>0.260241</v>
+        <v>0.274813</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.351768</v>
+        <v>0.351882</v>
       </c>
       <c r="C124" t="n">
-        <v>0.225509</v>
+        <v>0.243089</v>
       </c>
       <c r="D124" t="n">
-        <v>0.258272</v>
+        <v>0.272493</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.345986</v>
+        <v>0.346042</v>
       </c>
       <c r="C125" t="n">
-        <v>0.222647</v>
+        <v>0.240032</v>
       </c>
       <c r="D125" t="n">
-        <v>0.256088</v>
+        <v>0.270624</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.339436</v>
+        <v>0.339553</v>
       </c>
       <c r="C126" t="n">
-        <v>0.220776</v>
+        <v>0.238494</v>
       </c>
       <c r="D126" t="n">
-        <v>0.254683</v>
+        <v>0.268949</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.332237</v>
+        <v>0.332298</v>
       </c>
       <c r="C127" t="n">
-        <v>0.21927</v>
+        <v>0.236882</v>
       </c>
       <c r="D127" t="n">
-        <v>0.252987</v>
+        <v>0.267291</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.32422</v>
+        <v>0.324248</v>
       </c>
       <c r="C128" t="n">
-        <v>0.217895</v>
+        <v>0.235482</v>
       </c>
       <c r="D128" t="n">
-        <v>0.251546</v>
+        <v>0.265897</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.315395</v>
+        <v>0.315542</v>
       </c>
       <c r="C129" t="n">
-        <v>0.216917</v>
+        <v>0.234256</v>
       </c>
       <c r="D129" t="n">
-        <v>0.250307</v>
+        <v>0.264589</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.305948</v>
+        <v>0.306048</v>
       </c>
       <c r="C130" t="n">
-        <v>0.216147</v>
+        <v>0.232984</v>
       </c>
       <c r="D130" t="n">
-        <v>0.249411</v>
+        <v>0.263437</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.29588</v>
+        <v>0.296199</v>
       </c>
       <c r="C131" t="n">
-        <v>0.215393</v>
+        <v>0.232874</v>
       </c>
       <c r="D131" t="n">
-        <v>0.248682</v>
+        <v>0.262623</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.284974</v>
+        <v>0.285051</v>
       </c>
       <c r="C132" t="n">
-        <v>0.214657</v>
+        <v>0.231894</v>
       </c>
       <c r="D132" t="n">
-        <v>0.247882</v>
+        <v>0.261779</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.273108</v>
+        <v>0.273196</v>
       </c>
       <c r="C133" t="n">
-        <v>0.212717</v>
+        <v>0.231598</v>
       </c>
       <c r="D133" t="n">
-        <v>0.246744</v>
+        <v>0.260855</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.260445</v>
+        <v>0.260367</v>
       </c>
       <c r="C134" t="n">
-        <v>0.21211</v>
+        <v>0.231503</v>
       </c>
       <c r="D134" t="n">
-        <v>0.246317</v>
+        <v>0.26018</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.246717</v>
+        <v>0.246948</v>
       </c>
       <c r="C135" t="n">
-        <v>0.211689</v>
+        <v>0.231432</v>
       </c>
       <c r="D135" t="n">
-        <v>0.24548</v>
+        <v>0.259722</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.231946</v>
+        <v>0.231975</v>
       </c>
       <c r="C136" t="n">
-        <v>0.212746</v>
+        <v>0.231579</v>
       </c>
       <c r="D136" t="n">
-        <v>0.244782</v>
+        <v>0.259053</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.215904</v>
+        <v>0.215846</v>
       </c>
       <c r="C137" t="n">
-        <v>0.211669</v>
+        <v>0.232472</v>
       </c>
       <c r="D137" t="n">
-        <v>0.262066</v>
+        <v>0.276118</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.352769</v>
+        <v>0.35291</v>
       </c>
       <c r="C138" t="n">
-        <v>0.226895</v>
+        <v>0.245151</v>
       </c>
       <c r="D138" t="n">
-        <v>0.259053</v>
+        <v>0.27344</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.347376</v>
+        <v>0.347414</v>
       </c>
       <c r="C139" t="n">
-        <v>0.223678</v>
+        <v>0.242919</v>
       </c>
       <c r="D139" t="n">
-        <v>0.258213</v>
+        <v>0.27158</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.341092</v>
+        <v>0.341091</v>
       </c>
       <c r="C140" t="n">
-        <v>0.221388</v>
+        <v>0.240154</v>
       </c>
       <c r="D140" t="n">
-        <v>0.255814</v>
+        <v>0.269732</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.334029</v>
+        <v>0.334041</v>
       </c>
       <c r="C141" t="n">
-        <v>0.219656</v>
+        <v>0.238316</v>
       </c>
       <c r="D141" t="n">
-        <v>0.254566</v>
+        <v>0.268052</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.326041</v>
+        <v>0.326228</v>
       </c>
       <c r="C142" t="n">
-        <v>0.2185</v>
+        <v>0.236952</v>
       </c>
       <c r="D142" t="n">
-        <v>0.253392</v>
+        <v>0.26674</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.317453</v>
+        <v>0.317649</v>
       </c>
       <c r="C143" t="n">
-        <v>0.217378</v>
+        <v>0.236331</v>
       </c>
       <c r="D143" t="n">
-        <v>0.251435</v>
+        <v>0.265506</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.28029</v>
+        <v>0.279283</v>
       </c>
       <c r="C2" t="n">
-        <v>0.209755</v>
+        <v>0.194941</v>
       </c>
       <c r="D2" t="n">
-        <v>0.239825</v>
+        <v>0.226086</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.270343</v>
+        <v>0.268252</v>
       </c>
       <c r="C3" t="n">
-        <v>0.211249</v>
+        <v>0.194777</v>
       </c>
       <c r="D3" t="n">
-        <v>0.242287</v>
+        <v>0.22646</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.259719</v>
+        <v>0.259535</v>
       </c>
       <c r="C4" t="n">
-        <v>0.209819</v>
+        <v>0.195463</v>
       </c>
       <c r="D4" t="n">
-        <v>0.244745</v>
+        <v>0.228166</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.250102</v>
+        <v>0.248773</v>
       </c>
       <c r="C5" t="n">
-        <v>0.214349</v>
+        <v>0.196566</v>
       </c>
       <c r="D5" t="n">
-        <v>0.245635</v>
+        <v>0.227309</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.236264</v>
+        <v>0.236964</v>
       </c>
       <c r="C6" t="n">
-        <v>0.21316</v>
+        <v>0.197179</v>
       </c>
       <c r="D6" t="n">
-        <v>0.246105</v>
+        <v>0.228815</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.22601</v>
+        <v>0.225895</v>
       </c>
       <c r="C7" t="n">
-        <v>0.214871</v>
+        <v>0.198902</v>
       </c>
       <c r="D7" t="n">
-        <v>0.246474</v>
+        <v>0.229392</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2114</v>
+        <v>0.210514</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2165</v>
+        <v>0.199154</v>
       </c>
       <c r="D8" t="n">
-        <v>0.246459</v>
+        <v>0.23403</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.195891</v>
+        <v>0.195252</v>
       </c>
       <c r="C9" t="n">
-        <v>0.217622</v>
+        <v>0.201436</v>
       </c>
       <c r="D9" t="n">
-        <v>0.270294</v>
+        <v>0.255538</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.334876</v>
+        <v>0.334881</v>
       </c>
       <c r="C10" t="n">
-        <v>0.234216</v>
+        <v>0.217916</v>
       </c>
       <c r="D10" t="n">
-        <v>0.272085</v>
+        <v>0.251211</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.329757</v>
+        <v>0.330094</v>
       </c>
       <c r="C11" t="n">
-        <v>0.240555</v>
+        <v>0.21784</v>
       </c>
       <c r="D11" t="n">
-        <v>0.264773</v>
+        <v>0.254328</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.323772</v>
+        <v>0.324617</v>
       </c>
       <c r="C12" t="n">
-        <v>0.237547</v>
+        <v>0.21691</v>
       </c>
       <c r="D12" t="n">
-        <v>0.263995</v>
+        <v>0.24882</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.319218</v>
+        <v>0.319562</v>
       </c>
       <c r="C13" t="n">
-        <v>0.23226</v>
+        <v>0.215256</v>
       </c>
       <c r="D13" t="n">
-        <v>0.26649</v>
+        <v>0.251176</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.312304</v>
+        <v>0.31141</v>
       </c>
       <c r="C14" t="n">
-        <v>0.23159</v>
+        <v>0.212661</v>
       </c>
       <c r="D14" t="n">
-        <v>0.260734</v>
+        <v>0.255206</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.303091</v>
+        <v>0.303031</v>
       </c>
       <c r="C15" t="n">
-        <v>0.236541</v>
+        <v>0.212312</v>
       </c>
       <c r="D15" t="n">
-        <v>0.26023</v>
+        <v>0.246756</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.29405</v>
+        <v>0.294044</v>
       </c>
       <c r="C16" t="n">
-        <v>0.242273</v>
+        <v>0.211919</v>
       </c>
       <c r="D16" t="n">
-        <v>0.25934</v>
+        <v>0.254046</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.284708</v>
+        <v>0.286956</v>
       </c>
       <c r="C17" t="n">
-        <v>0.22876</v>
+        <v>0.211804</v>
       </c>
       <c r="D17" t="n">
-        <v>0.259834</v>
+        <v>0.247994</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.275697</v>
+        <v>0.274728</v>
       </c>
       <c r="C18" t="n">
-        <v>0.232048</v>
+        <v>0.211197</v>
       </c>
       <c r="D18" t="n">
-        <v>0.26316</v>
+        <v>0.247364</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.264942</v>
+        <v>0.264637</v>
       </c>
       <c r="C19" t="n">
-        <v>0.227589</v>
+        <v>0.209997</v>
       </c>
       <c r="D19" t="n">
-        <v>0.25799</v>
+        <v>0.242657</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.255068</v>
+        <v>0.254657</v>
       </c>
       <c r="C20" t="n">
-        <v>0.23415</v>
+        <v>0.210566</v>
       </c>
       <c r="D20" t="n">
-        <v>0.257227</v>
+        <v>0.247564</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.241106</v>
+        <v>0.241814</v>
       </c>
       <c r="C21" t="n">
-        <v>0.23452</v>
+        <v>0.210385</v>
       </c>
       <c r="D21" t="n">
-        <v>0.256446</v>
+        <v>0.246269</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.227033</v>
+        <v>0.226885</v>
       </c>
       <c r="C22" t="n">
-        <v>0.237655</v>
+        <v>0.210303</v>
       </c>
       <c r="D22" t="n">
-        <v>0.25597</v>
+        <v>0.243157</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.210541</v>
+        <v>0.210327</v>
       </c>
       <c r="C23" t="n">
-        <v>0.234419</v>
+        <v>0.209548</v>
       </c>
       <c r="D23" t="n">
-        <v>0.276016</v>
+        <v>0.260645</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348109</v>
+        <v>0.347904</v>
       </c>
       <c r="C24" t="n">
-        <v>0.240363</v>
+        <v>0.226555</v>
       </c>
       <c r="D24" t="n">
-        <v>0.273858</v>
+        <v>0.258133</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.342666</v>
+        <v>0.34228</v>
       </c>
       <c r="C25" t="n">
-        <v>0.239631</v>
+        <v>0.224759</v>
       </c>
       <c r="D25" t="n">
-        <v>0.272979</v>
+        <v>0.25729</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.335998</v>
+        <v>0.335831</v>
       </c>
       <c r="C26" t="n">
-        <v>0.237192</v>
+        <v>0.221663</v>
       </c>
       <c r="D26" t="n">
-        <v>0.270606</v>
+        <v>0.25587</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.329202</v>
+        <v>0.329492</v>
       </c>
       <c r="C27" t="n">
-        <v>0.236352</v>
+        <v>0.219518</v>
       </c>
       <c r="D27" t="n">
-        <v>0.26721</v>
+        <v>0.252786</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.322643</v>
+        <v>0.322716</v>
       </c>
       <c r="C28" t="n">
-        <v>0.233882</v>
+        <v>0.217147</v>
       </c>
       <c r="D28" t="n">
-        <v>0.266009</v>
+        <v>0.251557</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.313444</v>
+        <v>0.313598</v>
       </c>
       <c r="C29" t="n">
-        <v>0.233128</v>
+        <v>0.216098</v>
       </c>
       <c r="D29" t="n">
-        <v>0.264473</v>
+        <v>0.250161</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.3054</v>
+        <v>0.304752</v>
       </c>
       <c r="C30" t="n">
-        <v>0.231586</v>
+        <v>0.215085</v>
       </c>
       <c r="D30" t="n">
-        <v>0.263353</v>
+        <v>0.248957</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.295592</v>
+        <v>0.294499</v>
       </c>
       <c r="C31" t="n">
-        <v>0.231131</v>
+        <v>0.214554</v>
       </c>
       <c r="D31" t="n">
-        <v>0.262445</v>
+        <v>0.247632</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.284945</v>
+        <v>0.284469</v>
       </c>
       <c r="C32" t="n">
-        <v>0.231133</v>
+        <v>0.213967</v>
       </c>
       <c r="D32" t="n">
-        <v>0.261906</v>
+        <v>0.246836</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.274736</v>
+        <v>0.273846</v>
       </c>
       <c r="C33" t="n">
-        <v>0.230245</v>
+        <v>0.213097</v>
       </c>
       <c r="D33" t="n">
-        <v>0.261012</v>
+        <v>0.246105</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.261956</v>
+        <v>0.262321</v>
       </c>
       <c r="C34" t="n">
-        <v>0.229064</v>
+        <v>0.212534</v>
       </c>
       <c r="D34" t="n">
-        <v>0.262189</v>
+        <v>0.244671</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.248066</v>
+        <v>0.248572</v>
       </c>
       <c r="C35" t="n">
-        <v>0.230102</v>
+        <v>0.212277</v>
       </c>
       <c r="D35" t="n">
-        <v>0.261553</v>
+        <v>0.244416</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.234567</v>
+        <v>0.23525</v>
       </c>
       <c r="C36" t="n">
-        <v>0.230378</v>
+        <v>0.212225</v>
       </c>
       <c r="D36" t="n">
-        <v>0.260457</v>
+        <v>0.243653</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.219985</v>
+        <v>0.219791</v>
       </c>
       <c r="C37" t="n">
-        <v>0.231738</v>
+        <v>0.212771</v>
       </c>
       <c r="D37" t="n">
-        <v>0.277615</v>
+        <v>0.262125</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.352136</v>
+        <v>0.351856</v>
       </c>
       <c r="C38" t="n">
-        <v>0.244257</v>
+        <v>0.229757</v>
       </c>
       <c r="D38" t="n">
-        <v>0.274642</v>
+        <v>0.260134</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.347378</v>
+        <v>0.347287</v>
       </c>
       <c r="C39" t="n">
-        <v>0.242685</v>
+        <v>0.228264</v>
       </c>
       <c r="D39" t="n">
-        <v>0.272178</v>
+        <v>0.25748</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.341366</v>
+        <v>0.341131</v>
       </c>
       <c r="C40" t="n">
-        <v>0.239073</v>
+        <v>0.224711</v>
       </c>
       <c r="D40" t="n">
-        <v>0.270374</v>
+        <v>0.256014</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.334499</v>
+        <v>0.334191</v>
       </c>
       <c r="C41" t="n">
-        <v>0.236019</v>
+        <v>0.220985</v>
       </c>
       <c r="D41" t="n">
-        <v>0.268754</v>
+        <v>0.253871</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.327248</v>
+        <v>0.327175</v>
       </c>
       <c r="C42" t="n">
-        <v>0.235662</v>
+        <v>0.219304</v>
       </c>
       <c r="D42" t="n">
-        <v>0.267391</v>
+        <v>0.252366</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.319884</v>
+        <v>0.319075</v>
       </c>
       <c r="C43" t="n">
-        <v>0.23397</v>
+        <v>0.218227</v>
       </c>
       <c r="D43" t="n">
-        <v>0.265722</v>
+        <v>0.251363</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.310723</v>
+        <v>0.31056</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2329</v>
+        <v>0.216947</v>
       </c>
       <c r="D44" t="n">
-        <v>0.263664</v>
+        <v>0.249265</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.301639</v>
+        <v>0.301358</v>
       </c>
       <c r="C45" t="n">
-        <v>0.232452</v>
+        <v>0.216492</v>
       </c>
       <c r="D45" t="n">
-        <v>0.263605</v>
+        <v>0.248565</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.291077</v>
+        <v>0.291005</v>
       </c>
       <c r="C46" t="n">
-        <v>0.232037</v>
+        <v>0.214691</v>
       </c>
       <c r="D46" t="n">
-        <v>0.261976</v>
+        <v>0.247198</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.280259</v>
+        <v>0.279921</v>
       </c>
       <c r="C47" t="n">
-        <v>0.231523</v>
+        <v>0.214138</v>
       </c>
       <c r="D47" t="n">
-        <v>0.261169</v>
+        <v>0.24634</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.26856</v>
+        <v>0.268372</v>
       </c>
       <c r="C48" t="n">
-        <v>0.230276</v>
+        <v>0.212652</v>
       </c>
       <c r="D48" t="n">
-        <v>0.261232</v>
+        <v>0.246158</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.256284</v>
+        <v>0.25611</v>
       </c>
       <c r="C49" t="n">
-        <v>0.230339</v>
+        <v>0.212688</v>
       </c>
       <c r="D49" t="n">
-        <v>0.260023</v>
+        <v>0.245233</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.242329</v>
+        <v>0.242248</v>
       </c>
       <c r="C50" t="n">
-        <v>0.230589</v>
+        <v>0.212379</v>
       </c>
       <c r="D50" t="n">
-        <v>0.261039</v>
+        <v>0.245272</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.227094</v>
+        <v>0.226785</v>
       </c>
       <c r="C51" t="n">
-        <v>0.231125</v>
+        <v>0.212009</v>
       </c>
       <c r="D51" t="n">
-        <v>0.277341</v>
+        <v>0.261882</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.210026</v>
+        <v>0.210403</v>
       </c>
       <c r="C52" t="n">
-        <v>0.23121</v>
+        <v>0.212039</v>
       </c>
       <c r="D52" t="n">
-        <v>0.274223</v>
+        <v>0.258615</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.350094</v>
+        <v>0.350543</v>
       </c>
       <c r="C53" t="n">
-        <v>0.242075</v>
+        <v>0.226522</v>
       </c>
       <c r="D53" t="n">
-        <v>0.271711</v>
+        <v>0.256513</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.344752</v>
+        <v>0.344509</v>
       </c>
       <c r="C54" t="n">
-        <v>0.239356</v>
+        <v>0.223327</v>
       </c>
       <c r="D54" t="n">
-        <v>0.270255</v>
+        <v>0.254923</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.338174</v>
+        <v>0.338675</v>
       </c>
       <c r="C55" t="n">
-        <v>0.236859</v>
+        <v>0.220686</v>
       </c>
       <c r="D55" t="n">
-        <v>0.268971</v>
+        <v>0.253727</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.330948</v>
+        <v>0.330961</v>
       </c>
       <c r="C56" t="n">
-        <v>0.235551</v>
+        <v>0.219729</v>
       </c>
       <c r="D56" t="n">
-        <v>0.267022</v>
+        <v>0.251699</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.322906</v>
+        <v>0.323244</v>
       </c>
       <c r="C57" t="n">
-        <v>0.234421</v>
+        <v>0.218048</v>
       </c>
       <c r="D57" t="n">
-        <v>0.265598</v>
+        <v>0.250396</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.314441</v>
+        <v>0.314111</v>
       </c>
       <c r="C58" t="n">
-        <v>0.233694</v>
+        <v>0.217466</v>
       </c>
       <c r="D58" t="n">
-        <v>0.264227</v>
+        <v>0.249237</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.305103</v>
+        <v>0.30537</v>
       </c>
       <c r="C59" t="n">
-        <v>0.232373</v>
+        <v>0.214841</v>
       </c>
       <c r="D59" t="n">
-        <v>0.26305</v>
+        <v>0.248021</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.294917</v>
+        <v>0.295181</v>
       </c>
       <c r="C60" t="n">
-        <v>0.231809</v>
+        <v>0.214211</v>
       </c>
       <c r="D60" t="n">
-        <v>0.262096</v>
+        <v>0.246924</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.283982</v>
+        <v>0.283953</v>
       </c>
       <c r="C61" t="n">
-        <v>0.231163</v>
+        <v>0.213662</v>
       </c>
       <c r="D61" t="n">
-        <v>0.261265</v>
+        <v>0.246363</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272256</v>
+        <v>0.272458</v>
       </c>
       <c r="C62" t="n">
-        <v>0.230863</v>
+        <v>0.213049</v>
       </c>
       <c r="D62" t="n">
-        <v>0.260784</v>
+        <v>0.245553</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.259499</v>
+        <v>0.259921</v>
       </c>
       <c r="C63" t="n">
-        <v>0.230742</v>
+        <v>0.212657</v>
       </c>
       <c r="D63" t="n">
-        <v>0.259673</v>
+        <v>0.244658</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.245697</v>
+        <v>0.246244</v>
       </c>
       <c r="C64" t="n">
-        <v>0.230765</v>
+        <v>0.212242</v>
       </c>
       <c r="D64" t="n">
-        <v>0.259455</v>
+        <v>0.244165</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.230466</v>
+        <v>0.230712</v>
       </c>
       <c r="C65" t="n">
-        <v>0.230908</v>
+        <v>0.212148</v>
       </c>
       <c r="D65" t="n">
-        <v>0.258515</v>
+        <v>0.243359</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.213834</v>
+        <v>0.213968</v>
       </c>
       <c r="C66" t="n">
-        <v>0.231914</v>
+        <v>0.212178</v>
       </c>
       <c r="D66" t="n">
-        <v>0.27581</v>
+        <v>0.259451</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.352511</v>
+        <v>0.35274</v>
       </c>
       <c r="C67" t="n">
-        <v>0.244699</v>
+        <v>0.228392</v>
       </c>
       <c r="D67" t="n">
-        <v>0.273219</v>
+        <v>0.25713</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.346902</v>
+        <v>0.347267</v>
       </c>
       <c r="C68" t="n">
-        <v>0.240795</v>
+        <v>0.224363</v>
       </c>
       <c r="D68" t="n">
-        <v>0.271002</v>
+        <v>0.255019</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.340769</v>
+        <v>0.341123</v>
       </c>
       <c r="C69" t="n">
-        <v>0.2377</v>
+        <v>0.221499</v>
       </c>
       <c r="D69" t="n">
-        <v>0.269024</v>
+        <v>0.253418</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.333854</v>
+        <v>0.33393</v>
       </c>
       <c r="C70" t="n">
-        <v>0.235765</v>
+        <v>0.219474</v>
       </c>
       <c r="D70" t="n">
-        <v>0.267545</v>
+        <v>0.252342</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.325797</v>
+        <v>0.325637</v>
       </c>
       <c r="C71" t="n">
-        <v>0.234585</v>
+        <v>0.218469</v>
       </c>
       <c r="D71" t="n">
-        <v>0.266052</v>
+        <v>0.25113</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.316977</v>
+        <v>0.3174</v>
       </c>
       <c r="C72" t="n">
-        <v>0.233271</v>
+        <v>0.21734</v>
       </c>
       <c r="D72" t="n">
-        <v>0.264977</v>
+        <v>0.24987</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.307673</v>
+        <v>0.307785</v>
       </c>
       <c r="C73" t="n">
-        <v>0.232671</v>
+        <v>0.216617</v>
       </c>
       <c r="D73" t="n">
-        <v>0.263539</v>
+        <v>0.248386</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.297679</v>
+        <v>0.297708</v>
       </c>
       <c r="C74" t="n">
-        <v>0.232003</v>
+        <v>0.214495</v>
       </c>
       <c r="D74" t="n">
-        <v>0.262388</v>
+        <v>0.248134</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.287029</v>
+        <v>0.286925</v>
       </c>
       <c r="C75" t="n">
-        <v>0.231548</v>
+        <v>0.213983</v>
       </c>
       <c r="D75" t="n">
-        <v>0.261732</v>
+        <v>0.246951</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.27588</v>
+        <v>0.275629</v>
       </c>
       <c r="C76" t="n">
-        <v>0.231265</v>
+        <v>0.213473</v>
       </c>
       <c r="D76" t="n">
-        <v>0.260715</v>
+        <v>0.245686</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.263253</v>
+        <v>0.26298</v>
       </c>
       <c r="C77" t="n">
-        <v>0.230843</v>
+        <v>0.212733</v>
       </c>
       <c r="D77" t="n">
-        <v>0.259911</v>
+        <v>0.244993</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.249495</v>
+        <v>0.249165</v>
       </c>
       <c r="C78" t="n">
-        <v>0.231012</v>
+        <v>0.212251</v>
       </c>
       <c r="D78" t="n">
-        <v>0.259532</v>
+        <v>0.243981</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.234491</v>
+        <v>0.234444</v>
       </c>
       <c r="C79" t="n">
-        <v>0.23133</v>
+        <v>0.212182</v>
       </c>
       <c r="D79" t="n">
-        <v>0.258823</v>
+        <v>0.244282</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.218678</v>
+        <v>0.218569</v>
       </c>
       <c r="C80" t="n">
-        <v>0.231806</v>
+        <v>0.211948</v>
       </c>
       <c r="D80" t="n">
-        <v>0.275938</v>
+        <v>0.260334</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.353889</v>
+        <v>0.353749</v>
       </c>
       <c r="C81" t="n">
-        <v>0.244123</v>
+        <v>0.227783</v>
       </c>
       <c r="D81" t="n">
-        <v>0.273392</v>
+        <v>0.257885</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.348401</v>
+        <v>0.348376</v>
       </c>
       <c r="C82" t="n">
-        <v>0.239902</v>
+        <v>0.22389</v>
       </c>
       <c r="D82" t="n">
-        <v>0.271343</v>
+        <v>0.255794</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.342087</v>
+        <v>0.341915</v>
       </c>
       <c r="C83" t="n">
-        <v>0.237663</v>
+        <v>0.221635</v>
       </c>
       <c r="D83" t="n">
-        <v>0.269415</v>
+        <v>0.253927</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.335097</v>
+        <v>0.335004</v>
       </c>
       <c r="C84" t="n">
-        <v>0.235811</v>
+        <v>0.219801</v>
       </c>
       <c r="D84" t="n">
-        <v>0.26794</v>
+        <v>0.252576</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.327316</v>
+        <v>0.327224</v>
       </c>
       <c r="C85" t="n">
-        <v>0.234649</v>
+        <v>0.21883</v>
       </c>
       <c r="D85" t="n">
-        <v>0.266579</v>
+        <v>0.251477</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.319105</v>
+        <v>0.3189</v>
       </c>
       <c r="C86" t="n">
-        <v>0.233569</v>
+        <v>0.217915</v>
       </c>
       <c r="D86" t="n">
-        <v>0.26527</v>
+        <v>0.250087</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.309853</v>
+        <v>0.309811</v>
       </c>
       <c r="C87" t="n">
-        <v>0.23269</v>
+        <v>0.216764</v>
       </c>
       <c r="D87" t="n">
-        <v>0.263912</v>
+        <v>0.248815</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.300139</v>
+        <v>0.299997</v>
       </c>
       <c r="C88" t="n">
-        <v>0.231866</v>
+        <v>0.215815</v>
       </c>
       <c r="D88" t="n">
-        <v>0.262829</v>
+        <v>0.247679</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.289776</v>
+        <v>0.289554</v>
       </c>
       <c r="C89" t="n">
-        <v>0.231363</v>
+        <v>0.214095</v>
       </c>
       <c r="D89" t="n">
-        <v>0.261695</v>
+        <v>0.246869</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.278114</v>
+        <v>0.278132</v>
       </c>
       <c r="C90" t="n">
-        <v>0.231183</v>
+        <v>0.213256</v>
       </c>
       <c r="D90" t="n">
-        <v>0.26077</v>
+        <v>0.246005</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.26562</v>
+        <v>0.265392</v>
       </c>
       <c r="C91" t="n">
-        <v>0.230875</v>
+        <v>0.21282</v>
       </c>
       <c r="D91" t="n">
-        <v>0.260193</v>
+        <v>0.245356</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.25247</v>
+        <v>0.252088</v>
       </c>
       <c r="C92" t="n">
-        <v>0.230757</v>
+        <v>0.212325</v>
       </c>
       <c r="D92" t="n">
-        <v>0.259417</v>
+        <v>0.244589</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.238162</v>
+        <v>0.238089</v>
       </c>
       <c r="C93" t="n">
-        <v>0.230733</v>
+        <v>0.211902</v>
       </c>
       <c r="D93" t="n">
-        <v>0.259274</v>
+        <v>0.244008</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.222066</v>
+        <v>0.22233</v>
       </c>
       <c r="C94" t="n">
-        <v>0.231614</v>
+        <v>0.21171</v>
       </c>
       <c r="D94" t="n">
-        <v>0.276861</v>
+        <v>0.261429</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.354949</v>
+        <v>0.355106</v>
       </c>
       <c r="C95" t="n">
-        <v>0.244147</v>
+        <v>0.228076</v>
       </c>
       <c r="D95" t="n">
-        <v>0.273885</v>
+        <v>0.258353</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.349727</v>
+        <v>0.34999</v>
       </c>
       <c r="C96" t="n">
-        <v>0.240942</v>
+        <v>0.224993</v>
       </c>
       <c r="D96" t="n">
-        <v>0.271663</v>
+        <v>0.256196</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.34385</v>
+        <v>0.343871</v>
       </c>
       <c r="C97" t="n">
-        <v>0.238316</v>
+        <v>0.222316</v>
       </c>
       <c r="D97" t="n">
-        <v>0.269764</v>
+        <v>0.254556</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.336981</v>
+        <v>0.33731</v>
       </c>
       <c r="C98" t="n">
-        <v>0.236293</v>
+        <v>0.220254</v>
       </c>
       <c r="D98" t="n">
-        <v>0.268103</v>
+        <v>0.252865</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.329461</v>
+        <v>0.329316</v>
       </c>
       <c r="C99" t="n">
-        <v>0.23508</v>
+        <v>0.218953</v>
       </c>
       <c r="D99" t="n">
-        <v>0.266754</v>
+        <v>0.251665</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.321203</v>
+        <v>0.320999</v>
       </c>
       <c r="C100" t="n">
-        <v>0.234006</v>
+        <v>0.217644</v>
       </c>
       <c r="D100" t="n">
-        <v>0.265344</v>
+        <v>0.25025</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.312156</v>
+        <v>0.312008</v>
       </c>
       <c r="C101" t="n">
-        <v>0.232996</v>
+        <v>0.216997</v>
       </c>
       <c r="D101" t="n">
-        <v>0.264044</v>
+        <v>0.249125</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.302593</v>
+        <v>0.302404</v>
       </c>
       <c r="C102" t="n">
-        <v>0.23214</v>
+        <v>0.216096</v>
       </c>
       <c r="D102" t="n">
-        <v>0.262894</v>
+        <v>0.248315</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.292224</v>
+        <v>0.291914</v>
       </c>
       <c r="C103" t="n">
-        <v>0.231453</v>
+        <v>0.21533</v>
       </c>
       <c r="D103" t="n">
-        <v>0.261859</v>
+        <v>0.247299</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.280708</v>
+        <v>0.280558</v>
       </c>
       <c r="C104" t="n">
-        <v>0.231061</v>
+        <v>0.213985</v>
       </c>
       <c r="D104" t="n">
-        <v>0.260985</v>
+        <v>0.246356</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.268735</v>
+        <v>0.268341</v>
       </c>
       <c r="C105" t="n">
-        <v>0.230616</v>
+        <v>0.214035</v>
       </c>
       <c r="D105" t="n">
-        <v>0.26009</v>
+        <v>0.245524</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.255649</v>
+        <v>0.255443</v>
       </c>
       <c r="C106" t="n">
-        <v>0.230515</v>
+        <v>0.212283</v>
       </c>
       <c r="D106" t="n">
-        <v>0.259686</v>
+        <v>0.244629</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.241606</v>
+        <v>0.241381</v>
       </c>
       <c r="C107" t="n">
-        <v>0.230706</v>
+        <v>0.211903</v>
       </c>
       <c r="D107" t="n">
-        <v>0.258917</v>
+        <v>0.244083</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.226249</v>
+        <v>0.225876</v>
       </c>
       <c r="C108" t="n">
-        <v>0.231025</v>
+        <v>0.211652</v>
       </c>
       <c r="D108" t="n">
-        <v>0.276909</v>
+        <v>0.261488</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.209153</v>
+        <v>0.209195</v>
       </c>
       <c r="C109" t="n">
-        <v>0.23137</v>
+        <v>0.211393</v>
       </c>
       <c r="D109" t="n">
-        <v>0.274264</v>
+        <v>0.258807</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.350869</v>
+        <v>0.350702</v>
       </c>
       <c r="C110" t="n">
-        <v>0.2415</v>
+        <v>0.22459</v>
       </c>
       <c r="D110" t="n">
-        <v>0.272223</v>
+        <v>0.256831</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.344835</v>
+        <v>0.344751</v>
       </c>
       <c r="C111" t="n">
-        <v>0.239048</v>
+        <v>0.222195</v>
       </c>
       <c r="D111" t="n">
-        <v>0.270243</v>
+        <v>0.254915</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.33809</v>
+        <v>0.338061</v>
       </c>
       <c r="C112" t="n">
-        <v>0.237163</v>
+        <v>0.220365</v>
       </c>
       <c r="D112" t="n">
-        <v>0.268557</v>
+        <v>0.253262</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.330769</v>
+        <v>0.330702</v>
       </c>
       <c r="C113" t="n">
-        <v>0.23562</v>
+        <v>0.218885</v>
       </c>
       <c r="D113" t="n">
-        <v>0.267301</v>
+        <v>0.251824</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.32265</v>
+        <v>0.32258</v>
       </c>
       <c r="C114" t="n">
-        <v>0.234282</v>
+        <v>0.217828</v>
       </c>
       <c r="D114" t="n">
-        <v>0.266122</v>
+        <v>0.251424</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.313781</v>
+        <v>0.31376</v>
       </c>
       <c r="C115" t="n">
-        <v>0.233749</v>
+        <v>0.216717</v>
       </c>
       <c r="D115" t="n">
-        <v>0.264977</v>
+        <v>0.250186</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.304258</v>
+        <v>0.304093</v>
       </c>
       <c r="C116" t="n">
-        <v>0.233184</v>
+        <v>0.215819</v>
       </c>
       <c r="D116" t="n">
-        <v>0.263661</v>
+        <v>0.24925</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.293966</v>
+        <v>0.2938</v>
       </c>
       <c r="C117" t="n">
-        <v>0.232289</v>
+        <v>0.215574</v>
       </c>
       <c r="D117" t="n">
-        <v>0.262532</v>
+        <v>0.248408</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.282897</v>
+        <v>0.282747</v>
       </c>
       <c r="C118" t="n">
-        <v>0.231877</v>
+        <v>0.214891</v>
       </c>
       <c r="D118" t="n">
-        <v>0.261592</v>
+        <v>0.247357</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.271182</v>
+        <v>0.270968</v>
       </c>
       <c r="C119" t="n">
-        <v>0.231449</v>
+        <v>0.214275</v>
       </c>
       <c r="D119" t="n">
-        <v>0.260649</v>
+        <v>0.246364</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.25851</v>
+        <v>0.258318</v>
       </c>
       <c r="C120" t="n">
-        <v>0.231244</v>
+        <v>0.212964</v>
       </c>
       <c r="D120" t="n">
-        <v>0.260038</v>
+        <v>0.245339</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.244569</v>
+        <v>0.24426</v>
       </c>
       <c r="C121" t="n">
-        <v>0.231156</v>
+        <v>0.213349</v>
       </c>
       <c r="D121" t="n">
-        <v>0.259673</v>
+        <v>0.245172</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.229408</v>
+        <v>0.22947</v>
       </c>
       <c r="C122" t="n">
-        <v>0.231313</v>
+        <v>0.211953</v>
       </c>
       <c r="D122" t="n">
-        <v>0.25884</v>
+        <v>0.244755</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.212645</v>
+        <v>0.212747</v>
       </c>
       <c r="C123" t="n">
-        <v>0.231668</v>
+        <v>0.212161</v>
       </c>
       <c r="D123" t="n">
-        <v>0.274813</v>
+        <v>0.260195</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.351882</v>
+        <v>0.351694</v>
       </c>
       <c r="C124" t="n">
-        <v>0.243089</v>
+        <v>0.225486</v>
       </c>
       <c r="D124" t="n">
-        <v>0.272493</v>
+        <v>0.258152</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.346042</v>
+        <v>0.346001</v>
       </c>
       <c r="C125" t="n">
-        <v>0.240032</v>
+        <v>0.222579</v>
       </c>
       <c r="D125" t="n">
-        <v>0.270624</v>
+        <v>0.256238</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.339553</v>
+        <v>0.339477</v>
       </c>
       <c r="C126" t="n">
-        <v>0.238494</v>
+        <v>0.220776</v>
       </c>
       <c r="D126" t="n">
-        <v>0.268949</v>
+        <v>0.25448</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.332298</v>
+        <v>0.332223</v>
       </c>
       <c r="C127" t="n">
-        <v>0.236882</v>
+        <v>0.219239</v>
       </c>
       <c r="D127" t="n">
-        <v>0.267291</v>
+        <v>0.252781</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.324248</v>
+        <v>0.324132</v>
       </c>
       <c r="C128" t="n">
-        <v>0.235482</v>
+        <v>0.217892</v>
       </c>
       <c r="D128" t="n">
-        <v>0.265897</v>
+        <v>0.251291</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.315542</v>
+        <v>0.315465</v>
       </c>
       <c r="C129" t="n">
-        <v>0.234256</v>
+        <v>0.216945</v>
       </c>
       <c r="D129" t="n">
-        <v>0.264589</v>
+        <v>0.250375</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.306048</v>
+        <v>0.306007</v>
       </c>
       <c r="C130" t="n">
-        <v>0.232984</v>
+        <v>0.216075</v>
       </c>
       <c r="D130" t="n">
-        <v>0.263437</v>
+        <v>0.249445</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.296199</v>
+        <v>0.295879</v>
       </c>
       <c r="C131" t="n">
-        <v>0.232874</v>
+        <v>0.215344</v>
       </c>
       <c r="D131" t="n">
-        <v>0.262623</v>
+        <v>0.248294</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.285051</v>
+        <v>0.285005</v>
       </c>
       <c r="C132" t="n">
-        <v>0.231894</v>
+        <v>0.214575</v>
       </c>
       <c r="D132" t="n">
-        <v>0.261779</v>
+        <v>0.247541</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.273196</v>
+        <v>0.273219</v>
       </c>
       <c r="C133" t="n">
-        <v>0.231598</v>
+        <v>0.212667</v>
       </c>
       <c r="D133" t="n">
-        <v>0.260855</v>
+        <v>0.246631</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.260367</v>
+        <v>0.260393</v>
       </c>
       <c r="C134" t="n">
-        <v>0.231503</v>
+        <v>0.21215</v>
       </c>
       <c r="D134" t="n">
-        <v>0.26018</v>
+        <v>0.246198</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.246948</v>
+        <v>0.24673</v>
       </c>
       <c r="C135" t="n">
-        <v>0.231432</v>
+        <v>0.21181</v>
       </c>
       <c r="D135" t="n">
-        <v>0.259722</v>
+        <v>0.245237</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.231975</v>
+        <v>0.231954</v>
       </c>
       <c r="C136" t="n">
-        <v>0.231579</v>
+        <v>0.212098</v>
       </c>
       <c r="D136" t="n">
-        <v>0.259053</v>
+        <v>0.245401</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.215846</v>
+        <v>0.215877</v>
       </c>
       <c r="C137" t="n">
-        <v>0.232472</v>
+        <v>0.211665</v>
       </c>
       <c r="D137" t="n">
-        <v>0.276118</v>
+        <v>0.261647</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.35291</v>
+        <v>0.352776</v>
       </c>
       <c r="C138" t="n">
-        <v>0.245151</v>
+        <v>0.227097</v>
       </c>
       <c r="D138" t="n">
-        <v>0.27344</v>
+        <v>0.258709</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.347414</v>
+        <v>0.347355</v>
       </c>
       <c r="C139" t="n">
-        <v>0.242919</v>
+        <v>0.223629</v>
       </c>
       <c r="D139" t="n">
-        <v>0.27158</v>
+        <v>0.257351</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.341091</v>
+        <v>0.341032</v>
       </c>
       <c r="C140" t="n">
-        <v>0.240154</v>
+        <v>0.221453</v>
       </c>
       <c r="D140" t="n">
-        <v>0.269732</v>
+        <v>0.255621</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.334041</v>
+        <v>0.333896</v>
       </c>
       <c r="C141" t="n">
-        <v>0.238316</v>
+        <v>0.219676</v>
       </c>
       <c r="D141" t="n">
-        <v>0.268052</v>
+        <v>0.25393</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.326228</v>
+        <v>0.326025</v>
       </c>
       <c r="C142" t="n">
-        <v>0.236952</v>
+        <v>0.218449</v>
       </c>
       <c r="D142" t="n">
-        <v>0.26674</v>
+        <v>0.252416</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.317649</v>
+        <v>0.317473</v>
       </c>
       <c r="C143" t="n">
-        <v>0.236331</v>
+        <v>0.217436</v>
       </c>
       <c r="D143" t="n">
-        <v>0.265506</v>
+        <v>0.250875</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.279283</v>
+        <v>0.28749</v>
       </c>
       <c r="C2" t="n">
-        <v>0.194941</v>
+        <v>0.193292</v>
       </c>
       <c r="D2" t="n">
-        <v>0.226086</v>
+        <v>0.229871</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.268252</v>
+        <v>0.274082</v>
       </c>
       <c r="C3" t="n">
-        <v>0.194777</v>
+        <v>0.195274</v>
       </c>
       <c r="D3" t="n">
-        <v>0.22646</v>
+        <v>0.226732</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.259535</v>
+        <v>0.263455</v>
       </c>
       <c r="C4" t="n">
-        <v>0.195463</v>
+        <v>0.193951</v>
       </c>
       <c r="D4" t="n">
-        <v>0.228166</v>
+        <v>0.229435</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.248773</v>
+        <v>0.251616</v>
       </c>
       <c r="C5" t="n">
-        <v>0.196566</v>
+        <v>0.195233</v>
       </c>
       <c r="D5" t="n">
-        <v>0.227309</v>
+        <v>0.227898</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.236964</v>
+        <v>0.239291</v>
       </c>
       <c r="C6" t="n">
-        <v>0.197179</v>
+        <v>0.196615</v>
       </c>
       <c r="D6" t="n">
-        <v>0.228815</v>
+        <v>0.229169</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.225895</v>
+        <v>0.226832</v>
       </c>
       <c r="C7" t="n">
-        <v>0.198902</v>
+        <v>0.19671</v>
       </c>
       <c r="D7" t="n">
-        <v>0.229392</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.210514</v>
+        <v>0.212288</v>
       </c>
       <c r="C8" t="n">
-        <v>0.199154</v>
+        <v>0.200526</v>
       </c>
       <c r="D8" t="n">
-        <v>0.23403</v>
+        <v>0.230519</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.195252</v>
+        <v>0.1974</v>
       </c>
       <c r="C9" t="n">
-        <v>0.201436</v>
+        <v>0.199866</v>
       </c>
       <c r="D9" t="n">
-        <v>0.255538</v>
+        <v>0.253064</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.334881</v>
+        <v>0.336543</v>
       </c>
       <c r="C10" t="n">
-        <v>0.217916</v>
+        <v>0.217877</v>
       </c>
       <c r="D10" t="n">
-        <v>0.251211</v>
+        <v>0.25112</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.330094</v>
+        <v>0.338633</v>
       </c>
       <c r="C11" t="n">
-        <v>0.21784</v>
+        <v>0.21823</v>
       </c>
       <c r="D11" t="n">
-        <v>0.254328</v>
+        <v>0.254571</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.324617</v>
+        <v>0.325303</v>
       </c>
       <c r="C12" t="n">
-        <v>0.21691</v>
+        <v>0.215758</v>
       </c>
       <c r="D12" t="n">
-        <v>0.24882</v>
+        <v>0.257141</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.319562</v>
+        <v>0.31992</v>
       </c>
       <c r="C13" t="n">
-        <v>0.215256</v>
+        <v>0.21521</v>
       </c>
       <c r="D13" t="n">
-        <v>0.251176</v>
+        <v>0.249966</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.31141</v>
+        <v>0.311939</v>
       </c>
       <c r="C14" t="n">
-        <v>0.212661</v>
+        <v>0.213718</v>
       </c>
       <c r="D14" t="n">
-        <v>0.255206</v>
+        <v>0.27201</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.303031</v>
+        <v>0.302886</v>
       </c>
       <c r="C15" t="n">
-        <v>0.212312</v>
+        <v>0.214338</v>
       </c>
       <c r="D15" t="n">
-        <v>0.246756</v>
+        <v>0.252714</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.294044</v>
+        <v>0.295119</v>
       </c>
       <c r="C16" t="n">
-        <v>0.211919</v>
+        <v>0.213578</v>
       </c>
       <c r="D16" t="n">
-        <v>0.254046</v>
+        <v>0.249963</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.286956</v>
+        <v>0.286306</v>
       </c>
       <c r="C17" t="n">
-        <v>0.211804</v>
+        <v>0.213408</v>
       </c>
       <c r="D17" t="n">
-        <v>0.247994</v>
+        <v>0.247754</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.274728</v>
+        <v>0.276485</v>
       </c>
       <c r="C18" t="n">
-        <v>0.211197</v>
+        <v>0.211604</v>
       </c>
       <c r="D18" t="n">
-        <v>0.247364</v>
+        <v>0.243167</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.264637</v>
+        <v>0.265676</v>
       </c>
       <c r="C19" t="n">
-        <v>0.209997</v>
+        <v>0.210408</v>
       </c>
       <c r="D19" t="n">
-        <v>0.242657</v>
+        <v>0.245979</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.254657</v>
+        <v>0.255073</v>
       </c>
       <c r="C20" t="n">
-        <v>0.210566</v>
+        <v>0.210175</v>
       </c>
       <c r="D20" t="n">
-        <v>0.247564</v>
+        <v>0.247511</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.241814</v>
+        <v>0.24199</v>
       </c>
       <c r="C21" t="n">
-        <v>0.210385</v>
+        <v>0.211155</v>
       </c>
       <c r="D21" t="n">
-        <v>0.246269</v>
+        <v>0.24646</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.226885</v>
+        <v>0.227517</v>
       </c>
       <c r="C22" t="n">
-        <v>0.210303</v>
+        <v>0.209806</v>
       </c>
       <c r="D22" t="n">
-        <v>0.243157</v>
+        <v>0.244788</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.210327</v>
+        <v>0.210833</v>
       </c>
       <c r="C23" t="n">
-        <v>0.209548</v>
+        <v>0.209786</v>
       </c>
       <c r="D23" t="n">
-        <v>0.260645</v>
+        <v>0.260512</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.347904</v>
+        <v>0.348601</v>
       </c>
       <c r="C24" t="n">
-        <v>0.226555</v>
+        <v>0.227094</v>
       </c>
       <c r="D24" t="n">
-        <v>0.258133</v>
+        <v>0.258447</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.34228</v>
+        <v>0.34252</v>
       </c>
       <c r="C25" t="n">
-        <v>0.224759</v>
+        <v>0.224763</v>
       </c>
       <c r="D25" t="n">
-        <v>0.25729</v>
+        <v>0.257779</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.335831</v>
+        <v>0.337207</v>
       </c>
       <c r="C26" t="n">
-        <v>0.221663</v>
+        <v>0.221839</v>
       </c>
       <c r="D26" t="n">
-        <v>0.25587</v>
+        <v>0.256105</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.329492</v>
+        <v>0.330209</v>
       </c>
       <c r="C27" t="n">
-        <v>0.219518</v>
+        <v>0.219415</v>
       </c>
       <c r="D27" t="n">
-        <v>0.252786</v>
+        <v>0.252498</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.322716</v>
+        <v>0.323253</v>
       </c>
       <c r="C28" t="n">
-        <v>0.217147</v>
+        <v>0.216821</v>
       </c>
       <c r="D28" t="n">
-        <v>0.251557</v>
+        <v>0.251627</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.313598</v>
+        <v>0.314437</v>
       </c>
       <c r="C29" t="n">
-        <v>0.216098</v>
+        <v>0.216072</v>
       </c>
       <c r="D29" t="n">
-        <v>0.250161</v>
+        <v>0.25021</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.304752</v>
+        <v>0.305607</v>
       </c>
       <c r="C30" t="n">
-        <v>0.215085</v>
+        <v>0.214821</v>
       </c>
       <c r="D30" t="n">
-        <v>0.248957</v>
+        <v>0.24928</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.294499</v>
+        <v>0.295457</v>
       </c>
       <c r="C31" t="n">
-        <v>0.214554</v>
+        <v>0.214807</v>
       </c>
       <c r="D31" t="n">
-        <v>0.247632</v>
+        <v>0.248027</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.284469</v>
+        <v>0.285198</v>
       </c>
       <c r="C32" t="n">
-        <v>0.213967</v>
+        <v>0.213938</v>
       </c>
       <c r="D32" t="n">
-        <v>0.246836</v>
+        <v>0.246838</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.273846</v>
+        <v>0.274458</v>
       </c>
       <c r="C33" t="n">
-        <v>0.213097</v>
+        <v>0.213062</v>
       </c>
       <c r="D33" t="n">
-        <v>0.246105</v>
+        <v>0.24603</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.262321</v>
+        <v>0.262736</v>
       </c>
       <c r="C34" t="n">
-        <v>0.212534</v>
+        <v>0.212763</v>
       </c>
       <c r="D34" t="n">
-        <v>0.244671</v>
+        <v>0.244576</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.248572</v>
+        <v>0.249323</v>
       </c>
       <c r="C35" t="n">
-        <v>0.212277</v>
+        <v>0.212501</v>
       </c>
       <c r="D35" t="n">
-        <v>0.244416</v>
+        <v>0.244384</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.23525</v>
+        <v>0.235752</v>
       </c>
       <c r="C36" t="n">
-        <v>0.212225</v>
+        <v>0.212207</v>
       </c>
       <c r="D36" t="n">
-        <v>0.243653</v>
+        <v>0.243244</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.219791</v>
+        <v>0.2206</v>
       </c>
       <c r="C37" t="n">
-        <v>0.212771</v>
+        <v>0.212269</v>
       </c>
       <c r="D37" t="n">
-        <v>0.262125</v>
+        <v>0.261533</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.351856</v>
+        <v>0.351999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.229757</v>
+        <v>0.229028</v>
       </c>
       <c r="D38" t="n">
-        <v>0.260134</v>
+        <v>0.259665</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.347287</v>
+        <v>0.347454</v>
       </c>
       <c r="C39" t="n">
-        <v>0.228264</v>
+        <v>0.227335</v>
       </c>
       <c r="D39" t="n">
-        <v>0.25748</v>
+        <v>0.257122</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.341131</v>
+        <v>0.341712</v>
       </c>
       <c r="C40" t="n">
-        <v>0.224711</v>
+        <v>0.224326</v>
       </c>
       <c r="D40" t="n">
-        <v>0.256014</v>
+        <v>0.255318</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.334191</v>
+        <v>0.334761</v>
       </c>
       <c r="C41" t="n">
-        <v>0.220985</v>
+        <v>0.220821</v>
       </c>
       <c r="D41" t="n">
-        <v>0.253871</v>
+        <v>0.253627</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.327175</v>
+        <v>0.327537</v>
       </c>
       <c r="C42" t="n">
-        <v>0.219304</v>
+        <v>0.219337</v>
       </c>
       <c r="D42" t="n">
-        <v>0.252366</v>
+        <v>0.252324</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.319075</v>
+        <v>0.319616</v>
       </c>
       <c r="C43" t="n">
-        <v>0.218227</v>
+        <v>0.218235</v>
       </c>
       <c r="D43" t="n">
-        <v>0.251363</v>
+        <v>0.250471</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.31056</v>
+        <v>0.311073</v>
       </c>
       <c r="C44" t="n">
-        <v>0.216947</v>
+        <v>0.216724</v>
       </c>
       <c r="D44" t="n">
-        <v>0.249265</v>
+        <v>0.248758</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.301358</v>
+        <v>0.30228</v>
       </c>
       <c r="C45" t="n">
-        <v>0.216492</v>
+        <v>0.216474</v>
       </c>
       <c r="D45" t="n">
-        <v>0.248565</v>
+        <v>0.248201</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.291005</v>
+        <v>0.291719</v>
       </c>
       <c r="C46" t="n">
-        <v>0.214691</v>
+        <v>0.214484</v>
       </c>
       <c r="D46" t="n">
-        <v>0.247198</v>
+        <v>0.24706</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.279921</v>
+        <v>0.280509</v>
       </c>
       <c r="C47" t="n">
-        <v>0.214138</v>
+        <v>0.214411</v>
       </c>
       <c r="D47" t="n">
-        <v>0.24634</v>
+        <v>0.246084</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.268372</v>
+        <v>0.26908</v>
       </c>
       <c r="C48" t="n">
-        <v>0.212652</v>
+        <v>0.212836</v>
       </c>
       <c r="D48" t="n">
-        <v>0.246158</v>
+        <v>0.245293</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.25611</v>
+        <v>0.256718</v>
       </c>
       <c r="C49" t="n">
-        <v>0.212688</v>
+        <v>0.212585</v>
       </c>
       <c r="D49" t="n">
-        <v>0.245233</v>
+        <v>0.245185</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.242248</v>
+        <v>0.242584</v>
       </c>
       <c r="C50" t="n">
-        <v>0.212379</v>
+        <v>0.212607</v>
       </c>
       <c r="D50" t="n">
-        <v>0.245272</v>
+        <v>0.246133</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.226785</v>
+        <v>0.227021</v>
       </c>
       <c r="C51" t="n">
-        <v>0.212009</v>
+        <v>0.212473</v>
       </c>
       <c r="D51" t="n">
-        <v>0.261882</v>
+        <v>0.261952</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.210403</v>
+        <v>0.21027</v>
       </c>
       <c r="C52" t="n">
-        <v>0.212039</v>
+        <v>0.211834</v>
       </c>
       <c r="D52" t="n">
-        <v>0.258615</v>
+        <v>0.258736</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.350543</v>
+        <v>0.35077</v>
       </c>
       <c r="C53" t="n">
-        <v>0.226522</v>
+        <v>0.227498</v>
       </c>
       <c r="D53" t="n">
-        <v>0.256513</v>
+        <v>0.256787</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.344509</v>
+        <v>0.344914</v>
       </c>
       <c r="C54" t="n">
-        <v>0.223327</v>
+        <v>0.224046</v>
       </c>
       <c r="D54" t="n">
-        <v>0.254923</v>
+        <v>0.255154</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.338675</v>
+        <v>0.338649</v>
       </c>
       <c r="C55" t="n">
-        <v>0.220686</v>
+        <v>0.220924</v>
       </c>
       <c r="D55" t="n">
-        <v>0.253727</v>
+        <v>0.253262</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.330961</v>
+        <v>0.331157</v>
       </c>
       <c r="C56" t="n">
-        <v>0.219729</v>
+        <v>0.219759</v>
       </c>
       <c r="D56" t="n">
-        <v>0.251699</v>
+        <v>0.251481</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.323244</v>
+        <v>0.323177</v>
       </c>
       <c r="C57" t="n">
-        <v>0.218048</v>
+        <v>0.218148</v>
       </c>
       <c r="D57" t="n">
-        <v>0.250396</v>
+        <v>0.250181</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.314111</v>
+        <v>0.314369</v>
       </c>
       <c r="C58" t="n">
-        <v>0.217466</v>
+        <v>0.217455</v>
       </c>
       <c r="D58" t="n">
-        <v>0.249237</v>
+        <v>0.249052</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.30537</v>
+        <v>0.30551</v>
       </c>
       <c r="C59" t="n">
-        <v>0.214841</v>
+        <v>0.214877</v>
       </c>
       <c r="D59" t="n">
-        <v>0.248021</v>
+        <v>0.24824</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.295181</v>
+        <v>0.295315</v>
       </c>
       <c r="C60" t="n">
-        <v>0.214211</v>
+        <v>0.214081</v>
       </c>
       <c r="D60" t="n">
-        <v>0.246924</v>
+        <v>0.246735</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.283953</v>
+        <v>0.284308</v>
       </c>
       <c r="C61" t="n">
-        <v>0.213662</v>
+        <v>0.213711</v>
       </c>
       <c r="D61" t="n">
-        <v>0.246363</v>
+        <v>0.246122</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272458</v>
+        <v>0.272576</v>
       </c>
       <c r="C62" t="n">
-        <v>0.213049</v>
+        <v>0.212965</v>
       </c>
       <c r="D62" t="n">
-        <v>0.245553</v>
+        <v>0.245213</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.259921</v>
+        <v>0.259884</v>
       </c>
       <c r="C63" t="n">
-        <v>0.212657</v>
+        <v>0.212467</v>
       </c>
       <c r="D63" t="n">
-        <v>0.244658</v>
+        <v>0.244367</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.246244</v>
+        <v>0.246203</v>
       </c>
       <c r="C64" t="n">
-        <v>0.212242</v>
+        <v>0.212234</v>
       </c>
       <c r="D64" t="n">
-        <v>0.244165</v>
+        <v>0.243794</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.230712</v>
+        <v>0.230832</v>
       </c>
       <c r="C65" t="n">
-        <v>0.212148</v>
+        <v>0.212272</v>
       </c>
       <c r="D65" t="n">
-        <v>0.243359</v>
+        <v>0.243467</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.213968</v>
+        <v>0.214179</v>
       </c>
       <c r="C66" t="n">
-        <v>0.212178</v>
+        <v>0.212361</v>
       </c>
       <c r="D66" t="n">
-        <v>0.259451</v>
+        <v>0.259613</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.35274</v>
+        <v>0.352561</v>
       </c>
       <c r="C67" t="n">
-        <v>0.228392</v>
+        <v>0.228613</v>
       </c>
       <c r="D67" t="n">
-        <v>0.25713</v>
+        <v>0.257341</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.347267</v>
+        <v>0.347205</v>
       </c>
       <c r="C68" t="n">
-        <v>0.224363</v>
+        <v>0.224544</v>
       </c>
       <c r="D68" t="n">
-        <v>0.255019</v>
+        <v>0.254941</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.341123</v>
+        <v>0.340887</v>
       </c>
       <c r="C69" t="n">
-        <v>0.221499</v>
+        <v>0.221494</v>
       </c>
       <c r="D69" t="n">
-        <v>0.253418</v>
+        <v>0.25332</v>
       </c>
     </row>
     <row r="70">
@@ -4204,10 +4204,10 @@
         <v>0.33393</v>
       </c>
       <c r="C70" t="n">
-        <v>0.219474</v>
+        <v>0.219446</v>
       </c>
       <c r="D70" t="n">
-        <v>0.252342</v>
+        <v>0.251666</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.325637</v>
+        <v>0.325649</v>
       </c>
       <c r="C71" t="n">
-        <v>0.218469</v>
+        <v>0.21848</v>
       </c>
       <c r="D71" t="n">
-        <v>0.25113</v>
+        <v>0.250649</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.3174</v>
+        <v>0.317238</v>
       </c>
       <c r="C72" t="n">
-        <v>0.21734</v>
+        <v>0.217201</v>
       </c>
       <c r="D72" t="n">
-        <v>0.24987</v>
+        <v>0.249754</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.307785</v>
+        <v>0.307752</v>
       </c>
       <c r="C73" t="n">
-        <v>0.216617</v>
+        <v>0.216657</v>
       </c>
       <c r="D73" t="n">
-        <v>0.248386</v>
+        <v>0.248284</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.297708</v>
+        <v>0.297755</v>
       </c>
       <c r="C74" t="n">
-        <v>0.214495</v>
+        <v>0.214404</v>
       </c>
       <c r="D74" t="n">
-        <v>0.248134</v>
+        <v>0.247898</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.286925</v>
+        <v>0.286911</v>
       </c>
       <c r="C75" t="n">
-        <v>0.213983</v>
+        <v>0.213731</v>
       </c>
       <c r="D75" t="n">
-        <v>0.246951</v>
+        <v>0.246893</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.275629</v>
+        <v>0.275821</v>
       </c>
       <c r="C76" t="n">
-        <v>0.213473</v>
+        <v>0.213406</v>
       </c>
       <c r="D76" t="n">
-        <v>0.245686</v>
+        <v>0.245718</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.26298</v>
+        <v>0.263106</v>
       </c>
       <c r="C77" t="n">
-        <v>0.212733</v>
+        <v>0.212678</v>
       </c>
       <c r="D77" t="n">
-        <v>0.244993</v>
+        <v>0.244838</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.249165</v>
+        <v>0.249508</v>
       </c>
       <c r="C78" t="n">
-        <v>0.212251</v>
+        <v>0.212124</v>
       </c>
       <c r="D78" t="n">
-        <v>0.243981</v>
+        <v>0.244015</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.234444</v>
+        <v>0.234754</v>
       </c>
       <c r="C79" t="n">
-        <v>0.212182</v>
+        <v>0.212142</v>
       </c>
       <c r="D79" t="n">
-        <v>0.244282</v>
+        <v>0.244151</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.218569</v>
+        <v>0.218962</v>
       </c>
       <c r="C80" t="n">
-        <v>0.211948</v>
+        <v>0.211891</v>
       </c>
       <c r="D80" t="n">
-        <v>0.260334</v>
+        <v>0.260298</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.353749</v>
+        <v>0.353884</v>
       </c>
       <c r="C81" t="n">
-        <v>0.227783</v>
+        <v>0.228136</v>
       </c>
       <c r="D81" t="n">
-        <v>0.257885</v>
+        <v>0.257712</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.348376</v>
+        <v>0.348363</v>
       </c>
       <c r="C82" t="n">
-        <v>0.22389</v>
+        <v>0.224167</v>
       </c>
       <c r="D82" t="n">
-        <v>0.255794</v>
+        <v>0.255716</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.341915</v>
+        <v>0.341896</v>
       </c>
       <c r="C83" t="n">
-        <v>0.221635</v>
+        <v>0.221715</v>
       </c>
       <c r="D83" t="n">
-        <v>0.253927</v>
+        <v>0.253846</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.335004</v>
+        <v>0.335072</v>
       </c>
       <c r="C84" t="n">
-        <v>0.219801</v>
+        <v>0.219868</v>
       </c>
       <c r="D84" t="n">
-        <v>0.252576</v>
+        <v>0.252618</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.327224</v>
+        <v>0.327458</v>
       </c>
       <c r="C85" t="n">
-        <v>0.21883</v>
+        <v>0.218785</v>
       </c>
       <c r="D85" t="n">
-        <v>0.251477</v>
+        <v>0.251313</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.3189</v>
+        <v>0.319054</v>
       </c>
       <c r="C86" t="n">
-        <v>0.217915</v>
+        <v>0.217944</v>
       </c>
       <c r="D86" t="n">
-        <v>0.250087</v>
+        <v>0.250073</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.309811</v>
+        <v>0.310034</v>
       </c>
       <c r="C87" t="n">
-        <v>0.216764</v>
+        <v>0.216931</v>
       </c>
       <c r="D87" t="n">
-        <v>0.248815</v>
+        <v>0.248775</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.299997</v>
+        <v>0.300176</v>
       </c>
       <c r="C88" t="n">
-        <v>0.215815</v>
+        <v>0.216175</v>
       </c>
       <c r="D88" t="n">
-        <v>0.247679</v>
+        <v>0.24757</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.289554</v>
+        <v>0.289805</v>
       </c>
       <c r="C89" t="n">
-        <v>0.214095</v>
+        <v>0.213746</v>
       </c>
       <c r="D89" t="n">
-        <v>0.246869</v>
+        <v>0.246791</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.278132</v>
+        <v>0.278313</v>
       </c>
       <c r="C90" t="n">
-        <v>0.213256</v>
+        <v>0.213456</v>
       </c>
       <c r="D90" t="n">
-        <v>0.246005</v>
+        <v>0.246015</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.265392</v>
+        <v>0.265613</v>
       </c>
       <c r="C91" t="n">
-        <v>0.21282</v>
+        <v>0.212805</v>
       </c>
       <c r="D91" t="n">
-        <v>0.245356</v>
+        <v>0.24535</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.252088</v>
+        <v>0.252326</v>
       </c>
       <c r="C92" t="n">
-        <v>0.212325</v>
+        <v>0.21225</v>
       </c>
       <c r="D92" t="n">
-        <v>0.244589</v>
+        <v>0.244645</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.238089</v>
+        <v>0.238252</v>
       </c>
       <c r="C93" t="n">
-        <v>0.211902</v>
+        <v>0.211785</v>
       </c>
       <c r="D93" t="n">
-        <v>0.244008</v>
+        <v>0.244032</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.22233</v>
+        <v>0.222275</v>
       </c>
       <c r="C94" t="n">
-        <v>0.21171</v>
+        <v>0.211658</v>
       </c>
       <c r="D94" t="n">
-        <v>0.261429</v>
+        <v>0.261414</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.355106</v>
+        <v>0.354914</v>
       </c>
       <c r="C95" t="n">
-        <v>0.228076</v>
+        <v>0.227336</v>
       </c>
       <c r="D95" t="n">
-        <v>0.258353</v>
+        <v>0.258487</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.34999</v>
+        <v>0.349791</v>
       </c>
       <c r="C96" t="n">
-        <v>0.224993</v>
+        <v>0.224183</v>
       </c>
       <c r="D96" t="n">
-        <v>0.256196</v>
+        <v>0.256402</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.343871</v>
+        <v>0.343546</v>
       </c>
       <c r="C97" t="n">
-        <v>0.222316</v>
+        <v>0.221639</v>
       </c>
       <c r="D97" t="n">
-        <v>0.254556</v>
+        <v>0.254637</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.33731</v>
+        <v>0.336912</v>
       </c>
       <c r="C98" t="n">
-        <v>0.220254</v>
+        <v>0.219792</v>
       </c>
       <c r="D98" t="n">
-        <v>0.252865</v>
+        <v>0.252933</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.329316</v>
+        <v>0.329179</v>
       </c>
       <c r="C99" t="n">
-        <v>0.218953</v>
+        <v>0.218604</v>
       </c>
       <c r="D99" t="n">
-        <v>0.251665</v>
+        <v>0.251627</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.320999</v>
+        <v>0.320906</v>
       </c>
       <c r="C100" t="n">
-        <v>0.217644</v>
+        <v>0.217347</v>
       </c>
       <c r="D100" t="n">
-        <v>0.25025</v>
+        <v>0.250472</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.312008</v>
+        <v>0.311892</v>
       </c>
       <c r="C101" t="n">
-        <v>0.216997</v>
+        <v>0.216445</v>
       </c>
       <c r="D101" t="n">
-        <v>0.249125</v>
+        <v>0.249269</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.302404</v>
+        <v>0.302062</v>
       </c>
       <c r="C102" t="n">
-        <v>0.216096</v>
+        <v>0.214352</v>
       </c>
       <c r="D102" t="n">
-        <v>0.248315</v>
+        <v>0.248356</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.291914</v>
+        <v>0.291755</v>
       </c>
       <c r="C103" t="n">
-        <v>0.21533</v>
+        <v>0.213558</v>
       </c>
       <c r="D103" t="n">
-        <v>0.247299</v>
+        <v>0.24736</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.280558</v>
+        <v>0.280837</v>
       </c>
       <c r="C104" t="n">
-        <v>0.213985</v>
+        <v>0.214505</v>
       </c>
       <c r="D104" t="n">
-        <v>0.246356</v>
+        <v>0.246571</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.268341</v>
+        <v>0.268415</v>
       </c>
       <c r="C105" t="n">
-        <v>0.214035</v>
+        <v>0.213943</v>
       </c>
       <c r="D105" t="n">
-        <v>0.245524</v>
+        <v>0.245804</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.255443</v>
+        <v>0.255255</v>
       </c>
       <c r="C106" t="n">
-        <v>0.212283</v>
+        <v>0.211857</v>
       </c>
       <c r="D106" t="n">
-        <v>0.244629</v>
+        <v>0.244942</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.241381</v>
+        <v>0.241357</v>
       </c>
       <c r="C107" t="n">
-        <v>0.211903</v>
+        <v>0.211576</v>
       </c>
       <c r="D107" t="n">
-        <v>0.244083</v>
+        <v>0.244233</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.225876</v>
+        <v>0.225858</v>
       </c>
       <c r="C108" t="n">
-        <v>0.211652</v>
+        <v>0.211213</v>
       </c>
       <c r="D108" t="n">
-        <v>0.261488</v>
+        <v>0.261596</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.209195</v>
+        <v>0.209404</v>
       </c>
       <c r="C109" t="n">
-        <v>0.211393</v>
+        <v>0.211413</v>
       </c>
       <c r="D109" t="n">
-        <v>0.258807</v>
+        <v>0.259262</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.350702</v>
+        <v>0.350741</v>
       </c>
       <c r="C110" t="n">
-        <v>0.22459</v>
+        <v>0.224615</v>
       </c>
       <c r="D110" t="n">
-        <v>0.256831</v>
+        <v>0.256909</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.344751</v>
+        <v>0.34473</v>
       </c>
       <c r="C111" t="n">
-        <v>0.222195</v>
+        <v>0.22211</v>
       </c>
       <c r="D111" t="n">
-        <v>0.254915</v>
+        <v>0.254852</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.338061</v>
+        <v>0.338078</v>
       </c>
       <c r="C112" t="n">
-        <v>0.220365</v>
+        <v>0.220319</v>
       </c>
       <c r="D112" t="n">
-        <v>0.253262</v>
+        <v>0.253588</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.330702</v>
+        <v>0.330794</v>
       </c>
       <c r="C113" t="n">
-        <v>0.218885</v>
+        <v>0.21883</v>
       </c>
       <c r="D113" t="n">
-        <v>0.251824</v>
+        <v>0.252125</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.32258</v>
+        <v>0.322616</v>
       </c>
       <c r="C114" t="n">
-        <v>0.217828</v>
+        <v>0.217693</v>
       </c>
       <c r="D114" t="n">
-        <v>0.251424</v>
+        <v>0.250788</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.31376</v>
+        <v>0.313728</v>
       </c>
       <c r="C115" t="n">
-        <v>0.216717</v>
+        <v>0.21676</v>
       </c>
       <c r="D115" t="n">
-        <v>0.250186</v>
+        <v>0.250113</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.304093</v>
+        <v>0.304157</v>
       </c>
       <c r="C116" t="n">
-        <v>0.215819</v>
+        <v>0.21459</v>
       </c>
       <c r="D116" t="n">
-        <v>0.24925</v>
+        <v>0.249108</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.2938</v>
+        <v>0.293722</v>
       </c>
       <c r="C117" t="n">
-        <v>0.215574</v>
+        <v>0.215585</v>
       </c>
       <c r="D117" t="n">
-        <v>0.248408</v>
+        <v>0.24823</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.282747</v>
+        <v>0.282891</v>
       </c>
       <c r="C118" t="n">
-        <v>0.214891</v>
+        <v>0.214882</v>
       </c>
       <c r="D118" t="n">
-        <v>0.247357</v>
+        <v>0.247378</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.270968</v>
+        <v>0.271299</v>
       </c>
       <c r="C119" t="n">
-        <v>0.214275</v>
+        <v>0.214302</v>
       </c>
       <c r="D119" t="n">
-        <v>0.246364</v>
+        <v>0.246284</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.258318</v>
+        <v>0.2583</v>
       </c>
       <c r="C120" t="n">
-        <v>0.212964</v>
+        <v>0.2127</v>
       </c>
       <c r="D120" t="n">
-        <v>0.245339</v>
+        <v>0.246132</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.24426</v>
+        <v>0.244299</v>
       </c>
       <c r="C121" t="n">
-        <v>0.213349</v>
+        <v>0.212887</v>
       </c>
       <c r="D121" t="n">
-        <v>0.245172</v>
+        <v>0.24491</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.22947</v>
+        <v>0.229379</v>
       </c>
       <c r="C122" t="n">
-        <v>0.211953</v>
+        <v>0.21202</v>
       </c>
       <c r="D122" t="n">
-        <v>0.244755</v>
+        <v>0.244817</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.212747</v>
+        <v>0.212814</v>
       </c>
       <c r="C123" t="n">
-        <v>0.212161</v>
+        <v>0.212042</v>
       </c>
       <c r="D123" t="n">
-        <v>0.260195</v>
+        <v>0.260779</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.351694</v>
+        <v>0.351791</v>
       </c>
       <c r="C124" t="n">
-        <v>0.225486</v>
+        <v>0.225539</v>
       </c>
       <c r="D124" t="n">
-        <v>0.258152</v>
+        <v>0.257857</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.346001</v>
+        <v>0.345987</v>
       </c>
       <c r="C125" t="n">
-        <v>0.222579</v>
+        <v>0.222661</v>
       </c>
       <c r="D125" t="n">
-        <v>0.256238</v>
+        <v>0.256408</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.339477</v>
+        <v>0.339405</v>
       </c>
       <c r="C126" t="n">
-        <v>0.220776</v>
+        <v>0.220722</v>
       </c>
       <c r="D126" t="n">
-        <v>0.25448</v>
+        <v>0.254544</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.332223</v>
+        <v>0.332193</v>
       </c>
       <c r="C127" t="n">
-        <v>0.219239</v>
+        <v>0.219265</v>
       </c>
       <c r="D127" t="n">
-        <v>0.252781</v>
+        <v>0.252673</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.324132</v>
+        <v>0.32412</v>
       </c>
       <c r="C128" t="n">
-        <v>0.217892</v>
+        <v>0.217857</v>
       </c>
       <c r="D128" t="n">
-        <v>0.251291</v>
+        <v>0.251411</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.315465</v>
+        <v>0.315333</v>
       </c>
       <c r="C129" t="n">
-        <v>0.216945</v>
+        <v>0.216928</v>
       </c>
       <c r="D129" t="n">
-        <v>0.250375</v>
+        <v>0.250215</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.306007</v>
+        <v>0.305882</v>
       </c>
       <c r="C130" t="n">
-        <v>0.216075</v>
+        <v>0.216113</v>
       </c>
       <c r="D130" t="n">
-        <v>0.249445</v>
+        <v>0.249553</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.295879</v>
+        <v>0.295867</v>
       </c>
       <c r="C131" t="n">
-        <v>0.215344</v>
+        <v>0.215348</v>
       </c>
       <c r="D131" t="n">
-        <v>0.248294</v>
+        <v>0.248467</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.285005</v>
+        <v>0.284894</v>
       </c>
       <c r="C132" t="n">
-        <v>0.214575</v>
+        <v>0.214145</v>
       </c>
       <c r="D132" t="n">
-        <v>0.247541</v>
+        <v>0.247401</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.273219</v>
+        <v>0.273144</v>
       </c>
       <c r="C133" t="n">
-        <v>0.212667</v>
+        <v>0.212778</v>
       </c>
       <c r="D133" t="n">
-        <v>0.246631</v>
+        <v>0.247364</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.260393</v>
+        <v>0.260456</v>
       </c>
       <c r="C134" t="n">
-        <v>0.21215</v>
+        <v>0.212136</v>
       </c>
       <c r="D134" t="n">
-        <v>0.246198</v>
+        <v>0.246204</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.24673</v>
+        <v>0.246935</v>
       </c>
       <c r="C135" t="n">
-        <v>0.21181</v>
+        <v>0.211832</v>
       </c>
       <c r="D135" t="n">
-        <v>0.245237</v>
+        <v>0.24596</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.231954</v>
+        <v>0.23215</v>
       </c>
       <c r="C136" t="n">
-        <v>0.212098</v>
+        <v>0.21206</v>
       </c>
       <c r="D136" t="n">
-        <v>0.245401</v>
+        <v>0.245179</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.215877</v>
+        <v>0.216039</v>
       </c>
       <c r="C137" t="n">
-        <v>0.211665</v>
+        <v>0.211691</v>
       </c>
       <c r="D137" t="n">
-        <v>0.261647</v>
+        <v>0.261442</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.352776</v>
+        <v>0.352901</v>
       </c>
       <c r="C138" t="n">
-        <v>0.227097</v>
+        <v>0.22707</v>
       </c>
       <c r="D138" t="n">
-        <v>0.258709</v>
+        <v>0.259334</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.347355</v>
+        <v>0.347351</v>
       </c>
       <c r="C139" t="n">
-        <v>0.223629</v>
+        <v>0.223772</v>
       </c>
       <c r="D139" t="n">
-        <v>0.257351</v>
+        <v>0.257376</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.341032</v>
+        <v>0.341026</v>
       </c>
       <c r="C140" t="n">
-        <v>0.221453</v>
+        <v>0.221536</v>
       </c>
       <c r="D140" t="n">
-        <v>0.255621</v>
+        <v>0.255466</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.333896</v>
+        <v>0.333902</v>
       </c>
       <c r="C141" t="n">
-        <v>0.219676</v>
+        <v>0.219753</v>
       </c>
       <c r="D141" t="n">
-        <v>0.25393</v>
+        <v>0.254185</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.326025</v>
+        <v>0.326085</v>
       </c>
       <c r="C142" t="n">
-        <v>0.218449</v>
+        <v>0.21853</v>
       </c>
       <c r="D142" t="n">
-        <v>0.252416</v>
+        <v>0.252741</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.317473</v>
+        <v>0.317483</v>
       </c>
       <c r="C143" t="n">
-        <v>0.217436</v>
+        <v>0.217425</v>
       </c>
       <c r="D143" t="n">
-        <v>0.250875</v>
+        <v>0.251281</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.28749</v>
+        <v>0.284426</v>
       </c>
       <c r="C2" t="n">
-        <v>0.193292</v>
+        <v>0.193179</v>
       </c>
       <c r="D2" t="n">
-        <v>0.229871</v>
+        <v>0.226036</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.274082</v>
+        <v>0.271565</v>
       </c>
       <c r="C3" t="n">
-        <v>0.195274</v>
+        <v>0.194314</v>
       </c>
       <c r="D3" t="n">
-        <v>0.226732</v>
+        <v>0.22856</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.263455</v>
+        <v>0.261682</v>
       </c>
       <c r="C4" t="n">
-        <v>0.193951</v>
+        <v>0.194523</v>
       </c>
       <c r="D4" t="n">
-        <v>0.229435</v>
+        <v>0.227965</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.251616</v>
+        <v>0.250818</v>
       </c>
       <c r="C5" t="n">
-        <v>0.195233</v>
+        <v>0.194964</v>
       </c>
       <c r="D5" t="n">
-        <v>0.227898</v>
+        <v>0.228356</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.239291</v>
+        <v>0.238737</v>
       </c>
       <c r="C6" t="n">
-        <v>0.196615</v>
+        <v>0.196129</v>
       </c>
       <c r="D6" t="n">
-        <v>0.229169</v>
+        <v>0.228831</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.226832</v>
+        <v>0.226286</v>
       </c>
       <c r="C7" t="n">
-        <v>0.19671</v>
+        <v>0.197727</v>
       </c>
       <c r="D7" t="n">
-        <v>0.236</v>
+        <v>0.22907</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.212288</v>
+        <v>0.211641</v>
       </c>
       <c r="C8" t="n">
-        <v>0.200526</v>
+        <v>0.198385</v>
       </c>
       <c r="D8" t="n">
-        <v>0.230519</v>
+        <v>0.229467</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1974</v>
+        <v>0.198001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.199866</v>
+        <v>0.199851</v>
       </c>
       <c r="D9" t="n">
-        <v>0.253064</v>
+        <v>0.253386</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.336543</v>
+        <v>0.336052</v>
       </c>
       <c r="C10" t="n">
-        <v>0.217877</v>
+        <v>0.217202</v>
       </c>
       <c r="D10" t="n">
-        <v>0.25112</v>
+        <v>0.255078</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.338633</v>
+        <v>0.330304</v>
       </c>
       <c r="C11" t="n">
-        <v>0.21823</v>
+        <v>0.217971</v>
       </c>
       <c r="D11" t="n">
-        <v>0.254571</v>
+        <v>0.260575</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.325303</v>
+        <v>0.324617</v>
       </c>
       <c r="C12" t="n">
-        <v>0.215758</v>
+        <v>0.21637</v>
       </c>
       <c r="D12" t="n">
-        <v>0.257141</v>
+        <v>0.251052</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.31992</v>
+        <v>0.323306</v>
       </c>
       <c r="C13" t="n">
-        <v>0.21521</v>
+        <v>0.216476</v>
       </c>
       <c r="D13" t="n">
-        <v>0.249966</v>
+        <v>0.250528</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.311939</v>
+        <v>0.31174</v>
       </c>
       <c r="C14" t="n">
-        <v>0.213718</v>
+        <v>0.214705</v>
       </c>
       <c r="D14" t="n">
-        <v>0.27201</v>
+        <v>0.249924</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.302886</v>
+        <v>0.302655</v>
       </c>
       <c r="C15" t="n">
-        <v>0.214338</v>
+        <v>0.212444</v>
       </c>
       <c r="D15" t="n">
-        <v>0.252714</v>
+        <v>0.244956</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.295119</v>
+        <v>0.294485</v>
       </c>
       <c r="C16" t="n">
-        <v>0.213578</v>
+        <v>0.21268</v>
       </c>
       <c r="D16" t="n">
-        <v>0.249963</v>
+        <v>0.248898</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.286306</v>
+        <v>0.28541</v>
       </c>
       <c r="C17" t="n">
-        <v>0.213408</v>
+        <v>0.210478</v>
       </c>
       <c r="D17" t="n">
-        <v>0.247754</v>
+        <v>0.248586</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.276485</v>
+        <v>0.276811</v>
       </c>
       <c r="C18" t="n">
-        <v>0.211604</v>
+        <v>0.211505</v>
       </c>
       <c r="D18" t="n">
-        <v>0.243167</v>
+        <v>0.24686</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.265676</v>
+        <v>0.264996</v>
       </c>
       <c r="C19" t="n">
-        <v>0.210408</v>
+        <v>0.211689</v>
       </c>
       <c r="D19" t="n">
-        <v>0.245979</v>
+        <v>0.242491</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.255073</v>
+        <v>0.254641</v>
       </c>
       <c r="C20" t="n">
-        <v>0.210175</v>
+        <v>0.209863</v>
       </c>
       <c r="D20" t="n">
-        <v>0.247511</v>
+        <v>0.242827</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.24199</v>
+        <v>0.241021</v>
       </c>
       <c r="C21" t="n">
-        <v>0.211155</v>
+        <v>0.210191</v>
       </c>
       <c r="D21" t="n">
-        <v>0.24646</v>
+        <v>0.242445</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.227517</v>
+        <v>0.226431</v>
       </c>
       <c r="C22" t="n">
-        <v>0.209806</v>
+        <v>0.21108</v>
       </c>
       <c r="D22" t="n">
-        <v>0.244788</v>
+        <v>0.244986</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.210833</v>
+        <v>0.210678</v>
       </c>
       <c r="C23" t="n">
-        <v>0.209786</v>
+        <v>0.209644</v>
       </c>
       <c r="D23" t="n">
-        <v>0.260512</v>
+        <v>0.260195</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348601</v>
+        <v>0.347668</v>
       </c>
       <c r="C24" t="n">
-        <v>0.227094</v>
+        <v>0.226591</v>
       </c>
       <c r="D24" t="n">
-        <v>0.258447</v>
+        <v>0.258279</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.34252</v>
+        <v>0.342844</v>
       </c>
       <c r="C25" t="n">
-        <v>0.224763</v>
+        <v>0.224637</v>
       </c>
       <c r="D25" t="n">
-        <v>0.257779</v>
+        <v>0.256649</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.337207</v>
+        <v>0.336086</v>
       </c>
       <c r="C26" t="n">
-        <v>0.221839</v>
+        <v>0.221073</v>
       </c>
       <c r="D26" t="n">
-        <v>0.256105</v>
+        <v>0.255188</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.330209</v>
+        <v>0.329425</v>
       </c>
       <c r="C27" t="n">
-        <v>0.219415</v>
+        <v>0.219302</v>
       </c>
       <c r="D27" t="n">
-        <v>0.252498</v>
+        <v>0.252795</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.323253</v>
+        <v>0.323071</v>
       </c>
       <c r="C28" t="n">
-        <v>0.216821</v>
+        <v>0.216784</v>
       </c>
       <c r="D28" t="n">
-        <v>0.251627</v>
+        <v>0.251298</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.314437</v>
+        <v>0.313796</v>
       </c>
       <c r="C29" t="n">
-        <v>0.216072</v>
+        <v>0.215651</v>
       </c>
       <c r="D29" t="n">
-        <v>0.25021</v>
+        <v>0.250292</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.305607</v>
+        <v>0.305111</v>
       </c>
       <c r="C30" t="n">
-        <v>0.214821</v>
+        <v>0.215084</v>
       </c>
       <c r="D30" t="n">
-        <v>0.24928</v>
+        <v>0.248889</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.295457</v>
+        <v>0.295087</v>
       </c>
       <c r="C31" t="n">
-        <v>0.214807</v>
+        <v>0.214087</v>
       </c>
       <c r="D31" t="n">
-        <v>0.248027</v>
+        <v>0.247831</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.285198</v>
+        <v>0.285019</v>
       </c>
       <c r="C32" t="n">
-        <v>0.213938</v>
+        <v>0.213948</v>
       </c>
       <c r="D32" t="n">
-        <v>0.246838</v>
+        <v>0.247284</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.274458</v>
+        <v>0.273977</v>
       </c>
       <c r="C33" t="n">
-        <v>0.213062</v>
+        <v>0.213068</v>
       </c>
       <c r="D33" t="n">
-        <v>0.24603</v>
+        <v>0.246577</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.262736</v>
+        <v>0.26237</v>
       </c>
       <c r="C34" t="n">
-        <v>0.212763</v>
+        <v>0.21265</v>
       </c>
       <c r="D34" t="n">
-        <v>0.244576</v>
+        <v>0.245004</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.249323</v>
+        <v>0.248644</v>
       </c>
       <c r="C35" t="n">
-        <v>0.212501</v>
+        <v>0.212341</v>
       </c>
       <c r="D35" t="n">
-        <v>0.244384</v>
+        <v>0.244424</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.235752</v>
+        <v>0.235521</v>
       </c>
       <c r="C36" t="n">
-        <v>0.212207</v>
+        <v>0.212288</v>
       </c>
       <c r="D36" t="n">
-        <v>0.243244</v>
+        <v>0.243421</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.2206</v>
+        <v>0.220093</v>
       </c>
       <c r="C37" t="n">
-        <v>0.212269</v>
+        <v>0.212597</v>
       </c>
       <c r="D37" t="n">
-        <v>0.261533</v>
+        <v>0.26214</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.351999</v>
+        <v>0.352216</v>
       </c>
       <c r="C38" t="n">
-        <v>0.229028</v>
+        <v>0.229268</v>
       </c>
       <c r="D38" t="n">
-        <v>0.259665</v>
+        <v>0.260031</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.347454</v>
+        <v>0.347594</v>
       </c>
       <c r="C39" t="n">
-        <v>0.227335</v>
+        <v>0.228676</v>
       </c>
       <c r="D39" t="n">
-        <v>0.257122</v>
+        <v>0.257373</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.341712</v>
+        <v>0.341721</v>
       </c>
       <c r="C40" t="n">
-        <v>0.224326</v>
+        <v>0.224574</v>
       </c>
       <c r="D40" t="n">
-        <v>0.255318</v>
+        <v>0.255783</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.334761</v>
+        <v>0.334808</v>
       </c>
       <c r="C41" t="n">
-        <v>0.220821</v>
+        <v>0.220814</v>
       </c>
       <c r="D41" t="n">
-        <v>0.253627</v>
+        <v>0.253877</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.327537</v>
+        <v>0.32784</v>
       </c>
       <c r="C42" t="n">
-        <v>0.219337</v>
+        <v>0.21928</v>
       </c>
       <c r="D42" t="n">
-        <v>0.252324</v>
+        <v>0.252688</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.319616</v>
+        <v>0.319705</v>
       </c>
       <c r="C43" t="n">
-        <v>0.218235</v>
+        <v>0.218008</v>
       </c>
       <c r="D43" t="n">
-        <v>0.250471</v>
+        <v>0.250919</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.311073</v>
+        <v>0.31077</v>
       </c>
       <c r="C44" t="n">
-        <v>0.216724</v>
+        <v>0.216992</v>
       </c>
       <c r="D44" t="n">
-        <v>0.248758</v>
+        <v>0.249038</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.30228</v>
+        <v>0.301601</v>
       </c>
       <c r="C45" t="n">
-        <v>0.216474</v>
+        <v>0.216131</v>
       </c>
       <c r="D45" t="n">
-        <v>0.248201</v>
+        <v>0.247919</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.291719</v>
+        <v>0.291207</v>
       </c>
       <c r="C46" t="n">
-        <v>0.214484</v>
+        <v>0.214186</v>
       </c>
       <c r="D46" t="n">
-        <v>0.24706</v>
+        <v>0.247168</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.280509</v>
+        <v>0.280145</v>
       </c>
       <c r="C47" t="n">
-        <v>0.214411</v>
+        <v>0.214258</v>
       </c>
       <c r="D47" t="n">
-        <v>0.246084</v>
+        <v>0.246229</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.26908</v>
+        <v>0.268615</v>
       </c>
       <c r="C48" t="n">
-        <v>0.212836</v>
+        <v>0.212591</v>
       </c>
       <c r="D48" t="n">
-        <v>0.245293</v>
+        <v>0.246053</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.256718</v>
+        <v>0.256276</v>
       </c>
       <c r="C49" t="n">
-        <v>0.212585</v>
+        <v>0.212554</v>
       </c>
       <c r="D49" t="n">
-        <v>0.245185</v>
+        <v>0.24509</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.242584</v>
+        <v>0.242267</v>
       </c>
       <c r="C50" t="n">
-        <v>0.212607</v>
+        <v>0.212443</v>
       </c>
       <c r="D50" t="n">
-        <v>0.246133</v>
+        <v>0.246034</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.227021</v>
+        <v>0.226876</v>
       </c>
       <c r="C51" t="n">
-        <v>0.212473</v>
+        <v>0.212145</v>
       </c>
       <c r="D51" t="n">
-        <v>0.261952</v>
+        <v>0.261893</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.21027</v>
+        <v>0.210225</v>
       </c>
       <c r="C52" t="n">
-        <v>0.211834</v>
+        <v>0.21186</v>
       </c>
       <c r="D52" t="n">
-        <v>0.258736</v>
+        <v>0.25876</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.35077</v>
+        <v>0.350622</v>
       </c>
       <c r="C53" t="n">
-        <v>0.227498</v>
+        <v>0.226999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.256787</v>
+        <v>0.256555</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.344914</v>
+        <v>0.344536</v>
       </c>
       <c r="C54" t="n">
-        <v>0.224046</v>
+        <v>0.223744</v>
       </c>
       <c r="D54" t="n">
-        <v>0.255154</v>
+        <v>0.254949</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.338649</v>
+        <v>0.338486</v>
       </c>
       <c r="C55" t="n">
-        <v>0.220924</v>
+        <v>0.220727</v>
       </c>
       <c r="D55" t="n">
-        <v>0.253262</v>
+        <v>0.25376</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.331157</v>
+        <v>0.3312</v>
       </c>
       <c r="C56" t="n">
-        <v>0.219759</v>
+        <v>0.219642</v>
       </c>
       <c r="D56" t="n">
-        <v>0.251481</v>
+        <v>0.251674</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.323177</v>
+        <v>0.322901</v>
       </c>
       <c r="C57" t="n">
-        <v>0.218148</v>
+        <v>0.218172</v>
       </c>
       <c r="D57" t="n">
-        <v>0.250181</v>
+        <v>0.250276</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.314369</v>
+        <v>0.314287</v>
       </c>
       <c r="C58" t="n">
-        <v>0.217455</v>
+        <v>0.21761</v>
       </c>
       <c r="D58" t="n">
-        <v>0.249052</v>
+        <v>0.249031</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.30551</v>
+        <v>0.305317</v>
       </c>
       <c r="C59" t="n">
-        <v>0.214877</v>
+        <v>0.21488</v>
       </c>
       <c r="D59" t="n">
-        <v>0.24824</v>
+        <v>0.248271</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.295315</v>
+        <v>0.295066</v>
       </c>
       <c r="C60" t="n">
-        <v>0.214081</v>
+        <v>0.214195</v>
       </c>
       <c r="D60" t="n">
-        <v>0.246735</v>
+        <v>0.246943</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.284308</v>
+        <v>0.284159</v>
       </c>
       <c r="C61" t="n">
-        <v>0.213711</v>
+        <v>0.213758</v>
       </c>
       <c r="D61" t="n">
-        <v>0.246122</v>
+        <v>0.246423</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272576</v>
+        <v>0.272392</v>
       </c>
       <c r="C62" t="n">
-        <v>0.212965</v>
+        <v>0.212989</v>
       </c>
       <c r="D62" t="n">
-        <v>0.245213</v>
+        <v>0.24573</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.259884</v>
+        <v>0.259872</v>
       </c>
       <c r="C63" t="n">
-        <v>0.212467</v>
+        <v>0.212477</v>
       </c>
       <c r="D63" t="n">
-        <v>0.244367</v>
+        <v>0.244649</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.246203</v>
+        <v>0.246187</v>
       </c>
       <c r="C64" t="n">
-        <v>0.212234</v>
+        <v>0.212136</v>
       </c>
       <c r="D64" t="n">
-        <v>0.243794</v>
+        <v>0.244051</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.230832</v>
+        <v>0.230706</v>
       </c>
       <c r="C65" t="n">
-        <v>0.212272</v>
+        <v>0.212003</v>
       </c>
       <c r="D65" t="n">
-        <v>0.243467</v>
+        <v>0.243391</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.214179</v>
+        <v>0.213964</v>
       </c>
       <c r="C66" t="n">
-        <v>0.212361</v>
+        <v>0.212128</v>
       </c>
       <c r="D66" t="n">
-        <v>0.259613</v>
+        <v>0.259522</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.352561</v>
+        <v>0.352593</v>
       </c>
       <c r="C67" t="n">
-        <v>0.228613</v>
+        <v>0.228466</v>
       </c>
       <c r="D67" t="n">
-        <v>0.257341</v>
+        <v>0.257022</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.347205</v>
+        <v>0.347372</v>
       </c>
       <c r="C68" t="n">
-        <v>0.224544</v>
+        <v>0.224424</v>
       </c>
       <c r="D68" t="n">
-        <v>0.254941</v>
+        <v>0.255016</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.340887</v>
+        <v>0.34094</v>
       </c>
       <c r="C69" t="n">
-        <v>0.221494</v>
+        <v>0.221451</v>
       </c>
       <c r="D69" t="n">
-        <v>0.25332</v>
+        <v>0.253253</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.33393</v>
+        <v>0.333967</v>
       </c>
       <c r="C70" t="n">
-        <v>0.219446</v>
+        <v>0.219474</v>
       </c>
       <c r="D70" t="n">
-        <v>0.251666</v>
+        <v>0.25172</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.325649</v>
+        <v>0.32562</v>
       </c>
       <c r="C71" t="n">
-        <v>0.21848</v>
+        <v>0.218533</v>
       </c>
       <c r="D71" t="n">
-        <v>0.250649</v>
+        <v>0.250748</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.317238</v>
+        <v>0.317064</v>
       </c>
       <c r="C72" t="n">
-        <v>0.217201</v>
+        <v>0.217209</v>
       </c>
       <c r="D72" t="n">
-        <v>0.249754</v>
+        <v>0.249727</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.307752</v>
+        <v>0.307738</v>
       </c>
       <c r="C73" t="n">
-        <v>0.216657</v>
+        <v>0.216604</v>
       </c>
       <c r="D73" t="n">
-        <v>0.248284</v>
+        <v>0.24859</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.297755</v>
+        <v>0.297877</v>
       </c>
       <c r="C74" t="n">
-        <v>0.214404</v>
+        <v>0.214453</v>
       </c>
       <c r="D74" t="n">
-        <v>0.247898</v>
+        <v>0.248036</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.286911</v>
+        <v>0.286947</v>
       </c>
       <c r="C75" t="n">
-        <v>0.213731</v>
+        <v>0.213732</v>
       </c>
       <c r="D75" t="n">
-        <v>0.246893</v>
+        <v>0.246874</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.275821</v>
+        <v>0.275886</v>
       </c>
       <c r="C76" t="n">
-        <v>0.213406</v>
+        <v>0.213313</v>
       </c>
       <c r="D76" t="n">
-        <v>0.245718</v>
+        <v>0.245747</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.263106</v>
+        <v>0.263357</v>
       </c>
       <c r="C77" t="n">
-        <v>0.212678</v>
+        <v>0.212573</v>
       </c>
       <c r="D77" t="n">
-        <v>0.244838</v>
+        <v>0.244974</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.249508</v>
+        <v>0.249459</v>
       </c>
       <c r="C78" t="n">
-        <v>0.212124</v>
+        <v>0.212179</v>
       </c>
       <c r="D78" t="n">
-        <v>0.244015</v>
+        <v>0.243925</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.234754</v>
+        <v>0.23479</v>
       </c>
       <c r="C79" t="n">
-        <v>0.212142</v>
+        <v>0.212282</v>
       </c>
       <c r="D79" t="n">
-        <v>0.244151</v>
+        <v>0.244215</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.218962</v>
+        <v>0.218813</v>
       </c>
       <c r="C80" t="n">
-        <v>0.211891</v>
+        <v>0.211812</v>
       </c>
       <c r="D80" t="n">
-        <v>0.260298</v>
+        <v>0.260237</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.353884</v>
+        <v>0.353872</v>
       </c>
       <c r="C81" t="n">
-        <v>0.228136</v>
+        <v>0.22765</v>
       </c>
       <c r="D81" t="n">
-        <v>0.257712</v>
+        <v>0.257758</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.348363</v>
+        <v>0.348458</v>
       </c>
       <c r="C82" t="n">
-        <v>0.224167</v>
+        <v>0.224084</v>
       </c>
       <c r="D82" t="n">
-        <v>0.255716</v>
+        <v>0.255696</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.341896</v>
+        <v>0.341933</v>
       </c>
       <c r="C83" t="n">
-        <v>0.221715</v>
+        <v>0.221431</v>
       </c>
       <c r="D83" t="n">
-        <v>0.253846</v>
+        <v>0.253906</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.335072</v>
+        <v>0.335521</v>
       </c>
       <c r="C84" t="n">
-        <v>0.219868</v>
+        <v>0.219762</v>
       </c>
       <c r="D84" t="n">
-        <v>0.252618</v>
+        <v>0.252653</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.327458</v>
+        <v>0.327498</v>
       </c>
       <c r="C85" t="n">
-        <v>0.218785</v>
+        <v>0.218719</v>
       </c>
       <c r="D85" t="n">
-        <v>0.251313</v>
+        <v>0.251343</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.319054</v>
+        <v>0.319112</v>
       </c>
       <c r="C86" t="n">
-        <v>0.217944</v>
+        <v>0.217614</v>
       </c>
       <c r="D86" t="n">
-        <v>0.250073</v>
+        <v>0.250094</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.310034</v>
+        <v>0.31005</v>
       </c>
       <c r="C87" t="n">
-        <v>0.216931</v>
+        <v>0.216859</v>
       </c>
       <c r="D87" t="n">
-        <v>0.248775</v>
+        <v>0.248819</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.300176</v>
+        <v>0.300232</v>
       </c>
       <c r="C88" t="n">
-        <v>0.216175</v>
+        <v>0.216</v>
       </c>
       <c r="D88" t="n">
-        <v>0.24757</v>
+        <v>0.247784</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.289805</v>
+        <v>0.289886</v>
       </c>
       <c r="C89" t="n">
-        <v>0.213746</v>
+        <v>0.21408</v>
       </c>
       <c r="D89" t="n">
-        <v>0.246791</v>
+        <v>0.24686</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.278313</v>
+        <v>0.27836</v>
       </c>
       <c r="C90" t="n">
-        <v>0.213456</v>
+        <v>0.21324</v>
       </c>
       <c r="D90" t="n">
-        <v>0.246015</v>
+        <v>0.246071</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.265613</v>
+        <v>0.265735</v>
       </c>
       <c r="C91" t="n">
-        <v>0.212805</v>
+        <v>0.212844</v>
       </c>
       <c r="D91" t="n">
-        <v>0.24535</v>
+        <v>0.24552</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.252326</v>
+        <v>0.252382</v>
       </c>
       <c r="C92" t="n">
-        <v>0.21225</v>
+        <v>0.212332</v>
       </c>
       <c r="D92" t="n">
-        <v>0.244645</v>
+        <v>0.24472</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.238252</v>
+        <v>0.23832</v>
       </c>
       <c r="C93" t="n">
-        <v>0.211785</v>
+        <v>0.211836</v>
       </c>
       <c r="D93" t="n">
-        <v>0.244032</v>
+        <v>0.244139</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.222275</v>
+        <v>0.222352</v>
       </c>
       <c r="C94" t="n">
-        <v>0.211658</v>
+        <v>0.211708</v>
       </c>
       <c r="D94" t="n">
-        <v>0.261414</v>
+        <v>0.261468</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.354914</v>
+        <v>0.355158</v>
       </c>
       <c r="C95" t="n">
-        <v>0.227336</v>
+        <v>0.228032</v>
       </c>
       <c r="D95" t="n">
-        <v>0.258487</v>
+        <v>0.258375</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.349791</v>
+        <v>0.35011</v>
       </c>
       <c r="C96" t="n">
-        <v>0.224183</v>
+        <v>0.224952</v>
       </c>
       <c r="D96" t="n">
-        <v>0.256402</v>
+        <v>0.256436</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.343546</v>
+        <v>0.344124</v>
       </c>
       <c r="C97" t="n">
-        <v>0.221639</v>
+        <v>0.222441</v>
       </c>
       <c r="D97" t="n">
-        <v>0.254637</v>
+        <v>0.254508</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.336912</v>
+        <v>0.33696</v>
       </c>
       <c r="C98" t="n">
-        <v>0.219792</v>
+        <v>0.220415</v>
       </c>
       <c r="D98" t="n">
-        <v>0.252933</v>
+        <v>0.253046</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.329179</v>
+        <v>0.329482</v>
       </c>
       <c r="C99" t="n">
-        <v>0.218604</v>
+        <v>0.219294</v>
       </c>
       <c r="D99" t="n">
-        <v>0.251627</v>
+        <v>0.251569</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.320906</v>
+        <v>0.321153</v>
       </c>
       <c r="C100" t="n">
-        <v>0.217347</v>
+        <v>0.217863</v>
       </c>
       <c r="D100" t="n">
-        <v>0.250472</v>
+        <v>0.250368</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.311892</v>
+        <v>0.312175</v>
       </c>
       <c r="C101" t="n">
-        <v>0.216445</v>
+        <v>0.217107</v>
       </c>
       <c r="D101" t="n">
-        <v>0.249269</v>
+        <v>0.249239</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.302062</v>
+        <v>0.302329</v>
       </c>
       <c r="C102" t="n">
-        <v>0.214352</v>
+        <v>0.216173</v>
       </c>
       <c r="D102" t="n">
-        <v>0.248356</v>
+        <v>0.248487</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.291755</v>
+        <v>0.291892</v>
       </c>
       <c r="C103" t="n">
-        <v>0.213558</v>
+        <v>0.21547</v>
       </c>
       <c r="D103" t="n">
-        <v>0.24736</v>
+        <v>0.247256</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.280837</v>
+        <v>0.280766</v>
       </c>
       <c r="C104" t="n">
-        <v>0.214505</v>
+        <v>0.214667</v>
       </c>
       <c r="D104" t="n">
-        <v>0.246571</v>
+        <v>0.24637</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.268415</v>
+        <v>0.268655</v>
       </c>
       <c r="C105" t="n">
-        <v>0.213943</v>
+        <v>0.214119</v>
       </c>
       <c r="D105" t="n">
-        <v>0.245804</v>
+        <v>0.245548</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.255255</v>
+        <v>0.255606</v>
       </c>
       <c r="C106" t="n">
-        <v>0.211857</v>
+        <v>0.21236</v>
       </c>
       <c r="D106" t="n">
-        <v>0.244942</v>
+        <v>0.244752</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.241357</v>
+        <v>0.241377</v>
       </c>
       <c r="C107" t="n">
-        <v>0.211576</v>
+        <v>0.212029</v>
       </c>
       <c r="D107" t="n">
-        <v>0.244233</v>
+        <v>0.244144</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.225858</v>
+        <v>0.225662</v>
       </c>
       <c r="C108" t="n">
-        <v>0.211213</v>
+        <v>0.211702</v>
       </c>
       <c r="D108" t="n">
-        <v>0.261596</v>
+        <v>0.261863</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.209404</v>
+        <v>0.209247</v>
       </c>
       <c r="C109" t="n">
-        <v>0.211413</v>
+        <v>0.211433</v>
       </c>
       <c r="D109" t="n">
-        <v>0.259262</v>
+        <v>0.259264</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.350741</v>
+        <v>0.350738</v>
       </c>
       <c r="C110" t="n">
-        <v>0.224615</v>
+        <v>0.224705</v>
       </c>
       <c r="D110" t="n">
-        <v>0.256909</v>
+        <v>0.256792</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.34473</v>
+        <v>0.344624</v>
       </c>
       <c r="C111" t="n">
-        <v>0.22211</v>
+        <v>0.222192</v>
       </c>
       <c r="D111" t="n">
-        <v>0.254852</v>
+        <v>0.255218</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.338078</v>
+        <v>0.338083</v>
       </c>
       <c r="C112" t="n">
-        <v>0.220319</v>
+        <v>0.220338</v>
       </c>
       <c r="D112" t="n">
-        <v>0.253588</v>
+        <v>0.253628</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.330794</v>
+        <v>0.330678</v>
       </c>
       <c r="C113" t="n">
-        <v>0.21883</v>
+        <v>0.218884</v>
       </c>
       <c r="D113" t="n">
-        <v>0.252125</v>
+        <v>0.252077</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.322616</v>
+        <v>0.322557</v>
       </c>
       <c r="C114" t="n">
-        <v>0.217693</v>
+        <v>0.217695</v>
       </c>
       <c r="D114" t="n">
-        <v>0.250788</v>
+        <v>0.251056</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.313728</v>
+        <v>0.313659</v>
       </c>
       <c r="C115" t="n">
-        <v>0.21676</v>
+        <v>0.216736</v>
       </c>
       <c r="D115" t="n">
-        <v>0.250113</v>
+        <v>0.250243</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.304157</v>
+        <v>0.304149</v>
       </c>
       <c r="C116" t="n">
-        <v>0.21459</v>
+        <v>0.215537</v>
       </c>
       <c r="D116" t="n">
-        <v>0.249108</v>
+        <v>0.24933</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.293722</v>
+        <v>0.293826</v>
       </c>
       <c r="C117" t="n">
-        <v>0.215585</v>
+        <v>0.214736</v>
       </c>
       <c r="D117" t="n">
-        <v>0.24823</v>
+        <v>0.248428</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.282891</v>
+        <v>0.282946</v>
       </c>
       <c r="C118" t="n">
-        <v>0.214882</v>
+        <v>0.214389</v>
       </c>
       <c r="D118" t="n">
-        <v>0.247378</v>
+        <v>0.247078</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.271299</v>
+        <v>0.270964</v>
       </c>
       <c r="C119" t="n">
-        <v>0.214302</v>
+        <v>0.212949</v>
       </c>
       <c r="D119" t="n">
-        <v>0.246284</v>
+        <v>0.24675</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.2583</v>
+        <v>0.258285</v>
       </c>
       <c r="C120" t="n">
-        <v>0.2127</v>
+        <v>0.213691</v>
       </c>
       <c r="D120" t="n">
-        <v>0.246132</v>
+        <v>0.245935</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.244299</v>
+        <v>0.244353</v>
       </c>
       <c r="C121" t="n">
-        <v>0.212887</v>
+        <v>0.212642</v>
       </c>
       <c r="D121" t="n">
-        <v>0.24491</v>
+        <v>0.245311</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.229379</v>
+        <v>0.229348</v>
       </c>
       <c r="C122" t="n">
-        <v>0.21202</v>
+        <v>0.212129</v>
       </c>
       <c r="D122" t="n">
-        <v>0.244817</v>
+        <v>0.24482</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.212814</v>
+        <v>0.212649</v>
       </c>
       <c r="C123" t="n">
-        <v>0.212042</v>
+        <v>0.211865</v>
       </c>
       <c r="D123" t="n">
-        <v>0.260779</v>
+        <v>0.260668</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.351791</v>
+        <v>0.351799</v>
       </c>
       <c r="C124" t="n">
-        <v>0.225539</v>
+        <v>0.225606</v>
       </c>
       <c r="D124" t="n">
-        <v>0.257857</v>
+        <v>0.258314</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.345987</v>
+        <v>0.345867</v>
       </c>
       <c r="C125" t="n">
-        <v>0.222661</v>
+        <v>0.222608</v>
       </c>
       <c r="D125" t="n">
-        <v>0.256408</v>
+        <v>0.256102</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.339405</v>
+        <v>0.339365</v>
       </c>
       <c r="C126" t="n">
-        <v>0.220722</v>
+        <v>0.220735</v>
       </c>
       <c r="D126" t="n">
-        <v>0.254544</v>
+        <v>0.254491</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.332193</v>
+        <v>0.332102</v>
       </c>
       <c r="C127" t="n">
-        <v>0.219265</v>
+        <v>0.21917</v>
       </c>
       <c r="D127" t="n">
-        <v>0.252673</v>
+        <v>0.253126</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.32412</v>
+        <v>0.324057</v>
       </c>
       <c r="C128" t="n">
-        <v>0.217857</v>
+        <v>0.217896</v>
       </c>
       <c r="D128" t="n">
-        <v>0.251411</v>
+        <v>0.251769</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.315333</v>
+        <v>0.315394</v>
       </c>
       <c r="C129" t="n">
-        <v>0.216928</v>
+        <v>0.216964</v>
       </c>
       <c r="D129" t="n">
-        <v>0.250215</v>
+        <v>0.250566</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.305882</v>
+        <v>0.305913</v>
       </c>
       <c r="C130" t="n">
-        <v>0.216113</v>
+        <v>0.21612</v>
       </c>
       <c r="D130" t="n">
-        <v>0.249553</v>
+        <v>0.249312</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.295867</v>
+        <v>0.295841</v>
       </c>
       <c r="C131" t="n">
-        <v>0.215348</v>
+        <v>0.215132</v>
       </c>
       <c r="D131" t="n">
-        <v>0.248467</v>
+        <v>0.248719</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.284894</v>
+        <v>0.285026</v>
       </c>
       <c r="C132" t="n">
-        <v>0.214145</v>
+        <v>0.214652</v>
       </c>
       <c r="D132" t="n">
-        <v>0.247401</v>
+        <v>0.247369</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.273144</v>
+        <v>0.273159</v>
       </c>
       <c r="C133" t="n">
-        <v>0.212778</v>
+        <v>0.213953</v>
       </c>
       <c r="D133" t="n">
-        <v>0.247364</v>
+        <v>0.247108</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.260456</v>
+        <v>0.260644</v>
       </c>
       <c r="C134" t="n">
-        <v>0.212136</v>
+        <v>0.212127</v>
       </c>
       <c r="D134" t="n">
-        <v>0.246204</v>
+        <v>0.246294</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.246935</v>
+        <v>0.246836</v>
       </c>
       <c r="C135" t="n">
-        <v>0.211832</v>
+        <v>0.212985</v>
       </c>
       <c r="D135" t="n">
-        <v>0.24596</v>
+        <v>0.245772</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.23215</v>
+        <v>0.232032</v>
       </c>
       <c r="C136" t="n">
-        <v>0.21206</v>
+        <v>0.212821</v>
       </c>
       <c r="D136" t="n">
-        <v>0.245179</v>
+        <v>0.245416</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.216039</v>
+        <v>0.215901</v>
       </c>
       <c r="C137" t="n">
-        <v>0.211691</v>
+        <v>0.211673</v>
       </c>
       <c r="D137" t="n">
-        <v>0.261442</v>
+        <v>0.261958</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.352901</v>
+        <v>0.3528</v>
       </c>
       <c r="C138" t="n">
-        <v>0.22707</v>
+        <v>0.226894</v>
       </c>
       <c r="D138" t="n">
-        <v>0.259334</v>
+        <v>0.259797</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.347351</v>
+        <v>0.347304</v>
       </c>
       <c r="C139" t="n">
-        <v>0.223772</v>
+        <v>0.223696</v>
       </c>
       <c r="D139" t="n">
-        <v>0.257376</v>
+        <v>0.256458</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.341026</v>
+        <v>0.340993</v>
       </c>
       <c r="C140" t="n">
-        <v>0.221536</v>
+        <v>0.221497</v>
       </c>
       <c r="D140" t="n">
-        <v>0.255466</v>
+        <v>0.256388</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.333902</v>
+        <v>0.333827</v>
       </c>
       <c r="C141" t="n">
-        <v>0.219753</v>
+        <v>0.21967</v>
       </c>
       <c r="D141" t="n">
-        <v>0.254185</v>
+        <v>0.254176</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.326085</v>
+        <v>0.325998</v>
       </c>
       <c r="C142" t="n">
-        <v>0.21853</v>
+        <v>0.218446</v>
       </c>
       <c r="D142" t="n">
-        <v>0.252741</v>
+        <v>0.252762</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.317483</v>
+        <v>0.317405</v>
       </c>
       <c r="C143" t="n">
-        <v>0.217425</v>
+        <v>0.217429</v>
       </c>
       <c r="D143" t="n">
-        <v>0.251281</v>
+        <v>0.251328</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.284426</v>
+        <v>0.274749</v>
       </c>
       <c r="C2" t="n">
-        <v>0.193179</v>
+        <v>0.193569</v>
       </c>
       <c r="D2" t="n">
-        <v>0.226036</v>
+        <v>0.22828</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.271565</v>
+        <v>0.266589</v>
       </c>
       <c r="C3" t="n">
-        <v>0.194314</v>
+        <v>0.194722</v>
       </c>
       <c r="D3" t="n">
-        <v>0.22856</v>
+        <v>0.22967</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.261682</v>
+        <v>0.256548</v>
       </c>
       <c r="C4" t="n">
-        <v>0.194523</v>
+        <v>0.196391</v>
       </c>
       <c r="D4" t="n">
-        <v>0.227965</v>
+        <v>0.231078</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.250818</v>
+        <v>0.247944</v>
       </c>
       <c r="C5" t="n">
-        <v>0.194964</v>
+        <v>0.195604</v>
       </c>
       <c r="D5" t="n">
-        <v>0.228356</v>
+        <v>0.230796</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.238737</v>
+        <v>0.236069</v>
       </c>
       <c r="C6" t="n">
-        <v>0.196129</v>
+        <v>0.197284</v>
       </c>
       <c r="D6" t="n">
-        <v>0.228831</v>
+        <v>0.229208</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.226286</v>
+        <v>0.224211</v>
       </c>
       <c r="C7" t="n">
-        <v>0.197727</v>
+        <v>0.198009</v>
       </c>
       <c r="D7" t="n">
-        <v>0.22907</v>
+        <v>0.229064</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.211641</v>
+        <v>0.209399</v>
       </c>
       <c r="C8" t="n">
-        <v>0.198385</v>
+        <v>0.199373</v>
       </c>
       <c r="D8" t="n">
-        <v>0.229467</v>
+        <v>0.233374</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.198001</v>
+        <v>0.196168</v>
       </c>
       <c r="C9" t="n">
-        <v>0.199851</v>
+        <v>0.200182</v>
       </c>
       <c r="D9" t="n">
-        <v>0.253386</v>
+        <v>0.233569</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.336052</v>
+        <v>0.335294</v>
       </c>
       <c r="C10" t="n">
-        <v>0.217202</v>
+        <v>0.216829</v>
       </c>
       <c r="D10" t="n">
-        <v>0.255078</v>
+        <v>0.250972</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.330304</v>
+        <v>0.329848</v>
       </c>
       <c r="C11" t="n">
-        <v>0.217971</v>
+        <v>0.216676</v>
       </c>
       <c r="D11" t="n">
-        <v>0.260575</v>
+        <v>0.250922</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.324617</v>
+        <v>0.324146</v>
       </c>
       <c r="C12" t="n">
-        <v>0.21637</v>
+        <v>0.215557</v>
       </c>
       <c r="D12" t="n">
-        <v>0.251052</v>
+        <v>0.249558</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.323306</v>
+        <v>0.317432</v>
       </c>
       <c r="C13" t="n">
-        <v>0.216476</v>
+        <v>0.213599</v>
       </c>
       <c r="D13" t="n">
-        <v>0.250528</v>
+        <v>0.248325</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.31174</v>
+        <v>0.30978</v>
       </c>
       <c r="C14" t="n">
-        <v>0.214705</v>
+        <v>0.212795</v>
       </c>
       <c r="D14" t="n">
-        <v>0.249924</v>
+        <v>0.247948</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.302655</v>
+        <v>0.302332</v>
       </c>
       <c r="C15" t="n">
-        <v>0.212444</v>
+        <v>0.212621</v>
       </c>
       <c r="D15" t="n">
-        <v>0.244956</v>
+        <v>0.24666</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.294485</v>
+        <v>0.294199</v>
       </c>
       <c r="C16" t="n">
-        <v>0.21268</v>
+        <v>0.212464</v>
       </c>
       <c r="D16" t="n">
-        <v>0.248898</v>
+        <v>0.246355</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.28541</v>
+        <v>0.285923</v>
       </c>
       <c r="C17" t="n">
-        <v>0.210478</v>
+        <v>0.211958</v>
       </c>
       <c r="D17" t="n">
-        <v>0.248586</v>
+        <v>0.245497</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.276811</v>
+        <v>0.275805</v>
       </c>
       <c r="C18" t="n">
-        <v>0.211505</v>
+        <v>0.212013</v>
       </c>
       <c r="D18" t="n">
-        <v>0.24686</v>
+        <v>0.2436</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.264996</v>
+        <v>0.264866</v>
       </c>
       <c r="C19" t="n">
-        <v>0.211689</v>
+        <v>0.210458</v>
       </c>
       <c r="D19" t="n">
-        <v>0.242491</v>
+        <v>0.243143</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.254641</v>
+        <v>0.254405</v>
       </c>
       <c r="C20" t="n">
-        <v>0.209863</v>
+        <v>0.210219</v>
       </c>
       <c r="D20" t="n">
-        <v>0.242827</v>
+        <v>0.242699</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.241021</v>
+        <v>0.240886</v>
       </c>
       <c r="C21" t="n">
-        <v>0.210191</v>
+        <v>0.210536</v>
       </c>
       <c r="D21" t="n">
-        <v>0.242445</v>
+        <v>0.242163</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.226431</v>
+        <v>0.225774</v>
       </c>
       <c r="C22" t="n">
-        <v>0.21108</v>
+        <v>0.210321</v>
       </c>
       <c r="D22" t="n">
-        <v>0.244986</v>
+        <v>0.242105</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.210678</v>
+        <v>0.210428</v>
       </c>
       <c r="C23" t="n">
-        <v>0.209644</v>
+        <v>0.210094</v>
       </c>
       <c r="D23" t="n">
-        <v>0.260195</v>
+        <v>0.241192</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.347668</v>
+        <v>0.347361</v>
       </c>
       <c r="C24" t="n">
-        <v>0.226591</v>
+        <v>0.225959</v>
       </c>
       <c r="D24" t="n">
-        <v>0.258279</v>
+        <v>0.26016</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.342844</v>
+        <v>0.34122</v>
       </c>
       <c r="C25" t="n">
-        <v>0.224637</v>
+        <v>0.224132</v>
       </c>
       <c r="D25" t="n">
-        <v>0.256649</v>
+        <v>0.258226</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.336086</v>
+        <v>0.33523</v>
       </c>
       <c r="C26" t="n">
-        <v>0.221073</v>
+        <v>0.221162</v>
       </c>
       <c r="D26" t="n">
-        <v>0.255188</v>
+        <v>0.256013</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.329425</v>
+        <v>0.328977</v>
       </c>
       <c r="C27" t="n">
-        <v>0.219302</v>
+        <v>0.219576</v>
       </c>
       <c r="D27" t="n">
-        <v>0.252795</v>
+        <v>0.254233</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.323071</v>
+        <v>0.322088</v>
       </c>
       <c r="C28" t="n">
-        <v>0.216784</v>
+        <v>0.216932</v>
       </c>
       <c r="D28" t="n">
-        <v>0.251298</v>
+        <v>0.251698</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.313796</v>
+        <v>0.313016</v>
       </c>
       <c r="C29" t="n">
-        <v>0.215651</v>
+        <v>0.215953</v>
       </c>
       <c r="D29" t="n">
-        <v>0.250292</v>
+        <v>0.250598</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.305111</v>
+        <v>0.304052</v>
       </c>
       <c r="C30" t="n">
-        <v>0.215084</v>
+        <v>0.215299</v>
       </c>
       <c r="D30" t="n">
-        <v>0.248889</v>
+        <v>0.248948</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.295087</v>
+        <v>0.29466</v>
       </c>
       <c r="C31" t="n">
-        <v>0.214087</v>
+        <v>0.214302</v>
       </c>
       <c r="D31" t="n">
-        <v>0.247831</v>
+        <v>0.248025</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.285019</v>
+        <v>0.284342</v>
       </c>
       <c r="C32" t="n">
-        <v>0.213948</v>
+        <v>0.213705</v>
       </c>
       <c r="D32" t="n">
-        <v>0.247284</v>
+        <v>0.246864</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.273977</v>
+        <v>0.273449</v>
       </c>
       <c r="C33" t="n">
         <v>0.213068</v>
       </c>
       <c r="D33" t="n">
-        <v>0.246577</v>
+        <v>0.245515</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.26237</v>
+        <v>0.261863</v>
       </c>
       <c r="C34" t="n">
-        <v>0.21265</v>
+        <v>0.212501</v>
       </c>
       <c r="D34" t="n">
-        <v>0.245004</v>
+        <v>0.243895</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.248644</v>
+        <v>0.248066</v>
       </c>
       <c r="C35" t="n">
-        <v>0.212341</v>
+        <v>0.212402</v>
       </c>
       <c r="D35" t="n">
-        <v>0.244424</v>
+        <v>0.243515</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.235521</v>
+        <v>0.235287</v>
       </c>
       <c r="C36" t="n">
-        <v>0.212288</v>
+        <v>0.212084</v>
       </c>
       <c r="D36" t="n">
-        <v>0.243421</v>
+        <v>0.243792</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.220093</v>
+        <v>0.219926</v>
       </c>
       <c r="C37" t="n">
-        <v>0.212597</v>
+        <v>0.212183</v>
       </c>
       <c r="D37" t="n">
-        <v>0.26214</v>
+        <v>0.243662</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.352216</v>
+        <v>0.351293</v>
       </c>
       <c r="C38" t="n">
-        <v>0.229268</v>
+        <v>0.229811</v>
       </c>
       <c r="D38" t="n">
-        <v>0.260031</v>
+        <v>0.263933</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.347594</v>
+        <v>0.347121</v>
       </c>
       <c r="C39" t="n">
-        <v>0.228676</v>
+        <v>0.227006</v>
       </c>
       <c r="D39" t="n">
-        <v>0.257373</v>
+        <v>0.261654</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.341721</v>
+        <v>0.341289</v>
       </c>
       <c r="C40" t="n">
-        <v>0.224574</v>
+        <v>0.224184</v>
       </c>
       <c r="D40" t="n">
-        <v>0.255783</v>
+        <v>0.261918</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.334808</v>
+        <v>0.334229</v>
       </c>
       <c r="C41" t="n">
-        <v>0.220814</v>
+        <v>0.220761</v>
       </c>
       <c r="D41" t="n">
-        <v>0.253877</v>
+        <v>0.254947</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.32784</v>
+        <v>0.327122</v>
       </c>
       <c r="C42" t="n">
-        <v>0.21928</v>
+        <v>0.219332</v>
       </c>
       <c r="D42" t="n">
-        <v>0.252688</v>
+        <v>0.253409</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.319705</v>
+        <v>0.319148</v>
       </c>
       <c r="C43" t="n">
-        <v>0.218008</v>
+        <v>0.218271</v>
       </c>
       <c r="D43" t="n">
-        <v>0.250919</v>
+        <v>0.251514</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.31077</v>
+        <v>0.310275</v>
       </c>
       <c r="C44" t="n">
-        <v>0.216992</v>
+        <v>0.216806</v>
       </c>
       <c r="D44" t="n">
-        <v>0.249038</v>
+        <v>0.249513</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.301601</v>
+        <v>0.30127</v>
       </c>
       <c r="C45" t="n">
-        <v>0.216131</v>
+        <v>0.216372</v>
       </c>
       <c r="D45" t="n">
-        <v>0.247919</v>
+        <v>0.247928</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.291207</v>
+        <v>0.290876</v>
       </c>
       <c r="C46" t="n">
-        <v>0.214186</v>
+        <v>0.214316</v>
       </c>
       <c r="D46" t="n">
-        <v>0.247168</v>
+        <v>0.247302</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.280145</v>
+        <v>0.279654</v>
       </c>
       <c r="C47" t="n">
-        <v>0.214258</v>
+        <v>0.21423</v>
       </c>
       <c r="D47" t="n">
-        <v>0.246229</v>
+        <v>0.246665</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.268615</v>
+        <v>0.26851</v>
       </c>
       <c r="C48" t="n">
-        <v>0.212591</v>
+        <v>0.212673</v>
       </c>
       <c r="D48" t="n">
-        <v>0.246053</v>
+        <v>0.245072</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.256276</v>
+        <v>0.256383</v>
       </c>
       <c r="C49" t="n">
-        <v>0.212554</v>
+        <v>0.212642</v>
       </c>
       <c r="D49" t="n">
-        <v>0.24509</v>
+        <v>0.24456</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.242267</v>
+        <v>0.241935</v>
       </c>
       <c r="C50" t="n">
-        <v>0.212443</v>
+        <v>0.212542</v>
       </c>
       <c r="D50" t="n">
-        <v>0.246034</v>
+        <v>0.244312</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.226876</v>
+        <v>0.226602</v>
       </c>
       <c r="C51" t="n">
-        <v>0.212145</v>
+        <v>0.212177</v>
       </c>
       <c r="D51" t="n">
-        <v>0.261893</v>
+        <v>0.243641</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.210225</v>
+        <v>0.210026</v>
       </c>
       <c r="C52" t="n">
-        <v>0.21186</v>
+        <v>0.212117</v>
       </c>
       <c r="D52" t="n">
-        <v>0.25876</v>
+        <v>0.246968</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.350622</v>
+        <v>0.350366</v>
       </c>
       <c r="C53" t="n">
-        <v>0.226999</v>
+        <v>0.226787</v>
       </c>
       <c r="D53" t="n">
-        <v>0.256555</v>
+        <v>0.260433</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.344536</v>
+        <v>0.344323</v>
       </c>
       <c r="C54" t="n">
-        <v>0.223744</v>
+        <v>0.223897</v>
       </c>
       <c r="D54" t="n">
-        <v>0.254949</v>
+        <v>0.257255</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.338486</v>
+        <v>0.338335</v>
       </c>
       <c r="C55" t="n">
-        <v>0.220727</v>
+        <v>0.220784</v>
       </c>
       <c r="D55" t="n">
-        <v>0.25376</v>
+        <v>0.254444</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.3312</v>
+        <v>0.331008</v>
       </c>
       <c r="C56" t="n">
-        <v>0.219642</v>
+        <v>0.21958</v>
       </c>
       <c r="D56" t="n">
-        <v>0.251674</v>
+        <v>0.252633</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.322901</v>
+        <v>0.322982</v>
       </c>
       <c r="C57" t="n">
-        <v>0.218172</v>
+        <v>0.218201</v>
       </c>
       <c r="D57" t="n">
-        <v>0.250276</v>
+        <v>0.251047</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.314287</v>
+        <v>0.314226</v>
       </c>
       <c r="C58" t="n">
-        <v>0.21761</v>
+        <v>0.217339</v>
       </c>
       <c r="D58" t="n">
-        <v>0.249031</v>
+        <v>0.249685</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.305317</v>
+        <v>0.305272</v>
       </c>
       <c r="C59" t="n">
-        <v>0.21488</v>
+        <v>0.214744</v>
       </c>
       <c r="D59" t="n">
-        <v>0.248271</v>
+        <v>0.248276</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.295066</v>
+        <v>0.294804</v>
       </c>
       <c r="C60" t="n">
-        <v>0.214195</v>
+        <v>0.214005</v>
       </c>
       <c r="D60" t="n">
-        <v>0.246943</v>
+        <v>0.246875</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.284159</v>
+        <v>0.2837</v>
       </c>
       <c r="C61" t="n">
-        <v>0.213758</v>
+        <v>0.213598</v>
       </c>
       <c r="D61" t="n">
-        <v>0.246423</v>
+        <v>0.246259</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272392</v>
+        <v>0.27223</v>
       </c>
       <c r="C62" t="n">
-        <v>0.212989</v>
+        <v>0.212981</v>
       </c>
       <c r="D62" t="n">
-        <v>0.24573</v>
+        <v>0.245198</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.259872</v>
+        <v>0.259353</v>
       </c>
       <c r="C63" t="n">
-        <v>0.212477</v>
+        <v>0.212498</v>
       </c>
       <c r="D63" t="n">
-        <v>0.244649</v>
+        <v>0.244436</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.246187</v>
+        <v>0.245839</v>
       </c>
       <c r="C64" t="n">
-        <v>0.212136</v>
+        <v>0.212196</v>
       </c>
       <c r="D64" t="n">
-        <v>0.244051</v>
+        <v>0.243753</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.230706</v>
+        <v>0.230242</v>
       </c>
       <c r="C65" t="n">
-        <v>0.212003</v>
+        <v>0.212251</v>
       </c>
       <c r="D65" t="n">
-        <v>0.243391</v>
+        <v>0.243225</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.213964</v>
+        <v>0.21383</v>
       </c>
       <c r="C66" t="n">
-        <v>0.212128</v>
+        <v>0.212289</v>
       </c>
       <c r="D66" t="n">
-        <v>0.259522</v>
+        <v>0.243998</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.352593</v>
+        <v>0.352696</v>
       </c>
       <c r="C67" t="n">
-        <v>0.228466</v>
+        <v>0.228282</v>
       </c>
       <c r="D67" t="n">
-        <v>0.257022</v>
+        <v>0.262141</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.347372</v>
+        <v>0.346982</v>
       </c>
       <c r="C68" t="n">
-        <v>0.224424</v>
+        <v>0.224349</v>
       </c>
       <c r="D68" t="n">
-        <v>0.255016</v>
+        <v>0.258038</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.34094</v>
+        <v>0.340886</v>
       </c>
       <c r="C69" t="n">
-        <v>0.221451</v>
+        <v>0.221404</v>
       </c>
       <c r="D69" t="n">
-        <v>0.253253</v>
+        <v>0.25506</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.333967</v>
+        <v>0.333817</v>
       </c>
       <c r="C70" t="n">
-        <v>0.219474</v>
+        <v>0.219441</v>
       </c>
       <c r="D70" t="n">
-        <v>0.25172</v>
+        <v>0.252601</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.32562</v>
+        <v>0.325576</v>
       </c>
       <c r="C71" t="n">
-        <v>0.218533</v>
+        <v>0.218323</v>
       </c>
       <c r="D71" t="n">
-        <v>0.250748</v>
+        <v>0.251185</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.317064</v>
+        <v>0.316994</v>
       </c>
       <c r="C72" t="n">
-        <v>0.217209</v>
+        <v>0.217269</v>
       </c>
       <c r="D72" t="n">
-        <v>0.249727</v>
+        <v>0.249912</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.307738</v>
+        <v>0.307868</v>
       </c>
       <c r="C73" t="n">
-        <v>0.216604</v>
+        <v>0.216546</v>
       </c>
       <c r="D73" t="n">
-        <v>0.24859</v>
+        <v>0.24864</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.297877</v>
+        <v>0.297831</v>
       </c>
       <c r="C74" t="n">
-        <v>0.214453</v>
+        <v>0.214471</v>
       </c>
       <c r="D74" t="n">
-        <v>0.248036</v>
+        <v>0.247797</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.286947</v>
+        <v>0.286935</v>
       </c>
       <c r="C75" t="n">
-        <v>0.213732</v>
+        <v>0.213852</v>
       </c>
       <c r="D75" t="n">
-        <v>0.246874</v>
+        <v>0.246778</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.275886</v>
+        <v>0.275839</v>
       </c>
       <c r="C76" t="n">
-        <v>0.213313</v>
+        <v>0.213424</v>
       </c>
       <c r="D76" t="n">
-        <v>0.245747</v>
+        <v>0.245829</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.263357</v>
+        <v>0.263036</v>
       </c>
       <c r="C77" t="n">
-        <v>0.212573</v>
+        <v>0.212738</v>
       </c>
       <c r="D77" t="n">
-        <v>0.244974</v>
+        <v>0.244944</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.249459</v>
+        <v>0.249234</v>
       </c>
       <c r="C78" t="n">
-        <v>0.212179</v>
+        <v>0.212204</v>
       </c>
       <c r="D78" t="n">
-        <v>0.243925</v>
+        <v>0.244037</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.23479</v>
+        <v>0.234509</v>
       </c>
       <c r="C79" t="n">
-        <v>0.212282</v>
+        <v>0.212154</v>
       </c>
       <c r="D79" t="n">
-        <v>0.244215</v>
+        <v>0.243426</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.218813</v>
+        <v>0.218668</v>
       </c>
       <c r="C80" t="n">
-        <v>0.211812</v>
+        <v>0.211944</v>
       </c>
       <c r="D80" t="n">
-        <v>0.260237</v>
+        <v>0.242943</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.353872</v>
+        <v>0.353705</v>
       </c>
       <c r="C81" t="n">
-        <v>0.22765</v>
+        <v>0.227788</v>
       </c>
       <c r="D81" t="n">
-        <v>0.257758</v>
+        <v>0.261364</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.348458</v>
+        <v>0.348326</v>
       </c>
       <c r="C82" t="n">
-        <v>0.224084</v>
+        <v>0.223774</v>
       </c>
       <c r="D82" t="n">
-        <v>0.255696</v>
+        <v>0.257577</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.341933</v>
+        <v>0.341845</v>
       </c>
       <c r="C83" t="n">
-        <v>0.221431</v>
+        <v>0.221236</v>
       </c>
       <c r="D83" t="n">
-        <v>0.253906</v>
+        <v>0.25469</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.335521</v>
+        <v>0.335043</v>
       </c>
       <c r="C84" t="n">
-        <v>0.219762</v>
+        <v>0.219417</v>
       </c>
       <c r="D84" t="n">
-        <v>0.252653</v>
+        <v>0.252712</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.327498</v>
+        <v>0.327401</v>
       </c>
       <c r="C85" t="n">
-        <v>0.218719</v>
+        <v>0.21867</v>
       </c>
       <c r="D85" t="n">
-        <v>0.251343</v>
+        <v>0.251298</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.319112</v>
+        <v>0.319055</v>
       </c>
       <c r="C86" t="n">
-        <v>0.217614</v>
+        <v>0.217484</v>
       </c>
       <c r="D86" t="n">
-        <v>0.250094</v>
+        <v>0.250104</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.31005</v>
+        <v>0.309936</v>
       </c>
       <c r="C87" t="n">
-        <v>0.216859</v>
+        <v>0.216834</v>
       </c>
       <c r="D87" t="n">
-        <v>0.248819</v>
+        <v>0.248655</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.300232</v>
+        <v>0.300144</v>
       </c>
       <c r="C88" t="n">
-        <v>0.216</v>
+        <v>0.215879</v>
       </c>
       <c r="D88" t="n">
-        <v>0.247784</v>
+        <v>0.247625</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.289886</v>
+        <v>0.28968</v>
       </c>
       <c r="C89" t="n">
-        <v>0.21408</v>
+        <v>0.213662</v>
       </c>
       <c r="D89" t="n">
-        <v>0.24686</v>
+        <v>0.246693</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.27836</v>
+        <v>0.278327</v>
       </c>
       <c r="C90" t="n">
-        <v>0.21324</v>
+        <v>0.213175</v>
       </c>
       <c r="D90" t="n">
-        <v>0.246071</v>
+        <v>0.245725</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.265735</v>
+        <v>0.265592</v>
       </c>
       <c r="C91" t="n">
-        <v>0.212844</v>
+        <v>0.212762</v>
       </c>
       <c r="D91" t="n">
-        <v>0.24552</v>
+        <v>0.244802</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.252382</v>
+        <v>0.252136</v>
       </c>
       <c r="C92" t="n">
-        <v>0.212332</v>
+        <v>0.212224</v>
       </c>
       <c r="D92" t="n">
-        <v>0.24472</v>
+        <v>0.244166</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.23832</v>
+        <v>0.238106</v>
       </c>
       <c r="C93" t="n">
-        <v>0.211836</v>
+        <v>0.211791</v>
       </c>
       <c r="D93" t="n">
-        <v>0.244139</v>
+        <v>0.243402</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.222352</v>
+        <v>0.22216</v>
       </c>
       <c r="C94" t="n">
-        <v>0.211708</v>
+        <v>0.211645</v>
       </c>
       <c r="D94" t="n">
-        <v>0.261468</v>
+        <v>0.242877</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.355158</v>
+        <v>0.355063</v>
       </c>
       <c r="C95" t="n">
-        <v>0.228032</v>
+        <v>0.227816</v>
       </c>
       <c r="D95" t="n">
-        <v>0.258375</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.35011</v>
+        <v>0.349836</v>
       </c>
       <c r="C96" t="n">
-        <v>0.224952</v>
+        <v>0.224719</v>
       </c>
       <c r="D96" t="n">
-        <v>0.256436</v>
+        <v>0.258565</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.344124</v>
+        <v>0.344051</v>
       </c>
       <c r="C97" t="n">
-        <v>0.222441</v>
+        <v>0.222343</v>
       </c>
       <c r="D97" t="n">
-        <v>0.254508</v>
+        <v>0.255959</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.33696</v>
+        <v>0.336943</v>
       </c>
       <c r="C98" t="n">
-        <v>0.220415</v>
+        <v>0.220348</v>
       </c>
       <c r="D98" t="n">
-        <v>0.253046</v>
+        <v>0.253525</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.329482</v>
+        <v>0.3292</v>
       </c>
       <c r="C99" t="n">
-        <v>0.219294</v>
+        <v>0.219182</v>
       </c>
       <c r="D99" t="n">
-        <v>0.251569</v>
+        <v>0.251843</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.321153</v>
+        <v>0.320936</v>
       </c>
       <c r="C100" t="n">
-        <v>0.217863</v>
+        <v>0.217844</v>
       </c>
       <c r="D100" t="n">
-        <v>0.250368</v>
+        <v>0.25043</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.312175</v>
+        <v>0.312017</v>
       </c>
       <c r="C101" t="n">
-        <v>0.217107</v>
+        <v>0.216978</v>
       </c>
       <c r="D101" t="n">
-        <v>0.249239</v>
+        <v>0.249114</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.302329</v>
+        <v>0.302657</v>
       </c>
       <c r="C102" t="n">
-        <v>0.216173</v>
+        <v>0.216095</v>
       </c>
       <c r="D102" t="n">
-        <v>0.248487</v>
+        <v>0.248205</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.291892</v>
+        <v>0.291925</v>
       </c>
       <c r="C103" t="n">
-        <v>0.21547</v>
+        <v>0.214922</v>
       </c>
       <c r="D103" t="n">
-        <v>0.247256</v>
+        <v>0.247149</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.280766</v>
+        <v>0.280947</v>
       </c>
       <c r="C104" t="n">
-        <v>0.214667</v>
+        <v>0.214482</v>
       </c>
       <c r="D104" t="n">
-        <v>0.24637</v>
+        <v>0.246028</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.268655</v>
+        <v>0.268506</v>
       </c>
       <c r="C105" t="n">
-        <v>0.214119</v>
+        <v>0.214017</v>
       </c>
       <c r="D105" t="n">
-        <v>0.245548</v>
+        <v>0.245029</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.255606</v>
+        <v>0.255324</v>
       </c>
       <c r="C106" t="n">
-        <v>0.21236</v>
+        <v>0.212314</v>
       </c>
       <c r="D106" t="n">
-        <v>0.244752</v>
+        <v>0.244216</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.241377</v>
+        <v>0.241406</v>
       </c>
       <c r="C107" t="n">
-        <v>0.212029</v>
+        <v>0.21193</v>
       </c>
       <c r="D107" t="n">
-        <v>0.244144</v>
+        <v>0.243499</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.225662</v>
+        <v>0.225917</v>
       </c>
       <c r="C108" t="n">
-        <v>0.211702</v>
+        <v>0.211592</v>
       </c>
       <c r="D108" t="n">
-        <v>0.261863</v>
+        <v>0.243131</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.209247</v>
+        <v>0.209431</v>
       </c>
       <c r="C109" t="n">
-        <v>0.211433</v>
+        <v>0.211345</v>
       </c>
       <c r="D109" t="n">
-        <v>0.259264</v>
+        <v>0.242995</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.350738</v>
+        <v>0.350841</v>
       </c>
       <c r="C110" t="n">
-        <v>0.224705</v>
+        <v>0.224781</v>
       </c>
       <c r="D110" t="n">
-        <v>0.256792</v>
+        <v>0.259304</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.344624</v>
+        <v>0.344833</v>
       </c>
       <c r="C111" t="n">
-        <v>0.222192</v>
+        <v>0.222186</v>
       </c>
       <c r="D111" t="n">
-        <v>0.255218</v>
+        <v>0.256523</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.338083</v>
+        <v>0.338058</v>
       </c>
       <c r="C112" t="n">
-        <v>0.220338</v>
+        <v>0.220423</v>
       </c>
       <c r="D112" t="n">
-        <v>0.253628</v>
+        <v>0.25429</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.330678</v>
+        <v>0.330651</v>
       </c>
       <c r="C113" t="n">
-        <v>0.218884</v>
+        <v>0.218916</v>
       </c>
       <c r="D113" t="n">
-        <v>0.252077</v>
+        <v>0.252464</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.322557</v>
+        <v>0.322538</v>
       </c>
       <c r="C114" t="n">
-        <v>0.217695</v>
+        <v>0.217711</v>
       </c>
       <c r="D114" t="n">
-        <v>0.251056</v>
+        <v>0.251466</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.313659</v>
+        <v>0.313685</v>
       </c>
       <c r="C115" t="n">
-        <v>0.216736</v>
+        <v>0.216752</v>
       </c>
       <c r="D115" t="n">
-        <v>0.250243</v>
+        <v>0.250248</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.304149</v>
+        <v>0.304184</v>
       </c>
       <c r="C116" t="n">
-        <v>0.215537</v>
+        <v>0.2147</v>
       </c>
       <c r="D116" t="n">
-        <v>0.24933</v>
+        <v>0.249227</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.293826</v>
+        <v>0.294056</v>
       </c>
       <c r="C117" t="n">
-        <v>0.214736</v>
+        <v>0.21537</v>
       </c>
       <c r="D117" t="n">
-        <v>0.248428</v>
+        <v>0.24803</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.282946</v>
+        <v>0.282867</v>
       </c>
       <c r="C118" t="n">
-        <v>0.214389</v>
+        <v>0.214952</v>
       </c>
       <c r="D118" t="n">
-        <v>0.247078</v>
+        <v>0.246934</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.270964</v>
+        <v>0.27115</v>
       </c>
       <c r="C119" t="n">
-        <v>0.212949</v>
+        <v>0.213695</v>
       </c>
       <c r="D119" t="n">
-        <v>0.24675</v>
+        <v>0.246108</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.258285</v>
+        <v>0.25831</v>
       </c>
       <c r="C120" t="n">
-        <v>0.213691</v>
+        <v>0.2138</v>
       </c>
       <c r="D120" t="n">
-        <v>0.245935</v>
+        <v>0.245115</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.244353</v>
+        <v>0.244306</v>
       </c>
       <c r="C121" t="n">
-        <v>0.212642</v>
+        <v>0.212623</v>
       </c>
       <c r="D121" t="n">
-        <v>0.245311</v>
+        <v>0.244525</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.229348</v>
+        <v>0.229522</v>
       </c>
       <c r="C122" t="n">
-        <v>0.212129</v>
+        <v>0.211976</v>
       </c>
       <c r="D122" t="n">
-        <v>0.24482</v>
+        <v>0.243614</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.212649</v>
+        <v>0.212714</v>
       </c>
       <c r="C123" t="n">
-        <v>0.211865</v>
+        <v>0.211662</v>
       </c>
       <c r="D123" t="n">
-        <v>0.260668</v>
+        <v>0.243405</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.351799</v>
+        <v>0.351663</v>
       </c>
       <c r="C124" t="n">
-        <v>0.225606</v>
+        <v>0.225469</v>
       </c>
       <c r="D124" t="n">
-        <v>0.258314</v>
+        <v>0.260667</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.345867</v>
+        <v>0.345883</v>
       </c>
       <c r="C125" t="n">
-        <v>0.222608</v>
+        <v>0.222587</v>
       </c>
       <c r="D125" t="n">
-        <v>0.256102</v>
+        <v>0.257257</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.339365</v>
+        <v>0.339279</v>
       </c>
       <c r="C126" t="n">
-        <v>0.220735</v>
+        <v>0.22074</v>
       </c>
       <c r="D126" t="n">
-        <v>0.254491</v>
+        <v>0.255214</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.332102</v>
+        <v>0.33202</v>
       </c>
       <c r="C127" t="n">
-        <v>0.21917</v>
+        <v>0.21924</v>
       </c>
       <c r="D127" t="n">
-        <v>0.253126</v>
+        <v>0.252811</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.324057</v>
+        <v>0.324082</v>
       </c>
       <c r="C128" t="n">
-        <v>0.217896</v>
+        <v>0.217919</v>
       </c>
       <c r="D128" t="n">
-        <v>0.251769</v>
+        <v>0.25185</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.315394</v>
+        <v>0.315342</v>
       </c>
       <c r="C129" t="n">
-        <v>0.216964</v>
+        <v>0.216972</v>
       </c>
       <c r="D129" t="n">
-        <v>0.250566</v>
+        <v>0.250477</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.305913</v>
+        <v>0.305816</v>
       </c>
       <c r="C130" t="n">
-        <v>0.21612</v>
+        <v>0.21608</v>
       </c>
       <c r="D130" t="n">
-        <v>0.249312</v>
+        <v>0.249321</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.295841</v>
+        <v>0.295748</v>
       </c>
       <c r="C131" t="n">
-        <v>0.215132</v>
+        <v>0.215356</v>
       </c>
       <c r="D131" t="n">
-        <v>0.248719</v>
+        <v>0.248442</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.285026</v>
+        <v>0.284851</v>
       </c>
       <c r="C132" t="n">
-        <v>0.214652</v>
+        <v>0.214619</v>
       </c>
       <c r="D132" t="n">
-        <v>0.247369</v>
+        <v>0.247013</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.273159</v>
+        <v>0.273054</v>
       </c>
       <c r="C133" t="n">
-        <v>0.213953</v>
+        <v>0.212695</v>
       </c>
       <c r="D133" t="n">
-        <v>0.247108</v>
+        <v>0.246399</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.260644</v>
+        <v>0.260323</v>
       </c>
       <c r="C134" t="n">
-        <v>0.212127</v>
+        <v>0.212157</v>
       </c>
       <c r="D134" t="n">
-        <v>0.246294</v>
+        <v>0.245636</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.246836</v>
+        <v>0.246684</v>
       </c>
       <c r="C135" t="n">
-        <v>0.212985</v>
+        <v>0.211808</v>
       </c>
       <c r="D135" t="n">
-        <v>0.245772</v>
+        <v>0.244844</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.232032</v>
+        <v>0.231905</v>
       </c>
       <c r="C136" t="n">
-        <v>0.212821</v>
+        <v>0.211922</v>
       </c>
       <c r="D136" t="n">
-        <v>0.245416</v>
+        <v>0.244353</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.215901</v>
+        <v>0.215905</v>
       </c>
       <c r="C137" t="n">
-        <v>0.211673</v>
+        <v>0.211786</v>
       </c>
       <c r="D137" t="n">
-        <v>0.261958</v>
+        <v>0.24398</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.3528</v>
+        <v>0.352726</v>
       </c>
       <c r="C138" t="n">
-        <v>0.226894</v>
+        <v>0.226849</v>
       </c>
       <c r="D138" t="n">
-        <v>0.259797</v>
+        <v>0.262626</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.347304</v>
+        <v>0.347758</v>
       </c>
       <c r="C139" t="n">
-        <v>0.223696</v>
+        <v>0.223741</v>
       </c>
       <c r="D139" t="n">
-        <v>0.256458</v>
+        <v>0.259259</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.340993</v>
+        <v>0.340959</v>
       </c>
       <c r="C140" t="n">
-        <v>0.221497</v>
+        <v>0.221392</v>
       </c>
       <c r="D140" t="n">
-        <v>0.256388</v>
+        <v>0.256109</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.333827</v>
+        <v>0.333779</v>
       </c>
       <c r="C141" t="n">
-        <v>0.21967</v>
+        <v>0.219748</v>
       </c>
       <c r="D141" t="n">
-        <v>0.254176</v>
+        <v>0.255085</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.325998</v>
+        <v>0.326008</v>
       </c>
       <c r="C142" t="n">
-        <v>0.218446</v>
+        <v>0.218494</v>
       </c>
       <c r="D142" t="n">
-        <v>0.252762</v>
+        <v>0.252874</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.317405</v>
+        <v>0.31743</v>
       </c>
       <c r="C143" t="n">
-        <v>0.217429</v>
+        <v>0.217376</v>
       </c>
       <c r="D143" t="n">
-        <v>0.251328</v>
+        <v>0.251365</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.274749</v>
+        <v>0.282309</v>
       </c>
       <c r="C2" t="n">
-        <v>0.193569</v>
+        <v>0.193515</v>
       </c>
       <c r="D2" t="n">
-        <v>0.22828</v>
+        <v>0.226804</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.266589</v>
+        <v>0.269458</v>
       </c>
       <c r="C3" t="n">
-        <v>0.194722</v>
+        <v>0.194339</v>
       </c>
       <c r="D3" t="n">
-        <v>0.22967</v>
+        <v>0.230653</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.256548</v>
+        <v>0.2584</v>
       </c>
       <c r="C4" t="n">
-        <v>0.196391</v>
+        <v>0.194472</v>
       </c>
       <c r="D4" t="n">
-        <v>0.231078</v>
+        <v>0.227819</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.247944</v>
+        <v>0.247726</v>
       </c>
       <c r="C5" t="n">
-        <v>0.195604</v>
+        <v>0.194728</v>
       </c>
       <c r="D5" t="n">
-        <v>0.230796</v>
+        <v>0.227853</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.236069</v>
+        <v>0.237567</v>
       </c>
       <c r="C6" t="n">
-        <v>0.197284</v>
+        <v>0.196588</v>
       </c>
       <c r="D6" t="n">
-        <v>0.229208</v>
+        <v>0.229034</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.224211</v>
+        <v>0.226418</v>
       </c>
       <c r="C7" t="n">
-        <v>0.198009</v>
+        <v>0.196663</v>
       </c>
       <c r="D7" t="n">
-        <v>0.229064</v>
+        <v>0.229198</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.209399</v>
+        <v>0.210764</v>
       </c>
       <c r="C8" t="n">
-        <v>0.199373</v>
+        <v>0.198749</v>
       </c>
       <c r="D8" t="n">
-        <v>0.233374</v>
+        <v>0.229273</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.196168</v>
+        <v>0.196953</v>
       </c>
       <c r="C9" t="n">
-        <v>0.200182</v>
+        <v>0.199454</v>
       </c>
       <c r="D9" t="n">
-        <v>0.233569</v>
+        <v>0.229826</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.335294</v>
+        <v>0.335915</v>
       </c>
       <c r="C10" t="n">
-        <v>0.216829</v>
+        <v>0.216728</v>
       </c>
       <c r="D10" t="n">
-        <v>0.250972</v>
+        <v>0.251446</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.329848</v>
+        <v>0.330391</v>
       </c>
       <c r="C11" t="n">
-        <v>0.216676</v>
+        <v>0.216297</v>
       </c>
       <c r="D11" t="n">
-        <v>0.250922</v>
+        <v>0.250623</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.324146</v>
+        <v>0.324923</v>
       </c>
       <c r="C12" t="n">
-        <v>0.215557</v>
+        <v>0.215282</v>
       </c>
       <c r="D12" t="n">
-        <v>0.249558</v>
+        <v>0.24864</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.317432</v>
+        <v>0.31854</v>
       </c>
       <c r="C13" t="n">
-        <v>0.213599</v>
+        <v>0.213785</v>
       </c>
       <c r="D13" t="n">
-        <v>0.248325</v>
+        <v>0.248661</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.30978</v>
+        <v>0.310223</v>
       </c>
       <c r="C14" t="n">
-        <v>0.212795</v>
+        <v>0.212607</v>
       </c>
       <c r="D14" t="n">
-        <v>0.247948</v>
+        <v>0.248074</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.302332</v>
+        <v>0.302994</v>
       </c>
       <c r="C15" t="n">
-        <v>0.212621</v>
+        <v>0.212335</v>
       </c>
       <c r="D15" t="n">
-        <v>0.24666</v>
+        <v>0.247151</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.294199</v>
+        <v>0.294645</v>
       </c>
       <c r="C16" t="n">
-        <v>0.212464</v>
+        <v>0.212166</v>
       </c>
       <c r="D16" t="n">
-        <v>0.246355</v>
+        <v>0.245987</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.285923</v>
+        <v>0.286172</v>
       </c>
       <c r="C17" t="n">
-        <v>0.211958</v>
+        <v>0.211913</v>
       </c>
       <c r="D17" t="n">
-        <v>0.245497</v>
+        <v>0.245469</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.275805</v>
+        <v>0.276122</v>
       </c>
       <c r="C18" t="n">
-        <v>0.212013</v>
+        <v>0.211843</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2436</v>
+        <v>0.243979</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.264866</v>
+        <v>0.265278</v>
       </c>
       <c r="C19" t="n">
-        <v>0.210458</v>
+        <v>0.210621</v>
       </c>
       <c r="D19" t="n">
-        <v>0.243143</v>
+        <v>0.243409</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.254405</v>
+        <v>0.254469</v>
       </c>
       <c r="C20" t="n">
-        <v>0.210219</v>
+        <v>0.210599</v>
       </c>
       <c r="D20" t="n">
-        <v>0.242699</v>
+        <v>0.242918</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.240886</v>
+        <v>0.24164</v>
       </c>
       <c r="C21" t="n">
-        <v>0.210536</v>
+        <v>0.210377</v>
       </c>
       <c r="D21" t="n">
-        <v>0.242163</v>
+        <v>0.242078</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.225774</v>
+        <v>0.227028</v>
       </c>
       <c r="C22" t="n">
-        <v>0.210321</v>
+        <v>0.210107</v>
       </c>
       <c r="D22" t="n">
-        <v>0.242105</v>
+        <v>0.241635</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.210428</v>
+        <v>0.211566</v>
       </c>
       <c r="C23" t="n">
-        <v>0.210094</v>
+        <v>0.209874</v>
       </c>
       <c r="D23" t="n">
-        <v>0.241192</v>
+        <v>0.241476</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.347361</v>
+        <v>0.347385</v>
       </c>
       <c r="C24" t="n">
-        <v>0.225959</v>
+        <v>0.226548</v>
       </c>
       <c r="D24" t="n">
-        <v>0.26016</v>
+        <v>0.261107</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.34122</v>
+        <v>0.341544</v>
       </c>
       <c r="C25" t="n">
-        <v>0.224132</v>
+        <v>0.224399</v>
       </c>
       <c r="D25" t="n">
-        <v>0.258226</v>
+        <v>0.258475</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.33523</v>
+        <v>0.335488</v>
       </c>
       <c r="C26" t="n">
-        <v>0.221162</v>
+        <v>0.220796</v>
       </c>
       <c r="D26" t="n">
-        <v>0.256013</v>
+        <v>0.255465</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.328977</v>
+        <v>0.329264</v>
       </c>
       <c r="C27" t="n">
-        <v>0.219576</v>
+        <v>0.21925</v>
       </c>
       <c r="D27" t="n">
-        <v>0.254233</v>
+        <v>0.254709</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.322088</v>
+        <v>0.322279</v>
       </c>
       <c r="C28" t="n">
-        <v>0.216932</v>
+        <v>0.217296</v>
       </c>
       <c r="D28" t="n">
-        <v>0.251698</v>
+        <v>0.251575</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.313016</v>
+        <v>0.313645</v>
       </c>
       <c r="C29" t="n">
-        <v>0.215953</v>
+        <v>0.215874</v>
       </c>
       <c r="D29" t="n">
-        <v>0.250598</v>
+        <v>0.250568</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.304052</v>
+        <v>0.304735</v>
       </c>
       <c r="C30" t="n">
-        <v>0.215299</v>
+        <v>0.214964</v>
       </c>
       <c r="D30" t="n">
-        <v>0.248948</v>
+        <v>0.24917</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.29466</v>
+        <v>0.294871</v>
       </c>
       <c r="C31" t="n">
-        <v>0.214302</v>
+        <v>0.214331</v>
       </c>
       <c r="D31" t="n">
-        <v>0.248025</v>
+        <v>0.24777</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.284342</v>
+        <v>0.284454</v>
       </c>
       <c r="C32" t="n">
-        <v>0.213705</v>
+        <v>0.214198</v>
       </c>
       <c r="D32" t="n">
-        <v>0.246864</v>
+        <v>0.247054</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.273449</v>
+        <v>0.273944</v>
       </c>
       <c r="C33" t="n">
-        <v>0.213068</v>
+        <v>0.213201</v>
       </c>
       <c r="D33" t="n">
-        <v>0.245515</v>
+        <v>0.245493</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.261863</v>
+        <v>0.26251</v>
       </c>
       <c r="C34" t="n">
-        <v>0.212501</v>
+        <v>0.212556</v>
       </c>
       <c r="D34" t="n">
-        <v>0.243895</v>
+        <v>0.244361</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.248066</v>
+        <v>0.249157</v>
       </c>
       <c r="C35" t="n">
-        <v>0.212402</v>
+        <v>0.212395</v>
       </c>
       <c r="D35" t="n">
-        <v>0.243515</v>
+        <v>0.243728</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.235287</v>
+        <v>0.235521</v>
       </c>
       <c r="C36" t="n">
-        <v>0.212084</v>
+        <v>0.212281</v>
       </c>
       <c r="D36" t="n">
-        <v>0.243792</v>
+        <v>0.243761</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.219926</v>
+        <v>0.22057</v>
       </c>
       <c r="C37" t="n">
-        <v>0.212183</v>
+        <v>0.212696</v>
       </c>
       <c r="D37" t="n">
-        <v>0.243662</v>
+        <v>0.243803</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.351293</v>
+        <v>0.352215</v>
       </c>
       <c r="C38" t="n">
-        <v>0.229811</v>
+        <v>0.229628</v>
       </c>
       <c r="D38" t="n">
-        <v>0.263933</v>
+        <v>0.264137</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.347121</v>
+        <v>0.347103</v>
       </c>
       <c r="C39" t="n">
-        <v>0.227006</v>
+        <v>0.227142</v>
       </c>
       <c r="D39" t="n">
-        <v>0.261654</v>
+        <v>0.261263</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.341289</v>
+        <v>0.341251</v>
       </c>
       <c r="C40" t="n">
-        <v>0.224184</v>
+        <v>0.223678</v>
       </c>
       <c r="D40" t="n">
-        <v>0.261918</v>
+        <v>0.262056</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.334229</v>
+        <v>0.334522</v>
       </c>
       <c r="C41" t="n">
-        <v>0.220761</v>
+        <v>0.220909</v>
       </c>
       <c r="D41" t="n">
-        <v>0.254947</v>
+        <v>0.254443</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.327122</v>
+        <v>0.327548</v>
       </c>
       <c r="C42" t="n">
-        <v>0.219332</v>
+        <v>0.219549</v>
       </c>
       <c r="D42" t="n">
-        <v>0.253409</v>
+        <v>0.253006</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.319148</v>
+        <v>0.319587</v>
       </c>
       <c r="C43" t="n">
-        <v>0.218271</v>
+        <v>0.218177</v>
       </c>
       <c r="D43" t="n">
-        <v>0.251514</v>
+        <v>0.251362</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.310275</v>
+        <v>0.310792</v>
       </c>
       <c r="C44" t="n">
-        <v>0.216806</v>
+        <v>0.217074</v>
       </c>
       <c r="D44" t="n">
-        <v>0.249513</v>
+        <v>0.249671</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.30127</v>
+        <v>0.302059</v>
       </c>
       <c r="C45" t="n">
-        <v>0.216372</v>
+        <v>0.216304</v>
       </c>
       <c r="D45" t="n">
-        <v>0.247928</v>
+        <v>0.248193</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.290876</v>
+        <v>0.291555</v>
       </c>
       <c r="C46" t="n">
-        <v>0.214316</v>
+        <v>0.214132</v>
       </c>
       <c r="D46" t="n">
-        <v>0.247302</v>
+        <v>0.24678</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.279654</v>
+        <v>0.280414</v>
       </c>
       <c r="C47" t="n">
-        <v>0.21423</v>
+        <v>0.213967</v>
       </c>
       <c r="D47" t="n">
-        <v>0.246665</v>
+        <v>0.246594</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.26851</v>
+        <v>0.268947</v>
       </c>
       <c r="C48" t="n">
-        <v>0.212673</v>
+        <v>0.212524</v>
       </c>
       <c r="D48" t="n">
-        <v>0.245072</v>
+        <v>0.245207</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.256383</v>
+        <v>0.256573</v>
       </c>
       <c r="C49" t="n">
-        <v>0.212642</v>
+        <v>0.212689</v>
       </c>
       <c r="D49" t="n">
-        <v>0.24456</v>
+        <v>0.244535</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.241935</v>
+        <v>0.242655</v>
       </c>
       <c r="C50" t="n">
-        <v>0.212542</v>
+        <v>0.212374</v>
       </c>
       <c r="D50" t="n">
-        <v>0.244312</v>
+        <v>0.24441</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.226602</v>
+        <v>0.227228</v>
       </c>
       <c r="C51" t="n">
-        <v>0.212177</v>
+        <v>0.211907</v>
       </c>
       <c r="D51" t="n">
-        <v>0.243641</v>
+        <v>0.243669</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.210026</v>
+        <v>0.21035</v>
       </c>
       <c r="C52" t="n">
-        <v>0.212117</v>
+        <v>0.211938</v>
       </c>
       <c r="D52" t="n">
-        <v>0.246968</v>
+        <v>0.247468</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.350366</v>
+        <v>0.35076</v>
       </c>
       <c r="C53" t="n">
-        <v>0.226787</v>
+        <v>0.227142</v>
       </c>
       <c r="D53" t="n">
-        <v>0.260433</v>
+        <v>0.26043</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.344323</v>
+        <v>0.344669</v>
       </c>
       <c r="C54" t="n">
-        <v>0.223897</v>
+        <v>0.224223</v>
       </c>
       <c r="D54" t="n">
-        <v>0.257255</v>
+        <v>0.257541</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.338335</v>
+        <v>0.338364</v>
       </c>
       <c r="C55" t="n">
-        <v>0.220784</v>
+        <v>0.22076</v>
       </c>
       <c r="D55" t="n">
-        <v>0.254444</v>
+        <v>0.254575</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.331008</v>
+        <v>0.331769</v>
       </c>
       <c r="C56" t="n">
-        <v>0.21958</v>
+        <v>0.219826</v>
       </c>
       <c r="D56" t="n">
-        <v>0.252633</v>
+        <v>0.252611</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.322982</v>
+        <v>0.323327</v>
       </c>
       <c r="C57" t="n">
-        <v>0.218201</v>
+        <v>0.218151</v>
       </c>
       <c r="D57" t="n">
-        <v>0.251047</v>
+        <v>0.251077</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.314226</v>
+        <v>0.314621</v>
       </c>
       <c r="C58" t="n">
-        <v>0.217339</v>
+        <v>0.217651</v>
       </c>
       <c r="D58" t="n">
-        <v>0.249685</v>
+        <v>0.249648</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.305272</v>
+        <v>0.305689</v>
       </c>
       <c r="C59" t="n">
-        <v>0.214744</v>
+        <v>0.214919</v>
       </c>
       <c r="D59" t="n">
-        <v>0.248276</v>
+        <v>0.248246</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.294804</v>
+        <v>0.29524</v>
       </c>
       <c r="C60" t="n">
-        <v>0.214005</v>
+        <v>0.214096</v>
       </c>
       <c r="D60" t="n">
-        <v>0.246875</v>
+        <v>0.246933</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.2837</v>
+        <v>0.284002</v>
       </c>
       <c r="C61" t="n">
-        <v>0.213598</v>
+        <v>0.213604</v>
       </c>
       <c r="D61" t="n">
-        <v>0.246259</v>
+        <v>0.246364</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.27223</v>
+        <v>0.272442</v>
       </c>
       <c r="C62" t="n">
-        <v>0.212981</v>
+        <v>0.212912</v>
       </c>
       <c r="D62" t="n">
-        <v>0.245198</v>
+        <v>0.245271</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.259353</v>
+        <v>0.259856</v>
       </c>
       <c r="C63" t="n">
-        <v>0.212498</v>
+        <v>0.212565</v>
       </c>
       <c r="D63" t="n">
-        <v>0.244436</v>
+        <v>0.244553</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.245839</v>
+        <v>0.246115</v>
       </c>
       <c r="C64" t="n">
-        <v>0.212196</v>
+        <v>0.212201</v>
       </c>
       <c r="D64" t="n">
-        <v>0.243753</v>
+        <v>0.243847</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.230242</v>
+        <v>0.230544</v>
       </c>
       <c r="C65" t="n">
-        <v>0.212251</v>
+        <v>0.212232</v>
       </c>
       <c r="D65" t="n">
-        <v>0.243225</v>
+        <v>0.243335</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.21383</v>
+        <v>0.213934</v>
       </c>
       <c r="C66" t="n">
-        <v>0.212289</v>
+        <v>0.212312</v>
       </c>
       <c r="D66" t="n">
-        <v>0.243998</v>
+        <v>0.244211</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.352696</v>
+        <v>0.352605</v>
       </c>
       <c r="C67" t="n">
-        <v>0.228282</v>
+        <v>0.228201</v>
       </c>
       <c r="D67" t="n">
-        <v>0.262141</v>
+        <v>0.261281</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.346982</v>
+        <v>0.347009</v>
       </c>
       <c r="C68" t="n">
-        <v>0.224349</v>
+        <v>0.224343</v>
       </c>
       <c r="D68" t="n">
-        <v>0.258038</v>
+        <v>0.256856</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.340886</v>
+        <v>0.340817</v>
       </c>
       <c r="C69" t="n">
-        <v>0.221404</v>
+        <v>0.221278</v>
       </c>
       <c r="D69" t="n">
-        <v>0.25506</v>
+        <v>0.25416</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.333817</v>
+        <v>0.333792</v>
       </c>
       <c r="C70" t="n">
-        <v>0.219441</v>
+        <v>0.219438</v>
       </c>
       <c r="D70" t="n">
-        <v>0.252601</v>
+        <v>0.252145</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.325576</v>
+        <v>0.325955</v>
       </c>
       <c r="C71" t="n">
-        <v>0.218323</v>
+        <v>0.218338</v>
       </c>
       <c r="D71" t="n">
-        <v>0.251185</v>
+        <v>0.250812</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.316994</v>
+        <v>0.317112</v>
       </c>
       <c r="C72" t="n">
-        <v>0.217269</v>
+        <v>0.217261</v>
       </c>
       <c r="D72" t="n">
-        <v>0.249912</v>
+        <v>0.24949</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.307868</v>
+        <v>0.307642</v>
       </c>
       <c r="C73" t="n">
-        <v>0.216546</v>
+        <v>0.216484</v>
       </c>
       <c r="D73" t="n">
-        <v>0.24864</v>
+        <v>0.248433</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.297831</v>
+        <v>0.298058</v>
       </c>
       <c r="C74" t="n">
-        <v>0.214471</v>
+        <v>0.214448</v>
       </c>
       <c r="D74" t="n">
-        <v>0.247797</v>
+        <v>0.248001</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.286935</v>
+        <v>0.286955</v>
       </c>
       <c r="C75" t="n">
-        <v>0.213852</v>
+        <v>0.21391</v>
       </c>
       <c r="D75" t="n">
-        <v>0.246778</v>
+        <v>0.246504</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.275839</v>
+        <v>0.275629</v>
       </c>
       <c r="C76" t="n">
-        <v>0.213424</v>
+        <v>0.213294</v>
       </c>
       <c r="D76" t="n">
-        <v>0.245829</v>
+        <v>0.245566</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.263036</v>
+        <v>0.263062</v>
       </c>
       <c r="C77" t="n">
-        <v>0.212738</v>
+        <v>0.212634</v>
       </c>
       <c r="D77" t="n">
-        <v>0.244944</v>
+        <v>0.244707</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.249234</v>
+        <v>0.249185</v>
       </c>
       <c r="C78" t="n">
-        <v>0.212204</v>
+        <v>0.212086</v>
       </c>
       <c r="D78" t="n">
-        <v>0.244037</v>
+        <v>0.243817</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.234509</v>
+        <v>0.234529</v>
       </c>
       <c r="C79" t="n">
-        <v>0.212154</v>
+        <v>0.212204</v>
       </c>
       <c r="D79" t="n">
-        <v>0.243426</v>
+        <v>0.243191</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.218668</v>
+        <v>0.218839</v>
       </c>
       <c r="C80" t="n">
-        <v>0.211944</v>
+        <v>0.211967</v>
       </c>
       <c r="D80" t="n">
-        <v>0.242943</v>
+        <v>0.242643</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.353705</v>
+        <v>0.353816</v>
       </c>
       <c r="C81" t="n">
-        <v>0.227788</v>
+        <v>0.227687</v>
       </c>
       <c r="D81" t="n">
-        <v>0.261364</v>
+        <v>0.26134</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.348326</v>
+        <v>0.348421</v>
       </c>
       <c r="C82" t="n">
-        <v>0.223774</v>
+        <v>0.224045</v>
       </c>
       <c r="D82" t="n">
-        <v>0.257577</v>
+        <v>0.257387</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.341845</v>
+        <v>0.341994</v>
       </c>
       <c r="C83" t="n">
-        <v>0.221236</v>
+        <v>0.221618</v>
       </c>
       <c r="D83" t="n">
-        <v>0.25469</v>
+        <v>0.254631</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.335043</v>
+        <v>0.335112</v>
       </c>
       <c r="C84" t="n">
-        <v>0.219417</v>
+        <v>0.219746</v>
       </c>
       <c r="D84" t="n">
-        <v>0.252712</v>
+        <v>0.252797</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.327401</v>
+        <v>0.327478</v>
       </c>
       <c r="C85" t="n">
-        <v>0.21867</v>
+        <v>0.218859</v>
       </c>
       <c r="D85" t="n">
-        <v>0.251298</v>
+        <v>0.251511</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.319055</v>
+        <v>0.31905</v>
       </c>
       <c r="C86" t="n">
-        <v>0.217484</v>
+        <v>0.217857</v>
       </c>
       <c r="D86" t="n">
-        <v>0.250104</v>
+        <v>0.250168</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.309936</v>
+        <v>0.309939</v>
       </c>
       <c r="C87" t="n">
-        <v>0.216834</v>
+        <v>0.216907</v>
       </c>
       <c r="D87" t="n">
-        <v>0.248655</v>
+        <v>0.248788</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.300144</v>
+        <v>0.300133</v>
       </c>
       <c r="C88" t="n">
-        <v>0.215879</v>
+        <v>0.215973</v>
       </c>
       <c r="D88" t="n">
-        <v>0.247625</v>
+        <v>0.247668</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.28968</v>
+        <v>0.289788</v>
       </c>
       <c r="C89" t="n">
-        <v>0.213662</v>
+        <v>0.214072</v>
       </c>
       <c r="D89" t="n">
-        <v>0.246693</v>
+        <v>0.246719</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.278327</v>
+        <v>0.278262</v>
       </c>
       <c r="C90" t="n">
-        <v>0.213175</v>
+        <v>0.213203</v>
       </c>
       <c r="D90" t="n">
-        <v>0.245725</v>
+        <v>0.245809</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.265592</v>
+        <v>0.265449</v>
       </c>
       <c r="C91" t="n">
-        <v>0.212762</v>
+        <v>0.212809</v>
       </c>
       <c r="D91" t="n">
-        <v>0.244802</v>
+        <v>0.24501</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.252136</v>
+        <v>0.252088</v>
       </c>
       <c r="C92" t="n">
-        <v>0.212224</v>
+        <v>0.212308</v>
       </c>
       <c r="D92" t="n">
-        <v>0.244166</v>
+        <v>0.244205</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.238106</v>
+        <v>0.238089</v>
       </c>
       <c r="C93" t="n">
-        <v>0.211791</v>
+        <v>0.211836</v>
       </c>
       <c r="D93" t="n">
-        <v>0.243402</v>
+        <v>0.243532</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.22216</v>
+        <v>0.222065</v>
       </c>
       <c r="C94" t="n">
-        <v>0.211645</v>
+        <v>0.211766</v>
       </c>
       <c r="D94" t="n">
-        <v>0.242877</v>
+        <v>0.24297</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.355063</v>
+        <v>0.355091</v>
       </c>
       <c r="C95" t="n">
-        <v>0.227816</v>
+        <v>0.227878</v>
       </c>
       <c r="D95" t="n">
-        <v>0.262</v>
+        <v>0.261917</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.349836</v>
+        <v>0.349909</v>
       </c>
       <c r="C96" t="n">
-        <v>0.224719</v>
+        <v>0.224865</v>
       </c>
       <c r="D96" t="n">
-        <v>0.258565</v>
+        <v>0.25856</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.344051</v>
+        <v>0.343879</v>
       </c>
       <c r="C97" t="n">
-        <v>0.222343</v>
+        <v>0.222443</v>
       </c>
       <c r="D97" t="n">
-        <v>0.255959</v>
+        <v>0.255854</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.336943</v>
+        <v>0.33705</v>
       </c>
       <c r="C98" t="n">
-        <v>0.220348</v>
+        <v>0.220349</v>
       </c>
       <c r="D98" t="n">
-        <v>0.253525</v>
+        <v>0.253527</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.3292</v>
+        <v>0.329252</v>
       </c>
       <c r="C99" t="n">
-        <v>0.219182</v>
+        <v>0.219169</v>
       </c>
       <c r="D99" t="n">
-        <v>0.251843</v>
+        <v>0.251912</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.320936</v>
+        <v>0.321322</v>
       </c>
       <c r="C100" t="n">
-        <v>0.217844</v>
+        <v>0.217831</v>
       </c>
       <c r="D100" t="n">
-        <v>0.25043</v>
+        <v>0.250634</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.312017</v>
+        <v>0.312073</v>
       </c>
       <c r="C101" t="n">
-        <v>0.216978</v>
+        <v>0.216985</v>
       </c>
       <c r="D101" t="n">
-        <v>0.249114</v>
+        <v>0.249308</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.302657</v>
+        <v>0.30238</v>
       </c>
       <c r="C102" t="n">
-        <v>0.216095</v>
+        <v>0.216145</v>
       </c>
       <c r="D102" t="n">
-        <v>0.248205</v>
+        <v>0.24843</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.291925</v>
+        <v>0.291854</v>
       </c>
       <c r="C103" t="n">
-        <v>0.214922</v>
+        <v>0.215253</v>
       </c>
       <c r="D103" t="n">
-        <v>0.247149</v>
+        <v>0.247215</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.280947</v>
+        <v>0.280709</v>
       </c>
       <c r="C104" t="n">
-        <v>0.214482</v>
+        <v>0.21462</v>
       </c>
       <c r="D104" t="n">
-        <v>0.246028</v>
+        <v>0.246087</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.268506</v>
+        <v>0.268587</v>
       </c>
       <c r="C105" t="n">
-        <v>0.214017</v>
+        <v>0.214113</v>
       </c>
       <c r="D105" t="n">
-        <v>0.245029</v>
+        <v>0.245307</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.255324</v>
+        <v>0.255162</v>
       </c>
       <c r="C106" t="n">
-        <v>0.212314</v>
+        <v>0.212418</v>
       </c>
       <c r="D106" t="n">
-        <v>0.244216</v>
+        <v>0.244406</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.241406</v>
+        <v>0.241351</v>
       </c>
       <c r="C107" t="n">
-        <v>0.21193</v>
+        <v>0.212004</v>
       </c>
       <c r="D107" t="n">
-        <v>0.243499</v>
+        <v>0.243829</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.225917</v>
+        <v>0.225808</v>
       </c>
       <c r="C108" t="n">
-        <v>0.211592</v>
+        <v>0.21173</v>
       </c>
       <c r="D108" t="n">
-        <v>0.243131</v>
+        <v>0.243339</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.209431</v>
+        <v>0.209173</v>
       </c>
       <c r="C109" t="n">
-        <v>0.211345</v>
+        <v>0.211377</v>
       </c>
       <c r="D109" t="n">
-        <v>0.242995</v>
+        <v>0.242988</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.350841</v>
+        <v>0.35088</v>
       </c>
       <c r="C110" t="n">
-        <v>0.224781</v>
+        <v>0.22472</v>
       </c>
       <c r="D110" t="n">
-        <v>0.259304</v>
+        <v>0.259532</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.344833</v>
+        <v>0.344805</v>
       </c>
       <c r="C111" t="n">
-        <v>0.222186</v>
+        <v>0.222114</v>
       </c>
       <c r="D111" t="n">
-        <v>0.256523</v>
+        <v>0.256635</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.338058</v>
+        <v>0.338211</v>
       </c>
       <c r="C112" t="n">
-        <v>0.220423</v>
+        <v>0.220461</v>
       </c>
       <c r="D112" t="n">
-        <v>0.25429</v>
+        <v>0.254514</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.330651</v>
+        <v>0.330814</v>
       </c>
       <c r="C113" t="n">
-        <v>0.218916</v>
+        <v>0.218966</v>
       </c>
       <c r="D113" t="n">
-        <v>0.252464</v>
+        <v>0.252517</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.322538</v>
+        <v>0.322681</v>
       </c>
       <c r="C114" t="n">
-        <v>0.217711</v>
+        <v>0.21779</v>
       </c>
       <c r="D114" t="n">
-        <v>0.251466</v>
+        <v>0.251644</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.313685</v>
+        <v>0.313741</v>
       </c>
       <c r="C115" t="n">
-        <v>0.216752</v>
+        <v>0.216771</v>
       </c>
       <c r="D115" t="n">
-        <v>0.250248</v>
+        <v>0.250257</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.304184</v>
+        <v>0.304188</v>
       </c>
       <c r="C116" t="n">
-        <v>0.2147</v>
+        <v>0.215907</v>
       </c>
       <c r="D116" t="n">
-        <v>0.249227</v>
+        <v>0.249383</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.294056</v>
+        <v>0.293944</v>
       </c>
       <c r="C117" t="n">
-        <v>0.21537</v>
+        <v>0.215325</v>
       </c>
       <c r="D117" t="n">
-        <v>0.24803</v>
+        <v>0.248327</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.282867</v>
+        <v>0.282808</v>
       </c>
       <c r="C118" t="n">
-        <v>0.214952</v>
+        <v>0.214721</v>
       </c>
       <c r="D118" t="n">
-        <v>0.246934</v>
+        <v>0.247597</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.27115</v>
+        <v>0.271091</v>
       </c>
       <c r="C119" t="n">
-        <v>0.213695</v>
+        <v>0.214322</v>
       </c>
       <c r="D119" t="n">
-        <v>0.246108</v>
+        <v>0.246056</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.25831</v>
+        <v>0.258288</v>
       </c>
       <c r="C120" t="n">
-        <v>0.2138</v>
+        <v>0.213797</v>
       </c>
       <c r="D120" t="n">
-        <v>0.245115</v>
+        <v>0.245548</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.244306</v>
+        <v>0.24456</v>
       </c>
       <c r="C121" t="n">
-        <v>0.212623</v>
+        <v>0.212779</v>
       </c>
       <c r="D121" t="n">
-        <v>0.244525</v>
+        <v>0.244696</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.229522</v>
+        <v>0.229482</v>
       </c>
       <c r="C122" t="n">
-        <v>0.211976</v>
+        <v>0.212037</v>
       </c>
       <c r="D122" t="n">
-        <v>0.243614</v>
+        <v>0.243803</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.212714</v>
+        <v>0.21269</v>
       </c>
       <c r="C123" t="n">
-        <v>0.211662</v>
+        <v>0.211813</v>
       </c>
       <c r="D123" t="n">
-        <v>0.243405</v>
+        <v>0.243557</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.351663</v>
+        <v>0.351764</v>
       </c>
       <c r="C124" t="n">
-        <v>0.225469</v>
+        <v>0.22551</v>
       </c>
       <c r="D124" t="n">
-        <v>0.260667</v>
+        <v>0.261163</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.345883</v>
+        <v>0.34597</v>
       </c>
       <c r="C125" t="n">
-        <v>0.222587</v>
+        <v>0.222569</v>
       </c>
       <c r="D125" t="n">
-        <v>0.257257</v>
+        <v>0.2575</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.339279</v>
+        <v>0.339366</v>
       </c>
       <c r="C126" t="n">
-        <v>0.22074</v>
+        <v>0.220737</v>
       </c>
       <c r="D126" t="n">
-        <v>0.255214</v>
+        <v>0.255212</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.33202</v>
+        <v>0.332106</v>
       </c>
       <c r="C127" t="n">
         <v>0.21924</v>
       </c>
       <c r="D127" t="n">
-        <v>0.252811</v>
+        <v>0.253471</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.324082</v>
+        <v>0.324163</v>
       </c>
       <c r="C128" t="n">
-        <v>0.217919</v>
+        <v>0.217943</v>
       </c>
       <c r="D128" t="n">
-        <v>0.25185</v>
+        <v>0.25158</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.315342</v>
+        <v>0.315298</v>
       </c>
       <c r="C129" t="n">
-        <v>0.216972</v>
+        <v>0.216907</v>
       </c>
       <c r="D129" t="n">
-        <v>0.250477</v>
+        <v>0.250775</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.305816</v>
+        <v>0.305954</v>
       </c>
       <c r="C130" t="n">
-        <v>0.21608</v>
+        <v>0.216078</v>
       </c>
       <c r="D130" t="n">
-        <v>0.249321</v>
+        <v>0.24939</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.295748</v>
+        <v>0.295691</v>
       </c>
       <c r="C131" t="n">
-        <v>0.215356</v>
+        <v>0.215187</v>
       </c>
       <c r="D131" t="n">
-        <v>0.248442</v>
+        <v>0.248294</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.284851</v>
+        <v>0.284794</v>
       </c>
       <c r="C132" t="n">
-        <v>0.214619</v>
+        <v>0.213256</v>
       </c>
       <c r="D132" t="n">
-        <v>0.247013</v>
+        <v>0.24808</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.273054</v>
+        <v>0.272973</v>
       </c>
       <c r="C133" t="n">
-        <v>0.212695</v>
+        <v>0.212707</v>
       </c>
       <c r="D133" t="n">
-        <v>0.246399</v>
+        <v>0.24678</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.260323</v>
+        <v>0.260439</v>
       </c>
       <c r="C134" t="n">
-        <v>0.212157</v>
+        <v>0.212168</v>
       </c>
       <c r="D134" t="n">
-        <v>0.245636</v>
+        <v>0.245652</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.246684</v>
+        <v>0.246632</v>
       </c>
       <c r="C135" t="n">
-        <v>0.211808</v>
+        <v>0.211849</v>
       </c>
       <c r="D135" t="n">
-        <v>0.244844</v>
+        <v>0.245291</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.231905</v>
+        <v>0.231955</v>
       </c>
       <c r="C136" t="n">
-        <v>0.211922</v>
+        <v>0.213022</v>
       </c>
       <c r="D136" t="n">
-        <v>0.244353</v>
+        <v>0.244934</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.215905</v>
+        <v>0.215891</v>
       </c>
       <c r="C137" t="n">
-        <v>0.211786</v>
+        <v>0.211797</v>
       </c>
       <c r="D137" t="n">
-        <v>0.24398</v>
+        <v>0.244003</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.352726</v>
+        <v>0.352826</v>
       </c>
       <c r="C138" t="n">
-        <v>0.226849</v>
+        <v>0.226867</v>
       </c>
       <c r="D138" t="n">
-        <v>0.262626</v>
+        <v>0.262644</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.347758</v>
+        <v>0.347406</v>
       </c>
       <c r="C139" t="n">
-        <v>0.223741</v>
+        <v>0.223781</v>
       </c>
       <c r="D139" t="n">
-        <v>0.259259</v>
+        <v>0.259208</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.340959</v>
+        <v>0.341001</v>
       </c>
       <c r="C140" t="n">
-        <v>0.221392</v>
+        <v>0.221517</v>
       </c>
       <c r="D140" t="n">
-        <v>0.256109</v>
+        <v>0.257274</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.333779</v>
+        <v>0.333932</v>
       </c>
       <c r="C141" t="n">
-        <v>0.219748</v>
+        <v>0.219665</v>
       </c>
       <c r="D141" t="n">
-        <v>0.255085</v>
+        <v>0.254425</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.326008</v>
+        <v>0.326019</v>
       </c>
       <c r="C142" t="n">
-        <v>0.218494</v>
+        <v>0.218533</v>
       </c>
       <c r="D142" t="n">
-        <v>0.252874</v>
+        <v>0.253054</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.31743</v>
+        <v>0.317283</v>
       </c>
       <c r="C143" t="n">
-        <v>0.217376</v>
+        <v>0.217417</v>
       </c>
       <c r="D143" t="n">
-        <v>0.251365</v>
+        <v>0.251584</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.282309</v>
+        <v>0.280703</v>
       </c>
       <c r="C2" t="n">
-        <v>0.193515</v>
+        <v>0.192581</v>
       </c>
       <c r="D2" t="n">
-        <v>0.226804</v>
+        <v>0.227306</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.269458</v>
+        <v>0.268989</v>
       </c>
       <c r="C3" t="n">
-        <v>0.194339</v>
+        <v>0.195553</v>
       </c>
       <c r="D3" t="n">
-        <v>0.230653</v>
+        <v>0.226088</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2584</v>
+        <v>0.259939</v>
       </c>
       <c r="C4" t="n">
-        <v>0.194472</v>
+        <v>0.19593</v>
       </c>
       <c r="D4" t="n">
-        <v>0.227819</v>
+        <v>0.227404</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.247726</v>
+        <v>0.247626</v>
       </c>
       <c r="C5" t="n">
-        <v>0.194728</v>
+        <v>0.195688</v>
       </c>
       <c r="D5" t="n">
-        <v>0.227853</v>
+        <v>0.228039</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.237567</v>
+        <v>0.236544</v>
       </c>
       <c r="C6" t="n">
-        <v>0.196588</v>
+        <v>0.196144</v>
       </c>
       <c r="D6" t="n">
-        <v>0.229034</v>
+        <v>0.229278</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.226418</v>
+        <v>0.225294</v>
       </c>
       <c r="C7" t="n">
-        <v>0.196663</v>
+        <v>0.195372</v>
       </c>
       <c r="D7" t="n">
-        <v>0.229198</v>
+        <v>0.228181</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.210764</v>
+        <v>0.211476</v>
       </c>
       <c r="C8" t="n">
-        <v>0.198749</v>
+        <v>0.197413</v>
       </c>
       <c r="D8" t="n">
-        <v>0.229273</v>
+        <v>0.22965</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.196953</v>
+        <v>0.194892</v>
       </c>
       <c r="C9" t="n">
-        <v>0.199454</v>
+        <v>0.199318</v>
       </c>
       <c r="D9" t="n">
-        <v>0.229826</v>
+        <v>0.231148</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.335915</v>
+        <v>0.336519</v>
       </c>
       <c r="C10" t="n">
-        <v>0.216728</v>
+        <v>0.215241</v>
       </c>
       <c r="D10" t="n">
-        <v>0.251446</v>
+        <v>0.252204</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.330391</v>
+        <v>0.330537</v>
       </c>
       <c r="C11" t="n">
-        <v>0.216297</v>
+        <v>0.21514</v>
       </c>
       <c r="D11" t="n">
-        <v>0.250623</v>
+        <v>0.250875</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.324923</v>
+        <v>0.32584</v>
       </c>
       <c r="C12" t="n">
-        <v>0.215282</v>
+        <v>0.214201</v>
       </c>
       <c r="D12" t="n">
-        <v>0.24864</v>
+        <v>0.249576</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.31854</v>
+        <v>0.319029</v>
       </c>
       <c r="C13" t="n">
-        <v>0.213785</v>
+        <v>0.213442</v>
       </c>
       <c r="D13" t="n">
-        <v>0.248661</v>
+        <v>0.249107</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.310223</v>
+        <v>0.310725</v>
       </c>
       <c r="C14" t="n">
-        <v>0.212607</v>
+        <v>0.212171</v>
       </c>
       <c r="D14" t="n">
-        <v>0.248074</v>
+        <v>0.247431</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.302994</v>
+        <v>0.303269</v>
       </c>
       <c r="C15" t="n">
-        <v>0.212335</v>
+        <v>0.212162</v>
       </c>
       <c r="D15" t="n">
-        <v>0.247151</v>
+        <v>0.24721</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.294645</v>
+        <v>0.294468</v>
       </c>
       <c r="C16" t="n">
-        <v>0.212166</v>
+        <v>0.211149</v>
       </c>
       <c r="D16" t="n">
-        <v>0.245987</v>
+        <v>0.246685</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.286172</v>
+        <v>0.285793</v>
       </c>
       <c r="C17" t="n">
-        <v>0.211913</v>
+        <v>0.211493</v>
       </c>
       <c r="D17" t="n">
-        <v>0.245469</v>
+        <v>0.245684</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.276122</v>
+        <v>0.27573</v>
       </c>
       <c r="C18" t="n">
-        <v>0.211843</v>
+        <v>0.211814</v>
       </c>
       <c r="D18" t="n">
-        <v>0.243979</v>
+        <v>0.244291</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.265278</v>
+        <v>0.265102</v>
       </c>
       <c r="C19" t="n">
-        <v>0.210621</v>
+        <v>0.210554</v>
       </c>
       <c r="D19" t="n">
-        <v>0.243409</v>
+        <v>0.243708</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.254469</v>
+        <v>0.254034</v>
       </c>
       <c r="C20" t="n">
-        <v>0.210599</v>
+        <v>0.210308</v>
       </c>
       <c r="D20" t="n">
-        <v>0.242918</v>
+        <v>0.243184</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.24164</v>
+        <v>0.240989</v>
       </c>
       <c r="C21" t="n">
-        <v>0.210377</v>
+        <v>0.211146</v>
       </c>
       <c r="D21" t="n">
-        <v>0.242078</v>
+        <v>0.242499</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.227028</v>
+        <v>0.227048</v>
       </c>
       <c r="C22" t="n">
-        <v>0.210107</v>
+        <v>0.210672</v>
       </c>
       <c r="D22" t="n">
-        <v>0.241635</v>
+        <v>0.242304</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.211566</v>
+        <v>0.210729</v>
       </c>
       <c r="C23" t="n">
-        <v>0.209874</v>
+        <v>0.210623</v>
       </c>
       <c r="D23" t="n">
-        <v>0.241476</v>
+        <v>0.241794</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.347385</v>
+        <v>0.347791</v>
       </c>
       <c r="C24" t="n">
-        <v>0.226548</v>
+        <v>0.223633</v>
       </c>
       <c r="D24" t="n">
-        <v>0.261107</v>
+        <v>0.259737</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.341544</v>
+        <v>0.341721</v>
       </c>
       <c r="C25" t="n">
-        <v>0.224399</v>
+        <v>0.222249</v>
       </c>
       <c r="D25" t="n">
-        <v>0.258475</v>
+        <v>0.258109</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.335488</v>
+        <v>0.335371</v>
       </c>
       <c r="C26" t="n">
-        <v>0.220796</v>
+        <v>0.219897</v>
       </c>
       <c r="D26" t="n">
-        <v>0.255465</v>
+        <v>0.256332</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.329264</v>
+        <v>0.328412</v>
       </c>
       <c r="C27" t="n">
-        <v>0.21925</v>
+        <v>0.218976</v>
       </c>
       <c r="D27" t="n">
-        <v>0.254709</v>
+        <v>0.254835</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.322279</v>
+        <v>0.322083</v>
       </c>
       <c r="C28" t="n">
-        <v>0.217296</v>
+        <v>0.216677</v>
       </c>
       <c r="D28" t="n">
-        <v>0.251575</v>
+        <v>0.251716</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.313645</v>
+        <v>0.313242</v>
       </c>
       <c r="C29" t="n">
-        <v>0.215874</v>
+        <v>0.215445</v>
       </c>
       <c r="D29" t="n">
-        <v>0.250568</v>
+        <v>0.250212</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.304735</v>
+        <v>0.304623</v>
       </c>
       <c r="C30" t="n">
-        <v>0.214964</v>
+        <v>0.214395</v>
       </c>
       <c r="D30" t="n">
-        <v>0.24917</v>
+        <v>0.248623</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.294871</v>
+        <v>0.294078</v>
       </c>
       <c r="C31" t="n">
-        <v>0.214331</v>
+        <v>0.213609</v>
       </c>
       <c r="D31" t="n">
-        <v>0.24777</v>
+        <v>0.247445</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.284454</v>
+        <v>0.283716</v>
       </c>
       <c r="C32" t="n">
-        <v>0.214198</v>
+        <v>0.213606</v>
       </c>
       <c r="D32" t="n">
-        <v>0.247054</v>
+        <v>0.246808</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.273944</v>
+        <v>0.273067</v>
       </c>
       <c r="C33" t="n">
-        <v>0.213201</v>
+        <v>0.212462</v>
       </c>
       <c r="D33" t="n">
-        <v>0.245493</v>
+        <v>0.245321</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.26251</v>
+        <v>0.262113</v>
       </c>
       <c r="C34" t="n">
-        <v>0.212556</v>
+        <v>0.211956</v>
       </c>
       <c r="D34" t="n">
-        <v>0.244361</v>
+        <v>0.244267</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.249157</v>
+        <v>0.248396</v>
       </c>
       <c r="C35" t="n">
-        <v>0.212395</v>
+        <v>0.211894</v>
       </c>
       <c r="D35" t="n">
-        <v>0.243728</v>
+        <v>0.24356</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.235521</v>
+        <v>0.235226</v>
       </c>
       <c r="C36" t="n">
-        <v>0.212281</v>
+        <v>0.211875</v>
       </c>
       <c r="D36" t="n">
-        <v>0.243761</v>
+        <v>0.243439</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.22057</v>
+        <v>0.219757</v>
       </c>
       <c r="C37" t="n">
-        <v>0.212696</v>
+        <v>0.21245</v>
       </c>
       <c r="D37" t="n">
-        <v>0.243803</v>
+        <v>0.243729</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.352215</v>
+        <v>0.351576</v>
       </c>
       <c r="C38" t="n">
-        <v>0.229628</v>
+        <v>0.228265</v>
       </c>
       <c r="D38" t="n">
-        <v>0.264137</v>
+        <v>0.263672</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.347103</v>
+        <v>0.347026</v>
       </c>
       <c r="C39" t="n">
-        <v>0.227142</v>
+        <v>0.226103</v>
       </c>
       <c r="D39" t="n">
-        <v>0.261263</v>
+        <v>0.261279</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.341251</v>
+        <v>0.34129</v>
       </c>
       <c r="C40" t="n">
-        <v>0.223678</v>
+        <v>0.223172</v>
       </c>
       <c r="D40" t="n">
-        <v>0.262056</v>
+        <v>0.260447</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.334522</v>
+        <v>0.334283</v>
       </c>
       <c r="C41" t="n">
-        <v>0.220909</v>
+        <v>0.219823</v>
       </c>
       <c r="D41" t="n">
-        <v>0.254443</v>
+        <v>0.254185</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.327548</v>
+        <v>0.327026</v>
       </c>
       <c r="C42" t="n">
-        <v>0.219549</v>
+        <v>0.218173</v>
       </c>
       <c r="D42" t="n">
-        <v>0.253006</v>
+        <v>0.253537</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.319587</v>
+        <v>0.319596</v>
       </c>
       <c r="C43" t="n">
-        <v>0.218177</v>
+        <v>0.217115</v>
       </c>
       <c r="D43" t="n">
-        <v>0.251362</v>
+        <v>0.25132</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.310792</v>
+        <v>0.310419</v>
       </c>
       <c r="C44" t="n">
-        <v>0.217074</v>
+        <v>0.215655</v>
       </c>
       <c r="D44" t="n">
-        <v>0.249671</v>
+        <v>0.249492</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.302059</v>
+        <v>0.302052</v>
       </c>
       <c r="C45" t="n">
-        <v>0.216304</v>
+        <v>0.214975</v>
       </c>
       <c r="D45" t="n">
-        <v>0.248193</v>
+        <v>0.248314</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.291555</v>
+        <v>0.291474</v>
       </c>
       <c r="C46" t="n">
-        <v>0.214132</v>
+        <v>0.214441</v>
       </c>
       <c r="D46" t="n">
-        <v>0.24678</v>
+        <v>0.247199</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.280414</v>
+        <v>0.280066</v>
       </c>
       <c r="C47" t="n">
-        <v>0.213967</v>
+        <v>0.213702</v>
       </c>
       <c r="D47" t="n">
-        <v>0.246594</v>
+        <v>0.24663</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.268947</v>
+        <v>0.268634</v>
       </c>
       <c r="C48" t="n">
-        <v>0.212524</v>
+        <v>0.212699</v>
       </c>
       <c r="D48" t="n">
-        <v>0.245207</v>
+        <v>0.245107</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.256573</v>
+        <v>0.256215</v>
       </c>
       <c r="C49" t="n">
-        <v>0.212689</v>
+        <v>0.212324</v>
       </c>
       <c r="D49" t="n">
-        <v>0.244535</v>
+        <v>0.244499</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.242655</v>
+        <v>0.242264</v>
       </c>
       <c r="C50" t="n">
-        <v>0.212374</v>
+        <v>0.212306</v>
       </c>
       <c r="D50" t="n">
-        <v>0.24441</v>
+        <v>0.244309</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.227228</v>
+        <v>0.226775</v>
       </c>
       <c r="C51" t="n">
-        <v>0.211907</v>
+        <v>0.212115</v>
       </c>
       <c r="D51" t="n">
-        <v>0.243669</v>
+        <v>0.243432</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.21035</v>
+        <v>0.209996</v>
       </c>
       <c r="C52" t="n">
-        <v>0.211938</v>
+        <v>0.212616</v>
       </c>
       <c r="D52" t="n">
-        <v>0.247468</v>
+        <v>0.247691</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.35076</v>
+        <v>0.350301</v>
       </c>
       <c r="C53" t="n">
-        <v>0.227142</v>
+        <v>0.224332</v>
       </c>
       <c r="D53" t="n">
-        <v>0.26043</v>
+        <v>0.260011</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.344669</v>
+        <v>0.344321</v>
       </c>
       <c r="C54" t="n">
-        <v>0.224223</v>
+        <v>0.222009</v>
       </c>
       <c r="D54" t="n">
-        <v>0.257541</v>
+        <v>0.257017</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.338364</v>
+        <v>0.33801</v>
       </c>
       <c r="C55" t="n">
-        <v>0.22076</v>
+        <v>0.219307</v>
       </c>
       <c r="D55" t="n">
-        <v>0.254575</v>
+        <v>0.254564</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.331769</v>
+        <v>0.33095</v>
       </c>
       <c r="C56" t="n">
-        <v>0.219826</v>
+        <v>0.217882</v>
       </c>
       <c r="D56" t="n">
-        <v>0.252611</v>
+        <v>0.252496</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.323327</v>
+        <v>0.322683</v>
       </c>
       <c r="C57" t="n">
-        <v>0.218151</v>
+        <v>0.216729</v>
       </c>
       <c r="D57" t="n">
-        <v>0.251077</v>
+        <v>0.250987</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.314621</v>
+        <v>0.314303</v>
       </c>
       <c r="C58" t="n">
-        <v>0.217651</v>
+        <v>0.215751</v>
       </c>
       <c r="D58" t="n">
-        <v>0.249648</v>
+        <v>0.24979</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.305689</v>
+        <v>0.305432</v>
       </c>
       <c r="C59" t="n">
-        <v>0.214919</v>
+        <v>0.214394</v>
       </c>
       <c r="D59" t="n">
-        <v>0.248246</v>
+        <v>0.248139</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.29524</v>
+        <v>0.295259</v>
       </c>
       <c r="C60" t="n">
-        <v>0.214096</v>
+        <v>0.213659</v>
       </c>
       <c r="D60" t="n">
-        <v>0.246933</v>
+        <v>0.247033</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.284002</v>
+        <v>0.284053</v>
       </c>
       <c r="C61" t="n">
-        <v>0.213604</v>
+        <v>0.213685</v>
       </c>
       <c r="D61" t="n">
-        <v>0.246364</v>
+        <v>0.246213</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272442</v>
+        <v>0.27244</v>
       </c>
       <c r="C62" t="n">
-        <v>0.212912</v>
+        <v>0.212865</v>
       </c>
       <c r="D62" t="n">
-        <v>0.245271</v>
+        <v>0.245115</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.259856</v>
+        <v>0.259703</v>
       </c>
       <c r="C63" t="n">
-        <v>0.212565</v>
+        <v>0.212417</v>
       </c>
       <c r="D63" t="n">
-        <v>0.244553</v>
+        <v>0.244241</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.246115</v>
+        <v>0.24583</v>
       </c>
       <c r="C64" t="n">
-        <v>0.212201</v>
+        <v>0.212212</v>
       </c>
       <c r="D64" t="n">
-        <v>0.243847</v>
+        <v>0.243684</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.230544</v>
+        <v>0.23063</v>
       </c>
       <c r="C65" t="n">
-        <v>0.212232</v>
+        <v>0.211878</v>
       </c>
       <c r="D65" t="n">
-        <v>0.243335</v>
+        <v>0.243106</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.213934</v>
+        <v>0.214064</v>
       </c>
       <c r="C66" t="n">
-        <v>0.212312</v>
+        <v>0.211947</v>
       </c>
       <c r="D66" t="n">
-        <v>0.244211</v>
+        <v>0.244109</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.352605</v>
+        <v>0.352085</v>
       </c>
       <c r="C67" t="n">
-        <v>0.228201</v>
+        <v>0.225921</v>
       </c>
       <c r="D67" t="n">
-        <v>0.261281</v>
+        <v>0.261801</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.347009</v>
+        <v>0.346861</v>
       </c>
       <c r="C68" t="n">
-        <v>0.224343</v>
+        <v>0.222439</v>
       </c>
       <c r="D68" t="n">
-        <v>0.256856</v>
+        <v>0.257797</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.340817</v>
+        <v>0.340855</v>
       </c>
       <c r="C69" t="n">
-        <v>0.221278</v>
+        <v>0.219908</v>
       </c>
       <c r="D69" t="n">
-        <v>0.25416</v>
+        <v>0.254505</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.333792</v>
+        <v>0.333695</v>
       </c>
       <c r="C70" t="n">
-        <v>0.219438</v>
+        <v>0.217765</v>
       </c>
       <c r="D70" t="n">
-        <v>0.252145</v>
+        <v>0.252439</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.325955</v>
+        <v>0.325507</v>
       </c>
       <c r="C71" t="n">
-        <v>0.218338</v>
+        <v>0.216604</v>
       </c>
       <c r="D71" t="n">
-        <v>0.250812</v>
+        <v>0.250836</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.317112</v>
+        <v>0.316774</v>
       </c>
       <c r="C72" t="n">
-        <v>0.217261</v>
+        <v>0.215582</v>
       </c>
       <c r="D72" t="n">
-        <v>0.24949</v>
+        <v>0.249505</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.307642</v>
+        <v>0.307566</v>
       </c>
       <c r="C73" t="n">
-        <v>0.216484</v>
+        <v>0.21468</v>
       </c>
       <c r="D73" t="n">
-        <v>0.248433</v>
+        <v>0.248403</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.298058</v>
+        <v>0.297635</v>
       </c>
       <c r="C74" t="n">
-        <v>0.214448</v>
+        <v>0.214101</v>
       </c>
       <c r="D74" t="n">
-        <v>0.248001</v>
+        <v>0.247486</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.286955</v>
+        <v>0.286809</v>
       </c>
       <c r="C75" t="n">
-        <v>0.21391</v>
+        <v>0.213347</v>
       </c>
       <c r="D75" t="n">
-        <v>0.246504</v>
+        <v>0.246508</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.275629</v>
+        <v>0.275713</v>
       </c>
       <c r="C76" t="n">
-        <v>0.213294</v>
+        <v>0.212879</v>
       </c>
       <c r="D76" t="n">
-        <v>0.245566</v>
+        <v>0.245516</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.263062</v>
+        <v>0.263193</v>
       </c>
       <c r="C77" t="n">
-        <v>0.212634</v>
+        <v>0.212267</v>
       </c>
       <c r="D77" t="n">
-        <v>0.244707</v>
+        <v>0.244599</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.249185</v>
+        <v>0.249433</v>
       </c>
       <c r="C78" t="n">
-        <v>0.212086</v>
+        <v>0.211838</v>
       </c>
       <c r="D78" t="n">
-        <v>0.243817</v>
+        <v>0.243748</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.234529</v>
+        <v>0.234636</v>
       </c>
       <c r="C79" t="n">
-        <v>0.212204</v>
+        <v>0.212082</v>
       </c>
       <c r="D79" t="n">
-        <v>0.243191</v>
+        <v>0.243189</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.218839</v>
+        <v>0.218695</v>
       </c>
       <c r="C80" t="n">
-        <v>0.211967</v>
+        <v>0.211893</v>
       </c>
       <c r="D80" t="n">
-        <v>0.242643</v>
+        <v>0.243339</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.353816</v>
+        <v>0.353484</v>
       </c>
       <c r="C81" t="n">
-        <v>0.227687</v>
+        <v>0.225916</v>
       </c>
       <c r="D81" t="n">
-        <v>0.26134</v>
+        <v>0.261206</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.348421</v>
+        <v>0.348259</v>
       </c>
       <c r="C82" t="n">
-        <v>0.224045</v>
+        <v>0.221942</v>
       </c>
       <c r="D82" t="n">
-        <v>0.257387</v>
+        <v>0.257208</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.341994</v>
+        <v>0.341895</v>
       </c>
       <c r="C83" t="n">
-        <v>0.221618</v>
+        <v>0.219533</v>
       </c>
       <c r="D83" t="n">
-        <v>0.254631</v>
+        <v>0.254345</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.335112</v>
+        <v>0.334944</v>
       </c>
       <c r="C84" t="n">
-        <v>0.219746</v>
+        <v>0.217801</v>
       </c>
       <c r="D84" t="n">
-        <v>0.252797</v>
+        <v>0.252655</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.327478</v>
+        <v>0.327364</v>
       </c>
       <c r="C85" t="n">
-        <v>0.218859</v>
+        <v>0.216798</v>
       </c>
       <c r="D85" t="n">
-        <v>0.251511</v>
+        <v>0.25139</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.31905</v>
+        <v>0.319089</v>
       </c>
       <c r="C86" t="n">
-        <v>0.217857</v>
+        <v>0.215833</v>
       </c>
       <c r="D86" t="n">
-        <v>0.250168</v>
+        <v>0.250155</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.309939</v>
+        <v>0.309786</v>
       </c>
       <c r="C87" t="n">
-        <v>0.216907</v>
+        <v>0.214825</v>
       </c>
       <c r="D87" t="n">
-        <v>0.248788</v>
+        <v>0.248578</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.300133</v>
+        <v>0.300248</v>
       </c>
       <c r="C88" t="n">
-        <v>0.215973</v>
+        <v>0.214031</v>
       </c>
       <c r="D88" t="n">
-        <v>0.247668</v>
+        <v>0.247468</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.289788</v>
+        <v>0.28973</v>
       </c>
       <c r="C89" t="n">
-        <v>0.214072</v>
+        <v>0.213389</v>
       </c>
       <c r="D89" t="n">
-        <v>0.246719</v>
+        <v>0.246434</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.278262</v>
+        <v>0.277995</v>
       </c>
       <c r="C90" t="n">
-        <v>0.213203</v>
+        <v>0.212824</v>
       </c>
       <c r="D90" t="n">
-        <v>0.245809</v>
+        <v>0.245633</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.265449</v>
+        <v>0.265624</v>
       </c>
       <c r="C91" t="n">
-        <v>0.212809</v>
+        <v>0.212724</v>
       </c>
       <c r="D91" t="n">
-        <v>0.24501</v>
+        <v>0.244688</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.252088</v>
+        <v>0.252267</v>
       </c>
       <c r="C92" t="n">
-        <v>0.212308</v>
+        <v>0.212265</v>
       </c>
       <c r="D92" t="n">
-        <v>0.244205</v>
+        <v>0.243946</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.238089</v>
+        <v>0.238205</v>
       </c>
       <c r="C93" t="n">
-        <v>0.211836</v>
+        <v>0.211806</v>
       </c>
       <c r="D93" t="n">
-        <v>0.243532</v>
+        <v>0.243204</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.222065</v>
+        <v>0.222156</v>
       </c>
       <c r="C94" t="n">
-        <v>0.211766</v>
+        <v>0.211755</v>
       </c>
       <c r="D94" t="n">
-        <v>0.24297</v>
+        <v>0.242623</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.355091</v>
+        <v>0.354896</v>
       </c>
       <c r="C95" t="n">
-        <v>0.227878</v>
+        <v>0.226056</v>
       </c>
       <c r="D95" t="n">
-        <v>0.261917</v>
+        <v>0.261818</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.349909</v>
+        <v>0.349804</v>
       </c>
       <c r="C96" t="n">
-        <v>0.224865</v>
+        <v>0.22292</v>
       </c>
       <c r="D96" t="n">
-        <v>0.25856</v>
+        <v>0.258477</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.343879</v>
+        <v>0.343826</v>
       </c>
       <c r="C97" t="n">
-        <v>0.222443</v>
+        <v>0.220536</v>
       </c>
       <c r="D97" t="n">
-        <v>0.255854</v>
+        <v>0.255884</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.33705</v>
+        <v>0.337036</v>
       </c>
       <c r="C98" t="n">
-        <v>0.220349</v>
+        <v>0.218511</v>
       </c>
       <c r="D98" t="n">
-        <v>0.253527</v>
+        <v>0.253698</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.329252</v>
+        <v>0.329195</v>
       </c>
       <c r="C99" t="n">
-        <v>0.219169</v>
+        <v>0.217205</v>
       </c>
       <c r="D99" t="n">
-        <v>0.251912</v>
+        <v>0.251994</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.321322</v>
+        <v>0.321086</v>
       </c>
       <c r="C100" t="n">
-        <v>0.217831</v>
+        <v>0.216034</v>
       </c>
       <c r="D100" t="n">
-        <v>0.250634</v>
+        <v>0.250501</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.312073</v>
+        <v>0.3121</v>
       </c>
       <c r="C101" t="n">
-        <v>0.216985</v>
+        <v>0.215126</v>
       </c>
       <c r="D101" t="n">
-        <v>0.249308</v>
+        <v>0.249217</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.30238</v>
+        <v>0.302432</v>
       </c>
       <c r="C102" t="n">
-        <v>0.216145</v>
+        <v>0.214359</v>
       </c>
       <c r="D102" t="n">
-        <v>0.24843</v>
+        <v>0.247996</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.291854</v>
+        <v>0.291997</v>
       </c>
       <c r="C103" t="n">
-        <v>0.215253</v>
+        <v>0.213577</v>
       </c>
       <c r="D103" t="n">
-        <v>0.247215</v>
+        <v>0.246926</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.280709</v>
+        <v>0.280757</v>
       </c>
       <c r="C104" t="n">
-        <v>0.21462</v>
+        <v>0.212933</v>
       </c>
       <c r="D104" t="n">
-        <v>0.246087</v>
+        <v>0.245916</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.268587</v>
+        <v>0.268626</v>
       </c>
       <c r="C105" t="n">
-        <v>0.214113</v>
+        <v>0.212463</v>
       </c>
       <c r="D105" t="n">
-        <v>0.245307</v>
+        <v>0.245022</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.255162</v>
+        <v>0.255471</v>
       </c>
       <c r="C106" t="n">
-        <v>0.212418</v>
+        <v>0.211991</v>
       </c>
       <c r="D106" t="n">
-        <v>0.244406</v>
+        <v>0.244079</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.241351</v>
+        <v>0.241673</v>
       </c>
       <c r="C107" t="n">
-        <v>0.212004</v>
+        <v>0.211647</v>
       </c>
       <c r="D107" t="n">
-        <v>0.243829</v>
+        <v>0.24341</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.225808</v>
+        <v>0.226225</v>
       </c>
       <c r="C108" t="n">
-        <v>0.21173</v>
+        <v>0.211494</v>
       </c>
       <c r="D108" t="n">
-        <v>0.243339</v>
+        <v>0.243073</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.209173</v>
+        <v>0.209441</v>
       </c>
       <c r="C109" t="n">
-        <v>0.211377</v>
+        <v>0.211348</v>
       </c>
       <c r="D109" t="n">
-        <v>0.242988</v>
+        <v>0.242692</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.35088</v>
+        <v>0.351043</v>
       </c>
       <c r="C110" t="n">
-        <v>0.22472</v>
+        <v>0.223332</v>
       </c>
       <c r="D110" t="n">
-        <v>0.259532</v>
+        <v>0.258956</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.344805</v>
+        <v>0.345048</v>
       </c>
       <c r="C111" t="n">
-        <v>0.222114</v>
+        <v>0.22078</v>
       </c>
       <c r="D111" t="n">
-        <v>0.256635</v>
+        <v>0.256065</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.338211</v>
+        <v>0.338345</v>
       </c>
       <c r="C112" t="n">
-        <v>0.220461</v>
+        <v>0.218964</v>
       </c>
       <c r="D112" t="n">
-        <v>0.254514</v>
+        <v>0.253822</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.330814</v>
+        <v>0.330969</v>
       </c>
       <c r="C113" t="n">
-        <v>0.218966</v>
+        <v>0.217495</v>
       </c>
       <c r="D113" t="n">
-        <v>0.252517</v>
+        <v>0.252467</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.322681</v>
+        <v>0.322871</v>
       </c>
       <c r="C114" t="n">
-        <v>0.21779</v>
+        <v>0.216302</v>
       </c>
       <c r="D114" t="n">
-        <v>0.251644</v>
+        <v>0.251132</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.313741</v>
+        <v>0.313996</v>
       </c>
       <c r="C115" t="n">
-        <v>0.216771</v>
+        <v>0.215287</v>
       </c>
       <c r="D115" t="n">
-        <v>0.250257</v>
+        <v>0.249704</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.304188</v>
+        <v>0.304319</v>
       </c>
       <c r="C116" t="n">
-        <v>0.215907</v>
+        <v>0.2145</v>
       </c>
       <c r="D116" t="n">
-        <v>0.249383</v>
+        <v>0.248408</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.293944</v>
+        <v>0.293803</v>
       </c>
       <c r="C117" t="n">
-        <v>0.215325</v>
+        <v>0.214131</v>
       </c>
       <c r="D117" t="n">
-        <v>0.248327</v>
+        <v>0.247261</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.282808</v>
+        <v>0.282888</v>
       </c>
       <c r="C118" t="n">
-        <v>0.214721</v>
+        <v>0.213556</v>
       </c>
       <c r="D118" t="n">
-        <v>0.247597</v>
+        <v>0.246454</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.271091</v>
+        <v>0.27131</v>
       </c>
       <c r="C119" t="n">
-        <v>0.214322</v>
+        <v>0.212934</v>
       </c>
       <c r="D119" t="n">
-        <v>0.246056</v>
+        <v>0.245355</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.258288</v>
+        <v>0.258575</v>
       </c>
       <c r="C120" t="n">
-        <v>0.213797</v>
+        <v>0.212456</v>
       </c>
       <c r="D120" t="n">
-        <v>0.245548</v>
+        <v>0.24456</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.24456</v>
+        <v>0.244537</v>
       </c>
       <c r="C121" t="n">
-        <v>0.212779</v>
+        <v>0.212068</v>
       </c>
       <c r="D121" t="n">
-        <v>0.244696</v>
+        <v>0.24369</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.229482</v>
+        <v>0.229659</v>
       </c>
       <c r="C122" t="n">
-        <v>0.212037</v>
+        <v>0.211823</v>
       </c>
       <c r="D122" t="n">
-        <v>0.243803</v>
+        <v>0.243291</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.21269</v>
+        <v>0.212958</v>
       </c>
       <c r="C123" t="n">
-        <v>0.211813</v>
+        <v>0.211686</v>
       </c>
       <c r="D123" t="n">
-        <v>0.243557</v>
+        <v>0.242955</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.351764</v>
+        <v>0.351873</v>
       </c>
       <c r="C124" t="n">
-        <v>0.22551</v>
+        <v>0.2244</v>
       </c>
       <c r="D124" t="n">
-        <v>0.261163</v>
+        <v>0.260513</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.34597</v>
+        <v>0.346042</v>
       </c>
       <c r="C125" t="n">
-        <v>0.222569</v>
+        <v>0.221383</v>
       </c>
       <c r="D125" t="n">
-        <v>0.2575</v>
+        <v>0.256995</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.339366</v>
+        <v>0.339374</v>
       </c>
       <c r="C126" t="n">
-        <v>0.220737</v>
+        <v>0.219436</v>
       </c>
       <c r="D126" t="n">
-        <v>0.255212</v>
+        <v>0.254783</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.332106</v>
+        <v>0.332101</v>
       </c>
       <c r="C127" t="n">
-        <v>0.21924</v>
+        <v>0.217858</v>
       </c>
       <c r="D127" t="n">
-        <v>0.253471</v>
+        <v>0.252885</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.324163</v>
+        <v>0.324222</v>
       </c>
       <c r="C128" t="n">
-        <v>0.217943</v>
+        <v>0.216459</v>
       </c>
       <c r="D128" t="n">
-        <v>0.25158</v>
+        <v>0.250876</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.315298</v>
+        <v>0.315476</v>
       </c>
       <c r="C129" t="n">
-        <v>0.216907</v>
+        <v>0.215441</v>
       </c>
       <c r="D129" t="n">
-        <v>0.250775</v>
+        <v>0.249536</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.305954</v>
+        <v>0.306056</v>
       </c>
       <c r="C130" t="n">
-        <v>0.216078</v>
+        <v>0.21462</v>
       </c>
       <c r="D130" t="n">
-        <v>0.24939</v>
+        <v>0.248458</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.295691</v>
+        <v>0.295927</v>
       </c>
       <c r="C131" t="n">
-        <v>0.215187</v>
+        <v>0.213903</v>
       </c>
       <c r="D131" t="n">
-        <v>0.248294</v>
+        <v>0.247431</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.284794</v>
+        <v>0.285169</v>
       </c>
       <c r="C132" t="n">
-        <v>0.213256</v>
+        <v>0.213186</v>
       </c>
       <c r="D132" t="n">
-        <v>0.24808</v>
+        <v>0.246339</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.272973</v>
+        <v>0.273449</v>
       </c>
       <c r="C133" t="n">
-        <v>0.212707</v>
+        <v>0.212638</v>
       </c>
       <c r="D133" t="n">
-        <v>0.24678</v>
+        <v>0.245936</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.260439</v>
+        <v>0.260611</v>
       </c>
       <c r="C134" t="n">
-        <v>0.212168</v>
+        <v>0.212158</v>
       </c>
       <c r="D134" t="n">
-        <v>0.245652</v>
+        <v>0.244962</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.246632</v>
+        <v>0.247152</v>
       </c>
       <c r="C135" t="n">
-        <v>0.211849</v>
+        <v>0.211722</v>
       </c>
       <c r="D135" t="n">
-        <v>0.245291</v>
+        <v>0.244579</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.231955</v>
+        <v>0.232242</v>
       </c>
       <c r="C136" t="n">
-        <v>0.213022</v>
+        <v>0.21175</v>
       </c>
       <c r="D136" t="n">
-        <v>0.244934</v>
+        <v>0.244291</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.215891</v>
+        <v>0.216063</v>
       </c>
       <c r="C137" t="n">
-        <v>0.211797</v>
+        <v>0.211651</v>
       </c>
       <c r="D137" t="n">
-        <v>0.244003</v>
+        <v>0.243192</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.352826</v>
+        <v>0.352816</v>
       </c>
       <c r="C138" t="n">
-        <v>0.226867</v>
+        <v>0.225797</v>
       </c>
       <c r="D138" t="n">
-        <v>0.262644</v>
+        <v>0.262543</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.347406</v>
+        <v>0.347362</v>
       </c>
       <c r="C139" t="n">
-        <v>0.223781</v>
+        <v>0.222561</v>
       </c>
       <c r="D139" t="n">
-        <v>0.259208</v>
+        <v>0.258634</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.341001</v>
+        <v>0.341007</v>
       </c>
       <c r="C140" t="n">
-        <v>0.221517</v>
+        <v>0.220251</v>
       </c>
       <c r="D140" t="n">
-        <v>0.257274</v>
+        <v>0.255619</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.333932</v>
+        <v>0.334006</v>
       </c>
       <c r="C141" t="n">
-        <v>0.219665</v>
+        <v>0.218475</v>
       </c>
       <c r="D141" t="n">
-        <v>0.254425</v>
+        <v>0.253084</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.326019</v>
+        <v>0.326191</v>
       </c>
       <c r="C142" t="n">
-        <v>0.218533</v>
+        <v>0.217271</v>
       </c>
       <c r="D142" t="n">
-        <v>0.253054</v>
+        <v>0.251974</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.317283</v>
+        <v>0.317461</v>
       </c>
       <c r="C143" t="n">
-        <v>0.217417</v>
+        <v>0.216094</v>
       </c>
       <c r="D143" t="n">
-        <v>0.251584</v>
+        <v>0.250446</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.280703</v>
+        <v>0.280114</v>
       </c>
       <c r="C2" t="n">
-        <v>0.192581</v>
+        <v>0.192015</v>
       </c>
       <c r="D2" t="n">
-        <v>0.227306</v>
+        <v>0.231609</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.268989</v>
+        <v>0.268168</v>
       </c>
       <c r="C3" t="n">
-        <v>0.195553</v>
+        <v>0.194985</v>
       </c>
       <c r="D3" t="n">
-        <v>0.226088</v>
+        <v>0.230587</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.259939</v>
+        <v>0.259265</v>
       </c>
       <c r="C4" t="n">
-        <v>0.19593</v>
+        <v>0.19602</v>
       </c>
       <c r="D4" t="n">
-        <v>0.227404</v>
+        <v>0.23135</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.247626</v>
+        <v>0.248312</v>
       </c>
       <c r="C5" t="n">
-        <v>0.195688</v>
+        <v>0.195747</v>
       </c>
       <c r="D5" t="n">
-        <v>0.228039</v>
+        <v>0.229447</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.236544</v>
+        <v>0.241207</v>
       </c>
       <c r="C6" t="n">
-        <v>0.196144</v>
+        <v>0.197088</v>
       </c>
       <c r="D6" t="n">
-        <v>0.229278</v>
+        <v>0.229852</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.225294</v>
+        <v>0.225569</v>
       </c>
       <c r="C7" t="n">
-        <v>0.195372</v>
+        <v>0.195477</v>
       </c>
       <c r="D7" t="n">
-        <v>0.228181</v>
+        <v>0.22815</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.211476</v>
+        <v>0.210444</v>
       </c>
       <c r="C8" t="n">
-        <v>0.197413</v>
+        <v>0.197529</v>
       </c>
       <c r="D8" t="n">
-        <v>0.22965</v>
+        <v>0.233555</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.194892</v>
+        <v>0.196589</v>
       </c>
       <c r="C9" t="n">
-        <v>0.199318</v>
+        <v>0.199349</v>
       </c>
       <c r="D9" t="n">
-        <v>0.231148</v>
+        <v>0.230528</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.336519</v>
+        <v>0.33631</v>
       </c>
       <c r="C10" t="n">
-        <v>0.215241</v>
+        <v>0.215329</v>
       </c>
       <c r="D10" t="n">
-        <v>0.252204</v>
+        <v>0.251618</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.330537</v>
+        <v>0.329505</v>
       </c>
       <c r="C11" t="n">
-        <v>0.21514</v>
+        <v>0.215247</v>
       </c>
       <c r="D11" t="n">
-        <v>0.250875</v>
+        <v>0.251152</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.32584</v>
+        <v>0.324945</v>
       </c>
       <c r="C12" t="n">
-        <v>0.214201</v>
+        <v>0.213793</v>
       </c>
       <c r="D12" t="n">
-        <v>0.249576</v>
+        <v>0.24923</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.319029</v>
+        <v>0.318382</v>
       </c>
       <c r="C13" t="n">
-        <v>0.213442</v>
+        <v>0.213309</v>
       </c>
       <c r="D13" t="n">
-        <v>0.249107</v>
+        <v>0.248403</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.310725</v>
+        <v>0.309918</v>
       </c>
       <c r="C14" t="n">
-        <v>0.212171</v>
+        <v>0.212371</v>
       </c>
       <c r="D14" t="n">
-        <v>0.247431</v>
+        <v>0.247677</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.303269</v>
+        <v>0.302063</v>
       </c>
       <c r="C15" t="n">
-        <v>0.212162</v>
+        <v>0.212429</v>
       </c>
       <c r="D15" t="n">
-        <v>0.24721</v>
+        <v>0.247597</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.294468</v>
+        <v>0.294104</v>
       </c>
       <c r="C16" t="n">
-        <v>0.211149</v>
+        <v>0.211709</v>
       </c>
       <c r="D16" t="n">
-        <v>0.246685</v>
+        <v>0.246347</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.285793</v>
+        <v>0.284945</v>
       </c>
       <c r="C17" t="n">
-        <v>0.211493</v>
+        <v>0.211486</v>
       </c>
       <c r="D17" t="n">
-        <v>0.245684</v>
+        <v>0.245446</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.27573</v>
+        <v>0.275778</v>
       </c>
       <c r="C18" t="n">
-        <v>0.211814</v>
+        <v>0.211947</v>
       </c>
       <c r="D18" t="n">
-        <v>0.244291</v>
+        <v>0.244005</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.265102</v>
+        <v>0.265054</v>
       </c>
       <c r="C19" t="n">
-        <v>0.210554</v>
+        <v>0.210824</v>
       </c>
       <c r="D19" t="n">
-        <v>0.243708</v>
+        <v>0.243738</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.254034</v>
+        <v>0.253214</v>
       </c>
       <c r="C20" t="n">
-        <v>0.210308</v>
+        <v>0.210833</v>
       </c>
       <c r="D20" t="n">
-        <v>0.243184</v>
+        <v>0.243155</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.240989</v>
+        <v>0.240521</v>
       </c>
       <c r="C21" t="n">
-        <v>0.211146</v>
+        <v>0.211182</v>
       </c>
       <c r="D21" t="n">
-        <v>0.242499</v>
+        <v>0.242421</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.227048</v>
+        <v>0.226186</v>
       </c>
       <c r="C22" t="n">
-        <v>0.210672</v>
+        <v>0.210774</v>
       </c>
       <c r="D22" t="n">
-        <v>0.242304</v>
+        <v>0.242451</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.210729</v>
+        <v>0.210504</v>
       </c>
       <c r="C23" t="n">
-        <v>0.210623</v>
+        <v>0.210737</v>
       </c>
       <c r="D23" t="n">
-        <v>0.241794</v>
+        <v>0.241652</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.347791</v>
+        <v>0.348155</v>
       </c>
       <c r="C24" t="n">
-        <v>0.223633</v>
+        <v>0.224484</v>
       </c>
       <c r="D24" t="n">
-        <v>0.259737</v>
+        <v>0.260319</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.341721</v>
+        <v>0.341384</v>
       </c>
       <c r="C25" t="n">
-        <v>0.222249</v>
+        <v>0.22303</v>
       </c>
       <c r="D25" t="n">
-        <v>0.258109</v>
+        <v>0.258388</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.335371</v>
+        <v>0.334886</v>
       </c>
       <c r="C26" t="n">
-        <v>0.219897</v>
+        <v>0.220013</v>
       </c>
       <c r="D26" t="n">
-        <v>0.256332</v>
+        <v>0.256495</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.328412</v>
+        <v>0.328842</v>
       </c>
       <c r="C27" t="n">
-        <v>0.218976</v>
+        <v>0.21932</v>
       </c>
       <c r="D27" t="n">
-        <v>0.254835</v>
+        <v>0.255484</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.322083</v>
+        <v>0.322368</v>
       </c>
       <c r="C28" t="n">
-        <v>0.216677</v>
+        <v>0.216748</v>
       </c>
       <c r="D28" t="n">
-        <v>0.251716</v>
+        <v>0.25185</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.313242</v>
+        <v>0.312983</v>
       </c>
       <c r="C29" t="n">
-        <v>0.215445</v>
+        <v>0.215947</v>
       </c>
       <c r="D29" t="n">
-        <v>0.250212</v>
+        <v>0.250543</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.304623</v>
+        <v>0.304761</v>
       </c>
       <c r="C30" t="n">
-        <v>0.214395</v>
+        <v>0.215105</v>
       </c>
       <c r="D30" t="n">
-        <v>0.248623</v>
+        <v>0.248491</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.294078</v>
+        <v>0.293989</v>
       </c>
       <c r="C31" t="n">
-        <v>0.213609</v>
+        <v>0.214256</v>
       </c>
       <c r="D31" t="n">
-        <v>0.247445</v>
+        <v>0.247799</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.283716</v>
+        <v>0.283697</v>
       </c>
       <c r="C32" t="n">
-        <v>0.213606</v>
+        <v>0.214086</v>
       </c>
       <c r="D32" t="n">
-        <v>0.246808</v>
+        <v>0.246718</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.273067</v>
+        <v>0.273103</v>
       </c>
       <c r="C33" t="n">
-        <v>0.212462</v>
+        <v>0.212819</v>
       </c>
       <c r="D33" t="n">
-        <v>0.245321</v>
+        <v>0.245354</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.262113</v>
+        <v>0.261962</v>
       </c>
       <c r="C34" t="n">
-        <v>0.211956</v>
+        <v>0.212067</v>
       </c>
       <c r="D34" t="n">
-        <v>0.244267</v>
+        <v>0.243969</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.248396</v>
+        <v>0.248567</v>
       </c>
       <c r="C35" t="n">
-        <v>0.211894</v>
+        <v>0.212231</v>
       </c>
       <c r="D35" t="n">
-        <v>0.24356</v>
+        <v>0.243337</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.235226</v>
+        <v>0.235022</v>
       </c>
       <c r="C36" t="n">
-        <v>0.211875</v>
+        <v>0.212417</v>
       </c>
       <c r="D36" t="n">
-        <v>0.243439</v>
+        <v>0.243547</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.219757</v>
+        <v>0.219628</v>
       </c>
       <c r="C37" t="n">
-        <v>0.21245</v>
+        <v>0.212597</v>
       </c>
       <c r="D37" t="n">
-        <v>0.243729</v>
+        <v>0.243681</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.351576</v>
+        <v>0.351742</v>
       </c>
       <c r="C38" t="n">
-        <v>0.228265</v>
+        <v>0.228834</v>
       </c>
       <c r="D38" t="n">
-        <v>0.263672</v>
+        <v>0.263836</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.347026</v>
+        <v>0.347025</v>
       </c>
       <c r="C39" t="n">
-        <v>0.226103</v>
+        <v>0.226301</v>
       </c>
       <c r="D39" t="n">
-        <v>0.261279</v>
+        <v>0.261453</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.34129</v>
+        <v>0.341164</v>
       </c>
       <c r="C40" t="n">
-        <v>0.223172</v>
+        <v>0.223237</v>
       </c>
       <c r="D40" t="n">
-        <v>0.260447</v>
+        <v>0.260718</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.334283</v>
+        <v>0.33411</v>
       </c>
       <c r="C41" t="n">
-        <v>0.219823</v>
+        <v>0.219959</v>
       </c>
       <c r="D41" t="n">
-        <v>0.254185</v>
+        <v>0.254415</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.327026</v>
+        <v>0.327178</v>
       </c>
       <c r="C42" t="n">
-        <v>0.218173</v>
+        <v>0.218309</v>
       </c>
       <c r="D42" t="n">
-        <v>0.253537</v>
+        <v>0.253454</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.319596</v>
+        <v>0.319227</v>
       </c>
       <c r="C43" t="n">
-        <v>0.217115</v>
+        <v>0.217457</v>
       </c>
       <c r="D43" t="n">
-        <v>0.25132</v>
+        <v>0.251276</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.310419</v>
+        <v>0.310321</v>
       </c>
       <c r="C44" t="n">
-        <v>0.215655</v>
+        <v>0.216159</v>
       </c>
       <c r="D44" t="n">
-        <v>0.249492</v>
+        <v>0.249636</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.302052</v>
+        <v>0.301916</v>
       </c>
       <c r="C45" t="n">
-        <v>0.214975</v>
+        <v>0.215328</v>
       </c>
       <c r="D45" t="n">
-        <v>0.248314</v>
+        <v>0.248271</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.291474</v>
+        <v>0.291351</v>
       </c>
       <c r="C46" t="n">
-        <v>0.214441</v>
+        <v>0.214342</v>
       </c>
       <c r="D46" t="n">
-        <v>0.247199</v>
+        <v>0.247181</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.280066</v>
+        <v>0.280048</v>
       </c>
       <c r="C47" t="n">
-        <v>0.213702</v>
+        <v>0.214233</v>
       </c>
       <c r="D47" t="n">
-        <v>0.24663</v>
+        <v>0.246619</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.268634</v>
+        <v>0.268437</v>
       </c>
       <c r="C48" t="n">
-        <v>0.212699</v>
+        <v>0.213153</v>
       </c>
       <c r="D48" t="n">
-        <v>0.245107</v>
+        <v>0.245004</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.256215</v>
+        <v>0.256146</v>
       </c>
       <c r="C49" t="n">
-        <v>0.212324</v>
+        <v>0.212717</v>
       </c>
       <c r="D49" t="n">
-        <v>0.244499</v>
+        <v>0.244287</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.242264</v>
+        <v>0.242161</v>
       </c>
       <c r="C50" t="n">
-        <v>0.212306</v>
+        <v>0.212617</v>
       </c>
       <c r="D50" t="n">
-        <v>0.244309</v>
+        <v>0.244026</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.226775</v>
+        <v>0.226842</v>
       </c>
       <c r="C51" t="n">
-        <v>0.212115</v>
+        <v>0.212445</v>
       </c>
       <c r="D51" t="n">
-        <v>0.243432</v>
+        <v>0.243272</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.209996</v>
+        <v>0.210096</v>
       </c>
       <c r="C52" t="n">
-        <v>0.212616</v>
+        <v>0.212171</v>
       </c>
       <c r="D52" t="n">
-        <v>0.247691</v>
+        <v>0.247094</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.350301</v>
+        <v>0.350338</v>
       </c>
       <c r="C53" t="n">
-        <v>0.224332</v>
+        <v>0.225057</v>
       </c>
       <c r="D53" t="n">
-        <v>0.260011</v>
+        <v>0.260313</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.344321</v>
+        <v>0.344478</v>
       </c>
       <c r="C54" t="n">
-        <v>0.222009</v>
+        <v>0.222475</v>
       </c>
       <c r="D54" t="n">
-        <v>0.257017</v>
+        <v>0.25754</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.33801</v>
+        <v>0.338433</v>
       </c>
       <c r="C55" t="n">
-        <v>0.219307</v>
+        <v>0.219567</v>
       </c>
       <c r="D55" t="n">
-        <v>0.254564</v>
+        <v>0.2547</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.33095</v>
+        <v>0.331082</v>
       </c>
       <c r="C56" t="n">
-        <v>0.217882</v>
+        <v>0.218144</v>
       </c>
       <c r="D56" t="n">
-        <v>0.252496</v>
+        <v>0.252601</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.322683</v>
+        <v>0.32278</v>
       </c>
       <c r="C57" t="n">
-        <v>0.216729</v>
+        <v>0.216998</v>
       </c>
       <c r="D57" t="n">
-        <v>0.250987</v>
+        <v>0.251079</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.314303</v>
+        <v>0.314251</v>
       </c>
       <c r="C58" t="n">
-        <v>0.215751</v>
+        <v>0.215947</v>
       </c>
       <c r="D58" t="n">
-        <v>0.24979</v>
+        <v>0.249672</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.305432</v>
+        <v>0.305233</v>
       </c>
       <c r="C59" t="n">
-        <v>0.214394</v>
+        <v>0.214626</v>
       </c>
       <c r="D59" t="n">
-        <v>0.248139</v>
+        <v>0.248104</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.295259</v>
+        <v>0.294937</v>
       </c>
       <c r="C60" t="n">
-        <v>0.213659</v>
+        <v>0.214191</v>
       </c>
       <c r="D60" t="n">
-        <v>0.247033</v>
+        <v>0.246854</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.284053</v>
+        <v>0.283853</v>
       </c>
       <c r="C61" t="n">
-        <v>0.213685</v>
+        <v>0.213595</v>
       </c>
       <c r="D61" t="n">
-        <v>0.246213</v>
+        <v>0.246129</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.27244</v>
+        <v>0.272006</v>
       </c>
       <c r="C62" t="n">
-        <v>0.212865</v>
+        <v>0.212996</v>
       </c>
       <c r="D62" t="n">
-        <v>0.245115</v>
+        <v>0.244947</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.259703</v>
+        <v>0.259552</v>
       </c>
       <c r="C63" t="n">
-        <v>0.212417</v>
+        <v>0.212486</v>
       </c>
       <c r="D63" t="n">
-        <v>0.244241</v>
+        <v>0.244306</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.24583</v>
+        <v>0.245589</v>
       </c>
       <c r="C64" t="n">
-        <v>0.212212</v>
+        <v>0.212249</v>
       </c>
       <c r="D64" t="n">
-        <v>0.243684</v>
+        <v>0.243809</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.23063</v>
+        <v>0.230541</v>
       </c>
       <c r="C65" t="n">
-        <v>0.211878</v>
+        <v>0.211951</v>
       </c>
       <c r="D65" t="n">
-        <v>0.243106</v>
+        <v>0.243066</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.214064</v>
+        <v>0.213787</v>
       </c>
       <c r="C66" t="n">
-        <v>0.211947</v>
+        <v>0.212181</v>
       </c>
       <c r="D66" t="n">
-        <v>0.244109</v>
+        <v>0.243868</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.352085</v>
+        <v>0.352467</v>
       </c>
       <c r="C67" t="n">
-        <v>0.225921</v>
+        <v>0.225992</v>
       </c>
       <c r="D67" t="n">
-        <v>0.261801</v>
+        <v>0.261924</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.346861</v>
+        <v>0.347231</v>
       </c>
       <c r="C68" t="n">
-        <v>0.222439</v>
+        <v>0.222594</v>
       </c>
       <c r="D68" t="n">
-        <v>0.257797</v>
+        <v>0.257921</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.340855</v>
+        <v>0.340849</v>
       </c>
       <c r="C69" t="n">
-        <v>0.219908</v>
+        <v>0.219973</v>
       </c>
       <c r="D69" t="n">
-        <v>0.254505</v>
+        <v>0.254558</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.333695</v>
+        <v>0.333624</v>
       </c>
       <c r="C70" t="n">
-        <v>0.217765</v>
+        <v>0.217983</v>
       </c>
       <c r="D70" t="n">
-        <v>0.252439</v>
+        <v>0.25253</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.325507</v>
+        <v>0.325495</v>
       </c>
       <c r="C71" t="n">
-        <v>0.216604</v>
+        <v>0.216689</v>
       </c>
       <c r="D71" t="n">
-        <v>0.250836</v>
+        <v>0.251085</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.316774</v>
+        <v>0.316866</v>
       </c>
       <c r="C72" t="n">
-        <v>0.215582</v>
+        <v>0.21567</v>
       </c>
       <c r="D72" t="n">
-        <v>0.249505</v>
+        <v>0.249581</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.307566</v>
+        <v>0.307546</v>
       </c>
       <c r="C73" t="n">
-        <v>0.21468</v>
+        <v>0.214877</v>
       </c>
       <c r="D73" t="n">
-        <v>0.248403</v>
+        <v>0.248497</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.297635</v>
+        <v>0.29754</v>
       </c>
       <c r="C74" t="n">
-        <v>0.214101</v>
+        <v>0.214408</v>
       </c>
       <c r="D74" t="n">
-        <v>0.247486</v>
+        <v>0.247525</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.286809</v>
+        <v>0.286888</v>
       </c>
       <c r="C75" t="n">
-        <v>0.213347</v>
+        <v>0.213613</v>
       </c>
       <c r="D75" t="n">
-        <v>0.246508</v>
+        <v>0.246533</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.275713</v>
+        <v>0.275508</v>
       </c>
       <c r="C76" t="n">
-        <v>0.212879</v>
+        <v>0.213179</v>
       </c>
       <c r="D76" t="n">
-        <v>0.245516</v>
+        <v>0.245524</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.263193</v>
+        <v>0.26307</v>
       </c>
       <c r="C77" t="n">
-        <v>0.212267</v>
+        <v>0.212359</v>
       </c>
       <c r="D77" t="n">
-        <v>0.244599</v>
+        <v>0.244683</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.249433</v>
+        <v>0.249104</v>
       </c>
       <c r="C78" t="n">
-        <v>0.211838</v>
+        <v>0.211988</v>
       </c>
       <c r="D78" t="n">
-        <v>0.243748</v>
+        <v>0.243784</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.234636</v>
+        <v>0.234662</v>
       </c>
       <c r="C79" t="n">
-        <v>0.212082</v>
+        <v>0.211953</v>
       </c>
       <c r="D79" t="n">
-        <v>0.243189</v>
+        <v>0.243177</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.218695</v>
+        <v>0.218665</v>
       </c>
       <c r="C80" t="n">
-        <v>0.211893</v>
+        <v>0.211823</v>
       </c>
       <c r="D80" t="n">
-        <v>0.243339</v>
+        <v>0.24297</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.353484</v>
+        <v>0.353769</v>
       </c>
       <c r="C81" t="n">
-        <v>0.225916</v>
+        <v>0.226882</v>
       </c>
       <c r="D81" t="n">
-        <v>0.261206</v>
+        <v>0.262514</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.348259</v>
+        <v>0.348373</v>
       </c>
       <c r="C82" t="n">
-        <v>0.221942</v>
+        <v>0.222601</v>
       </c>
       <c r="D82" t="n">
-        <v>0.257208</v>
+        <v>0.257726</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.341895</v>
+        <v>0.341843</v>
       </c>
       <c r="C83" t="n">
-        <v>0.219533</v>
+        <v>0.220116</v>
       </c>
       <c r="D83" t="n">
-        <v>0.254345</v>
+        <v>0.255079</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.334944</v>
+        <v>0.335013</v>
       </c>
       <c r="C84" t="n">
-        <v>0.217801</v>
+        <v>0.21824</v>
       </c>
       <c r="D84" t="n">
-        <v>0.252655</v>
+        <v>0.253065</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.327364</v>
+        <v>0.327243</v>
       </c>
       <c r="C85" t="n">
-        <v>0.216798</v>
+        <v>0.217122</v>
       </c>
       <c r="D85" t="n">
-        <v>0.25139</v>
+        <v>0.251761</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.319089</v>
+        <v>0.318949</v>
       </c>
       <c r="C86" t="n">
-        <v>0.215833</v>
+        <v>0.216159</v>
       </c>
       <c r="D86" t="n">
-        <v>0.250155</v>
+        <v>0.250388</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.309786</v>
+        <v>0.309843</v>
       </c>
       <c r="C87" t="n">
-        <v>0.214825</v>
+        <v>0.215076</v>
       </c>
       <c r="D87" t="n">
-        <v>0.248578</v>
+        <v>0.248847</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.300248</v>
+        <v>0.300099</v>
       </c>
       <c r="C88" t="n">
-        <v>0.214031</v>
+        <v>0.214202</v>
       </c>
       <c r="D88" t="n">
-        <v>0.247468</v>
+        <v>0.247618</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.28973</v>
+        <v>0.289705</v>
       </c>
       <c r="C89" t="n">
-        <v>0.213389</v>
+        <v>0.213515</v>
       </c>
       <c r="D89" t="n">
-        <v>0.246434</v>
+        <v>0.24654</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.277995</v>
+        <v>0.277938</v>
       </c>
       <c r="C90" t="n">
-        <v>0.212824</v>
+        <v>0.213033</v>
       </c>
       <c r="D90" t="n">
-        <v>0.245633</v>
+        <v>0.245692</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.265624</v>
+        <v>0.265743</v>
       </c>
       <c r="C91" t="n">
-        <v>0.212724</v>
+        <v>0.212545</v>
       </c>
       <c r="D91" t="n">
-        <v>0.244688</v>
+        <v>0.244758</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.252267</v>
+        <v>0.252282</v>
       </c>
       <c r="C92" t="n">
-        <v>0.212265</v>
+        <v>0.212133</v>
       </c>
       <c r="D92" t="n">
-        <v>0.243946</v>
+        <v>0.243945</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.238205</v>
+        <v>0.238105</v>
       </c>
       <c r="C93" t="n">
-        <v>0.211806</v>
+        <v>0.211689</v>
       </c>
       <c r="D93" t="n">
-        <v>0.243204</v>
+        <v>0.243192</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.222156</v>
+        <v>0.222147</v>
       </c>
       <c r="C94" t="n">
-        <v>0.211755</v>
+        <v>0.211568</v>
       </c>
       <c r="D94" t="n">
-        <v>0.242623</v>
+        <v>0.242606</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.354896</v>
+        <v>0.35483</v>
       </c>
       <c r="C95" t="n">
-        <v>0.226056</v>
+        <v>0.226686</v>
       </c>
       <c r="D95" t="n">
-        <v>0.261818</v>
+        <v>0.262697</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.349804</v>
+        <v>0.349821</v>
       </c>
       <c r="C96" t="n">
-        <v>0.22292</v>
+        <v>0.223252</v>
       </c>
       <c r="D96" t="n">
-        <v>0.258477</v>
+        <v>0.258771</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.343826</v>
+        <v>0.343862</v>
       </c>
       <c r="C97" t="n">
-        <v>0.220536</v>
+        <v>0.220864</v>
       </c>
       <c r="D97" t="n">
-        <v>0.255884</v>
+        <v>0.255909</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.337036</v>
+        <v>0.33698</v>
       </c>
       <c r="C98" t="n">
-        <v>0.218511</v>
+        <v>0.218663</v>
       </c>
       <c r="D98" t="n">
-        <v>0.253698</v>
+        <v>0.253501</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.329195</v>
+        <v>0.329184</v>
       </c>
       <c r="C99" t="n">
-        <v>0.217205</v>
+        <v>0.217407</v>
       </c>
       <c r="D99" t="n">
-        <v>0.251994</v>
+        <v>0.251973</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.321086</v>
+        <v>0.321088</v>
       </c>
       <c r="C100" t="n">
-        <v>0.216034</v>
+        <v>0.216277</v>
       </c>
       <c r="D100" t="n">
-        <v>0.250501</v>
+        <v>0.250447</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.3121</v>
+        <v>0.312275</v>
       </c>
       <c r="C101" t="n">
-        <v>0.215126</v>
+        <v>0.215339</v>
       </c>
       <c r="D101" t="n">
-        <v>0.249217</v>
+        <v>0.249128</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.302432</v>
+        <v>0.302262</v>
       </c>
       <c r="C102" t="n">
-        <v>0.214359</v>
+        <v>0.214402</v>
       </c>
       <c r="D102" t="n">
-        <v>0.247996</v>
+        <v>0.247928</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.291997</v>
+        <v>0.291801</v>
       </c>
       <c r="C103" t="n">
-        <v>0.213577</v>
+        <v>0.213685</v>
       </c>
       <c r="D103" t="n">
-        <v>0.246926</v>
+        <v>0.246858</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.280757</v>
+        <v>0.280612</v>
       </c>
       <c r="C104" t="n">
-        <v>0.212933</v>
+        <v>0.213049</v>
       </c>
       <c r="D104" t="n">
-        <v>0.245916</v>
+        <v>0.245888</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.268626</v>
+        <v>0.268484</v>
       </c>
       <c r="C105" t="n">
-        <v>0.212463</v>
+        <v>0.21251</v>
       </c>
       <c r="D105" t="n">
-        <v>0.245022</v>
+        <v>0.244934</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.255471</v>
+        <v>0.255568</v>
       </c>
       <c r="C106" t="n">
-        <v>0.211991</v>
+        <v>0.212006</v>
       </c>
       <c r="D106" t="n">
-        <v>0.244079</v>
+        <v>0.243999</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.241673</v>
+        <v>0.241319</v>
       </c>
       <c r="C107" t="n">
-        <v>0.211647</v>
+        <v>0.211664</v>
       </c>
       <c r="D107" t="n">
-        <v>0.24341</v>
+        <v>0.243213</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.226225</v>
+        <v>0.226175</v>
       </c>
       <c r="C108" t="n">
-        <v>0.211494</v>
+        <v>0.211496</v>
       </c>
       <c r="D108" t="n">
-        <v>0.243073</v>
+        <v>0.243022</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.209441</v>
+        <v>0.20935</v>
       </c>
       <c r="C109" t="n">
-        <v>0.211348</v>
+        <v>0.211361</v>
       </c>
       <c r="D109" t="n">
-        <v>0.242692</v>
+        <v>0.242575</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.351043</v>
+        <v>0.350719</v>
       </c>
       <c r="C110" t="n">
-        <v>0.223332</v>
+        <v>0.223281</v>
       </c>
       <c r="D110" t="n">
-        <v>0.258956</v>
+        <v>0.258877</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.345048</v>
+        <v>0.344674</v>
       </c>
       <c r="C111" t="n">
-        <v>0.22078</v>
+        <v>0.220819</v>
       </c>
       <c r="D111" t="n">
-        <v>0.256065</v>
+        <v>0.25611</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.338345</v>
+        <v>0.338176</v>
       </c>
       <c r="C112" t="n">
-        <v>0.218964</v>
+        <v>0.219001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.253822</v>
+        <v>0.253936</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.330969</v>
+        <v>0.330779</v>
       </c>
       <c r="C113" t="n">
-        <v>0.217495</v>
+        <v>0.217449</v>
       </c>
       <c r="D113" t="n">
-        <v>0.252467</v>
+        <v>0.251969</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.322871</v>
+        <v>0.322719</v>
       </c>
       <c r="C114" t="n">
-        <v>0.216302</v>
+        <v>0.216321</v>
       </c>
       <c r="D114" t="n">
-        <v>0.251132</v>
+        <v>0.250948</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.313996</v>
+        <v>0.313709</v>
       </c>
       <c r="C115" t="n">
-        <v>0.215287</v>
+        <v>0.215234</v>
       </c>
       <c r="D115" t="n">
-        <v>0.249704</v>
+        <v>0.249748</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.304319</v>
+        <v>0.304161</v>
       </c>
       <c r="C116" t="n">
-        <v>0.2145</v>
+        <v>0.214454</v>
       </c>
       <c r="D116" t="n">
-        <v>0.248408</v>
+        <v>0.248342</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.293803</v>
+        <v>0.293684</v>
       </c>
       <c r="C117" t="n">
-        <v>0.214131</v>
+        <v>0.213668</v>
       </c>
       <c r="D117" t="n">
-        <v>0.247261</v>
+        <v>0.247245</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.282888</v>
+        <v>0.282841</v>
       </c>
       <c r="C118" t="n">
-        <v>0.213556</v>
+        <v>0.213557</v>
       </c>
       <c r="D118" t="n">
-        <v>0.246454</v>
+        <v>0.246342</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.27131</v>
+        <v>0.271049</v>
       </c>
       <c r="C119" t="n">
-        <v>0.212934</v>
+        <v>0.212907</v>
       </c>
       <c r="D119" t="n">
-        <v>0.245355</v>
+        <v>0.245434</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.258575</v>
+        <v>0.25842</v>
       </c>
       <c r="C120" t="n">
-        <v>0.212456</v>
+        <v>0.212439</v>
       </c>
       <c r="D120" t="n">
-        <v>0.24456</v>
+        <v>0.244503</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.244537</v>
+        <v>0.24452</v>
       </c>
       <c r="C121" t="n">
-        <v>0.212068</v>
+        <v>0.212086</v>
       </c>
       <c r="D121" t="n">
-        <v>0.24369</v>
+        <v>0.244068</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.229659</v>
+        <v>0.229466</v>
       </c>
       <c r="C122" t="n">
-        <v>0.211823</v>
+        <v>0.211836</v>
       </c>
       <c r="D122" t="n">
-        <v>0.243291</v>
+        <v>0.243372</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.212958</v>
+        <v>0.212773</v>
       </c>
       <c r="C123" t="n">
-        <v>0.211686</v>
+        <v>0.211643</v>
       </c>
       <c r="D123" t="n">
-        <v>0.242955</v>
+        <v>0.242801</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.351873</v>
+        <v>0.351715</v>
       </c>
       <c r="C124" t="n">
-        <v>0.2244</v>
+        <v>0.224266</v>
       </c>
       <c r="D124" t="n">
-        <v>0.260513</v>
+        <v>0.260387</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.346042</v>
+        <v>0.345915</v>
       </c>
       <c r="C125" t="n">
-        <v>0.221383</v>
+        <v>0.221384</v>
       </c>
       <c r="D125" t="n">
-        <v>0.256995</v>
+        <v>0.256972</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.339374</v>
+        <v>0.33937</v>
       </c>
       <c r="C126" t="n">
-        <v>0.219436</v>
+        <v>0.219491</v>
       </c>
       <c r="D126" t="n">
-        <v>0.254783</v>
+        <v>0.2547</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.332101</v>
+        <v>0.332184</v>
       </c>
       <c r="C127" t="n">
-        <v>0.217858</v>
+        <v>0.217835</v>
       </c>
       <c r="D127" t="n">
-        <v>0.252885</v>
+        <v>0.252466</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.324222</v>
+        <v>0.324172</v>
       </c>
       <c r="C128" t="n">
-        <v>0.216459</v>
+        <v>0.216518</v>
       </c>
       <c r="D128" t="n">
-        <v>0.250876</v>
+        <v>0.250926</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.315476</v>
+        <v>0.315388</v>
       </c>
       <c r="C129" t="n">
-        <v>0.215441</v>
+        <v>0.215456</v>
       </c>
       <c r="D129" t="n">
-        <v>0.249536</v>
+        <v>0.249624</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.306056</v>
+        <v>0.305864</v>
       </c>
       <c r="C130" t="n">
-        <v>0.21462</v>
+        <v>0.214605</v>
       </c>
       <c r="D130" t="n">
-        <v>0.248458</v>
+        <v>0.248363</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.295927</v>
+        <v>0.295829</v>
       </c>
       <c r="C131" t="n">
-        <v>0.213903</v>
+        <v>0.213926</v>
       </c>
       <c r="D131" t="n">
-        <v>0.247431</v>
+        <v>0.247329</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.285169</v>
+        <v>0.285189</v>
       </c>
       <c r="C132" t="n">
-        <v>0.213186</v>
+        <v>0.213189</v>
       </c>
       <c r="D132" t="n">
-        <v>0.246339</v>
+        <v>0.246246</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.273449</v>
+        <v>0.273221</v>
       </c>
       <c r="C133" t="n">
-        <v>0.212638</v>
+        <v>0.212655</v>
       </c>
       <c r="D133" t="n">
-        <v>0.245936</v>
+        <v>0.245714</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.260611</v>
+        <v>0.260469</v>
       </c>
       <c r="C134" t="n">
-        <v>0.212158</v>
+        <v>0.212128</v>
       </c>
       <c r="D134" t="n">
-        <v>0.244962</v>
+        <v>0.244948</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.247152</v>
+        <v>0.246803</v>
       </c>
       <c r="C135" t="n">
-        <v>0.211722</v>
+        <v>0.211731</v>
       </c>
       <c r="D135" t="n">
-        <v>0.244579</v>
+        <v>0.244252</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.232242</v>
+        <v>0.232037</v>
       </c>
       <c r="C136" t="n">
-        <v>0.21175</v>
+        <v>0.211982</v>
       </c>
       <c r="D136" t="n">
-        <v>0.244291</v>
+        <v>0.243839</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.216063</v>
+        <v>0.215856</v>
       </c>
       <c r="C137" t="n">
-        <v>0.211651</v>
+        <v>0.211887</v>
       </c>
       <c r="D137" t="n">
-        <v>0.243192</v>
+        <v>0.243527</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.352816</v>
+        <v>0.352835</v>
       </c>
       <c r="C138" t="n">
-        <v>0.225797</v>
+        <v>0.225799</v>
       </c>
       <c r="D138" t="n">
-        <v>0.262543</v>
+        <v>0.261779</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.347362</v>
+        <v>0.347344</v>
       </c>
       <c r="C139" t="n">
-        <v>0.222561</v>
+        <v>0.222505</v>
       </c>
       <c r="D139" t="n">
-        <v>0.258634</v>
+        <v>0.258462</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.341007</v>
+        <v>0.340976</v>
       </c>
       <c r="C140" t="n">
-        <v>0.220251</v>
+        <v>0.220257</v>
       </c>
       <c r="D140" t="n">
-        <v>0.255619</v>
+        <v>0.255894</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.334006</v>
+        <v>0.3339</v>
       </c>
       <c r="C141" t="n">
-        <v>0.218475</v>
+        <v>0.218448</v>
       </c>
       <c r="D141" t="n">
-        <v>0.253084</v>
+        <v>0.254159</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.326191</v>
+        <v>0.326063</v>
       </c>
       <c r="C142" t="n">
-        <v>0.217271</v>
+        <v>0.217192</v>
       </c>
       <c r="D142" t="n">
-        <v>0.251974</v>
+        <v>0.252081</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.317461</v>
+        <v>0.317414</v>
       </c>
       <c r="C143" t="n">
-        <v>0.216094</v>
+        <v>0.216038</v>
       </c>
       <c r="D143" t="n">
-        <v>0.250446</v>
+        <v>0.250029</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.280114</v>
+        <v>0.280603</v>
       </c>
       <c r="C2" t="n">
-        <v>0.192015</v>
+        <v>0.192493</v>
       </c>
       <c r="D2" t="n">
-        <v>0.231609</v>
+        <v>0.227184</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.268168</v>
+        <v>0.268977</v>
       </c>
       <c r="C3" t="n">
-        <v>0.194985</v>
+        <v>0.197338</v>
       </c>
       <c r="D3" t="n">
-        <v>0.230587</v>
+        <v>0.229764</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.259265</v>
+        <v>0.258883</v>
       </c>
       <c r="C4" t="n">
-        <v>0.19602</v>
+        <v>0.195799</v>
       </c>
       <c r="D4" t="n">
-        <v>0.23135</v>
+        <v>0.227081</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.248312</v>
+        <v>0.247908</v>
       </c>
       <c r="C5" t="n">
-        <v>0.195747</v>
+        <v>0.195548</v>
       </c>
       <c r="D5" t="n">
-        <v>0.229447</v>
+        <v>0.228163</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.241207</v>
+        <v>0.236469</v>
       </c>
       <c r="C6" t="n">
-        <v>0.197088</v>
+        <v>0.195956</v>
       </c>
       <c r="D6" t="n">
-        <v>0.229852</v>
+        <v>0.232694</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.225569</v>
+        <v>0.225636</v>
       </c>
       <c r="C7" t="n">
-        <v>0.195477</v>
+        <v>0.196083</v>
       </c>
       <c r="D7" t="n">
-        <v>0.22815</v>
+        <v>0.228749</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.210444</v>
+        <v>0.210554</v>
       </c>
       <c r="C8" t="n">
-        <v>0.197529</v>
+        <v>0.197827</v>
       </c>
       <c r="D8" t="n">
-        <v>0.233555</v>
+        <v>0.229612</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.196589</v>
+        <v>0.195505</v>
       </c>
       <c r="C9" t="n">
-        <v>0.199349</v>
+        <v>0.199341</v>
       </c>
       <c r="D9" t="n">
-        <v>0.230528</v>
+        <v>0.254558</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.33631</v>
+        <v>0.3376</v>
       </c>
       <c r="C10" t="n">
-        <v>0.215329</v>
+        <v>0.215126</v>
       </c>
       <c r="D10" t="n">
-        <v>0.251618</v>
+        <v>0.260182</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.329505</v>
+        <v>0.329275</v>
       </c>
       <c r="C11" t="n">
-        <v>0.215247</v>
+        <v>0.215414</v>
       </c>
       <c r="D11" t="n">
-        <v>0.251152</v>
+        <v>0.255061</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.324945</v>
+        <v>0.328146</v>
       </c>
       <c r="C12" t="n">
-        <v>0.213793</v>
+        <v>0.213964</v>
       </c>
       <c r="D12" t="n">
-        <v>0.24923</v>
+        <v>0.251359</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.318382</v>
+        <v>0.318112</v>
       </c>
       <c r="C13" t="n">
-        <v>0.213309</v>
+        <v>0.21298</v>
       </c>
       <c r="D13" t="n">
-        <v>0.248403</v>
+        <v>0.252355</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.309918</v>
+        <v>0.31073</v>
       </c>
       <c r="C14" t="n">
-        <v>0.212371</v>
+        <v>0.212187</v>
       </c>
       <c r="D14" t="n">
-        <v>0.247677</v>
+        <v>0.246296</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.302063</v>
+        <v>0.302273</v>
       </c>
       <c r="C15" t="n">
-        <v>0.212429</v>
+        <v>0.211794</v>
       </c>
       <c r="D15" t="n">
-        <v>0.247597</v>
+        <v>0.247862</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.294104</v>
+        <v>0.302572</v>
       </c>
       <c r="C16" t="n">
-        <v>0.211709</v>
+        <v>0.210831</v>
       </c>
       <c r="D16" t="n">
-        <v>0.246347</v>
+        <v>0.245443</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.284945</v>
+        <v>0.285374</v>
       </c>
       <c r="C17" t="n">
-        <v>0.211486</v>
+        <v>0.210919</v>
       </c>
       <c r="D17" t="n">
-        <v>0.245446</v>
+        <v>0.248476</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.275778</v>
+        <v>0.275704</v>
       </c>
       <c r="C18" t="n">
-        <v>0.211947</v>
+        <v>0.210832</v>
       </c>
       <c r="D18" t="n">
-        <v>0.244005</v>
+        <v>0.243005</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.265054</v>
+        <v>0.264649</v>
       </c>
       <c r="C19" t="n">
-        <v>0.210824</v>
+        <v>0.20998</v>
       </c>
       <c r="D19" t="n">
-        <v>0.243738</v>
+        <v>0.243143</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.253214</v>
+        <v>0.254569</v>
       </c>
       <c r="C20" t="n">
-        <v>0.210833</v>
+        <v>0.21063</v>
       </c>
       <c r="D20" t="n">
-        <v>0.243155</v>
+        <v>0.245888</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.240521</v>
+        <v>0.241001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.211182</v>
+        <v>0.211081</v>
       </c>
       <c r="D21" t="n">
-        <v>0.242421</v>
+        <v>0.24151</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.226186</v>
+        <v>0.226266</v>
       </c>
       <c r="C22" t="n">
-        <v>0.210774</v>
+        <v>0.210216</v>
       </c>
       <c r="D22" t="n">
-        <v>0.242451</v>
+        <v>0.242933</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.210504</v>
+        <v>0.209769</v>
       </c>
       <c r="C23" t="n">
-        <v>0.210737</v>
+        <v>0.210383</v>
       </c>
       <c r="D23" t="n">
-        <v>0.241652</v>
+        <v>0.260118</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348155</v>
+        <v>0.347499</v>
       </c>
       <c r="C24" t="n">
-        <v>0.224484</v>
+        <v>0.223574</v>
       </c>
       <c r="D24" t="n">
-        <v>0.260319</v>
+        <v>0.257966</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.341384</v>
+        <v>0.342007</v>
       </c>
       <c r="C25" t="n">
-        <v>0.22303</v>
+        <v>0.222529</v>
       </c>
       <c r="D25" t="n">
-        <v>0.258388</v>
+        <v>0.257613</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.334886</v>
+        <v>0.335571</v>
       </c>
       <c r="C26" t="n">
-        <v>0.220013</v>
+        <v>0.219613</v>
       </c>
       <c r="D26" t="n">
-        <v>0.256495</v>
+        <v>0.256014</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.328842</v>
+        <v>0.328773</v>
       </c>
       <c r="C27" t="n">
-        <v>0.21932</v>
+        <v>0.218522</v>
       </c>
       <c r="D27" t="n">
-        <v>0.255484</v>
+        <v>0.252978</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.322368</v>
+        <v>0.32257</v>
       </c>
       <c r="C28" t="n">
-        <v>0.216748</v>
+        <v>0.21655</v>
       </c>
       <c r="D28" t="n">
-        <v>0.25185</v>
+        <v>0.251783</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.312983</v>
+        <v>0.313241</v>
       </c>
       <c r="C29" t="n">
-        <v>0.215947</v>
+        <v>0.215696</v>
       </c>
       <c r="D29" t="n">
-        <v>0.250543</v>
+        <v>0.250107</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.304761</v>
+        <v>0.305139</v>
       </c>
       <c r="C30" t="n">
-        <v>0.215105</v>
+        <v>0.214526</v>
       </c>
       <c r="D30" t="n">
-        <v>0.248491</v>
+        <v>0.249044</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.293989</v>
+        <v>0.294655</v>
       </c>
       <c r="C31" t="n">
-        <v>0.214256</v>
+        <v>0.214045</v>
       </c>
       <c r="D31" t="n">
-        <v>0.247799</v>
+        <v>0.247624</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.283697</v>
+        <v>0.284309</v>
       </c>
       <c r="C32" t="n">
-        <v>0.214086</v>
+        <v>0.214051</v>
       </c>
       <c r="D32" t="n">
-        <v>0.246718</v>
+        <v>0.246856</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.273103</v>
+        <v>0.274144</v>
       </c>
       <c r="C33" t="n">
-        <v>0.212819</v>
+        <v>0.213056</v>
       </c>
       <c r="D33" t="n">
-        <v>0.245354</v>
+        <v>0.245897</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.261962</v>
+        <v>0.262215</v>
       </c>
       <c r="C34" t="n">
-        <v>0.212067</v>
+        <v>0.212618</v>
       </c>
       <c r="D34" t="n">
-        <v>0.243969</v>
+        <v>0.244761</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.248567</v>
+        <v>0.248491</v>
       </c>
       <c r="C35" t="n">
-        <v>0.212231</v>
+        <v>0.21223</v>
       </c>
       <c r="D35" t="n">
-        <v>0.243337</v>
+        <v>0.24448</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.235022</v>
+        <v>0.234852</v>
       </c>
       <c r="C36" t="n">
-        <v>0.212417</v>
+        <v>0.212085</v>
       </c>
       <c r="D36" t="n">
-        <v>0.243547</v>
+        <v>0.245949</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.219628</v>
+        <v>0.219476</v>
       </c>
       <c r="C37" t="n">
-        <v>0.212597</v>
+        <v>0.212999</v>
       </c>
       <c r="D37" t="n">
-        <v>0.243681</v>
+        <v>0.262199</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.351742</v>
+        <v>0.351833</v>
       </c>
       <c r="C38" t="n">
-        <v>0.228834</v>
+        <v>0.228074</v>
       </c>
       <c r="D38" t="n">
-        <v>0.263836</v>
+        <v>0.259439</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.347025</v>
+        <v>0.347192</v>
       </c>
       <c r="C39" t="n">
-        <v>0.226301</v>
+        <v>0.226375</v>
       </c>
       <c r="D39" t="n">
-        <v>0.261453</v>
+        <v>0.257275</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.341164</v>
+        <v>0.341</v>
       </c>
       <c r="C40" t="n">
-        <v>0.223237</v>
+        <v>0.222848</v>
       </c>
       <c r="D40" t="n">
-        <v>0.260718</v>
+        <v>0.256075</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.33411</v>
+        <v>0.334127</v>
       </c>
       <c r="C41" t="n">
-        <v>0.219959</v>
+        <v>0.219926</v>
       </c>
       <c r="D41" t="n">
-        <v>0.254415</v>
+        <v>0.253932</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.327178</v>
+        <v>0.327383</v>
       </c>
       <c r="C42" t="n">
-        <v>0.218309</v>
+        <v>0.218173</v>
       </c>
       <c r="D42" t="n">
-        <v>0.253454</v>
+        <v>0.252761</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.319227</v>
+        <v>0.320853</v>
       </c>
       <c r="C43" t="n">
-        <v>0.217457</v>
+        <v>0.217146</v>
       </c>
       <c r="D43" t="n">
-        <v>0.251276</v>
+        <v>0.251443</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.310321</v>
+        <v>0.311728</v>
       </c>
       <c r="C44" t="n">
-        <v>0.216159</v>
+        <v>0.215642</v>
       </c>
       <c r="D44" t="n">
-        <v>0.249636</v>
+        <v>0.249115</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.301916</v>
+        <v>0.302845</v>
       </c>
       <c r="C45" t="n">
-        <v>0.215328</v>
+        <v>0.215143</v>
       </c>
       <c r="D45" t="n">
-        <v>0.248271</v>
+        <v>0.248845</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.291351</v>
+        <v>0.292294</v>
       </c>
       <c r="C46" t="n">
-        <v>0.214342</v>
+        <v>0.214149</v>
       </c>
       <c r="D46" t="n">
-        <v>0.247181</v>
+        <v>0.247553</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.280048</v>
+        <v>0.280588</v>
       </c>
       <c r="C47" t="n">
-        <v>0.214233</v>
+        <v>0.214138</v>
       </c>
       <c r="D47" t="n">
-        <v>0.246619</v>
+        <v>0.246611</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.268437</v>
+        <v>0.269721</v>
       </c>
       <c r="C48" t="n">
-        <v>0.213153</v>
+        <v>0.21305</v>
       </c>
       <c r="D48" t="n">
-        <v>0.245004</v>
+        <v>0.246049</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.256146</v>
+        <v>0.257145</v>
       </c>
       <c r="C49" t="n">
-        <v>0.212717</v>
+        <v>0.212686</v>
       </c>
       <c r="D49" t="n">
-        <v>0.244287</v>
+        <v>0.245509</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.242161</v>
+        <v>0.242911</v>
       </c>
       <c r="C50" t="n">
-        <v>0.212617</v>
+        <v>0.2127</v>
       </c>
       <c r="D50" t="n">
-        <v>0.244026</v>
+        <v>0.246525</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.226842</v>
+        <v>0.227656</v>
       </c>
       <c r="C51" t="n">
-        <v>0.212445</v>
+        <v>0.21227</v>
       </c>
       <c r="D51" t="n">
-        <v>0.243272</v>
+        <v>0.261686</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.210096</v>
+        <v>0.210733</v>
       </c>
       <c r="C52" t="n">
-        <v>0.212171</v>
+        <v>0.212134</v>
       </c>
       <c r="D52" t="n">
-        <v>0.247094</v>
+        <v>0.258302</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.350338</v>
+        <v>0.350556</v>
       </c>
       <c r="C53" t="n">
-        <v>0.225057</v>
+        <v>0.224779</v>
       </c>
       <c r="D53" t="n">
-        <v>0.260313</v>
+        <v>0.256383</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.344478</v>
+        <v>0.344786</v>
       </c>
       <c r="C54" t="n">
-        <v>0.222475</v>
+        <v>0.222268</v>
       </c>
       <c r="D54" t="n">
-        <v>0.25754</v>
+        <v>0.254876</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.338433</v>
+        <v>0.338416</v>
       </c>
       <c r="C55" t="n">
-        <v>0.219567</v>
+        <v>0.219498</v>
       </c>
       <c r="D55" t="n">
-        <v>0.2547</v>
+        <v>0.253413</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.331082</v>
+        <v>0.331247</v>
       </c>
       <c r="C56" t="n">
-        <v>0.218144</v>
+        <v>0.217995</v>
       </c>
       <c r="D56" t="n">
-        <v>0.252601</v>
+        <v>0.251703</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.32278</v>
+        <v>0.322984</v>
       </c>
       <c r="C57" t="n">
-        <v>0.216998</v>
+        <v>0.216672</v>
       </c>
       <c r="D57" t="n">
-        <v>0.251079</v>
+        <v>0.250391</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.314251</v>
+        <v>0.314698</v>
       </c>
       <c r="C58" t="n">
-        <v>0.215947</v>
+        <v>0.215775</v>
       </c>
       <c r="D58" t="n">
-        <v>0.249672</v>
+        <v>0.249098</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.305233</v>
+        <v>0.305628</v>
       </c>
       <c r="C59" t="n">
-        <v>0.214626</v>
+        <v>0.214353</v>
       </c>
       <c r="D59" t="n">
-        <v>0.248104</v>
+        <v>0.247935</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.294937</v>
+        <v>0.295442</v>
       </c>
       <c r="C60" t="n">
-        <v>0.214191</v>
+        <v>0.213978</v>
       </c>
       <c r="D60" t="n">
-        <v>0.246854</v>
+        <v>0.246914</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.283853</v>
+        <v>0.284292</v>
       </c>
       <c r="C61" t="n">
-        <v>0.213595</v>
+        <v>0.213498</v>
       </c>
       <c r="D61" t="n">
-        <v>0.246129</v>
+        <v>0.246343</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272006</v>
+        <v>0.272668</v>
       </c>
       <c r="C62" t="n">
-        <v>0.212996</v>
+        <v>0.212866</v>
       </c>
       <c r="D62" t="n">
-        <v>0.244947</v>
+        <v>0.245484</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.259552</v>
+        <v>0.26016</v>
       </c>
       <c r="C63" t="n">
-        <v>0.212486</v>
+        <v>0.212403</v>
       </c>
       <c r="D63" t="n">
-        <v>0.244306</v>
+        <v>0.244438</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.245589</v>
+        <v>0.246285</v>
       </c>
       <c r="C64" t="n">
-        <v>0.212249</v>
+        <v>0.211992</v>
       </c>
       <c r="D64" t="n">
-        <v>0.243809</v>
+        <v>0.244223</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.230541</v>
+        <v>0.230883</v>
       </c>
       <c r="C65" t="n">
-        <v>0.211951</v>
+        <v>0.211742</v>
       </c>
       <c r="D65" t="n">
-        <v>0.243066</v>
+        <v>0.243259</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.213787</v>
+        <v>0.214011</v>
       </c>
       <c r="C66" t="n">
-        <v>0.212181</v>
+        <v>0.211866</v>
       </c>
       <c r="D66" t="n">
-        <v>0.243868</v>
+        <v>0.259338</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.352467</v>
+        <v>0.352242</v>
       </c>
       <c r="C67" t="n">
-        <v>0.225992</v>
+        <v>0.226365</v>
       </c>
       <c r="D67" t="n">
-        <v>0.261924</v>
+        <v>0.256814</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.347231</v>
+        <v>0.346993</v>
       </c>
       <c r="C68" t="n">
-        <v>0.222594</v>
+        <v>0.222513</v>
       </c>
       <c r="D68" t="n">
-        <v>0.257921</v>
+        <v>0.254848</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.340849</v>
+        <v>0.340829</v>
       </c>
       <c r="C69" t="n">
-        <v>0.219973</v>
+        <v>0.219808</v>
       </c>
       <c r="D69" t="n">
-        <v>0.254558</v>
+        <v>0.253107</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.333624</v>
+        <v>0.333772</v>
       </c>
       <c r="C70" t="n">
-        <v>0.217983</v>
+        <v>0.217742</v>
       </c>
       <c r="D70" t="n">
-        <v>0.25253</v>
+        <v>0.251593</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.325495</v>
+        <v>0.325713</v>
       </c>
       <c r="C71" t="n">
-        <v>0.216689</v>
+        <v>0.216672</v>
       </c>
       <c r="D71" t="n">
-        <v>0.251085</v>
+        <v>0.250453</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.316866</v>
+        <v>0.31714</v>
       </c>
       <c r="C72" t="n">
-        <v>0.21567</v>
+        <v>0.215586</v>
       </c>
       <c r="D72" t="n">
-        <v>0.249581</v>
+        <v>0.249524</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.307546</v>
+        <v>0.307918</v>
       </c>
       <c r="C73" t="n">
-        <v>0.214877</v>
+        <v>0.214726</v>
       </c>
       <c r="D73" t="n">
-        <v>0.248497</v>
+        <v>0.248089</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.29754</v>
+        <v>0.297959</v>
       </c>
       <c r="C74" t="n">
-        <v>0.214408</v>
+        <v>0.213916</v>
       </c>
       <c r="D74" t="n">
-        <v>0.247525</v>
+        <v>0.247419</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.286888</v>
+        <v>0.28698</v>
       </c>
       <c r="C75" t="n">
-        <v>0.213613</v>
+        <v>0.213249</v>
       </c>
       <c r="D75" t="n">
-        <v>0.246533</v>
+        <v>0.24686</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.275508</v>
+        <v>0.275779</v>
       </c>
       <c r="C76" t="n">
-        <v>0.213179</v>
+        <v>0.212908</v>
       </c>
       <c r="D76" t="n">
-        <v>0.245524</v>
+        <v>0.245614</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.26307</v>
+        <v>0.263338</v>
       </c>
       <c r="C77" t="n">
-        <v>0.212359</v>
+        <v>0.212473</v>
       </c>
       <c r="D77" t="n">
-        <v>0.244683</v>
+        <v>0.244969</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.249104</v>
+        <v>0.249619</v>
       </c>
       <c r="C78" t="n">
-        <v>0.211988</v>
+        <v>0.212026</v>
       </c>
       <c r="D78" t="n">
-        <v>0.243784</v>
+        <v>0.244226</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.234662</v>
+        <v>0.234963</v>
       </c>
       <c r="C79" t="n">
-        <v>0.211953</v>
+        <v>0.212007</v>
       </c>
       <c r="D79" t="n">
-        <v>0.243177</v>
+        <v>0.244116</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.218665</v>
+        <v>0.218903</v>
       </c>
       <c r="C80" t="n">
-        <v>0.211823</v>
+        <v>0.211811</v>
       </c>
       <c r="D80" t="n">
-        <v>0.24297</v>
+        <v>0.260025</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.353769</v>
+        <v>0.353605</v>
       </c>
       <c r="C81" t="n">
-        <v>0.226882</v>
+        <v>0.225859</v>
       </c>
       <c r="D81" t="n">
-        <v>0.262514</v>
+        <v>0.257657</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.348373</v>
+        <v>0.348403</v>
       </c>
       <c r="C82" t="n">
-        <v>0.222601</v>
+        <v>0.222023</v>
       </c>
       <c r="D82" t="n">
-        <v>0.257726</v>
+        <v>0.255509</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.341843</v>
+        <v>0.341975</v>
       </c>
       <c r="C83" t="n">
-        <v>0.220116</v>
+        <v>0.219587</v>
       </c>
       <c r="D83" t="n">
-        <v>0.255079</v>
+        <v>0.253797</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.335013</v>
+        <v>0.335024</v>
       </c>
       <c r="C84" t="n">
-        <v>0.21824</v>
+        <v>0.217794</v>
       </c>
       <c r="D84" t="n">
-        <v>0.253065</v>
+        <v>0.252564</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.327243</v>
+        <v>0.327353</v>
       </c>
       <c r="C85" t="n">
-        <v>0.217122</v>
+        <v>0.216718</v>
       </c>
       <c r="D85" t="n">
-        <v>0.251761</v>
+        <v>0.251239</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.318949</v>
+        <v>0.319106</v>
       </c>
       <c r="C86" t="n">
-        <v>0.216159</v>
+        <v>0.21585</v>
       </c>
       <c r="D86" t="n">
-        <v>0.250388</v>
+        <v>0.250094</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.309843</v>
+        <v>0.309996</v>
       </c>
       <c r="C87" t="n">
-        <v>0.215076</v>
+        <v>0.214843</v>
       </c>
       <c r="D87" t="n">
-        <v>0.248847</v>
+        <v>0.248565</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.300099</v>
+        <v>0.300299</v>
       </c>
       <c r="C88" t="n">
-        <v>0.214202</v>
+        <v>0.21403</v>
       </c>
       <c r="D88" t="n">
-        <v>0.247618</v>
+        <v>0.247508</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.289705</v>
+        <v>0.289927</v>
       </c>
       <c r="C89" t="n">
-        <v>0.213515</v>
+        <v>0.213529</v>
       </c>
       <c r="D89" t="n">
-        <v>0.24654</v>
+        <v>0.246678</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.277938</v>
+        <v>0.278257</v>
       </c>
       <c r="C90" t="n">
-        <v>0.213033</v>
+        <v>0.213118</v>
       </c>
       <c r="D90" t="n">
-        <v>0.245692</v>
+        <v>0.245912</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.265743</v>
+        <v>0.265901</v>
       </c>
       <c r="C91" t="n">
-        <v>0.212545</v>
+        <v>0.212728</v>
       </c>
       <c r="D91" t="n">
-        <v>0.244758</v>
+        <v>0.245126</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.252282</v>
+        <v>0.252556</v>
       </c>
       <c r="C92" t="n">
-        <v>0.212133</v>
+        <v>0.212239</v>
       </c>
       <c r="D92" t="n">
-        <v>0.243945</v>
+        <v>0.244282</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.238105</v>
+        <v>0.238199</v>
       </c>
       <c r="C93" t="n">
-        <v>0.211689</v>
+        <v>0.211803</v>
       </c>
       <c r="D93" t="n">
-        <v>0.243192</v>
+        <v>0.243828</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.222147</v>
+        <v>0.222284</v>
       </c>
       <c r="C94" t="n">
-        <v>0.211568</v>
+        <v>0.211784</v>
       </c>
       <c r="D94" t="n">
-        <v>0.242606</v>
+        <v>0.261858</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.35483</v>
+        <v>0.35494</v>
       </c>
       <c r="C95" t="n">
-        <v>0.226686</v>
+        <v>0.22663</v>
       </c>
       <c r="D95" t="n">
-        <v>0.262697</v>
+        <v>0.25862</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.349821</v>
+        <v>0.349683</v>
       </c>
       <c r="C96" t="n">
-        <v>0.223252</v>
+        <v>0.223354</v>
       </c>
       <c r="D96" t="n">
-        <v>0.258771</v>
+        <v>0.25656</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.343862</v>
+        <v>0.343653</v>
       </c>
       <c r="C97" t="n">
-        <v>0.220864</v>
+        <v>0.220689</v>
       </c>
       <c r="D97" t="n">
-        <v>0.255909</v>
+        <v>0.254862</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.33698</v>
+        <v>0.336933</v>
       </c>
       <c r="C98" t="n">
-        <v>0.218663</v>
+        <v>0.218522</v>
       </c>
       <c r="D98" t="n">
-        <v>0.253501</v>
+        <v>0.253112</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.329184</v>
+        <v>0.329172</v>
       </c>
       <c r="C99" t="n">
-        <v>0.217407</v>
+        <v>0.217268</v>
       </c>
       <c r="D99" t="n">
-        <v>0.251973</v>
+        <v>0.251808</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.321088</v>
+        <v>0.320992</v>
       </c>
       <c r="C100" t="n">
-        <v>0.216277</v>
+        <v>0.216085</v>
       </c>
       <c r="D100" t="n">
-        <v>0.250447</v>
+        <v>0.250562</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.312275</v>
+        <v>0.312101</v>
       </c>
       <c r="C101" t="n">
-        <v>0.215339</v>
+        <v>0.215108</v>
       </c>
       <c r="D101" t="n">
-        <v>0.249128</v>
+        <v>0.249345</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.302262</v>
+        <v>0.302345</v>
       </c>
       <c r="C102" t="n">
-        <v>0.214402</v>
+        <v>0.214275</v>
       </c>
       <c r="D102" t="n">
-        <v>0.247928</v>
+        <v>0.248248</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.291801</v>
+        <v>0.291792</v>
       </c>
       <c r="C103" t="n">
-        <v>0.213685</v>
+        <v>0.213541</v>
       </c>
       <c r="D103" t="n">
-        <v>0.246858</v>
+        <v>0.247176</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.280612</v>
+        <v>0.280573</v>
       </c>
       <c r="C104" t="n">
-        <v>0.213049</v>
+        <v>0.212897</v>
       </c>
       <c r="D104" t="n">
-        <v>0.245888</v>
+        <v>0.246362</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.268484</v>
+        <v>0.268722</v>
       </c>
       <c r="C105" t="n">
-        <v>0.21251</v>
+        <v>0.212417</v>
       </c>
       <c r="D105" t="n">
-        <v>0.244934</v>
+        <v>0.245326</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.255568</v>
+        <v>0.255872</v>
       </c>
       <c r="C106" t="n">
-        <v>0.212006</v>
+        <v>0.211878</v>
       </c>
       <c r="D106" t="n">
-        <v>0.243999</v>
+        <v>0.244384</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.241319</v>
+        <v>0.241333</v>
       </c>
       <c r="C107" t="n">
-        <v>0.211664</v>
+        <v>0.211561</v>
       </c>
       <c r="D107" t="n">
-        <v>0.243213</v>
+        <v>0.243909</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.226175</v>
+        <v>0.225858</v>
       </c>
       <c r="C108" t="n">
-        <v>0.211496</v>
+        <v>0.211413</v>
       </c>
       <c r="D108" t="n">
-        <v>0.243022</v>
+        <v>0.262192</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.20935</v>
+        <v>0.209399</v>
       </c>
       <c r="C109" t="n">
-        <v>0.211361</v>
+        <v>0.211483</v>
       </c>
       <c r="D109" t="n">
-        <v>0.242575</v>
+        <v>0.259524</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.350719</v>
+        <v>0.350753</v>
       </c>
       <c r="C110" t="n">
-        <v>0.223281</v>
+        <v>0.223387</v>
       </c>
       <c r="D110" t="n">
-        <v>0.258877</v>
+        <v>0.257275</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.344674</v>
+        <v>0.344817</v>
       </c>
       <c r="C111" t="n">
-        <v>0.220819</v>
+        <v>0.220786</v>
       </c>
       <c r="D111" t="n">
-        <v>0.25611</v>
+        <v>0.255635</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.338176</v>
+        <v>0.338399</v>
       </c>
       <c r="C112" t="n">
-        <v>0.219001</v>
+        <v>0.218979</v>
       </c>
       <c r="D112" t="n">
-        <v>0.253936</v>
+        <v>0.25387</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.330779</v>
+        <v>0.330948</v>
       </c>
       <c r="C113" t="n">
-        <v>0.217449</v>
+        <v>0.217434</v>
       </c>
       <c r="D113" t="n">
-        <v>0.251969</v>
+        <v>0.252303</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.322719</v>
+        <v>0.322987</v>
       </c>
       <c r="C114" t="n">
-        <v>0.216321</v>
+        <v>0.216296</v>
       </c>
       <c r="D114" t="n">
-        <v>0.250948</v>
+        <v>0.251231</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.313709</v>
+        <v>0.314038</v>
       </c>
       <c r="C115" t="n">
-        <v>0.215234</v>
+        <v>0.215265</v>
       </c>
       <c r="D115" t="n">
-        <v>0.249748</v>
+        <v>0.250391</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.304161</v>
+        <v>0.304527</v>
       </c>
       <c r="C116" t="n">
-        <v>0.214454</v>
+        <v>0.21447</v>
       </c>
       <c r="D116" t="n">
-        <v>0.248342</v>
+        <v>0.249113</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.293684</v>
+        <v>0.294178</v>
       </c>
       <c r="C117" t="n">
-        <v>0.213668</v>
+        <v>0.213874</v>
       </c>
       <c r="D117" t="n">
-        <v>0.247245</v>
+        <v>0.248388</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.282841</v>
+        <v>0.283265</v>
       </c>
       <c r="C118" t="n">
-        <v>0.213557</v>
+        <v>0.21358</v>
       </c>
       <c r="D118" t="n">
-        <v>0.246342</v>
+        <v>0.247168</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.271049</v>
+        <v>0.271384</v>
       </c>
       <c r="C119" t="n">
-        <v>0.212907</v>
+        <v>0.21292</v>
       </c>
       <c r="D119" t="n">
-        <v>0.245434</v>
+        <v>0.246539</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.25842</v>
+        <v>0.25863</v>
       </c>
       <c r="C120" t="n">
-        <v>0.212439</v>
+        <v>0.212509</v>
       </c>
       <c r="D120" t="n">
-        <v>0.244503</v>
+        <v>0.24557</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.24452</v>
+        <v>0.244696</v>
       </c>
       <c r="C121" t="n">
-        <v>0.212086</v>
+        <v>0.212111</v>
       </c>
       <c r="D121" t="n">
-        <v>0.244068</v>
+        <v>0.245056</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.229466</v>
+        <v>0.229604</v>
       </c>
       <c r="C122" t="n">
-        <v>0.211836</v>
+        <v>0.211829</v>
       </c>
       <c r="D122" t="n">
-        <v>0.243372</v>
+        <v>0.244607</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.212773</v>
+        <v>0.213032</v>
       </c>
       <c r="C123" t="n">
-        <v>0.211643</v>
+        <v>0.211852</v>
       </c>
       <c r="D123" t="n">
-        <v>0.242801</v>
+        <v>0.260827</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.351715</v>
+        <v>0.351894</v>
       </c>
       <c r="C124" t="n">
-        <v>0.224266</v>
+        <v>0.224417</v>
       </c>
       <c r="D124" t="n">
-        <v>0.260387</v>
+        <v>0.25832</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.345915</v>
+        <v>0.346117</v>
       </c>
       <c r="C125" t="n">
-        <v>0.221384</v>
+        <v>0.221441</v>
       </c>
       <c r="D125" t="n">
-        <v>0.256972</v>
+        <v>0.256523</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.33937</v>
+        <v>0.339681</v>
       </c>
       <c r="C126" t="n">
-        <v>0.219491</v>
+        <v>0.219563</v>
       </c>
       <c r="D126" t="n">
-        <v>0.2547</v>
+        <v>0.255422</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.332184</v>
+        <v>0.332384</v>
       </c>
       <c r="C127" t="n">
-        <v>0.217835</v>
+        <v>0.217938</v>
       </c>
       <c r="D127" t="n">
-        <v>0.252466</v>
+        <v>0.253605</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.324172</v>
+        <v>0.324377</v>
       </c>
       <c r="C128" t="n">
-        <v>0.216518</v>
+        <v>0.216578</v>
       </c>
       <c r="D128" t="n">
-        <v>0.250926</v>
+        <v>0.252068</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.315388</v>
+        <v>0.315766</v>
       </c>
       <c r="C129" t="n">
-        <v>0.215456</v>
+        <v>0.215536</v>
       </c>
       <c r="D129" t="n">
-        <v>0.249624</v>
+        <v>0.250613</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.305864</v>
+        <v>0.306197</v>
       </c>
       <c r="C130" t="n">
-        <v>0.214605</v>
+        <v>0.214702</v>
       </c>
       <c r="D130" t="n">
-        <v>0.248363</v>
+        <v>0.249951</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.295829</v>
+        <v>0.2961</v>
       </c>
       <c r="C131" t="n">
-        <v>0.213926</v>
+        <v>0.213982</v>
       </c>
       <c r="D131" t="n">
-        <v>0.247329</v>
+        <v>0.24866</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.285189</v>
+        <v>0.285397</v>
       </c>
       <c r="C132" t="n">
-        <v>0.213189</v>
+        <v>0.213255</v>
       </c>
       <c r="D132" t="n">
-        <v>0.246246</v>
+        <v>0.247677</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.273221</v>
+        <v>0.273581</v>
       </c>
       <c r="C133" t="n">
-        <v>0.212655</v>
+        <v>0.212666</v>
       </c>
       <c r="D133" t="n">
-        <v>0.245714</v>
+        <v>0.246936</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.260469</v>
+        <v>0.260712</v>
       </c>
       <c r="C134" t="n">
-        <v>0.212128</v>
+        <v>0.212154</v>
       </c>
       <c r="D134" t="n">
-        <v>0.244948</v>
+        <v>0.246156</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.246803</v>
+        <v>0.247053</v>
       </c>
       <c r="C135" t="n">
-        <v>0.211731</v>
+        <v>0.211767</v>
       </c>
       <c r="D135" t="n">
-        <v>0.244252</v>
+        <v>0.245773</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.232037</v>
+        <v>0.231983</v>
       </c>
       <c r="C136" t="n">
-        <v>0.211982</v>
+        <v>0.212018</v>
       </c>
       <c r="D136" t="n">
-        <v>0.243839</v>
+        <v>0.245253</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.215856</v>
+        <v>0.216071</v>
       </c>
       <c r="C137" t="n">
-        <v>0.211887</v>
+        <v>0.211879</v>
       </c>
       <c r="D137" t="n">
-        <v>0.243527</v>
+        <v>0.261979</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.352835</v>
+        <v>0.352936</v>
       </c>
       <c r="C138" t="n">
-        <v>0.225799</v>
+        <v>0.225793</v>
       </c>
       <c r="D138" t="n">
-        <v>0.261779</v>
+        <v>0.259332</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.347344</v>
+        <v>0.347471</v>
       </c>
       <c r="C139" t="n">
-        <v>0.222505</v>
+        <v>0.222479</v>
       </c>
       <c r="D139" t="n">
-        <v>0.258462</v>
+        <v>0.257727</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.340976</v>
+        <v>0.341117</v>
       </c>
       <c r="C140" t="n">
-        <v>0.220257</v>
+        <v>0.22018</v>
       </c>
       <c r="D140" t="n">
-        <v>0.255894</v>
+        <v>0.256003</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.3339</v>
+        <v>0.333993</v>
       </c>
       <c r="C141" t="n">
-        <v>0.218448</v>
+        <v>0.21843</v>
       </c>
       <c r="D141" t="n">
-        <v>0.254159</v>
+        <v>0.25461</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.326063</v>
+        <v>0.326195</v>
       </c>
       <c r="C142" t="n">
-        <v>0.217192</v>
+        <v>0.217158</v>
       </c>
       <c r="D142" t="n">
-        <v>0.252081</v>
+        <v>0.25289</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.317414</v>
+        <v>0.317613</v>
       </c>
       <c r="C143" t="n">
-        <v>0.216038</v>
+        <v>0.216062</v>
       </c>
       <c r="D143" t="n">
-        <v>0.250029</v>
+        <v>0.251629</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.280603</v>
+        <v>0.280476</v>
       </c>
       <c r="C2" t="n">
-        <v>0.192493</v>
+        <v>0.191804</v>
       </c>
       <c r="D2" t="n">
-        <v>0.227184</v>
+        <v>0.227476</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.268977</v>
+        <v>0.268015</v>
       </c>
       <c r="C3" t="n">
-        <v>0.197338</v>
+        <v>0.196213</v>
       </c>
       <c r="D3" t="n">
-        <v>0.229764</v>
+        <v>0.226127</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.258883</v>
+        <v>0.259938</v>
       </c>
       <c r="C4" t="n">
-        <v>0.195799</v>
+        <v>0.195698</v>
       </c>
       <c r="D4" t="n">
-        <v>0.227081</v>
+        <v>0.227751</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.247908</v>
+        <v>0.248409</v>
       </c>
       <c r="C5" t="n">
-        <v>0.195548</v>
+        <v>0.195139</v>
       </c>
       <c r="D5" t="n">
-        <v>0.228163</v>
+        <v>0.227895</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.236469</v>
+        <v>0.23608</v>
       </c>
       <c r="C6" t="n">
-        <v>0.195956</v>
+        <v>0.19632</v>
       </c>
       <c r="D6" t="n">
-        <v>0.232694</v>
+        <v>0.229228</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.225636</v>
+        <v>0.226035</v>
       </c>
       <c r="C7" t="n">
-        <v>0.196083</v>
+        <v>0.196642</v>
       </c>
       <c r="D7" t="n">
-        <v>0.228749</v>
+        <v>0.228326</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.210554</v>
+        <v>0.210275</v>
       </c>
       <c r="C8" t="n">
-        <v>0.197827</v>
+        <v>0.197474</v>
       </c>
       <c r="D8" t="n">
-        <v>0.229612</v>
+        <v>0.229262</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.195505</v>
+        <v>0.195773</v>
       </c>
       <c r="C9" t="n">
-        <v>0.199341</v>
+        <v>0.199671</v>
       </c>
       <c r="D9" t="n">
-        <v>0.254558</v>
+        <v>0.26079</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3376</v>
+        <v>0.334519</v>
       </c>
       <c r="C10" t="n">
-        <v>0.215126</v>
+        <v>0.215377</v>
       </c>
       <c r="D10" t="n">
-        <v>0.260182</v>
+        <v>0.255504</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.329275</v>
+        <v>0.329929</v>
       </c>
       <c r="C11" t="n">
-        <v>0.215414</v>
+        <v>0.215455</v>
       </c>
       <c r="D11" t="n">
-        <v>0.255061</v>
+        <v>0.254312</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.328146</v>
+        <v>0.324176</v>
       </c>
       <c r="C12" t="n">
-        <v>0.213964</v>
+        <v>0.213924</v>
       </c>
       <c r="D12" t="n">
-        <v>0.251359</v>
+        <v>0.251773</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.318112</v>
+        <v>0.318298</v>
       </c>
       <c r="C13" t="n">
-        <v>0.21298</v>
+        <v>0.212698</v>
       </c>
       <c r="D13" t="n">
-        <v>0.252355</v>
+        <v>0.2513</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.31073</v>
+        <v>0.311473</v>
       </c>
       <c r="C14" t="n">
-        <v>0.212187</v>
+        <v>0.21186</v>
       </c>
       <c r="D14" t="n">
-        <v>0.246296</v>
+        <v>0.24873</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.302273</v>
+        <v>0.302634</v>
       </c>
       <c r="C15" t="n">
-        <v>0.211794</v>
+        <v>0.212234</v>
       </c>
       <c r="D15" t="n">
-        <v>0.247862</v>
+        <v>0.249492</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.302572</v>
+        <v>0.29388</v>
       </c>
       <c r="C16" t="n">
-        <v>0.210831</v>
+        <v>0.2113</v>
       </c>
       <c r="D16" t="n">
-        <v>0.245443</v>
+        <v>0.249584</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.285374</v>
+        <v>0.284554</v>
       </c>
       <c r="C17" t="n">
-        <v>0.210919</v>
+        <v>0.211428</v>
       </c>
       <c r="D17" t="n">
-        <v>0.248476</v>
+        <v>0.248959</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.275704</v>
+        <v>0.276146</v>
       </c>
       <c r="C18" t="n">
-        <v>0.210832</v>
+        <v>0.21113</v>
       </c>
       <c r="D18" t="n">
-        <v>0.243005</v>
+        <v>0.24688</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.264649</v>
+        <v>0.264874</v>
       </c>
       <c r="C19" t="n">
-        <v>0.20998</v>
+        <v>0.21051</v>
       </c>
       <c r="D19" t="n">
-        <v>0.243143</v>
+        <v>0.24642</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.254569</v>
+        <v>0.254979</v>
       </c>
       <c r="C20" t="n">
-        <v>0.21063</v>
+        <v>0.209733</v>
       </c>
       <c r="D20" t="n">
-        <v>0.245888</v>
+        <v>0.248486</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.241001</v>
+        <v>0.241494</v>
       </c>
       <c r="C21" t="n">
-        <v>0.211081</v>
+        <v>0.210616</v>
       </c>
       <c r="D21" t="n">
-        <v>0.24151</v>
+        <v>0.24554</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.226266</v>
+        <v>0.226361</v>
       </c>
       <c r="C22" t="n">
-        <v>0.210216</v>
+        <v>0.211066</v>
       </c>
       <c r="D22" t="n">
-        <v>0.242933</v>
+        <v>0.241093</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.209769</v>
+        <v>0.210061</v>
       </c>
       <c r="C23" t="n">
-        <v>0.210383</v>
+        <v>0.210304</v>
       </c>
       <c r="D23" t="n">
-        <v>0.260118</v>
+        <v>0.259795</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.347499</v>
+        <v>0.347625</v>
       </c>
       <c r="C24" t="n">
-        <v>0.223574</v>
+        <v>0.223045</v>
       </c>
       <c r="D24" t="n">
-        <v>0.257966</v>
+        <v>0.257798</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.342007</v>
+        <v>0.342013</v>
       </c>
       <c r="C25" t="n">
-        <v>0.222529</v>
+        <v>0.222008</v>
       </c>
       <c r="D25" t="n">
-        <v>0.257613</v>
+        <v>0.257894</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.335571</v>
+        <v>0.335234</v>
       </c>
       <c r="C26" t="n">
-        <v>0.219613</v>
+        <v>0.219781</v>
       </c>
       <c r="D26" t="n">
-        <v>0.256014</v>
+        <v>0.256068</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.328773</v>
+        <v>0.32839</v>
       </c>
       <c r="C27" t="n">
-        <v>0.218522</v>
+        <v>0.218689</v>
       </c>
       <c r="D27" t="n">
-        <v>0.252978</v>
+        <v>0.252942</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.32257</v>
+        <v>0.322379</v>
       </c>
       <c r="C28" t="n">
-        <v>0.21655</v>
+        <v>0.216662</v>
       </c>
       <c r="D28" t="n">
-        <v>0.251783</v>
+        <v>0.251437</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.313241</v>
+        <v>0.313631</v>
       </c>
       <c r="C29" t="n">
-        <v>0.215696</v>
+        <v>0.215811</v>
       </c>
       <c r="D29" t="n">
-        <v>0.250107</v>
+        <v>0.249809</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.305139</v>
+        <v>0.305195</v>
       </c>
       <c r="C30" t="n">
-        <v>0.214526</v>
+        <v>0.215018</v>
       </c>
       <c r="D30" t="n">
-        <v>0.249044</v>
+        <v>0.249054</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.294655</v>
+        <v>0.294788</v>
       </c>
       <c r="C31" t="n">
-        <v>0.214045</v>
+        <v>0.214107</v>
       </c>
       <c r="D31" t="n">
-        <v>0.247624</v>
+        <v>0.247958</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.284309</v>
+        <v>0.284484</v>
       </c>
       <c r="C32" t="n">
-        <v>0.214051</v>
+        <v>0.214136</v>
       </c>
       <c r="D32" t="n">
-        <v>0.246856</v>
+        <v>0.246844</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.274144</v>
+        <v>0.273956</v>
       </c>
       <c r="C33" t="n">
-        <v>0.213056</v>
+        <v>0.213147</v>
       </c>
       <c r="D33" t="n">
-        <v>0.245897</v>
+        <v>0.246091</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.262215</v>
+        <v>0.262068</v>
       </c>
       <c r="C34" t="n">
-        <v>0.212618</v>
+        <v>0.212463</v>
       </c>
       <c r="D34" t="n">
-        <v>0.244761</v>
+        <v>0.2445</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.248491</v>
+        <v>0.248478</v>
       </c>
       <c r="C35" t="n">
-        <v>0.21223</v>
+        <v>0.212321</v>
       </c>
       <c r="D35" t="n">
-        <v>0.24448</v>
+        <v>0.244877</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.234852</v>
+        <v>0.235035</v>
       </c>
       <c r="C36" t="n">
-        <v>0.212085</v>
+        <v>0.212158</v>
       </c>
       <c r="D36" t="n">
-        <v>0.245949</v>
+        <v>0.245389</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.219476</v>
+        <v>0.219944</v>
       </c>
       <c r="C37" t="n">
-        <v>0.212999</v>
+        <v>0.212935</v>
       </c>
       <c r="D37" t="n">
-        <v>0.262199</v>
+        <v>0.262013</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.351833</v>
+        <v>0.352191</v>
       </c>
       <c r="C38" t="n">
-        <v>0.228074</v>
+        <v>0.228296</v>
       </c>
       <c r="D38" t="n">
-        <v>0.259439</v>
+        <v>0.259423</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.347192</v>
+        <v>0.347412</v>
       </c>
       <c r="C39" t="n">
-        <v>0.226375</v>
+        <v>0.225709</v>
       </c>
       <c r="D39" t="n">
-        <v>0.257275</v>
+        <v>0.257348</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.341</v>
+        <v>0.341605</v>
       </c>
       <c r="C40" t="n">
-        <v>0.222848</v>
+        <v>0.222949</v>
       </c>
       <c r="D40" t="n">
-        <v>0.256075</v>
+        <v>0.255646</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.334127</v>
+        <v>0.334522</v>
       </c>
       <c r="C41" t="n">
-        <v>0.219926</v>
+        <v>0.219891</v>
       </c>
       <c r="D41" t="n">
-        <v>0.253932</v>
+        <v>0.253807</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.327383</v>
+        <v>0.326885</v>
       </c>
       <c r="C42" t="n">
-        <v>0.218173</v>
+        <v>0.218185</v>
       </c>
       <c r="D42" t="n">
-        <v>0.252761</v>
+        <v>0.252747</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.320853</v>
+        <v>0.319516</v>
       </c>
       <c r="C43" t="n">
-        <v>0.217146</v>
+        <v>0.217229</v>
       </c>
       <c r="D43" t="n">
-        <v>0.251443</v>
+        <v>0.251209</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.311728</v>
+        <v>0.310504</v>
       </c>
       <c r="C44" t="n">
-        <v>0.215642</v>
+        <v>0.215709</v>
       </c>
       <c r="D44" t="n">
-        <v>0.249115</v>
+        <v>0.249206</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.302845</v>
+        <v>0.301984</v>
       </c>
       <c r="C45" t="n">
-        <v>0.215143</v>
+        <v>0.21502</v>
       </c>
       <c r="D45" t="n">
-        <v>0.248845</v>
+        <v>0.248757</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.292294</v>
+        <v>0.291417</v>
       </c>
       <c r="C46" t="n">
-        <v>0.214149</v>
+        <v>0.214189</v>
       </c>
       <c r="D46" t="n">
-        <v>0.247553</v>
+        <v>0.247401</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.280588</v>
+        <v>0.280047</v>
       </c>
       <c r="C47" t="n">
-        <v>0.214138</v>
+        <v>0.213823</v>
       </c>
       <c r="D47" t="n">
-        <v>0.246611</v>
+        <v>0.246698</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.269721</v>
+        <v>0.26868</v>
       </c>
       <c r="C48" t="n">
-        <v>0.21305</v>
+        <v>0.212926</v>
       </c>
       <c r="D48" t="n">
-        <v>0.246049</v>
+        <v>0.246581</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.257145</v>
+        <v>0.256494</v>
       </c>
       <c r="C49" t="n">
-        <v>0.212686</v>
+        <v>0.212493</v>
       </c>
       <c r="D49" t="n">
-        <v>0.245509</v>
+        <v>0.245482</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.242911</v>
+        <v>0.242497</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2127</v>
+        <v>0.212497</v>
       </c>
       <c r="D50" t="n">
-        <v>0.246525</v>
+        <v>0.246787</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.227656</v>
+        <v>0.227122</v>
       </c>
       <c r="C51" t="n">
-        <v>0.21227</v>
+        <v>0.212509</v>
       </c>
       <c r="D51" t="n">
-        <v>0.261686</v>
+        <v>0.261628</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.210733</v>
+        <v>0.210127</v>
       </c>
       <c r="C52" t="n">
-        <v>0.212134</v>
+        <v>0.21229</v>
       </c>
       <c r="D52" t="n">
-        <v>0.258302</v>
+        <v>0.258733</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.350556</v>
+        <v>0.350333</v>
       </c>
       <c r="C53" t="n">
-        <v>0.224779</v>
+        <v>0.224811</v>
       </c>
       <c r="D53" t="n">
-        <v>0.256383</v>
+        <v>0.256643</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.344786</v>
+        <v>0.344522</v>
       </c>
       <c r="C54" t="n">
-        <v>0.222268</v>
+        <v>0.222015</v>
       </c>
       <c r="D54" t="n">
-        <v>0.254876</v>
+        <v>0.255104</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.338416</v>
+        <v>0.338499</v>
       </c>
       <c r="C55" t="n">
-        <v>0.219498</v>
+        <v>0.219565</v>
       </c>
       <c r="D55" t="n">
-        <v>0.253413</v>
+        <v>0.253619</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.331247</v>
+        <v>0.331058</v>
       </c>
       <c r="C56" t="n">
-        <v>0.217995</v>
+        <v>0.218161</v>
       </c>
       <c r="D56" t="n">
-        <v>0.251703</v>
+        <v>0.251991</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.322984</v>
+        <v>0.322958</v>
       </c>
       <c r="C57" t="n">
-        <v>0.216672</v>
+        <v>0.216795</v>
       </c>
       <c r="D57" t="n">
-        <v>0.250391</v>
+        <v>0.250533</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.314698</v>
+        <v>0.314426</v>
       </c>
       <c r="C58" t="n">
-        <v>0.215775</v>
+        <v>0.215756</v>
       </c>
       <c r="D58" t="n">
-        <v>0.249098</v>
+        <v>0.249265</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.305628</v>
+        <v>0.305391</v>
       </c>
       <c r="C59" t="n">
-        <v>0.214353</v>
+        <v>0.214456</v>
       </c>
       <c r="D59" t="n">
-        <v>0.247935</v>
+        <v>0.2482</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.295442</v>
+        <v>0.295117</v>
       </c>
       <c r="C60" t="n">
-        <v>0.213978</v>
+        <v>0.214161</v>
       </c>
       <c r="D60" t="n">
-        <v>0.246914</v>
+        <v>0.247028</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.284292</v>
+        <v>0.284128</v>
       </c>
       <c r="C61" t="n">
-        <v>0.213498</v>
+        <v>0.213731</v>
       </c>
       <c r="D61" t="n">
-        <v>0.246343</v>
+        <v>0.246676</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272668</v>
+        <v>0.272512</v>
       </c>
       <c r="C62" t="n">
-        <v>0.212866</v>
+        <v>0.212991</v>
       </c>
       <c r="D62" t="n">
-        <v>0.245484</v>
+        <v>0.245732</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.26016</v>
+        <v>0.259736</v>
       </c>
       <c r="C63" t="n">
-        <v>0.212403</v>
+        <v>0.21243</v>
       </c>
       <c r="D63" t="n">
-        <v>0.244438</v>
+        <v>0.244681</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.246285</v>
+        <v>0.246247</v>
       </c>
       <c r="C64" t="n">
-        <v>0.211992</v>
+        <v>0.21223</v>
       </c>
       <c r="D64" t="n">
-        <v>0.244223</v>
+        <v>0.244648</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.230883</v>
+        <v>0.230545</v>
       </c>
       <c r="C65" t="n">
-        <v>0.211742</v>
+        <v>0.211986</v>
       </c>
       <c r="D65" t="n">
-        <v>0.243259</v>
+        <v>0.243371</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.214011</v>
+        <v>0.21399</v>
       </c>
       <c r="C66" t="n">
-        <v>0.211866</v>
+        <v>0.21211</v>
       </c>
       <c r="D66" t="n">
-        <v>0.259338</v>
+        <v>0.259704</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.352242</v>
+        <v>0.35241</v>
       </c>
       <c r="C67" t="n">
-        <v>0.226365</v>
+        <v>0.226267</v>
       </c>
       <c r="D67" t="n">
-        <v>0.256814</v>
+        <v>0.257289</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.346993</v>
+        <v>0.347141</v>
       </c>
       <c r="C68" t="n">
-        <v>0.222513</v>
+        <v>0.222671</v>
       </c>
       <c r="D68" t="n">
-        <v>0.254848</v>
+        <v>0.255297</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.340829</v>
+        <v>0.340895</v>
       </c>
       <c r="C69" t="n">
-        <v>0.219808</v>
+        <v>0.219933</v>
       </c>
       <c r="D69" t="n">
-        <v>0.253107</v>
+        <v>0.253712</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.333772</v>
+        <v>0.333734</v>
       </c>
       <c r="C70" t="n">
-        <v>0.217742</v>
+        <v>0.217975</v>
       </c>
       <c r="D70" t="n">
-        <v>0.251593</v>
+        <v>0.251925</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.325713</v>
+        <v>0.325905</v>
       </c>
       <c r="C71" t="n">
-        <v>0.216672</v>
+        <v>0.216823</v>
       </c>
       <c r="D71" t="n">
-        <v>0.250453</v>
+        <v>0.250957</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.31714</v>
+        <v>0.31727</v>
       </c>
       <c r="C72" t="n">
-        <v>0.215586</v>
+        <v>0.215726</v>
       </c>
       <c r="D72" t="n">
-        <v>0.249524</v>
+        <v>0.250054</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.307918</v>
+        <v>0.307692</v>
       </c>
       <c r="C73" t="n">
-        <v>0.214726</v>
+        <v>0.214955</v>
       </c>
       <c r="D73" t="n">
-        <v>0.248089</v>
+        <v>0.248427</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.297959</v>
+        <v>0.297763</v>
       </c>
       <c r="C74" t="n">
-        <v>0.213916</v>
+        <v>0.214246</v>
       </c>
       <c r="D74" t="n">
-        <v>0.247419</v>
+        <v>0.24767</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.28698</v>
+        <v>0.286916</v>
       </c>
       <c r="C75" t="n">
-        <v>0.213249</v>
+        <v>0.213505</v>
       </c>
       <c r="D75" t="n">
-        <v>0.24686</v>
+        <v>0.247123</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.275779</v>
+        <v>0.27549</v>
       </c>
       <c r="C76" t="n">
-        <v>0.212908</v>
+        <v>0.213123</v>
       </c>
       <c r="D76" t="n">
-        <v>0.245614</v>
+        <v>0.245862</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.263338</v>
+        <v>0.263142</v>
       </c>
       <c r="C77" t="n">
-        <v>0.212473</v>
+        <v>0.212457</v>
       </c>
       <c r="D77" t="n">
-        <v>0.244969</v>
+        <v>0.245191</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.249619</v>
+        <v>0.249369</v>
       </c>
       <c r="C78" t="n">
-        <v>0.212026</v>
+        <v>0.212212</v>
       </c>
       <c r="D78" t="n">
-        <v>0.244226</v>
+        <v>0.24453</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.234963</v>
+        <v>0.234657</v>
       </c>
       <c r="C79" t="n">
-        <v>0.212007</v>
+        <v>0.212262</v>
       </c>
       <c r="D79" t="n">
-        <v>0.244116</v>
+        <v>0.244435</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.218903</v>
+        <v>0.218891</v>
       </c>
       <c r="C80" t="n">
-        <v>0.211811</v>
+        <v>0.211842</v>
       </c>
       <c r="D80" t="n">
-        <v>0.260025</v>
+        <v>0.26058</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.353605</v>
+        <v>0.353888</v>
       </c>
       <c r="C81" t="n">
-        <v>0.225859</v>
+        <v>0.226713</v>
       </c>
       <c r="D81" t="n">
-        <v>0.257657</v>
+        <v>0.25785</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.348403</v>
+        <v>0.34841</v>
       </c>
       <c r="C82" t="n">
-        <v>0.222023</v>
+        <v>0.222091</v>
       </c>
       <c r="D82" t="n">
-        <v>0.255509</v>
+        <v>0.255868</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.341975</v>
+        <v>0.341996</v>
       </c>
       <c r="C83" t="n">
-        <v>0.219587</v>
+        <v>0.21965</v>
       </c>
       <c r="D83" t="n">
-        <v>0.253797</v>
+        <v>0.254014</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.335024</v>
+        <v>0.334916</v>
       </c>
       <c r="C84" t="n">
-        <v>0.217794</v>
+        <v>0.217837</v>
       </c>
       <c r="D84" t="n">
-        <v>0.252564</v>
+        <v>0.25273</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.327353</v>
+        <v>0.327338</v>
       </c>
       <c r="C85" t="n">
-        <v>0.216718</v>
+        <v>0.216878</v>
       </c>
       <c r="D85" t="n">
-        <v>0.251239</v>
+        <v>0.251509</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.319106</v>
+        <v>0.319021</v>
       </c>
       <c r="C86" t="n">
-        <v>0.21585</v>
+        <v>0.215948</v>
       </c>
       <c r="D86" t="n">
-        <v>0.250094</v>
+        <v>0.250252</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.309996</v>
+        <v>0.309944</v>
       </c>
       <c r="C87" t="n">
-        <v>0.214843</v>
+        <v>0.214931</v>
       </c>
       <c r="D87" t="n">
-        <v>0.248565</v>
+        <v>0.248778</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.300299</v>
+        <v>0.30015</v>
       </c>
       <c r="C88" t="n">
-        <v>0.21403</v>
+        <v>0.214477</v>
       </c>
       <c r="D88" t="n">
-        <v>0.247508</v>
+        <v>0.247799</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.289927</v>
+        <v>0.289738</v>
       </c>
       <c r="C89" t="n">
-        <v>0.213529</v>
+        <v>0.213454</v>
       </c>
       <c r="D89" t="n">
-        <v>0.246678</v>
+        <v>0.246916</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.278257</v>
+        <v>0.278102</v>
       </c>
       <c r="C90" t="n">
-        <v>0.213118</v>
+        <v>0.21319</v>
       </c>
       <c r="D90" t="n">
-        <v>0.245912</v>
+        <v>0.246024</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.265901</v>
+        <v>0.265923</v>
       </c>
       <c r="C91" t="n">
-        <v>0.212728</v>
+        <v>0.212825</v>
       </c>
       <c r="D91" t="n">
-        <v>0.245126</v>
+        <v>0.245217</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.252556</v>
+        <v>0.252289</v>
       </c>
       <c r="C92" t="n">
-        <v>0.212239</v>
+        <v>0.212394</v>
       </c>
       <c r="D92" t="n">
-        <v>0.244282</v>
+        <v>0.24435</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.238199</v>
+        <v>0.238178</v>
       </c>
       <c r="C93" t="n">
-        <v>0.211803</v>
+        <v>0.211905</v>
       </c>
       <c r="D93" t="n">
-        <v>0.243828</v>
+        <v>0.243884</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.222284</v>
+        <v>0.222161</v>
       </c>
       <c r="C94" t="n">
-        <v>0.211784</v>
+        <v>0.211856</v>
       </c>
       <c r="D94" t="n">
-        <v>0.261858</v>
+        <v>0.261535</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.35494</v>
+        <v>0.355022</v>
       </c>
       <c r="C95" t="n">
-        <v>0.22663</v>
+        <v>0.226745</v>
       </c>
       <c r="D95" t="n">
-        <v>0.25862</v>
+        <v>0.258659</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.349683</v>
+        <v>0.349813</v>
       </c>
       <c r="C96" t="n">
-        <v>0.223354</v>
+        <v>0.223252</v>
       </c>
       <c r="D96" t="n">
-        <v>0.25656</v>
+        <v>0.256426</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.343653</v>
+        <v>0.34381</v>
       </c>
       <c r="C97" t="n">
-        <v>0.220689</v>
+        <v>0.22074</v>
       </c>
       <c r="D97" t="n">
-        <v>0.254862</v>
+        <v>0.254603</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.336933</v>
+        <v>0.336979</v>
       </c>
       <c r="C98" t="n">
-        <v>0.218522</v>
+        <v>0.218635</v>
       </c>
       <c r="D98" t="n">
-        <v>0.253112</v>
+        <v>0.253067</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.329172</v>
+        <v>0.329316</v>
       </c>
       <c r="C99" t="n">
-        <v>0.217268</v>
+        <v>0.217321</v>
       </c>
       <c r="D99" t="n">
-        <v>0.251808</v>
+        <v>0.251878</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.320992</v>
+        <v>0.321056</v>
       </c>
       <c r="C100" t="n">
-        <v>0.216085</v>
+        <v>0.21614</v>
       </c>
       <c r="D100" t="n">
-        <v>0.250562</v>
+        <v>0.250498</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.312101</v>
+        <v>0.312115</v>
       </c>
       <c r="C101" t="n">
-        <v>0.215108</v>
+        <v>0.215189</v>
       </c>
       <c r="D101" t="n">
-        <v>0.249345</v>
+        <v>0.249272</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.302345</v>
+        <v>0.302216</v>
       </c>
       <c r="C102" t="n">
-        <v>0.214275</v>
+        <v>0.21436</v>
       </c>
       <c r="D102" t="n">
-        <v>0.248248</v>
+        <v>0.248321</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.291792</v>
+        <v>0.291775</v>
       </c>
       <c r="C103" t="n">
-        <v>0.213541</v>
+        <v>0.213623</v>
       </c>
       <c r="D103" t="n">
-        <v>0.247176</v>
+        <v>0.24735</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.280573</v>
+        <v>0.280547</v>
       </c>
       <c r="C104" t="n">
-        <v>0.212897</v>
+        <v>0.213017</v>
       </c>
       <c r="D104" t="n">
-        <v>0.246362</v>
+        <v>0.246541</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.268722</v>
+        <v>0.268491</v>
       </c>
       <c r="C105" t="n">
-        <v>0.212417</v>
+        <v>0.212553</v>
       </c>
       <c r="D105" t="n">
-        <v>0.245326</v>
+        <v>0.2454</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.255872</v>
+        <v>0.25578</v>
       </c>
       <c r="C106" t="n">
-        <v>0.211878</v>
+        <v>0.212018</v>
       </c>
       <c r="D106" t="n">
-        <v>0.244384</v>
+        <v>0.244591</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.241333</v>
+        <v>0.241409</v>
       </c>
       <c r="C107" t="n">
-        <v>0.211561</v>
+        <v>0.211683</v>
       </c>
       <c r="D107" t="n">
-        <v>0.243909</v>
+        <v>0.243862</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.225858</v>
+        <v>0.226046</v>
       </c>
       <c r="C108" t="n">
-        <v>0.211413</v>
+        <v>0.2115</v>
       </c>
       <c r="D108" t="n">
-        <v>0.262192</v>
+        <v>0.261831</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.209399</v>
+        <v>0.209526</v>
       </c>
       <c r="C109" t="n">
-        <v>0.211483</v>
+        <v>0.211625</v>
       </c>
       <c r="D109" t="n">
-        <v>0.259524</v>
+        <v>0.259276</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.350753</v>
+        <v>0.350641</v>
       </c>
       <c r="C110" t="n">
-        <v>0.223387</v>
+        <v>0.223359</v>
       </c>
       <c r="D110" t="n">
-        <v>0.257275</v>
+        <v>0.257108</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.344817</v>
+        <v>0.344783</v>
       </c>
       <c r="C111" t="n">
-        <v>0.220786</v>
+        <v>0.220804</v>
       </c>
       <c r="D111" t="n">
-        <v>0.255635</v>
+        <v>0.255318</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.338399</v>
+        <v>0.338139</v>
       </c>
       <c r="C112" t="n">
-        <v>0.218979</v>
+        <v>0.218897</v>
       </c>
       <c r="D112" t="n">
-        <v>0.25387</v>
+        <v>0.253974</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.330948</v>
+        <v>0.33076</v>
       </c>
       <c r="C113" t="n">
-        <v>0.217434</v>
+        <v>0.217414</v>
       </c>
       <c r="D113" t="n">
-        <v>0.252303</v>
+        <v>0.252533</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.322987</v>
+        <v>0.322653</v>
       </c>
       <c r="C114" t="n">
-        <v>0.216296</v>
+        <v>0.216304</v>
       </c>
       <c r="D114" t="n">
-        <v>0.251231</v>
+        <v>0.250869</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.314038</v>
+        <v>0.313774</v>
       </c>
       <c r="C115" t="n">
-        <v>0.215265</v>
+        <v>0.215267</v>
       </c>
       <c r="D115" t="n">
-        <v>0.250391</v>
+        <v>0.250359</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.304527</v>
+        <v>0.30429</v>
       </c>
       <c r="C116" t="n">
-        <v>0.21447</v>
+        <v>0.214498</v>
       </c>
       <c r="D116" t="n">
-        <v>0.249113</v>
+        <v>0.24943</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.294178</v>
+        <v>0.293913</v>
       </c>
       <c r="C117" t="n">
-        <v>0.213874</v>
+        <v>0.213777</v>
       </c>
       <c r="D117" t="n">
-        <v>0.248388</v>
+        <v>0.248204</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.283265</v>
+        <v>0.283106</v>
       </c>
       <c r="C118" t="n">
-        <v>0.21358</v>
+        <v>0.21354</v>
       </c>
       <c r="D118" t="n">
-        <v>0.247168</v>
+        <v>0.247152</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.271384</v>
+        <v>0.271129</v>
       </c>
       <c r="C119" t="n">
-        <v>0.21292</v>
+        <v>0.212896</v>
       </c>
       <c r="D119" t="n">
-        <v>0.246539</v>
+        <v>0.246236</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.25863</v>
+        <v>0.258405</v>
       </c>
       <c r="C120" t="n">
-        <v>0.212509</v>
+        <v>0.21245</v>
       </c>
       <c r="D120" t="n">
-        <v>0.24557</v>
+        <v>0.245531</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.244696</v>
+        <v>0.24442</v>
       </c>
       <c r="C121" t="n">
-        <v>0.212111</v>
+        <v>0.212082</v>
       </c>
       <c r="D121" t="n">
-        <v>0.245056</v>
+        <v>0.244879</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.229604</v>
+        <v>0.229646</v>
       </c>
       <c r="C122" t="n">
-        <v>0.211829</v>
+        <v>0.21185</v>
       </c>
       <c r="D122" t="n">
-        <v>0.244607</v>
+        <v>0.244792</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.213032</v>
+        <v>0.213067</v>
       </c>
       <c r="C123" t="n">
-        <v>0.211852</v>
+        <v>0.211653</v>
       </c>
       <c r="D123" t="n">
-        <v>0.260827</v>
+        <v>0.260733</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.351894</v>
+        <v>0.351711</v>
       </c>
       <c r="C124" t="n">
-        <v>0.224417</v>
+        <v>0.2243</v>
       </c>
       <c r="D124" t="n">
-        <v>0.25832</v>
+        <v>0.258499</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.346117</v>
+        <v>0.345922</v>
       </c>
       <c r="C125" t="n">
-        <v>0.221441</v>
+        <v>0.221312</v>
       </c>
       <c r="D125" t="n">
-        <v>0.256523</v>
+        <v>0.256731</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.339681</v>
+        <v>0.339329</v>
       </c>
       <c r="C126" t="n">
-        <v>0.219563</v>
+        <v>0.219432</v>
       </c>
       <c r="D126" t="n">
-        <v>0.255422</v>
+        <v>0.254993</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.332384</v>
+        <v>0.332228</v>
       </c>
       <c r="C127" t="n">
-        <v>0.217938</v>
+        <v>0.217815</v>
       </c>
       <c r="D127" t="n">
-        <v>0.253605</v>
+        <v>0.253611</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.324377</v>
+        <v>0.324093</v>
       </c>
       <c r="C128" t="n">
-        <v>0.216578</v>
+        <v>0.216491</v>
       </c>
       <c r="D128" t="n">
-        <v>0.252068</v>
+        <v>0.251908</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.315766</v>
+        <v>0.315427</v>
       </c>
       <c r="C129" t="n">
-        <v>0.215536</v>
+        <v>0.21545</v>
       </c>
       <c r="D129" t="n">
-        <v>0.250613</v>
+        <v>0.250642</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.306197</v>
+        <v>0.305869</v>
       </c>
       <c r="C130" t="n">
-        <v>0.214702</v>
+        <v>0.21462</v>
       </c>
       <c r="D130" t="n">
-        <v>0.249951</v>
+        <v>0.249416</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.2961</v>
+        <v>0.29578</v>
       </c>
       <c r="C131" t="n">
-        <v>0.213982</v>
+        <v>0.213868</v>
       </c>
       <c r="D131" t="n">
-        <v>0.24866</v>
+        <v>0.248295</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.285397</v>
+        <v>0.285362</v>
       </c>
       <c r="C132" t="n">
-        <v>0.213255</v>
+        <v>0.213184</v>
       </c>
       <c r="D132" t="n">
-        <v>0.247677</v>
+        <v>0.247258</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.273581</v>
+        <v>0.273391</v>
       </c>
       <c r="C133" t="n">
-        <v>0.212666</v>
+        <v>0.212624</v>
       </c>
       <c r="D133" t="n">
-        <v>0.246936</v>
+        <v>0.246647</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.260712</v>
+        <v>0.260644</v>
       </c>
       <c r="C134" t="n">
-        <v>0.212154</v>
+        <v>0.212134</v>
       </c>
       <c r="D134" t="n">
-        <v>0.246156</v>
+        <v>0.245847</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.247053</v>
+        <v>0.24672</v>
       </c>
       <c r="C135" t="n">
-        <v>0.211767</v>
+        <v>0.211766</v>
       </c>
       <c r="D135" t="n">
-        <v>0.245773</v>
+        <v>0.245932</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.231983</v>
+        <v>0.23197</v>
       </c>
       <c r="C136" t="n">
-        <v>0.212018</v>
+        <v>0.212005</v>
       </c>
       <c r="D136" t="n">
-        <v>0.245253</v>
+        <v>0.244925</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.216071</v>
+        <v>0.215821</v>
       </c>
       <c r="C137" t="n">
-        <v>0.211879</v>
+        <v>0.211883</v>
       </c>
       <c r="D137" t="n">
-        <v>0.261979</v>
+        <v>0.261875</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.352936</v>
+        <v>0.352741</v>
       </c>
       <c r="C138" t="n">
-        <v>0.225793</v>
+        <v>0.225824</v>
       </c>
       <c r="D138" t="n">
-        <v>0.259332</v>
+        <v>0.259612</v>
       </c>
     </row>
     <row r="139">
@@ -5170,10 +5170,10 @@
         <v>0.347471</v>
       </c>
       <c r="C139" t="n">
-        <v>0.222479</v>
+        <v>0.222556</v>
       </c>
       <c r="D139" t="n">
-        <v>0.257727</v>
+        <v>0.257711</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.341117</v>
+        <v>0.34101</v>
       </c>
       <c r="C140" t="n">
-        <v>0.22018</v>
+        <v>0.220223</v>
       </c>
       <c r="D140" t="n">
-        <v>0.256003</v>
+        <v>0.255311</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.333993</v>
+        <v>0.333951</v>
       </c>
       <c r="C141" t="n">
-        <v>0.21843</v>
+        <v>0.218509</v>
       </c>
       <c r="D141" t="n">
-        <v>0.25461</v>
+        <v>0.253486</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.326195</v>
+        <v>0.326012</v>
       </c>
       <c r="C142" t="n">
-        <v>0.217158</v>
+        <v>0.217168</v>
       </c>
       <c r="D142" t="n">
-        <v>0.25289</v>
+        <v>0.253061</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.317613</v>
+        <v>0.31753</v>
       </c>
       <c r="C143" t="n">
-        <v>0.216062</v>
+        <v>0.21605</v>
       </c>
       <c r="D143" t="n">
-        <v>0.251629</v>
+        <v>0.251857</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.280476</v>
+        <v>0.287773</v>
       </c>
       <c r="C2" t="n">
-        <v>0.191804</v>
+        <v>0.193333</v>
       </c>
       <c r="D2" t="n">
-        <v>0.227476</v>
+        <v>0.229908</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.268015</v>
+        <v>0.26876</v>
       </c>
       <c r="C3" t="n">
-        <v>0.196213</v>
+        <v>0.195172</v>
       </c>
       <c r="D3" t="n">
-        <v>0.226127</v>
+        <v>0.230235</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.259938</v>
+        <v>0.258696</v>
       </c>
       <c r="C4" t="n">
-        <v>0.195698</v>
+        <v>0.196093</v>
       </c>
       <c r="D4" t="n">
-        <v>0.227751</v>
+        <v>0.227043</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.248409</v>
+        <v>0.248363</v>
       </c>
       <c r="C5" t="n">
-        <v>0.195139</v>
+        <v>0.195971</v>
       </c>
       <c r="D5" t="n">
-        <v>0.227895</v>
+        <v>0.228189</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.23608</v>
+        <v>0.234478</v>
       </c>
       <c r="C6" t="n">
-        <v>0.19632</v>
+        <v>0.196182</v>
       </c>
       <c r="D6" t="n">
-        <v>0.229228</v>
+        <v>0.22927</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.226035</v>
+        <v>0.225148</v>
       </c>
       <c r="C7" t="n">
-        <v>0.196642</v>
+        <v>0.196852</v>
       </c>
       <c r="D7" t="n">
-        <v>0.228326</v>
+        <v>0.229081</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.210275</v>
+        <v>0.209499</v>
       </c>
       <c r="C8" t="n">
-        <v>0.197474</v>
+        <v>0.198105</v>
       </c>
       <c r="D8" t="n">
-        <v>0.229262</v>
+        <v>0.229051</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.195773</v>
+        <v>0.19537</v>
       </c>
       <c r="C9" t="n">
-        <v>0.199671</v>
+        <v>0.199478</v>
       </c>
       <c r="D9" t="n">
-        <v>0.26079</v>
+        <v>0.261227</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.334519</v>
+        <v>0.345017</v>
       </c>
       <c r="C10" t="n">
-        <v>0.215377</v>
+        <v>0.215632</v>
       </c>
       <c r="D10" t="n">
-        <v>0.255504</v>
+        <v>0.255443</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.329929</v>
+        <v>0.33009</v>
       </c>
       <c r="C11" t="n">
-        <v>0.215455</v>
+        <v>0.21521</v>
       </c>
       <c r="D11" t="n">
-        <v>0.254312</v>
+        <v>0.25606</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.324176</v>
+        <v>0.323546</v>
       </c>
       <c r="C12" t="n">
-        <v>0.213924</v>
+        <v>0.21372</v>
       </c>
       <c r="D12" t="n">
-        <v>0.251773</v>
+        <v>0.248686</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.318298</v>
+        <v>0.318088</v>
       </c>
       <c r="C13" t="n">
-        <v>0.212698</v>
+        <v>0.213054</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2513</v>
+        <v>0.249783</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.311473</v>
+        <v>0.311771</v>
       </c>
       <c r="C14" t="n">
-        <v>0.21186</v>
+        <v>0.211987</v>
       </c>
       <c r="D14" t="n">
-        <v>0.24873</v>
+        <v>0.246375</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.302634</v>
+        <v>0.303099</v>
       </c>
       <c r="C15" t="n">
-        <v>0.212234</v>
+        <v>0.212072</v>
       </c>
       <c r="D15" t="n">
-        <v>0.249492</v>
+        <v>0.249813</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.29388</v>
+        <v>0.293963</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2113</v>
+        <v>0.21206</v>
       </c>
       <c r="D16" t="n">
-        <v>0.249584</v>
+        <v>0.249387</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.284554</v>
+        <v>0.284582</v>
       </c>
       <c r="C17" t="n">
-        <v>0.211428</v>
+        <v>0.211401</v>
       </c>
       <c r="D17" t="n">
-        <v>0.248959</v>
+        <v>0.245021</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.276146</v>
+        <v>0.276335</v>
       </c>
       <c r="C18" t="n">
-        <v>0.21113</v>
+        <v>0.211569</v>
       </c>
       <c r="D18" t="n">
-        <v>0.24688</v>
+        <v>0.243133</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.264874</v>
+        <v>0.265667</v>
       </c>
       <c r="C19" t="n">
-        <v>0.21051</v>
+        <v>0.21079</v>
       </c>
       <c r="D19" t="n">
-        <v>0.24642</v>
+        <v>0.248698</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.254979</v>
+        <v>0.254405</v>
       </c>
       <c r="C20" t="n">
-        <v>0.209733</v>
+        <v>0.21175</v>
       </c>
       <c r="D20" t="n">
-        <v>0.248486</v>
+        <v>0.246919</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.241494</v>
+        <v>0.245346</v>
       </c>
       <c r="C21" t="n">
-        <v>0.210616</v>
+        <v>0.210602</v>
       </c>
       <c r="D21" t="n">
-        <v>0.24554</v>
+        <v>0.245698</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.226361</v>
+        <v>0.2265</v>
       </c>
       <c r="C22" t="n">
-        <v>0.211066</v>
+        <v>0.210919</v>
       </c>
       <c r="D22" t="n">
-        <v>0.241093</v>
+        <v>0.244939</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.210061</v>
+        <v>0.209735</v>
       </c>
       <c r="C23" t="n">
-        <v>0.210304</v>
+        <v>0.209858</v>
       </c>
       <c r="D23" t="n">
-        <v>0.259795</v>
+        <v>0.259813</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.347625</v>
+        <v>0.348059</v>
       </c>
       <c r="C24" t="n">
-        <v>0.223045</v>
+        <v>0.223575</v>
       </c>
       <c r="D24" t="n">
-        <v>0.257798</v>
+        <v>0.258183</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.342013</v>
+        <v>0.342346</v>
       </c>
       <c r="C25" t="n">
-        <v>0.222008</v>
+        <v>0.222649</v>
       </c>
       <c r="D25" t="n">
-        <v>0.257894</v>
+        <v>0.257877</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.335234</v>
+        <v>0.335925</v>
       </c>
       <c r="C26" t="n">
-        <v>0.219781</v>
+        <v>0.220248</v>
       </c>
       <c r="D26" t="n">
-        <v>0.256068</v>
+        <v>0.256358</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.32839</v>
+        <v>0.328992</v>
       </c>
       <c r="C27" t="n">
-        <v>0.218689</v>
+        <v>0.219098</v>
       </c>
       <c r="D27" t="n">
-        <v>0.252942</v>
+        <v>0.253085</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.322379</v>
+        <v>0.323077</v>
       </c>
       <c r="C28" t="n">
-        <v>0.216662</v>
+        <v>0.216908</v>
       </c>
       <c r="D28" t="n">
-        <v>0.251437</v>
+        <v>0.251389</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.313631</v>
+        <v>0.314053</v>
       </c>
       <c r="C29" t="n">
-        <v>0.215811</v>
+        <v>0.216156</v>
       </c>
       <c r="D29" t="n">
-        <v>0.249809</v>
+        <v>0.250323</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.305195</v>
+        <v>0.305086</v>
       </c>
       <c r="C30" t="n">
-        <v>0.215018</v>
+        <v>0.214648</v>
       </c>
       <c r="D30" t="n">
-        <v>0.249054</v>
+        <v>0.248878</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.294788</v>
+        <v>0.294989</v>
       </c>
       <c r="C31" t="n">
-        <v>0.214107</v>
+        <v>0.214013</v>
       </c>
       <c r="D31" t="n">
-        <v>0.247958</v>
+        <v>0.248184</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.284484</v>
+        <v>0.284709</v>
       </c>
       <c r="C32" t="n">
-        <v>0.214136</v>
+        <v>0.213972</v>
       </c>
       <c r="D32" t="n">
-        <v>0.246844</v>
+        <v>0.246646</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.273956</v>
+        <v>0.273871</v>
       </c>
       <c r="C33" t="n">
-        <v>0.213147</v>
+        <v>0.213029</v>
       </c>
       <c r="D33" t="n">
-        <v>0.246091</v>
+        <v>0.246078</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.262068</v>
+        <v>0.261882</v>
       </c>
       <c r="C34" t="n">
-        <v>0.212463</v>
+        <v>0.212379</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2445</v>
+        <v>0.244637</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.248478</v>
+        <v>0.248401</v>
       </c>
       <c r="C35" t="n">
-        <v>0.212321</v>
+        <v>0.212071</v>
       </c>
       <c r="D35" t="n">
-        <v>0.244877</v>
+        <v>0.244788</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.235035</v>
+        <v>0.234958</v>
       </c>
       <c r="C36" t="n">
-        <v>0.212158</v>
+        <v>0.212011</v>
       </c>
       <c r="D36" t="n">
-        <v>0.245389</v>
+        <v>0.245634</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.219944</v>
+        <v>0.219331</v>
       </c>
       <c r="C37" t="n">
-        <v>0.212935</v>
+        <v>0.213114</v>
       </c>
       <c r="D37" t="n">
-        <v>0.262013</v>
+        <v>0.262068</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.352191</v>
+        <v>0.352256</v>
       </c>
       <c r="C38" t="n">
-        <v>0.228296</v>
+        <v>0.227867</v>
       </c>
       <c r="D38" t="n">
-        <v>0.259423</v>
+        <v>0.259601</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.347412</v>
+        <v>0.347281</v>
       </c>
       <c r="C39" t="n">
-        <v>0.225709</v>
+        <v>0.225851</v>
       </c>
       <c r="D39" t="n">
-        <v>0.257348</v>
+        <v>0.257163</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.341605</v>
+        <v>0.341378</v>
       </c>
       <c r="C40" t="n">
-        <v>0.222949</v>
+        <v>0.223034</v>
       </c>
       <c r="D40" t="n">
-        <v>0.255646</v>
+        <v>0.255876</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.334522</v>
+        <v>0.334501</v>
       </c>
       <c r="C41" t="n">
-        <v>0.219891</v>
+        <v>0.219803</v>
       </c>
       <c r="D41" t="n">
-        <v>0.253807</v>
+        <v>0.25385</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.326885</v>
+        <v>0.327493</v>
       </c>
       <c r="C42" t="n">
-        <v>0.218185</v>
+        <v>0.218077</v>
       </c>
       <c r="D42" t="n">
-        <v>0.252747</v>
+        <v>0.252828</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.319516</v>
+        <v>0.319776</v>
       </c>
       <c r="C43" t="n">
-        <v>0.217229</v>
+        <v>0.216966</v>
       </c>
       <c r="D43" t="n">
-        <v>0.251209</v>
+        <v>0.251285</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.310504</v>
+        <v>0.310563</v>
       </c>
       <c r="C44" t="n">
-        <v>0.215709</v>
+        <v>0.215705</v>
       </c>
       <c r="D44" t="n">
-        <v>0.249206</v>
+        <v>0.249382</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.301984</v>
+        <v>0.301999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.21502</v>
+        <v>0.215251</v>
       </c>
       <c r="D45" t="n">
-        <v>0.248757</v>
+        <v>0.24894</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.291417</v>
+        <v>0.29132</v>
       </c>
       <c r="C46" t="n">
-        <v>0.214189</v>
+        <v>0.214507</v>
       </c>
       <c r="D46" t="n">
-        <v>0.247401</v>
+        <v>0.247387</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.280047</v>
+        <v>0.280063</v>
       </c>
       <c r="C47" t="n">
-        <v>0.213823</v>
+        <v>0.213986</v>
       </c>
       <c r="D47" t="n">
-        <v>0.246698</v>
+        <v>0.246553</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.26868</v>
+        <v>0.268686</v>
       </c>
       <c r="C48" t="n">
-        <v>0.212926</v>
+        <v>0.213102</v>
       </c>
       <c r="D48" t="n">
-        <v>0.246581</v>
+        <v>0.246503</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.256494</v>
+        <v>0.25618</v>
       </c>
       <c r="C49" t="n">
-        <v>0.212493</v>
+        <v>0.212775</v>
       </c>
       <c r="D49" t="n">
-        <v>0.245482</v>
+        <v>0.245627</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.242497</v>
+        <v>0.242237</v>
       </c>
       <c r="C50" t="n">
-        <v>0.212497</v>
+        <v>0.212925</v>
       </c>
       <c r="D50" t="n">
-        <v>0.246787</v>
+        <v>0.24678</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.227122</v>
+        <v>0.226973</v>
       </c>
       <c r="C51" t="n">
-        <v>0.212509</v>
+        <v>0.212271</v>
       </c>
       <c r="D51" t="n">
-        <v>0.261628</v>
+        <v>0.261566</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.210127</v>
+        <v>0.210027</v>
       </c>
       <c r="C52" t="n">
-        <v>0.21229</v>
+        <v>0.211979</v>
       </c>
       <c r="D52" t="n">
-        <v>0.258733</v>
+        <v>0.258358</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.350333</v>
+        <v>0.350621</v>
       </c>
       <c r="C53" t="n">
-        <v>0.224811</v>
+        <v>0.224767</v>
       </c>
       <c r="D53" t="n">
-        <v>0.256643</v>
+        <v>0.256374</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.344522</v>
+        <v>0.344779</v>
       </c>
       <c r="C54" t="n">
-        <v>0.222015</v>
+        <v>0.222164</v>
       </c>
       <c r="D54" t="n">
-        <v>0.255104</v>
+        <v>0.254935</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.338499</v>
+        <v>0.338598</v>
       </c>
       <c r="C55" t="n">
-        <v>0.219565</v>
+        <v>0.219286</v>
       </c>
       <c r="D55" t="n">
-        <v>0.253619</v>
+        <v>0.25357</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.331058</v>
+        <v>0.33143</v>
       </c>
       <c r="C56" t="n">
-        <v>0.218161</v>
+        <v>0.218015</v>
       </c>
       <c r="D56" t="n">
-        <v>0.251991</v>
+        <v>0.251891</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.322958</v>
+        <v>0.32326</v>
       </c>
       <c r="C57" t="n">
-        <v>0.216795</v>
+        <v>0.216679</v>
       </c>
       <c r="D57" t="n">
-        <v>0.250533</v>
+        <v>0.250584</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.314426</v>
+        <v>0.31452</v>
       </c>
       <c r="C58" t="n">
-        <v>0.215756</v>
+        <v>0.215677</v>
       </c>
       <c r="D58" t="n">
-        <v>0.249265</v>
+        <v>0.249261</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.305391</v>
+        <v>0.305469</v>
       </c>
       <c r="C59" t="n">
-        <v>0.214456</v>
+        <v>0.214521</v>
       </c>
       <c r="D59" t="n">
-        <v>0.2482</v>
+        <v>0.248202</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.295117</v>
+        <v>0.295361</v>
       </c>
       <c r="C60" t="n">
-        <v>0.214161</v>
+        <v>0.213743</v>
       </c>
       <c r="D60" t="n">
-        <v>0.247028</v>
+        <v>0.247221</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.284128</v>
+        <v>0.284093</v>
       </c>
       <c r="C61" t="n">
-        <v>0.213731</v>
+        <v>0.213286</v>
       </c>
       <c r="D61" t="n">
-        <v>0.246676</v>
+        <v>0.246629</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272512</v>
+        <v>0.271998</v>
       </c>
       <c r="C62" t="n">
-        <v>0.212991</v>
+        <v>0.212615</v>
       </c>
       <c r="D62" t="n">
-        <v>0.245732</v>
+        <v>0.245867</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.259736</v>
+        <v>0.259564</v>
       </c>
       <c r="C63" t="n">
-        <v>0.21243</v>
+        <v>0.212087</v>
       </c>
       <c r="D63" t="n">
-        <v>0.244681</v>
+        <v>0.244658</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.246247</v>
+        <v>0.245972</v>
       </c>
       <c r="C64" t="n">
-        <v>0.21223</v>
+        <v>0.211985</v>
       </c>
       <c r="D64" t="n">
-        <v>0.244648</v>
+        <v>0.244417</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.230545</v>
+        <v>0.230642</v>
       </c>
       <c r="C65" t="n">
-        <v>0.211986</v>
+        <v>0.211692</v>
       </c>
       <c r="D65" t="n">
-        <v>0.243371</v>
+        <v>0.243423</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.21399</v>
+        <v>0.213937</v>
       </c>
       <c r="C66" t="n">
-        <v>0.21211</v>
+        <v>0.211929</v>
       </c>
       <c r="D66" t="n">
-        <v>0.259704</v>
+        <v>0.25966</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.35241</v>
+        <v>0.352602</v>
       </c>
       <c r="C67" t="n">
-        <v>0.226267</v>
+        <v>0.226539</v>
       </c>
       <c r="D67" t="n">
-        <v>0.257289</v>
+        <v>0.257187</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.347141</v>
+        <v>0.347319</v>
       </c>
       <c r="C68" t="n">
-        <v>0.222671</v>
+        <v>0.222618</v>
       </c>
       <c r="D68" t="n">
-        <v>0.255297</v>
+        <v>0.255228</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.340895</v>
+        <v>0.340957</v>
       </c>
       <c r="C69" t="n">
-        <v>0.219933</v>
+        <v>0.21997</v>
       </c>
       <c r="D69" t="n">
-        <v>0.253712</v>
+        <v>0.253498</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.333734</v>
+        <v>0.333742</v>
       </c>
       <c r="C70" t="n">
-        <v>0.217975</v>
+        <v>0.217885</v>
       </c>
       <c r="D70" t="n">
-        <v>0.251925</v>
+        <v>0.251873</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.325905</v>
+        <v>0.325722</v>
       </c>
       <c r="C71" t="n">
-        <v>0.216823</v>
+        <v>0.216765</v>
       </c>
       <c r="D71" t="n">
-        <v>0.250957</v>
+        <v>0.2508</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.31727</v>
+        <v>0.317045</v>
       </c>
       <c r="C72" t="n">
-        <v>0.215726</v>
+        <v>0.2156</v>
       </c>
       <c r="D72" t="n">
-        <v>0.250054</v>
+        <v>0.249818</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.307692</v>
+        <v>0.307691</v>
       </c>
       <c r="C73" t="n">
-        <v>0.214955</v>
+        <v>0.214841</v>
       </c>
       <c r="D73" t="n">
-        <v>0.248427</v>
+        <v>0.248418</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.297763</v>
+        <v>0.297666</v>
       </c>
       <c r="C74" t="n">
-        <v>0.214246</v>
+        <v>0.214148</v>
       </c>
       <c r="D74" t="n">
-        <v>0.24767</v>
+        <v>0.247777</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.286916</v>
+        <v>0.286742</v>
       </c>
       <c r="C75" t="n">
-        <v>0.213505</v>
+        <v>0.213398</v>
       </c>
       <c r="D75" t="n">
-        <v>0.247123</v>
+        <v>0.247099</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.27549</v>
+        <v>0.275414</v>
       </c>
       <c r="C76" t="n">
-        <v>0.213123</v>
+        <v>0.213306</v>
       </c>
       <c r="D76" t="n">
-        <v>0.245862</v>
+        <v>0.245788</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.263142</v>
+        <v>0.263053</v>
       </c>
       <c r="C77" t="n">
-        <v>0.212457</v>
+        <v>0.212715</v>
       </c>
       <c r="D77" t="n">
-        <v>0.245191</v>
+        <v>0.245098</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.249369</v>
+        <v>0.249481</v>
       </c>
       <c r="C78" t="n">
-        <v>0.212212</v>
+        <v>0.212223</v>
       </c>
       <c r="D78" t="n">
-        <v>0.24453</v>
+        <v>0.244418</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.234657</v>
+        <v>0.234399</v>
       </c>
       <c r="C79" t="n">
-        <v>0.212262</v>
+        <v>0.212109</v>
       </c>
       <c r="D79" t="n">
-        <v>0.244435</v>
+        <v>0.244385</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.218891</v>
+        <v>0.218595</v>
       </c>
       <c r="C80" t="n">
-        <v>0.211842</v>
+        <v>0.21198</v>
       </c>
       <c r="D80" t="n">
-        <v>0.26058</v>
+        <v>0.260357</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.353888</v>
+        <v>0.353693</v>
       </c>
       <c r="C81" t="n">
-        <v>0.226713</v>
+        <v>0.225811</v>
       </c>
       <c r="D81" t="n">
-        <v>0.25785</v>
+        <v>0.257863</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.34841</v>
+        <v>0.348511</v>
       </c>
       <c r="C82" t="n">
-        <v>0.222091</v>
+        <v>0.222</v>
       </c>
       <c r="D82" t="n">
-        <v>0.255868</v>
+        <v>0.255777</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.341996</v>
+        <v>0.342006</v>
       </c>
       <c r="C83" t="n">
-        <v>0.21965</v>
+        <v>0.219695</v>
       </c>
       <c r="D83" t="n">
-        <v>0.254014</v>
+        <v>0.253956</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.334916</v>
+        <v>0.335157</v>
       </c>
       <c r="C84" t="n">
-        <v>0.217837</v>
+        <v>0.217909</v>
       </c>
       <c r="D84" t="n">
-        <v>0.25273</v>
+        <v>0.252744</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.327338</v>
+        <v>0.327341</v>
       </c>
       <c r="C85" t="n">
-        <v>0.216878</v>
+        <v>0.216809</v>
       </c>
       <c r="D85" t="n">
-        <v>0.251509</v>
+        <v>0.251519</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.319021</v>
+        <v>0.318984</v>
       </c>
       <c r="C86" t="n">
-        <v>0.215948</v>
+        <v>0.215896</v>
       </c>
       <c r="D86" t="n">
-        <v>0.250252</v>
+        <v>0.250182</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.309944</v>
+        <v>0.309877</v>
       </c>
       <c r="C87" t="n">
-        <v>0.214931</v>
+        <v>0.214813</v>
       </c>
       <c r="D87" t="n">
-        <v>0.248778</v>
+        <v>0.248785</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.30015</v>
+        <v>0.3001</v>
       </c>
       <c r="C88" t="n">
-        <v>0.214477</v>
+        <v>0.214008</v>
       </c>
       <c r="D88" t="n">
-        <v>0.247799</v>
+        <v>0.247586</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.289738</v>
+        <v>0.28968</v>
       </c>
       <c r="C89" t="n">
-        <v>0.213454</v>
+        <v>0.21339</v>
       </c>
       <c r="D89" t="n">
-        <v>0.246916</v>
+        <v>0.246775</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.278102</v>
+        <v>0.27807</v>
       </c>
       <c r="C90" t="n">
-        <v>0.21319</v>
+        <v>0.213219</v>
       </c>
       <c r="D90" t="n">
-        <v>0.246024</v>
+        <v>0.24598</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.265923</v>
+        <v>0.265556</v>
       </c>
       <c r="C91" t="n">
-        <v>0.212825</v>
+        <v>0.212775</v>
       </c>
       <c r="D91" t="n">
-        <v>0.245217</v>
+        <v>0.245162</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.252289</v>
+        <v>0.252226</v>
       </c>
       <c r="C92" t="n">
-        <v>0.212394</v>
+        <v>0.212261</v>
       </c>
       <c r="D92" t="n">
-        <v>0.24435</v>
+        <v>0.244363</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.238178</v>
+        <v>0.238029</v>
       </c>
       <c r="C93" t="n">
-        <v>0.211905</v>
+        <v>0.211803</v>
       </c>
       <c r="D93" t="n">
-        <v>0.243884</v>
+        <v>0.243916</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.222161</v>
+        <v>0.221994</v>
       </c>
       <c r="C94" t="n">
-        <v>0.211856</v>
+        <v>0.211764</v>
       </c>
       <c r="D94" t="n">
-        <v>0.261535</v>
+        <v>0.26162</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.355022</v>
+        <v>0.355132</v>
       </c>
       <c r="C95" t="n">
-        <v>0.226745</v>
+        <v>0.226081</v>
       </c>
       <c r="D95" t="n">
-        <v>0.258659</v>
+        <v>0.258572</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.349813</v>
+        <v>0.3499</v>
       </c>
       <c r="C96" t="n">
-        <v>0.223252</v>
+        <v>0.222998</v>
       </c>
       <c r="D96" t="n">
-        <v>0.256426</v>
+        <v>0.256476</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.34381</v>
+        <v>0.343871</v>
       </c>
       <c r="C97" t="n">
-        <v>0.22074</v>
+        <v>0.220595</v>
       </c>
       <c r="D97" t="n">
-        <v>0.254603</v>
+        <v>0.254733</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.336979</v>
+        <v>0.337035</v>
       </c>
       <c r="C98" t="n">
-        <v>0.218635</v>
+        <v>0.218449</v>
       </c>
       <c r="D98" t="n">
-        <v>0.253067</v>
+        <v>0.253317</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.329316</v>
+        <v>0.32925</v>
       </c>
       <c r="C99" t="n">
-        <v>0.217321</v>
+        <v>0.217234</v>
       </c>
       <c r="D99" t="n">
-        <v>0.251878</v>
+        <v>0.251906</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.321056</v>
+        <v>0.320879</v>
       </c>
       <c r="C100" t="n">
-        <v>0.21614</v>
+        <v>0.216021</v>
       </c>
       <c r="D100" t="n">
-        <v>0.250498</v>
+        <v>0.25062</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.312115</v>
+        <v>0.31198</v>
       </c>
       <c r="C101" t="n">
-        <v>0.215189</v>
+        <v>0.215143</v>
       </c>
       <c r="D101" t="n">
-        <v>0.249272</v>
+        <v>0.249505</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.302216</v>
+        <v>0.302199</v>
       </c>
       <c r="C102" t="n">
-        <v>0.21436</v>
+        <v>0.214275</v>
       </c>
       <c r="D102" t="n">
-        <v>0.248321</v>
+        <v>0.248456</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.291775</v>
+        <v>0.29174</v>
       </c>
       <c r="C103" t="n">
-        <v>0.213623</v>
+        <v>0.213595</v>
       </c>
       <c r="D103" t="n">
-        <v>0.24735</v>
+        <v>0.24746</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.280547</v>
+        <v>0.280479</v>
       </c>
       <c r="C104" t="n">
-        <v>0.213017</v>
+        <v>0.212946</v>
       </c>
       <c r="D104" t="n">
-        <v>0.246541</v>
+        <v>0.246332</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.268491</v>
+        <v>0.268465</v>
       </c>
       <c r="C105" t="n">
-        <v>0.212553</v>
+        <v>0.212747</v>
       </c>
       <c r="D105" t="n">
-        <v>0.2454</v>
+        <v>0.245537</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.25578</v>
+        <v>0.255483</v>
       </c>
       <c r="C106" t="n">
-        <v>0.212018</v>
+        <v>0.211926</v>
       </c>
       <c r="D106" t="n">
-        <v>0.244591</v>
+        <v>0.244629</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.241409</v>
+        <v>0.241331</v>
       </c>
       <c r="C107" t="n">
-        <v>0.211683</v>
+        <v>0.211592</v>
       </c>
       <c r="D107" t="n">
-        <v>0.243862</v>
+        <v>0.243851</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.226046</v>
+        <v>0.226061</v>
       </c>
       <c r="C108" t="n">
-        <v>0.2115</v>
+        <v>0.211378</v>
       </c>
       <c r="D108" t="n">
-        <v>0.261831</v>
+        <v>0.262093</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.209526</v>
+        <v>0.209356</v>
       </c>
       <c r="C109" t="n">
-        <v>0.211625</v>
+        <v>0.211497</v>
       </c>
       <c r="D109" t="n">
-        <v>0.259276</v>
+        <v>0.259228</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.350641</v>
+        <v>0.350846</v>
       </c>
       <c r="C110" t="n">
-        <v>0.223359</v>
+        <v>0.223333</v>
       </c>
       <c r="D110" t="n">
-        <v>0.257108</v>
+        <v>0.257283</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.344783</v>
+        <v>0.345089</v>
       </c>
       <c r="C111" t="n">
-        <v>0.220804</v>
+        <v>0.220757</v>
       </c>
       <c r="D111" t="n">
-        <v>0.255318</v>
+        <v>0.255326</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.338139</v>
+        <v>0.338423</v>
       </c>
       <c r="C112" t="n">
-        <v>0.218897</v>
+        <v>0.219017</v>
       </c>
       <c r="D112" t="n">
-        <v>0.253974</v>
+        <v>0.253741</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.33076</v>
+        <v>0.33096</v>
       </c>
       <c r="C113" t="n">
-        <v>0.217414</v>
+        <v>0.217498</v>
       </c>
       <c r="D113" t="n">
-        <v>0.252533</v>
+        <v>0.252253</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.322653</v>
+        <v>0.32284</v>
       </c>
       <c r="C114" t="n">
-        <v>0.216304</v>
+        <v>0.216341</v>
       </c>
       <c r="D114" t="n">
-        <v>0.250869</v>
+        <v>0.251184</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.313774</v>
+        <v>0.313998</v>
       </c>
       <c r="C115" t="n">
-        <v>0.215267</v>
+        <v>0.215308</v>
       </c>
       <c r="D115" t="n">
-        <v>0.250359</v>
+        <v>0.250249</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.30429</v>
+        <v>0.304425</v>
       </c>
       <c r="C116" t="n">
-        <v>0.214498</v>
+        <v>0.214619</v>
       </c>
       <c r="D116" t="n">
-        <v>0.24943</v>
+        <v>0.249363</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.293913</v>
+        <v>0.293912</v>
       </c>
       <c r="C117" t="n">
-        <v>0.213777</v>
+        <v>0.214118</v>
       </c>
       <c r="D117" t="n">
-        <v>0.248204</v>
+        <v>0.248004</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.283106</v>
+        <v>0.283103</v>
       </c>
       <c r="C118" t="n">
-        <v>0.21354</v>
+        <v>0.213593</v>
       </c>
       <c r="D118" t="n">
-        <v>0.247152</v>
+        <v>0.247</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.271129</v>
+        <v>0.271135</v>
       </c>
       <c r="C119" t="n">
-        <v>0.212896</v>
+        <v>0.212927</v>
       </c>
       <c r="D119" t="n">
-        <v>0.246236</v>
+        <v>0.246348</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.258405</v>
+        <v>0.258516</v>
       </c>
       <c r="C120" t="n">
-        <v>0.21245</v>
+        <v>0.212482</v>
       </c>
       <c r="D120" t="n">
-        <v>0.245531</v>
+        <v>0.245712</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.24442</v>
+        <v>0.244459</v>
       </c>
       <c r="C121" t="n">
-        <v>0.212082</v>
+        <v>0.212067</v>
       </c>
       <c r="D121" t="n">
-        <v>0.244879</v>
+        <v>0.244894</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.229646</v>
+        <v>0.229475</v>
       </c>
       <c r="C122" t="n">
-        <v>0.21185</v>
+        <v>0.211889</v>
       </c>
       <c r="D122" t="n">
-        <v>0.244792</v>
+        <v>0.244631</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.213067</v>
+        <v>0.212953</v>
       </c>
       <c r="C123" t="n">
-        <v>0.211653</v>
+        <v>0.211778</v>
       </c>
       <c r="D123" t="n">
-        <v>0.260733</v>
+        <v>0.260083</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.351711</v>
+        <v>0.351744</v>
       </c>
       <c r="C124" t="n">
-        <v>0.2243</v>
+        <v>0.224311</v>
       </c>
       <c r="D124" t="n">
-        <v>0.258499</v>
+        <v>0.258453</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.345922</v>
+        <v>0.34599</v>
       </c>
       <c r="C125" t="n">
-        <v>0.221312</v>
+        <v>0.221344</v>
       </c>
       <c r="D125" t="n">
-        <v>0.256731</v>
+        <v>0.256035</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.339329</v>
+        <v>0.339374</v>
       </c>
       <c r="C126" t="n">
-        <v>0.219432</v>
+        <v>0.219382</v>
       </c>
       <c r="D126" t="n">
-        <v>0.254993</v>
+        <v>0.25482</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.332228</v>
+        <v>0.332155</v>
       </c>
       <c r="C127" t="n">
-        <v>0.217815</v>
+        <v>0.217758</v>
       </c>
       <c r="D127" t="n">
-        <v>0.253611</v>
+        <v>0.253132</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.324093</v>
+        <v>0.324115</v>
       </c>
       <c r="C128" t="n">
-        <v>0.216491</v>
+        <v>0.216473</v>
       </c>
       <c r="D128" t="n">
-        <v>0.251908</v>
+        <v>0.251881</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.315427</v>
+        <v>0.315447</v>
       </c>
       <c r="C129" t="n">
-        <v>0.21545</v>
+        <v>0.215435</v>
       </c>
       <c r="D129" t="n">
-        <v>0.250642</v>
+        <v>0.250317</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.305869</v>
+        <v>0.305975</v>
       </c>
       <c r="C130" t="n">
-        <v>0.21462</v>
+        <v>0.214624</v>
       </c>
       <c r="D130" t="n">
-        <v>0.249416</v>
+        <v>0.249305</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.29578</v>
+        <v>0.295782</v>
       </c>
       <c r="C131" t="n">
-        <v>0.213868</v>
+        <v>0.213876</v>
       </c>
       <c r="D131" t="n">
-        <v>0.248295</v>
+        <v>0.248775</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.285362</v>
+        <v>0.285018</v>
       </c>
       <c r="C132" t="n">
-        <v>0.213184</v>
+        <v>0.213166</v>
       </c>
       <c r="D132" t="n">
-        <v>0.247258</v>
+        <v>0.247578</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.273391</v>
+        <v>0.273196</v>
       </c>
       <c r="C133" t="n">
-        <v>0.212624</v>
+        <v>0.212642</v>
       </c>
       <c r="D133" t="n">
-        <v>0.246647</v>
+        <v>0.246346</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.260644</v>
+        <v>0.260338</v>
       </c>
       <c r="C134" t="n">
-        <v>0.212134</v>
+        <v>0.2121</v>
       </c>
       <c r="D134" t="n">
-        <v>0.245847</v>
+        <v>0.246239</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.24672</v>
+        <v>0.2467</v>
       </c>
       <c r="C135" t="n">
-        <v>0.211766</v>
+        <v>0.211754</v>
       </c>
       <c r="D135" t="n">
-        <v>0.245932</v>
+        <v>0.245982</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.23197</v>
+        <v>0.231888</v>
       </c>
       <c r="C136" t="n">
-        <v>0.212005</v>
+        <v>0.21202</v>
       </c>
       <c r="D136" t="n">
-        <v>0.244925</v>
+        <v>0.245506</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.215821</v>
+        <v>0.215864</v>
       </c>
       <c r="C137" t="n">
-        <v>0.211883</v>
+        <v>0.211846</v>
       </c>
       <c r="D137" t="n">
-        <v>0.261875</v>
+        <v>0.261688</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.352741</v>
+        <v>0.352837</v>
       </c>
       <c r="C138" t="n">
-        <v>0.225824</v>
+        <v>0.225829</v>
       </c>
       <c r="D138" t="n">
-        <v>0.259612</v>
+        <v>0.258922</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.347471</v>
+        <v>0.347394</v>
       </c>
       <c r="C139" t="n">
-        <v>0.222556</v>
+        <v>0.222594</v>
       </c>
       <c r="D139" t="n">
-        <v>0.257711</v>
+        <v>0.257076</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.34101</v>
+        <v>0.341069</v>
       </c>
       <c r="C140" t="n">
-        <v>0.220223</v>
+        <v>0.220272</v>
       </c>
       <c r="D140" t="n">
-        <v>0.255311</v>
+        <v>0.255952</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.333951</v>
+        <v>0.334022</v>
       </c>
       <c r="C141" t="n">
-        <v>0.218509</v>
+        <v>0.218477</v>
       </c>
       <c r="D141" t="n">
-        <v>0.253486</v>
+        <v>0.25509</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.326012</v>
+        <v>0.326132</v>
       </c>
       <c r="C142" t="n">
-        <v>0.217168</v>
+        <v>0.217224</v>
       </c>
       <c r="D142" t="n">
-        <v>0.253061</v>
+        <v>0.252654</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.31753</v>
+        <v>0.317654</v>
       </c>
       <c r="C143" t="n">
-        <v>0.21605</v>
+        <v>0.216098</v>
       </c>
       <c r="D143" t="n">
-        <v>0.251857</v>
+        <v>0.252268</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3272,13 +3272,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.291789</v>
+        <v>0.286736</v>
       </c>
       <c r="C2" t="n">
-        <v>0.360839</v>
+        <v>0.343812</v>
       </c>
       <c r="D2" t="n">
-        <v>0.23423</v>
+        <v>0.232838</v>
       </c>
     </row>
     <row r="3">
@@ -3286,13 +3286,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.27423</v>
+        <v>0.275532</v>
       </c>
       <c r="C3" t="n">
-        <v>0.375495</v>
+        <v>0.364783</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239693</v>
+        <v>0.23437</v>
       </c>
     </row>
     <row r="4">
@@ -3300,13 +3300,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.261509</v>
+        <v>0.263335</v>
       </c>
       <c r="C4" t="n">
-        <v>0.394926</v>
+        <v>0.385398</v>
       </c>
       <c r="D4" t="n">
-        <v>0.228124</v>
+        <v>0.231827</v>
       </c>
     </row>
     <row r="5">
@@ -3314,13 +3314,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.250227</v>
+        <v>0.256667</v>
       </c>
       <c r="C5" t="n">
-        <v>0.413851</v>
+        <v>0.408016</v>
       </c>
       <c r="D5" t="n">
-        <v>0.228346</v>
+        <v>0.231215</v>
       </c>
     </row>
     <row r="6">
@@ -3328,13 +3328,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.240461</v>
+        <v>0.238279</v>
       </c>
       <c r="C6" t="n">
-        <v>0.439107</v>
+        <v>0.432947</v>
       </c>
       <c r="D6" t="n">
-        <v>0.228578</v>
+        <v>0.23534</v>
       </c>
     </row>
     <row r="7">
@@ -3342,13 +3342,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.222611</v>
+        <v>0.228549</v>
       </c>
       <c r="C7" t="n">
-        <v>0.464982</v>
+        <v>0.457675</v>
       </c>
       <c r="D7" t="n">
-        <v>0.227964</v>
+        <v>0.233674</v>
       </c>
     </row>
     <row r="8">
@@ -3356,13 +3356,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.212171</v>
+        <v>0.209259</v>
       </c>
       <c r="C8" t="n">
-        <v>0.290038</v>
+        <v>0.28428</v>
       </c>
       <c r="D8" t="n">
-        <v>0.228298</v>
+        <v>0.233856</v>
       </c>
     </row>
     <row r="9">
@@ -3370,13 +3370,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.192977</v>
+        <v>0.192587</v>
       </c>
       <c r="C9" t="n">
-        <v>0.301467</v>
+        <v>0.293929</v>
       </c>
       <c r="D9" t="n">
-        <v>0.254841</v>
+        <v>0.258689</v>
       </c>
     </row>
     <row r="10">
@@ -3384,13 +3384,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.341208</v>
+        <v>0.341147</v>
       </c>
       <c r="C10" t="n">
-        <v>0.311189</v>
+        <v>0.305377</v>
       </c>
       <c r="D10" t="n">
-        <v>0.274488</v>
+        <v>0.257755</v>
       </c>
     </row>
     <row r="11">
@@ -3398,13 +3398,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.334513</v>
+        <v>0.334003</v>
       </c>
       <c r="C11" t="n">
-        <v>0.32315</v>
+        <v>0.317091</v>
       </c>
       <c r="D11" t="n">
-        <v>0.255668</v>
+        <v>0.260766</v>
       </c>
     </row>
     <row r="12">
@@ -3412,13 +3412,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.329147</v>
+        <v>0.329358</v>
       </c>
       <c r="C12" t="n">
-        <v>0.335199</v>
+        <v>0.33195</v>
       </c>
       <c r="D12" t="n">
-        <v>0.251217</v>
+        <v>0.254418</v>
       </c>
     </row>
     <row r="13">
@@ -3426,13 +3426,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.321526</v>
+        <v>0.322244</v>
       </c>
       <c r="C13" t="n">
-        <v>0.347503</v>
+        <v>0.343316</v>
       </c>
       <c r="D13" t="n">
-        <v>0.246355</v>
+        <v>0.253772</v>
       </c>
     </row>
     <row r="14">
@@ -3440,13 +3440,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.313005</v>
+        <v>0.313629</v>
       </c>
       <c r="C14" t="n">
-        <v>0.360047</v>
+        <v>0.354604</v>
       </c>
       <c r="D14" t="n">
-        <v>0.249109</v>
+        <v>0.252677</v>
       </c>
     </row>
     <row r="15">
@@ -3454,13 +3454,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.303477</v>
+        <v>0.304387</v>
       </c>
       <c r="C15" t="n">
-        <v>0.374769</v>
+        <v>0.37032</v>
       </c>
       <c r="D15" t="n">
-        <v>0.246545</v>
+        <v>0.252249</v>
       </c>
     </row>
     <row r="16">
@@ -3468,13 +3468,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.295194</v>
+        <v>0.295214</v>
       </c>
       <c r="C16" t="n">
-        <v>0.390777</v>
+        <v>0.383183</v>
       </c>
       <c r="D16" t="n">
-        <v>0.248751</v>
+        <v>0.268301</v>
       </c>
     </row>
     <row r="17">
@@ -3482,13 +3482,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.286281</v>
+        <v>0.286047</v>
       </c>
       <c r="C17" t="n">
-        <v>0.399361</v>
+        <v>0.407495</v>
       </c>
       <c r="D17" t="n">
-        <v>0.243059</v>
+        <v>0.250307</v>
       </c>
     </row>
     <row r="18">
@@ -3496,13 +3496,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.276584</v>
+        <v>0.276103</v>
       </c>
       <c r="C18" t="n">
-        <v>0.418601</v>
+        <v>0.413714</v>
       </c>
       <c r="D18" t="n">
-        <v>0.24264</v>
+        <v>0.249284</v>
       </c>
     </row>
     <row r="19">
@@ -3510,13 +3510,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.264822</v>
+        <v>0.26445</v>
       </c>
       <c r="C19" t="n">
-        <v>0.437347</v>
+        <v>0.428294</v>
       </c>
       <c r="D19" t="n">
-        <v>0.242391</v>
+        <v>0.24943</v>
       </c>
     </row>
     <row r="20">
@@ -3524,13 +3524,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.253123</v>
+        <v>0.252505</v>
       </c>
       <c r="C20" t="n">
-        <v>0.464218</v>
+        <v>0.45112</v>
       </c>
       <c r="D20" t="n">
-        <v>0.245835</v>
+        <v>0.248305</v>
       </c>
     </row>
     <row r="21">
@@ -3538,13 +3538,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.238914</v>
+        <v>0.238672</v>
       </c>
       <c r="C21" t="n">
-        <v>0.475231</v>
+        <v>0.467596</v>
       </c>
       <c r="D21" t="n">
-        <v>0.241728</v>
+        <v>0.255205</v>
       </c>
     </row>
     <row r="22">
@@ -3552,13 +3552,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.222296</v>
+        <v>0.222763</v>
       </c>
       <c r="C22" t="n">
-        <v>0.32898</v>
+        <v>0.327691</v>
       </c>
       <c r="D22" t="n">
-        <v>0.241039</v>
+        <v>0.246879</v>
       </c>
     </row>
     <row r="23">
@@ -3566,13 +3566,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.207246</v>
+        <v>0.207622</v>
       </c>
       <c r="C23" t="n">
-        <v>0.339979</v>
+        <v>0.337228</v>
       </c>
       <c r="D23" t="n">
-        <v>0.257105</v>
+        <v>0.263025</v>
       </c>
     </row>
     <row r="24">
@@ -3580,13 +3580,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.35103</v>
+        <v>0.350521</v>
       </c>
       <c r="C24" t="n">
-        <v>0.345578</v>
+        <v>0.343703</v>
       </c>
       <c r="D24" t="n">
-        <v>0.255277</v>
+        <v>0.260635</v>
       </c>
     </row>
     <row r="25">
@@ -3594,13 +3594,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.346421</v>
+        <v>0.345962</v>
       </c>
       <c r="C25" t="n">
-        <v>0.355689</v>
+        <v>0.354061</v>
       </c>
       <c r="D25" t="n">
-        <v>0.253861</v>
+        <v>0.260619</v>
       </c>
     </row>
     <row r="26">
@@ -3608,13 +3608,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.340389</v>
+        <v>0.34068</v>
       </c>
       <c r="C26" t="n">
-        <v>0.365888</v>
+        <v>0.361873</v>
       </c>
       <c r="D26" t="n">
-        <v>0.252541</v>
+        <v>0.259552</v>
       </c>
     </row>
     <row r="27">
@@ -3622,13 +3622,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.33219</v>
+        <v>0.332556</v>
       </c>
       <c r="C27" t="n">
-        <v>0.373165</v>
+        <v>0.370441</v>
       </c>
       <c r="D27" t="n">
-        <v>0.251425</v>
+        <v>0.256985</v>
       </c>
     </row>
     <row r="28">
@@ -3636,13 +3636,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.324046</v>
+        <v>0.325099</v>
       </c>
       <c r="C28" t="n">
-        <v>0.382215</v>
+        <v>0.380274</v>
       </c>
       <c r="D28" t="n">
-        <v>0.24979</v>
+        <v>0.255342</v>
       </c>
     </row>
     <row r="29">
@@ -3650,13 +3650,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.316413</v>
+        <v>0.317379</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3956</v>
+        <v>0.393357</v>
       </c>
       <c r="D29" t="n">
-        <v>0.248872</v>
+        <v>0.25429</v>
       </c>
     </row>
     <row r="30">
@@ -3664,13 +3664,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.306474</v>
+        <v>0.306997</v>
       </c>
       <c r="C30" t="n">
-        <v>0.40915</v>
+        <v>0.406152</v>
       </c>
       <c r="D30" t="n">
-        <v>0.248097</v>
+        <v>0.2539</v>
       </c>
     </row>
     <row r="31">
@@ -3678,13 +3678,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.296697</v>
+        <v>0.29676</v>
       </c>
       <c r="C31" t="n">
-        <v>0.424709</v>
+        <v>0.422098</v>
       </c>
       <c r="D31" t="n">
-        <v>0.246821</v>
+        <v>0.252824</v>
       </c>
     </row>
     <row r="32">
@@ -3692,13 +3692,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.286313</v>
+        <v>0.286445</v>
       </c>
       <c r="C32" t="n">
-        <v>0.439979</v>
+        <v>0.437531</v>
       </c>
       <c r="D32" t="n">
-        <v>0.245831</v>
+        <v>0.252199</v>
       </c>
     </row>
     <row r="33">
@@ -3706,13 +3706,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.275266</v>
+        <v>0.275367</v>
       </c>
       <c r="C33" t="n">
-        <v>0.456756</v>
+        <v>0.458278</v>
       </c>
       <c r="D33" t="n">
-        <v>0.244715</v>
+        <v>0.250671</v>
       </c>
     </row>
     <row r="34">
@@ -3720,13 +3720,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.262439</v>
+        <v>0.261574</v>
       </c>
       <c r="C34" t="n">
-        <v>0.478072</v>
+        <v>0.478293</v>
       </c>
       <c r="D34" t="n">
-        <v>0.244079</v>
+        <v>0.24953</v>
       </c>
     </row>
     <row r="35">
@@ -3734,13 +3734,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.248898</v>
+        <v>0.248519</v>
       </c>
       <c r="C35" t="n">
-        <v>0.498137</v>
+        <v>0.497519</v>
       </c>
       <c r="D35" t="n">
-        <v>0.242951</v>
+        <v>0.248868</v>
       </c>
     </row>
     <row r="36">
@@ -3748,13 +3748,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.234263</v>
+        <v>0.234262</v>
       </c>
       <c r="C36" t="n">
-        <v>0.522581</v>
+        <v>0.519191</v>
       </c>
       <c r="D36" t="n">
-        <v>0.24249</v>
+        <v>0.248788</v>
       </c>
     </row>
     <row r="37">
@@ -3762,13 +3762,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.218946</v>
+        <v>0.218548</v>
       </c>
       <c r="C37" t="n">
-        <v>0.526989</v>
+        <v>0.522131</v>
       </c>
       <c r="D37" t="n">
-        <v>0.258546</v>
+        <v>0.264964</v>
       </c>
     </row>
     <row r="38">
@@ -3776,13 +3776,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.355527</v>
+        <v>0.356017</v>
       </c>
       <c r="C38" t="n">
-        <v>0.52316</v>
+        <v>0.522401</v>
       </c>
       <c r="D38" t="n">
-        <v>0.256623</v>
+        <v>0.263041</v>
       </c>
     </row>
     <row r="39">
@@ -3790,13 +3790,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.35113</v>
+        <v>0.351355</v>
       </c>
       <c r="C39" t="n">
-        <v>0.519397</v>
+        <v>0.519141</v>
       </c>
       <c r="D39" t="n">
-        <v>0.254809</v>
+        <v>0.260248</v>
       </c>
     </row>
     <row r="40">
@@ -3804,13 +3804,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.34439</v>
+        <v>0.34498</v>
       </c>
       <c r="C40" t="n">
-        <v>0.518862</v>
+        <v>0.516195</v>
       </c>
       <c r="D40" t="n">
-        <v>0.253404</v>
+        <v>0.259201</v>
       </c>
     </row>
     <row r="41">
@@ -3818,13 +3818,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.337958</v>
+        <v>0.338449</v>
       </c>
       <c r="C41" t="n">
-        <v>0.518387</v>
+        <v>0.5167659999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.252166</v>
+        <v>0.25771</v>
       </c>
     </row>
     <row r="42">
@@ -3832,13 +3832,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.329609</v>
+        <v>0.330285</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5165960000000001</v>
+        <v>0.51549</v>
       </c>
       <c r="D42" t="n">
-        <v>0.250679</v>
+        <v>0.25631</v>
       </c>
     </row>
     <row r="43">
@@ -3846,13 +3846,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.322028</v>
+        <v>0.322334</v>
       </c>
       <c r="C43" t="n">
-        <v>0.51879</v>
+        <v>0.517799</v>
       </c>
       <c r="D43" t="n">
-        <v>0.249524</v>
+        <v>0.255554</v>
       </c>
     </row>
     <row r="44">
@@ -3860,13 +3860,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.312971</v>
+        <v>0.313713</v>
       </c>
       <c r="C44" t="n">
-        <v>0.521473</v>
+        <v>0.51984</v>
       </c>
       <c r="D44" t="n">
-        <v>0.248583</v>
+        <v>0.254073</v>
       </c>
     </row>
     <row r="45">
@@ -3874,13 +3874,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.302802</v>
+        <v>0.30279</v>
       </c>
       <c r="C45" t="n">
-        <v>0.525388</v>
+        <v>0.52343</v>
       </c>
       <c r="D45" t="n">
-        <v>0.247291</v>
+        <v>0.252694</v>
       </c>
     </row>
     <row r="46">
@@ -3888,13 +3888,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.291498</v>
+        <v>0.291734</v>
       </c>
       <c r="C46" t="n">
-        <v>0.531226</v>
+        <v>0.530477</v>
       </c>
       <c r="D46" t="n">
-        <v>0.246102</v>
+        <v>0.251688</v>
       </c>
     </row>
     <row r="47">
@@ -3902,13 +3902,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.279228</v>
+        <v>0.27959</v>
       </c>
       <c r="C47" t="n">
-        <v>0.538285</v>
+        <v>0.53845</v>
       </c>
       <c r="D47" t="n">
-        <v>0.245703</v>
+        <v>0.250858</v>
       </c>
     </row>
     <row r="48">
@@ -3916,13 +3916,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.266555</v>
+        <v>0.266898</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5462939999999999</v>
+        <v>0.5484250000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.244723</v>
+        <v>0.250306</v>
       </c>
     </row>
     <row r="49">
@@ -3930,13 +3930,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.253268</v>
+        <v>0.253067</v>
       </c>
       <c r="C49" t="n">
-        <v>0.564237</v>
+        <v>0.560582</v>
       </c>
       <c r="D49" t="n">
-        <v>0.243721</v>
+        <v>0.24942</v>
       </c>
     </row>
     <row r="50">
@@ -3944,13 +3944,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.239164</v>
+        <v>0.23871</v>
       </c>
       <c r="C50" t="n">
-        <v>0.577009</v>
+        <v>0.5733819999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.243157</v>
+        <v>0.248744</v>
       </c>
     </row>
     <row r="51">
@@ -3958,13 +3958,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.223506</v>
+        <v>0.223247</v>
       </c>
       <c r="C51" t="n">
-        <v>0.536641</v>
+        <v>0.53733</v>
       </c>
       <c r="D51" t="n">
-        <v>0.259018</v>
+        <v>0.265522</v>
       </c>
     </row>
     <row r="52">
@@ -3972,13 +3972,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.205811</v>
+        <v>0.205465</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5303099999999999</v>
+        <v>0.535243</v>
       </c>
       <c r="D52" t="n">
-        <v>0.256845</v>
+        <v>0.263859</v>
       </c>
     </row>
     <row r="53">
@@ -3986,13 +3986,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.353603</v>
+        <v>0.353733</v>
       </c>
       <c r="C53" t="n">
-        <v>0.532606</v>
+        <v>0.532454</v>
       </c>
       <c r="D53" t="n">
-        <v>0.255446</v>
+        <v>0.262107</v>
       </c>
     </row>
     <row r="54">
@@ -4000,13 +4000,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.347521</v>
+        <v>0.347667</v>
       </c>
       <c r="C54" t="n">
-        <v>0.526013</v>
+        <v>0.531011</v>
       </c>
       <c r="D54" t="n">
-        <v>0.253771</v>
+        <v>0.260557</v>
       </c>
     </row>
     <row r="55">
@@ -4014,13 +4014,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.340995</v>
+        <v>0.340844</v>
       </c>
       <c r="C55" t="n">
-        <v>0.530788</v>
+        <v>0.530137</v>
       </c>
       <c r="D55" t="n">
-        <v>0.252452</v>
+        <v>0.25888</v>
       </c>
     </row>
     <row r="56">
@@ -4028,13 +4028,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.333254</v>
+        <v>0.332875</v>
       </c>
       <c r="C56" t="n">
-        <v>0.529347</v>
+        <v>0.527709</v>
       </c>
       <c r="D56" t="n">
-        <v>0.251474</v>
+        <v>0.257465</v>
       </c>
     </row>
     <row r="57">
@@ -4042,13 +4042,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.324739</v>
+        <v>0.324737</v>
       </c>
       <c r="C57" t="n">
-        <v>0.530744</v>
+        <v>0.529034</v>
       </c>
       <c r="D57" t="n">
-        <v>0.250068</v>
+        <v>0.256907</v>
       </c>
     </row>
     <row r="58">
@@ -4056,13 +4056,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.315631</v>
+        <v>0.315622</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5324989999999999</v>
+        <v>0.5306959999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>0.248818</v>
+        <v>0.255336</v>
       </c>
     </row>
     <row r="59">
@@ -4070,13 +4070,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.305827</v>
+        <v>0.305078</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5369390000000001</v>
+        <v>0.534234</v>
       </c>
       <c r="D59" t="n">
-        <v>0.247407</v>
+        <v>0.253326</v>
       </c>
     </row>
     <row r="60">
@@ -4084,13 +4084,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.295474</v>
+        <v>0.294598</v>
       </c>
       <c r="C60" t="n">
-        <v>0.54077</v>
+        <v>0.539038</v>
       </c>
       <c r="D60" t="n">
-        <v>0.246326</v>
+        <v>0.252279</v>
       </c>
     </row>
     <row r="61">
@@ -4098,13 +4098,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.284212</v>
+        <v>0.282566</v>
       </c>
       <c r="C61" t="n">
-        <v>0.551149</v>
+        <v>0.54706</v>
       </c>
       <c r="D61" t="n">
-        <v>0.245548</v>
+        <v>0.25119</v>
       </c>
     </row>
     <row r="62">
@@ -4112,13 +4112,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.27206</v>
+        <v>0.27073</v>
       </c>
       <c r="C62" t="n">
-        <v>0.55821</v>
+        <v>0.55819</v>
       </c>
       <c r="D62" t="n">
-        <v>0.244692</v>
+        <v>0.250588</v>
       </c>
     </row>
     <row r="63">
@@ -4126,13 +4126,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.257373</v>
+        <v>0.257416</v>
       </c>
       <c r="C63" t="n">
-        <v>0.570098</v>
+        <v>0.568134</v>
       </c>
       <c r="D63" t="n">
-        <v>0.243966</v>
+        <v>0.24993</v>
       </c>
     </row>
     <row r="64">
@@ -4140,13 +4140,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.24279</v>
+        <v>0.242733</v>
       </c>
       <c r="C64" t="n">
-        <v>0.585441</v>
+        <v>0.586398</v>
       </c>
       <c r="D64" t="n">
-        <v>0.243165</v>
+        <v>0.249367</v>
       </c>
     </row>
     <row r="65">
@@ -4154,13 +4154,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.227333</v>
+        <v>0.226985</v>
       </c>
       <c r="C65" t="n">
-        <v>0.543866</v>
+        <v>0.548403</v>
       </c>
       <c r="D65" t="n">
-        <v>0.242709</v>
+        <v>0.248642</v>
       </c>
     </row>
     <row r="66">
@@ -4168,13 +4168,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.210969</v>
+        <v>0.210602</v>
       </c>
       <c r="C66" t="n">
-        <v>0.543122</v>
+        <v>0.544813</v>
       </c>
       <c r="D66" t="n">
-        <v>0.257938</v>
+        <v>0.265423</v>
       </c>
     </row>
     <row r="67">
@@ -4182,13 +4182,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.356065</v>
+        <v>0.356047</v>
       </c>
       <c r="C67" t="n">
-        <v>0.540984</v>
+        <v>0.542478</v>
       </c>
       <c r="D67" t="n">
-        <v>0.256076</v>
+        <v>0.262742</v>
       </c>
     </row>
     <row r="68">
@@ -4196,13 +4196,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.350303</v>
+        <v>0.350163</v>
       </c>
       <c r="C68" t="n">
-        <v>0.538372</v>
+        <v>0.539958</v>
       </c>
       <c r="D68" t="n">
-        <v>0.254546</v>
+        <v>0.261382</v>
       </c>
     </row>
     <row r="69">
@@ -4210,13 +4210,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.343617</v>
+        <v>0.343499</v>
       </c>
       <c r="C69" t="n">
-        <v>0.537664</v>
+        <v>0.538291</v>
       </c>
       <c r="D69" t="n">
-        <v>0.252765</v>
+        <v>0.260306</v>
       </c>
     </row>
     <row r="70">
@@ -4224,13 +4224,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.336095</v>
+        <v>0.335921</v>
       </c>
       <c r="C70" t="n">
-        <v>0.533877</v>
+        <v>0.535238</v>
       </c>
       <c r="D70" t="n">
-        <v>0.251579</v>
+        <v>0.258855</v>
       </c>
     </row>
     <row r="71">
@@ -4238,13 +4238,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.328024</v>
+        <v>0.327482</v>
       </c>
       <c r="C71" t="n">
-        <v>0.53624</v>
+        <v>0.535721</v>
       </c>
       <c r="D71" t="n">
-        <v>0.250261</v>
+        <v>0.256319</v>
       </c>
     </row>
     <row r="72">
@@ -4252,13 +4252,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.319575</v>
+        <v>0.318927</v>
       </c>
       <c r="C72" t="n">
-        <v>0.535476</v>
+        <v>0.53623</v>
       </c>
       <c r="D72" t="n">
-        <v>0.249234</v>
+        <v>0.255346</v>
       </c>
     </row>
     <row r="73">
@@ -4266,13 +4266,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.309501</v>
+        <v>0.308905</v>
       </c>
       <c r="C73" t="n">
-        <v>0.543086</v>
+        <v>0.539429</v>
       </c>
       <c r="D73" t="n">
-        <v>0.248087</v>
+        <v>0.254046</v>
       </c>
     </row>
     <row r="74">
@@ -4280,13 +4280,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.298724</v>
+        <v>0.298076</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5490429999999999</v>
+        <v>0.543706</v>
       </c>
       <c r="D74" t="n">
-        <v>0.246996</v>
+        <v>0.252947</v>
       </c>
     </row>
     <row r="75">
@@ -4294,13 +4294,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.287516</v>
+        <v>0.286666</v>
       </c>
       <c r="C75" t="n">
-        <v>0.555225</v>
+        <v>0.549407</v>
       </c>
       <c r="D75" t="n">
-        <v>0.245942</v>
+        <v>0.25193</v>
       </c>
     </row>
     <row r="76">
@@ -4308,13 +4308,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.275325</v>
+        <v>0.274227</v>
       </c>
       <c r="C76" t="n">
-        <v>0.564212</v>
+        <v>0.5588959999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.245208</v>
+        <v>0.251146</v>
       </c>
     </row>
     <row r="77">
@@ -4322,13 +4322,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.262821</v>
+        <v>0.261471</v>
       </c>
       <c r="C77" t="n">
-        <v>0.571394</v>
+        <v>0.569442</v>
       </c>
       <c r="D77" t="n">
-        <v>0.244479</v>
+        <v>0.250405</v>
       </c>
     </row>
     <row r="78">
@@ -4336,13 +4336,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.247148</v>
+        <v>0.247322</v>
       </c>
       <c r="C78" t="n">
-        <v>0.588765</v>
+        <v>0.584164</v>
       </c>
       <c r="D78" t="n">
-        <v>0.243749</v>
+        <v>0.2498</v>
       </c>
     </row>
     <row r="79">
@@ -4350,13 +4350,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.233718</v>
+        <v>0.231371</v>
       </c>
       <c r="C79" t="n">
-        <v>0.564675</v>
+        <v>0.5690269999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>0.242879</v>
+        <v>0.248968</v>
       </c>
     </row>
     <row r="80">
@@ -4364,13 +4364,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.21703</v>
+        <v>0.215382</v>
       </c>
       <c r="C80" t="n">
-        <v>0.564009</v>
+        <v>0.566145</v>
       </c>
       <c r="D80" t="n">
-        <v>0.259759</v>
+        <v>0.266617</v>
       </c>
     </row>
     <row r="81">
@@ -4378,13 +4378,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.35734</v>
+        <v>0.357468</v>
       </c>
       <c r="C81" t="n">
-        <v>0.554903</v>
+        <v>0.561381</v>
       </c>
       <c r="D81" t="n">
-        <v>0.257553</v>
+        <v>0.264114</v>
       </c>
     </row>
     <row r="82">
@@ -4392,13 +4392,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.351988</v>
+        <v>0.351964</v>
       </c>
       <c r="C82" t="n">
-        <v>0.559203</v>
+        <v>0.558912</v>
       </c>
       <c r="D82" t="n">
-        <v>0.255466</v>
+        <v>0.262736</v>
       </c>
     </row>
     <row r="83">
@@ -4406,13 +4406,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.345857</v>
+        <v>0.345743</v>
       </c>
       <c r="C83" t="n">
-        <v>0.557341</v>
+        <v>0.5572240000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>0.253742</v>
+        <v>0.260395</v>
       </c>
     </row>
     <row r="84">
@@ -4420,13 +4420,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.338402</v>
+        <v>0.338222</v>
       </c>
       <c r="C84" t="n">
-        <v>0.552856</v>
+        <v>0.558227</v>
       </c>
       <c r="D84" t="n">
-        <v>0.252515</v>
+        <v>0.259308</v>
       </c>
     </row>
     <row r="85">
@@ -4434,13 +4434,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.33032</v>
+        <v>0.330491</v>
       </c>
       <c r="C85" t="n">
-        <v>0.552526</v>
+        <v>0.554029</v>
       </c>
       <c r="D85" t="n">
-        <v>0.250966</v>
+        <v>0.258105</v>
       </c>
     </row>
     <row r="86">
@@ -4448,13 +4448,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.321154</v>
+        <v>0.3212</v>
       </c>
       <c r="C86" t="n">
-        <v>0.552695</v>
+        <v>0.552948</v>
       </c>
       <c r="D86" t="n">
-        <v>0.249701</v>
+        <v>0.256776</v>
       </c>
     </row>
     <row r="87">
@@ -4462,13 +4462,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.311208</v>
+        <v>0.311741</v>
       </c>
       <c r="C87" t="n">
-        <v>0.558496</v>
+        <v>0.554156</v>
       </c>
       <c r="D87" t="n">
-        <v>0.248387</v>
+        <v>0.255101</v>
       </c>
     </row>
     <row r="88">
@@ -4476,13 +4476,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.300652</v>
+        <v>0.301003</v>
       </c>
       <c r="C88" t="n">
-        <v>0.566458</v>
+        <v>0.556924</v>
       </c>
       <c r="D88" t="n">
-        <v>0.247405</v>
+        <v>0.253653</v>
       </c>
     </row>
     <row r="89">
@@ -4490,13 +4490,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.290432</v>
+        <v>0.289258</v>
       </c>
       <c r="C89" t="n">
-        <v>0.567558</v>
+        <v>0.562387</v>
       </c>
       <c r="D89" t="n">
-        <v>0.246356</v>
+        <v>0.252292</v>
       </c>
     </row>
     <row r="90">
@@ -4504,13 +4504,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.278414</v>
+        <v>0.278686</v>
       </c>
       <c r="C90" t="n">
-        <v>0.5730730000000001</v>
+        <v>0.573551</v>
       </c>
       <c r="D90" t="n">
-        <v>0.2455</v>
+        <v>0.251534</v>
       </c>
     </row>
     <row r="91">
@@ -4518,13 +4518,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.265023</v>
+        <v>0.264699</v>
       </c>
       <c r="C91" t="n">
-        <v>0.588708</v>
+        <v>0.584931</v>
       </c>
       <c r="D91" t="n">
-        <v>0.244686</v>
+        <v>0.250735</v>
       </c>
     </row>
     <row r="92">
@@ -4532,13 +4532,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.251546</v>
+        <v>0.250248</v>
       </c>
       <c r="C92" t="n">
-        <v>0.598915</v>
+        <v>0.594799</v>
       </c>
       <c r="D92" t="n">
-        <v>0.24399</v>
+        <v>0.250139</v>
       </c>
     </row>
     <row r="93">
@@ -4546,13 +4546,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.236279</v>
+        <v>0.234444</v>
       </c>
       <c r="C93" t="n">
-        <v>0.621352</v>
+        <v>0.616746</v>
       </c>
       <c r="D93" t="n">
-        <v>0.243393</v>
+        <v>0.24925</v>
       </c>
     </row>
     <row r="94">
@@ -4560,13 +4560,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.219819</v>
+        <v>0.217681</v>
       </c>
       <c r="C94" t="n">
-        <v>0.74399</v>
+        <v>0.741262</v>
       </c>
       <c r="D94" t="n">
-        <v>0.261451</v>
+        <v>0.267778</v>
       </c>
     </row>
     <row r="95">
@@ -4574,13 +4574,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.359169</v>
+        <v>0.359634</v>
       </c>
       <c r="C95" t="n">
-        <v>0.747064</v>
+        <v>0.742739</v>
       </c>
       <c r="D95" t="n">
-        <v>0.258429</v>
+        <v>0.26499</v>
       </c>
     </row>
     <row r="96">
@@ -4588,13 +4588,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.353797</v>
+        <v>0.353694</v>
       </c>
       <c r="C96" t="n">
-        <v>0.735394</v>
+        <v>0.749965</v>
       </c>
       <c r="D96" t="n">
-        <v>0.256462</v>
+        <v>0.262613</v>
       </c>
     </row>
     <row r="97">
@@ -4602,13 +4602,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.347573</v>
+        <v>0.347571</v>
       </c>
       <c r="C97" t="n">
-        <v>0.754394</v>
+        <v>0.752637</v>
       </c>
       <c r="D97" t="n">
-        <v>0.254599</v>
+        <v>0.261701</v>
       </c>
     </row>
     <row r="98">
@@ -4616,13 +4616,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.340581</v>
+        <v>0.340387</v>
       </c>
       <c r="C98" t="n">
-        <v>0.767792</v>
+        <v>0.753769</v>
       </c>
       <c r="D98" t="n">
-        <v>0.253067</v>
+        <v>0.259487</v>
       </c>
     </row>
     <row r="99">
@@ -4630,13 +4630,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.332571</v>
+        <v>0.332386</v>
       </c>
       <c r="C99" t="n">
-        <v>0.752773</v>
+        <v>0.729648</v>
       </c>
       <c r="D99" t="n">
-        <v>0.251646</v>
+        <v>0.258424</v>
       </c>
     </row>
     <row r="100">
@@ -4644,13 +4644,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.324042</v>
+        <v>0.323458</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7730939999999999</v>
+        <v>0.769905</v>
       </c>
       <c r="D100" t="n">
-        <v>0.250268</v>
+        <v>0.257084</v>
       </c>
     </row>
     <row r="101">
@@ -4658,13 +4658,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.313637</v>
+        <v>0.313557</v>
       </c>
       <c r="C101" t="n">
-        <v>0.74534</v>
+        <v>0.773611</v>
       </c>
       <c r="D101" t="n">
-        <v>0.249193</v>
+        <v>0.256423</v>
       </c>
     </row>
     <row r="102">
@@ -4672,13 +4672,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.304058</v>
+        <v>0.303158</v>
       </c>
       <c r="C102" t="n">
-        <v>0.777544</v>
+        <v>0.787562</v>
       </c>
       <c r="D102" t="n">
-        <v>0.247956</v>
+        <v>0.254318</v>
       </c>
     </row>
     <row r="103">
@@ -4686,13 +4686,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.293073</v>
+        <v>0.291899</v>
       </c>
       <c r="C103" t="n">
-        <v>0.750856</v>
+        <v>0.791339</v>
       </c>
       <c r="D103" t="n">
-        <v>0.246831</v>
+        <v>0.253272</v>
       </c>
     </row>
     <row r="104">
@@ -4700,13 +4700,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.281433</v>
+        <v>0.280329</v>
       </c>
       <c r="C104" t="n">
-        <v>0.80077</v>
+        <v>0.801155</v>
       </c>
       <c r="D104" t="n">
-        <v>0.246127</v>
+        <v>0.252574</v>
       </c>
     </row>
     <row r="105">
@@ -4714,13 +4714,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.268231</v>
+        <v>0.267267</v>
       </c>
       <c r="C105" t="n">
-        <v>0.817234</v>
+        <v>0.817378</v>
       </c>
       <c r="D105" t="n">
-        <v>0.245349</v>
+        <v>0.251072</v>
       </c>
     </row>
     <row r="106">
@@ -4728,13 +4728,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.254464</v>
+        <v>0.252889</v>
       </c>
       <c r="C106" t="n">
-        <v>0.832589</v>
+        <v>0.840882</v>
       </c>
       <c r="D106" t="n">
-        <v>0.244632</v>
+        <v>0.251172</v>
       </c>
     </row>
     <row r="107">
@@ -4742,13 +4742,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.238001</v>
+        <v>0.23783</v>
       </c>
       <c r="C107" t="n">
-        <v>0.79909</v>
+        <v>0.854163</v>
       </c>
       <c r="D107" t="n">
-        <v>0.24405</v>
+        <v>0.249745</v>
       </c>
     </row>
     <row r="108">
@@ -4756,13 +4756,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.224119</v>
+        <v>0.221873</v>
       </c>
       <c r="C108" t="n">
-        <v>0.911413</v>
+        <v>0.853176</v>
       </c>
       <c r="D108" t="n">
-        <v>0.262041</v>
+        <v>0.268357</v>
       </c>
     </row>
     <row r="109">
@@ -4770,13 +4770,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.204868</v>
+        <v>0.204774</v>
       </c>
       <c r="C109" t="n">
-        <v>0.945047</v>
+        <v>0.932689</v>
       </c>
       <c r="D109" t="n">
-        <v>0.259774</v>
+        <v>0.265956</v>
       </c>
     </row>
     <row r="110">
@@ -4784,13 +4784,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.354729</v>
+        <v>0.355185</v>
       </c>
       <c r="C110" t="n">
-        <v>0.946484</v>
+        <v>0.886119</v>
       </c>
       <c r="D110" t="n">
-        <v>0.257267</v>
+        <v>0.262998</v>
       </c>
     </row>
     <row r="111">
@@ -4798,13 +4798,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.348563</v>
+        <v>0.348763</v>
       </c>
       <c r="C111" t="n">
-        <v>0.908675</v>
+        <v>0.950422</v>
       </c>
       <c r="D111" t="n">
-        <v>0.255497</v>
+        <v>0.261611</v>
       </c>
     </row>
     <row r="112">
@@ -4812,13 +4812,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.341676</v>
+        <v>0.34191</v>
       </c>
       <c r="C112" t="n">
-        <v>0.87812</v>
+        <v>0.968179</v>
       </c>
       <c r="D112" t="n">
-        <v>0.253997</v>
+        <v>0.260236</v>
       </c>
     </row>
     <row r="113">
@@ -4826,13 +4826,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.333757</v>
+        <v>0.333798</v>
       </c>
       <c r="C113" t="n">
-        <v>0.97368</v>
+        <v>0.980907</v>
       </c>
       <c r="D113" t="n">
-        <v>0.252367</v>
+        <v>0.259215</v>
       </c>
     </row>
     <row r="114">
@@ -4840,13 +4840,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.324898</v>
+        <v>0.325367</v>
       </c>
       <c r="C114" t="n">
-        <v>1.01137</v>
+        <v>1.00328</v>
       </c>
       <c r="D114" t="n">
-        <v>0.251014</v>
+        <v>0.257692</v>
       </c>
     </row>
     <row r="115">
@@ -4854,13 +4854,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.316465</v>
+        <v>0.316747</v>
       </c>
       <c r="C115" t="n">
-        <v>1.01153</v>
+        <v>1.01945</v>
       </c>
       <c r="D115" t="n">
-        <v>0.250347</v>
+        <v>0.256902</v>
       </c>
     </row>
     <row r="116">
@@ -4868,13 +4868,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.306409</v>
+        <v>0.306507</v>
       </c>
       <c r="C116" t="n">
-        <v>1.05339</v>
+        <v>1.04064</v>
       </c>
       <c r="D116" t="n">
-        <v>0.249134</v>
+        <v>0.255347</v>
       </c>
     </row>
     <row r="117">
@@ -4882,13 +4882,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.295602</v>
+        <v>0.29573</v>
       </c>
       <c r="C117" t="n">
-        <v>1.07636</v>
+        <v>1.06307</v>
       </c>
       <c r="D117" t="n">
-        <v>0.247864</v>
+        <v>0.254454</v>
       </c>
     </row>
     <row r="118">
@@ -4896,13 +4896,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.284035</v>
+        <v>0.284438</v>
       </c>
       <c r="C118" t="n">
-        <v>1.10507</v>
+        <v>1.06474</v>
       </c>
       <c r="D118" t="n">
-        <v>0.246859</v>
+        <v>0.252399</v>
       </c>
     </row>
     <row r="119">
@@ -4910,13 +4910,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.271362</v>
+        <v>0.271773</v>
       </c>
       <c r="C119" t="n">
-        <v>1.13875</v>
+        <v>1.12389</v>
       </c>
       <c r="D119" t="n">
-        <v>0.246386</v>
+        <v>0.251536</v>
       </c>
     </row>
     <row r="120">
@@ -4924,13 +4924,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.258301</v>
+        <v>0.258208</v>
       </c>
       <c r="C120" t="n">
-        <v>1.17249</v>
+        <v>1.07063</v>
       </c>
       <c r="D120" t="n">
-        <v>0.245858</v>
+        <v>0.250898</v>
       </c>
     </row>
     <row r="121">
@@ -4938,13 +4938,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.243591</v>
+        <v>0.243798</v>
       </c>
       <c r="C121" t="n">
-        <v>1.12213</v>
+        <v>1.21087</v>
       </c>
       <c r="D121" t="n">
-        <v>0.245061</v>
+        <v>0.250452</v>
       </c>
     </row>
     <row r="122">
@@ -4952,13 +4952,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.227159</v>
+        <v>0.226883</v>
       </c>
       <c r="C122" t="n">
-        <v>1.08287</v>
+        <v>1.07814</v>
       </c>
       <c r="D122" t="n">
-        <v>0.244235</v>
+        <v>0.249605</v>
       </c>
     </row>
     <row r="123">
@@ -4966,13 +4966,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.209404</v>
+        <v>0.209035</v>
       </c>
       <c r="C123" t="n">
-        <v>1.07367</v>
+        <v>1.08816</v>
       </c>
       <c r="D123" t="n">
-        <v>0.260797</v>
+        <v>0.265947</v>
       </c>
     </row>
     <row r="124">
@@ -4980,13 +4980,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.356097</v>
+        <v>0.356217</v>
       </c>
       <c r="C124" t="n">
-        <v>1.11709</v>
+        <v>1.09693</v>
       </c>
       <c r="D124" t="n">
-        <v>0.258654</v>
+        <v>0.264271</v>
       </c>
     </row>
     <row r="125">
@@ -4994,13 +4994,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.350083</v>
+        <v>0.350346</v>
       </c>
       <c r="C125" t="n">
-        <v>1.13094</v>
+        <v>1.1025</v>
       </c>
       <c r="D125" t="n">
-        <v>0.256135</v>
+        <v>0.261538</v>
       </c>
     </row>
     <row r="126">
@@ -5008,13 +5008,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.343218</v>
+        <v>0.343462</v>
       </c>
       <c r="C126" t="n">
-        <v>1.08935</v>
+        <v>1.12109</v>
       </c>
       <c r="D126" t="n">
-        <v>0.25518</v>
+        <v>0.260237</v>
       </c>
     </row>
     <row r="127">
@@ -5022,13 +5022,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.335736</v>
+        <v>0.33573</v>
       </c>
       <c r="C127" t="n">
-        <v>1.16443</v>
+        <v>1.13586</v>
       </c>
       <c r="D127" t="n">
-        <v>0.253516</v>
+        <v>0.259374</v>
       </c>
     </row>
     <row r="128">
@@ -5036,13 +5036,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.327168</v>
+        <v>0.327463</v>
       </c>
       <c r="C128" t="n">
-        <v>1.18271</v>
+        <v>1.15863</v>
       </c>
       <c r="D128" t="n">
-        <v>0.252167</v>
+        <v>0.257394</v>
       </c>
     </row>
     <row r="129">
@@ -5050,13 +5050,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.317989</v>
+        <v>0.317874</v>
       </c>
       <c r="C129" t="n">
-        <v>1.2074</v>
+        <v>1.18934</v>
       </c>
       <c r="D129" t="n">
-        <v>0.251181</v>
+        <v>0.255963</v>
       </c>
     </row>
     <row r="130">
@@ -5064,13 +5064,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.308456</v>
+        <v>0.30775</v>
       </c>
       <c r="C130" t="n">
-        <v>1.24046</v>
+        <v>1.21605</v>
       </c>
       <c r="D130" t="n">
-        <v>0.249811</v>
+        <v>0.255053</v>
       </c>
     </row>
     <row r="131">
@@ -5078,13 +5078,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.297051</v>
+        <v>0.297291</v>
       </c>
       <c r="C131" t="n">
-        <v>1.2225</v>
+        <v>1.24116</v>
       </c>
       <c r="D131" t="n">
-        <v>0.24866</v>
+        <v>0.254077</v>
       </c>
     </row>
     <row r="132">
@@ -5092,13 +5092,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.285289</v>
+        <v>0.285791</v>
       </c>
       <c r="C132" t="n">
-        <v>1.23814</v>
+        <v>1.2799</v>
       </c>
       <c r="D132" t="n">
-        <v>0.247598</v>
+        <v>0.253582</v>
       </c>
     </row>
     <row r="133">
@@ -5106,13 +5106,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.272099</v>
+        <v>0.272251</v>
       </c>
       <c r="C133" t="n">
-        <v>1.33131</v>
+        <v>1.31422</v>
       </c>
       <c r="D133" t="n">
-        <v>0.246445</v>
+        <v>0.252375</v>
       </c>
     </row>
     <row r="134">
@@ -5120,13 +5120,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.259375</v>
+        <v>0.259199</v>
       </c>
       <c r="C134" t="n">
-        <v>1.37243</v>
+        <v>1.35813</v>
       </c>
       <c r="D134" t="n">
-        <v>0.246465</v>
+        <v>0.252079</v>
       </c>
     </row>
     <row r="135">
@@ -5134,13 +5134,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.24421</v>
+        <v>0.245244</v>
       </c>
       <c r="C135" t="n">
-        <v>1.41482</v>
+        <v>1.41047</v>
       </c>
       <c r="D135" t="n">
-        <v>0.245819</v>
+        <v>0.250597</v>
       </c>
     </row>
     <row r="136">
@@ -5148,13 +5148,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.229184</v>
+        <v>0.229088</v>
       </c>
       <c r="C136" t="n">
-        <v>1.22681</v>
+        <v>1.21857</v>
       </c>
       <c r="D136" t="n">
-        <v>0.24484</v>
+        <v>0.25001</v>
       </c>
     </row>
     <row r="137">
@@ -5162,13 +5162,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.212311</v>
+        <v>0.212165</v>
       </c>
       <c r="C137" t="n">
-        <v>1.22003</v>
+        <v>1.20926</v>
       </c>
       <c r="D137" t="n">
-        <v>0.261706</v>
+        <v>0.265787</v>
       </c>
     </row>
     <row r="138">
@@ -5176,13 +5176,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.358075</v>
+        <v>0.357766</v>
       </c>
       <c r="C138" t="n">
-        <v>1.2328</v>
+        <v>1.23302</v>
       </c>
       <c r="D138" t="n">
-        <v>0.25938</v>
+        <v>0.26388</v>
       </c>
     </row>
     <row r="139">
@@ -5190,13 +5190,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.351638</v>
+        <v>0.352355</v>
       </c>
       <c r="C139" t="n">
-        <v>1.22035</v>
+        <v>1.23958</v>
       </c>
       <c r="D139" t="n">
-        <v>0.257574</v>
+        <v>0.261919</v>
       </c>
     </row>
     <row r="140">
@@ -5204,13 +5204,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.345385</v>
+        <v>0.345297</v>
       </c>
       <c r="C140" t="n">
-        <v>1.23141</v>
+        <v>1.25214</v>
       </c>
       <c r="D140" t="n">
-        <v>0.256357</v>
+        <v>0.261788</v>
       </c>
     </row>
     <row r="141">
@@ -5218,13 +5218,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.337655</v>
+        <v>0.338115</v>
       </c>
       <c r="C141" t="n">
-        <v>1.24631</v>
+        <v>1.25432</v>
       </c>
       <c r="D141" t="n">
-        <v>0.254793</v>
+        <v>0.260034</v>
       </c>
     </row>
     <row r="142">
@@ -5232,13 +5232,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.329592</v>
+        <v>0.330077</v>
       </c>
       <c r="C142" t="n">
-        <v>1.26353</v>
+        <v>1.2957</v>
       </c>
       <c r="D142" t="n">
-        <v>0.253668</v>
+        <v>0.257949</v>
       </c>
     </row>
     <row r="143">
@@ -5246,13 +5246,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.32017</v>
+        <v>0.320839</v>
       </c>
       <c r="C143" t="n">
-        <v>1.29699</v>
+        <v>1.3232</v>
       </c>
       <c r="D143" t="n">
-        <v>0.251805</v>
+        <v>0.257526</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.287773</v>
+        <v>0.28202</v>
       </c>
       <c r="C2" t="n">
-        <v>0.193333</v>
+        <v>0.192744</v>
       </c>
       <c r="D2" t="n">
-        <v>0.229908</v>
+        <v>0.226996</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.26876</v>
+        <v>0.268954</v>
       </c>
       <c r="C3" t="n">
-        <v>0.195172</v>
+        <v>0.19646</v>
       </c>
       <c r="D3" t="n">
-        <v>0.230235</v>
+        <v>0.226227</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.258696</v>
+        <v>0.259831</v>
       </c>
       <c r="C4" t="n">
-        <v>0.196093</v>
+        <v>0.195239</v>
       </c>
       <c r="D4" t="n">
-        <v>0.227043</v>
+        <v>0.227607</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.248363</v>
+        <v>0.248259</v>
       </c>
       <c r="C5" t="n">
-        <v>0.195971</v>
+        <v>0.195126</v>
       </c>
       <c r="D5" t="n">
-        <v>0.228189</v>
+        <v>0.227982</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.234478</v>
+        <v>0.236082</v>
       </c>
       <c r="C6" t="n">
-        <v>0.196182</v>
+        <v>0.195821</v>
       </c>
       <c r="D6" t="n">
-        <v>0.22927</v>
+        <v>0.229207</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.225148</v>
+        <v>0.224255</v>
       </c>
       <c r="C7" t="n">
-        <v>0.196852</v>
+        <v>0.196215</v>
       </c>
       <c r="D7" t="n">
-        <v>0.229081</v>
+        <v>0.228817</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.209499</v>
+        <v>0.21042</v>
       </c>
       <c r="C8" t="n">
-        <v>0.198105</v>
+        <v>0.197582</v>
       </c>
       <c r="D8" t="n">
-        <v>0.229051</v>
+        <v>0.231739</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.19537</v>
+        <v>0.19462</v>
       </c>
       <c r="C9" t="n">
-        <v>0.199478</v>
+        <v>0.199704</v>
       </c>
       <c r="D9" t="n">
-        <v>0.261227</v>
+        <v>0.253208</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.345017</v>
+        <v>0.334348</v>
       </c>
       <c r="C10" t="n">
-        <v>0.215632</v>
+        <v>0.215535</v>
       </c>
       <c r="D10" t="n">
-        <v>0.255443</v>
+        <v>0.251868</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.33009</v>
+        <v>0.329376</v>
       </c>
       <c r="C11" t="n">
-        <v>0.21521</v>
+        <v>0.215437</v>
       </c>
       <c r="D11" t="n">
-        <v>0.25606</v>
+        <v>0.250473</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.323546</v>
+        <v>0.324197</v>
       </c>
       <c r="C12" t="n">
-        <v>0.21372</v>
+        <v>0.213814</v>
       </c>
       <c r="D12" t="n">
-        <v>0.248686</v>
+        <v>0.254553</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.318088</v>
+        <v>0.31869</v>
       </c>
       <c r="C13" t="n">
-        <v>0.213054</v>
+        <v>0.212736</v>
       </c>
       <c r="D13" t="n">
-        <v>0.249783</v>
+        <v>0.251319</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.311771</v>
+        <v>0.311177</v>
       </c>
       <c r="C14" t="n">
-        <v>0.211987</v>
+        <v>0.211675</v>
       </c>
       <c r="D14" t="n">
-        <v>0.246375</v>
+        <v>0.250793</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.303099</v>
+        <v>0.302909</v>
       </c>
       <c r="C15" t="n">
-        <v>0.212072</v>
+        <v>0.211595</v>
       </c>
       <c r="D15" t="n">
-        <v>0.249813</v>
+        <v>0.249138</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.293963</v>
+        <v>0.293873</v>
       </c>
       <c r="C16" t="n">
-        <v>0.21206</v>
+        <v>0.210914</v>
       </c>
       <c r="D16" t="n">
-        <v>0.249387</v>
+        <v>0.249566</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.284582</v>
+        <v>0.28566</v>
       </c>
       <c r="C17" t="n">
-        <v>0.211401</v>
+        <v>0.211112</v>
       </c>
       <c r="D17" t="n">
-        <v>0.245021</v>
+        <v>0.248591</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.276335</v>
+        <v>0.276383</v>
       </c>
       <c r="C18" t="n">
-        <v>0.211569</v>
+        <v>0.21107</v>
       </c>
       <c r="D18" t="n">
-        <v>0.243133</v>
+        <v>0.252143</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.265667</v>
+        <v>0.26549</v>
       </c>
       <c r="C19" t="n">
-        <v>0.21079</v>
+        <v>0.209846</v>
       </c>
       <c r="D19" t="n">
-        <v>0.248698</v>
+        <v>0.252447</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.254405</v>
+        <v>0.255109</v>
       </c>
       <c r="C20" t="n">
-        <v>0.21175</v>
+        <v>0.210019</v>
       </c>
       <c r="D20" t="n">
-        <v>0.246919</v>
+        <v>0.248245</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.245346</v>
+        <v>0.241122</v>
       </c>
       <c r="C21" t="n">
-        <v>0.210602</v>
+        <v>0.211591</v>
       </c>
       <c r="D21" t="n">
-        <v>0.245698</v>
+        <v>0.245745</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2265</v>
+        <v>0.226812</v>
       </c>
       <c r="C22" t="n">
-        <v>0.210919</v>
+        <v>0.210163</v>
       </c>
       <c r="D22" t="n">
-        <v>0.244939</v>
+        <v>0.245088</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.209735</v>
+        <v>0.210034</v>
       </c>
       <c r="C23" t="n">
-        <v>0.209858</v>
+        <v>0.209911</v>
       </c>
       <c r="D23" t="n">
-        <v>0.259813</v>
+        <v>0.260149</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348059</v>
+        <v>0.348156</v>
       </c>
       <c r="C24" t="n">
-        <v>0.223575</v>
+        <v>0.224398</v>
       </c>
       <c r="D24" t="n">
-        <v>0.258183</v>
+        <v>0.258445</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.342346</v>
+        <v>0.342467</v>
       </c>
       <c r="C25" t="n">
-        <v>0.222649</v>
+        <v>0.222306</v>
       </c>
       <c r="D25" t="n">
-        <v>0.257877</v>
+        <v>0.257635</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.335925</v>
+        <v>0.335986</v>
       </c>
       <c r="C26" t="n">
-        <v>0.220248</v>
+        <v>0.219641</v>
       </c>
       <c r="D26" t="n">
-        <v>0.256358</v>
+        <v>0.256125</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.328992</v>
+        <v>0.329271</v>
       </c>
       <c r="C27" t="n">
-        <v>0.219098</v>
+        <v>0.218407</v>
       </c>
       <c r="D27" t="n">
-        <v>0.253085</v>
+        <v>0.252884</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.323077</v>
+        <v>0.323084</v>
       </c>
       <c r="C28" t="n">
-        <v>0.216908</v>
+        <v>0.216312</v>
       </c>
       <c r="D28" t="n">
-        <v>0.251389</v>
+        <v>0.25148</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.314053</v>
+        <v>0.314028</v>
       </c>
       <c r="C29" t="n">
-        <v>0.216156</v>
+        <v>0.215406</v>
       </c>
       <c r="D29" t="n">
-        <v>0.250323</v>
+        <v>0.249768</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.305086</v>
+        <v>0.305287</v>
       </c>
       <c r="C30" t="n">
-        <v>0.214648</v>
+        <v>0.214748</v>
       </c>
       <c r="D30" t="n">
-        <v>0.248878</v>
+        <v>0.249107</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.294989</v>
+        <v>0.294632</v>
       </c>
       <c r="C31" t="n">
-        <v>0.214013</v>
+        <v>0.214197</v>
       </c>
       <c r="D31" t="n">
-        <v>0.248184</v>
+        <v>0.247965</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.284709</v>
+        <v>0.284557</v>
       </c>
       <c r="C32" t="n">
-        <v>0.213972</v>
+        <v>0.213966</v>
       </c>
       <c r="D32" t="n">
-        <v>0.246646</v>
+        <v>0.246675</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.273871</v>
+        <v>0.274113</v>
       </c>
       <c r="C33" t="n">
-        <v>0.213029</v>
+        <v>0.212865</v>
       </c>
       <c r="D33" t="n">
-        <v>0.246078</v>
+        <v>0.246414</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.261882</v>
+        <v>0.262623</v>
       </c>
       <c r="C34" t="n">
-        <v>0.212379</v>
+        <v>0.212529</v>
       </c>
       <c r="D34" t="n">
-        <v>0.244637</v>
+        <v>0.244713</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.248401</v>
+        <v>0.248823</v>
       </c>
       <c r="C35" t="n">
-        <v>0.212071</v>
+        <v>0.212077</v>
       </c>
       <c r="D35" t="n">
-        <v>0.244788</v>
+        <v>0.244584</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.234958</v>
+        <v>0.234973</v>
       </c>
       <c r="C36" t="n">
-        <v>0.212011</v>
+        <v>0.2122</v>
       </c>
       <c r="D36" t="n">
-        <v>0.245634</v>
+        <v>0.245766</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.219331</v>
+        <v>0.219885</v>
       </c>
       <c r="C37" t="n">
-        <v>0.213114</v>
+        <v>0.212643</v>
       </c>
       <c r="D37" t="n">
-        <v>0.262068</v>
+        <v>0.262224</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.352256</v>
+        <v>0.351839</v>
       </c>
       <c r="C38" t="n">
-        <v>0.227867</v>
+        <v>0.228449</v>
       </c>
       <c r="D38" t="n">
-        <v>0.259601</v>
+        <v>0.259612</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.347281</v>
+        <v>0.346881</v>
       </c>
       <c r="C39" t="n">
-        <v>0.225851</v>
+        <v>0.226157</v>
       </c>
       <c r="D39" t="n">
-        <v>0.257163</v>
+        <v>0.257429</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.341378</v>
+        <v>0.341398</v>
       </c>
       <c r="C40" t="n">
-        <v>0.223034</v>
+        <v>0.223251</v>
       </c>
       <c r="D40" t="n">
-        <v>0.255876</v>
+        <v>0.255789</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.334501</v>
+        <v>0.334603</v>
       </c>
       <c r="C41" t="n">
-        <v>0.219803</v>
+        <v>0.219971</v>
       </c>
       <c r="D41" t="n">
-        <v>0.25385</v>
+        <v>0.253752</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.327493</v>
+        <v>0.327133</v>
       </c>
       <c r="C42" t="n">
-        <v>0.218077</v>
+        <v>0.21821</v>
       </c>
       <c r="D42" t="n">
-        <v>0.252828</v>
+        <v>0.252757</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.319776</v>
+        <v>0.319997</v>
       </c>
       <c r="C43" t="n">
-        <v>0.216966</v>
+        <v>0.217013</v>
       </c>
       <c r="D43" t="n">
-        <v>0.251285</v>
+        <v>0.251349</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.310563</v>
+        <v>0.310815</v>
       </c>
       <c r="C44" t="n">
-        <v>0.215705</v>
+        <v>0.215637</v>
       </c>
       <c r="D44" t="n">
-        <v>0.249382</v>
+        <v>0.249427</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.301999</v>
+        <v>0.301993</v>
       </c>
       <c r="C45" t="n">
-        <v>0.215251</v>
+        <v>0.215185</v>
       </c>
       <c r="D45" t="n">
-        <v>0.24894</v>
+        <v>0.2491</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.29132</v>
+        <v>0.291564</v>
       </c>
       <c r="C46" t="n">
-        <v>0.214507</v>
+        <v>0.214323</v>
       </c>
       <c r="D46" t="n">
-        <v>0.247387</v>
+        <v>0.247343</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.280063</v>
+        <v>0.279968</v>
       </c>
       <c r="C47" t="n">
-        <v>0.213986</v>
+        <v>0.213804</v>
       </c>
       <c r="D47" t="n">
-        <v>0.246553</v>
+        <v>0.246773</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.268686</v>
+        <v>0.268665</v>
       </c>
       <c r="C48" t="n">
-        <v>0.213102</v>
+        <v>0.212873</v>
       </c>
       <c r="D48" t="n">
-        <v>0.246503</v>
+        <v>0.246658</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.25618</v>
+        <v>0.256365</v>
       </c>
       <c r="C49" t="n">
-        <v>0.212775</v>
+        <v>0.21252</v>
       </c>
       <c r="D49" t="n">
-        <v>0.245627</v>
+        <v>0.245759</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.242237</v>
+        <v>0.242184</v>
       </c>
       <c r="C50" t="n">
-        <v>0.212925</v>
+        <v>0.212404</v>
       </c>
       <c r="D50" t="n">
-        <v>0.24678</v>
+        <v>0.246908</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.226973</v>
+        <v>0.226965</v>
       </c>
       <c r="C51" t="n">
-        <v>0.212271</v>
+        <v>0.212196</v>
       </c>
       <c r="D51" t="n">
-        <v>0.261566</v>
+        <v>0.261533</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.210027</v>
+        <v>0.210212</v>
       </c>
       <c r="C52" t="n">
-        <v>0.211979</v>
+        <v>0.212033</v>
       </c>
       <c r="D52" t="n">
-        <v>0.258358</v>
+        <v>0.258513</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.350621</v>
+        <v>0.350226</v>
       </c>
       <c r="C53" t="n">
-        <v>0.224767</v>
+        <v>0.22499</v>
       </c>
       <c r="D53" t="n">
-        <v>0.256374</v>
+        <v>0.256393</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.344779</v>
+        <v>0.34464</v>
       </c>
       <c r="C54" t="n">
-        <v>0.222164</v>
+        <v>0.222342</v>
       </c>
       <c r="D54" t="n">
-        <v>0.254935</v>
+        <v>0.255043</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.338598</v>
+        <v>0.338423</v>
       </c>
       <c r="C55" t="n">
-        <v>0.219286</v>
+        <v>0.219461</v>
       </c>
       <c r="D55" t="n">
-        <v>0.25357</v>
+        <v>0.253425</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.33143</v>
+        <v>0.331325</v>
       </c>
       <c r="C56" t="n">
-        <v>0.218015</v>
+        <v>0.218028</v>
       </c>
       <c r="D56" t="n">
-        <v>0.251891</v>
+        <v>0.251643</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.32326</v>
+        <v>0.323225</v>
       </c>
       <c r="C57" t="n">
-        <v>0.216679</v>
+        <v>0.216668</v>
       </c>
       <c r="D57" t="n">
-        <v>0.250584</v>
+        <v>0.250557</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.31452</v>
+        <v>0.314692</v>
       </c>
       <c r="C58" t="n">
-        <v>0.215677</v>
+        <v>0.215659</v>
       </c>
       <c r="D58" t="n">
-        <v>0.249261</v>
+        <v>0.249244</v>
       </c>
     </row>
     <row r="59">
@@ -4050,10 +4050,10 @@
         <v>0.305469</v>
       </c>
       <c r="C59" t="n">
-        <v>0.214521</v>
+        <v>0.214434</v>
       </c>
       <c r="D59" t="n">
-        <v>0.248202</v>
+        <v>0.248201</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.295361</v>
+        <v>0.295121</v>
       </c>
       <c r="C60" t="n">
-        <v>0.213743</v>
+        <v>0.213663</v>
       </c>
       <c r="D60" t="n">
-        <v>0.247221</v>
+        <v>0.246949</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.284093</v>
+        <v>0.284279</v>
       </c>
       <c r="C61" t="n">
-        <v>0.213286</v>
+        <v>0.213159</v>
       </c>
       <c r="D61" t="n">
-        <v>0.246629</v>
+        <v>0.246468</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.271998</v>
+        <v>0.272378</v>
       </c>
       <c r="C62" t="n">
-        <v>0.212615</v>
+        <v>0.212565</v>
       </c>
       <c r="D62" t="n">
-        <v>0.245867</v>
+        <v>0.245852</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.259564</v>
+        <v>0.259907</v>
       </c>
       <c r="C63" t="n">
-        <v>0.212087</v>
+        <v>0.212073</v>
       </c>
       <c r="D63" t="n">
-        <v>0.244658</v>
+        <v>0.244665</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.245972</v>
+        <v>0.246286</v>
       </c>
       <c r="C64" t="n">
-        <v>0.211985</v>
+        <v>0.211865</v>
       </c>
       <c r="D64" t="n">
-        <v>0.244417</v>
+        <v>0.244446</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.230642</v>
+        <v>0.230749</v>
       </c>
       <c r="C65" t="n">
-        <v>0.211692</v>
+        <v>0.211565</v>
       </c>
       <c r="D65" t="n">
-        <v>0.243423</v>
+        <v>0.24349</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.213937</v>
+        <v>0.213982</v>
       </c>
       <c r="C66" t="n">
-        <v>0.211929</v>
+        <v>0.211895</v>
       </c>
       <c r="D66" t="n">
-        <v>0.25966</v>
+        <v>0.259678</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.352602</v>
+        <v>0.352514</v>
       </c>
       <c r="C67" t="n">
-        <v>0.226539</v>
+        <v>0.226693</v>
       </c>
       <c r="D67" t="n">
-        <v>0.257187</v>
+        <v>0.257208</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.347319</v>
+        <v>0.34729</v>
       </c>
       <c r="C68" t="n">
-        <v>0.222618</v>
+        <v>0.222704</v>
       </c>
       <c r="D68" t="n">
-        <v>0.255228</v>
+        <v>0.255062</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.340957</v>
+        <v>0.341022</v>
       </c>
       <c r="C69" t="n">
-        <v>0.21997</v>
+        <v>0.219965</v>
       </c>
       <c r="D69" t="n">
-        <v>0.253498</v>
+        <v>0.253445</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.333742</v>
+        <v>0.33373</v>
       </c>
       <c r="C70" t="n">
-        <v>0.217885</v>
+        <v>0.21786</v>
       </c>
       <c r="D70" t="n">
-        <v>0.251873</v>
+        <v>0.251888</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.325722</v>
+        <v>0.325783</v>
       </c>
       <c r="C71" t="n">
-        <v>0.216765</v>
+        <v>0.216732</v>
       </c>
       <c r="D71" t="n">
-        <v>0.2508</v>
+        <v>0.250842</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.317045</v>
+        <v>0.316885</v>
       </c>
       <c r="C72" t="n">
-        <v>0.2156</v>
+        <v>0.215611</v>
       </c>
       <c r="D72" t="n">
-        <v>0.249818</v>
+        <v>0.249848</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.307691</v>
+        <v>0.307607</v>
       </c>
       <c r="C73" t="n">
-        <v>0.214841</v>
+        <v>0.214879</v>
       </c>
       <c r="D73" t="n">
-        <v>0.248418</v>
+        <v>0.248421</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.297666</v>
+        <v>0.297764</v>
       </c>
       <c r="C74" t="n">
-        <v>0.214148</v>
+        <v>0.214079</v>
       </c>
       <c r="D74" t="n">
-        <v>0.247777</v>
+        <v>0.247706</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.286742</v>
+        <v>0.286998</v>
       </c>
       <c r="C75" t="n">
-        <v>0.213398</v>
+        <v>0.21339</v>
       </c>
       <c r="D75" t="n">
-        <v>0.247099</v>
+        <v>0.247145</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.275414</v>
+        <v>0.275635</v>
       </c>
       <c r="C76" t="n">
-        <v>0.213306</v>
+        <v>0.212954</v>
       </c>
       <c r="D76" t="n">
-        <v>0.245788</v>
+        <v>0.245692</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.263053</v>
+        <v>0.262954</v>
       </c>
       <c r="C77" t="n">
-        <v>0.212715</v>
+        <v>0.212368</v>
       </c>
       <c r="D77" t="n">
-        <v>0.245098</v>
+        <v>0.245203</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.249481</v>
+        <v>0.249312</v>
       </c>
       <c r="C78" t="n">
-        <v>0.212223</v>
+        <v>0.211957</v>
       </c>
       <c r="D78" t="n">
-        <v>0.244418</v>
+        <v>0.244477</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.234399</v>
+        <v>0.235065</v>
       </c>
       <c r="C79" t="n">
-        <v>0.212109</v>
+        <v>0.211997</v>
       </c>
       <c r="D79" t="n">
-        <v>0.244385</v>
+        <v>0.244535</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.218595</v>
+        <v>0.218667</v>
       </c>
       <c r="C80" t="n">
-        <v>0.21198</v>
+        <v>0.211954</v>
       </c>
       <c r="D80" t="n">
-        <v>0.260357</v>
+        <v>0.260456</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.353693</v>
+        <v>0.353689</v>
       </c>
       <c r="C81" t="n">
-        <v>0.225811</v>
+        <v>0.226109</v>
       </c>
       <c r="D81" t="n">
-        <v>0.257863</v>
+        <v>0.257845</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.348511</v>
+        <v>0.348349</v>
       </c>
       <c r="C82" t="n">
-        <v>0.222</v>
+        <v>0.221919</v>
       </c>
       <c r="D82" t="n">
-        <v>0.255777</v>
+        <v>0.255753</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.342006</v>
+        <v>0.341865</v>
       </c>
       <c r="C83" t="n">
-        <v>0.219695</v>
+        <v>0.219572</v>
       </c>
       <c r="D83" t="n">
-        <v>0.253956</v>
+        <v>0.253913</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.335157</v>
+        <v>0.335019</v>
       </c>
       <c r="C84" t="n">
-        <v>0.217909</v>
+        <v>0.217802</v>
       </c>
       <c r="D84" t="n">
-        <v>0.252744</v>
+        <v>0.252827</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.327341</v>
+        <v>0.327336</v>
       </c>
       <c r="C85" t="n">
-        <v>0.216809</v>
+        <v>0.216791</v>
       </c>
       <c r="D85" t="n">
-        <v>0.251519</v>
+        <v>0.251466</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.318984</v>
+        <v>0.319025</v>
       </c>
       <c r="C86" t="n">
-        <v>0.215896</v>
+        <v>0.215895</v>
       </c>
       <c r="D86" t="n">
-        <v>0.250182</v>
+        <v>0.250119</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.309877</v>
+        <v>0.309822</v>
       </c>
       <c r="C87" t="n">
-        <v>0.214813</v>
+        <v>0.21487</v>
       </c>
       <c r="D87" t="n">
-        <v>0.248785</v>
+        <v>0.248799</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.3001</v>
+        <v>0.300206</v>
       </c>
       <c r="C88" t="n">
-        <v>0.214008</v>
+        <v>0.214023</v>
       </c>
       <c r="D88" t="n">
-        <v>0.247586</v>
+        <v>0.247666</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.28968</v>
+        <v>0.289855</v>
       </c>
       <c r="C89" t="n">
-        <v>0.21339</v>
+        <v>0.213377</v>
       </c>
       <c r="D89" t="n">
-        <v>0.246775</v>
+        <v>0.246762</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.27807</v>
+        <v>0.278147</v>
       </c>
       <c r="C90" t="n">
-        <v>0.213219</v>
+        <v>0.212807</v>
       </c>
       <c r="D90" t="n">
-        <v>0.24598</v>
+        <v>0.245992</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.265556</v>
+        <v>0.265742</v>
       </c>
       <c r="C91" t="n">
-        <v>0.212775</v>
+        <v>0.212423</v>
       </c>
       <c r="D91" t="n">
-        <v>0.245162</v>
+        <v>0.245193</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.252226</v>
+        <v>0.252365</v>
       </c>
       <c r="C92" t="n">
-        <v>0.212261</v>
+        <v>0.212073</v>
       </c>
       <c r="D92" t="n">
-        <v>0.244363</v>
+        <v>0.244406</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.238029</v>
+        <v>0.238258</v>
       </c>
       <c r="C93" t="n">
-        <v>0.211803</v>
+        <v>0.211906</v>
       </c>
       <c r="D93" t="n">
-        <v>0.243916</v>
+        <v>0.244038</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.221994</v>
+        <v>0.222252</v>
       </c>
       <c r="C94" t="n">
-        <v>0.211764</v>
+        <v>0.21182</v>
       </c>
       <c r="D94" t="n">
-        <v>0.26162</v>
+        <v>0.261586</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.355132</v>
+        <v>0.355009</v>
       </c>
       <c r="C95" t="n">
-        <v>0.226081</v>
+        <v>0.226182</v>
       </c>
       <c r="D95" t="n">
-        <v>0.258572</v>
+        <v>0.258609</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.3499</v>
+        <v>0.349763</v>
       </c>
       <c r="C96" t="n">
-        <v>0.222998</v>
+        <v>0.223115</v>
       </c>
       <c r="D96" t="n">
-        <v>0.256476</v>
+        <v>0.256433</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.343871</v>
+        <v>0.343789</v>
       </c>
       <c r="C97" t="n">
-        <v>0.220595</v>
+        <v>0.22062</v>
       </c>
       <c r="D97" t="n">
-        <v>0.254733</v>
+        <v>0.254629</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.337035</v>
+        <v>0.336992</v>
       </c>
       <c r="C98" t="n">
-        <v>0.218449</v>
+        <v>0.218485</v>
       </c>
       <c r="D98" t="n">
-        <v>0.253317</v>
+        <v>0.25313</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.32925</v>
+        <v>0.329318</v>
       </c>
       <c r="C99" t="n">
-        <v>0.217234</v>
+        <v>0.217192</v>
       </c>
       <c r="D99" t="n">
-        <v>0.251906</v>
+        <v>0.251723</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.320879</v>
+        <v>0.321038</v>
       </c>
       <c r="C100" t="n">
-        <v>0.216021</v>
+        <v>0.215992</v>
       </c>
       <c r="D100" t="n">
-        <v>0.25062</v>
+        <v>0.25067</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.31198</v>
+        <v>0.312022</v>
       </c>
       <c r="C101" t="n">
-        <v>0.215143</v>
+        <v>0.215094</v>
       </c>
       <c r="D101" t="n">
-        <v>0.249505</v>
+        <v>0.249518</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.302199</v>
+        <v>0.302335</v>
       </c>
       <c r="C102" t="n">
-        <v>0.214275</v>
+        <v>0.214277</v>
       </c>
       <c r="D102" t="n">
-        <v>0.248456</v>
+        <v>0.248424</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.29174</v>
+        <v>0.291908</v>
       </c>
       <c r="C103" t="n">
-        <v>0.213595</v>
+        <v>0.213554</v>
       </c>
       <c r="D103" t="n">
-        <v>0.24746</v>
+        <v>0.247245</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.280479</v>
+        <v>0.280565</v>
       </c>
       <c r="C104" t="n">
-        <v>0.212946</v>
+        <v>0.212989</v>
       </c>
       <c r="D104" t="n">
-        <v>0.246332</v>
+        <v>0.246422</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.268465</v>
+        <v>0.268606</v>
       </c>
       <c r="C105" t="n">
-        <v>0.212747</v>
+        <v>0.21248</v>
       </c>
       <c r="D105" t="n">
-        <v>0.245537</v>
+        <v>0.24543</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.255483</v>
+        <v>0.255546</v>
       </c>
       <c r="C106" t="n">
-        <v>0.211926</v>
+        <v>0.211948</v>
       </c>
       <c r="D106" t="n">
-        <v>0.244629</v>
+        <v>0.244485</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.241331</v>
+        <v>0.241367</v>
       </c>
       <c r="C107" t="n">
-        <v>0.211592</v>
+        <v>0.211645</v>
       </c>
       <c r="D107" t="n">
-        <v>0.243851</v>
+        <v>0.243957</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.226061</v>
+        <v>0.225904</v>
       </c>
       <c r="C108" t="n">
-        <v>0.211378</v>
+        <v>0.211463</v>
       </c>
       <c r="D108" t="n">
-        <v>0.262093</v>
+        <v>0.261843</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.209356</v>
+        <v>0.2093</v>
       </c>
       <c r="C109" t="n">
-        <v>0.211497</v>
+        <v>0.211344</v>
       </c>
       <c r="D109" t="n">
-        <v>0.259228</v>
+        <v>0.25966</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.350846</v>
+        <v>0.350896</v>
       </c>
       <c r="C110" t="n">
-        <v>0.223333</v>
+        <v>0.223401</v>
       </c>
       <c r="D110" t="n">
-        <v>0.257283</v>
+        <v>0.257276</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.345089</v>
+        <v>0.344874</v>
       </c>
       <c r="C111" t="n">
-        <v>0.220757</v>
+        <v>0.220767</v>
       </c>
       <c r="D111" t="n">
-        <v>0.255326</v>
+        <v>0.255206</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.338423</v>
+        <v>0.338302</v>
       </c>
       <c r="C112" t="n">
-        <v>0.219017</v>
+        <v>0.218989</v>
       </c>
       <c r="D112" t="n">
-        <v>0.253741</v>
+        <v>0.253754</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.33096</v>
+        <v>0.330881</v>
       </c>
       <c r="C113" t="n">
-        <v>0.217498</v>
+        <v>0.217458</v>
       </c>
       <c r="D113" t="n">
-        <v>0.252253</v>
+        <v>0.252154</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.32284</v>
+        <v>0.322723</v>
       </c>
       <c r="C114" t="n">
-        <v>0.216341</v>
+        <v>0.216262</v>
       </c>
       <c r="D114" t="n">
-        <v>0.251184</v>
+        <v>0.250801</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.313998</v>
+        <v>0.313856</v>
       </c>
       <c r="C115" t="n">
-        <v>0.215308</v>
+        <v>0.215234</v>
       </c>
       <c r="D115" t="n">
-        <v>0.250249</v>
+        <v>0.250414</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.304425</v>
+        <v>0.30415</v>
       </c>
       <c r="C116" t="n">
-        <v>0.214619</v>
+        <v>0.214473</v>
       </c>
       <c r="D116" t="n">
-        <v>0.249363</v>
+        <v>0.249049</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.293912</v>
+        <v>0.293911</v>
       </c>
       <c r="C117" t="n">
-        <v>0.214118</v>
+        <v>0.214166</v>
       </c>
       <c r="D117" t="n">
-        <v>0.248004</v>
+        <v>0.248069</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.283103</v>
+        <v>0.282922</v>
       </c>
       <c r="C118" t="n">
-        <v>0.213593</v>
+        <v>0.21354</v>
       </c>
       <c r="D118" t="n">
-        <v>0.247</v>
+        <v>0.247197</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.271135</v>
+        <v>0.271241</v>
       </c>
       <c r="C119" t="n">
-        <v>0.212927</v>
+        <v>0.212922</v>
       </c>
       <c r="D119" t="n">
-        <v>0.246348</v>
+        <v>0.246289</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.258516</v>
+        <v>0.258465</v>
       </c>
       <c r="C120" t="n">
-        <v>0.212482</v>
+        <v>0.212461</v>
       </c>
       <c r="D120" t="n">
-        <v>0.245712</v>
+        <v>0.245477</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.244459</v>
+        <v>0.244711</v>
       </c>
       <c r="C121" t="n">
-        <v>0.212067</v>
+        <v>0.212072</v>
       </c>
       <c r="D121" t="n">
-        <v>0.244894</v>
+        <v>0.244675</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.229475</v>
+        <v>0.229586</v>
       </c>
       <c r="C122" t="n">
-        <v>0.211889</v>
+        <v>0.211874</v>
       </c>
       <c r="D122" t="n">
-        <v>0.244631</v>
+        <v>0.244669</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.212953</v>
+        <v>0.212939</v>
       </c>
       <c r="C123" t="n">
-        <v>0.211778</v>
+        <v>0.211723</v>
       </c>
       <c r="D123" t="n">
-        <v>0.260083</v>
+        <v>0.260525</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.351744</v>
+        <v>0.351697</v>
       </c>
       <c r="C124" t="n">
-        <v>0.224311</v>
+        <v>0.224372</v>
       </c>
       <c r="D124" t="n">
-        <v>0.258453</v>
+        <v>0.258499</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.34599</v>
+        <v>0.345877</v>
       </c>
       <c r="C125" t="n">
-        <v>0.221344</v>
+        <v>0.221322</v>
       </c>
       <c r="D125" t="n">
-        <v>0.256035</v>
+        <v>0.255937</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.339374</v>
+        <v>0.339332</v>
       </c>
       <c r="C126" t="n">
-        <v>0.219382</v>
+        <v>0.219408</v>
       </c>
       <c r="D126" t="n">
-        <v>0.25482</v>
+        <v>0.254935</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.332155</v>
+        <v>0.33219</v>
       </c>
       <c r="C127" t="n">
-        <v>0.217758</v>
+        <v>0.217799</v>
       </c>
       <c r="D127" t="n">
-        <v>0.253132</v>
+        <v>0.253116</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.324115</v>
+        <v>0.3242</v>
       </c>
       <c r="C128" t="n">
-        <v>0.216473</v>
+        <v>0.216457</v>
       </c>
       <c r="D128" t="n">
-        <v>0.251881</v>
+        <v>0.251892</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.315447</v>
+        <v>0.315489</v>
       </c>
       <c r="C129" t="n">
-        <v>0.215435</v>
+        <v>0.215448</v>
       </c>
       <c r="D129" t="n">
-        <v>0.250317</v>
+        <v>0.250456</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.305975</v>
+        <v>0.306091</v>
       </c>
       <c r="C130" t="n">
-        <v>0.214624</v>
+        <v>0.214589</v>
       </c>
       <c r="D130" t="n">
-        <v>0.249305</v>
+        <v>0.249407</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.295782</v>
+        <v>0.295997</v>
       </c>
       <c r="C131" t="n">
-        <v>0.213876</v>
+        <v>0.213871</v>
       </c>
       <c r="D131" t="n">
-        <v>0.248775</v>
+        <v>0.248319</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.285018</v>
+        <v>0.285418</v>
       </c>
       <c r="C132" t="n">
-        <v>0.213166</v>
+        <v>0.213165</v>
       </c>
       <c r="D132" t="n">
-        <v>0.247578</v>
+        <v>0.247425</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.273196</v>
+        <v>0.273353</v>
       </c>
       <c r="C133" t="n">
-        <v>0.212642</v>
+        <v>0.212638</v>
       </c>
       <c r="D133" t="n">
-        <v>0.246346</v>
+        <v>0.246861</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.260338</v>
+        <v>0.260593</v>
       </c>
       <c r="C134" t="n">
-        <v>0.2121</v>
+        <v>0.212131</v>
       </c>
       <c r="D134" t="n">
-        <v>0.246239</v>
+        <v>0.246253</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.2467</v>
+        <v>0.247024</v>
       </c>
       <c r="C135" t="n">
-        <v>0.211754</v>
+        <v>0.211749</v>
       </c>
       <c r="D135" t="n">
-        <v>0.245982</v>
+        <v>0.245861</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.231888</v>
+        <v>0.232013</v>
       </c>
       <c r="C136" t="n">
-        <v>0.21202</v>
+        <v>0.212009</v>
       </c>
       <c r="D136" t="n">
-        <v>0.245506</v>
+        <v>0.244861</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.215864</v>
+        <v>0.21601</v>
       </c>
       <c r="C137" t="n">
-        <v>0.211846</v>
+        <v>0.211832</v>
       </c>
       <c r="D137" t="n">
-        <v>0.261688</v>
+        <v>0.262065</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.352837</v>
+        <v>0.352812</v>
       </c>
       <c r="C138" t="n">
-        <v>0.225829</v>
+        <v>0.225685</v>
       </c>
       <c r="D138" t="n">
-        <v>0.258922</v>
+        <v>0.259886</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.347394</v>
+        <v>0.347414</v>
       </c>
       <c r="C139" t="n">
-        <v>0.222594</v>
+        <v>0.222491</v>
       </c>
       <c r="D139" t="n">
-        <v>0.257076</v>
+        <v>0.258116</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.341069</v>
+        <v>0.341108</v>
       </c>
       <c r="C140" t="n">
-        <v>0.220272</v>
+        <v>0.220209</v>
       </c>
       <c r="D140" t="n">
-        <v>0.255952</v>
+        <v>0.255637</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.334022</v>
+        <v>0.33402</v>
       </c>
       <c r="C141" t="n">
-        <v>0.218477</v>
+        <v>0.218455</v>
       </c>
       <c r="D141" t="n">
-        <v>0.25509</v>
+        <v>0.253533</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.326132</v>
+        <v>0.326207</v>
       </c>
       <c r="C142" t="n">
-        <v>0.217224</v>
+        <v>0.217169</v>
       </c>
       <c r="D142" t="n">
-        <v>0.252654</v>
+        <v>0.252808</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.317654</v>
+        <v>0.317602</v>
       </c>
       <c r="C143" t="n">
-        <v>0.216098</v>
+        <v>0.216063</v>
       </c>
       <c r="D143" t="n">
-        <v>0.252268</v>
+        <v>0.252037</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.28202</v>
+        <v>0.279063</v>
       </c>
       <c r="C2" t="n">
-        <v>0.192744</v>
+        <v>0.194318</v>
       </c>
       <c r="D2" t="n">
-        <v>0.226996</v>
+        <v>0.230427</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.268954</v>
+        <v>0.267832</v>
       </c>
       <c r="C3" t="n">
-        <v>0.19646</v>
+        <v>0.195255</v>
       </c>
       <c r="D3" t="n">
-        <v>0.226227</v>
+        <v>0.229493</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.259831</v>
+        <v>0.266134</v>
       </c>
       <c r="C4" t="n">
-        <v>0.195239</v>
+        <v>0.197197</v>
       </c>
       <c r="D4" t="n">
-        <v>0.227607</v>
+        <v>0.23502</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.248259</v>
+        <v>0.248753</v>
       </c>
       <c r="C5" t="n">
-        <v>0.195126</v>
+        <v>0.19531</v>
       </c>
       <c r="D5" t="n">
-        <v>0.227982</v>
+        <v>0.228288</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.236082</v>
+        <v>0.236597</v>
       </c>
       <c r="C6" t="n">
-        <v>0.195821</v>
+        <v>0.196071</v>
       </c>
       <c r="D6" t="n">
-        <v>0.229207</v>
+        <v>0.249753</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.224255</v>
+        <v>0.224702</v>
       </c>
       <c r="C7" t="n">
-        <v>0.196215</v>
+        <v>0.198864</v>
       </c>
       <c r="D7" t="n">
-        <v>0.228817</v>
+        <v>0.231791</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.21042</v>
+        <v>0.209869</v>
       </c>
       <c r="C8" t="n">
-        <v>0.197582</v>
+        <v>0.197753</v>
       </c>
       <c r="D8" t="n">
-        <v>0.231739</v>
+        <v>0.229713</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.19462</v>
+        <v>0.194749</v>
       </c>
       <c r="C9" t="n">
-        <v>0.199704</v>
+        <v>0.200934</v>
       </c>
       <c r="D9" t="n">
-        <v>0.253208</v>
+        <v>0.255992</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.334348</v>
+        <v>0.334682</v>
       </c>
       <c r="C10" t="n">
-        <v>0.215535</v>
+        <v>0.21542</v>
       </c>
       <c r="D10" t="n">
-        <v>0.251868</v>
+        <v>0.255311</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.329376</v>
+        <v>0.329595</v>
       </c>
       <c r="C11" t="n">
-        <v>0.215437</v>
+        <v>0.216253</v>
       </c>
       <c r="D11" t="n">
-        <v>0.250473</v>
+        <v>0.254378</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.324197</v>
+        <v>0.32374</v>
       </c>
       <c r="C12" t="n">
-        <v>0.213814</v>
+        <v>0.213716</v>
       </c>
       <c r="D12" t="n">
-        <v>0.254553</v>
+        <v>0.254088</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.31869</v>
+        <v>0.318085</v>
       </c>
       <c r="C13" t="n">
-        <v>0.212736</v>
+        <v>0.213226</v>
       </c>
       <c r="D13" t="n">
-        <v>0.251319</v>
+        <v>0.248079</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.311177</v>
+        <v>0.310662</v>
       </c>
       <c r="C14" t="n">
-        <v>0.211675</v>
+        <v>0.213121</v>
       </c>
       <c r="D14" t="n">
-        <v>0.250793</v>
+        <v>0.250135</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.302909</v>
+        <v>0.303005</v>
       </c>
       <c r="C15" t="n">
-        <v>0.211595</v>
+        <v>0.213096</v>
       </c>
       <c r="D15" t="n">
-        <v>0.249138</v>
+        <v>0.251069</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.293873</v>
+        <v>0.293999</v>
       </c>
       <c r="C16" t="n">
-        <v>0.210914</v>
+        <v>0.212306</v>
       </c>
       <c r="D16" t="n">
-        <v>0.249566</v>
+        <v>0.249673</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.28566</v>
+        <v>0.284863</v>
       </c>
       <c r="C17" t="n">
-        <v>0.211112</v>
+        <v>0.212218</v>
       </c>
       <c r="D17" t="n">
-        <v>0.248591</v>
+        <v>0.248894</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.276383</v>
+        <v>0.275756</v>
       </c>
       <c r="C18" t="n">
-        <v>0.21107</v>
+        <v>0.211705</v>
       </c>
       <c r="D18" t="n">
-        <v>0.252143</v>
+        <v>0.243198</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.26549</v>
+        <v>0.269649</v>
       </c>
       <c r="C19" t="n">
-        <v>0.209846</v>
+        <v>0.21121</v>
       </c>
       <c r="D19" t="n">
-        <v>0.252447</v>
+        <v>0.247653</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.255109</v>
+        <v>0.253884</v>
       </c>
       <c r="C20" t="n">
-        <v>0.210019</v>
+        <v>0.210435</v>
       </c>
       <c r="D20" t="n">
-        <v>0.248245</v>
+        <v>0.246445</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.241122</v>
+        <v>0.241346</v>
       </c>
       <c r="C21" t="n">
-        <v>0.211591</v>
+        <v>0.210731</v>
       </c>
       <c r="D21" t="n">
-        <v>0.245745</v>
+        <v>0.242431</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.226812</v>
+        <v>0.22625</v>
       </c>
       <c r="C22" t="n">
-        <v>0.210163</v>
+        <v>0.211362</v>
       </c>
       <c r="D22" t="n">
-        <v>0.245088</v>
+        <v>0.241458</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.210034</v>
+        <v>0.209518</v>
       </c>
       <c r="C23" t="n">
-        <v>0.209911</v>
+        <v>0.209807</v>
       </c>
       <c r="D23" t="n">
-        <v>0.260149</v>
+        <v>0.260446</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348156</v>
+        <v>0.347462</v>
       </c>
       <c r="C24" t="n">
-        <v>0.224398</v>
+        <v>0.223682</v>
       </c>
       <c r="D24" t="n">
-        <v>0.258445</v>
+        <v>0.258436</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.342467</v>
+        <v>0.341882</v>
       </c>
       <c r="C25" t="n">
-        <v>0.222306</v>
+        <v>0.222123</v>
       </c>
       <c r="D25" t="n">
-        <v>0.257635</v>
+        <v>0.258069</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.335986</v>
+        <v>0.335515</v>
       </c>
       <c r="C26" t="n">
-        <v>0.219641</v>
+        <v>0.219806</v>
       </c>
       <c r="D26" t="n">
-        <v>0.256125</v>
+        <v>0.256066</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.329271</v>
+        <v>0.329034</v>
       </c>
       <c r="C27" t="n">
-        <v>0.218407</v>
+        <v>0.217943</v>
       </c>
       <c r="D27" t="n">
-        <v>0.252884</v>
+        <v>0.253062</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.323084</v>
+        <v>0.322754</v>
       </c>
       <c r="C28" t="n">
         <v>0.216312</v>
       </c>
       <c r="D28" t="n">
-        <v>0.25148</v>
+        <v>0.251249</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.314028</v>
+        <v>0.31368</v>
       </c>
       <c r="C29" t="n">
-        <v>0.215406</v>
+        <v>0.215489</v>
       </c>
       <c r="D29" t="n">
-        <v>0.249768</v>
+        <v>0.250064</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.305287</v>
+        <v>0.304826</v>
       </c>
       <c r="C30" t="n">
-        <v>0.214748</v>
+        <v>0.21466</v>
       </c>
       <c r="D30" t="n">
-        <v>0.249107</v>
+        <v>0.249405</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.294632</v>
+        <v>0.294505</v>
       </c>
       <c r="C31" t="n">
-        <v>0.214197</v>
+        <v>0.213955</v>
       </c>
       <c r="D31" t="n">
-        <v>0.247965</v>
+        <v>0.247858</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.284557</v>
+        <v>0.284458</v>
       </c>
       <c r="C32" t="n">
-        <v>0.213966</v>
+        <v>0.213957</v>
       </c>
       <c r="D32" t="n">
-        <v>0.246675</v>
+        <v>0.246802</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.274113</v>
+        <v>0.274252</v>
       </c>
       <c r="C33" t="n">
-        <v>0.212865</v>
+        <v>0.212854</v>
       </c>
       <c r="D33" t="n">
-        <v>0.246414</v>
+        <v>0.245968</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.262623</v>
+        <v>0.262294</v>
       </c>
       <c r="C34" t="n">
-        <v>0.212529</v>
+        <v>0.212579</v>
       </c>
       <c r="D34" t="n">
-        <v>0.244713</v>
+        <v>0.244662</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.248823</v>
+        <v>0.24862</v>
       </c>
       <c r="C35" t="n">
-        <v>0.212077</v>
+        <v>0.212358</v>
       </c>
       <c r="D35" t="n">
-        <v>0.244584</v>
+        <v>0.244495</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.234973</v>
+        <v>0.235198</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2122</v>
+        <v>0.212013</v>
       </c>
       <c r="D36" t="n">
-        <v>0.245766</v>
+        <v>0.245177</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.219885</v>
+        <v>0.219528</v>
       </c>
       <c r="C37" t="n">
-        <v>0.212643</v>
+        <v>0.212922</v>
       </c>
       <c r="D37" t="n">
-        <v>0.262224</v>
+        <v>0.261918</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.351839</v>
+        <v>0.35187</v>
       </c>
       <c r="C38" t="n">
-        <v>0.228449</v>
+        <v>0.228065</v>
       </c>
       <c r="D38" t="n">
-        <v>0.259612</v>
+        <v>0.259668</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.346881</v>
+        <v>0.347151</v>
       </c>
       <c r="C39" t="n">
-        <v>0.226157</v>
+        <v>0.225934</v>
       </c>
       <c r="D39" t="n">
-        <v>0.257429</v>
+        <v>0.257203</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.341398</v>
+        <v>0.341354</v>
       </c>
       <c r="C40" t="n">
-        <v>0.223251</v>
+        <v>0.222998</v>
       </c>
       <c r="D40" t="n">
-        <v>0.255789</v>
+        <v>0.255624</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.334603</v>
+        <v>0.33443</v>
       </c>
       <c r="C41" t="n">
-        <v>0.219971</v>
+        <v>0.219678</v>
       </c>
       <c r="D41" t="n">
-        <v>0.253752</v>
+        <v>0.253719</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.327133</v>
+        <v>0.327097</v>
       </c>
       <c r="C42" t="n">
-        <v>0.21821</v>
+        <v>0.217902</v>
       </c>
       <c r="D42" t="n">
-        <v>0.252757</v>
+        <v>0.252774</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.319997</v>
+        <v>0.319619</v>
       </c>
       <c r="C43" t="n">
-        <v>0.217013</v>
+        <v>0.216853</v>
       </c>
       <c r="D43" t="n">
-        <v>0.251349</v>
+        <v>0.251391</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.310815</v>
+        <v>0.310663</v>
       </c>
       <c r="C44" t="n">
-        <v>0.215637</v>
+        <v>0.215549</v>
       </c>
       <c r="D44" t="n">
-        <v>0.249427</v>
+        <v>0.249658</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.301993</v>
+        <v>0.301771</v>
       </c>
       <c r="C45" t="n">
-        <v>0.215185</v>
+        <v>0.214967</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2491</v>
+        <v>0.248896</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.291564</v>
+        <v>0.290988</v>
       </c>
       <c r="C46" t="n">
-        <v>0.214323</v>
+        <v>0.214396</v>
       </c>
       <c r="D46" t="n">
-        <v>0.247343</v>
+        <v>0.247524</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.279968</v>
+        <v>0.279853</v>
       </c>
       <c r="C47" t="n">
-        <v>0.213804</v>
+        <v>0.213978</v>
       </c>
       <c r="D47" t="n">
-        <v>0.246773</v>
+        <v>0.246508</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.268665</v>
+        <v>0.268655</v>
       </c>
       <c r="C48" t="n">
-        <v>0.212873</v>
+        <v>0.212935</v>
       </c>
       <c r="D48" t="n">
-        <v>0.246658</v>
+        <v>0.246118</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.256365</v>
+        <v>0.256205</v>
       </c>
       <c r="C49" t="n">
-        <v>0.21252</v>
+        <v>0.212515</v>
       </c>
       <c r="D49" t="n">
-        <v>0.245759</v>
+        <v>0.245642</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.242184</v>
+        <v>0.242399</v>
       </c>
       <c r="C50" t="n">
-        <v>0.212404</v>
+        <v>0.212723</v>
       </c>
       <c r="D50" t="n">
-        <v>0.246908</v>
+        <v>0.246587</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.226965</v>
+        <v>0.227029</v>
       </c>
       <c r="C51" t="n">
-        <v>0.212196</v>
+        <v>0.212663</v>
       </c>
       <c r="D51" t="n">
-        <v>0.261533</v>
+        <v>0.261773</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.210212</v>
+        <v>0.209874</v>
       </c>
       <c r="C52" t="n">
-        <v>0.212033</v>
+        <v>0.212273</v>
       </c>
       <c r="D52" t="n">
-        <v>0.258513</v>
+        <v>0.25841</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.350226</v>
+        <v>0.350202</v>
       </c>
       <c r="C53" t="n">
-        <v>0.22499</v>
+        <v>0.224935</v>
       </c>
       <c r="D53" t="n">
-        <v>0.256393</v>
+        <v>0.256426</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.34464</v>
+        <v>0.344479</v>
       </c>
       <c r="C54" t="n">
-        <v>0.222342</v>
+        <v>0.222635</v>
       </c>
       <c r="D54" t="n">
-        <v>0.255043</v>
+        <v>0.255101</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.338423</v>
+        <v>0.338272</v>
       </c>
       <c r="C55" t="n">
-        <v>0.219461</v>
+        <v>0.219574</v>
       </c>
       <c r="D55" t="n">
-        <v>0.253425</v>
+        <v>0.253665</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.331325</v>
+        <v>0.331061</v>
       </c>
       <c r="C56" t="n">
-        <v>0.218028</v>
+        <v>0.218068</v>
       </c>
       <c r="D56" t="n">
-        <v>0.251643</v>
+        <v>0.251796</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.323225</v>
+        <v>0.323028</v>
       </c>
       <c r="C57" t="n">
-        <v>0.216668</v>
+        <v>0.216735</v>
       </c>
       <c r="D57" t="n">
-        <v>0.250557</v>
+        <v>0.250549</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.314692</v>
+        <v>0.314464</v>
       </c>
       <c r="C58" t="n">
-        <v>0.215659</v>
+        <v>0.215648</v>
       </c>
       <c r="D58" t="n">
-        <v>0.249244</v>
+        <v>0.249031</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.305469</v>
+        <v>0.305407</v>
       </c>
       <c r="C59" t="n">
-        <v>0.214434</v>
+        <v>0.21449</v>
       </c>
       <c r="D59" t="n">
-        <v>0.248201</v>
+        <v>0.248026</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.295121</v>
+        <v>0.295253</v>
       </c>
       <c r="C60" t="n">
-        <v>0.213663</v>
+        <v>0.213727</v>
       </c>
       <c r="D60" t="n">
-        <v>0.246949</v>
+        <v>0.247073</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.284279</v>
+        <v>0.284012</v>
       </c>
       <c r="C61" t="n">
-        <v>0.213159</v>
+        <v>0.213282</v>
       </c>
       <c r="D61" t="n">
-        <v>0.246468</v>
+        <v>0.246439</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272378</v>
+        <v>0.272242</v>
       </c>
       <c r="C62" t="n">
-        <v>0.212565</v>
+        <v>0.212496</v>
       </c>
       <c r="D62" t="n">
-        <v>0.245852</v>
+        <v>0.245672</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.259907</v>
+        <v>0.259324</v>
       </c>
       <c r="C63" t="n">
-        <v>0.212073</v>
+        <v>0.212</v>
       </c>
       <c r="D63" t="n">
-        <v>0.244665</v>
+        <v>0.244475</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.246286</v>
+        <v>0.245834</v>
       </c>
       <c r="C64" t="n">
-        <v>0.211865</v>
+        <v>0.211923</v>
       </c>
       <c r="D64" t="n">
-        <v>0.244446</v>
+        <v>0.244297</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.230749</v>
+        <v>0.230222</v>
       </c>
       <c r="C65" t="n">
-        <v>0.211565</v>
+        <v>0.211667</v>
       </c>
       <c r="D65" t="n">
-        <v>0.24349</v>
+        <v>0.243281</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.213982</v>
+        <v>0.213866</v>
       </c>
       <c r="C66" t="n">
-        <v>0.211895</v>
+        <v>0.211872</v>
       </c>
       <c r="D66" t="n">
-        <v>0.259678</v>
+        <v>0.259417</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.352514</v>
+        <v>0.352355</v>
       </c>
       <c r="C67" t="n">
-        <v>0.226693</v>
+        <v>0.226376</v>
       </c>
       <c r="D67" t="n">
-        <v>0.257208</v>
+        <v>0.257</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.34729</v>
+        <v>0.347027</v>
       </c>
       <c r="C68" t="n">
-        <v>0.222704</v>
+        <v>0.222504</v>
       </c>
       <c r="D68" t="n">
-        <v>0.255062</v>
+        <v>0.254958</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.341022</v>
+        <v>0.340773</v>
       </c>
       <c r="C69" t="n">
-        <v>0.219965</v>
+        <v>0.219793</v>
       </c>
       <c r="D69" t="n">
-        <v>0.253445</v>
+        <v>0.253278</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.33373</v>
+        <v>0.333781</v>
       </c>
       <c r="C70" t="n">
-        <v>0.21786</v>
+        <v>0.217798</v>
       </c>
       <c r="D70" t="n">
-        <v>0.251888</v>
+        <v>0.251706</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.325783</v>
+        <v>0.325756</v>
       </c>
       <c r="C71" t="n">
-        <v>0.216732</v>
+        <v>0.216629</v>
       </c>
       <c r="D71" t="n">
-        <v>0.250842</v>
+        <v>0.25066</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.316885</v>
+        <v>0.316804</v>
       </c>
       <c r="C72" t="n">
-        <v>0.215611</v>
+        <v>0.215522</v>
       </c>
       <c r="D72" t="n">
-        <v>0.249848</v>
+        <v>0.249734</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.307607</v>
+        <v>0.307634</v>
       </c>
       <c r="C73" t="n">
-        <v>0.214879</v>
+        <v>0.214621</v>
       </c>
       <c r="D73" t="n">
-        <v>0.248421</v>
+        <v>0.248226</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.297764</v>
+        <v>0.297768</v>
       </c>
       <c r="C74" t="n">
-        <v>0.214079</v>
+        <v>0.213971</v>
       </c>
       <c r="D74" t="n">
-        <v>0.247706</v>
+        <v>0.247571</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.286998</v>
+        <v>0.286786</v>
       </c>
       <c r="C75" t="n">
-        <v>0.21339</v>
+        <v>0.213301</v>
       </c>
       <c r="D75" t="n">
-        <v>0.247145</v>
+        <v>0.246831</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.275635</v>
+        <v>0.275443</v>
       </c>
       <c r="C76" t="n">
-        <v>0.212954</v>
+        <v>0.212872</v>
       </c>
       <c r="D76" t="n">
-        <v>0.245692</v>
+        <v>0.245511</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.262954</v>
+        <v>0.263052</v>
       </c>
       <c r="C77" t="n">
-        <v>0.212368</v>
+        <v>0.212202</v>
       </c>
       <c r="D77" t="n">
-        <v>0.245203</v>
+        <v>0.244979</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.249312</v>
+        <v>0.24931</v>
       </c>
       <c r="C78" t="n">
-        <v>0.211957</v>
+        <v>0.211922</v>
       </c>
       <c r="D78" t="n">
-        <v>0.244477</v>
+        <v>0.244156</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.235065</v>
+        <v>0.234599</v>
       </c>
       <c r="C79" t="n">
-        <v>0.211997</v>
+        <v>0.21206</v>
       </c>
       <c r="D79" t="n">
-        <v>0.244535</v>
+        <v>0.244185</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.218667</v>
+        <v>0.218343</v>
       </c>
       <c r="C80" t="n">
-        <v>0.211954</v>
+        <v>0.211904</v>
       </c>
       <c r="D80" t="n">
-        <v>0.260456</v>
+        <v>0.259995</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.353689</v>
+        <v>0.35365</v>
       </c>
       <c r="C81" t="n">
-        <v>0.226109</v>
+        <v>0.225756</v>
       </c>
       <c r="D81" t="n">
-        <v>0.257845</v>
+        <v>0.25765</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.348349</v>
+        <v>0.348332</v>
       </c>
       <c r="C82" t="n">
-        <v>0.221919</v>
+        <v>0.221966</v>
       </c>
       <c r="D82" t="n">
-        <v>0.255753</v>
+        <v>0.255613</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.341865</v>
+        <v>0.341868</v>
       </c>
       <c r="C83" t="n">
-        <v>0.219572</v>
+        <v>0.219591</v>
       </c>
       <c r="D83" t="n">
-        <v>0.253913</v>
+        <v>0.253848</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.335019</v>
+        <v>0.334835</v>
       </c>
       <c r="C84" t="n">
-        <v>0.217802</v>
+        <v>0.21772</v>
       </c>
       <c r="D84" t="n">
-        <v>0.252827</v>
+        <v>0.25259</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.327336</v>
+        <v>0.327207</v>
       </c>
       <c r="C85" t="n">
-        <v>0.216791</v>
+        <v>0.216787</v>
       </c>
       <c r="D85" t="n">
-        <v>0.251466</v>
+        <v>0.251278</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.319025</v>
+        <v>0.318886</v>
       </c>
       <c r="C86" t="n">
-        <v>0.215895</v>
+        <v>0.215819</v>
       </c>
       <c r="D86" t="n">
-        <v>0.250119</v>
+        <v>0.250096</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.309822</v>
+        <v>0.309753</v>
       </c>
       <c r="C87" t="n">
-        <v>0.21487</v>
+        <v>0.21478</v>
       </c>
       <c r="D87" t="n">
-        <v>0.248799</v>
+        <v>0.248622</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.300206</v>
+        <v>0.30008</v>
       </c>
       <c r="C88" t="n">
-        <v>0.214023</v>
+        <v>0.214074</v>
       </c>
       <c r="D88" t="n">
-        <v>0.247666</v>
+        <v>0.247511</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.289855</v>
+        <v>0.289532</v>
       </c>
       <c r="C89" t="n">
-        <v>0.213377</v>
+        <v>0.2133</v>
       </c>
       <c r="D89" t="n">
-        <v>0.246762</v>
+        <v>0.246643</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.278147</v>
+        <v>0.277821</v>
       </c>
       <c r="C90" t="n">
-        <v>0.212807</v>
+        <v>0.212796</v>
       </c>
       <c r="D90" t="n">
-        <v>0.245992</v>
+        <v>0.245828</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.265742</v>
+        <v>0.265404</v>
       </c>
       <c r="C91" t="n">
-        <v>0.212423</v>
+        <v>0.212343</v>
       </c>
       <c r="D91" t="n">
-        <v>0.245193</v>
+        <v>0.245064</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.252365</v>
+        <v>0.252047</v>
       </c>
       <c r="C92" t="n">
-        <v>0.212073</v>
+        <v>0.212011</v>
       </c>
       <c r="D92" t="n">
-        <v>0.244406</v>
+        <v>0.244351</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.238258</v>
+        <v>0.237843</v>
       </c>
       <c r="C93" t="n">
-        <v>0.211906</v>
+        <v>0.2116</v>
       </c>
       <c r="D93" t="n">
-        <v>0.244038</v>
+        <v>0.243986</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.222252</v>
+        <v>0.221906</v>
       </c>
       <c r="C94" t="n">
-        <v>0.21182</v>
+        <v>0.211538</v>
       </c>
       <c r="D94" t="n">
-        <v>0.261586</v>
+        <v>0.261651</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.355009</v>
+        <v>0.354836</v>
       </c>
       <c r="C95" t="n">
-        <v>0.226182</v>
+        <v>0.226512</v>
       </c>
       <c r="D95" t="n">
-        <v>0.258609</v>
+        <v>0.258493</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.349763</v>
+        <v>0.349821</v>
       </c>
       <c r="C96" t="n">
-        <v>0.223115</v>
+        <v>0.223141</v>
       </c>
       <c r="D96" t="n">
-        <v>0.256433</v>
+        <v>0.256392</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.343789</v>
+        <v>0.343721</v>
       </c>
       <c r="C97" t="n">
-        <v>0.22062</v>
+        <v>0.220907</v>
       </c>
       <c r="D97" t="n">
-        <v>0.254629</v>
+        <v>0.254517</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.336992</v>
+        <v>0.336898</v>
       </c>
       <c r="C98" t="n">
-        <v>0.218485</v>
+        <v>0.218547</v>
       </c>
       <c r="D98" t="n">
-        <v>0.25313</v>
+        <v>0.253055</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.329318</v>
+        <v>0.329334</v>
       </c>
       <c r="C99" t="n">
-        <v>0.217192</v>
+        <v>0.217302</v>
       </c>
       <c r="D99" t="n">
-        <v>0.251723</v>
+        <v>0.251736</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.321038</v>
+        <v>0.321032</v>
       </c>
       <c r="C100" t="n">
-        <v>0.215992</v>
+        <v>0.216076</v>
       </c>
       <c r="D100" t="n">
-        <v>0.25067</v>
+        <v>0.250534</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.312022</v>
+        <v>0.311993</v>
       </c>
       <c r="C101" t="n">
-        <v>0.215094</v>
+        <v>0.215109</v>
       </c>
       <c r="D101" t="n">
-        <v>0.249518</v>
+        <v>0.249269</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.302335</v>
+        <v>0.302188</v>
       </c>
       <c r="C102" t="n">
-        <v>0.214277</v>
+        <v>0.214282</v>
       </c>
       <c r="D102" t="n">
-        <v>0.248424</v>
+        <v>0.248305</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.291908</v>
+        <v>0.291819</v>
       </c>
       <c r="C103" t="n">
-        <v>0.213554</v>
+        <v>0.213544</v>
       </c>
       <c r="D103" t="n">
-        <v>0.247245</v>
+        <v>0.247099</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.280565</v>
+        <v>0.28032</v>
       </c>
       <c r="C104" t="n">
-        <v>0.212989</v>
+        <v>0.212927</v>
       </c>
       <c r="D104" t="n">
-        <v>0.246422</v>
+        <v>0.246316</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.268606</v>
+        <v>0.268346</v>
       </c>
       <c r="C105" t="n">
-        <v>0.21248</v>
+        <v>0.212372</v>
       </c>
       <c r="D105" t="n">
-        <v>0.24543</v>
+        <v>0.245266</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.255546</v>
+        <v>0.255197</v>
       </c>
       <c r="C106" t="n">
-        <v>0.211948</v>
+        <v>0.211884</v>
       </c>
       <c r="D106" t="n">
-        <v>0.244485</v>
+        <v>0.244531</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.241367</v>
+        <v>0.241073</v>
       </c>
       <c r="C107" t="n">
-        <v>0.211645</v>
+        <v>0.211575</v>
       </c>
       <c r="D107" t="n">
-        <v>0.243957</v>
+        <v>0.243909</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.225904</v>
+        <v>0.225984</v>
       </c>
       <c r="C108" t="n">
-        <v>0.211463</v>
+        <v>0.211329</v>
       </c>
       <c r="D108" t="n">
-        <v>0.261843</v>
+        <v>0.26213</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.2093</v>
+        <v>0.209364</v>
       </c>
       <c r="C109" t="n">
-        <v>0.211344</v>
+        <v>0.211224</v>
       </c>
       <c r="D109" t="n">
-        <v>0.25966</v>
+        <v>0.25953</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.350896</v>
+        <v>0.350628</v>
       </c>
       <c r="C110" t="n">
-        <v>0.223401</v>
+        <v>0.223296</v>
       </c>
       <c r="D110" t="n">
-        <v>0.257276</v>
+        <v>0.257386</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.344874</v>
+        <v>0.344928</v>
       </c>
       <c r="C111" t="n">
-        <v>0.220767</v>
+        <v>0.220722</v>
       </c>
       <c r="D111" t="n">
-        <v>0.255206</v>
+        <v>0.255267</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.338302</v>
+        <v>0.338239</v>
       </c>
       <c r="C112" t="n">
-        <v>0.218989</v>
+        <v>0.218917</v>
       </c>
       <c r="D112" t="n">
-        <v>0.253754</v>
+        <v>0.253671</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.330881</v>
+        <v>0.330918</v>
       </c>
       <c r="C113" t="n">
-        <v>0.217458</v>
+        <v>0.217353</v>
       </c>
       <c r="D113" t="n">
-        <v>0.252154</v>
+        <v>0.252424</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.322723</v>
+        <v>0.322893</v>
       </c>
       <c r="C114" t="n">
-        <v>0.216262</v>
+        <v>0.216304</v>
       </c>
       <c r="D114" t="n">
-        <v>0.250801</v>
+        <v>0.250926</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.313856</v>
+        <v>0.31412</v>
       </c>
       <c r="C115" t="n">
-        <v>0.215234</v>
+        <v>0.215261</v>
       </c>
       <c r="D115" t="n">
-        <v>0.250414</v>
+        <v>0.250499</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.30415</v>
+        <v>0.304536</v>
       </c>
       <c r="C116" t="n">
-        <v>0.214473</v>
+        <v>0.21451</v>
       </c>
       <c r="D116" t="n">
-        <v>0.249049</v>
+        <v>0.249356</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.293911</v>
+        <v>0.294182</v>
       </c>
       <c r="C117" t="n">
-        <v>0.214166</v>
+        <v>0.214192</v>
       </c>
       <c r="D117" t="n">
-        <v>0.248069</v>
+        <v>0.248039</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.282922</v>
+        <v>0.283354</v>
       </c>
       <c r="C118" t="n">
-        <v>0.21354</v>
+        <v>0.213627</v>
       </c>
       <c r="D118" t="n">
-        <v>0.247197</v>
+        <v>0.246858</v>
       </c>
     </row>
     <row r="119">
@@ -4890,10 +4890,10 @@
         <v>0.271241</v>
       </c>
       <c r="C119" t="n">
-        <v>0.212922</v>
+        <v>0.21297</v>
       </c>
       <c r="D119" t="n">
-        <v>0.246289</v>
+        <v>0.246357</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.258465</v>
+        <v>0.25843</v>
       </c>
       <c r="C120" t="n">
-        <v>0.212461</v>
+        <v>0.212518</v>
       </c>
       <c r="D120" t="n">
-        <v>0.245477</v>
+        <v>0.245156</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.244711</v>
+        <v>0.244497</v>
       </c>
       <c r="C121" t="n">
-        <v>0.212072</v>
+        <v>0.212174</v>
       </c>
       <c r="D121" t="n">
-        <v>0.244675</v>
+        <v>0.245048</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.229586</v>
+        <v>0.229551</v>
       </c>
       <c r="C122" t="n">
-        <v>0.211874</v>
+        <v>0.212258</v>
       </c>
       <c r="D122" t="n">
-        <v>0.244669</v>
+        <v>0.244398</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.212939</v>
+        <v>0.212962</v>
       </c>
       <c r="C123" t="n">
-        <v>0.211723</v>
+        <v>0.211766</v>
       </c>
       <c r="D123" t="n">
-        <v>0.260525</v>
+        <v>0.260131</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.351697</v>
+        <v>0.351924</v>
       </c>
       <c r="C124" t="n">
-        <v>0.224372</v>
+        <v>0.224451</v>
       </c>
       <c r="D124" t="n">
-        <v>0.258499</v>
+        <v>0.258159</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.345877</v>
+        <v>0.346204</v>
       </c>
       <c r="C125" t="n">
-        <v>0.221322</v>
+        <v>0.221429</v>
       </c>
       <c r="D125" t="n">
-        <v>0.255937</v>
+        <v>0.256438</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.339332</v>
+        <v>0.33962</v>
       </c>
       <c r="C126" t="n">
-        <v>0.219408</v>
+        <v>0.219517</v>
       </c>
       <c r="D126" t="n">
-        <v>0.254935</v>
+        <v>0.254684</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.33219</v>
+        <v>0.332455</v>
       </c>
       <c r="C127" t="n">
-        <v>0.217799</v>
+        <v>0.217861</v>
       </c>
       <c r="D127" t="n">
-        <v>0.253116</v>
+        <v>0.253147</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.3242</v>
+        <v>0.324407</v>
       </c>
       <c r="C128" t="n">
-        <v>0.216457</v>
+        <v>0.216523</v>
       </c>
       <c r="D128" t="n">
-        <v>0.251892</v>
+        <v>0.251872</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.315489</v>
+        <v>0.31577</v>
       </c>
       <c r="C129" t="n">
-        <v>0.215448</v>
+        <v>0.215508</v>
       </c>
       <c r="D129" t="n">
-        <v>0.250456</v>
+        <v>0.250459</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.306091</v>
+        <v>0.306337</v>
       </c>
       <c r="C130" t="n">
-        <v>0.214589</v>
+        <v>0.214691</v>
       </c>
       <c r="D130" t="n">
-        <v>0.249407</v>
+        <v>0.249279</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.295997</v>
+        <v>0.295984</v>
       </c>
       <c r="C131" t="n">
-        <v>0.213871</v>
+        <v>0.213946</v>
       </c>
       <c r="D131" t="n">
-        <v>0.248319</v>
+        <v>0.248511</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.285418</v>
+        <v>0.28525</v>
       </c>
       <c r="C132" t="n">
-        <v>0.213165</v>
+        <v>0.213216</v>
       </c>
       <c r="D132" t="n">
-        <v>0.247425</v>
+        <v>0.247248</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.273353</v>
+        <v>0.273368</v>
       </c>
       <c r="C133" t="n">
-        <v>0.212638</v>
+        <v>0.212703</v>
       </c>
       <c r="D133" t="n">
-        <v>0.246861</v>
+        <v>0.246717</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.260593</v>
+        <v>0.260661</v>
       </c>
       <c r="C134" t="n">
-        <v>0.212131</v>
+        <v>0.212227</v>
       </c>
       <c r="D134" t="n">
-        <v>0.246253</v>
+        <v>0.246558</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.247024</v>
+        <v>0.246873</v>
       </c>
       <c r="C135" t="n">
-        <v>0.211749</v>
+        <v>0.211826</v>
       </c>
       <c r="D135" t="n">
-        <v>0.245861</v>
+        <v>0.245803</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.232013</v>
+        <v>0.232097</v>
       </c>
       <c r="C136" t="n">
-        <v>0.212009</v>
+        <v>0.211862</v>
       </c>
       <c r="D136" t="n">
-        <v>0.244861</v>
+        <v>0.245059</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.21601</v>
+        <v>0.216127</v>
       </c>
       <c r="C137" t="n">
-        <v>0.211832</v>
+        <v>0.21199</v>
       </c>
       <c r="D137" t="n">
-        <v>0.262065</v>
+        <v>0.261946</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.352812</v>
+        <v>0.353045</v>
       </c>
       <c r="C138" t="n">
-        <v>0.225685</v>
+        <v>0.225836</v>
       </c>
       <c r="D138" t="n">
-        <v>0.259886</v>
+        <v>0.259227</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.347414</v>
+        <v>0.347481</v>
       </c>
       <c r="C139" t="n">
-        <v>0.222491</v>
+        <v>0.222595</v>
       </c>
       <c r="D139" t="n">
-        <v>0.258116</v>
+        <v>0.257805</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.341108</v>
+        <v>0.341247</v>
       </c>
       <c r="C140" t="n">
-        <v>0.220209</v>
+        <v>0.220311</v>
       </c>
       <c r="D140" t="n">
-        <v>0.255637</v>
+        <v>0.256379</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.33402</v>
+        <v>0.334129</v>
       </c>
       <c r="C141" t="n">
-        <v>0.218455</v>
+        <v>0.218498</v>
       </c>
       <c r="D141" t="n">
-        <v>0.253533</v>
+        <v>0.253993</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.326207</v>
+        <v>0.326213</v>
       </c>
       <c r="C142" t="n">
-        <v>0.217169</v>
+        <v>0.217256</v>
       </c>
       <c r="D142" t="n">
-        <v>0.252808</v>
+        <v>0.252332</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.317602</v>
+        <v>0.317763</v>
       </c>
       <c r="C143" t="n">
-        <v>0.216063</v>
+        <v>0.216119</v>
       </c>
       <c r="D143" t="n">
-        <v>0.252037</v>
+        <v>0.252249</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.279063</v>
+        <v>0.281009</v>
       </c>
       <c r="C2" t="n">
-        <v>0.194318</v>
+        <v>0.18681</v>
       </c>
       <c r="D2" t="n">
-        <v>0.230427</v>
+        <v>0.216457</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.267832</v>
+        <v>0.269756</v>
       </c>
       <c r="C3" t="n">
-        <v>0.195255</v>
+        <v>0.187759</v>
       </c>
       <c r="D3" t="n">
-        <v>0.229493</v>
+        <v>0.216828</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.266134</v>
+        <v>0.258901</v>
       </c>
       <c r="C4" t="n">
-        <v>0.197197</v>
+        <v>0.18678</v>
       </c>
       <c r="D4" t="n">
-        <v>0.23502</v>
+        <v>0.216997</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.248753</v>
+        <v>0.247249</v>
       </c>
       <c r="C5" t="n">
-        <v>0.19531</v>
+        <v>0.187624</v>
       </c>
       <c r="D5" t="n">
-        <v>0.228288</v>
+        <v>0.217364</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.236597</v>
+        <v>0.235493</v>
       </c>
       <c r="C6" t="n">
-        <v>0.196071</v>
+        <v>0.188569</v>
       </c>
       <c r="D6" t="n">
-        <v>0.249753</v>
+        <v>0.217789</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.224702</v>
+        <v>0.224974</v>
       </c>
       <c r="C7" t="n">
-        <v>0.198864</v>
+        <v>0.188574</v>
       </c>
       <c r="D7" t="n">
-        <v>0.231791</v>
+        <v>0.218607</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.209869</v>
+        <v>0.210227</v>
       </c>
       <c r="C8" t="n">
-        <v>0.197753</v>
+        <v>0.188762</v>
       </c>
       <c r="D8" t="n">
-        <v>0.229713</v>
+        <v>0.219012</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.194749</v>
+        <v>0.195637</v>
       </c>
       <c r="C9" t="n">
-        <v>0.200934</v>
+        <v>0.189903</v>
       </c>
       <c r="D9" t="n">
-        <v>0.255992</v>
+        <v>0.239742</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.334682</v>
+        <v>0.334965</v>
       </c>
       <c r="C10" t="n">
-        <v>0.21542</v>
+        <v>0.208456</v>
       </c>
       <c r="D10" t="n">
-        <v>0.255311</v>
+        <v>0.237957</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.329595</v>
+        <v>0.329921</v>
       </c>
       <c r="C11" t="n">
-        <v>0.216253</v>
+        <v>0.207884</v>
       </c>
       <c r="D11" t="n">
-        <v>0.254378</v>
+        <v>0.237147</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.32374</v>
+        <v>0.324592</v>
       </c>
       <c r="C12" t="n">
-        <v>0.213716</v>
+        <v>0.20576</v>
       </c>
       <c r="D12" t="n">
-        <v>0.254088</v>
+        <v>0.235968</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.318085</v>
+        <v>0.319072</v>
       </c>
       <c r="C13" t="n">
-        <v>0.213226</v>
+        <v>0.204208</v>
       </c>
       <c r="D13" t="n">
-        <v>0.248079</v>
+        <v>0.234512</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.310662</v>
+        <v>0.31133</v>
       </c>
       <c r="C14" t="n">
-        <v>0.213121</v>
+        <v>0.203208</v>
       </c>
       <c r="D14" t="n">
-        <v>0.250135</v>
+        <v>0.234233</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.303005</v>
+        <v>0.303826</v>
       </c>
       <c r="C15" t="n">
-        <v>0.213096</v>
+        <v>0.203557</v>
       </c>
       <c r="D15" t="n">
-        <v>0.251069</v>
+        <v>0.23325</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.293999</v>
+        <v>0.294363</v>
       </c>
       <c r="C16" t="n">
-        <v>0.212306</v>
+        <v>0.202961</v>
       </c>
       <c r="D16" t="n">
-        <v>0.249673</v>
+        <v>0.233262</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.284863</v>
+        <v>0.285287</v>
       </c>
       <c r="C17" t="n">
-        <v>0.212218</v>
+        <v>0.202922</v>
       </c>
       <c r="D17" t="n">
-        <v>0.248894</v>
+        <v>0.232415</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.275756</v>
+        <v>0.27599</v>
       </c>
       <c r="C18" t="n">
-        <v>0.211705</v>
+        <v>0.202451</v>
       </c>
       <c r="D18" t="n">
-        <v>0.243198</v>
+        <v>0.231775</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.269649</v>
+        <v>0.265538</v>
       </c>
       <c r="C19" t="n">
-        <v>0.21121</v>
+        <v>0.201482</v>
       </c>
       <c r="D19" t="n">
-        <v>0.247653</v>
+        <v>0.231401</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.253884</v>
+        <v>0.255078</v>
       </c>
       <c r="C20" t="n">
-        <v>0.210435</v>
+        <v>0.200941</v>
       </c>
       <c r="D20" t="n">
-        <v>0.246445</v>
+        <v>0.230899</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.241346</v>
+        <v>0.241803</v>
       </c>
       <c r="C21" t="n">
-        <v>0.210731</v>
+        <v>0.201039</v>
       </c>
       <c r="D21" t="n">
-        <v>0.242431</v>
+        <v>0.230913</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.22625</v>
+        <v>0.226863</v>
       </c>
       <c r="C22" t="n">
-        <v>0.211362</v>
+        <v>0.200847</v>
       </c>
       <c r="D22" t="n">
-        <v>0.241458</v>
+        <v>0.230074</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.209518</v>
+        <v>0.21065</v>
       </c>
       <c r="C23" t="n">
-        <v>0.209807</v>
+        <v>0.200226</v>
       </c>
       <c r="D23" t="n">
-        <v>0.260446</v>
+        <v>0.244424</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.347462</v>
+        <v>0.348156</v>
       </c>
       <c r="C24" t="n">
-        <v>0.223682</v>
+        <v>0.217457</v>
       </c>
       <c r="D24" t="n">
-        <v>0.258436</v>
+        <v>0.242809</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.341882</v>
+        <v>0.342484</v>
       </c>
       <c r="C25" t="n">
-        <v>0.222123</v>
+        <v>0.215096</v>
       </c>
       <c r="D25" t="n">
-        <v>0.258069</v>
+        <v>0.241712</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.335515</v>
+        <v>0.335758</v>
       </c>
       <c r="C26" t="n">
-        <v>0.219806</v>
+        <v>0.211779</v>
       </c>
       <c r="D26" t="n">
-        <v>0.256066</v>
+        <v>0.241878</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.329034</v>
+        <v>0.328334</v>
       </c>
       <c r="C27" t="n">
-        <v>0.217943</v>
+        <v>0.211786</v>
       </c>
       <c r="D27" t="n">
-        <v>0.253062</v>
+        <v>0.238834</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.322754</v>
+        <v>0.322558</v>
       </c>
       <c r="C28" t="n">
-        <v>0.216312</v>
+        <v>0.208256</v>
       </c>
       <c r="D28" t="n">
-        <v>0.251249</v>
+        <v>0.23778</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.31368</v>
+        <v>0.313314</v>
       </c>
       <c r="C29" t="n">
-        <v>0.215489</v>
+        <v>0.207696</v>
       </c>
       <c r="D29" t="n">
-        <v>0.250064</v>
+        <v>0.237126</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.304826</v>
+        <v>0.305039</v>
       </c>
       <c r="C30" t="n">
-        <v>0.21466</v>
+        <v>0.206816</v>
       </c>
       <c r="D30" t="n">
-        <v>0.249405</v>
+        <v>0.235706</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.294505</v>
+        <v>0.295362</v>
       </c>
       <c r="C31" t="n">
-        <v>0.213955</v>
+        <v>0.205746</v>
       </c>
       <c r="D31" t="n">
-        <v>0.247858</v>
+        <v>0.234942</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.284458</v>
+        <v>0.284923</v>
       </c>
       <c r="C32" t="n">
-        <v>0.213957</v>
+        <v>0.205244</v>
       </c>
       <c r="D32" t="n">
-        <v>0.246802</v>
+        <v>0.23437</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.274252</v>
+        <v>0.274318</v>
       </c>
       <c r="C33" t="n">
-        <v>0.212854</v>
+        <v>0.204006</v>
       </c>
       <c r="D33" t="n">
-        <v>0.245968</v>
+        <v>0.233237</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.262294</v>
+        <v>0.262949</v>
       </c>
       <c r="C34" t="n">
-        <v>0.212579</v>
+        <v>0.20331</v>
       </c>
       <c r="D34" t="n">
-        <v>0.244662</v>
+        <v>0.232119</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.24862</v>
+        <v>0.248911</v>
       </c>
       <c r="C35" t="n">
-        <v>0.212358</v>
+        <v>0.203241</v>
       </c>
       <c r="D35" t="n">
-        <v>0.244495</v>
+        <v>0.232111</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.235198</v>
+        <v>0.235802</v>
       </c>
       <c r="C36" t="n">
-        <v>0.212013</v>
+        <v>0.202851</v>
       </c>
       <c r="D36" t="n">
-        <v>0.245177</v>
+        <v>0.231009</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.219528</v>
+        <v>0.219899</v>
       </c>
       <c r="C37" t="n">
-        <v>0.212922</v>
+        <v>0.203143</v>
       </c>
       <c r="D37" t="n">
-        <v>0.261918</v>
+        <v>0.246698</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.35187</v>
+        <v>0.351849</v>
       </c>
       <c r="C38" t="n">
-        <v>0.228065</v>
+        <v>0.221313</v>
       </c>
       <c r="D38" t="n">
-        <v>0.259668</v>
+        <v>0.244695</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.347151</v>
+        <v>0.34734</v>
       </c>
       <c r="C39" t="n">
-        <v>0.225934</v>
+        <v>0.219248</v>
       </c>
       <c r="D39" t="n">
-        <v>0.257203</v>
+        <v>0.242123</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.341354</v>
+        <v>0.341392</v>
       </c>
       <c r="C40" t="n">
-        <v>0.222998</v>
+        <v>0.216413</v>
       </c>
       <c r="D40" t="n">
-        <v>0.255624</v>
+        <v>0.241</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.33443</v>
+        <v>0.3343</v>
       </c>
       <c r="C41" t="n">
-        <v>0.219678</v>
+        <v>0.212061</v>
       </c>
       <c r="D41" t="n">
-        <v>0.253719</v>
+        <v>0.239986</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.327097</v>
+        <v>0.327308</v>
       </c>
       <c r="C42" t="n">
-        <v>0.217902</v>
+        <v>0.210228</v>
       </c>
       <c r="D42" t="n">
-        <v>0.252774</v>
+        <v>0.239089</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.319619</v>
+        <v>0.319975</v>
       </c>
       <c r="C43" t="n">
-        <v>0.216853</v>
+        <v>0.208728</v>
       </c>
       <c r="D43" t="n">
-        <v>0.251391</v>
+        <v>0.237889</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.310663</v>
+        <v>0.310987</v>
       </c>
       <c r="C44" t="n">
-        <v>0.215549</v>
+        <v>0.207268</v>
       </c>
       <c r="D44" t="n">
-        <v>0.249658</v>
+        <v>0.236631</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.301771</v>
+        <v>0.302209</v>
       </c>
       <c r="C45" t="n">
-        <v>0.214967</v>
+        <v>0.206563</v>
       </c>
       <c r="D45" t="n">
-        <v>0.248896</v>
+        <v>0.235534</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.290988</v>
+        <v>0.291598</v>
       </c>
       <c r="C46" t="n">
-        <v>0.214396</v>
+        <v>0.205874</v>
       </c>
       <c r="D46" t="n">
-        <v>0.247524</v>
+        <v>0.234581</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.279853</v>
+        <v>0.280574</v>
       </c>
       <c r="C47" t="n">
-        <v>0.213978</v>
+        <v>0.205192</v>
       </c>
       <c r="D47" t="n">
-        <v>0.246508</v>
+        <v>0.233797</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.268655</v>
+        <v>0.26924</v>
       </c>
       <c r="C48" t="n">
-        <v>0.212935</v>
+        <v>0.204028</v>
       </c>
       <c r="D48" t="n">
-        <v>0.246118</v>
+        <v>0.233146</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.256205</v>
+        <v>0.256448</v>
       </c>
       <c r="C49" t="n">
-        <v>0.212515</v>
+        <v>0.203559</v>
       </c>
       <c r="D49" t="n">
-        <v>0.245642</v>
+        <v>0.232764</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.242399</v>
+        <v>0.242589</v>
       </c>
       <c r="C50" t="n">
-        <v>0.212723</v>
+        <v>0.203225</v>
       </c>
       <c r="D50" t="n">
-        <v>0.246587</v>
+        <v>0.232819</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.227029</v>
+        <v>0.22735</v>
       </c>
       <c r="C51" t="n">
-        <v>0.212663</v>
+        <v>0.202865</v>
       </c>
       <c r="D51" t="n">
-        <v>0.261773</v>
+        <v>0.247067</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.209874</v>
+        <v>0.210281</v>
       </c>
       <c r="C52" t="n">
-        <v>0.212273</v>
+        <v>0.202366</v>
       </c>
       <c r="D52" t="n">
-        <v>0.25841</v>
+        <v>0.244309</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.350202</v>
+        <v>0.350545</v>
       </c>
       <c r="C53" t="n">
-        <v>0.224935</v>
+        <v>0.216087</v>
       </c>
       <c r="D53" t="n">
-        <v>0.256426</v>
+        <v>0.24268</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.344479</v>
+        <v>0.344961</v>
       </c>
       <c r="C54" t="n">
-        <v>0.222635</v>
+        <v>0.213093</v>
       </c>
       <c r="D54" t="n">
-        <v>0.255101</v>
+        <v>0.241131</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.338272</v>
+        <v>0.338801</v>
       </c>
       <c r="C55" t="n">
-        <v>0.219574</v>
+        <v>0.211011</v>
       </c>
       <c r="D55" t="n">
-        <v>0.253665</v>
+        <v>0.240046</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.331061</v>
+        <v>0.331121</v>
       </c>
       <c r="C56" t="n">
-        <v>0.218068</v>
+        <v>0.209899</v>
       </c>
       <c r="D56" t="n">
-        <v>0.251796</v>
+        <v>0.238577</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.323028</v>
+        <v>0.323075</v>
       </c>
       <c r="C57" t="n">
-        <v>0.216735</v>
+        <v>0.208369</v>
       </c>
       <c r="D57" t="n">
-        <v>0.250549</v>
+        <v>0.237663</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.314464</v>
+        <v>0.314424</v>
       </c>
       <c r="C58" t="n">
-        <v>0.215648</v>
+        <v>0.207301</v>
       </c>
       <c r="D58" t="n">
-        <v>0.249031</v>
+        <v>0.236861</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.305407</v>
+        <v>0.305774</v>
       </c>
       <c r="C59" t="n">
-        <v>0.21449</v>
+        <v>0.206008</v>
       </c>
       <c r="D59" t="n">
-        <v>0.248026</v>
+        <v>0.236036</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.295253</v>
+        <v>0.295622</v>
       </c>
       <c r="C60" t="n">
-        <v>0.213727</v>
+        <v>0.205224</v>
       </c>
       <c r="D60" t="n">
-        <v>0.247073</v>
+        <v>0.235088</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.284012</v>
+        <v>0.284364</v>
       </c>
       <c r="C61" t="n">
-        <v>0.213282</v>
+        <v>0.204579</v>
       </c>
       <c r="D61" t="n">
-        <v>0.246439</v>
+        <v>0.234407</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272242</v>
+        <v>0.272827</v>
       </c>
       <c r="C62" t="n">
-        <v>0.212496</v>
+        <v>0.203714</v>
       </c>
       <c r="D62" t="n">
-        <v>0.245672</v>
+        <v>0.233724</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.259324</v>
+        <v>0.260088</v>
       </c>
       <c r="C63" t="n">
-        <v>0.212</v>
+        <v>0.203188</v>
       </c>
       <c r="D63" t="n">
-        <v>0.244475</v>
+        <v>0.233113</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.245834</v>
+        <v>0.246135</v>
       </c>
       <c r="C64" t="n">
-        <v>0.211923</v>
+        <v>0.202741</v>
       </c>
       <c r="D64" t="n">
-        <v>0.244297</v>
+        <v>0.232448</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.230222</v>
+        <v>0.23085</v>
       </c>
       <c r="C65" t="n">
-        <v>0.211667</v>
+        <v>0.202264</v>
       </c>
       <c r="D65" t="n">
-        <v>0.243281</v>
+        <v>0.232011</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.213866</v>
+        <v>0.214221</v>
       </c>
       <c r="C66" t="n">
-        <v>0.211872</v>
+        <v>0.202021</v>
       </c>
       <c r="D66" t="n">
-        <v>0.259417</v>
+        <v>0.245627</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.352355</v>
+        <v>0.35255</v>
       </c>
       <c r="C67" t="n">
-        <v>0.226376</v>
+        <v>0.217937</v>
       </c>
       <c r="D67" t="n">
-        <v>0.257</v>
+        <v>0.2434</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.347027</v>
+        <v>0.347262</v>
       </c>
       <c r="C68" t="n">
-        <v>0.222504</v>
+        <v>0.213891</v>
       </c>
       <c r="D68" t="n">
-        <v>0.254958</v>
+        <v>0.241662</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.340773</v>
+        <v>0.34109</v>
       </c>
       <c r="C69" t="n">
-        <v>0.219793</v>
+        <v>0.21142</v>
       </c>
       <c r="D69" t="n">
-        <v>0.253278</v>
+        <v>0.240298</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.333781</v>
+        <v>0.333995</v>
       </c>
       <c r="C70" t="n">
-        <v>0.217798</v>
+        <v>0.20959</v>
       </c>
       <c r="D70" t="n">
-        <v>0.251706</v>
+        <v>0.239066</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.325756</v>
+        <v>0.325703</v>
       </c>
       <c r="C71" t="n">
-        <v>0.216629</v>
+        <v>0.208499</v>
       </c>
       <c r="D71" t="n">
-        <v>0.25066</v>
+        <v>0.238363</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.316804</v>
+        <v>0.317254</v>
       </c>
       <c r="C72" t="n">
-        <v>0.215522</v>
+        <v>0.207249</v>
       </c>
       <c r="D72" t="n">
-        <v>0.249734</v>
+        <v>0.237526</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.307634</v>
+        <v>0.30807</v>
       </c>
       <c r="C73" t="n">
-        <v>0.214621</v>
+        <v>0.206237</v>
       </c>
       <c r="D73" t="n">
-        <v>0.248226</v>
+        <v>0.236154</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.297768</v>
+        <v>0.29805</v>
       </c>
       <c r="C74" t="n">
-        <v>0.213971</v>
+        <v>0.205613</v>
       </c>
       <c r="D74" t="n">
-        <v>0.247571</v>
+        <v>0.235438</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.286786</v>
+        <v>0.287393</v>
       </c>
       <c r="C75" t="n">
-        <v>0.213301</v>
+        <v>0.204831</v>
       </c>
       <c r="D75" t="n">
-        <v>0.246831</v>
+        <v>0.234937</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.275443</v>
+        <v>0.276404</v>
       </c>
       <c r="C76" t="n">
-        <v>0.212872</v>
+        <v>0.204256</v>
       </c>
       <c r="D76" t="n">
-        <v>0.245511</v>
+        <v>0.234084</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.263052</v>
+        <v>0.263682</v>
       </c>
       <c r="C77" t="n">
-        <v>0.212202</v>
+        <v>0.203532</v>
       </c>
       <c r="D77" t="n">
-        <v>0.244979</v>
+        <v>0.233355</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.24931</v>
+        <v>0.250013</v>
       </c>
       <c r="C78" t="n">
-        <v>0.211922</v>
+        <v>0.202929</v>
       </c>
       <c r="D78" t="n">
-        <v>0.244156</v>
+        <v>0.232654</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.234599</v>
+        <v>0.234954</v>
       </c>
       <c r="C79" t="n">
-        <v>0.21206</v>
+        <v>0.202495</v>
       </c>
       <c r="D79" t="n">
-        <v>0.244185</v>
+        <v>0.232458</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.218343</v>
+        <v>0.21885</v>
       </c>
       <c r="C80" t="n">
-        <v>0.211904</v>
+        <v>0.20234</v>
       </c>
       <c r="D80" t="n">
-        <v>0.259995</v>
+        <v>0.245803</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.35365</v>
+        <v>0.354003</v>
       </c>
       <c r="C81" t="n">
-        <v>0.225756</v>
+        <v>0.217852</v>
       </c>
       <c r="D81" t="n">
-        <v>0.25765</v>
+        <v>0.243888</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.348332</v>
+        <v>0.348591</v>
       </c>
       <c r="C82" t="n">
-        <v>0.221966</v>
+        <v>0.213972</v>
       </c>
       <c r="D82" t="n">
-        <v>0.255613</v>
+        <v>0.24216</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.341868</v>
+        <v>0.34218</v>
       </c>
       <c r="C83" t="n">
-        <v>0.219591</v>
+        <v>0.211485</v>
       </c>
       <c r="D83" t="n">
-        <v>0.253848</v>
+        <v>0.240567</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.334835</v>
+        <v>0.335325</v>
       </c>
       <c r="C84" t="n">
-        <v>0.21772</v>
+        <v>0.209758</v>
       </c>
       <c r="D84" t="n">
-        <v>0.25259</v>
+        <v>0.239504</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.327207</v>
+        <v>0.327746</v>
       </c>
       <c r="C85" t="n">
-        <v>0.216787</v>
+        <v>0.208818</v>
       </c>
       <c r="D85" t="n">
-        <v>0.251278</v>
+        <v>0.238402</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.318886</v>
+        <v>0.319366</v>
       </c>
       <c r="C86" t="n">
-        <v>0.215819</v>
+        <v>0.207682</v>
       </c>
       <c r="D86" t="n">
-        <v>0.250096</v>
+        <v>0.237281</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.309753</v>
+        <v>0.310263</v>
       </c>
       <c r="C87" t="n">
-        <v>0.21478</v>
+        <v>0.206518</v>
       </c>
       <c r="D87" t="n">
-        <v>0.248622</v>
+        <v>0.236353</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.30008</v>
+        <v>0.30053</v>
       </c>
       <c r="C88" t="n">
-        <v>0.214074</v>
+        <v>0.205701</v>
       </c>
       <c r="D88" t="n">
-        <v>0.247511</v>
+        <v>0.23538</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.289532</v>
+        <v>0.290138</v>
       </c>
       <c r="C89" t="n">
-        <v>0.2133</v>
+        <v>0.204923</v>
       </c>
       <c r="D89" t="n">
-        <v>0.246643</v>
+        <v>0.234759</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.277821</v>
+        <v>0.278505</v>
       </c>
       <c r="C90" t="n">
-        <v>0.212796</v>
+        <v>0.204227</v>
       </c>
       <c r="D90" t="n">
-        <v>0.245828</v>
+        <v>0.234161</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.265404</v>
+        <v>0.265812</v>
       </c>
       <c r="C91" t="n">
-        <v>0.212343</v>
+        <v>0.203672</v>
       </c>
       <c r="D91" t="n">
-        <v>0.245064</v>
+        <v>0.233425</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.252047</v>
+        <v>0.252572</v>
       </c>
       <c r="C92" t="n">
-        <v>0.212011</v>
+        <v>0.20306</v>
       </c>
       <c r="D92" t="n">
-        <v>0.244351</v>
+        <v>0.232938</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.237843</v>
+        <v>0.238244</v>
       </c>
       <c r="C93" t="n">
-        <v>0.2116</v>
+        <v>0.202519</v>
       </c>
       <c r="D93" t="n">
-        <v>0.243986</v>
+        <v>0.232539</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.221906</v>
+        <v>0.222153</v>
       </c>
       <c r="C94" t="n">
-        <v>0.211538</v>
+        <v>0.202239</v>
       </c>
       <c r="D94" t="n">
-        <v>0.261651</v>
+        <v>0.246792</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.354836</v>
+        <v>0.355117</v>
       </c>
       <c r="C95" t="n">
-        <v>0.226512</v>
+        <v>0.21911</v>
       </c>
       <c r="D95" t="n">
-        <v>0.258493</v>
+        <v>0.244263</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.349821</v>
+        <v>0.350164</v>
       </c>
       <c r="C96" t="n">
-        <v>0.223141</v>
+        <v>0.215532</v>
       </c>
       <c r="D96" t="n">
-        <v>0.256392</v>
+        <v>0.24246</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.343721</v>
+        <v>0.344036</v>
       </c>
       <c r="C97" t="n">
-        <v>0.220907</v>
+        <v>0.212601</v>
       </c>
       <c r="D97" t="n">
-        <v>0.254517</v>
+        <v>0.241045</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.336898</v>
+        <v>0.337295</v>
       </c>
       <c r="C98" t="n">
-        <v>0.218547</v>
+        <v>0.210589</v>
       </c>
       <c r="D98" t="n">
-        <v>0.253055</v>
+        <v>0.239826</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.329334</v>
+        <v>0.329514</v>
       </c>
       <c r="C99" t="n">
-        <v>0.217302</v>
+        <v>0.209218</v>
       </c>
       <c r="D99" t="n">
-        <v>0.251736</v>
+        <v>0.238831</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.321032</v>
+        <v>0.321441</v>
       </c>
       <c r="C100" t="n">
-        <v>0.216076</v>
+        <v>0.20792</v>
       </c>
       <c r="D100" t="n">
-        <v>0.250534</v>
+        <v>0.237758</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.311993</v>
+        <v>0.312378</v>
       </c>
       <c r="C101" t="n">
-        <v>0.215109</v>
+        <v>0.206848</v>
       </c>
       <c r="D101" t="n">
-        <v>0.249269</v>
+        <v>0.236728</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.302188</v>
+        <v>0.302752</v>
       </c>
       <c r="C102" t="n">
-        <v>0.214282</v>
+        <v>0.206036</v>
       </c>
       <c r="D102" t="n">
-        <v>0.248305</v>
+        <v>0.235827</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.291819</v>
+        <v>0.29229</v>
       </c>
       <c r="C103" t="n">
-        <v>0.213544</v>
+        <v>0.205175</v>
       </c>
       <c r="D103" t="n">
-        <v>0.247099</v>
+        <v>0.235064</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.28032</v>
+        <v>0.281004</v>
       </c>
       <c r="C104" t="n">
-        <v>0.212927</v>
+        <v>0.204386</v>
       </c>
       <c r="D104" t="n">
-        <v>0.246316</v>
+        <v>0.234488</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.268346</v>
+        <v>0.269084</v>
       </c>
       <c r="C105" t="n">
-        <v>0.212372</v>
+        <v>0.203824</v>
       </c>
       <c r="D105" t="n">
-        <v>0.245266</v>
+        <v>0.233732</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.255197</v>
+        <v>0.255639</v>
       </c>
       <c r="C106" t="n">
-        <v>0.211884</v>
+        <v>0.203162</v>
       </c>
       <c r="D106" t="n">
-        <v>0.244531</v>
+        <v>0.233098</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.241073</v>
+        <v>0.241409</v>
       </c>
       <c r="C107" t="n">
-        <v>0.211575</v>
+        <v>0.202678</v>
       </c>
       <c r="D107" t="n">
-        <v>0.243909</v>
+        <v>0.232618</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.225984</v>
+        <v>0.225824</v>
       </c>
       <c r="C108" t="n">
-        <v>0.211329</v>
+        <v>0.202305</v>
       </c>
       <c r="D108" t="n">
-        <v>0.26213</v>
+        <v>0.246832</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.209364</v>
+        <v>0.209165</v>
       </c>
       <c r="C109" t="n">
-        <v>0.211224</v>
+        <v>0.20201</v>
       </c>
       <c r="D109" t="n">
-        <v>0.25953</v>
+        <v>0.244586</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.350628</v>
+        <v>0.351078</v>
       </c>
       <c r="C110" t="n">
-        <v>0.223296</v>
+        <v>0.215657</v>
       </c>
       <c r="D110" t="n">
-        <v>0.257386</v>
+        <v>0.242892</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.344928</v>
+        <v>0.34516</v>
       </c>
       <c r="C111" t="n">
-        <v>0.220722</v>
+        <v>0.212982</v>
       </c>
       <c r="D111" t="n">
-        <v>0.255267</v>
+        <v>0.241281</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.338239</v>
+        <v>0.33847</v>
       </c>
       <c r="C112" t="n">
-        <v>0.218917</v>
+        <v>0.211021</v>
       </c>
       <c r="D112" t="n">
-        <v>0.253671</v>
+        <v>0.240056</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.330918</v>
+        <v>0.331022</v>
       </c>
       <c r="C113" t="n">
-        <v>0.217353</v>
+        <v>0.209355</v>
       </c>
       <c r="D113" t="n">
-        <v>0.252424</v>
+        <v>0.238897</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.322893</v>
+        <v>0.322906</v>
       </c>
       <c r="C114" t="n">
-        <v>0.216304</v>
+        <v>0.208168</v>
       </c>
       <c r="D114" t="n">
-        <v>0.250926</v>
+        <v>0.237829</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.31412</v>
+        <v>0.313911</v>
       </c>
       <c r="C115" t="n">
-        <v>0.215261</v>
+        <v>0.207088</v>
       </c>
       <c r="D115" t="n">
-        <v>0.250499</v>
+        <v>0.237039</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.304536</v>
+        <v>0.304468</v>
       </c>
       <c r="C116" t="n">
-        <v>0.21451</v>
+        <v>0.206214</v>
       </c>
       <c r="D116" t="n">
-        <v>0.249356</v>
+        <v>0.236519</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.294182</v>
+        <v>0.294112</v>
       </c>
       <c r="C117" t="n">
-        <v>0.214192</v>
+        <v>0.205303</v>
       </c>
       <c r="D117" t="n">
-        <v>0.248039</v>
+        <v>0.235575</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.283354</v>
+        <v>0.283096</v>
       </c>
       <c r="C118" t="n">
-        <v>0.213627</v>
+        <v>0.205034</v>
       </c>
       <c r="D118" t="n">
-        <v>0.246858</v>
+        <v>0.234915</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.271241</v>
+        <v>0.271144</v>
       </c>
       <c r="C119" t="n">
-        <v>0.21297</v>
+        <v>0.204257</v>
       </c>
       <c r="D119" t="n">
-        <v>0.246357</v>
+        <v>0.234247</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.25843</v>
+        <v>0.25854</v>
       </c>
       <c r="C120" t="n">
-        <v>0.212518</v>
+        <v>0.203687</v>
       </c>
       <c r="D120" t="n">
-        <v>0.245156</v>
+        <v>0.233661</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.244497</v>
+        <v>0.24446</v>
       </c>
       <c r="C121" t="n">
-        <v>0.212174</v>
+        <v>0.203161</v>
       </c>
       <c r="D121" t="n">
-        <v>0.245048</v>
+        <v>0.233157</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.229551</v>
+        <v>0.229395</v>
       </c>
       <c r="C122" t="n">
-        <v>0.212258</v>
+        <v>0.202666</v>
       </c>
       <c r="D122" t="n">
-        <v>0.244398</v>
+        <v>0.232913</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.212962</v>
+        <v>0.212676</v>
       </c>
       <c r="C123" t="n">
-        <v>0.211766</v>
+        <v>0.202329</v>
       </c>
       <c r="D123" t="n">
-        <v>0.260131</v>
+        <v>0.244996</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.351924</v>
+        <v>0.351935</v>
       </c>
       <c r="C124" t="n">
-        <v>0.224451</v>
+        <v>0.216697</v>
       </c>
       <c r="D124" t="n">
-        <v>0.258159</v>
+        <v>0.24325</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.346204</v>
+        <v>0.346134</v>
       </c>
       <c r="C125" t="n">
-        <v>0.221429</v>
+        <v>0.213588</v>
       </c>
       <c r="D125" t="n">
-        <v>0.256438</v>
+        <v>0.241664</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.33962</v>
+        <v>0.339449</v>
       </c>
       <c r="C126" t="n">
-        <v>0.219517</v>
+        <v>0.211516</v>
       </c>
       <c r="D126" t="n">
-        <v>0.254684</v>
+        <v>0.240228</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.332455</v>
+        <v>0.332233</v>
       </c>
       <c r="C127" t="n">
-        <v>0.217861</v>
+        <v>0.209853</v>
       </c>
       <c r="D127" t="n">
-        <v>0.253147</v>
+        <v>0.239039</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.324407</v>
+        <v>0.32419</v>
       </c>
       <c r="C128" t="n">
-        <v>0.216523</v>
+        <v>0.208435</v>
       </c>
       <c r="D128" t="n">
-        <v>0.251872</v>
+        <v>0.237961</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.31577</v>
+        <v>0.315477</v>
       </c>
       <c r="C129" t="n">
-        <v>0.215508</v>
+        <v>0.207236</v>
       </c>
       <c r="D129" t="n">
-        <v>0.250459</v>
+        <v>0.237009</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.306337</v>
+        <v>0.306091</v>
       </c>
       <c r="C130" t="n">
-        <v>0.214691</v>
+        <v>0.206341</v>
       </c>
       <c r="D130" t="n">
-        <v>0.249279</v>
+        <v>0.236088</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.295984</v>
+        <v>0.295952</v>
       </c>
       <c r="C131" t="n">
-        <v>0.213946</v>
+        <v>0.205477</v>
       </c>
